--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.176173</v>
+                  <v>0.170668</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.170454</v>
+                  <v>0.164843</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16664</v>
+                  <v>0.165379</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.162842</v>
+                  <v>0.150997</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.15949</v>
+                  <v>0.152331</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.157601</v>
+                  <v>0.149768</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.157526</v>
+                  <v>0.152588</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.158158</v>
+                  <v>0.154628</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224312</v>
+                  <v>0.221009</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216303</v>
+                  <v>0.212625</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20828</v>
+                  <v>0.211566</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.199434</v>
+                  <v>0.195441</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.192234</v>
+                  <v>0.194947</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186342</v>
+                  <v>0.186434</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.179839</v>
+                  <v>0.178351</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174481</v>
+                  <v>0.173591</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.169736</v>
+                  <v>0.168205</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164781</v>
+                  <v>0.16688</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.161275</v>
+                  <v>0.159624</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1601</v>
+                  <v>0.158982</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.160533</v>
+                  <v>0.157925</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.161606</v>
+                  <v>0.157835</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244449</v>
+                  <v>0.235187</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234816</v>
+                  <v>0.234979</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.226429</v>
+                  <v>0.222812</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.217678</v>
+                  <v>0.212721</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.209945</v>
+                  <v>0.204469</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.203289</v>
+                  <v>0.19605</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196451</v>
+                  <v>0.192526</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190226</v>
+                  <v>0.179359</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187762</v>
+                  <v>0.182408</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.183073</v>
+                  <v>0.173725</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.179351</v>
+                  <v>0.172037</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.174756</v>
+                  <v>0.170274</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.174169</v>
+                  <v>0.163399</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.174738</v>
+                  <v>0.165498</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.249169</v>
+                  <v>0.243844</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.239482</v>
+                  <v>0.23535</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230602</v>
+                  <v>0.226636</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218626</v>
+                  <v>0.217798</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210872</v>
+                  <v>0.210594</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203724</v>
+                  <v>0.203038</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196883</v>
+                  <v>0.200194</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.191412</v>
+                  <v>0.194085</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.18555</v>
+                  <v>0.189659</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.181005</v>
+                  <v>0.184056</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.177226</v>
+                  <v>0.179376</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174961</v>
+                  <v>0.176819</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173021</v>
+                  <v>0.175946</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173452</v>
+                  <v>0.176716</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.17753</v>
+                  <v>0.179499</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.24268</v>
+                  <v>0.246194</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233963</v>
+                  <v>0.236625</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.2252</v>
+                  <v>0.228535</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.217991</v>
+                  <v>0.220311</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.209943</v>
+                  <v>0.212764</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.203009</v>
+                  <v>0.205025</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.196908</v>
+                  <v>0.198959</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.191258</v>
+                  <v>0.193449</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.18607</v>
+                  <v>0.188205</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182011</v>
+                  <v>0.182403</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178467</v>
+                  <v>0.179269</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177595</v>
+                  <v>0.177012</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177299</v>
+                  <v>0.177729</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180167</v>
+                  <v>0.180358</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244646</v>
+                  <v>0.244029</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235989</v>
+                  <v>0.236519</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228156</v>
+                  <v>0.228133</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220387</v>
+                  <v>0.220467</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212482</v>
+                  <v>0.212274</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205975</v>
+                  <v>0.205977</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200613</v>
+                  <v>0.199758</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.194739</v>
+                  <v>0.19413</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.189617</v>
+                  <v>0.188413</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184908</v>
+                  <v>0.184215</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181292</v>
+                  <v>0.181004</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178826</v>
+                  <v>0.178894</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179163</v>
+                  <v>0.17897</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.181138</v>
+                  <v>0.180581</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257644</v>
+                  <v>0.256846</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.249569</v>
+                  <v>0.250364</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.241893</v>
+                  <v>0.24198</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.234751</v>
+                  <v>0.233548</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.226978</v>
+                  <v>0.227319</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219799</v>
+                  <v>0.219364</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213375</v>
+                  <v>0.213434</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207166</v>
+                  <v>0.207721</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201474</v>
+                  <v>0.201258</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19677</v>
+                  <v>0.19653</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192537</v>
+                  <v>0.192528</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189582</v>
+                  <v>0.189688</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188357</v>
+                  <v>0.188619</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18918</v>
+                  <v>0.189627</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.26912</v>
+                  <v>0.270145</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263515</v>
+                  <v>0.264648</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258001</v>
+                  <v>0.257315</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251707</v>
+                  <v>0.250563</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.244324</v>
+                  <v>0.24473</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.237919</v>
+                  <v>0.238846</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232212</v>
+                  <v>0.232631</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227439</v>
+                  <v>0.227556</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221821</v>
+                  <v>0.222112</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217357</v>
+                  <v>0.217608</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213424</v>
+                  <v>0.213903</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210226</v>
+                  <v>0.21037</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.207964</v>
+                  <v>0.208235</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207921</v>
+                  <v>0.208631</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209559</v>
+                  <v>0.210884</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.283981</v>
+                  <v>0.284085</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277131</v>
+                  <v>0.277325</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.270794</v>
+                  <v>0.271154</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.264867</v>
+                  <v>0.265253</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259794</v>
+                  <v>0.259777</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.253954</v>
+                  <v>0.254644</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.24921</v>
+                  <v>0.250128</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.244865</v>
+                  <v>0.245359</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.240339</v>
+                  <v>0.241561</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.236998</v>
+                  <v>0.23764</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.233953</v>
+                  <v>0.234284</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231224</v>
+                  <v>0.231834</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.230513</v>
+                  <v>0.231043</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.231737</v>
+                  <v>0.232245</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319243</v>
+                  <v>0.315814</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.313506</v>
+                  <v>0.310851</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.307885</v>
+                  <v>0.306028</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.302012</v>
+                  <v>0.299753</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.296555</v>
+                  <v>0.294531</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291959</v>
+                  <v>0.289946</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.287332</v>
+                  <v>0.285871</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.283552</v>
+                  <v>0.28194</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.279594</v>
+                  <v>0.278146</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.276526</v>
+                  <v>0.275044</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.273541</v>
+                  <v>0.27231</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.271458</v>
+                  <v>0.270276</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.271185</v>
+                  <v>0.26913</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.271892</v>
+                  <v>0.270188</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.37228</v>
+                  <v>0.360478</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.367218</v>
+                  <v>0.354977</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.360389</v>
+                  <v>0.350567</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.354692</v>
+                  <v>0.345151</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.350179</v>
+                  <v>0.34072</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.345269</v>
+                  <v>0.335998</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185496</v>
+                  <v>0.136461</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17914</v>
+                  <v>0.143885</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.170524</v>
+                  <v>0.138416</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.169499</v>
+                  <v>0.131866</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.149657</v>
+                  <v>0.128733</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.161619</v>
+                  <v>0.125371</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160816</v>
+                  <v>0.119173</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.161312</v>
+                  <v>0.119054</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.237105</v>
+                  <v>0.199755</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225645</v>
+                  <v>0.194893</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217736</v>
+                  <v>0.186611</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210439</v>
+                  <v>0.180929</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.202388</v>
+                  <v>0.171719</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.195072</v>
+                  <v>0.164359</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.188701</v>
+                  <v>0.159604</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.182715</v>
+                  <v>0.156142</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.178189</v>
+                  <v>0.148751</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.173444</v>
+                  <v>0.145812</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.169013</v>
+                  <v>0.141893</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.16628</v>
+                  <v>0.140321</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.16432</v>
+                  <v>0.138166</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164868</v>
+                  <v>0.138866</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244335</v>
+                  <v>0.22216</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234904</v>
+                  <v>0.214043</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227016</v>
+                  <v>0.202789</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218274</v>
+                  <v>0.194749</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211272</v>
+                  <v>0.188153</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.204111</v>
+                  <v>0.180718</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196912</v>
+                  <v>0.174444</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190547</v>
+                  <v>0.168821</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187527</v>
+                  <v>0.162937</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.182838</v>
+                  <v>0.157914</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.180848</v>
+                  <v>0.153826</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.17426</v>
+                  <v>0.150082</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.172159</v>
+                  <v>0.147894</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171778</v>
+                  <v>0.146972</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256269</v>
+                  <v>0.223466</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.246739</v>
+                  <v>0.214588</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.23547</v>
+                  <v>0.206551</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225397</v>
+                  <v>0.198601</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.217593</v>
+                  <v>0.191216</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.209907</v>
+                  <v>0.18396</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.202922</v>
+                  <v>0.180497</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.196554</v>
+                  <v>0.174746</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.190564</v>
+                  <v>0.168726</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.185285</v>
+                  <v>0.16349</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.180769</v>
+                  <v>0.159218</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.177066</v>
+                  <v>0.155587</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.174203</v>
+                  <v>0.153056</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173722</v>
+                  <v>0.151411</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.175298</v>
+                  <v>0.152255</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.251635</v>
+                  <v>0.223567</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.242034</v>
+                  <v>0.215128</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.233004</v>
+                  <v>0.206602</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225257</v>
+                  <v>0.199106</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217553</v>
+                  <v>0.191861</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.209839</v>
+                  <v>0.184943</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.202907</v>
+                  <v>0.178332</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.197025</v>
+                  <v>0.172886</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.1914</v>
+                  <v>0.167693</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.186386</v>
+                  <v>0.160526</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.182207</v>
+                  <v>0.156473</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.179104</v>
+                  <v>0.15361</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177727</v>
+                  <v>0.151918</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178898</v>
+                  <v>0.152658</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.260092</v>
+                  <v>0.228151</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.251907</v>
+                  <v>0.219456</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241291</v>
+                  <v>0.21135</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.232729</v>
+                  <v>0.203187</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224656</v>
+                  <v>0.195914</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216811</v>
+                  <v>0.188766</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.20989</v>
+                  <v>0.182265</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.203254</v>
+                  <v>0.176143</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.19737</v>
+                  <v>0.170713</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.192268</v>
+                  <v>0.165631</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.187689</v>
+                  <v>0.161469</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.184139</v>
+                  <v>0.158217</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.182458</v>
+                  <v>0.156204</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.182405</v>
+                  <v>0.156222</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.263051</v>
+                  <v>0.230333</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.254497</v>
+                  <v>0.222566</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245979</v>
+                  <v>0.214771</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.237991</v>
+                  <v>0.207566</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.229829</v>
+                  <v>0.200837</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222655</v>
+                  <v>0.19364</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215492</v>
+                  <v>0.188096</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208861</v>
+                  <v>0.181911</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.202819</v>
+                  <v>0.176008</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197551</v>
+                  <v>0.171451</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.19288</v>
+                  <v>0.166593</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189225</v>
+                  <v>0.163878</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.186981</v>
+                  <v>0.160923</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18652</v>
+                  <v>0.160238</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.279398</v>
+                  <v>0.248401</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.272839</v>
+                  <v>0.240463</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.265664</v>
+                  <v>0.232944</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.25832</v>
+                  <v>0.225805</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.251327</v>
+                  <v>0.22678</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.243832</v>
+                  <v>0.212444</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.237699</v>
+                  <v>0.206497</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.231533</v>
+                  <v>0.201607</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.225275</v>
+                  <v>0.195129</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.221074</v>
+                  <v>0.189518</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.215871</v>
+                  <v>0.186515</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212823</v>
+                  <v>0.18283</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.211155</v>
+                  <v>0.18042</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.210494</v>
+                  <v>0.179433</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.212712</v>
+                  <v>0.181014</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.296635</v>
+                  <v>0.260856</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.289079</v>
+                  <v>0.252951</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.281344</v>
+                  <v>0.245756</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.274607</v>
+                  <v>0.239063</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.268304</v>
+                  <v>0.232542</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.26231</v>
+                  <v>0.226357</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256897</v>
+                  <v>0.221257</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.251768</v>
+                  <v>0.217762</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.247624</v>
+                  <v>0.212853</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.243795</v>
+                  <v>0.208819</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.240537</v>
+                  <v>0.20483</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.237909</v>
+                  <v>0.201751</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237154</v>
+                  <v>0.200686</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.238699</v>
+                  <v>0.200643</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.324651</v>
+                  <v>0.284238</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.318184</v>
+                  <v>0.278287</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.312519</v>
+                  <v>0.268032</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.307125</v>
+                  <v>0.262246</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.302006</v>
+                  <v>0.2563</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.29769</v>
+                  <v>0.25157</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.293184</v>
+                  <v>0.247088</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28978</v>
+                  <v>0.242605</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.286402</v>
+                  <v>0.238676</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.283895</v>
+                  <v>0.235063</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.281675</v>
+                  <v>0.231818</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.280269</v>
+                  <v>0.229352</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.280711</v>
+                  <v>0.227891</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.282617</v>
+                  <v>0.22831</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.382259</v>
+                  <v>0.321523</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37477</v>
+                  <v>0.315351</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.368197</v>
+                  <v>0.309742</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.362373</v>
+                  <v>0.304011</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.35649</v>
+                  <v>0.29869</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.35135</v>
+                  <v>0.29374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.177535</v>
+                  <v>0.134178</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17311</v>
+                  <v>0.131948</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.162867</v>
+                  <v>0.136503</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.164279</v>
+                  <v>0.127659</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160258</v>
+                  <v>0.126491</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149896</v>
+                  <v>0.127377</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.158577</v>
+                  <v>0.120481</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.234336</v>
+                  <v>0.189804</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224925</v>
+                  <v>0.193076</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216883</v>
+                  <v>0.185771</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20972</v>
+                  <v>0.175595</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.201848</v>
+                  <v>0.170808</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194494</v>
+                  <v>0.163676</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.187921</v>
+                  <v>0.15658</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.182167</v>
+                  <v>0.15111</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.177316</v>
+                  <v>0.147927</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.171691</v>
+                  <v>0.144277</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.168023</v>
+                  <v>0.141029</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165471</v>
+                  <v>0.138444</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163669</v>
+                  <v>0.136899</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163704</v>
+                  <v>0.138731</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.242678</v>
+                  <v>0.22524</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235687</v>
+                  <v>0.217581</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.22455</v>
+                  <v>0.205227</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.218977</v>
+                  <v>0.196362</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.21035</v>
+                  <v>0.189144</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.203212</v>
+                  <v>0.18136</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.195416</v>
+                  <v>0.175284</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.188549</v>
+                  <v>0.170321</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.18509</v>
+                  <v>0.162701</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182046</v>
+                  <v>0.159519</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179224</v>
+                  <v>0.153345</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.177848</v>
+                  <v>0.150314</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.173541</v>
+                  <v>0.149603</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.169102</v>
+                  <v>0.148604</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.254042</v>
+                  <v>0.230138</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.259149</v>
+                  <v>0.221941</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236306</v>
+                  <v>0.212902</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.222767</v>
+                  <v>0.202745</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.216405</v>
+                  <v>0.197872</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.208142</v>
+                  <v>0.189578</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.201677</v>
+                  <v>0.181192</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.195548</v>
+                  <v>0.178348</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.189056</v>
+                  <v>0.172191</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.182624</v>
+                  <v>0.16614</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.178156</v>
+                  <v>0.161458</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.174608</v>
+                  <v>0.158505</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.171633</v>
+                  <v>0.156259</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.170934</v>
+                  <v>0.155863</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.255758</v>
+                  <v>0.240125</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.247302</v>
+                  <v>0.228307</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.23943</v>
+                  <v>0.222098</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.22978</v>
+                  <v>0.213257</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.220805</v>
+                  <v>0.204699</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.213086</v>
+                  <v>0.197271</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.206423</v>
+                  <v>0.189954</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.199202</v>
+                  <v>0.182964</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.193161</v>
+                  <v>0.176915</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.188345</v>
+                  <v>0.172102</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.183701</v>
+                  <v>0.167281</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.179105</v>
+                  <v>0.161153</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.175983</v>
+                  <v>0.158454</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.175207</v>
+                  <v>0.157323</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176868</v>
+                  <v>0.158629</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.255168</v>
+                  <v>0.235154</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.245687</v>
+                  <v>0.225864</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235894</v>
+                  <v>0.218407</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228449</v>
+                  <v>0.209007</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220252</v>
+                  <v>0.201152</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212395</v>
+                  <v>0.19372</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205789</v>
+                  <v>0.186741</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.198979</v>
+                  <v>0.180491</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.193168</v>
+                  <v>0.174783</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.187939</v>
+                  <v>0.169469</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183439</v>
+                  <v>0.165683</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.179541</v>
+                  <v>0.162247</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.179061</v>
+                  <v>0.160468</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179082</v>
+                  <v>0.161441</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.259911</v>
+                  <v>0.238856</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251563</v>
+                  <v>0.22991</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.242857</v>
+                  <v>0.220936</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234493</v>
+                  <v>0.213054</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.226465</v>
+                  <v>0.205347</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218893</v>
+                  <v>0.198292</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.211566</v>
+                  <v>0.191445</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.20522</v>
+                  <v>0.184661</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.199014</v>
+                  <v>0.179135</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.193511</v>
+                  <v>0.17408</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.189531</v>
+                  <v>0.16936</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.185885</v>
+                  <v>0.166191</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.18375</v>
+                  <v>0.164353</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183845</v>
+                  <v>0.164271</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.278244</v>
+                  <v>0.254673</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271679</v>
+                  <v>0.247489</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265508</v>
+                  <v>0.238121</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.256713</v>
+                  <v>0.230923</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.249207</v>
+                  <v>0.223773</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24149</v>
+                  <v>0.215514</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.235856</v>
+                  <v>0.211001</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228715</v>
+                  <v>0.20299</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.223444</v>
+                  <v>0.197244</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.218043</v>
+                  <v>0.191961</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213537</v>
+                  <v>0.18761</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210039</v>
+                  <v>0.184086</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.208195</v>
+                  <v>0.180878</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208204</v>
+                  <v>0.180431</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.304461</v>
+                  <v>0.27151</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.297571</v>
+                  <v>0.265086</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.287177</v>
+                  <v>0.257155</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.279271</v>
+                  <v>0.249492</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.273178</v>
+                  <v>0.241637</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266397</v>
+                  <v>0.233598</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260727</v>
+                  <v>0.228107</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255738</v>
+                  <v>0.221879</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250645</v>
+                  <v>0.218226</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245993</v>
+                  <v>0.213206</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241963</v>
+                  <v>0.207735</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.238673</v>
+                  <v>0.203661</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.236356</v>
+                  <v>0.200217</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.235818</v>
+                  <v>0.199303</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237864</v>
+                  <v>0.199921</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.32462</v>
+                  <v>0.28659</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319055</v>
+                  <v>0.280042</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.314235</v>
+                  <v>0.274273</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.309144</v>
+                  <v>0.264434</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.304711</v>
+                  <v>0.258887</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.300168</v>
+                  <v>0.253968</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.296269</v>
+                  <v>0.248195</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.292886</v>
+                  <v>0.244422</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.289318</v>
+                  <v>0.240173</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.287032</v>
+                  <v>0.236482</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.285057</v>
+                  <v>0.23349</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.283504</v>
+                  <v>0.230364</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.284257</v>
+                  <v>0.229418</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.286675</v>
+                  <v>0.229508</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.386674</v>
+                  <v>0.325813</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.379899</v>
+                  <v>0.320407</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37323</v>
+                  <v>0.314921</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.367346</v>
+                  <v>0.309403</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.361801</v>
+                  <v>0.304799</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.356534</v>
+                  <v>0.300275</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.351406</v>
+                  <v>0.29509</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.170668</v>
+        <v>0.158908</v>
       </c>
       <c r="C2" t="n">
-        <v>0.136461</v>
+        <v>0.164059</v>
       </c>
       <c r="D2" t="n">
-        <v>0.134178</v>
+        <v>0.150177</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.164843</v>
+        <v>0.151699</v>
       </c>
       <c r="C3" t="n">
-        <v>0.143885</v>
+        <v>0.163416</v>
       </c>
       <c r="D3" t="n">
-        <v>0.131948</v>
+        <v>0.147324</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.165379</v>
+        <v>0.156303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.138416</v>
+        <v>0.156068</v>
       </c>
       <c r="D4" t="n">
-        <v>0.136503</v>
+        <v>0.13516</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.150997</v>
+        <v>0.153504</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131866</v>
+        <v>0.153485</v>
       </c>
       <c r="D5" t="n">
-        <v>0.127659</v>
+        <v>0.137355</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.152331</v>
+        <v>0.149997</v>
       </c>
       <c r="C6" t="n">
-        <v>0.128733</v>
+        <v>0.156465</v>
       </c>
       <c r="D6" t="n">
-        <v>0.126491</v>
+        <v>0.128367</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.149768</v>
+        <v>0.148681</v>
       </c>
       <c r="C7" t="n">
-        <v>0.125371</v>
+        <v>0.148375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.127377</v>
+        <v>0.127157</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.152588</v>
+        <v>0.151054</v>
       </c>
       <c r="C8" t="n">
-        <v>0.119173</v>
+        <v>0.139856</v>
       </c>
       <c r="D8" t="n">
-        <v>0.120481</v>
+        <v>0.115416</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.154628</v>
+        <v>0.145474</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119054</v>
+        <v>0.215388</v>
       </c>
       <c r="D9" t="n">
-        <v>0.189804</v>
+        <v>0.191768</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.221009</v>
+        <v>0.209104</v>
       </c>
       <c r="C10" t="n">
-        <v>0.199755</v>
+        <v>0.206516</v>
       </c>
       <c r="D10" t="n">
-        <v>0.193076</v>
+        <v>0.197845</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.212625</v>
+        <v>0.203115</v>
       </c>
       <c r="C11" t="n">
-        <v>0.194893</v>
+        <v>0.209462</v>
       </c>
       <c r="D11" t="n">
-        <v>0.185771</v>
+        <v>0.194599</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.211566</v>
+        <v>0.201646</v>
       </c>
       <c r="C12" t="n">
-        <v>0.186611</v>
+        <v>0.204816</v>
       </c>
       <c r="D12" t="n">
-        <v>0.175595</v>
+        <v>0.187459</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.195441</v>
+        <v>0.196715</v>
       </c>
       <c r="C13" t="n">
-        <v>0.180929</v>
+        <v>0.196619</v>
       </c>
       <c r="D13" t="n">
-        <v>0.170808</v>
+        <v>0.182378</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.194947</v>
+        <v>0.188564</v>
       </c>
       <c r="C14" t="n">
-        <v>0.171719</v>
+        <v>0.190221</v>
       </c>
       <c r="D14" t="n">
-        <v>0.163676</v>
+        <v>0.169535</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.186434</v>
+        <v>0.182826</v>
       </c>
       <c r="C15" t="n">
-        <v>0.164359</v>
+        <v>0.183059</v>
       </c>
       <c r="D15" t="n">
-        <v>0.15658</v>
+        <v>0.163113</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.178351</v>
+        <v>0.176771</v>
       </c>
       <c r="C16" t="n">
-        <v>0.159604</v>
+        <v>0.174226</v>
       </c>
       <c r="D16" t="n">
-        <v>0.15111</v>
+        <v>0.163617</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173591</v>
+        <v>0.167152</v>
       </c>
       <c r="C17" t="n">
-        <v>0.156142</v>
+        <v>0.17276</v>
       </c>
       <c r="D17" t="n">
-        <v>0.147927</v>
+        <v>0.156637</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.168205</v>
+        <v>0.163842</v>
       </c>
       <c r="C18" t="n">
-        <v>0.148751</v>
+        <v>0.169112</v>
       </c>
       <c r="D18" t="n">
-        <v>0.144277</v>
+        <v>0.152475</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.16688</v>
+        <v>0.163685</v>
       </c>
       <c r="C19" t="n">
-        <v>0.145812</v>
+        <v>0.162242</v>
       </c>
       <c r="D19" t="n">
-        <v>0.141029</v>
+        <v>0.145603</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.159624</v>
+        <v>0.157039</v>
       </c>
       <c r="C20" t="n">
-        <v>0.141893</v>
+        <v>0.160259</v>
       </c>
       <c r="D20" t="n">
-        <v>0.138444</v>
+        <v>0.140812</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.158982</v>
+        <v>0.157196</v>
       </c>
       <c r="C21" t="n">
-        <v>0.140321</v>
+        <v>0.158025</v>
       </c>
       <c r="D21" t="n">
-        <v>0.136899</v>
+        <v>0.13853</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.157925</v>
+        <v>0.158636</v>
       </c>
       <c r="C22" t="n">
-        <v>0.138166</v>
+        <v>0.158358</v>
       </c>
       <c r="D22" t="n">
-        <v>0.138731</v>
+        <v>0.139401</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.157835</v>
+        <v>0.156871</v>
       </c>
       <c r="C23" t="n">
-        <v>0.138866</v>
+        <v>0.250718</v>
       </c>
       <c r="D23" t="n">
-        <v>0.22524</v>
+        <v>0.226833</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.235187</v>
+        <v>0.232936</v>
       </c>
       <c r="C24" t="n">
-        <v>0.22216</v>
+        <v>0.229267</v>
       </c>
       <c r="D24" t="n">
-        <v>0.217581</v>
+        <v>0.224201</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234979</v>
+        <v>0.228795</v>
       </c>
       <c r="C25" t="n">
-        <v>0.214043</v>
+        <v>0.224796</v>
       </c>
       <c r="D25" t="n">
-        <v>0.205227</v>
+        <v>0.215412</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.222812</v>
+        <v>0.217702</v>
       </c>
       <c r="C26" t="n">
-        <v>0.202789</v>
+        <v>0.215806</v>
       </c>
       <c r="D26" t="n">
-        <v>0.196362</v>
+        <v>0.203327</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.212721</v>
+        <v>0.215637</v>
       </c>
       <c r="C27" t="n">
-        <v>0.194749</v>
+        <v>0.214428</v>
       </c>
       <c r="D27" t="n">
-        <v>0.189144</v>
+        <v>0.198245</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.204469</v>
+        <v>0.209242</v>
       </c>
       <c r="C28" t="n">
-        <v>0.188153</v>
+        <v>0.209583</v>
       </c>
       <c r="D28" t="n">
-        <v>0.18136</v>
+        <v>0.187779</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.19605</v>
+        <v>0.200485</v>
       </c>
       <c r="C29" t="n">
-        <v>0.180718</v>
+        <v>0.193491</v>
       </c>
       <c r="D29" t="n">
-        <v>0.175284</v>
+        <v>0.181294</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.192526</v>
+        <v>0.191411</v>
       </c>
       <c r="C30" t="n">
-        <v>0.174444</v>
+        <v>0.186028</v>
       </c>
       <c r="D30" t="n">
-        <v>0.170321</v>
+        <v>0.172662</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.179359</v>
+        <v>0.180652</v>
       </c>
       <c r="C31" t="n">
-        <v>0.168821</v>
+        <v>0.190928</v>
       </c>
       <c r="D31" t="n">
-        <v>0.162701</v>
+        <v>0.16688</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.182408</v>
+        <v>0.176076</v>
       </c>
       <c r="C32" t="n">
-        <v>0.162937</v>
+        <v>0.174121</v>
       </c>
       <c r="D32" t="n">
-        <v>0.159519</v>
+        <v>0.163674</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.173725</v>
+        <v>0.170073</v>
       </c>
       <c r="C33" t="n">
-        <v>0.157914</v>
+        <v>0.174696</v>
       </c>
       <c r="D33" t="n">
-        <v>0.153345</v>
+        <v>0.15995</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.172037</v>
+        <v>0.171292</v>
       </c>
       <c r="C34" t="n">
-        <v>0.153826</v>
+        <v>0.174236</v>
       </c>
       <c r="D34" t="n">
-        <v>0.150314</v>
+        <v>0.154435</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.170274</v>
+        <v>0.166562</v>
       </c>
       <c r="C35" t="n">
-        <v>0.150082</v>
+        <v>0.167659</v>
       </c>
       <c r="D35" t="n">
-        <v>0.149603</v>
+        <v>0.151752</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.163399</v>
+        <v>0.169898</v>
       </c>
       <c r="C36" t="n">
-        <v>0.147894</v>
+        <v>0.164504</v>
       </c>
       <c r="D36" t="n">
-        <v>0.148604</v>
+        <v>0.15266</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.165498</v>
+        <v>0.16528</v>
       </c>
       <c r="C37" t="n">
-        <v>0.146972</v>
+        <v>0.256342</v>
       </c>
       <c r="D37" t="n">
-        <v>0.230138</v>
+        <v>0.234771</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243844</v>
+        <v>0.241495</v>
       </c>
       <c r="C38" t="n">
-        <v>0.223466</v>
+        <v>0.246568</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221941</v>
+        <v>0.226131</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.23535</v>
+        <v>0.23306</v>
       </c>
       <c r="C39" t="n">
-        <v>0.214588</v>
+        <v>0.235907</v>
       </c>
       <c r="D39" t="n">
-        <v>0.212902</v>
+        <v>0.216425</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226636</v>
+        <v>0.223941</v>
       </c>
       <c r="C40" t="n">
-        <v>0.206551</v>
+        <v>0.227941</v>
       </c>
       <c r="D40" t="n">
-        <v>0.202745</v>
+        <v>0.208514</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.217798</v>
+        <v>0.215696</v>
       </c>
       <c r="C41" t="n">
-        <v>0.198601</v>
+        <v>0.218464</v>
       </c>
       <c r="D41" t="n">
-        <v>0.197872</v>
+        <v>0.200466</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.210594</v>
+        <v>0.20862</v>
       </c>
       <c r="C42" t="n">
-        <v>0.191216</v>
+        <v>0.211286</v>
       </c>
       <c r="D42" t="n">
-        <v>0.189578</v>
+        <v>0.195024</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.203038</v>
+        <v>0.201241</v>
       </c>
       <c r="C43" t="n">
-        <v>0.18396</v>
+        <v>0.207086</v>
       </c>
       <c r="D43" t="n">
-        <v>0.181192</v>
+        <v>0.184621</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.200194</v>
+        <v>0.193998</v>
       </c>
       <c r="C44" t="n">
-        <v>0.180497</v>
+        <v>0.197421</v>
       </c>
       <c r="D44" t="n">
-        <v>0.178348</v>
+        <v>0.179212</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.194085</v>
+        <v>0.189207</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174746</v>
+        <v>0.19209</v>
       </c>
       <c r="D45" t="n">
-        <v>0.172191</v>
+        <v>0.173662</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.189659</v>
+        <v>0.185649</v>
       </c>
       <c r="C46" t="n">
-        <v>0.168726</v>
+        <v>0.189172</v>
       </c>
       <c r="D46" t="n">
-        <v>0.16614</v>
+        <v>0.170849</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.184056</v>
+        <v>0.181179</v>
       </c>
       <c r="C47" t="n">
-        <v>0.16349</v>
+        <v>0.185684</v>
       </c>
       <c r="D47" t="n">
-        <v>0.161458</v>
+        <v>0.166545</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.179376</v>
+        <v>0.177654</v>
       </c>
       <c r="C48" t="n">
-        <v>0.159218</v>
+        <v>0.180509</v>
       </c>
       <c r="D48" t="n">
-        <v>0.158505</v>
+        <v>0.164149</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.176819</v>
+        <v>0.174076</v>
       </c>
       <c r="C49" t="n">
-        <v>0.155587</v>
+        <v>0.179019</v>
       </c>
       <c r="D49" t="n">
-        <v>0.156259</v>
+        <v>0.160399</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.175946</v>
+        <v>0.177492</v>
       </c>
       <c r="C50" t="n">
-        <v>0.153056</v>
+        <v>0.183375</v>
       </c>
       <c r="D50" t="n">
-        <v>0.155863</v>
+        <v>0.16372</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176716</v>
+        <v>0.178664</v>
       </c>
       <c r="C51" t="n">
-        <v>0.151411</v>
+        <v>0.28252</v>
       </c>
       <c r="D51" t="n">
-        <v>0.240125</v>
+        <v>0.258115</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.179499</v>
+        <v>0.182842</v>
       </c>
       <c r="C52" t="n">
-        <v>0.152255</v>
+        <v>0.271054</v>
       </c>
       <c r="D52" t="n">
-        <v>0.228307</v>
+        <v>0.251465</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246194</v>
+        <v>0.263356</v>
       </c>
       <c r="C53" t="n">
-        <v>0.223567</v>
+        <v>0.264681</v>
       </c>
       <c r="D53" t="n">
-        <v>0.222098</v>
+        <v>0.240404</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236625</v>
+        <v>0.252613</v>
       </c>
       <c r="C54" t="n">
-        <v>0.215128</v>
+        <v>0.253729</v>
       </c>
       <c r="D54" t="n">
-        <v>0.213257</v>
+        <v>0.233178</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.228535</v>
+        <v>0.245927</v>
       </c>
       <c r="C55" t="n">
-        <v>0.206602</v>
+        <v>0.250867</v>
       </c>
       <c r="D55" t="n">
-        <v>0.204699</v>
+        <v>0.223969</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.220311</v>
+        <v>0.239157</v>
       </c>
       <c r="C56" t="n">
-        <v>0.199106</v>
+        <v>0.240366</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197271</v>
+        <v>0.215864</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.212764</v>
+        <v>0.235197</v>
       </c>
       <c r="C57" t="n">
-        <v>0.191861</v>
+        <v>0.236724</v>
       </c>
       <c r="D57" t="n">
-        <v>0.189954</v>
+        <v>0.207833</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.205025</v>
+        <v>0.230102</v>
       </c>
       <c r="C58" t="n">
-        <v>0.184943</v>
+        <v>0.233232</v>
       </c>
       <c r="D58" t="n">
-        <v>0.182964</v>
+        <v>0.206147</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.198959</v>
+        <v>0.226972</v>
       </c>
       <c r="C59" t="n">
-        <v>0.178332</v>
+        <v>0.229708</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176915</v>
+        <v>0.205981</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.193449</v>
+        <v>0.227451</v>
       </c>
       <c r="C60" t="n">
-        <v>0.172886</v>
+        <v>0.225697</v>
       </c>
       <c r="D60" t="n">
-        <v>0.172102</v>
+        <v>0.198445</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.188205</v>
+        <v>0.219424</v>
       </c>
       <c r="C61" t="n">
-        <v>0.167693</v>
+        <v>0.204748</v>
       </c>
       <c r="D61" t="n">
-        <v>0.167281</v>
+        <v>0.167256</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.182403</v>
+        <v>0.179973</v>
       </c>
       <c r="C62" t="n">
-        <v>0.160526</v>
+        <v>0.183965</v>
       </c>
       <c r="D62" t="n">
-        <v>0.161153</v>
+        <v>0.164796</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.179269</v>
+        <v>0.17674</v>
       </c>
       <c r="C63" t="n">
-        <v>0.156473</v>
+        <v>0.181308</v>
       </c>
       <c r="D63" t="n">
-        <v>0.158454</v>
+        <v>0.161909</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177012</v>
+        <v>0.175469</v>
       </c>
       <c r="C64" t="n">
-        <v>0.15361</v>
+        <v>0.180009</v>
       </c>
       <c r="D64" t="n">
-        <v>0.157323</v>
+        <v>0.16114</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177729</v>
+        <v>0.176144</v>
       </c>
       <c r="C65" t="n">
-        <v>0.151918</v>
+        <v>0.180875</v>
       </c>
       <c r="D65" t="n">
-        <v>0.158629</v>
+        <v>0.162564</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180358</v>
+        <v>0.178715</v>
       </c>
       <c r="C66" t="n">
-        <v>0.152658</v>
+        <v>0.265203</v>
       </c>
       <c r="D66" t="n">
-        <v>0.235154</v>
+        <v>0.239724</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244029</v>
+        <v>0.245731</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228151</v>
+        <v>0.255254</v>
       </c>
       <c r="D67" t="n">
-        <v>0.225864</v>
+        <v>0.22916</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236519</v>
+        <v>0.236444</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219456</v>
+        <v>0.246284</v>
       </c>
       <c r="D68" t="n">
-        <v>0.218407</v>
+        <v>0.221803</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.228133</v>
+        <v>0.228466</v>
       </c>
       <c r="C69" t="n">
-        <v>0.21135</v>
+        <v>0.237128</v>
       </c>
       <c r="D69" t="n">
-        <v>0.209007</v>
+        <v>0.212532</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.220467</v>
+        <v>0.219774</v>
       </c>
       <c r="C70" t="n">
-        <v>0.203187</v>
+        <v>0.228962</v>
       </c>
       <c r="D70" t="n">
-        <v>0.201152</v>
+        <v>0.205199</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.212274</v>
+        <v>0.212682</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195914</v>
+        <v>0.221553</v>
       </c>
       <c r="D71" t="n">
-        <v>0.19372</v>
+        <v>0.197884</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205977</v>
+        <v>0.206163</v>
       </c>
       <c r="C72" t="n">
-        <v>0.188766</v>
+        <v>0.21467</v>
       </c>
       <c r="D72" t="n">
-        <v>0.186741</v>
+        <v>0.190366</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199758</v>
+        <v>0.199815</v>
       </c>
       <c r="C73" t="n">
-        <v>0.182265</v>
+        <v>0.207338</v>
       </c>
       <c r="D73" t="n">
-        <v>0.180491</v>
+        <v>0.184276</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.19413</v>
+        <v>0.193583</v>
       </c>
       <c r="C74" t="n">
-        <v>0.176143</v>
+        <v>0.201752</v>
       </c>
       <c r="D74" t="n">
-        <v>0.174783</v>
+        <v>0.178571</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188413</v>
+        <v>0.187857</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170713</v>
+        <v>0.196258</v>
       </c>
       <c r="D75" t="n">
-        <v>0.169469</v>
+        <v>0.173339</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.184215</v>
+        <v>0.185017</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165631</v>
+        <v>0.191575</v>
       </c>
       <c r="D76" t="n">
-        <v>0.165683</v>
+        <v>0.16813</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181004</v>
+        <v>0.181313</v>
       </c>
       <c r="C77" t="n">
-        <v>0.161469</v>
+        <v>0.188432</v>
       </c>
       <c r="D77" t="n">
-        <v>0.162247</v>
+        <v>0.166328</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178894</v>
+        <v>0.179022</v>
       </c>
       <c r="C78" t="n">
-        <v>0.158217</v>
+        <v>0.186652</v>
       </c>
       <c r="D78" t="n">
-        <v>0.160468</v>
+        <v>0.164877</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.17897</v>
+        <v>0.179084</v>
       </c>
       <c r="C79" t="n">
-        <v>0.156204</v>
+        <v>0.18682</v>
       </c>
       <c r="D79" t="n">
-        <v>0.161441</v>
+        <v>0.165695</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180581</v>
+        <v>0.181254</v>
       </c>
       <c r="C80" t="n">
-        <v>0.156222</v>
+        <v>0.261114</v>
       </c>
       <c r="D80" t="n">
-        <v>0.238856</v>
+        <v>0.243748</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.256846</v>
+        <v>0.258926</v>
       </c>
       <c r="C81" t="n">
-        <v>0.230333</v>
+        <v>0.253334</v>
       </c>
       <c r="D81" t="n">
-        <v>0.22991</v>
+        <v>0.234117</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.250364</v>
+        <v>0.251032</v>
       </c>
       <c r="C82" t="n">
-        <v>0.222566</v>
+        <v>0.244805</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220936</v>
+        <v>0.225676</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24198</v>
+        <v>0.243116</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214771</v>
+        <v>0.236994</v>
       </c>
       <c r="D83" t="n">
-        <v>0.213054</v>
+        <v>0.217405</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.233548</v>
+        <v>0.235079</v>
       </c>
       <c r="C84" t="n">
-        <v>0.207566</v>
+        <v>0.229006</v>
       </c>
       <c r="D84" t="n">
-        <v>0.205347</v>
+        <v>0.209686</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227319</v>
+        <v>0.228548</v>
       </c>
       <c r="C85" t="n">
-        <v>0.200837</v>
+        <v>0.222043</v>
       </c>
       <c r="D85" t="n">
-        <v>0.198292</v>
+        <v>0.202252</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219364</v>
+        <v>0.221821</v>
       </c>
       <c r="C86" t="n">
-        <v>0.19364</v>
+        <v>0.215409</v>
       </c>
       <c r="D86" t="n">
-        <v>0.191445</v>
+        <v>0.195434</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213434</v>
+        <v>0.214684</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188096</v>
+        <v>0.208891</v>
       </c>
       <c r="D87" t="n">
-        <v>0.184661</v>
+        <v>0.189426</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207721</v>
+        <v>0.208229</v>
       </c>
       <c r="C88" t="n">
-        <v>0.181911</v>
+        <v>0.203083</v>
       </c>
       <c r="D88" t="n">
-        <v>0.179135</v>
+        <v>0.183394</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201258</v>
+        <v>0.202946</v>
       </c>
       <c r="C89" t="n">
-        <v>0.176008</v>
+        <v>0.198366</v>
       </c>
       <c r="D89" t="n">
-        <v>0.17408</v>
+        <v>0.178571</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19653</v>
+        <v>0.197785</v>
       </c>
       <c r="C90" t="n">
-        <v>0.171451</v>
+        <v>0.193798</v>
       </c>
       <c r="D90" t="n">
-        <v>0.16936</v>
+        <v>0.173227</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192528</v>
+        <v>0.193795</v>
       </c>
       <c r="C91" t="n">
-        <v>0.166593</v>
+        <v>0.190302</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166191</v>
+        <v>0.1702</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189688</v>
+        <v>0.190818</v>
       </c>
       <c r="C92" t="n">
-        <v>0.163878</v>
+        <v>0.18827</v>
       </c>
       <c r="D92" t="n">
-        <v>0.164353</v>
+        <v>0.168313</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188619</v>
+        <v>0.188952</v>
       </c>
       <c r="C93" t="n">
-        <v>0.160923</v>
+        <v>0.188415</v>
       </c>
       <c r="D93" t="n">
-        <v>0.164271</v>
+        <v>0.169004</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189627</v>
+        <v>0.190333</v>
       </c>
       <c r="C94" t="n">
-        <v>0.160238</v>
+        <v>0.2753</v>
       </c>
       <c r="D94" t="n">
-        <v>0.254673</v>
+        <v>0.261155</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.270145</v>
+        <v>0.269837</v>
       </c>
       <c r="C95" t="n">
-        <v>0.248401</v>
+        <v>0.269014</v>
       </c>
       <c r="D95" t="n">
-        <v>0.247489</v>
+        <v>0.254257</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.264648</v>
+        <v>0.264408</v>
       </c>
       <c r="C96" t="n">
-        <v>0.240463</v>
+        <v>0.260157</v>
       </c>
       <c r="D96" t="n">
-        <v>0.238121</v>
+        <v>0.244589</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257315</v>
+        <v>0.257544</v>
       </c>
       <c r="C97" t="n">
-        <v>0.232944</v>
+        <v>0.252322</v>
       </c>
       <c r="D97" t="n">
-        <v>0.230923</v>
+        <v>0.236313</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.250563</v>
+        <v>0.250529</v>
       </c>
       <c r="C98" t="n">
-        <v>0.225805</v>
+        <v>0.244708</v>
       </c>
       <c r="D98" t="n">
-        <v>0.223773</v>
+        <v>0.228714</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.24473</v>
+        <v>0.244091</v>
       </c>
       <c r="C99" t="n">
-        <v>0.22678</v>
+        <v>0.238077</v>
       </c>
       <c r="D99" t="n">
-        <v>0.215514</v>
+        <v>0.221596</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238846</v>
+        <v>0.238026</v>
       </c>
       <c r="C100" t="n">
-        <v>0.212444</v>
+        <v>0.231221</v>
       </c>
       <c r="D100" t="n">
-        <v>0.211001</v>
+        <v>0.214416</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232631</v>
+        <v>0.232306</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206497</v>
+        <v>0.225494</v>
       </c>
       <c r="D101" t="n">
-        <v>0.20299</v>
+        <v>0.208119</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227556</v>
+        <v>0.22682</v>
       </c>
       <c r="C102" t="n">
-        <v>0.201607</v>
+        <v>0.219078</v>
       </c>
       <c r="D102" t="n">
-        <v>0.197244</v>
+        <v>0.201969</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222112</v>
+        <v>0.222115</v>
       </c>
       <c r="C103" t="n">
-        <v>0.195129</v>
+        <v>0.214603</v>
       </c>
       <c r="D103" t="n">
-        <v>0.191961</v>
+        <v>0.196778</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.217608</v>
+        <v>0.217123</v>
       </c>
       <c r="C104" t="n">
-        <v>0.189518</v>
+        <v>0.210132</v>
       </c>
       <c r="D104" t="n">
-        <v>0.18761</v>
+        <v>0.191099</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213903</v>
+        <v>0.21373</v>
       </c>
       <c r="C105" t="n">
-        <v>0.186515</v>
+        <v>0.206719</v>
       </c>
       <c r="D105" t="n">
-        <v>0.184086</v>
+        <v>0.187371</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.21037</v>
+        <v>0.210163</v>
       </c>
       <c r="C106" t="n">
-        <v>0.18283</v>
+        <v>0.204123</v>
       </c>
       <c r="D106" t="n">
-        <v>0.180878</v>
+        <v>0.184729</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208235</v>
+        <v>0.208044</v>
       </c>
       <c r="C107" t="n">
-        <v>0.18042</v>
+        <v>0.203089</v>
       </c>
       <c r="D107" t="n">
-        <v>0.180431</v>
+        <v>0.184337</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208631</v>
+        <v>0.208009</v>
       </c>
       <c r="C108" t="n">
-        <v>0.179433</v>
+        <v>0.2935</v>
       </c>
       <c r="D108" t="n">
-        <v>0.27151</v>
+        <v>0.275888</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210884</v>
+        <v>0.209963</v>
       </c>
       <c r="C109" t="n">
-        <v>0.181014</v>
+        <v>0.287498</v>
       </c>
       <c r="D109" t="n">
-        <v>0.265086</v>
+        <v>0.269117</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.284085</v>
+        <v>0.282943</v>
       </c>
       <c r="C110" t="n">
-        <v>0.260856</v>
+        <v>0.280394</v>
       </c>
       <c r="D110" t="n">
-        <v>0.257155</v>
+        <v>0.260707</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277325</v>
+        <v>0.276473</v>
       </c>
       <c r="C111" t="n">
-        <v>0.252951</v>
+        <v>0.273035</v>
       </c>
       <c r="D111" t="n">
-        <v>0.249492</v>
+        <v>0.252815</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.271154</v>
+        <v>0.270438</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245756</v>
+        <v>0.266734</v>
       </c>
       <c r="D112" t="n">
-        <v>0.241637</v>
+        <v>0.244792</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.265253</v>
+        <v>0.26488</v>
       </c>
       <c r="C113" t="n">
-        <v>0.239063</v>
+        <v>0.260814</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233598</v>
+        <v>0.238379</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.259777</v>
+        <v>0.258737</v>
       </c>
       <c r="C114" t="n">
-        <v>0.232542</v>
+        <v>0.255282</v>
       </c>
       <c r="D114" t="n">
-        <v>0.228107</v>
+        <v>0.231104</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.254644</v>
+        <v>0.253527</v>
       </c>
       <c r="C115" t="n">
-        <v>0.226357</v>
+        <v>0.249111</v>
       </c>
       <c r="D115" t="n">
-        <v>0.221879</v>
+        <v>0.225001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250128</v>
+        <v>0.249003</v>
       </c>
       <c r="C116" t="n">
-        <v>0.221257</v>
+        <v>0.24403</v>
       </c>
       <c r="D116" t="n">
-        <v>0.218226</v>
+        <v>0.219141</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245359</v>
+        <v>0.244245</v>
       </c>
       <c r="C117" t="n">
-        <v>0.217762</v>
+        <v>0.239493</v>
       </c>
       <c r="D117" t="n">
-        <v>0.213206</v>
+        <v>0.213946</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241561</v>
+        <v>0.240477</v>
       </c>
       <c r="C118" t="n">
-        <v>0.212853</v>
+        <v>0.235173</v>
       </c>
       <c r="D118" t="n">
-        <v>0.207735</v>
+        <v>0.208881</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.23764</v>
+        <v>0.236468</v>
       </c>
       <c r="C119" t="n">
-        <v>0.208819</v>
+        <v>0.232078</v>
       </c>
       <c r="D119" t="n">
-        <v>0.203661</v>
+        <v>0.205063</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234284</v>
+        <v>0.233106</v>
       </c>
       <c r="C120" t="n">
-        <v>0.20483</v>
+        <v>0.229209</v>
       </c>
       <c r="D120" t="n">
-        <v>0.200217</v>
+        <v>0.202403</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.231834</v>
+        <v>0.231132</v>
       </c>
       <c r="C121" t="n">
-        <v>0.201751</v>
+        <v>0.228204</v>
       </c>
       <c r="D121" t="n">
-        <v>0.199303</v>
+        <v>0.200718</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231043</v>
+        <v>0.230353</v>
       </c>
       <c r="C122" t="n">
-        <v>0.200686</v>
+        <v>0.228961</v>
       </c>
       <c r="D122" t="n">
-        <v>0.199921</v>
+        <v>0.202301</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232245</v>
+        <v>0.231219</v>
       </c>
       <c r="C123" t="n">
-        <v>0.200643</v>
+        <v>0.31414</v>
       </c>
       <c r="D123" t="n">
-        <v>0.28659</v>
+        <v>0.286735</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.315814</v>
+        <v>0.316196</v>
       </c>
       <c r="C124" t="n">
-        <v>0.284238</v>
+        <v>0.308652</v>
       </c>
       <c r="D124" t="n">
-        <v>0.280042</v>
+        <v>0.279769</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.310851</v>
+        <v>0.310024</v>
       </c>
       <c r="C125" t="n">
-        <v>0.278287</v>
+        <v>0.303583</v>
       </c>
       <c r="D125" t="n">
-        <v>0.274273</v>
+        <v>0.273638</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.306028</v>
+        <v>0.304648</v>
       </c>
       <c r="C126" t="n">
-        <v>0.268032</v>
+        <v>0.298286</v>
       </c>
       <c r="D126" t="n">
-        <v>0.264434</v>
+        <v>0.267156</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.299753</v>
+        <v>0.29907</v>
       </c>
       <c r="C127" t="n">
-        <v>0.262246</v>
+        <v>0.295094</v>
       </c>
       <c r="D127" t="n">
-        <v>0.258887</v>
+        <v>0.263574</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.294531</v>
+        <v>0.295691</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2563</v>
+        <v>0.290755</v>
       </c>
       <c r="D128" t="n">
-        <v>0.253968</v>
+        <v>0.260658</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.289946</v>
+        <v>0.299506</v>
       </c>
       <c r="C129" t="n">
-        <v>0.25157</v>
+        <v>0.289468</v>
       </c>
       <c r="D129" t="n">
-        <v>0.248195</v>
+        <v>0.254782</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.285871</v>
+        <v>0.294234</v>
       </c>
       <c r="C130" t="n">
-        <v>0.247088</v>
+        <v>0.287118</v>
       </c>
       <c r="D130" t="n">
-        <v>0.244422</v>
+        <v>0.264647</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.28194</v>
+        <v>0.311148</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242605</v>
+        <v>0.30225</v>
       </c>
       <c r="D131" t="n">
-        <v>0.240173</v>
+        <v>0.268241</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278146</v>
+        <v>0.30772</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238676</v>
+        <v>0.300688</v>
       </c>
       <c r="D132" t="n">
-        <v>0.236482</v>
+        <v>0.25632</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275044</v>
+        <v>0.30786</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235063</v>
+        <v>0.29993</v>
       </c>
       <c r="D133" t="n">
-        <v>0.23349</v>
+        <v>0.257963</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.27231</v>
+        <v>0.329353</v>
       </c>
       <c r="C134" t="n">
-        <v>0.231818</v>
+        <v>0.339904</v>
       </c>
       <c r="D134" t="n">
-        <v>0.230364</v>
+        <v>0.279008</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270276</v>
+        <v>0.320204</v>
       </c>
       <c r="C135" t="n">
-        <v>0.229352</v>
+        <v>0.353242</v>
       </c>
       <c r="D135" t="n">
-        <v>0.229418</v>
+        <v>0.301218</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.26913</v>
+        <v>0.344914</v>
       </c>
       <c r="C136" t="n">
-        <v>0.227891</v>
+        <v>0.354684</v>
       </c>
       <c r="D136" t="n">
-        <v>0.229508</v>
+        <v>0.238671</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.270188</v>
+        <v>0.26775</v>
       </c>
       <c r="C137" t="n">
-        <v>0.22831</v>
+        <v>0.364594</v>
       </c>
       <c r="D137" t="n">
-        <v>0.325813</v>
+        <v>0.32485</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.360478</v>
+        <v>0.352647</v>
       </c>
       <c r="C138" t="n">
-        <v>0.321523</v>
+        <v>0.359669</v>
       </c>
       <c r="D138" t="n">
-        <v>0.320407</v>
+        <v>0.318272</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.354977</v>
+        <v>0.347701</v>
       </c>
       <c r="C139" t="n">
-        <v>0.315351</v>
+        <v>0.355413</v>
       </c>
       <c r="D139" t="n">
-        <v>0.314921</v>
+        <v>0.313307</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.350567</v>
+        <v>0.343251</v>
       </c>
       <c r="C140" t="n">
-        <v>0.309742</v>
+        <v>0.351576</v>
       </c>
       <c r="D140" t="n">
-        <v>0.309403</v>
+        <v>0.308067</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.345151</v>
+        <v>0.338392</v>
       </c>
       <c r="C141" t="n">
-        <v>0.304011</v>
+        <v>0.347247</v>
       </c>
       <c r="D141" t="n">
-        <v>0.304799</v>
+        <v>0.303313</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.34072</v>
+        <v>0.334089</v>
       </c>
       <c r="C142" t="n">
-        <v>0.29869</v>
+        <v>0.343123</v>
       </c>
       <c r="D142" t="n">
-        <v>0.300275</v>
+        <v>0.298129</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.335998</v>
+        <v>0.329974</v>
       </c>
       <c r="C143" t="n">
-        <v>0.29374</v>
+        <v>0.339907</v>
       </c>
       <c r="D143" t="n">
-        <v>0.29509</v>
+        <v>0.293969</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.158908</v>
+        <v>0.149615</v>
       </c>
       <c r="C2" t="n">
-        <v>0.164059</v>
+        <v>0.146146</v>
       </c>
       <c r="D2" t="n">
-        <v>0.150177</v>
+        <v>0.139512</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.151699</v>
+        <v>0.15903</v>
       </c>
       <c r="C3" t="n">
-        <v>0.163416</v>
+        <v>0.137024</v>
       </c>
       <c r="D3" t="n">
-        <v>0.147324</v>
+        <v>0.149191</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.156303</v>
+        <v>0.157115</v>
       </c>
       <c r="C4" t="n">
-        <v>0.156068</v>
+        <v>0.137416</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13516</v>
+        <v>0.134059</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.153504</v>
+        <v>0.153692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.153485</v>
+        <v>0.128015</v>
       </c>
       <c r="D5" t="n">
-        <v>0.137355</v>
+        <v>0.126604</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.149997</v>
+        <v>0.147149</v>
       </c>
       <c r="C6" t="n">
-        <v>0.156465</v>
+        <v>0.122822</v>
       </c>
       <c r="D6" t="n">
-        <v>0.128367</v>
+        <v>0.1229</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.148681</v>
+        <v>0.151936</v>
       </c>
       <c r="C7" t="n">
-        <v>0.148375</v>
+        <v>0.114016</v>
       </c>
       <c r="D7" t="n">
-        <v>0.127157</v>
+        <v>0.118884</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.151054</v>
+        <v>0.151843</v>
       </c>
       <c r="C8" t="n">
-        <v>0.139856</v>
+        <v>0.116068</v>
       </c>
       <c r="D8" t="n">
-        <v>0.115416</v>
+        <v>0.122734</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145474</v>
+        <v>0.15278</v>
       </c>
       <c r="C9" t="n">
-        <v>0.215388</v>
+        <v>0.184821</v>
       </c>
       <c r="D9" t="n">
-        <v>0.191768</v>
+        <v>0.195964</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.209104</v>
+        <v>0.217154</v>
       </c>
       <c r="C10" t="n">
-        <v>0.206516</v>
+        <v>0.189647</v>
       </c>
       <c r="D10" t="n">
-        <v>0.197845</v>
+        <v>0.193647</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.203115</v>
+        <v>0.20537</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209462</v>
+        <v>0.163881</v>
       </c>
       <c r="D11" t="n">
-        <v>0.194599</v>
+        <v>0.185604</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.201646</v>
+        <v>0.202248</v>
       </c>
       <c r="C12" t="n">
-        <v>0.204816</v>
+        <v>0.166317</v>
       </c>
       <c r="D12" t="n">
-        <v>0.187459</v>
+        <v>0.181819</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.196715</v>
+        <v>0.192841</v>
       </c>
       <c r="C13" t="n">
-        <v>0.196619</v>
+        <v>0.160727</v>
       </c>
       <c r="D13" t="n">
-        <v>0.182378</v>
+        <v>0.171294</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.188564</v>
+        <v>0.190022</v>
       </c>
       <c r="C14" t="n">
-        <v>0.190221</v>
+        <v>0.156798</v>
       </c>
       <c r="D14" t="n">
-        <v>0.169535</v>
+        <v>0.169507</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.182826</v>
+        <v>0.177566</v>
       </c>
       <c r="C15" t="n">
-        <v>0.183059</v>
+        <v>0.155949</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163113</v>
+        <v>0.164556</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.176771</v>
+        <v>0.178578</v>
       </c>
       <c r="C16" t="n">
-        <v>0.174226</v>
+        <v>0.149744</v>
       </c>
       <c r="D16" t="n">
-        <v>0.163617</v>
+        <v>0.153101</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.167152</v>
+        <v>0.171016</v>
       </c>
       <c r="C17" t="n">
-        <v>0.17276</v>
+        <v>0.144868</v>
       </c>
       <c r="D17" t="n">
-        <v>0.156637</v>
+        <v>0.148999</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.163842</v>
+        <v>0.164349</v>
       </c>
       <c r="C18" t="n">
-        <v>0.169112</v>
+        <v>0.132317</v>
       </c>
       <c r="D18" t="n">
-        <v>0.152475</v>
+        <v>0.147343</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.163685</v>
+        <v>0.164771</v>
       </c>
       <c r="C19" t="n">
-        <v>0.162242</v>
+        <v>0.13672</v>
       </c>
       <c r="D19" t="n">
-        <v>0.145603</v>
+        <v>0.142542</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.157039</v>
+        <v>0.153051</v>
       </c>
       <c r="C20" t="n">
-        <v>0.160259</v>
+        <v>0.128805</v>
       </c>
       <c r="D20" t="n">
-        <v>0.140812</v>
+        <v>0.134853</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.157196</v>
+        <v>0.157814</v>
       </c>
       <c r="C21" t="n">
-        <v>0.158025</v>
+        <v>0.133089</v>
       </c>
       <c r="D21" t="n">
-        <v>0.13853</v>
+        <v>0.135333</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.158636</v>
+        <v>0.158062</v>
       </c>
       <c r="C22" t="n">
-        <v>0.158358</v>
+        <v>0.129533</v>
       </c>
       <c r="D22" t="n">
-        <v>0.139401</v>
+        <v>0.139999</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.156871</v>
+        <v>0.16019</v>
       </c>
       <c r="C23" t="n">
-        <v>0.250718</v>
+        <v>0.217881</v>
       </c>
       <c r="D23" t="n">
-        <v>0.226833</v>
+        <v>0.230806</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.232936</v>
+        <v>0.236756</v>
       </c>
       <c r="C24" t="n">
-        <v>0.229267</v>
+        <v>0.214138</v>
       </c>
       <c r="D24" t="n">
-        <v>0.224201</v>
+        <v>0.221193</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.228795</v>
+        <v>0.228337</v>
       </c>
       <c r="C25" t="n">
-        <v>0.224796</v>
+        <v>0.203745</v>
       </c>
       <c r="D25" t="n">
-        <v>0.215412</v>
+        <v>0.21225</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.217702</v>
+        <v>0.222116</v>
       </c>
       <c r="C26" t="n">
-        <v>0.215806</v>
+        <v>0.189929</v>
       </c>
       <c r="D26" t="n">
-        <v>0.203327</v>
+        <v>0.204473</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.215637</v>
+        <v>0.210989</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214428</v>
+        <v>0.190021</v>
       </c>
       <c r="D27" t="n">
-        <v>0.198245</v>
+        <v>0.194273</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.209242</v>
+        <v>0.209971</v>
       </c>
       <c r="C28" t="n">
-        <v>0.209583</v>
+        <v>0.179433</v>
       </c>
       <c r="D28" t="n">
-        <v>0.187779</v>
+        <v>0.187661</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.200485</v>
+        <v>0.196934</v>
       </c>
       <c r="C29" t="n">
-        <v>0.193491</v>
+        <v>0.175797</v>
       </c>
       <c r="D29" t="n">
-        <v>0.181294</v>
+        <v>0.186522</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.191411</v>
+        <v>0.191618</v>
       </c>
       <c r="C30" t="n">
-        <v>0.186028</v>
+        <v>0.167435</v>
       </c>
       <c r="D30" t="n">
-        <v>0.172662</v>
+        <v>0.183667</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.180652</v>
+        <v>0.187334</v>
       </c>
       <c r="C31" t="n">
-        <v>0.190928</v>
+        <v>0.162819</v>
       </c>
       <c r="D31" t="n">
-        <v>0.16688</v>
+        <v>0.176737</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.176076</v>
+        <v>0.184374</v>
       </c>
       <c r="C32" t="n">
-        <v>0.174121</v>
+        <v>0.158519</v>
       </c>
       <c r="D32" t="n">
-        <v>0.163674</v>
+        <v>0.17104</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.170073</v>
+        <v>0.186615</v>
       </c>
       <c r="C33" t="n">
-        <v>0.174696</v>
+        <v>0.160827</v>
       </c>
       <c r="D33" t="n">
-        <v>0.15995</v>
+        <v>0.164863</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.171292</v>
+        <v>0.182429</v>
       </c>
       <c r="C34" t="n">
-        <v>0.174236</v>
+        <v>0.15442</v>
       </c>
       <c r="D34" t="n">
-        <v>0.154435</v>
+        <v>0.16277</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.166562</v>
+        <v>0.179161</v>
       </c>
       <c r="C35" t="n">
-        <v>0.167659</v>
+        <v>0.152281</v>
       </c>
       <c r="D35" t="n">
-        <v>0.151752</v>
+        <v>0.161202</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.169898</v>
+        <v>0.17575</v>
       </c>
       <c r="C36" t="n">
-        <v>0.164504</v>
+        <v>0.153771</v>
       </c>
       <c r="D36" t="n">
-        <v>0.15266</v>
+        <v>0.161449</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.16528</v>
+        <v>0.176667</v>
       </c>
       <c r="C37" t="n">
-        <v>0.256342</v>
+        <v>0.246975</v>
       </c>
       <c r="D37" t="n">
-        <v>0.234771</v>
+        <v>0.247952</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241495</v>
+        <v>0.258928</v>
       </c>
       <c r="C38" t="n">
-        <v>0.246568</v>
+        <v>0.237699</v>
       </c>
       <c r="D38" t="n">
-        <v>0.226131</v>
+        <v>0.237867</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.23306</v>
+        <v>0.249561</v>
       </c>
       <c r="C39" t="n">
-        <v>0.235907</v>
+        <v>0.230922</v>
       </c>
       <c r="D39" t="n">
-        <v>0.216425</v>
+        <v>0.230612</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.223941</v>
+        <v>0.244107</v>
       </c>
       <c r="C40" t="n">
-        <v>0.227941</v>
+        <v>0.218221</v>
       </c>
       <c r="D40" t="n">
-        <v>0.208514</v>
+        <v>0.218938</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.215696</v>
+        <v>0.233704</v>
       </c>
       <c r="C41" t="n">
-        <v>0.218464</v>
+        <v>0.210067</v>
       </c>
       <c r="D41" t="n">
-        <v>0.200466</v>
+        <v>0.211473</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.20862</v>
+        <v>0.224843</v>
       </c>
       <c r="C42" t="n">
-        <v>0.211286</v>
+        <v>0.205468</v>
       </c>
       <c r="D42" t="n">
-        <v>0.195024</v>
+        <v>0.20425</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.201241</v>
+        <v>0.21011</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207086</v>
+        <v>0.182904</v>
       </c>
       <c r="D43" t="n">
-        <v>0.184621</v>
+        <v>0.187902</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.193998</v>
+        <v>0.194444</v>
       </c>
       <c r="C44" t="n">
-        <v>0.197421</v>
+        <v>0.177214</v>
       </c>
       <c r="D44" t="n">
-        <v>0.179212</v>
+        <v>0.181885</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.189207</v>
+        <v>0.190676</v>
       </c>
       <c r="C45" t="n">
-        <v>0.19209</v>
+        <v>0.171966</v>
       </c>
       <c r="D45" t="n">
-        <v>0.173662</v>
+        <v>0.175927</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.185649</v>
+        <v>0.183488</v>
       </c>
       <c r="C46" t="n">
-        <v>0.189172</v>
+        <v>0.166345</v>
       </c>
       <c r="D46" t="n">
-        <v>0.170849</v>
+        <v>0.169747</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.181179</v>
+        <v>0.178546</v>
       </c>
       <c r="C47" t="n">
-        <v>0.185684</v>
+        <v>0.162063</v>
       </c>
       <c r="D47" t="n">
-        <v>0.166545</v>
+        <v>0.16336</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.177654</v>
+        <v>0.174851</v>
       </c>
       <c r="C48" t="n">
-        <v>0.180509</v>
+        <v>0.160298</v>
       </c>
       <c r="D48" t="n">
-        <v>0.164149</v>
+        <v>0.160334</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174076</v>
+        <v>0.172218</v>
       </c>
       <c r="C49" t="n">
-        <v>0.179019</v>
+        <v>0.156478</v>
       </c>
       <c r="D49" t="n">
-        <v>0.160399</v>
+        <v>0.157855</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.177492</v>
+        <v>0.171488</v>
       </c>
       <c r="C50" t="n">
-        <v>0.183375</v>
+        <v>0.155552</v>
       </c>
       <c r="D50" t="n">
-        <v>0.16372</v>
+        <v>0.157388</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.178664</v>
+        <v>0.172053</v>
       </c>
       <c r="C51" t="n">
-        <v>0.28252</v>
+        <v>0.242309</v>
       </c>
       <c r="D51" t="n">
-        <v>0.258115</v>
+        <v>0.24173</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.182842</v>
+        <v>0.176548</v>
       </c>
       <c r="C52" t="n">
-        <v>0.271054</v>
+        <v>0.232831</v>
       </c>
       <c r="D52" t="n">
-        <v>0.251465</v>
+        <v>0.232506</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.263356</v>
+        <v>0.241384</v>
       </c>
       <c r="C53" t="n">
-        <v>0.264681</v>
+        <v>0.223892</v>
       </c>
       <c r="D53" t="n">
-        <v>0.240404</v>
+        <v>0.22378</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.252613</v>
+        <v>0.232413</v>
       </c>
       <c r="C54" t="n">
-        <v>0.253729</v>
+        <v>0.215251</v>
       </c>
       <c r="D54" t="n">
-        <v>0.233178</v>
+        <v>0.214415</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.245927</v>
+        <v>0.224183</v>
       </c>
       <c r="C55" t="n">
-        <v>0.250867</v>
+        <v>0.207289</v>
       </c>
       <c r="D55" t="n">
-        <v>0.223969</v>
+        <v>0.206294</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.239157</v>
+        <v>0.216195</v>
       </c>
       <c r="C56" t="n">
-        <v>0.240366</v>
+        <v>0.199299</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215864</v>
+        <v>0.198724</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.235197</v>
+        <v>0.209374</v>
       </c>
       <c r="C57" t="n">
-        <v>0.236724</v>
+        <v>0.192802</v>
       </c>
       <c r="D57" t="n">
-        <v>0.207833</v>
+        <v>0.191004</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.230102</v>
+        <v>0.202397</v>
       </c>
       <c r="C58" t="n">
-        <v>0.233232</v>
+        <v>0.186464</v>
       </c>
       <c r="D58" t="n">
-        <v>0.206147</v>
+        <v>0.184486</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.226972</v>
+        <v>0.196269</v>
       </c>
       <c r="C59" t="n">
-        <v>0.229708</v>
+        <v>0.180021</v>
       </c>
       <c r="D59" t="n">
-        <v>0.205981</v>
+        <v>0.178065</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.227451</v>
+        <v>0.19047</v>
       </c>
       <c r="C60" t="n">
-        <v>0.225697</v>
+        <v>0.174274</v>
       </c>
       <c r="D60" t="n">
-        <v>0.198445</v>
+        <v>0.173142</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.219424</v>
+        <v>0.185177</v>
       </c>
       <c r="C61" t="n">
-        <v>0.204748</v>
+        <v>0.169229</v>
       </c>
       <c r="D61" t="n">
-        <v>0.167256</v>
+        <v>0.167895</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.179973</v>
+        <v>0.181156</v>
       </c>
       <c r="C62" t="n">
-        <v>0.183965</v>
+        <v>0.165277</v>
       </c>
       <c r="D62" t="n">
-        <v>0.164796</v>
+        <v>0.163423</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17674</v>
+        <v>0.178659</v>
       </c>
       <c r="C63" t="n">
-        <v>0.181308</v>
+        <v>0.162607</v>
       </c>
       <c r="D63" t="n">
-        <v>0.161909</v>
+        <v>0.161585</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175469</v>
+        <v>0.176462</v>
       </c>
       <c r="C64" t="n">
-        <v>0.180009</v>
+        <v>0.160972</v>
       </c>
       <c r="D64" t="n">
-        <v>0.16114</v>
+        <v>0.160875</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176144</v>
+        <v>0.177056</v>
       </c>
       <c r="C65" t="n">
-        <v>0.180875</v>
+        <v>0.161716</v>
       </c>
       <c r="D65" t="n">
-        <v>0.162564</v>
+        <v>0.162771</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.178715</v>
+        <v>0.179342</v>
       </c>
       <c r="C66" t="n">
-        <v>0.265203</v>
+        <v>0.243178</v>
       </c>
       <c r="D66" t="n">
-        <v>0.239724</v>
+        <v>0.239756</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.245731</v>
+        <v>0.245041</v>
       </c>
       <c r="C67" t="n">
-        <v>0.255254</v>
+        <v>0.235698</v>
       </c>
       <c r="D67" t="n">
-        <v>0.22916</v>
+        <v>0.23035</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236444</v>
+        <v>0.235897</v>
       </c>
       <c r="C68" t="n">
-        <v>0.246284</v>
+        <v>0.224487</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221803</v>
+        <v>0.221332</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.228466</v>
+        <v>0.227761</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237128</v>
+        <v>0.217485</v>
       </c>
       <c r="D69" t="n">
-        <v>0.212532</v>
+        <v>0.213031</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219774</v>
+        <v>0.222233</v>
       </c>
       <c r="C70" t="n">
-        <v>0.228962</v>
+        <v>0.21101</v>
       </c>
       <c r="D70" t="n">
-        <v>0.205199</v>
+        <v>0.205123</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.212682</v>
+        <v>0.21352</v>
       </c>
       <c r="C71" t="n">
-        <v>0.221553</v>
+        <v>0.202908</v>
       </c>
       <c r="D71" t="n">
-        <v>0.197884</v>
+        <v>0.19792</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.206163</v>
+        <v>0.207182</v>
       </c>
       <c r="C72" t="n">
-        <v>0.21467</v>
+        <v>0.195991</v>
       </c>
       <c r="D72" t="n">
-        <v>0.190366</v>
+        <v>0.191003</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199815</v>
+        <v>0.200726</v>
       </c>
       <c r="C73" t="n">
-        <v>0.207338</v>
+        <v>0.188001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.184276</v>
+        <v>0.184038</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193583</v>
+        <v>0.194042</v>
       </c>
       <c r="C74" t="n">
-        <v>0.201752</v>
+        <v>0.18175</v>
       </c>
       <c r="D74" t="n">
-        <v>0.178571</v>
+        <v>0.178441</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.187857</v>
+        <v>0.189064</v>
       </c>
       <c r="C75" t="n">
-        <v>0.196258</v>
+        <v>0.176194</v>
       </c>
       <c r="D75" t="n">
-        <v>0.173339</v>
+        <v>0.173297</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185017</v>
+        <v>0.185081</v>
       </c>
       <c r="C76" t="n">
-        <v>0.191575</v>
+        <v>0.172417</v>
       </c>
       <c r="D76" t="n">
-        <v>0.16813</v>
+        <v>0.169356</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181313</v>
+        <v>0.181169</v>
       </c>
       <c r="C77" t="n">
-        <v>0.188432</v>
+        <v>0.168699</v>
       </c>
       <c r="D77" t="n">
-        <v>0.166328</v>
+        <v>0.166396</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179022</v>
+        <v>0.179236</v>
       </c>
       <c r="C78" t="n">
-        <v>0.186652</v>
+        <v>0.166612</v>
       </c>
       <c r="D78" t="n">
-        <v>0.164877</v>
+        <v>0.165056</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179084</v>
+        <v>0.179112</v>
       </c>
       <c r="C79" t="n">
-        <v>0.18682</v>
+        <v>0.167494</v>
       </c>
       <c r="D79" t="n">
-        <v>0.165695</v>
+        <v>0.166024</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181254</v>
+        <v>0.180881</v>
       </c>
       <c r="C80" t="n">
-        <v>0.261114</v>
+        <v>0.241785</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243748</v>
+        <v>0.244362</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258926</v>
+        <v>0.258603</v>
       </c>
       <c r="C81" t="n">
-        <v>0.253334</v>
+        <v>0.23256</v>
       </c>
       <c r="D81" t="n">
-        <v>0.234117</v>
+        <v>0.234944</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251032</v>
+        <v>0.249739</v>
       </c>
       <c r="C82" t="n">
-        <v>0.244805</v>
+        <v>0.224017</v>
       </c>
       <c r="D82" t="n">
-        <v>0.225676</v>
+        <v>0.226036</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243116</v>
+        <v>0.242339</v>
       </c>
       <c r="C83" t="n">
-        <v>0.236994</v>
+        <v>0.215556</v>
       </c>
       <c r="D83" t="n">
-        <v>0.217405</v>
+        <v>0.218306</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235079</v>
+        <v>0.234812</v>
       </c>
       <c r="C84" t="n">
-        <v>0.229006</v>
+        <v>0.209153</v>
       </c>
       <c r="D84" t="n">
-        <v>0.209686</v>
+        <v>0.210319</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.228548</v>
+        <v>0.227626</v>
       </c>
       <c r="C85" t="n">
-        <v>0.222043</v>
+        <v>0.201517</v>
       </c>
       <c r="D85" t="n">
-        <v>0.202252</v>
+        <v>0.202868</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.221821</v>
+        <v>0.220235</v>
       </c>
       <c r="C86" t="n">
-        <v>0.215409</v>
+        <v>0.19489</v>
       </c>
       <c r="D86" t="n">
-        <v>0.195434</v>
+        <v>0.195868</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214684</v>
+        <v>0.213597</v>
       </c>
       <c r="C87" t="n">
-        <v>0.208891</v>
+        <v>0.188043</v>
       </c>
       <c r="D87" t="n">
-        <v>0.189426</v>
+        <v>0.189403</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208229</v>
+        <v>0.207537</v>
       </c>
       <c r="C88" t="n">
-        <v>0.203083</v>
+        <v>0.18249</v>
       </c>
       <c r="D88" t="n">
-        <v>0.183394</v>
+        <v>0.18312</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.202946</v>
+        <v>0.201852</v>
       </c>
       <c r="C89" t="n">
-        <v>0.198366</v>
+        <v>0.17819</v>
       </c>
       <c r="D89" t="n">
-        <v>0.178571</v>
+        <v>0.17847</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197785</v>
+        <v>0.196702</v>
       </c>
       <c r="C90" t="n">
-        <v>0.193798</v>
+        <v>0.17277</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173227</v>
+        <v>0.173842</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193795</v>
+        <v>0.192745</v>
       </c>
       <c r="C91" t="n">
-        <v>0.190302</v>
+        <v>0.171057</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1702</v>
+        <v>0.170162</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190818</v>
+        <v>0.189874</v>
       </c>
       <c r="C92" t="n">
-        <v>0.18827</v>
+        <v>0.167861</v>
       </c>
       <c r="D92" t="n">
-        <v>0.168313</v>
+        <v>0.168455</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188952</v>
+        <v>0.188776</v>
       </c>
       <c r="C93" t="n">
-        <v>0.188415</v>
+        <v>0.168317</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169004</v>
+        <v>0.16875</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190333</v>
+        <v>0.189801</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2753</v>
+        <v>0.254368</v>
       </c>
       <c r="D94" t="n">
-        <v>0.261155</v>
+        <v>0.262015</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.269837</v>
+        <v>0.271165</v>
       </c>
       <c r="C95" t="n">
-        <v>0.269014</v>
+        <v>0.247229</v>
       </c>
       <c r="D95" t="n">
-        <v>0.254257</v>
+        <v>0.254138</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.264408</v>
+        <v>0.26502</v>
       </c>
       <c r="C96" t="n">
-        <v>0.260157</v>
+        <v>0.238351</v>
       </c>
       <c r="D96" t="n">
-        <v>0.244589</v>
+        <v>0.245663</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257544</v>
+        <v>0.258512</v>
       </c>
       <c r="C97" t="n">
-        <v>0.252322</v>
+        <v>0.230836</v>
       </c>
       <c r="D97" t="n">
-        <v>0.236313</v>
+        <v>0.237268</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.250529</v>
+        <v>0.252352</v>
       </c>
       <c r="C98" t="n">
-        <v>0.244708</v>
+        <v>0.223402</v>
       </c>
       <c r="D98" t="n">
-        <v>0.228714</v>
+        <v>0.229732</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244091</v>
+        <v>0.245264</v>
       </c>
       <c r="C99" t="n">
-        <v>0.238077</v>
+        <v>0.216187</v>
       </c>
       <c r="D99" t="n">
-        <v>0.221596</v>
+        <v>0.222638</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238026</v>
+        <v>0.2393</v>
       </c>
       <c r="C100" t="n">
-        <v>0.231221</v>
+        <v>0.209601</v>
       </c>
       <c r="D100" t="n">
-        <v>0.214416</v>
+        <v>0.21531</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232306</v>
+        <v>0.233428</v>
       </c>
       <c r="C101" t="n">
-        <v>0.225494</v>
+        <v>0.203579</v>
       </c>
       <c r="D101" t="n">
-        <v>0.208119</v>
+        <v>0.208372</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.22682</v>
+        <v>0.228333</v>
       </c>
       <c r="C102" t="n">
-        <v>0.219078</v>
+        <v>0.19709</v>
       </c>
       <c r="D102" t="n">
-        <v>0.201969</v>
+        <v>0.202744</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222115</v>
+        <v>0.222609</v>
       </c>
       <c r="C103" t="n">
-        <v>0.214603</v>
+        <v>0.191822</v>
       </c>
       <c r="D103" t="n">
-        <v>0.196778</v>
+        <v>0.196466</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.217123</v>
+        <v>0.218774</v>
       </c>
       <c r="C104" t="n">
-        <v>0.210132</v>
+        <v>0.187654</v>
       </c>
       <c r="D104" t="n">
-        <v>0.191099</v>
+        <v>0.191814</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.21373</v>
+        <v>0.214121</v>
       </c>
       <c r="C105" t="n">
-        <v>0.206719</v>
+        <v>0.184185</v>
       </c>
       <c r="D105" t="n">
-        <v>0.187371</v>
+        <v>0.188207</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210163</v>
+        <v>0.211274</v>
       </c>
       <c r="C106" t="n">
-        <v>0.204123</v>
+        <v>0.181436</v>
       </c>
       <c r="D106" t="n">
-        <v>0.184729</v>
+        <v>0.185884</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208044</v>
+        <v>0.209038</v>
       </c>
       <c r="C107" t="n">
-        <v>0.203089</v>
+        <v>0.180569</v>
       </c>
       <c r="D107" t="n">
-        <v>0.184337</v>
+        <v>0.185534</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208009</v>
+        <v>0.208411</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2935</v>
+        <v>0.271212</v>
       </c>
       <c r="D108" t="n">
-        <v>0.275888</v>
+        <v>0.279314</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209963</v>
+        <v>0.211011</v>
       </c>
       <c r="C109" t="n">
-        <v>0.287498</v>
+        <v>0.264904</v>
       </c>
       <c r="D109" t="n">
-        <v>0.269117</v>
+        <v>0.273753</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.282943</v>
+        <v>0.286882</v>
       </c>
       <c r="C110" t="n">
-        <v>0.280394</v>
+        <v>0.257885</v>
       </c>
       <c r="D110" t="n">
-        <v>0.260707</v>
+        <v>0.264713</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.276473</v>
+        <v>0.287658</v>
       </c>
       <c r="C111" t="n">
-        <v>0.273035</v>
+        <v>0.263638</v>
       </c>
       <c r="D111" t="n">
-        <v>0.252815</v>
+        <v>0.267769</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.270438</v>
+        <v>0.298654</v>
       </c>
       <c r="C112" t="n">
-        <v>0.266734</v>
+        <v>0.269828</v>
       </c>
       <c r="D112" t="n">
-        <v>0.244792</v>
+        <v>0.274828</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.26488</v>
+        <v>0.289057</v>
       </c>
       <c r="C113" t="n">
-        <v>0.260814</v>
+        <v>0.262805</v>
       </c>
       <c r="D113" t="n">
-        <v>0.238379</v>
+        <v>0.258765</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.258737</v>
+        <v>0.298356</v>
       </c>
       <c r="C114" t="n">
-        <v>0.255282</v>
+        <v>0.254753</v>
       </c>
       <c r="D114" t="n">
-        <v>0.231104</v>
+        <v>0.257048</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.253527</v>
+        <v>0.287053</v>
       </c>
       <c r="C115" t="n">
-        <v>0.249111</v>
+        <v>0.248852</v>
       </c>
       <c r="D115" t="n">
-        <v>0.225001</v>
+        <v>0.249667</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.249003</v>
+        <v>0.301566</v>
       </c>
       <c r="C116" t="n">
-        <v>0.24403</v>
+        <v>0.252766</v>
       </c>
       <c r="D116" t="n">
-        <v>0.219141</v>
+        <v>0.256546</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.244245</v>
+        <v>0.302244</v>
       </c>
       <c r="C117" t="n">
-        <v>0.239493</v>
+        <v>0.260786</v>
       </c>
       <c r="D117" t="n">
-        <v>0.213946</v>
+        <v>0.261073</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.240477</v>
+        <v>0.308071</v>
       </c>
       <c r="C118" t="n">
-        <v>0.235173</v>
+        <v>0.250694</v>
       </c>
       <c r="D118" t="n">
-        <v>0.208881</v>
+        <v>0.249557</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.236468</v>
+        <v>0.300528</v>
       </c>
       <c r="C119" t="n">
-        <v>0.232078</v>
+        <v>0.206757</v>
       </c>
       <c r="D119" t="n">
-        <v>0.205063</v>
+        <v>0.206115</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.233106</v>
+        <v>0.235104</v>
       </c>
       <c r="C120" t="n">
-        <v>0.229209</v>
+        <v>0.199543</v>
       </c>
       <c r="D120" t="n">
-        <v>0.202403</v>
+        <v>0.202738</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.231132</v>
+        <v>0.232801</v>
       </c>
       <c r="C121" t="n">
-        <v>0.228204</v>
+        <v>0.1983</v>
       </c>
       <c r="D121" t="n">
-        <v>0.200718</v>
+        <v>0.200802</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.230353</v>
+        <v>0.231587</v>
       </c>
       <c r="C122" t="n">
-        <v>0.228961</v>
+        <v>0.199062</v>
       </c>
       <c r="D122" t="n">
-        <v>0.202301</v>
+        <v>0.202276</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.231219</v>
+        <v>0.232527</v>
       </c>
       <c r="C123" t="n">
-        <v>0.31414</v>
+        <v>0.283372</v>
       </c>
       <c r="D123" t="n">
-        <v>0.286735</v>
+        <v>0.287562</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.316196</v>
+        <v>0.317629</v>
       </c>
       <c r="C124" t="n">
-        <v>0.308652</v>
+        <v>0.277155</v>
       </c>
       <c r="D124" t="n">
-        <v>0.279769</v>
+        <v>0.280424</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.310024</v>
+        <v>0.311633</v>
       </c>
       <c r="C125" t="n">
-        <v>0.303583</v>
+        <v>0.270848</v>
       </c>
       <c r="D125" t="n">
-        <v>0.273638</v>
+        <v>0.274072</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.304648</v>
+        <v>0.30611</v>
       </c>
       <c r="C126" t="n">
-        <v>0.298286</v>
+        <v>0.265299</v>
       </c>
       <c r="D126" t="n">
-        <v>0.267156</v>
+        <v>0.268364</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29907</v>
+        <v>0.300806</v>
       </c>
       <c r="C127" t="n">
-        <v>0.295094</v>
+        <v>0.259839</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263574</v>
+        <v>0.261996</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295691</v>
+        <v>0.295937</v>
       </c>
       <c r="C128" t="n">
-        <v>0.290755</v>
+        <v>0.255077</v>
       </c>
       <c r="D128" t="n">
-        <v>0.260658</v>
+        <v>0.257139</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.299506</v>
+        <v>0.29068</v>
       </c>
       <c r="C129" t="n">
-        <v>0.289468</v>
+        <v>0.2506</v>
       </c>
       <c r="D129" t="n">
-        <v>0.254782</v>
+        <v>0.252052</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.294234</v>
+        <v>0.286725</v>
       </c>
       <c r="C130" t="n">
-        <v>0.287118</v>
+        <v>0.245762</v>
       </c>
       <c r="D130" t="n">
-        <v>0.264647</v>
+        <v>0.247137</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.311148</v>
+        <v>0.282666</v>
       </c>
       <c r="C131" t="n">
-        <v>0.30225</v>
+        <v>0.242086</v>
       </c>
       <c r="D131" t="n">
-        <v>0.268241</v>
+        <v>0.242985</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.30772</v>
+        <v>0.278957</v>
       </c>
       <c r="C132" t="n">
-        <v>0.300688</v>
+        <v>0.238529</v>
       </c>
       <c r="D132" t="n">
-        <v>0.25632</v>
+        <v>0.238772</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.30786</v>
+        <v>0.275394</v>
       </c>
       <c r="C133" t="n">
-        <v>0.29993</v>
+        <v>0.235167</v>
       </c>
       <c r="D133" t="n">
-        <v>0.257963</v>
+        <v>0.236082</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.329353</v>
+        <v>0.273374</v>
       </c>
       <c r="C134" t="n">
-        <v>0.339904</v>
+        <v>0.232891</v>
       </c>
       <c r="D134" t="n">
-        <v>0.279008</v>
+        <v>0.233329</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.320204</v>
+        <v>0.271379</v>
       </c>
       <c r="C135" t="n">
-        <v>0.353242</v>
+        <v>0.231506</v>
       </c>
       <c r="D135" t="n">
-        <v>0.301218</v>
+        <v>0.232326</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.344914</v>
+        <v>0.270435</v>
       </c>
       <c r="C136" t="n">
-        <v>0.354684</v>
+        <v>0.231721</v>
       </c>
       <c r="D136" t="n">
-        <v>0.238671</v>
+        <v>0.232752</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.26775</v>
+        <v>0.27056</v>
       </c>
       <c r="C137" t="n">
-        <v>0.364594</v>
+        <v>0.325987</v>
       </c>
       <c r="D137" t="n">
-        <v>0.32485</v>
+        <v>0.325165</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352647</v>
+        <v>0.357513</v>
       </c>
       <c r="C138" t="n">
-        <v>0.359669</v>
+        <v>0.320352</v>
       </c>
       <c r="D138" t="n">
-        <v>0.318272</v>
+        <v>0.319238</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347701</v>
+        <v>0.351631</v>
       </c>
       <c r="C139" t="n">
-        <v>0.355413</v>
+        <v>0.315134</v>
       </c>
       <c r="D139" t="n">
-        <v>0.313307</v>
+        <v>0.314251</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.343251</v>
+        <v>0.346672</v>
       </c>
       <c r="C140" t="n">
-        <v>0.351576</v>
+        <v>0.310478</v>
       </c>
       <c r="D140" t="n">
-        <v>0.308067</v>
+        <v>0.308361</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.338392</v>
+        <v>0.341888</v>
       </c>
       <c r="C141" t="n">
-        <v>0.347247</v>
+        <v>0.305593</v>
       </c>
       <c r="D141" t="n">
-        <v>0.303313</v>
+        <v>0.303264</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.334089</v>
+        <v>0.337179</v>
       </c>
       <c r="C142" t="n">
-        <v>0.343123</v>
+        <v>0.301314</v>
       </c>
       <c r="D142" t="n">
-        <v>0.298129</v>
+        <v>0.298467</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.329974</v>
+        <v>0.334173</v>
       </c>
       <c r="C143" t="n">
-        <v>0.339907</v>
+        <v>0.297075</v>
       </c>
       <c r="D143" t="n">
-        <v>0.293969</v>
+        <v>0.294447</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.149615</v>
+        <v>0.162977</v>
       </c>
       <c r="C2" t="n">
-        <v>0.146146</v>
+        <v>0.134325</v>
       </c>
       <c r="D2" t="n">
-        <v>0.139512</v>
+        <v>0.138628</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.15903</v>
+        <v>0.160082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.137024</v>
+        <v>0.146159</v>
       </c>
       <c r="D3" t="n">
-        <v>0.149191</v>
+        <v>0.140526</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.157115</v>
+        <v>0.154747</v>
       </c>
       <c r="C4" t="n">
-        <v>0.137416</v>
+        <v>0.145192</v>
       </c>
       <c r="D4" t="n">
-        <v>0.134059</v>
+        <v>0.140474</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.153692</v>
+        <v>0.149452</v>
       </c>
       <c r="C5" t="n">
-        <v>0.128015</v>
+        <v>0.121099</v>
       </c>
       <c r="D5" t="n">
-        <v>0.126604</v>
+        <v>0.135994</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.147149</v>
+        <v>0.144355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.122822</v>
+        <v>0.128619</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1229</v>
+        <v>0.128038</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.151936</v>
+        <v>0.14727</v>
       </c>
       <c r="C7" t="n">
-        <v>0.114016</v>
+        <v>0.121426</v>
       </c>
       <c r="D7" t="n">
-        <v>0.118884</v>
+        <v>0.128448</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.151843</v>
+        <v>0.148533</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116068</v>
+        <v>0.113596</v>
       </c>
       <c r="D8" t="n">
-        <v>0.122734</v>
+        <v>0.124449</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.15278</v>
+        <v>0.144529</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184821</v>
+        <v>0.191923</v>
       </c>
       <c r="D9" t="n">
-        <v>0.195964</v>
+        <v>0.207942</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.217154</v>
+        <v>0.209618</v>
       </c>
       <c r="C10" t="n">
-        <v>0.189647</v>
+        <v>0.185765</v>
       </c>
       <c r="D10" t="n">
-        <v>0.193647</v>
+        <v>0.190173</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.20537</v>
+        <v>0.199069</v>
       </c>
       <c r="C11" t="n">
-        <v>0.163881</v>
+        <v>0.174349</v>
       </c>
       <c r="D11" t="n">
-        <v>0.185604</v>
+        <v>0.181189</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.202248</v>
+        <v>0.200101</v>
       </c>
       <c r="C12" t="n">
-        <v>0.166317</v>
+        <v>0.171151</v>
       </c>
       <c r="D12" t="n">
-        <v>0.181819</v>
+        <v>0.176414</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.192841</v>
+        <v>0.185346</v>
       </c>
       <c r="C13" t="n">
-        <v>0.160727</v>
+        <v>0.159514</v>
       </c>
       <c r="D13" t="n">
-        <v>0.171294</v>
+        <v>0.182161</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.190022</v>
+        <v>0.185408</v>
       </c>
       <c r="C14" t="n">
-        <v>0.156798</v>
+        <v>0.161908</v>
       </c>
       <c r="D14" t="n">
-        <v>0.169507</v>
+        <v>0.168527</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.177566</v>
+        <v>0.185372</v>
       </c>
       <c r="C15" t="n">
-        <v>0.155949</v>
+        <v>0.157006</v>
       </c>
       <c r="D15" t="n">
-        <v>0.164556</v>
+        <v>0.167058</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.178578</v>
+        <v>0.175123</v>
       </c>
       <c r="C16" t="n">
-        <v>0.149744</v>
+        <v>0.15232</v>
       </c>
       <c r="D16" t="n">
-        <v>0.153101</v>
+        <v>0.159813</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.171016</v>
+        <v>0.169106</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144868</v>
+        <v>0.146758</v>
       </c>
       <c r="D17" t="n">
-        <v>0.148999</v>
+        <v>0.157279</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.164349</v>
+        <v>0.16176</v>
       </c>
       <c r="C18" t="n">
-        <v>0.132317</v>
+        <v>0.141545</v>
       </c>
       <c r="D18" t="n">
-        <v>0.147343</v>
+        <v>0.151323</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.164771</v>
+        <v>0.160794</v>
       </c>
       <c r="C19" t="n">
-        <v>0.13672</v>
+        <v>0.139699</v>
       </c>
       <c r="D19" t="n">
-        <v>0.142542</v>
+        <v>0.146529</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.153051</v>
+        <v>0.157499</v>
       </c>
       <c r="C20" t="n">
-        <v>0.128805</v>
+        <v>0.132936</v>
       </c>
       <c r="D20" t="n">
-        <v>0.134853</v>
+        <v>0.143588</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.157814</v>
+        <v>0.156313</v>
       </c>
       <c r="C21" t="n">
-        <v>0.133089</v>
+        <v>0.130543</v>
       </c>
       <c r="D21" t="n">
-        <v>0.135333</v>
+        <v>0.139302</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.158062</v>
+        <v>0.156081</v>
       </c>
       <c r="C22" t="n">
-        <v>0.129533</v>
+        <v>0.12704</v>
       </c>
       <c r="D22" t="n">
-        <v>0.139999</v>
+        <v>0.140533</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16019</v>
+        <v>0.155049</v>
       </c>
       <c r="C23" t="n">
-        <v>0.217881</v>
+        <v>0.217273</v>
       </c>
       <c r="D23" t="n">
-        <v>0.230806</v>
+        <v>0.233418</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236756</v>
+        <v>0.246314</v>
       </c>
       <c r="C24" t="n">
-        <v>0.214138</v>
+        <v>0.207939</v>
       </c>
       <c r="D24" t="n">
-        <v>0.221193</v>
+        <v>0.225357</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.228337</v>
+        <v>0.228102</v>
       </c>
       <c r="C25" t="n">
-        <v>0.203745</v>
+        <v>0.20189</v>
       </c>
       <c r="D25" t="n">
-        <v>0.21225</v>
+        <v>0.213645</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.222116</v>
+        <v>0.227974</v>
       </c>
       <c r="C26" t="n">
-        <v>0.189929</v>
+        <v>0.196356</v>
       </c>
       <c r="D26" t="n">
-        <v>0.204473</v>
+        <v>0.204264</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.210989</v>
+        <v>0.217672</v>
       </c>
       <c r="C27" t="n">
-        <v>0.190021</v>
+        <v>0.183487</v>
       </c>
       <c r="D27" t="n">
-        <v>0.194273</v>
+        <v>0.194562</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.209971</v>
+        <v>0.210083</v>
       </c>
       <c r="C28" t="n">
-        <v>0.179433</v>
+        <v>0.182843</v>
       </c>
       <c r="D28" t="n">
-        <v>0.187661</v>
+        <v>0.185704</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.196934</v>
+        <v>0.194792</v>
       </c>
       <c r="C29" t="n">
-        <v>0.175797</v>
+        <v>0.169689</v>
       </c>
       <c r="D29" t="n">
-        <v>0.186522</v>
+        <v>0.179575</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.191618</v>
+        <v>0.191708</v>
       </c>
       <c r="C30" t="n">
-        <v>0.167435</v>
+        <v>0.160768</v>
       </c>
       <c r="D30" t="n">
-        <v>0.183667</v>
+        <v>0.173818</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.187334</v>
+        <v>0.18419</v>
       </c>
       <c r="C31" t="n">
-        <v>0.162819</v>
+        <v>0.165441</v>
       </c>
       <c r="D31" t="n">
-        <v>0.176737</v>
+        <v>0.1664</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.184374</v>
+        <v>0.180632</v>
       </c>
       <c r="C32" t="n">
-        <v>0.158519</v>
+        <v>0.153686</v>
       </c>
       <c r="D32" t="n">
-        <v>0.17104</v>
+        <v>0.161386</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.186615</v>
+        <v>0.174882</v>
       </c>
       <c r="C33" t="n">
-        <v>0.160827</v>
+        <v>0.151839</v>
       </c>
       <c r="D33" t="n">
-        <v>0.164863</v>
+        <v>0.158705</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.182429</v>
+        <v>0.170553</v>
       </c>
       <c r="C34" t="n">
-        <v>0.15442</v>
+        <v>0.144322</v>
       </c>
       <c r="D34" t="n">
-        <v>0.16277</v>
+        <v>0.155573</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.179161</v>
+        <v>0.166129</v>
       </c>
       <c r="C35" t="n">
-        <v>0.152281</v>
+        <v>0.143566</v>
       </c>
       <c r="D35" t="n">
-        <v>0.161202</v>
+        <v>0.153949</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17575</v>
+        <v>0.168285</v>
       </c>
       <c r="C36" t="n">
-        <v>0.153771</v>
+        <v>0.150525</v>
       </c>
       <c r="D36" t="n">
-        <v>0.161449</v>
+        <v>0.153021</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.176667</v>
+        <v>0.170077</v>
       </c>
       <c r="C37" t="n">
-        <v>0.246975</v>
+        <v>0.231397</v>
       </c>
       <c r="D37" t="n">
-        <v>0.247952</v>
+        <v>0.234767</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.258928</v>
+        <v>0.240186</v>
       </c>
       <c r="C38" t="n">
-        <v>0.237699</v>
+        <v>0.222293</v>
       </c>
       <c r="D38" t="n">
-        <v>0.237867</v>
+        <v>0.224971</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.249561</v>
+        <v>0.230069</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230922</v>
+        <v>0.213996</v>
       </c>
       <c r="D39" t="n">
-        <v>0.230612</v>
+        <v>0.216936</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.244107</v>
+        <v>0.222269</v>
       </c>
       <c r="C40" t="n">
-        <v>0.218221</v>
+        <v>0.206866</v>
       </c>
       <c r="D40" t="n">
-        <v>0.218938</v>
+        <v>0.208505</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233704</v>
+        <v>0.215712</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210067</v>
+        <v>0.198753</v>
       </c>
       <c r="D41" t="n">
-        <v>0.211473</v>
+        <v>0.201261</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224843</v>
+        <v>0.206156</v>
       </c>
       <c r="C42" t="n">
-        <v>0.205468</v>
+        <v>0.192732</v>
       </c>
       <c r="D42" t="n">
-        <v>0.20425</v>
+        <v>0.193081</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.21011</v>
+        <v>0.198587</v>
       </c>
       <c r="C43" t="n">
-        <v>0.182904</v>
+        <v>0.185044</v>
       </c>
       <c r="D43" t="n">
-        <v>0.187902</v>
+        <v>0.186861</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.194444</v>
+        <v>0.194276</v>
       </c>
       <c r="C44" t="n">
-        <v>0.177214</v>
+        <v>0.179497</v>
       </c>
       <c r="D44" t="n">
-        <v>0.181885</v>
+        <v>0.179705</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190676</v>
+        <v>0.187685</v>
       </c>
       <c r="C45" t="n">
-        <v>0.171966</v>
+        <v>0.172895</v>
       </c>
       <c r="D45" t="n">
-        <v>0.175927</v>
+        <v>0.173542</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.183488</v>
+        <v>0.182864</v>
       </c>
       <c r="C46" t="n">
-        <v>0.166345</v>
+        <v>0.168206</v>
       </c>
       <c r="D46" t="n">
-        <v>0.169747</v>
+        <v>0.168591</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.178546</v>
+        <v>0.178774</v>
       </c>
       <c r="C47" t="n">
-        <v>0.162063</v>
+        <v>0.162849</v>
       </c>
       <c r="D47" t="n">
-        <v>0.16336</v>
+        <v>0.1641</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.174851</v>
+        <v>0.174202</v>
       </c>
       <c r="C48" t="n">
-        <v>0.160298</v>
+        <v>0.158835</v>
       </c>
       <c r="D48" t="n">
-        <v>0.160334</v>
+        <v>0.160296</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172218</v>
+        <v>0.170873</v>
       </c>
       <c r="C49" t="n">
-        <v>0.156478</v>
+        <v>0.157291</v>
       </c>
       <c r="D49" t="n">
-        <v>0.157855</v>
+        <v>0.157941</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171488</v>
+        <v>0.170926</v>
       </c>
       <c r="C50" t="n">
-        <v>0.155552</v>
+        <v>0.156792</v>
       </c>
       <c r="D50" t="n">
-        <v>0.157388</v>
+        <v>0.157862</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172053</v>
+        <v>0.175306</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242309</v>
+        <v>0.247343</v>
       </c>
       <c r="D51" t="n">
-        <v>0.24173</v>
+        <v>0.245458</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176548</v>
+        <v>0.177789</v>
       </c>
       <c r="C52" t="n">
-        <v>0.232831</v>
+        <v>0.23706</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232506</v>
+        <v>0.235735</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241384</v>
+        <v>0.245659</v>
       </c>
       <c r="C53" t="n">
-        <v>0.223892</v>
+        <v>0.23839</v>
       </c>
       <c r="D53" t="n">
-        <v>0.22378</v>
+        <v>0.229964</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232413</v>
+        <v>0.239663</v>
       </c>
       <c r="C54" t="n">
-        <v>0.215251</v>
+        <v>0.222403</v>
       </c>
       <c r="D54" t="n">
-        <v>0.214415</v>
+        <v>0.219191</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.224183</v>
+        <v>0.230068</v>
       </c>
       <c r="C55" t="n">
-        <v>0.207289</v>
+        <v>0.214363</v>
       </c>
       <c r="D55" t="n">
-        <v>0.206294</v>
+        <v>0.216256</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216195</v>
+        <v>0.232123</v>
       </c>
       <c r="C56" t="n">
-        <v>0.199299</v>
+        <v>0.215919</v>
       </c>
       <c r="D56" t="n">
-        <v>0.198724</v>
+        <v>0.210518</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.209374</v>
+        <v>0.225345</v>
       </c>
       <c r="C57" t="n">
-        <v>0.192802</v>
+        <v>0.209964</v>
       </c>
       <c r="D57" t="n">
-        <v>0.191004</v>
+        <v>0.207124</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.202397</v>
+        <v>0.222209</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186464</v>
+        <v>0.201533</v>
       </c>
       <c r="D58" t="n">
-        <v>0.184486</v>
+        <v>0.199206</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196269</v>
+        <v>0.212584</v>
       </c>
       <c r="C59" t="n">
-        <v>0.180021</v>
+        <v>0.194741</v>
       </c>
       <c r="D59" t="n">
-        <v>0.178065</v>
+        <v>0.191465</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.19047</v>
+        <v>0.210167</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174274</v>
+        <v>0.18976</v>
       </c>
       <c r="D60" t="n">
-        <v>0.173142</v>
+        <v>0.188974</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.185177</v>
+        <v>0.222374</v>
       </c>
       <c r="C61" t="n">
-        <v>0.169229</v>
+        <v>0.19882</v>
       </c>
       <c r="D61" t="n">
-        <v>0.167895</v>
+        <v>0.194151</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181156</v>
+        <v>0.221813</v>
       </c>
       <c r="C62" t="n">
-        <v>0.165277</v>
+        <v>0.199201</v>
       </c>
       <c r="D62" t="n">
-        <v>0.163423</v>
+        <v>0.19171</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178659</v>
+        <v>0.217016</v>
       </c>
       <c r="C63" t="n">
-        <v>0.162607</v>
+        <v>0.196832</v>
       </c>
       <c r="D63" t="n">
-        <v>0.161585</v>
+        <v>0.187404</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176462</v>
+        <v>0.2145</v>
       </c>
       <c r="C64" t="n">
-        <v>0.160972</v>
+        <v>0.19551</v>
       </c>
       <c r="D64" t="n">
-        <v>0.160875</v>
+        <v>0.186078</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177056</v>
+        <v>0.205181</v>
       </c>
       <c r="C65" t="n">
-        <v>0.161716</v>
+        <v>0.162155</v>
       </c>
       <c r="D65" t="n">
-        <v>0.162771</v>
+        <v>0.16276</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179342</v>
+        <v>0.179123</v>
       </c>
       <c r="C66" t="n">
-        <v>0.243178</v>
+        <v>0.242851</v>
       </c>
       <c r="D66" t="n">
-        <v>0.239756</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.245041</v>
+        <v>0.244787</v>
       </c>
       <c r="C67" t="n">
-        <v>0.235698</v>
+        <v>0.235215</v>
       </c>
       <c r="D67" t="n">
-        <v>0.23035</v>
+        <v>0.230163</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235897</v>
+        <v>0.236144</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224487</v>
+        <v>0.227081</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221332</v>
+        <v>0.219291</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227761</v>
+        <v>0.22695</v>
       </c>
       <c r="C69" t="n">
-        <v>0.217485</v>
+        <v>0.217384</v>
       </c>
       <c r="D69" t="n">
-        <v>0.213031</v>
+        <v>0.212855</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.222233</v>
+        <v>0.217594</v>
       </c>
       <c r="C70" t="n">
-        <v>0.21101</v>
+        <v>0.209216</v>
       </c>
       <c r="D70" t="n">
-        <v>0.205123</v>
+        <v>0.204803</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.21352</v>
+        <v>0.213173</v>
       </c>
       <c r="C71" t="n">
-        <v>0.202908</v>
+        <v>0.20271</v>
       </c>
       <c r="D71" t="n">
-        <v>0.19792</v>
+        <v>0.197125</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.207182</v>
+        <v>0.20595</v>
       </c>
       <c r="C72" t="n">
-        <v>0.195991</v>
+        <v>0.194886</v>
       </c>
       <c r="D72" t="n">
-        <v>0.191003</v>
+        <v>0.190299</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200726</v>
+        <v>0.199437</v>
       </c>
       <c r="C73" t="n">
-        <v>0.188001</v>
+        <v>0.188444</v>
       </c>
       <c r="D73" t="n">
-        <v>0.184038</v>
+        <v>0.184204</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194042</v>
+        <v>0.193857</v>
       </c>
       <c r="C74" t="n">
-        <v>0.18175</v>
+        <v>0.182689</v>
       </c>
       <c r="D74" t="n">
-        <v>0.178441</v>
+        <v>0.178283</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189064</v>
+        <v>0.188548</v>
       </c>
       <c r="C75" t="n">
-        <v>0.176194</v>
+        <v>0.177561</v>
       </c>
       <c r="D75" t="n">
-        <v>0.173297</v>
+        <v>0.173106</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185081</v>
+        <v>0.185075</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172417</v>
+        <v>0.172875</v>
       </c>
       <c r="D76" t="n">
-        <v>0.169356</v>
+        <v>0.168828</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181169</v>
+        <v>0.181468</v>
       </c>
       <c r="C77" t="n">
-        <v>0.168699</v>
+        <v>0.169178</v>
       </c>
       <c r="D77" t="n">
-        <v>0.166396</v>
+        <v>0.165597</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179236</v>
+        <v>0.179453</v>
       </c>
       <c r="C78" t="n">
-        <v>0.166612</v>
+        <v>0.167529</v>
       </c>
       <c r="D78" t="n">
-        <v>0.165056</v>
+        <v>0.164632</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179112</v>
+        <v>0.178918</v>
       </c>
       <c r="C79" t="n">
-        <v>0.167494</v>
+        <v>0.167071</v>
       </c>
       <c r="D79" t="n">
-        <v>0.166024</v>
+        <v>0.165679</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180881</v>
+        <v>0.181295</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241785</v>
+        <v>0.241206</v>
       </c>
       <c r="D80" t="n">
-        <v>0.244362</v>
+        <v>0.243539</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258603</v>
+        <v>0.257591</v>
       </c>
       <c r="C81" t="n">
-        <v>0.23256</v>
+        <v>0.232528</v>
       </c>
       <c r="D81" t="n">
-        <v>0.234944</v>
+        <v>0.234355</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249739</v>
+        <v>0.249937</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224017</v>
+        <v>0.224062</v>
       </c>
       <c r="D82" t="n">
-        <v>0.226036</v>
+        <v>0.225645</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242339</v>
+        <v>0.241453</v>
       </c>
       <c r="C83" t="n">
-        <v>0.215556</v>
+        <v>0.215404</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218306</v>
+        <v>0.217602</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234812</v>
+        <v>0.234673</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209153</v>
+        <v>0.20904</v>
       </c>
       <c r="D84" t="n">
-        <v>0.210319</v>
+        <v>0.20989</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227626</v>
+        <v>0.226795</v>
       </c>
       <c r="C85" t="n">
-        <v>0.201517</v>
+        <v>0.201719</v>
       </c>
       <c r="D85" t="n">
-        <v>0.202868</v>
+        <v>0.202388</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220235</v>
+        <v>0.220387</v>
       </c>
       <c r="C86" t="n">
-        <v>0.19489</v>
+        <v>0.194858</v>
       </c>
       <c r="D86" t="n">
-        <v>0.195868</v>
+        <v>0.19518</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213597</v>
+        <v>0.213863</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188043</v>
+        <v>0.188082</v>
       </c>
       <c r="D87" t="n">
-        <v>0.189403</v>
+        <v>0.188629</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207537</v>
+        <v>0.206741</v>
       </c>
       <c r="C88" t="n">
-        <v>0.18249</v>
+        <v>0.182495</v>
       </c>
       <c r="D88" t="n">
-        <v>0.18312</v>
+        <v>0.182425</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201852</v>
+        <v>0.201635</v>
       </c>
       <c r="C89" t="n">
-        <v>0.17819</v>
+        <v>0.177296</v>
       </c>
       <c r="D89" t="n">
-        <v>0.17847</v>
+        <v>0.177667</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196702</v>
+        <v>0.196688</v>
       </c>
       <c r="C90" t="n">
-        <v>0.17277</v>
+        <v>0.17337</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173842</v>
+        <v>0.173139</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192745</v>
+        <v>0.192577</v>
       </c>
       <c r="C91" t="n">
-        <v>0.171057</v>
+        <v>0.170222</v>
       </c>
       <c r="D91" t="n">
-        <v>0.170162</v>
+        <v>0.169959</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189874</v>
+        <v>0.18979</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167861</v>
+        <v>0.167947</v>
       </c>
       <c r="D92" t="n">
-        <v>0.168455</v>
+        <v>0.168136</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188776</v>
+        <v>0.189069</v>
       </c>
       <c r="C93" t="n">
-        <v>0.168317</v>
+        <v>0.167372</v>
       </c>
       <c r="D93" t="n">
-        <v>0.16875</v>
+        <v>0.16874</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189801</v>
+        <v>0.189684</v>
       </c>
       <c r="C94" t="n">
-        <v>0.254368</v>
+        <v>0.254681</v>
       </c>
       <c r="D94" t="n">
-        <v>0.262015</v>
+        <v>0.26099</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.271165</v>
+        <v>0.271071</v>
       </c>
       <c r="C95" t="n">
-        <v>0.247229</v>
+        <v>0.247013</v>
       </c>
       <c r="D95" t="n">
-        <v>0.254138</v>
+        <v>0.25334</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.26502</v>
+        <v>0.265047</v>
       </c>
       <c r="C96" t="n">
-        <v>0.238351</v>
+        <v>0.238274</v>
       </c>
       <c r="D96" t="n">
-        <v>0.245663</v>
+        <v>0.244456</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258512</v>
+        <v>0.258175</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230836</v>
+        <v>0.230288</v>
       </c>
       <c r="D97" t="n">
-        <v>0.237268</v>
+        <v>0.236898</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252352</v>
+        <v>0.251551</v>
       </c>
       <c r="C98" t="n">
-        <v>0.223402</v>
+        <v>0.222399</v>
       </c>
       <c r="D98" t="n">
-        <v>0.229732</v>
+        <v>0.228794</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245264</v>
+        <v>0.244562</v>
       </c>
       <c r="C99" t="n">
-        <v>0.216187</v>
+        <v>0.215159</v>
       </c>
       <c r="D99" t="n">
-        <v>0.222638</v>
+        <v>0.221158</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.2393</v>
+        <v>0.238636</v>
       </c>
       <c r="C100" t="n">
-        <v>0.209601</v>
+        <v>0.208547</v>
       </c>
       <c r="D100" t="n">
-        <v>0.21531</v>
+        <v>0.214265</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233428</v>
+        <v>0.23321</v>
       </c>
       <c r="C101" t="n">
-        <v>0.203579</v>
+        <v>0.202421</v>
       </c>
       <c r="D101" t="n">
-        <v>0.208372</v>
+        <v>0.207592</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228333</v>
+        <v>0.227546</v>
       </c>
       <c r="C102" t="n">
-        <v>0.19709</v>
+        <v>0.196869</v>
       </c>
       <c r="D102" t="n">
-        <v>0.202744</v>
+        <v>0.201483</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222609</v>
+        <v>0.22251</v>
       </c>
       <c r="C103" t="n">
-        <v>0.191822</v>
+        <v>0.191359</v>
       </c>
       <c r="D103" t="n">
-        <v>0.196466</v>
+        <v>0.196647</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218774</v>
+        <v>0.218131</v>
       </c>
       <c r="C104" t="n">
-        <v>0.187654</v>
+        <v>0.1866</v>
       </c>
       <c r="D104" t="n">
-        <v>0.191814</v>
+        <v>0.191264</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214121</v>
+        <v>0.214188</v>
       </c>
       <c r="C105" t="n">
-        <v>0.184185</v>
+        <v>0.182915</v>
       </c>
       <c r="D105" t="n">
-        <v>0.188207</v>
+        <v>0.187225</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211274</v>
+        <v>0.210934</v>
       </c>
       <c r="C106" t="n">
-        <v>0.181436</v>
+        <v>0.18028</v>
       </c>
       <c r="D106" t="n">
-        <v>0.185884</v>
+        <v>0.184841</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209038</v>
+        <v>0.208517</v>
       </c>
       <c r="C107" t="n">
-        <v>0.180569</v>
+        <v>0.179151</v>
       </c>
       <c r="D107" t="n">
-        <v>0.185534</v>
+        <v>0.184353</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208411</v>
+        <v>0.20834</v>
       </c>
       <c r="C108" t="n">
-        <v>0.271212</v>
+        <v>0.268995</v>
       </c>
       <c r="D108" t="n">
-        <v>0.279314</v>
+        <v>0.276195</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211011</v>
+        <v>0.210512</v>
       </c>
       <c r="C109" t="n">
-        <v>0.264904</v>
+        <v>0.262663</v>
       </c>
       <c r="D109" t="n">
-        <v>0.273753</v>
+        <v>0.269278</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.286882</v>
+        <v>0.284397</v>
       </c>
       <c r="C110" t="n">
-        <v>0.257885</v>
+        <v>0.254742</v>
       </c>
       <c r="D110" t="n">
-        <v>0.264713</v>
+        <v>0.260803</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.287658</v>
+        <v>0.277972</v>
       </c>
       <c r="C111" t="n">
-        <v>0.263638</v>
+        <v>0.247637</v>
       </c>
       <c r="D111" t="n">
-        <v>0.267769</v>
+        <v>0.252216</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.298654</v>
+        <v>0.271979</v>
       </c>
       <c r="C112" t="n">
-        <v>0.269828</v>
+        <v>0.240007</v>
       </c>
       <c r="D112" t="n">
-        <v>0.274828</v>
+        <v>0.245056</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.289057</v>
+        <v>0.265996</v>
       </c>
       <c r="C113" t="n">
-        <v>0.262805</v>
+        <v>0.233118</v>
       </c>
       <c r="D113" t="n">
-        <v>0.258765</v>
+        <v>0.23778</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.298356</v>
+        <v>0.260557</v>
       </c>
       <c r="C114" t="n">
-        <v>0.254753</v>
+        <v>0.226799</v>
       </c>
       <c r="D114" t="n">
-        <v>0.257048</v>
+        <v>0.231351</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.287053</v>
+        <v>0.254908</v>
       </c>
       <c r="C115" t="n">
-        <v>0.248852</v>
+        <v>0.221141</v>
       </c>
       <c r="D115" t="n">
-        <v>0.249667</v>
+        <v>0.224681</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.301566</v>
+        <v>0.250164</v>
       </c>
       <c r="C116" t="n">
-        <v>0.252766</v>
+        <v>0.215587</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256546</v>
+        <v>0.218397</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.302244</v>
+        <v>0.245175</v>
       </c>
       <c r="C117" t="n">
-        <v>0.260786</v>
+        <v>0.210339</v>
       </c>
       <c r="D117" t="n">
-        <v>0.261073</v>
+        <v>0.213291</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.308071</v>
+        <v>0.241367</v>
       </c>
       <c r="C118" t="n">
-        <v>0.250694</v>
+        <v>0.206402</v>
       </c>
       <c r="D118" t="n">
-        <v>0.249557</v>
+        <v>0.209204</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.300528</v>
+        <v>0.237875</v>
       </c>
       <c r="C119" t="n">
-        <v>0.206757</v>
+        <v>0.203763</v>
       </c>
       <c r="D119" t="n">
-        <v>0.206115</v>
+        <v>0.206848</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.235104</v>
+        <v>0.234585</v>
       </c>
       <c r="C120" t="n">
-        <v>0.199543</v>
+        <v>0.199654</v>
       </c>
       <c r="D120" t="n">
-        <v>0.202738</v>
+        <v>0.203629</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232801</v>
+        <v>0.231942</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1983</v>
+        <v>0.198586</v>
       </c>
       <c r="D121" t="n">
-        <v>0.200802</v>
+        <v>0.201379</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231587</v>
+        <v>0.231695</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199062</v>
+        <v>0.204302</v>
       </c>
       <c r="D122" t="n">
-        <v>0.202276</v>
+        <v>0.205524</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232527</v>
+        <v>0.232933</v>
       </c>
       <c r="C123" t="n">
-        <v>0.283372</v>
+        <v>0.285205</v>
       </c>
       <c r="D123" t="n">
-        <v>0.287562</v>
+        <v>0.288905</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.317629</v>
+        <v>0.329878</v>
       </c>
       <c r="C124" t="n">
-        <v>0.277155</v>
+        <v>0.277632</v>
       </c>
       <c r="D124" t="n">
-        <v>0.280424</v>
+        <v>0.280483</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311633</v>
+        <v>0.318654</v>
       </c>
       <c r="C125" t="n">
-        <v>0.270848</v>
+        <v>0.271237</v>
       </c>
       <c r="D125" t="n">
-        <v>0.274072</v>
+        <v>0.274747</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.30611</v>
+        <v>0.312663</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265299</v>
+        <v>0.265653</v>
       </c>
       <c r="D126" t="n">
-        <v>0.268364</v>
+        <v>0.268748</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.300806</v>
+        <v>0.307201</v>
       </c>
       <c r="C127" t="n">
-        <v>0.259839</v>
+        <v>0.260196</v>
       </c>
       <c r="D127" t="n">
-        <v>0.261996</v>
+        <v>0.262932</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295937</v>
+        <v>0.301328</v>
       </c>
       <c r="C128" t="n">
-        <v>0.255077</v>
+        <v>0.255295</v>
       </c>
       <c r="D128" t="n">
-        <v>0.257139</v>
+        <v>0.25748</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.29068</v>
+        <v>0.296322</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2506</v>
+        <v>0.250808</v>
       </c>
       <c r="D129" t="n">
-        <v>0.252052</v>
+        <v>0.252714</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286725</v>
+        <v>0.292075</v>
       </c>
       <c r="C130" t="n">
-        <v>0.245762</v>
+        <v>0.24591</v>
       </c>
       <c r="D130" t="n">
-        <v>0.247137</v>
+        <v>0.247897</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.282666</v>
+        <v>0.287903</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242086</v>
+        <v>0.243247</v>
       </c>
       <c r="D131" t="n">
-        <v>0.242985</v>
+        <v>0.246489</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278957</v>
+        <v>0.285405</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238529</v>
+        <v>0.24008</v>
       </c>
       <c r="D132" t="n">
-        <v>0.238772</v>
+        <v>0.241844</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275394</v>
+        <v>0.288293</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235167</v>
+        <v>0.237643</v>
       </c>
       <c r="D133" t="n">
-        <v>0.236082</v>
+        <v>0.243007</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.273374</v>
+        <v>0.287573</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232891</v>
+        <v>0.236595</v>
       </c>
       <c r="D134" t="n">
-        <v>0.233329</v>
+        <v>0.249927</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.271379</v>
+        <v>0.31123</v>
       </c>
       <c r="C135" t="n">
-        <v>0.231506</v>
+        <v>0.250469</v>
       </c>
       <c r="D135" t="n">
-        <v>0.232326</v>
+        <v>0.256466</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.270435</v>
+        <v>0.300671</v>
       </c>
       <c r="C136" t="n">
-        <v>0.231721</v>
+        <v>0.254123</v>
       </c>
       <c r="D136" t="n">
-        <v>0.232752</v>
+        <v>0.284473</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.27056</v>
+        <v>0.337455</v>
       </c>
       <c r="C137" t="n">
-        <v>0.325987</v>
+        <v>0.368577</v>
       </c>
       <c r="D137" t="n">
-        <v>0.325165</v>
+        <v>0.367259</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.357513</v>
+        <v>0.415465</v>
       </c>
       <c r="C138" t="n">
-        <v>0.320352</v>
+        <v>0.359311</v>
       </c>
       <c r="D138" t="n">
-        <v>0.319238</v>
+        <v>0.359484</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.351631</v>
+        <v>0.407864</v>
       </c>
       <c r="C139" t="n">
-        <v>0.315134</v>
+        <v>0.367246</v>
       </c>
       <c r="D139" t="n">
-        <v>0.314251</v>
+        <v>0.320227</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346672</v>
+        <v>0.354393</v>
       </c>
       <c r="C140" t="n">
-        <v>0.310478</v>
+        <v>0.315199</v>
       </c>
       <c r="D140" t="n">
-        <v>0.308361</v>
+        <v>0.31284</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.341888</v>
+        <v>0.345785</v>
       </c>
       <c r="C141" t="n">
-        <v>0.305593</v>
+        <v>0.306005</v>
       </c>
       <c r="D141" t="n">
-        <v>0.303264</v>
+        <v>0.303775</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.337179</v>
+        <v>0.340833</v>
       </c>
       <c r="C142" t="n">
-        <v>0.301314</v>
+        <v>0.301566</v>
       </c>
       <c r="D142" t="n">
-        <v>0.298467</v>
+        <v>0.29898</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.334173</v>
+        <v>0.336333</v>
       </c>
       <c r="C143" t="n">
-        <v>0.297075</v>
+        <v>0.297621</v>
       </c>
       <c r="D143" t="n">
-        <v>0.294447</v>
+        <v>0.294849</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.162977</v>
+        <v>0.15495</v>
       </c>
       <c r="C2" t="n">
-        <v>0.134325</v>
+        <v>0.133487</v>
       </c>
       <c r="D2" t="n">
-        <v>0.138628</v>
+        <v>0.344005</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.160082</v>
+        <v>0.153545</v>
       </c>
       <c r="C3" t="n">
-        <v>0.146159</v>
+        <v>0.128996</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140526</v>
+        <v>0.340023</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.154747</v>
+        <v>0.156261</v>
       </c>
       <c r="C4" t="n">
-        <v>0.145192</v>
+        <v>0.128778</v>
       </c>
       <c r="D4" t="n">
-        <v>0.140474</v>
+        <v>0.339171</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.149452</v>
+        <v>0.154468</v>
       </c>
       <c r="C5" t="n">
-        <v>0.121099</v>
+        <v>0.123893</v>
       </c>
       <c r="D5" t="n">
-        <v>0.135994</v>
+        <v>0.337006</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.144355</v>
+        <v>0.159997</v>
       </c>
       <c r="C6" t="n">
-        <v>0.128619</v>
+        <v>0.115629</v>
       </c>
       <c r="D6" t="n">
-        <v>0.128038</v>
+        <v>0.334346</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.14727</v>
+        <v>0.148057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.121426</v>
+        <v>0.117525</v>
       </c>
       <c r="D7" t="n">
-        <v>0.128448</v>
+        <v>0.44346</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.148533</v>
+        <v>0.149778</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113596</v>
+        <v>0.110211</v>
       </c>
       <c r="D8" t="n">
-        <v>0.124449</v>
+        <v>0.42934</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.144529</v>
+        <v>0.154311</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191923</v>
+        <v>0.176215</v>
       </c>
       <c r="D9" t="n">
-        <v>0.207942</v>
+        <v>0.422947</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.209618</v>
+        <v>0.223686</v>
       </c>
       <c r="C10" t="n">
-        <v>0.185765</v>
+        <v>0.169618</v>
       </c>
       <c r="D10" t="n">
-        <v>0.190173</v>
+        <v>0.414834</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.199069</v>
+        <v>0.205186</v>
       </c>
       <c r="C11" t="n">
-        <v>0.174349</v>
+        <v>0.167522</v>
       </c>
       <c r="D11" t="n">
-        <v>0.181189</v>
+        <v>0.412844</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.200101</v>
+        <v>0.205051</v>
       </c>
       <c r="C12" t="n">
-        <v>0.171151</v>
+        <v>0.164985</v>
       </c>
       <c r="D12" t="n">
-        <v>0.176414</v>
+        <v>0.410981</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.185346</v>
+        <v>0.191499</v>
       </c>
       <c r="C13" t="n">
-        <v>0.159514</v>
+        <v>0.157948</v>
       </c>
       <c r="D13" t="n">
-        <v>0.182161</v>
+        <v>0.402817</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.185408</v>
+        <v>0.185229</v>
       </c>
       <c r="C14" t="n">
-        <v>0.161908</v>
+        <v>0.154722</v>
       </c>
       <c r="D14" t="n">
-        <v>0.168527</v>
+        <v>0.395902</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.185372</v>
+        <v>0.180374</v>
       </c>
       <c r="C15" t="n">
-        <v>0.157006</v>
+        <v>0.145283</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167058</v>
+        <v>0.389522</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.175123</v>
+        <v>0.173777</v>
       </c>
       <c r="C16" t="n">
-        <v>0.15232</v>
+        <v>0.14847</v>
       </c>
       <c r="D16" t="n">
-        <v>0.159813</v>
+        <v>0.38781</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.169106</v>
+        <v>0.174067</v>
       </c>
       <c r="C17" t="n">
-        <v>0.146758</v>
+        <v>0.137933</v>
       </c>
       <c r="D17" t="n">
-        <v>0.157279</v>
+        <v>0.384793</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.16176</v>
+        <v>0.166807</v>
       </c>
       <c r="C18" t="n">
-        <v>0.141545</v>
+        <v>0.132223</v>
       </c>
       <c r="D18" t="n">
-        <v>0.151323</v>
+        <v>0.379955</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.160794</v>
+        <v>0.160047</v>
       </c>
       <c r="C19" t="n">
-        <v>0.139699</v>
+        <v>0.130486</v>
       </c>
       <c r="D19" t="n">
-        <v>0.146529</v>
+        <v>0.378853</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.157499</v>
+        <v>0.157303</v>
       </c>
       <c r="C20" t="n">
-        <v>0.132936</v>
+        <v>0.124625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.143588</v>
+        <v>0.373582</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.156313</v>
+        <v>0.156402</v>
       </c>
       <c r="C21" t="n">
-        <v>0.130543</v>
+        <v>0.122399</v>
       </c>
       <c r="D21" t="n">
-        <v>0.139302</v>
+        <v>0.476217</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.156081</v>
+        <v>0.163726</v>
       </c>
       <c r="C22" t="n">
-        <v>0.12704</v>
+        <v>0.122231</v>
       </c>
       <c r="D22" t="n">
-        <v>0.140533</v>
+        <v>0.46546</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.155049</v>
+        <v>0.160119</v>
       </c>
       <c r="C23" t="n">
-        <v>0.217273</v>
+        <v>0.215673</v>
       </c>
       <c r="D23" t="n">
-        <v>0.233418</v>
+        <v>0.464787</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.246314</v>
+        <v>0.240097</v>
       </c>
       <c r="C24" t="n">
-        <v>0.207939</v>
+        <v>0.209008</v>
       </c>
       <c r="D24" t="n">
-        <v>0.225357</v>
+        <v>0.45141</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.228102</v>
+        <v>0.231232</v>
       </c>
       <c r="C25" t="n">
-        <v>0.20189</v>
+        <v>0.196812</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213645</v>
+        <v>0.445799</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.227974</v>
+        <v>0.227764</v>
       </c>
       <c r="C26" t="n">
-        <v>0.196356</v>
+        <v>0.193513</v>
       </c>
       <c r="D26" t="n">
-        <v>0.204264</v>
+        <v>0.434497</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.217672</v>
+        <v>0.219773</v>
       </c>
       <c r="C27" t="n">
-        <v>0.183487</v>
+        <v>0.186064</v>
       </c>
       <c r="D27" t="n">
-        <v>0.194562</v>
+        <v>0.427631</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.210083</v>
+        <v>0.21386</v>
       </c>
       <c r="C28" t="n">
-        <v>0.182843</v>
+        <v>0.182841</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185704</v>
+        <v>0.419558</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.194792</v>
+        <v>0.200835</v>
       </c>
       <c r="C29" t="n">
-        <v>0.169689</v>
+        <v>0.175024</v>
       </c>
       <c r="D29" t="n">
-        <v>0.179575</v>
+        <v>0.411806</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.191708</v>
+        <v>0.197722</v>
       </c>
       <c r="C30" t="n">
-        <v>0.160768</v>
+        <v>0.170131</v>
       </c>
       <c r="D30" t="n">
-        <v>0.173818</v>
+        <v>0.406268</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.18419</v>
+        <v>0.185452</v>
       </c>
       <c r="C31" t="n">
-        <v>0.165441</v>
+        <v>0.161414</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1664</v>
+        <v>0.401866</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180632</v>
+        <v>0.185902</v>
       </c>
       <c r="C32" t="n">
-        <v>0.153686</v>
+        <v>0.156848</v>
       </c>
       <c r="D32" t="n">
-        <v>0.161386</v>
+        <v>0.397333</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.174882</v>
+        <v>0.179391</v>
       </c>
       <c r="C33" t="n">
-        <v>0.151839</v>
+        <v>0.155946</v>
       </c>
       <c r="D33" t="n">
-        <v>0.158705</v>
+        <v>0.393844</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.170553</v>
+        <v>0.174647</v>
       </c>
       <c r="C34" t="n">
-        <v>0.144322</v>
+        <v>0.14656</v>
       </c>
       <c r="D34" t="n">
-        <v>0.155573</v>
+        <v>0.389286</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.166129</v>
+        <v>0.167433</v>
       </c>
       <c r="C35" t="n">
-        <v>0.143566</v>
+        <v>0.150628</v>
       </c>
       <c r="D35" t="n">
-        <v>0.153949</v>
+        <v>0.493518</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.168285</v>
+        <v>0.173431</v>
       </c>
       <c r="C36" t="n">
-        <v>0.150525</v>
+        <v>0.146053</v>
       </c>
       <c r="D36" t="n">
-        <v>0.153021</v>
+        <v>0.484731</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170077</v>
+        <v>0.169377</v>
       </c>
       <c r="C37" t="n">
-        <v>0.231397</v>
+        <v>0.230175</v>
       </c>
       <c r="D37" t="n">
-        <v>0.234767</v>
+        <v>0.475688</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.240186</v>
+        <v>0.245427</v>
       </c>
       <c r="C38" t="n">
-        <v>0.222293</v>
+        <v>0.222468</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224971</v>
+        <v>0.463878</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.230069</v>
+        <v>0.236324</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213996</v>
+        <v>0.212657</v>
       </c>
       <c r="D39" t="n">
-        <v>0.216936</v>
+        <v>0.455129</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.222269</v>
+        <v>0.228014</v>
       </c>
       <c r="C40" t="n">
-        <v>0.206866</v>
+        <v>0.20674</v>
       </c>
       <c r="D40" t="n">
-        <v>0.208505</v>
+        <v>0.446551</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.215712</v>
+        <v>0.220475</v>
       </c>
       <c r="C41" t="n">
-        <v>0.198753</v>
+        <v>0.198642</v>
       </c>
       <c r="D41" t="n">
-        <v>0.201261</v>
+        <v>0.438381</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.206156</v>
+        <v>0.211363</v>
       </c>
       <c r="C42" t="n">
-        <v>0.192732</v>
+        <v>0.191772</v>
       </c>
       <c r="D42" t="n">
-        <v>0.193081</v>
+        <v>0.43272</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.198587</v>
+        <v>0.205815</v>
       </c>
       <c r="C43" t="n">
-        <v>0.185044</v>
+        <v>0.188281</v>
       </c>
       <c r="D43" t="n">
-        <v>0.186861</v>
+        <v>0.425374</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.194276</v>
+        <v>0.198957</v>
       </c>
       <c r="C44" t="n">
-        <v>0.179497</v>
+        <v>0.177377</v>
       </c>
       <c r="D44" t="n">
-        <v>0.179705</v>
+        <v>0.420618</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.187685</v>
+        <v>0.192026</v>
       </c>
       <c r="C45" t="n">
-        <v>0.172895</v>
+        <v>0.171985</v>
       </c>
       <c r="D45" t="n">
-        <v>0.173542</v>
+        <v>0.41841</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.182864</v>
+        <v>0.186259</v>
       </c>
       <c r="C46" t="n">
-        <v>0.168206</v>
+        <v>0.166429</v>
       </c>
       <c r="D46" t="n">
-        <v>0.168591</v>
+        <v>0.414417</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.178774</v>
+        <v>0.182829</v>
       </c>
       <c r="C47" t="n">
-        <v>0.162849</v>
+        <v>0.166079</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1641</v>
+        <v>0.412106</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.174202</v>
+        <v>0.178498</v>
       </c>
       <c r="C48" t="n">
-        <v>0.158835</v>
+        <v>0.159028</v>
       </c>
       <c r="D48" t="n">
-        <v>0.160296</v>
+        <v>0.406774</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.170873</v>
+        <v>0.174932</v>
       </c>
       <c r="C49" t="n">
-        <v>0.157291</v>
+        <v>0.15706</v>
       </c>
       <c r="D49" t="n">
-        <v>0.157941</v>
+        <v>0.402662</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170926</v>
+        <v>0.173529</v>
       </c>
       <c r="C50" t="n">
-        <v>0.156792</v>
+        <v>0.156108</v>
       </c>
       <c r="D50" t="n">
-        <v>0.157862</v>
+        <v>0.505211</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175306</v>
+        <v>0.174603</v>
       </c>
       <c r="C51" t="n">
-        <v>0.247343</v>
+        <v>0.244006</v>
       </c>
       <c r="D51" t="n">
-        <v>0.245458</v>
+        <v>0.498063</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177789</v>
+        <v>0.178568</v>
       </c>
       <c r="C52" t="n">
-        <v>0.23706</v>
+        <v>0.234167</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235735</v>
+        <v>0.485203</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245659</v>
+        <v>0.242911</v>
       </c>
       <c r="C53" t="n">
-        <v>0.23839</v>
+        <v>0.224348</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229964</v>
+        <v>0.477573</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239663</v>
+        <v>0.233062</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222403</v>
+        <v>0.216183</v>
       </c>
       <c r="D54" t="n">
-        <v>0.219191</v>
+        <v>0.46772</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.230068</v>
+        <v>0.225756</v>
       </c>
       <c r="C55" t="n">
-        <v>0.214363</v>
+        <v>0.208516</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216256</v>
+        <v>0.463373</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232123</v>
+        <v>0.219169</v>
       </c>
       <c r="C56" t="n">
-        <v>0.215919</v>
+        <v>0.200898</v>
       </c>
       <c r="D56" t="n">
-        <v>0.210518</v>
+        <v>0.4539</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.225345</v>
+        <v>0.211266</v>
       </c>
       <c r="C57" t="n">
-        <v>0.209964</v>
+        <v>0.193874</v>
       </c>
       <c r="D57" t="n">
-        <v>0.207124</v>
+        <v>0.446932</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222209</v>
+        <v>0.204869</v>
       </c>
       <c r="C58" t="n">
-        <v>0.201533</v>
+        <v>0.186857</v>
       </c>
       <c r="D58" t="n">
-        <v>0.199206</v>
+        <v>0.440617</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.212584</v>
+        <v>0.198465</v>
       </c>
       <c r="C59" t="n">
-        <v>0.194741</v>
+        <v>0.180909</v>
       </c>
       <c r="D59" t="n">
-        <v>0.191465</v>
+        <v>0.437856</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.210167</v>
+        <v>0.192641</v>
       </c>
       <c r="C60" t="n">
-        <v>0.18976</v>
+        <v>0.175261</v>
       </c>
       <c r="D60" t="n">
-        <v>0.188974</v>
+        <v>0.432426</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.222374</v>
+        <v>0.187453</v>
       </c>
       <c r="C61" t="n">
-        <v>0.19882</v>
+        <v>0.170349</v>
       </c>
       <c r="D61" t="n">
-        <v>0.194151</v>
+        <v>0.428781</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.221813</v>
+        <v>0.183317</v>
       </c>
       <c r="C62" t="n">
-        <v>0.199201</v>
+        <v>0.166078</v>
       </c>
       <c r="D62" t="n">
-        <v>0.19171</v>
+        <v>0.423174</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.217016</v>
+        <v>0.180442</v>
       </c>
       <c r="C63" t="n">
-        <v>0.196832</v>
+        <v>0.163411</v>
       </c>
       <c r="D63" t="n">
-        <v>0.187404</v>
+        <v>0.422691</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2145</v>
+        <v>0.178772</v>
       </c>
       <c r="C64" t="n">
-        <v>0.19551</v>
+        <v>0.161494</v>
       </c>
       <c r="D64" t="n">
-        <v>0.186078</v>
+        <v>0.5450739999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.205181</v>
+        <v>0.178868</v>
       </c>
       <c r="C65" t="n">
-        <v>0.162155</v>
+        <v>0.16251</v>
       </c>
       <c r="D65" t="n">
-        <v>0.16276</v>
+        <v>0.540152</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179123</v>
+        <v>0.182404</v>
       </c>
       <c r="C66" t="n">
-        <v>0.242851</v>
+        <v>0.243741</v>
       </c>
       <c r="D66" t="n">
-        <v>0.239</v>
+        <v>0.524844</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244787</v>
+        <v>0.246499</v>
       </c>
       <c r="C67" t="n">
-        <v>0.235215</v>
+        <v>0.233795</v>
       </c>
       <c r="D67" t="n">
-        <v>0.230163</v>
+        <v>0.515304</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236144</v>
+        <v>0.24057</v>
       </c>
       <c r="C68" t="n">
-        <v>0.227081</v>
+        <v>0.226048</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219291</v>
+        <v>0.507802</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.22695</v>
+        <v>0.229261</v>
       </c>
       <c r="C69" t="n">
-        <v>0.217384</v>
+        <v>0.218522</v>
       </c>
       <c r="D69" t="n">
-        <v>0.212855</v>
+        <v>0.498374</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.217594</v>
+        <v>0.222631</v>
       </c>
       <c r="C70" t="n">
-        <v>0.209216</v>
+        <v>0.208423</v>
       </c>
       <c r="D70" t="n">
-        <v>0.204803</v>
+        <v>0.494679</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213173</v>
+        <v>0.214224</v>
       </c>
       <c r="C71" t="n">
-        <v>0.20271</v>
+        <v>0.20239</v>
       </c>
       <c r="D71" t="n">
-        <v>0.197125</v>
+        <v>0.495527</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.20595</v>
+        <v>0.208225</v>
       </c>
       <c r="C72" t="n">
-        <v>0.194886</v>
+        <v>0.195978</v>
       </c>
       <c r="D72" t="n">
-        <v>0.190299</v>
+        <v>0.483948</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199437</v>
+        <v>0.200051</v>
       </c>
       <c r="C73" t="n">
-        <v>0.188444</v>
+        <v>0.190244</v>
       </c>
       <c r="D73" t="n">
-        <v>0.184204</v>
+        <v>0.481365</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193857</v>
+        <v>0.196592</v>
       </c>
       <c r="C74" t="n">
-        <v>0.182689</v>
+        <v>0.183549</v>
       </c>
       <c r="D74" t="n">
-        <v>0.178283</v>
+        <v>0.496964</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188548</v>
+        <v>0.191699</v>
       </c>
       <c r="C75" t="n">
-        <v>0.177561</v>
+        <v>0.17921</v>
       </c>
       <c r="D75" t="n">
-        <v>0.173106</v>
+        <v>0.492901</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185075</v>
+        <v>0.187385</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172875</v>
+        <v>0.174505</v>
       </c>
       <c r="D76" t="n">
-        <v>0.168828</v>
+        <v>0.489043</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181468</v>
+        <v>0.184281</v>
       </c>
       <c r="C77" t="n">
-        <v>0.169178</v>
+        <v>0.17026</v>
       </c>
       <c r="D77" t="n">
-        <v>0.165597</v>
+        <v>0.486233</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179453</v>
+        <v>0.181944</v>
       </c>
       <c r="C78" t="n">
-        <v>0.167529</v>
+        <v>0.168555</v>
       </c>
       <c r="D78" t="n">
-        <v>0.164632</v>
+        <v>0.664263</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178918</v>
+        <v>0.181193</v>
       </c>
       <c r="C79" t="n">
-        <v>0.167071</v>
+        <v>0.167771</v>
       </c>
       <c r="D79" t="n">
-        <v>0.165679</v>
+        <v>0.653161</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181295</v>
+        <v>0.183598</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241206</v>
+        <v>0.243049</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243539</v>
+        <v>0.643571</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257591</v>
+        <v>0.259901</v>
       </c>
       <c r="C81" t="n">
-        <v>0.232528</v>
+        <v>0.233663</v>
       </c>
       <c r="D81" t="n">
-        <v>0.234355</v>
+        <v>0.63595</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249937</v>
+        <v>0.251809</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224062</v>
+        <v>0.225806</v>
       </c>
       <c r="D82" t="n">
-        <v>0.225645</v>
+        <v>0.629796</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241453</v>
+        <v>0.245416</v>
       </c>
       <c r="C83" t="n">
-        <v>0.215404</v>
+        <v>0.217961</v>
       </c>
       <c r="D83" t="n">
-        <v>0.217602</v>
+        <v>0.622012</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234673</v>
+        <v>0.236506</v>
       </c>
       <c r="C84" t="n">
-        <v>0.20904</v>
+        <v>0.210345</v>
       </c>
       <c r="D84" t="n">
-        <v>0.20989</v>
+        <v>0.619332</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226795</v>
+        <v>0.228865</v>
       </c>
       <c r="C85" t="n">
-        <v>0.201719</v>
+        <v>0.202909</v>
       </c>
       <c r="D85" t="n">
-        <v>0.202388</v>
+        <v>0.615398</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220387</v>
+        <v>0.222002</v>
       </c>
       <c r="C86" t="n">
-        <v>0.194858</v>
+        <v>0.196278</v>
       </c>
       <c r="D86" t="n">
-        <v>0.19518</v>
+        <v>0.615523</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213863</v>
+        <v>0.215267</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188082</v>
+        <v>0.190457</v>
       </c>
       <c r="D87" t="n">
-        <v>0.188629</v>
+        <v>0.615955</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206741</v>
+        <v>0.208708</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182495</v>
+        <v>0.184578</v>
       </c>
       <c r="D88" t="n">
-        <v>0.182425</v>
+        <v>0.622347</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201635</v>
+        <v>0.203164</v>
       </c>
       <c r="C89" t="n">
-        <v>0.177296</v>
+        <v>0.179115</v>
       </c>
       <c r="D89" t="n">
-        <v>0.177667</v>
+        <v>0.631071</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196688</v>
+        <v>0.198265</v>
       </c>
       <c r="C90" t="n">
-        <v>0.17337</v>
+        <v>0.174858</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173139</v>
+        <v>0.635074</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192577</v>
+        <v>0.194029</v>
       </c>
       <c r="C91" t="n">
-        <v>0.170222</v>
+        <v>0.171276</v>
       </c>
       <c r="D91" t="n">
-        <v>0.169959</v>
+        <v>0.639845</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18979</v>
+        <v>0.191051</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167947</v>
+        <v>0.168786</v>
       </c>
       <c r="D92" t="n">
-        <v>0.168136</v>
+        <v>0.852201</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189069</v>
+        <v>0.190331</v>
       </c>
       <c r="C93" t="n">
-        <v>0.167372</v>
+        <v>0.169004</v>
       </c>
       <c r="D93" t="n">
-        <v>0.16874</v>
+        <v>0.847971</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189684</v>
+        <v>0.190609</v>
       </c>
       <c r="C94" t="n">
-        <v>0.254681</v>
+        <v>0.254981</v>
       </c>
       <c r="D94" t="n">
-        <v>0.26099</v>
+        <v>0.845392</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.271071</v>
+        <v>0.271708</v>
       </c>
       <c r="C95" t="n">
-        <v>0.247013</v>
+        <v>0.247215</v>
       </c>
       <c r="D95" t="n">
-        <v>0.25334</v>
+        <v>0.8368139999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265047</v>
+        <v>0.265444</v>
       </c>
       <c r="C96" t="n">
-        <v>0.238274</v>
+        <v>0.239115</v>
       </c>
       <c r="D96" t="n">
-        <v>0.244456</v>
+        <v>0.834033</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258175</v>
+        <v>0.258822</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230288</v>
+        <v>0.230624</v>
       </c>
       <c r="D97" t="n">
-        <v>0.236898</v>
+        <v>0.841704</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251551</v>
+        <v>0.251693</v>
       </c>
       <c r="C98" t="n">
-        <v>0.222399</v>
+        <v>0.222856</v>
       </c>
       <c r="D98" t="n">
-        <v>0.228794</v>
+        <v>0.83904</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244562</v>
+        <v>0.245207</v>
       </c>
       <c r="C99" t="n">
-        <v>0.215159</v>
+        <v>0.21591</v>
       </c>
       <c r="D99" t="n">
-        <v>0.221158</v>
+        <v>0.838568</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238636</v>
+        <v>0.238911</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208547</v>
+        <v>0.209102</v>
       </c>
       <c r="D100" t="n">
-        <v>0.214265</v>
+        <v>0.839709</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.23321</v>
+        <v>0.233314</v>
       </c>
       <c r="C101" t="n">
-        <v>0.202421</v>
+        <v>0.202675</v>
       </c>
       <c r="D101" t="n">
-        <v>0.207592</v>
+        <v>0.842832</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227546</v>
+        <v>0.227926</v>
       </c>
       <c r="C102" t="n">
-        <v>0.196869</v>
+        <v>0.196973</v>
       </c>
       <c r="D102" t="n">
-        <v>0.201483</v>
+        <v>0.8481</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.22251</v>
+        <v>0.223038</v>
       </c>
       <c r="C103" t="n">
-        <v>0.191359</v>
+        <v>0.19177</v>
       </c>
       <c r="D103" t="n">
-        <v>0.196647</v>
+        <v>0.858892</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218131</v>
+        <v>0.218392</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1866</v>
+        <v>0.187172</v>
       </c>
       <c r="D104" t="n">
-        <v>0.191264</v>
+        <v>0.865506</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214188</v>
+        <v>0.214392</v>
       </c>
       <c r="C105" t="n">
-        <v>0.182915</v>
+        <v>0.183301</v>
       </c>
       <c r="D105" t="n">
-        <v>0.187225</v>
+        <v>0.870801</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210934</v>
+        <v>0.211043</v>
       </c>
       <c r="C106" t="n">
-        <v>0.18028</v>
+        <v>0.18078</v>
       </c>
       <c r="D106" t="n">
-        <v>0.184841</v>
+        <v>0.883047</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208517</v>
+        <v>0.208798</v>
       </c>
       <c r="C107" t="n">
-        <v>0.179151</v>
+        <v>0.179522</v>
       </c>
       <c r="D107" t="n">
-        <v>0.184353</v>
+        <v>1.1251</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.20834</v>
+        <v>0.208902</v>
       </c>
       <c r="C108" t="n">
-        <v>0.268995</v>
+        <v>0.269489</v>
       </c>
       <c r="D108" t="n">
-        <v>0.276195</v>
+        <v>1.11268</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210512</v>
+        <v>0.210912</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262663</v>
+        <v>0.262897</v>
       </c>
       <c r="D109" t="n">
-        <v>0.269278</v>
+        <v>1.10474</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.284397</v>
+        <v>0.282122</v>
       </c>
       <c r="C110" t="n">
-        <v>0.254742</v>
+        <v>0.256726</v>
       </c>
       <c r="D110" t="n">
-        <v>0.260803</v>
+        <v>1.09904</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277972</v>
+        <v>0.277332</v>
       </c>
       <c r="C111" t="n">
-        <v>0.247637</v>
+        <v>0.247451</v>
       </c>
       <c r="D111" t="n">
-        <v>0.252216</v>
+        <v>1.09986</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.271979</v>
+        <v>0.271849</v>
       </c>
       <c r="C112" t="n">
-        <v>0.240007</v>
+        <v>0.24043</v>
       </c>
       <c r="D112" t="n">
-        <v>0.245056</v>
+        <v>1.09551</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.265996</v>
+        <v>0.265643</v>
       </c>
       <c r="C113" t="n">
-        <v>0.233118</v>
+        <v>0.233607</v>
       </c>
       <c r="D113" t="n">
-        <v>0.23778</v>
+        <v>1.09076</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260557</v>
+        <v>0.259825</v>
       </c>
       <c r="C114" t="n">
-        <v>0.226799</v>
+        <v>0.227423</v>
       </c>
       <c r="D114" t="n">
-        <v>0.231351</v>
+        <v>1.09524</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.254908</v>
+        <v>0.254755</v>
       </c>
       <c r="C115" t="n">
-        <v>0.221141</v>
+        <v>0.221229</v>
       </c>
       <c r="D115" t="n">
-        <v>0.224681</v>
+        <v>1.09316</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250164</v>
+        <v>0.249822</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215587</v>
+        <v>0.215868</v>
       </c>
       <c r="D116" t="n">
-        <v>0.218397</v>
+        <v>1.09388</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245175</v>
+        <v>0.24522</v>
       </c>
       <c r="C117" t="n">
-        <v>0.210339</v>
+        <v>0.210591</v>
       </c>
       <c r="D117" t="n">
-        <v>0.213291</v>
+        <v>1.0979</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241367</v>
+        <v>0.241839</v>
       </c>
       <c r="C118" t="n">
-        <v>0.206402</v>
+        <v>0.206479</v>
       </c>
       <c r="D118" t="n">
-        <v>0.209204</v>
+        <v>1.10358</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237875</v>
+        <v>0.23729</v>
       </c>
       <c r="C119" t="n">
-        <v>0.203763</v>
+        <v>0.202559</v>
       </c>
       <c r="D119" t="n">
-        <v>0.206848</v>
+        <v>1.11072</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234585</v>
+        <v>0.234272</v>
       </c>
       <c r="C120" t="n">
-        <v>0.199654</v>
+        <v>0.199773</v>
       </c>
       <c r="D120" t="n">
-        <v>0.203629</v>
+        <v>1.11523</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.231942</v>
+        <v>0.232088</v>
       </c>
       <c r="C121" t="n">
-        <v>0.198586</v>
+        <v>0.198176</v>
       </c>
       <c r="D121" t="n">
-        <v>0.201379</v>
+        <v>1.38026</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231695</v>
+        <v>0.231128</v>
       </c>
       <c r="C122" t="n">
-        <v>0.204302</v>
+        <v>0.198841</v>
       </c>
       <c r="D122" t="n">
-        <v>0.205524</v>
+        <v>1.36735</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232933</v>
+        <v>0.232239</v>
       </c>
       <c r="C123" t="n">
-        <v>0.285205</v>
+        <v>0.285232</v>
       </c>
       <c r="D123" t="n">
-        <v>0.288905</v>
+        <v>1.35413</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.329878</v>
+        <v>0.317627</v>
       </c>
       <c r="C124" t="n">
-        <v>0.277632</v>
+        <v>0.276811</v>
       </c>
       <c r="D124" t="n">
-        <v>0.280483</v>
+        <v>1.34011</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.318654</v>
+        <v>0.312009</v>
       </c>
       <c r="C125" t="n">
-        <v>0.271237</v>
+        <v>0.270839</v>
       </c>
       <c r="D125" t="n">
-        <v>0.274747</v>
+        <v>1.33068</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.312663</v>
+        <v>0.30586</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265653</v>
+        <v>0.265608</v>
       </c>
       <c r="D126" t="n">
-        <v>0.268748</v>
+        <v>1.32008</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.307201</v>
+        <v>0.300592</v>
       </c>
       <c r="C127" t="n">
-        <v>0.260196</v>
+        <v>0.260523</v>
       </c>
       <c r="D127" t="n">
-        <v>0.262932</v>
+        <v>1.3181</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.301328</v>
+        <v>0.295357</v>
       </c>
       <c r="C128" t="n">
-        <v>0.255295</v>
+        <v>0.255044</v>
       </c>
       <c r="D128" t="n">
-        <v>0.25748</v>
+        <v>1.31133</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.296322</v>
+        <v>0.291282</v>
       </c>
       <c r="C129" t="n">
-        <v>0.250808</v>
+        <v>0.251807</v>
       </c>
       <c r="D129" t="n">
-        <v>0.252714</v>
+        <v>1.2952</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.292075</v>
+        <v>0.290024</v>
       </c>
       <c r="C130" t="n">
-        <v>0.24591</v>
+        <v>0.249694</v>
       </c>
       <c r="D130" t="n">
-        <v>0.247897</v>
+        <v>1.30043</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.287903</v>
+        <v>0.292332</v>
       </c>
       <c r="C131" t="n">
-        <v>0.243247</v>
+        <v>0.266801</v>
       </c>
       <c r="D131" t="n">
-        <v>0.246489</v>
+        <v>1.45637</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285405</v>
+        <v>0.316529</v>
       </c>
       <c r="C132" t="n">
-        <v>0.24008</v>
+        <v>0.263743</v>
       </c>
       <c r="D132" t="n">
-        <v>0.241844</v>
+        <v>1.43621</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.288293</v>
+        <v>0.313286</v>
       </c>
       <c r="C133" t="n">
-        <v>0.237643</v>
+        <v>0.282668</v>
       </c>
       <c r="D133" t="n">
-        <v>0.243007</v>
+        <v>1.30867</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.287573</v>
+        <v>0.269433</v>
       </c>
       <c r="C134" t="n">
-        <v>0.236595</v>
+        <v>0.233059</v>
       </c>
       <c r="D134" t="n">
-        <v>0.249927</v>
+        <v>1.30653</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.31123</v>
+        <v>0.267928</v>
       </c>
       <c r="C135" t="n">
-        <v>0.250469</v>
+        <v>0.231579</v>
       </c>
       <c r="D135" t="n">
-        <v>0.256466</v>
+        <v>1.581</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.300671</v>
+        <v>0.267051</v>
       </c>
       <c r="C136" t="n">
-        <v>0.254123</v>
+        <v>0.231913</v>
       </c>
       <c r="D136" t="n">
-        <v>0.284473</v>
+        <v>1.56049</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.337455</v>
+        <v>0.267636</v>
       </c>
       <c r="C137" t="n">
-        <v>0.368577</v>
+        <v>0.326305</v>
       </c>
       <c r="D137" t="n">
-        <v>0.367259</v>
+        <v>1.53923</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.415465</v>
+        <v>0.350842</v>
       </c>
       <c r="C138" t="n">
-        <v>0.359311</v>
+        <v>0.320686</v>
       </c>
       <c r="D138" t="n">
-        <v>0.359484</v>
+        <v>1.52452</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.407864</v>
+        <v>0.345442</v>
       </c>
       <c r="C139" t="n">
-        <v>0.367246</v>
+        <v>0.315677</v>
       </c>
       <c r="D139" t="n">
-        <v>0.320227</v>
+        <v>1.50727</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.354393</v>
+        <v>0.341276</v>
       </c>
       <c r="C140" t="n">
-        <v>0.315199</v>
+        <v>0.310855</v>
       </c>
       <c r="D140" t="n">
-        <v>0.31284</v>
+        <v>1.4928</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.345785</v>
+        <v>0.336592</v>
       </c>
       <c r="C141" t="n">
-        <v>0.306005</v>
+        <v>0.306001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.303775</v>
+        <v>1.4814</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.340833</v>
+        <v>0.332195</v>
       </c>
       <c r="C142" t="n">
-        <v>0.301566</v>
+        <v>0.30133</v>
       </c>
       <c r="D142" t="n">
-        <v>0.29898</v>
+        <v>1.46927</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.336333</v>
+        <v>0.328062</v>
       </c>
       <c r="C143" t="n">
-        <v>0.297621</v>
+        <v>0.297474</v>
       </c>
       <c r="D143" t="n">
-        <v>0.294849</v>
+        <v>1.46123</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.170668</v>
+                  <v>0.15495</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.164843</v>
+                  <v>0.153545</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.165379</v>
+                  <v>0.156261</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.150997</v>
+                  <v>0.154468</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.152331</v>
+                  <v>0.159997</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149768</v>
+                  <v>0.148057</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.152588</v>
+                  <v>0.149778</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.154628</v>
+                  <v>0.154311</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.221009</v>
+                  <v>0.223686</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.212625</v>
+                  <v>0.205186</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.211566</v>
+                  <v>0.205051</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.195441</v>
+                  <v>0.191499</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194947</v>
+                  <v>0.185229</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186434</v>
+                  <v>0.180374</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.178351</v>
+                  <v>0.173777</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.173591</v>
+                  <v>0.174067</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.168205</v>
+                  <v>0.166807</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.16688</v>
+                  <v>0.160047</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.159624</v>
+                  <v>0.157303</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.158982</v>
+                  <v>0.156402</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.157925</v>
+                  <v>0.163726</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.157835</v>
+                  <v>0.160119</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235187</v>
+                  <v>0.240097</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234979</v>
+                  <v>0.231232</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.222812</v>
+                  <v>0.227764</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.212721</v>
+                  <v>0.219773</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.204469</v>
+                  <v>0.21386</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.19605</v>
+                  <v>0.200835</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.192526</v>
+                  <v>0.197722</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.179359</v>
+                  <v>0.185452</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182408</v>
+                  <v>0.185902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.173725</v>
+                  <v>0.179391</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.172037</v>
+                  <v>0.174647</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.170274</v>
+                  <v>0.167433</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.163399</v>
+                  <v>0.173431</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.165498</v>
+                  <v>0.169377</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243844</v>
+                  <v>0.245427</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.23535</v>
+                  <v>0.236324</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.226636</v>
+                  <v>0.228014</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.217798</v>
+                  <v>0.220475</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210594</v>
+                  <v>0.211363</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203038</v>
+                  <v>0.205815</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.200194</v>
+                  <v>0.198957</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.194085</v>
+                  <v>0.192026</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.189659</v>
+                  <v>0.186259</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.184056</v>
+                  <v>0.182829</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.179376</v>
+                  <v>0.178498</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.176819</v>
+                  <v>0.174932</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.175946</v>
+                  <v>0.173529</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.176716</v>
+                  <v>0.174603</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.179499</v>
+                  <v>0.178568</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.246194</v>
+                  <v>0.242911</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.236625</v>
+                  <v>0.233062</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.228535</v>
+                  <v>0.225756</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.220311</v>
+                  <v>0.219169</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.212764</v>
+                  <v>0.211266</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.205025</v>
+                  <v>0.204869</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.198959</v>
+                  <v>0.198465</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.193449</v>
+                  <v>0.192641</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.188205</v>
+                  <v>0.187453</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182403</v>
+                  <v>0.183317</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.179269</v>
+                  <v>0.180442</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177012</v>
+                  <v>0.178772</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177729</v>
+                  <v>0.178868</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180358</v>
+                  <v>0.182404</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244029</v>
+                  <v>0.246499</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.236519</v>
+                  <v>0.24057</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228133</v>
+                  <v>0.229261</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220467</v>
+                  <v>0.222631</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212274</v>
+                  <v>0.214224</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205977</v>
+                  <v>0.208225</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.199758</v>
+                  <v>0.200051</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.19413</v>
+                  <v>0.196592</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.188413</v>
+                  <v>0.191699</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184215</v>
+                  <v>0.187385</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181004</v>
+                  <v>0.184281</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178894</v>
+                  <v>0.181944</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.17897</v>
+                  <v>0.181193</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.180581</v>
+                  <v>0.183598</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.256846</v>
+                  <v>0.259901</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.250364</v>
+                  <v>0.251809</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.24198</v>
+                  <v>0.245416</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.233548</v>
+                  <v>0.236506</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.227319</v>
+                  <v>0.228865</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219364</v>
+                  <v>0.222002</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213434</v>
+                  <v>0.215267</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207721</v>
+                  <v>0.208708</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201258</v>
+                  <v>0.203164</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19653</v>
+                  <v>0.198265</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192528</v>
+                  <v>0.194029</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189688</v>
+                  <v>0.191051</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188619</v>
+                  <v>0.190331</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.189627</v>
+                  <v>0.190609</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.270145</v>
+                  <v>0.271708</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.264648</v>
+                  <v>0.265444</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.257315</v>
+                  <v>0.258822</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.250563</v>
+                  <v>0.251693</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24473</v>
+                  <v>0.245207</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238846</v>
+                  <v>0.238911</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232631</v>
+                  <v>0.233314</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227556</v>
+                  <v>0.227926</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.222112</v>
+                  <v>0.223038</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217608</v>
+                  <v>0.218392</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213903</v>
+                  <v>0.214392</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.21037</v>
+                  <v>0.211043</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208235</v>
+                  <v>0.208798</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208631</v>
+                  <v>0.208902</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210884</v>
+                  <v>0.210912</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.284085</v>
+                  <v>0.282122</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277325</v>
+                  <v>0.277332</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271154</v>
+                  <v>0.271849</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.265253</v>
+                  <v>0.265643</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259777</v>
+                  <v>0.259825</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.254644</v>
+                  <v>0.254755</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250128</v>
+                  <v>0.249822</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245359</v>
+                  <v>0.24522</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241561</v>
+                  <v>0.241839</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.23764</v>
+                  <v>0.23729</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234284</v>
+                  <v>0.234272</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231834</v>
+                  <v>0.232088</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231043</v>
+                  <v>0.231128</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232245</v>
+                  <v>0.232239</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.315814</v>
+                  <v>0.317627</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.310851</v>
+                  <v>0.312009</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.306028</v>
+                  <v>0.30586</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299753</v>
+                  <v>0.300592</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.294531</v>
+                  <v>0.295357</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.289946</v>
+                  <v>0.291282</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.285871</v>
+                  <v>0.290024</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28194</v>
+                  <v>0.292332</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.278146</v>
+                  <v>0.316529</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.275044</v>
+                  <v>0.313286</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.27231</v>
+                  <v>0.269433</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.270276</v>
+                  <v>0.267928</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.26913</v>
+                  <v>0.267051</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.270188</v>
+                  <v>0.267636</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.360478</v>
+                  <v>0.350842</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.354977</v>
+                  <v>0.345442</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.350567</v>
+                  <v>0.341276</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.345151</v>
+                  <v>0.336592</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.34072</v>
+                  <v>0.332195</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.335998</v>
+                  <v>0.328062</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.136461</v>
+                  <v>0.133487</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.143885</v>
+                  <v>0.128996</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.138416</v>
+                  <v>0.128778</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.131866</v>
+                  <v>0.123893</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.128733</v>
+                  <v>0.115629</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.125371</v>
+                  <v>0.117525</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.119173</v>
+                  <v>0.110211</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119054</v>
+                  <v>0.176215</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.199755</v>
+                  <v>0.169618</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.194893</v>
+                  <v>0.167522</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.186611</v>
+                  <v>0.164985</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.180929</v>
+                  <v>0.157948</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.171719</v>
+                  <v>0.154722</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.164359</v>
+                  <v>0.145283</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.159604</v>
+                  <v>0.14847</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.156142</v>
+                  <v>0.137933</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.148751</v>
+                  <v>0.132223</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.145812</v>
+                  <v>0.130486</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.141893</v>
+                  <v>0.124625</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.140321</v>
+                  <v>0.122399</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.138166</v>
+                  <v>0.122231</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.138866</v>
+                  <v>0.215673</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.22216</v>
+                  <v>0.209008</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.214043</v>
+                  <v>0.196812</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.202789</v>
+                  <v>0.193513</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.194749</v>
+                  <v>0.186064</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.188153</v>
+                  <v>0.182841</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.180718</v>
+                  <v>0.175024</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.174444</v>
+                  <v>0.170131</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.168821</v>
+                  <v>0.161414</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.162937</v>
+                  <v>0.156848</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.157914</v>
+                  <v>0.155946</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.153826</v>
+                  <v>0.14656</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150082</v>
+                  <v>0.150628</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.147894</v>
+                  <v>0.146053</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.146972</v>
+                  <v>0.230175</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.223466</v>
+                  <v>0.222468</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214588</v>
+                  <v>0.212657</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.206551</v>
+                  <v>0.20674</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.198601</v>
+                  <v>0.198642</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191216</v>
+                  <v>0.191772</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.18396</v>
+                  <v>0.188281</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.180497</v>
+                  <v>0.177377</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.174746</v>
+                  <v>0.171985</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.168726</v>
+                  <v>0.166429</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.16349</v>
+                  <v>0.166079</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159218</v>
+                  <v>0.159028</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.155587</v>
+                  <v>0.15706</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.153056</v>
+                  <v>0.156108</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.151411</v>
+                  <v>0.244006</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.152255</v>
+                  <v>0.234167</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.223567</v>
+                  <v>0.224348</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.215128</v>
+                  <v>0.216183</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.206602</v>
+                  <v>0.208516</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.199106</v>
+                  <v>0.200898</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.191861</v>
+                  <v>0.193874</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.184943</v>
+                  <v>0.186857</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.178332</v>
+                  <v>0.180909</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.172886</v>
+                  <v>0.175261</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.167693</v>
+                  <v>0.170349</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.160526</v>
+                  <v>0.166078</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.156473</v>
+                  <v>0.163411</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.15361</v>
+                  <v>0.161494</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.151918</v>
+                  <v>0.16251</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.152658</v>
+                  <v>0.243741</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.228151</v>
+                  <v>0.233795</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.219456</v>
+                  <v>0.226048</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.21135</v>
+                  <v>0.218522</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.203187</v>
+                  <v>0.208423</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.195914</v>
+                  <v>0.20239</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.188766</v>
+                  <v>0.195978</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.182265</v>
+                  <v>0.190244</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.176143</v>
+                  <v>0.183549</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.170713</v>
+                  <v>0.17921</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.165631</v>
+                  <v>0.174505</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.161469</v>
+                  <v>0.17026</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.158217</v>
+                  <v>0.168555</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.156204</v>
+                  <v>0.167771</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.156222</v>
+                  <v>0.243049</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.230333</v>
+                  <v>0.233663</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.222566</v>
+                  <v>0.225806</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.214771</v>
+                  <v>0.217961</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.207566</v>
+                  <v>0.210345</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.200837</v>
+                  <v>0.202909</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.19364</v>
+                  <v>0.196278</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.188096</v>
+                  <v>0.190457</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.181911</v>
+                  <v>0.184578</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.176008</v>
+                  <v>0.179115</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.171451</v>
+                  <v>0.174858</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166593</v>
+                  <v>0.171276</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.163878</v>
+                  <v>0.168786</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.160923</v>
+                  <v>0.169004</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.160238</v>
+                  <v>0.254981</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.248401</v>
+                  <v>0.247215</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.240463</v>
+                  <v>0.239115</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.232944</v>
+                  <v>0.230624</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.225805</v>
+                  <v>0.222856</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.22678</v>
+                  <v>0.21591</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.212444</v>
+                  <v>0.209102</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.206497</v>
+                  <v>0.202675</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.201607</v>
+                  <v>0.196973</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.195129</v>
+                  <v>0.19177</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.189518</v>
+                  <v>0.187172</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.186515</v>
+                  <v>0.183301</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.18283</v>
+                  <v>0.18078</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.18042</v>
+                  <v>0.179522</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.179433</v>
+                  <v>0.269489</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.181014</v>
+                  <v>0.262897</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.260856</v>
+                  <v>0.256726</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.252951</v>
+                  <v>0.247451</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.245756</v>
+                  <v>0.24043</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.239063</v>
+                  <v>0.233607</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.232542</v>
+                  <v>0.227423</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.226357</v>
+                  <v>0.221229</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.221257</v>
+                  <v>0.215868</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.217762</v>
+                  <v>0.210591</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.212853</v>
+                  <v>0.206479</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.208819</v>
+                  <v>0.202559</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.20483</v>
+                  <v>0.199773</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.201751</v>
+                  <v>0.198176</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.200686</v>
+                  <v>0.198841</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.200643</v>
+                  <v>0.285232</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.284238</v>
+                  <v>0.276811</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.278287</v>
+                  <v>0.270839</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.268032</v>
+                  <v>0.265608</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.262246</v>
+                  <v>0.260523</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.2563</v>
+                  <v>0.255044</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.25157</v>
+                  <v>0.251807</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.247088</v>
+                  <v>0.249694</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.242605</v>
+                  <v>0.266801</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.238676</v>
+                  <v>0.263743</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.235063</v>
+                  <v>0.282668</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.231818</v>
+                  <v>0.233059</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.229352</v>
+                  <v>0.231579</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.227891</v>
+                  <v>0.231913</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.22831</v>
+                  <v>0.326305</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.321523</v>
+                  <v>0.320686</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.315351</v>
+                  <v>0.315677</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.309742</v>
+                  <v>0.310855</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.304011</v>
+                  <v>0.306001</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.29869</v>
+                  <v>0.30133</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.29374</v>
+                  <v>0.297474</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.134178</v>
+                  <v>0.344005</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.131948</v>
+                  <v>0.340023</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.136503</v>
+                  <v>0.339171</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.127659</v>
+                  <v>0.337006</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.126491</v>
+                  <v>0.334346</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.127377</v>
+                  <v>0.44346</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.120481</v>
+                  <v>0.42934</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.189804</v>
+                  <v>0.422947</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.193076</v>
+                  <v>0.414834</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.185771</v>
+                  <v>0.412844</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.175595</v>
+                  <v>0.410981</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.170808</v>
+                  <v>0.402817</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.163676</v>
+                  <v>0.395902</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.15658</v>
+                  <v>0.389522</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.15111</v>
+                  <v>0.38781</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.147927</v>
+                  <v>0.384793</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.144277</v>
+                  <v>0.379955</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.141029</v>
+                  <v>0.378853</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.138444</v>
+                  <v>0.373582</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.136899</v>
+                  <v>0.476217</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.138731</v>
+                  <v>0.46546</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.22524</v>
+                  <v>0.464787</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.217581</v>
+                  <v>0.45141</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.205227</v>
+                  <v>0.445799</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.196362</v>
+                  <v>0.434497</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.189144</v>
+                  <v>0.427631</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.18136</v>
+                  <v>0.419558</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.175284</v>
+                  <v>0.411806</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170321</v>
+                  <v>0.406268</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.162701</v>
+                  <v>0.401866</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.159519</v>
+                  <v>0.397333</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.153345</v>
+                  <v>0.393844</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.150314</v>
+                  <v>0.389286</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.149603</v>
+                  <v>0.493518</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.148604</v>
+                  <v>0.484731</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230138</v>
+                  <v>0.475688</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.221941</v>
+                  <v>0.463878</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.212902</v>
+                  <v>0.455129</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.202745</v>
+                  <v>0.446551</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.197872</v>
+                  <v>0.438381</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.189578</v>
+                  <v>0.43272</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.181192</v>
+                  <v>0.425374</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.178348</v>
+                  <v>0.420618</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.172191</v>
+                  <v>0.41841</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.16614</v>
+                  <v>0.414417</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.161458</v>
+                  <v>0.412106</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.158505</v>
+                  <v>0.406774</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.156259</v>
+                  <v>0.402662</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.155863</v>
+                  <v>0.505211</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.240125</v>
+                  <v>0.498063</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.228307</v>
+                  <v>0.485203</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.222098</v>
+                  <v>0.477573</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.213257</v>
+                  <v>0.46772</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.204699</v>
+                  <v>0.463373</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.197271</v>
+                  <v>0.4539</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.189954</v>
+                  <v>0.446932</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.182964</v>
+                  <v>0.440617</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.176915</v>
+                  <v>0.437856</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.172102</v>
+                  <v>0.432426</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.167281</v>
+                  <v>0.428781</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.161153</v>
+                  <v>0.423174</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.158454</v>
+                  <v>0.422691</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.157323</v>
+                  <v>0.5450739999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.158629</v>
+                  <v>0.540152</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.235154</v>
+                  <v>0.524844</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.225864</v>
+                  <v>0.515304</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.218407</v>
+                  <v>0.507802</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.209007</v>
+                  <v>0.498374</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.201152</v>
+                  <v>0.494679</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.19372</v>
+                  <v>0.495527</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.186741</v>
+                  <v>0.483948</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.180491</v>
+                  <v>0.481365</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.174783</v>
+                  <v>0.496964</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.169469</v>
+                  <v>0.492901</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.165683</v>
+                  <v>0.489043</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.162247</v>
+                  <v>0.486233</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.160468</v>
+                  <v>0.664263</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.161441</v>
+                  <v>0.653161</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.238856</v>
+                  <v>0.643571</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.22991</v>
+                  <v>0.63595</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.220936</v>
+                  <v>0.629796</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.213054</v>
+                  <v>0.622012</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.205347</v>
+                  <v>0.619332</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.198292</v>
+                  <v>0.615398</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.191445</v>
+                  <v>0.615523</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.184661</v>
+                  <v>0.615955</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.179135</v>
+                  <v>0.622347</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.17408</v>
+                  <v>0.631071</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.16936</v>
+                  <v>0.635074</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166191</v>
+                  <v>0.639845</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.164353</v>
+                  <v>0.852201</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.164271</v>
+                  <v>0.847971</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.254673</v>
+                  <v>0.845392</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.247489</v>
+                  <v>0.8368139999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.238121</v>
+                  <v>0.834033</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.230923</v>
+                  <v>0.841704</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.223773</v>
+                  <v>0.83904</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.215514</v>
+                  <v>0.838568</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.211001</v>
+                  <v>0.839709</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.20299</v>
+                  <v>0.842832</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.197244</v>
+                  <v>0.8481</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.191961</v>
+                  <v>0.858892</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.18761</v>
+                  <v>0.865506</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.184086</v>
+                  <v>0.870801</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.180878</v>
+                  <v>0.883047</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.180431</v>
+                  <v>1.1251</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.27151</v>
+                  <v>1.11268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.265086</v>
+                  <v>1.10474</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.257155</v>
+                  <v>1.09904</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.249492</v>
+                  <v>1.09986</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.241637</v>
+                  <v>1.09551</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233598</v>
+                  <v>1.09076</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.228107</v>
+                  <v>1.09524</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.221879</v>
+                  <v>1.09316</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.218226</v>
+                  <v>1.09388</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.213206</v>
+                  <v>1.0979</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.207735</v>
+                  <v>1.10358</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.203661</v>
+                  <v>1.11072</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.200217</v>
+                  <v>1.11523</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199303</v>
+                  <v>1.38026</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.199921</v>
+                  <v>1.36735</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.28659</v>
+                  <v>1.35413</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.280042</v>
+                  <v>1.34011</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.274273</v>
+                  <v>1.33068</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.264434</v>
+                  <v>1.32008</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.258887</v>
+                  <v>1.3181</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.253968</v>
+                  <v>1.31133</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.248195</v>
+                  <v>1.2952</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.244422</v>
+                  <v>1.30043</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.240173</v>
+                  <v>1.45637</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.236482</v>
+                  <v>1.43621</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.23349</v>
+                  <v>1.30867</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.230364</v>
+                  <v>1.30653</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.229418</v>
+                  <v>1.581</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.229508</v>
+                  <v>1.56049</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.325813</v>
+                  <v>1.53923</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.320407</v>
+                  <v>1.52452</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.314921</v>
+                  <v>1.50727</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.309403</v>
+                  <v>1.4928</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.304799</v>
+                  <v>1.4814</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.300275</v>
+                  <v>1.46927</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.29509</v>
+                  <v>1.46123</v>
                 </pt>
               </numCache>
             </numRef>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.162977</v>
+        <v>0.173581</v>
       </c>
       <c r="C2" t="n">
-        <v>0.134325</v>
+        <v>0.145606</v>
       </c>
       <c r="D2" t="n">
-        <v>0.138628</v>
+        <v>0.147458</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.160082</v>
+        <v>0.166316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.146159</v>
+        <v>0.137575</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140526</v>
+        <v>0.132752</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.154747</v>
+        <v>0.163423</v>
       </c>
       <c r="C4" t="n">
-        <v>0.145192</v>
+        <v>0.13766</v>
       </c>
       <c r="D4" t="n">
-        <v>0.140474</v>
+        <v>0.128067</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.149452</v>
+        <v>0.159055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.121099</v>
+        <v>0.131336</v>
       </c>
       <c r="D5" t="n">
-        <v>0.135994</v>
+        <v>0.127679</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.144355</v>
+        <v>0.15942</v>
       </c>
       <c r="C6" t="n">
-        <v>0.128619</v>
+        <v>0.11625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.128038</v>
+        <v>0.119285</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.14727</v>
+        <v>0.138476</v>
       </c>
       <c r="C7" t="n">
-        <v>0.121426</v>
+        <v>0.132011</v>
       </c>
       <c r="D7" t="n">
-        <v>0.128448</v>
+        <v>0.119634</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.148533</v>
+        <v>0.14865</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113596</v>
+        <v>0.125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.124449</v>
+        <v>0.122273</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.144529</v>
+        <v>0.153223</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191923</v>
+        <v>0.193309</v>
       </c>
       <c r="D9" t="n">
-        <v>0.207942</v>
+        <v>0.201859</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.209618</v>
+        <v>0.201713</v>
       </c>
       <c r="C10" t="n">
-        <v>0.185765</v>
+        <v>0.183476</v>
       </c>
       <c r="D10" t="n">
-        <v>0.190173</v>
+        <v>0.189692</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.199069</v>
+        <v>0.195751</v>
       </c>
       <c r="C11" t="n">
-        <v>0.174349</v>
+        <v>0.164914</v>
       </c>
       <c r="D11" t="n">
-        <v>0.181189</v>
+        <v>0.176074</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.200101</v>
+        <v>0.198562</v>
       </c>
       <c r="C12" t="n">
-        <v>0.171151</v>
+        <v>0.177193</v>
       </c>
       <c r="D12" t="n">
-        <v>0.176414</v>
+        <v>0.183989</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.185346</v>
+        <v>0.202857</v>
       </c>
       <c r="C13" t="n">
-        <v>0.159514</v>
+        <v>0.170522</v>
       </c>
       <c r="D13" t="n">
-        <v>0.182161</v>
+        <v>0.176856</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.185408</v>
+        <v>0.194986</v>
       </c>
       <c r="C14" t="n">
-        <v>0.161908</v>
+        <v>0.165922</v>
       </c>
       <c r="D14" t="n">
-        <v>0.168527</v>
+        <v>0.175907</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.185372</v>
+        <v>0.185414</v>
       </c>
       <c r="C15" t="n">
-        <v>0.157006</v>
+        <v>0.150952</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167058</v>
+        <v>0.156998</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.175123</v>
+        <v>0.176819</v>
       </c>
       <c r="C16" t="n">
-        <v>0.15232</v>
+        <v>0.15297</v>
       </c>
       <c r="D16" t="n">
-        <v>0.159813</v>
+        <v>0.162741</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.169106</v>
+        <v>0.174714</v>
       </c>
       <c r="C17" t="n">
-        <v>0.146758</v>
+        <v>0.149665</v>
       </c>
       <c r="D17" t="n">
-        <v>0.157279</v>
+        <v>0.156317</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.16176</v>
+        <v>0.171993</v>
       </c>
       <c r="C18" t="n">
-        <v>0.141545</v>
+        <v>0.141035</v>
       </c>
       <c r="D18" t="n">
-        <v>0.151323</v>
+        <v>0.14574</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.160794</v>
+        <v>0.168797</v>
       </c>
       <c r="C19" t="n">
-        <v>0.139699</v>
+        <v>0.14031</v>
       </c>
       <c r="D19" t="n">
-        <v>0.146529</v>
+        <v>0.146081</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.157499</v>
+        <v>0.163084</v>
       </c>
       <c r="C20" t="n">
-        <v>0.132936</v>
+        <v>0.134236</v>
       </c>
       <c r="D20" t="n">
-        <v>0.143588</v>
+        <v>0.141943</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.156313</v>
+        <v>0.159621</v>
       </c>
       <c r="C21" t="n">
-        <v>0.130543</v>
+        <v>0.13307</v>
       </c>
       <c r="D21" t="n">
-        <v>0.139302</v>
+        <v>0.141978</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.156081</v>
+        <v>0.161895</v>
       </c>
       <c r="C22" t="n">
-        <v>0.12704</v>
+        <v>0.126252</v>
       </c>
       <c r="D22" t="n">
-        <v>0.140533</v>
+        <v>0.134604</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.155049</v>
+        <v>0.161653</v>
       </c>
       <c r="C23" t="n">
-        <v>0.217273</v>
+        <v>0.20938</v>
       </c>
       <c r="D23" t="n">
-        <v>0.233418</v>
+        <v>0.23004</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.246314</v>
+        <v>0.246308</v>
       </c>
       <c r="C24" t="n">
-        <v>0.207939</v>
+        <v>0.210298</v>
       </c>
       <c r="D24" t="n">
-        <v>0.225357</v>
+        <v>0.219888</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.228102</v>
+        <v>0.232004</v>
       </c>
       <c r="C25" t="n">
-        <v>0.20189</v>
+        <v>0.206803</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213645</v>
+        <v>0.210852</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.227974</v>
+        <v>0.230494</v>
       </c>
       <c r="C26" t="n">
-        <v>0.196356</v>
+        <v>0.191195</v>
       </c>
       <c r="D26" t="n">
-        <v>0.204264</v>
+        <v>0.203555</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.217672</v>
+        <v>0.223083</v>
       </c>
       <c r="C27" t="n">
-        <v>0.183487</v>
+        <v>0.191731</v>
       </c>
       <c r="D27" t="n">
-        <v>0.194562</v>
+        <v>0.19234</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.210083</v>
+        <v>0.213607</v>
       </c>
       <c r="C28" t="n">
-        <v>0.182843</v>
+        <v>0.172639</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185704</v>
+        <v>0.190713</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.194792</v>
+        <v>0.207336</v>
       </c>
       <c r="C29" t="n">
-        <v>0.169689</v>
+        <v>0.174924</v>
       </c>
       <c r="D29" t="n">
-        <v>0.179575</v>
+        <v>0.179192</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.191708</v>
+        <v>0.200028</v>
       </c>
       <c r="C30" t="n">
-        <v>0.160768</v>
+        <v>0.173756</v>
       </c>
       <c r="D30" t="n">
-        <v>0.173818</v>
+        <v>0.175662</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.18419</v>
+        <v>0.193402</v>
       </c>
       <c r="C31" t="n">
-        <v>0.165441</v>
+        <v>0.157756</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1664</v>
+        <v>0.167955</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180632</v>
+        <v>0.184541</v>
       </c>
       <c r="C32" t="n">
-        <v>0.153686</v>
+        <v>0.152835</v>
       </c>
       <c r="D32" t="n">
-        <v>0.161386</v>
+        <v>0.162339</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.174882</v>
+        <v>0.178875</v>
       </c>
       <c r="C33" t="n">
-        <v>0.151839</v>
+        <v>0.149567</v>
       </c>
       <c r="D33" t="n">
-        <v>0.158705</v>
+        <v>0.158233</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.170553</v>
+        <v>0.173578</v>
       </c>
       <c r="C34" t="n">
-        <v>0.144322</v>
+        <v>0.154989</v>
       </c>
       <c r="D34" t="n">
-        <v>0.155573</v>
+        <v>0.153355</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.166129</v>
+        <v>0.16983</v>
       </c>
       <c r="C35" t="n">
-        <v>0.143566</v>
+        <v>0.153956</v>
       </c>
       <c r="D35" t="n">
-        <v>0.153949</v>
+        <v>0.151292</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.168285</v>
+        <v>0.170059</v>
       </c>
       <c r="C36" t="n">
-        <v>0.150525</v>
+        <v>0.146738</v>
       </c>
       <c r="D36" t="n">
-        <v>0.153021</v>
+        <v>0.152681</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170077</v>
+        <v>0.174478</v>
       </c>
       <c r="C37" t="n">
-        <v>0.231397</v>
+        <v>0.236985</v>
       </c>
       <c r="D37" t="n">
-        <v>0.234767</v>
+        <v>0.246049</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.240186</v>
+        <v>0.246781</v>
       </c>
       <c r="C38" t="n">
-        <v>0.222293</v>
+        <v>0.227487</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224971</v>
+        <v>0.235921</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.230069</v>
+        <v>0.240791</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213996</v>
+        <v>0.221146</v>
       </c>
       <c r="D39" t="n">
-        <v>0.216936</v>
+        <v>0.223256</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.222269</v>
+        <v>0.230856</v>
       </c>
       <c r="C40" t="n">
-        <v>0.206866</v>
+        <v>0.210501</v>
       </c>
       <c r="D40" t="n">
-        <v>0.208505</v>
+        <v>0.2165</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.215712</v>
+        <v>0.221566</v>
       </c>
       <c r="C41" t="n">
-        <v>0.198753</v>
+        <v>0.20913</v>
       </c>
       <c r="D41" t="n">
-        <v>0.201261</v>
+        <v>0.209616</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.206156</v>
+        <v>0.222296</v>
       </c>
       <c r="C42" t="n">
-        <v>0.192732</v>
+        <v>0.201229</v>
       </c>
       <c r="D42" t="n">
-        <v>0.193081</v>
+        <v>0.202539</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.198587</v>
+        <v>0.218136</v>
       </c>
       <c r="C43" t="n">
-        <v>0.185044</v>
+        <v>0.197508</v>
       </c>
       <c r="D43" t="n">
-        <v>0.186861</v>
+        <v>0.196375</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.194276</v>
+        <v>0.211533</v>
       </c>
       <c r="C44" t="n">
-        <v>0.179497</v>
+        <v>0.191058</v>
       </c>
       <c r="D44" t="n">
-        <v>0.179705</v>
+        <v>0.190186</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.187685</v>
+        <v>0.204303</v>
       </c>
       <c r="C45" t="n">
-        <v>0.172895</v>
+        <v>0.184304</v>
       </c>
       <c r="D45" t="n">
-        <v>0.173542</v>
+        <v>0.182929</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.182864</v>
+        <v>0.196818</v>
       </c>
       <c r="C46" t="n">
-        <v>0.168206</v>
+        <v>0.179229</v>
       </c>
       <c r="D46" t="n">
-        <v>0.168591</v>
+        <v>0.177921</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.178774</v>
+        <v>0.19232</v>
       </c>
       <c r="C47" t="n">
-        <v>0.162849</v>
+        <v>0.175211</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1641</v>
+        <v>0.172507</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.174202</v>
+        <v>0.189842</v>
       </c>
       <c r="C48" t="n">
-        <v>0.158835</v>
+        <v>0.171719</v>
       </c>
       <c r="D48" t="n">
-        <v>0.160296</v>
+        <v>0.168827</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.170873</v>
+        <v>0.186452</v>
       </c>
       <c r="C49" t="n">
-        <v>0.157291</v>
+        <v>0.168536</v>
       </c>
       <c r="D49" t="n">
-        <v>0.157941</v>
+        <v>0.165885</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170926</v>
+        <v>0.18409</v>
       </c>
       <c r="C50" t="n">
-        <v>0.156792</v>
+        <v>0.165941</v>
       </c>
       <c r="D50" t="n">
-        <v>0.157862</v>
+        <v>0.165508</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175306</v>
+        <v>0.186783</v>
       </c>
       <c r="C51" t="n">
-        <v>0.247343</v>
+        <v>0.270322</v>
       </c>
       <c r="D51" t="n">
-        <v>0.245458</v>
+        <v>0.264724</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177789</v>
+        <v>0.196371</v>
       </c>
       <c r="C52" t="n">
-        <v>0.23706</v>
+        <v>0.270647</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235735</v>
+        <v>0.256875</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245659</v>
+        <v>0.271089</v>
       </c>
       <c r="C53" t="n">
-        <v>0.23839</v>
+        <v>0.25296</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229964</v>
+        <v>0.245801</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239663</v>
+        <v>0.26532</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222403</v>
+        <v>0.245726</v>
       </c>
       <c r="D54" t="n">
-        <v>0.219191</v>
+        <v>0.247074</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.230068</v>
+        <v>0.259085</v>
       </c>
       <c r="C55" t="n">
-        <v>0.214363</v>
+        <v>0.209775</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216256</v>
+        <v>0.206262</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232123</v>
+        <v>0.217636</v>
       </c>
       <c r="C56" t="n">
-        <v>0.215919</v>
+        <v>0.199686</v>
       </c>
       <c r="D56" t="n">
-        <v>0.210518</v>
+        <v>0.198465</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.225345</v>
+        <v>0.210032</v>
       </c>
       <c r="C57" t="n">
-        <v>0.209964</v>
+        <v>0.192709</v>
       </c>
       <c r="D57" t="n">
-        <v>0.207124</v>
+        <v>0.191074</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222209</v>
+        <v>0.20298</v>
       </c>
       <c r="C58" t="n">
-        <v>0.201533</v>
+        <v>0.186033</v>
       </c>
       <c r="D58" t="n">
-        <v>0.199206</v>
+        <v>0.18383</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.212584</v>
+        <v>0.197004</v>
       </c>
       <c r="C59" t="n">
-        <v>0.194741</v>
+        <v>0.179948</v>
       </c>
       <c r="D59" t="n">
-        <v>0.191465</v>
+        <v>0.177519</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.210167</v>
+        <v>0.19147</v>
       </c>
       <c r="C60" t="n">
-        <v>0.18976</v>
+        <v>0.174749</v>
       </c>
       <c r="D60" t="n">
-        <v>0.188974</v>
+        <v>0.17217</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.222374</v>
+        <v>0.186416</v>
       </c>
       <c r="C61" t="n">
-        <v>0.19882</v>
+        <v>0.169266</v>
       </c>
       <c r="D61" t="n">
-        <v>0.194151</v>
+        <v>0.167313</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.221813</v>
+        <v>0.183751</v>
       </c>
       <c r="C62" t="n">
-        <v>0.199201</v>
+        <v>0.165894</v>
       </c>
       <c r="D62" t="n">
-        <v>0.19171</v>
+        <v>0.163218</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.217016</v>
+        <v>0.179168</v>
       </c>
       <c r="C63" t="n">
-        <v>0.196832</v>
+        <v>0.163244</v>
       </c>
       <c r="D63" t="n">
-        <v>0.187404</v>
+        <v>0.161468</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2145</v>
+        <v>0.176965</v>
       </c>
       <c r="C64" t="n">
-        <v>0.19551</v>
+        <v>0.16067</v>
       </c>
       <c r="D64" t="n">
-        <v>0.186078</v>
+        <v>0.160629</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.205181</v>
+        <v>0.177227</v>
       </c>
       <c r="C65" t="n">
-        <v>0.162155</v>
+        <v>0.1616</v>
       </c>
       <c r="D65" t="n">
-        <v>0.16276</v>
+        <v>0.162491</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179123</v>
+        <v>0.180335</v>
       </c>
       <c r="C66" t="n">
-        <v>0.242851</v>
+        <v>0.243872</v>
       </c>
       <c r="D66" t="n">
-        <v>0.239</v>
+        <v>0.239341</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244787</v>
+        <v>0.247759</v>
       </c>
       <c r="C67" t="n">
-        <v>0.235215</v>
+        <v>0.233408</v>
       </c>
       <c r="D67" t="n">
-        <v>0.230163</v>
+        <v>0.230264</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236144</v>
+        <v>0.237112</v>
       </c>
       <c r="C68" t="n">
-        <v>0.227081</v>
+        <v>0.226524</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219291</v>
+        <v>0.221185</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.22695</v>
+        <v>0.229671</v>
       </c>
       <c r="C69" t="n">
-        <v>0.217384</v>
+        <v>0.218616</v>
       </c>
       <c r="D69" t="n">
-        <v>0.212855</v>
+        <v>0.212634</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.217594</v>
+        <v>0.221874</v>
       </c>
       <c r="C70" t="n">
-        <v>0.209216</v>
+        <v>0.20884</v>
       </c>
       <c r="D70" t="n">
-        <v>0.204803</v>
+        <v>0.204817</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213173</v>
+        <v>0.214076</v>
       </c>
       <c r="C71" t="n">
-        <v>0.20271</v>
+        <v>0.202928</v>
       </c>
       <c r="D71" t="n">
-        <v>0.197125</v>
+        <v>0.197339</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.20595</v>
+        <v>0.205788</v>
       </c>
       <c r="C72" t="n">
-        <v>0.194886</v>
+        <v>0.195586</v>
       </c>
       <c r="D72" t="n">
-        <v>0.190299</v>
+        <v>0.190296</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199437</v>
+        <v>0.201102</v>
       </c>
       <c r="C73" t="n">
-        <v>0.188444</v>
+        <v>0.188902</v>
       </c>
       <c r="D73" t="n">
-        <v>0.184204</v>
+        <v>0.183877</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193857</v>
+        <v>0.195285</v>
       </c>
       <c r="C74" t="n">
-        <v>0.182689</v>
+        <v>0.183026</v>
       </c>
       <c r="D74" t="n">
-        <v>0.178283</v>
+        <v>0.177914</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188548</v>
+        <v>0.189545</v>
       </c>
       <c r="C75" t="n">
-        <v>0.177561</v>
+        <v>0.177589</v>
       </c>
       <c r="D75" t="n">
-        <v>0.173106</v>
+        <v>0.172947</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185075</v>
+        <v>0.185758</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172875</v>
+        <v>0.173195</v>
       </c>
       <c r="D76" t="n">
-        <v>0.168828</v>
+        <v>0.168906</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181468</v>
+        <v>0.183045</v>
       </c>
       <c r="C77" t="n">
-        <v>0.169178</v>
+        <v>0.169863</v>
       </c>
       <c r="D77" t="n">
-        <v>0.165597</v>
+        <v>0.165778</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179453</v>
+        <v>0.180462</v>
       </c>
       <c r="C78" t="n">
-        <v>0.167529</v>
+        <v>0.167694</v>
       </c>
       <c r="D78" t="n">
-        <v>0.164632</v>
+        <v>0.164415</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178918</v>
+        <v>0.179981</v>
       </c>
       <c r="C79" t="n">
-        <v>0.167071</v>
+        <v>0.167564</v>
       </c>
       <c r="D79" t="n">
-        <v>0.165679</v>
+        <v>0.165117</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181295</v>
+        <v>0.181945</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241206</v>
+        <v>0.242352</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243539</v>
+        <v>0.243222</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257591</v>
+        <v>0.258715</v>
       </c>
       <c r="C81" t="n">
-        <v>0.232528</v>
+        <v>0.233668</v>
       </c>
       <c r="D81" t="n">
-        <v>0.234355</v>
+        <v>0.234343</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249937</v>
+        <v>0.250606</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224062</v>
+        <v>0.225158</v>
       </c>
       <c r="D82" t="n">
-        <v>0.225645</v>
+        <v>0.225646</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241453</v>
+        <v>0.243</v>
       </c>
       <c r="C83" t="n">
-        <v>0.215404</v>
+        <v>0.217217</v>
       </c>
       <c r="D83" t="n">
-        <v>0.217602</v>
+        <v>0.217395</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234673</v>
+        <v>0.235592</v>
       </c>
       <c r="C84" t="n">
-        <v>0.20904</v>
+        <v>0.209899</v>
       </c>
       <c r="D84" t="n">
-        <v>0.20989</v>
+        <v>0.20919</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226795</v>
+        <v>0.228406</v>
       </c>
       <c r="C85" t="n">
-        <v>0.201719</v>
+        <v>0.202542</v>
       </c>
       <c r="D85" t="n">
-        <v>0.202388</v>
+        <v>0.201967</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220387</v>
+        <v>0.221073</v>
       </c>
       <c r="C86" t="n">
-        <v>0.194858</v>
+        <v>0.195636</v>
       </c>
       <c r="D86" t="n">
-        <v>0.19518</v>
+        <v>0.195187</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213863</v>
+        <v>0.214438</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188082</v>
+        <v>0.189403</v>
       </c>
       <c r="D87" t="n">
-        <v>0.188629</v>
+        <v>0.188264</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206741</v>
+        <v>0.208536</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182495</v>
+        <v>0.183647</v>
       </c>
       <c r="D88" t="n">
-        <v>0.182425</v>
+        <v>0.182199</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201635</v>
+        <v>0.202504</v>
       </c>
       <c r="C89" t="n">
-        <v>0.177296</v>
+        <v>0.17822</v>
       </c>
       <c r="D89" t="n">
-        <v>0.177667</v>
+        <v>0.176955</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196688</v>
+        <v>0.197574</v>
       </c>
       <c r="C90" t="n">
-        <v>0.17337</v>
+        <v>0.174073</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173139</v>
+        <v>0.172499</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192577</v>
+        <v>0.19362</v>
       </c>
       <c r="C91" t="n">
-        <v>0.170222</v>
+        <v>0.17046</v>
       </c>
       <c r="D91" t="n">
-        <v>0.169959</v>
+        <v>0.169492</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18979</v>
+        <v>0.190476</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167947</v>
+        <v>0.168215</v>
       </c>
       <c r="D92" t="n">
-        <v>0.168136</v>
+        <v>0.167497</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189069</v>
+        <v>0.189154</v>
       </c>
       <c r="C93" t="n">
-        <v>0.167372</v>
+        <v>0.168012</v>
       </c>
       <c r="D93" t="n">
-        <v>0.16874</v>
+        <v>0.1678</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189684</v>
+        <v>0.190089</v>
       </c>
       <c r="C94" t="n">
-        <v>0.254681</v>
+        <v>0.255184</v>
       </c>
       <c r="D94" t="n">
-        <v>0.26099</v>
+        <v>0.260299</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.271071</v>
+        <v>0.270648</v>
       </c>
       <c r="C95" t="n">
-        <v>0.247013</v>
+        <v>0.246586</v>
       </c>
       <c r="D95" t="n">
-        <v>0.25334</v>
+        <v>0.252482</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265047</v>
+        <v>0.265111</v>
       </c>
       <c r="C96" t="n">
-        <v>0.238274</v>
+        <v>0.238353</v>
       </c>
       <c r="D96" t="n">
-        <v>0.244456</v>
+        <v>0.243907</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258175</v>
+        <v>0.258692</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230288</v>
+        <v>0.230511</v>
       </c>
       <c r="D97" t="n">
-        <v>0.236898</v>
+        <v>0.235644</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251551</v>
+        <v>0.251958</v>
       </c>
       <c r="C98" t="n">
-        <v>0.222399</v>
+        <v>0.22306</v>
       </c>
       <c r="D98" t="n">
-        <v>0.228794</v>
+        <v>0.227951</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244562</v>
+        <v>0.245588</v>
       </c>
       <c r="C99" t="n">
-        <v>0.215159</v>
+        <v>0.216218</v>
       </c>
       <c r="D99" t="n">
-        <v>0.221158</v>
+        <v>0.220441</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238636</v>
+        <v>0.239389</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208547</v>
+        <v>0.209136</v>
       </c>
       <c r="D100" t="n">
-        <v>0.214265</v>
+        <v>0.213318</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.23321</v>
+        <v>0.233477</v>
       </c>
       <c r="C101" t="n">
-        <v>0.202421</v>
+        <v>0.202882</v>
       </c>
       <c r="D101" t="n">
-        <v>0.207592</v>
+        <v>0.20749</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227546</v>
+        <v>0.228216</v>
       </c>
       <c r="C102" t="n">
-        <v>0.196869</v>
+        <v>0.196983</v>
       </c>
       <c r="D102" t="n">
-        <v>0.201483</v>
+        <v>0.201194</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.22251</v>
+        <v>0.222728</v>
       </c>
       <c r="C103" t="n">
-        <v>0.191359</v>
+        <v>0.191579</v>
       </c>
       <c r="D103" t="n">
-        <v>0.196647</v>
+        <v>0.195436</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218131</v>
+        <v>0.218415</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1866</v>
+        <v>0.187089</v>
       </c>
       <c r="D104" t="n">
-        <v>0.191264</v>
+        <v>0.19025</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214188</v>
+        <v>0.214692</v>
       </c>
       <c r="C105" t="n">
-        <v>0.182915</v>
+        <v>0.183514</v>
       </c>
       <c r="D105" t="n">
-        <v>0.187225</v>
+        <v>0.187367</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210934</v>
+        <v>0.211101</v>
       </c>
       <c r="C106" t="n">
-        <v>0.18028</v>
+        <v>0.180696</v>
       </c>
       <c r="D106" t="n">
-        <v>0.184841</v>
+        <v>0.184249</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208517</v>
+        <v>0.209082</v>
       </c>
       <c r="C107" t="n">
-        <v>0.179151</v>
+        <v>0.179559</v>
       </c>
       <c r="D107" t="n">
-        <v>0.184353</v>
+        <v>0.183899</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.20834</v>
+        <v>0.208759</v>
       </c>
       <c r="C108" t="n">
-        <v>0.268995</v>
+        <v>0.269898</v>
       </c>
       <c r="D108" t="n">
-        <v>0.276195</v>
+        <v>0.276077</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210512</v>
+        <v>0.210793</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262663</v>
+        <v>0.263348</v>
       </c>
       <c r="D109" t="n">
-        <v>0.269278</v>
+        <v>0.268099</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.284397</v>
+        <v>0.284589</v>
       </c>
       <c r="C110" t="n">
-        <v>0.254742</v>
+        <v>0.2552</v>
       </c>
       <c r="D110" t="n">
-        <v>0.260803</v>
+        <v>0.260633</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277972</v>
+        <v>0.278291</v>
       </c>
       <c r="C111" t="n">
-        <v>0.247637</v>
+        <v>0.247748</v>
       </c>
       <c r="D111" t="n">
-        <v>0.252216</v>
+        <v>0.252539</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.271979</v>
+        <v>0.271794</v>
       </c>
       <c r="C112" t="n">
-        <v>0.240007</v>
+        <v>0.240505</v>
       </c>
       <c r="D112" t="n">
-        <v>0.245056</v>
+        <v>0.244788</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.265996</v>
+        <v>0.266388</v>
       </c>
       <c r="C113" t="n">
-        <v>0.233118</v>
+        <v>0.233857</v>
       </c>
       <c r="D113" t="n">
-        <v>0.23778</v>
+        <v>0.237743</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260557</v>
+        <v>0.260997</v>
       </c>
       <c r="C114" t="n">
-        <v>0.226799</v>
+        <v>0.227339</v>
       </c>
       <c r="D114" t="n">
-        <v>0.231351</v>
+        <v>0.231066</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.254908</v>
+        <v>0.25536</v>
       </c>
       <c r="C115" t="n">
-        <v>0.221141</v>
+        <v>0.221156</v>
       </c>
       <c r="D115" t="n">
-        <v>0.224681</v>
+        <v>0.224773</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250164</v>
+        <v>0.250518</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215587</v>
+        <v>0.215675</v>
       </c>
       <c r="D116" t="n">
-        <v>0.218397</v>
+        <v>0.219199</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245175</v>
+        <v>0.245796</v>
       </c>
       <c r="C117" t="n">
-        <v>0.210339</v>
+        <v>0.210759</v>
       </c>
       <c r="D117" t="n">
-        <v>0.213291</v>
+        <v>0.213456</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241367</v>
+        <v>0.241761</v>
       </c>
       <c r="C118" t="n">
-        <v>0.206402</v>
+        <v>0.206278</v>
       </c>
       <c r="D118" t="n">
-        <v>0.209204</v>
+        <v>0.20977</v>
       </c>
     </row>
     <row r="119">
@@ -4884,10 +4884,10 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237875</v>
+        <v>0.23764</v>
       </c>
       <c r="C119" t="n">
-        <v>0.203763</v>
+        <v>0.202927</v>
       </c>
       <c r="D119" t="n">
         <v>0.206848</v>
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234585</v>
+        <v>0.234501</v>
       </c>
       <c r="C120" t="n">
-        <v>0.199654</v>
+        <v>0.200096</v>
       </c>
       <c r="D120" t="n">
-        <v>0.203629</v>
+        <v>0.204462</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.231942</v>
+        <v>0.23232</v>
       </c>
       <c r="C121" t="n">
-        <v>0.198586</v>
+        <v>0.199897</v>
       </c>
       <c r="D121" t="n">
-        <v>0.201379</v>
+        <v>0.203051</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231695</v>
+        <v>0.232343</v>
       </c>
       <c r="C122" t="n">
-        <v>0.204302</v>
+        <v>0.200052</v>
       </c>
       <c r="D122" t="n">
-        <v>0.205524</v>
+        <v>0.20691</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232933</v>
+        <v>0.253819</v>
       </c>
       <c r="C123" t="n">
-        <v>0.285205</v>
+        <v>0.304019</v>
       </c>
       <c r="D123" t="n">
-        <v>0.288905</v>
+        <v>0.30088</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.329878</v>
+        <v>0.353283</v>
       </c>
       <c r="C124" t="n">
-        <v>0.277632</v>
+        <v>0.295523</v>
       </c>
       <c r="D124" t="n">
-        <v>0.280483</v>
+        <v>0.309478</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.318654</v>
+        <v>0.337239</v>
       </c>
       <c r="C125" t="n">
-        <v>0.271237</v>
+        <v>0.317901</v>
       </c>
       <c r="D125" t="n">
-        <v>0.274747</v>
+        <v>0.316998</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.312663</v>
+        <v>0.345318</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265653</v>
+        <v>0.325799</v>
       </c>
       <c r="D126" t="n">
-        <v>0.268748</v>
+        <v>0.330558</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.307201</v>
+        <v>0.351961</v>
       </c>
       <c r="C127" t="n">
-        <v>0.260196</v>
+        <v>0.324938</v>
       </c>
       <c r="D127" t="n">
-        <v>0.262932</v>
+        <v>0.324403</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.301328</v>
+        <v>0.355326</v>
       </c>
       <c r="C128" t="n">
-        <v>0.255295</v>
+        <v>0.273486</v>
       </c>
       <c r="D128" t="n">
-        <v>0.25748</v>
+        <v>0.260802</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.296322</v>
+        <v>0.28839</v>
       </c>
       <c r="C129" t="n">
-        <v>0.250808</v>
+        <v>0.251046</v>
       </c>
       <c r="D129" t="n">
-        <v>0.252714</v>
+        <v>0.252148</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.292075</v>
+        <v>0.283716</v>
       </c>
       <c r="C130" t="n">
-        <v>0.24591</v>
+        <v>0.246964</v>
       </c>
       <c r="D130" t="n">
-        <v>0.247897</v>
+        <v>0.247137</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.287903</v>
+        <v>0.279505</v>
       </c>
       <c r="C131" t="n">
-        <v>0.243247</v>
+        <v>0.242567</v>
       </c>
       <c r="D131" t="n">
-        <v>0.246489</v>
+        <v>0.243704</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285405</v>
+        <v>0.276172</v>
       </c>
       <c r="C132" t="n">
-        <v>0.24008</v>
+        <v>0.239045</v>
       </c>
       <c r="D132" t="n">
-        <v>0.241844</v>
+        <v>0.239303</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.288293</v>
+        <v>0.272713</v>
       </c>
       <c r="C133" t="n">
-        <v>0.237643</v>
+        <v>0.235777</v>
       </c>
       <c r="D133" t="n">
-        <v>0.243007</v>
+        <v>0.236601</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.287573</v>
+        <v>0.270282</v>
       </c>
       <c r="C134" t="n">
-        <v>0.236595</v>
+        <v>0.233486</v>
       </c>
       <c r="D134" t="n">
-        <v>0.249927</v>
+        <v>0.233747</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.31123</v>
+        <v>0.26848</v>
       </c>
       <c r="C135" t="n">
-        <v>0.250469</v>
+        <v>0.232127</v>
       </c>
       <c r="D135" t="n">
-        <v>0.256466</v>
+        <v>0.232963</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.300671</v>
+        <v>0.26743</v>
       </c>
       <c r="C136" t="n">
-        <v>0.254123</v>
+        <v>0.232394</v>
       </c>
       <c r="D136" t="n">
-        <v>0.284473</v>
+        <v>0.2335</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.337455</v>
+        <v>0.268376</v>
       </c>
       <c r="C137" t="n">
-        <v>0.368577</v>
+        <v>0.326696</v>
       </c>
       <c r="D137" t="n">
-        <v>0.367259</v>
+        <v>0.326162</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.415465</v>
+        <v>0.354976</v>
       </c>
       <c r="C138" t="n">
-        <v>0.359311</v>
+        <v>0.321084</v>
       </c>
       <c r="D138" t="n">
-        <v>0.359484</v>
+        <v>0.319177</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.407864</v>
+        <v>0.350001</v>
       </c>
       <c r="C139" t="n">
-        <v>0.367246</v>
+        <v>0.316117</v>
       </c>
       <c r="D139" t="n">
-        <v>0.320227</v>
+        <v>0.314519</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.354393</v>
+        <v>0.345183</v>
       </c>
       <c r="C140" t="n">
-        <v>0.315199</v>
+        <v>0.311241</v>
       </c>
       <c r="D140" t="n">
-        <v>0.31284</v>
+        <v>0.308084</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.345785</v>
+        <v>0.340176</v>
       </c>
       <c r="C141" t="n">
-        <v>0.306005</v>
+        <v>0.305981</v>
       </c>
       <c r="D141" t="n">
-        <v>0.303775</v>
+        <v>0.304182</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.340833</v>
+        <v>0.335684</v>
       </c>
       <c r="C142" t="n">
-        <v>0.301566</v>
+        <v>0.302068</v>
       </c>
       <c r="D142" t="n">
-        <v>0.29898</v>
+        <v>0.299579</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.336333</v>
+        <v>0.332669</v>
       </c>
       <c r="C143" t="n">
-        <v>0.297621</v>
+        <v>0.297509</v>
       </c>
       <c r="D143" t="n">
-        <v>0.294849</v>
+        <v>0.294522</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.173581</v>
+        <v>0.156816</v>
       </c>
       <c r="C2" t="n">
-        <v>0.145606</v>
+        <v>0.135458</v>
       </c>
       <c r="D2" t="n">
-        <v>0.147458</v>
+        <v>0.13597</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.166316</v>
+        <v>0.146428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.137575</v>
+        <v>0.133926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.132752</v>
+        <v>0.144472</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.163423</v>
+        <v>0.16012</v>
       </c>
       <c r="C4" t="n">
-        <v>0.13766</v>
+        <v>0.126734</v>
       </c>
       <c r="D4" t="n">
-        <v>0.128067</v>
+        <v>0.126395</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.159055</v>
+        <v>0.145893</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131336</v>
+        <v>0.124934</v>
       </c>
       <c r="D5" t="n">
-        <v>0.127679</v>
+        <v>0.123454</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.15942</v>
+        <v>0.147142</v>
       </c>
       <c r="C6" t="n">
-        <v>0.11625</v>
+        <v>0.118102</v>
       </c>
       <c r="D6" t="n">
-        <v>0.119285</v>
+        <v>0.135912</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.138476</v>
+        <v>0.144414</v>
       </c>
       <c r="C7" t="n">
-        <v>0.132011</v>
+        <v>0.115225</v>
       </c>
       <c r="D7" t="n">
-        <v>0.119634</v>
+        <v>0.115072</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.14865</v>
+        <v>0.144779</v>
       </c>
       <c r="C8" t="n">
-        <v>0.125</v>
+        <v>0.111093</v>
       </c>
       <c r="D8" t="n">
-        <v>0.122273</v>
+        <v>0.123488</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.153223</v>
+        <v>0.148911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.193309</v>
+        <v>0.196142</v>
       </c>
       <c r="D9" t="n">
-        <v>0.201859</v>
+        <v>0.192032</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.201713</v>
+        <v>0.209843</v>
       </c>
       <c r="C10" t="n">
-        <v>0.183476</v>
+        <v>0.170996</v>
       </c>
       <c r="D10" t="n">
-        <v>0.189692</v>
+        <v>0.183931</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.195751</v>
+        <v>0.199324</v>
       </c>
       <c r="C11" t="n">
-        <v>0.164914</v>
+        <v>0.172609</v>
       </c>
       <c r="D11" t="n">
-        <v>0.176074</v>
+        <v>0.17319</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.198562</v>
+        <v>0.200646</v>
       </c>
       <c r="C12" t="n">
-        <v>0.177193</v>
+        <v>0.168758</v>
       </c>
       <c r="D12" t="n">
-        <v>0.183989</v>
+        <v>0.175652</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.202857</v>
+        <v>0.188105</v>
       </c>
       <c r="C13" t="n">
-        <v>0.170522</v>
+        <v>0.153891</v>
       </c>
       <c r="D13" t="n">
-        <v>0.176856</v>
+        <v>0.164778</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.194986</v>
+        <v>0.17967</v>
       </c>
       <c r="C14" t="n">
-        <v>0.165922</v>
+        <v>0.149764</v>
       </c>
       <c r="D14" t="n">
-        <v>0.175907</v>
+        <v>0.15677</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.185414</v>
+        <v>0.174484</v>
       </c>
       <c r="C15" t="n">
-        <v>0.150952</v>
+        <v>0.14613</v>
       </c>
       <c r="D15" t="n">
-        <v>0.156998</v>
+        <v>0.163061</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.176819</v>
+        <v>0.17374</v>
       </c>
       <c r="C16" t="n">
-        <v>0.15297</v>
+        <v>0.148945</v>
       </c>
       <c r="D16" t="n">
-        <v>0.162741</v>
+        <v>0.157062</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.174714</v>
+        <v>0.167921</v>
       </c>
       <c r="C17" t="n">
-        <v>0.149665</v>
+        <v>0.145076</v>
       </c>
       <c r="D17" t="n">
-        <v>0.156317</v>
+        <v>0.151069</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.171993</v>
+        <v>0.164471</v>
       </c>
       <c r="C18" t="n">
-        <v>0.141035</v>
+        <v>0.135333</v>
       </c>
       <c r="D18" t="n">
-        <v>0.14574</v>
+        <v>0.146899</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.168797</v>
+        <v>0.159336</v>
       </c>
       <c r="C19" t="n">
-        <v>0.14031</v>
+        <v>0.135658</v>
       </c>
       <c r="D19" t="n">
-        <v>0.146081</v>
+        <v>0.142739</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.163084</v>
+        <v>0.155479</v>
       </c>
       <c r="C20" t="n">
-        <v>0.134236</v>
+        <v>0.132112</v>
       </c>
       <c r="D20" t="n">
-        <v>0.141943</v>
+        <v>0.139457</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.159621</v>
+        <v>0.155322</v>
       </c>
       <c r="C21" t="n">
-        <v>0.13307</v>
+        <v>0.129888</v>
       </c>
       <c r="D21" t="n">
-        <v>0.141978</v>
+        <v>0.139499</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.161895</v>
+        <v>0.15904</v>
       </c>
       <c r="C22" t="n">
-        <v>0.126252</v>
+        <v>0.132124</v>
       </c>
       <c r="D22" t="n">
-        <v>0.134604</v>
+        <v>0.136289</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161653</v>
+        <v>0.156175</v>
       </c>
       <c r="C23" t="n">
-        <v>0.20938</v>
+        <v>0.206676</v>
       </c>
       <c r="D23" t="n">
-        <v>0.23004</v>
+        <v>0.231516</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.246308</v>
+        <v>0.230346</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210298</v>
+        <v>0.201868</v>
       </c>
       <c r="D24" t="n">
-        <v>0.219888</v>
+        <v>0.222914</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.232004</v>
+        <v>0.22031</v>
       </c>
       <c r="C25" t="n">
-        <v>0.206803</v>
+        <v>0.193626</v>
       </c>
       <c r="D25" t="n">
-        <v>0.210852</v>
+        <v>0.212646</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.230494</v>
+        <v>0.212447</v>
       </c>
       <c r="C26" t="n">
-        <v>0.191195</v>
+        <v>0.190666</v>
       </c>
       <c r="D26" t="n">
-        <v>0.203555</v>
+        <v>0.205824</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.223083</v>
+        <v>0.209791</v>
       </c>
       <c r="C27" t="n">
-        <v>0.191731</v>
+        <v>0.180438</v>
       </c>
       <c r="D27" t="n">
-        <v>0.19234</v>
+        <v>0.197481</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.213607</v>
+        <v>0.20214</v>
       </c>
       <c r="C28" t="n">
-        <v>0.172639</v>
+        <v>0.17242</v>
       </c>
       <c r="D28" t="n">
-        <v>0.190713</v>
+        <v>0.191288</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.207336</v>
+        <v>0.191972</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174924</v>
+        <v>0.172731</v>
       </c>
       <c r="D29" t="n">
-        <v>0.179192</v>
+        <v>0.182779</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.200028</v>
+        <v>0.185082</v>
       </c>
       <c r="C30" t="n">
-        <v>0.173756</v>
+        <v>0.16347</v>
       </c>
       <c r="D30" t="n">
-        <v>0.175662</v>
+        <v>0.176129</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.193402</v>
+        <v>0.179314</v>
       </c>
       <c r="C31" t="n">
-        <v>0.157756</v>
+        <v>0.156179</v>
       </c>
       <c r="D31" t="n">
-        <v>0.167955</v>
+        <v>0.169933</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.184541</v>
+        <v>0.175485</v>
       </c>
       <c r="C32" t="n">
-        <v>0.152835</v>
+        <v>0.150671</v>
       </c>
       <c r="D32" t="n">
-        <v>0.162339</v>
+        <v>0.162391</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.178875</v>
+        <v>0.16875</v>
       </c>
       <c r="C33" t="n">
-        <v>0.149567</v>
+        <v>0.145899</v>
       </c>
       <c r="D33" t="n">
-        <v>0.158233</v>
+        <v>0.156953</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.173578</v>
+        <v>0.167915</v>
       </c>
       <c r="C34" t="n">
-        <v>0.154989</v>
+        <v>0.150414</v>
       </c>
       <c r="D34" t="n">
-        <v>0.153355</v>
+        <v>0.152798</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.16983</v>
+        <v>0.169517</v>
       </c>
       <c r="C35" t="n">
-        <v>0.153956</v>
+        <v>0.141506</v>
       </c>
       <c r="D35" t="n">
-        <v>0.151292</v>
+        <v>0.151158</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.170059</v>
+        <v>0.165409</v>
       </c>
       <c r="C36" t="n">
-        <v>0.146738</v>
+        <v>0.143771</v>
       </c>
       <c r="D36" t="n">
-        <v>0.152681</v>
+        <v>0.153601</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.174478</v>
+        <v>0.172045</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236985</v>
+        <v>0.232868</v>
       </c>
       <c r="D37" t="n">
-        <v>0.246049</v>
+        <v>0.237001</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246781</v>
+        <v>0.241981</v>
       </c>
       <c r="C38" t="n">
-        <v>0.227487</v>
+        <v>0.224362</v>
       </c>
       <c r="D38" t="n">
-        <v>0.235921</v>
+        <v>0.22695</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.240791</v>
+        <v>0.233926</v>
       </c>
       <c r="C39" t="n">
-        <v>0.221146</v>
+        <v>0.216261</v>
       </c>
       <c r="D39" t="n">
-        <v>0.223256</v>
+        <v>0.21605</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.230856</v>
+        <v>0.225574</v>
       </c>
       <c r="C40" t="n">
-        <v>0.210501</v>
+        <v>0.207455</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2165</v>
+        <v>0.208991</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.221566</v>
+        <v>0.2174</v>
       </c>
       <c r="C41" t="n">
-        <v>0.20913</v>
+        <v>0.198723</v>
       </c>
       <c r="D41" t="n">
-        <v>0.209616</v>
+        <v>0.201172</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.222296</v>
+        <v>0.209127</v>
       </c>
       <c r="C42" t="n">
-        <v>0.201229</v>
+        <v>0.192284</v>
       </c>
       <c r="D42" t="n">
-        <v>0.202539</v>
+        <v>0.191934</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.218136</v>
+        <v>0.201352</v>
       </c>
       <c r="C43" t="n">
-        <v>0.197508</v>
+        <v>0.186742</v>
       </c>
       <c r="D43" t="n">
-        <v>0.196375</v>
+        <v>0.185339</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.211533</v>
+        <v>0.194757</v>
       </c>
       <c r="C44" t="n">
-        <v>0.191058</v>
+        <v>0.178178</v>
       </c>
       <c r="D44" t="n">
-        <v>0.190186</v>
+        <v>0.179312</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.204303</v>
+        <v>0.190337</v>
       </c>
       <c r="C45" t="n">
-        <v>0.184304</v>
+        <v>0.172181</v>
       </c>
       <c r="D45" t="n">
-        <v>0.182929</v>
+        <v>0.174318</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.196818</v>
+        <v>0.182739</v>
       </c>
       <c r="C46" t="n">
-        <v>0.179229</v>
+        <v>0.168841</v>
       </c>
       <c r="D46" t="n">
-        <v>0.177921</v>
+        <v>0.166696</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.19232</v>
+        <v>0.179846</v>
       </c>
       <c r="C47" t="n">
-        <v>0.175211</v>
+        <v>0.163962</v>
       </c>
       <c r="D47" t="n">
-        <v>0.172507</v>
+        <v>0.162331</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.189842</v>
+        <v>0.175581</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171719</v>
+        <v>0.158979</v>
       </c>
       <c r="D48" t="n">
-        <v>0.168827</v>
+        <v>0.159062</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.186452</v>
+        <v>0.171693</v>
       </c>
       <c r="C49" t="n">
-        <v>0.168536</v>
+        <v>0.157339</v>
       </c>
       <c r="D49" t="n">
-        <v>0.165885</v>
+        <v>0.15708</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.18409</v>
+        <v>0.170413</v>
       </c>
       <c r="C50" t="n">
-        <v>0.165941</v>
+        <v>0.15659</v>
       </c>
       <c r="D50" t="n">
-        <v>0.165508</v>
+        <v>0.156187</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.186783</v>
+        <v>0.171899</v>
       </c>
       <c r="C51" t="n">
-        <v>0.270322</v>
+        <v>0.242457</v>
       </c>
       <c r="D51" t="n">
-        <v>0.264724</v>
+        <v>0.241259</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.196371</v>
+        <v>0.174643</v>
       </c>
       <c r="C52" t="n">
-        <v>0.270647</v>
+        <v>0.233822</v>
       </c>
       <c r="D52" t="n">
-        <v>0.256875</v>
+        <v>0.23102</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.271089</v>
+        <v>0.24069</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25296</v>
+        <v>0.224083</v>
       </c>
       <c r="D53" t="n">
-        <v>0.245801</v>
+        <v>0.221067</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.26532</v>
+        <v>0.232038</v>
       </c>
       <c r="C54" t="n">
-        <v>0.245726</v>
+        <v>0.216462</v>
       </c>
       <c r="D54" t="n">
-        <v>0.247074</v>
+        <v>0.213055</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.259085</v>
+        <v>0.22244</v>
       </c>
       <c r="C55" t="n">
-        <v>0.209775</v>
+        <v>0.208028</v>
       </c>
       <c r="D55" t="n">
-        <v>0.206262</v>
+        <v>0.205021</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217636</v>
+        <v>0.215225</v>
       </c>
       <c r="C56" t="n">
-        <v>0.199686</v>
+        <v>0.199891</v>
       </c>
       <c r="D56" t="n">
-        <v>0.198465</v>
+        <v>0.197609</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.210032</v>
+        <v>0.207937</v>
       </c>
       <c r="C57" t="n">
-        <v>0.192709</v>
+        <v>0.193482</v>
       </c>
       <c r="D57" t="n">
-        <v>0.191074</v>
+        <v>0.190671</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.20298</v>
+        <v>0.201423</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186033</v>
+        <v>0.186665</v>
       </c>
       <c r="D58" t="n">
-        <v>0.18383</v>
+        <v>0.184221</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.197004</v>
+        <v>0.195054</v>
       </c>
       <c r="C59" t="n">
-        <v>0.179948</v>
+        <v>0.180854</v>
       </c>
       <c r="D59" t="n">
-        <v>0.177519</v>
+        <v>0.177355</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.19147</v>
+        <v>0.189267</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174749</v>
+        <v>0.174177</v>
       </c>
       <c r="D60" t="n">
-        <v>0.17217</v>
+        <v>0.172045</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.186416</v>
+        <v>0.184444</v>
       </c>
       <c r="C61" t="n">
-        <v>0.169266</v>
+        <v>0.169285</v>
       </c>
       <c r="D61" t="n">
-        <v>0.167313</v>
+        <v>0.167306</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.183751</v>
+        <v>0.18034</v>
       </c>
       <c r="C62" t="n">
-        <v>0.165894</v>
+        <v>0.165613</v>
       </c>
       <c r="D62" t="n">
-        <v>0.163218</v>
+        <v>0.162397</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.179168</v>
+        <v>0.177288</v>
       </c>
       <c r="C63" t="n">
-        <v>0.163244</v>
+        <v>0.162429</v>
       </c>
       <c r="D63" t="n">
-        <v>0.161468</v>
+        <v>0.161091</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176965</v>
+        <v>0.175671</v>
       </c>
       <c r="C64" t="n">
-        <v>0.16067</v>
+        <v>0.161074</v>
       </c>
       <c r="D64" t="n">
-        <v>0.160629</v>
+        <v>0.160885</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177227</v>
+        <v>0.175978</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1616</v>
+        <v>0.161424</v>
       </c>
       <c r="D65" t="n">
-        <v>0.162491</v>
+        <v>0.162236</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180335</v>
+        <v>0.178646</v>
       </c>
       <c r="C66" t="n">
-        <v>0.243872</v>
+        <v>0.243785</v>
       </c>
       <c r="D66" t="n">
-        <v>0.239341</v>
+        <v>0.239033</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247759</v>
+        <v>0.244268</v>
       </c>
       <c r="C67" t="n">
-        <v>0.233408</v>
+        <v>0.234326</v>
       </c>
       <c r="D67" t="n">
-        <v>0.230264</v>
+        <v>0.229134</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237112</v>
+        <v>0.236195</v>
       </c>
       <c r="C68" t="n">
-        <v>0.226524</v>
+        <v>0.225287</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221185</v>
+        <v>0.221046</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.229671</v>
+        <v>0.228283</v>
       </c>
       <c r="C69" t="n">
-        <v>0.218616</v>
+        <v>0.217476</v>
       </c>
       <c r="D69" t="n">
-        <v>0.212634</v>
+        <v>0.212498</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.221874</v>
+        <v>0.220582</v>
       </c>
       <c r="C70" t="n">
-        <v>0.20884</v>
+        <v>0.209739</v>
       </c>
       <c r="D70" t="n">
-        <v>0.204817</v>
+        <v>0.204731</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.214076</v>
+        <v>0.213134</v>
       </c>
       <c r="C71" t="n">
-        <v>0.202928</v>
+        <v>0.202568</v>
       </c>
       <c r="D71" t="n">
-        <v>0.197339</v>
+        <v>0.196513</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205788</v>
+        <v>0.205973</v>
       </c>
       <c r="C72" t="n">
-        <v>0.195586</v>
+        <v>0.196038</v>
       </c>
       <c r="D72" t="n">
-        <v>0.190296</v>
+        <v>0.190131</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.201102</v>
+        <v>0.200658</v>
       </c>
       <c r="C73" t="n">
-        <v>0.188902</v>
+        <v>0.188985</v>
       </c>
       <c r="D73" t="n">
-        <v>0.183877</v>
+        <v>0.183723</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.195285</v>
+        <v>0.194602</v>
       </c>
       <c r="C74" t="n">
-        <v>0.183026</v>
+        <v>0.182702</v>
       </c>
       <c r="D74" t="n">
-        <v>0.177914</v>
+        <v>0.178064</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189545</v>
+        <v>0.189816</v>
       </c>
       <c r="C75" t="n">
-        <v>0.177589</v>
+        <v>0.177409</v>
       </c>
       <c r="D75" t="n">
-        <v>0.172947</v>
+        <v>0.173033</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185758</v>
+        <v>0.185692</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173195</v>
+        <v>0.173171</v>
       </c>
       <c r="D76" t="n">
-        <v>0.168906</v>
+        <v>0.168795</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.183045</v>
+        <v>0.181935</v>
       </c>
       <c r="C77" t="n">
-        <v>0.169863</v>
+        <v>0.169825</v>
       </c>
       <c r="D77" t="n">
-        <v>0.165778</v>
+        <v>0.165924</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.180462</v>
+        <v>0.18005</v>
       </c>
       <c r="C78" t="n">
-        <v>0.167694</v>
+        <v>0.167381</v>
       </c>
       <c r="D78" t="n">
-        <v>0.164415</v>
+        <v>0.163841</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179981</v>
+        <v>0.180339</v>
       </c>
       <c r="C79" t="n">
-        <v>0.167564</v>
+        <v>0.167637</v>
       </c>
       <c r="D79" t="n">
-        <v>0.165117</v>
+        <v>0.165188</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181945</v>
+        <v>0.182097</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242352</v>
+        <v>0.242503</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243222</v>
+        <v>0.243259</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258715</v>
+        <v>0.25912</v>
       </c>
       <c r="C81" t="n">
-        <v>0.233668</v>
+        <v>0.233588</v>
       </c>
       <c r="D81" t="n">
-        <v>0.234343</v>
+        <v>0.233859</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.250606</v>
+        <v>0.251703</v>
       </c>
       <c r="C82" t="n">
-        <v>0.225158</v>
+        <v>0.225203</v>
       </c>
       <c r="D82" t="n">
-        <v>0.225646</v>
+        <v>0.225912</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243</v>
+        <v>0.243854</v>
       </c>
       <c r="C83" t="n">
-        <v>0.217217</v>
+        <v>0.217226</v>
       </c>
       <c r="D83" t="n">
-        <v>0.217395</v>
+        <v>0.217088</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235592</v>
+        <v>0.236418</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209899</v>
+        <v>0.20964</v>
       </c>
       <c r="D84" t="n">
-        <v>0.20919</v>
+        <v>0.20901</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.228406</v>
+        <v>0.22822</v>
       </c>
       <c r="C85" t="n">
-        <v>0.202542</v>
+        <v>0.202511</v>
       </c>
       <c r="D85" t="n">
-        <v>0.201967</v>
+        <v>0.201103</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.221073</v>
+        <v>0.221286</v>
       </c>
       <c r="C86" t="n">
-        <v>0.195636</v>
+        <v>0.195474</v>
       </c>
       <c r="D86" t="n">
-        <v>0.195187</v>
+        <v>0.194763</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214438</v>
+        <v>0.215067</v>
       </c>
       <c r="C87" t="n">
-        <v>0.189403</v>
+        <v>0.189725</v>
       </c>
       <c r="D87" t="n">
-        <v>0.188264</v>
+        <v>0.188448</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208536</v>
+        <v>0.208551</v>
       </c>
       <c r="C88" t="n">
-        <v>0.183647</v>
+        <v>0.183781</v>
       </c>
       <c r="D88" t="n">
-        <v>0.182199</v>
+        <v>0.182685</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.202504</v>
+        <v>0.203104</v>
       </c>
       <c r="C89" t="n">
-        <v>0.17822</v>
+        <v>0.178326</v>
       </c>
       <c r="D89" t="n">
-        <v>0.176955</v>
+        <v>0.17739</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197574</v>
+        <v>0.197907</v>
       </c>
       <c r="C90" t="n">
-        <v>0.174073</v>
+        <v>0.174275</v>
       </c>
       <c r="D90" t="n">
-        <v>0.172499</v>
+        <v>0.173035</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19362</v>
+        <v>0.193661</v>
       </c>
       <c r="C91" t="n">
-        <v>0.17046</v>
+        <v>0.170818</v>
       </c>
       <c r="D91" t="n">
-        <v>0.169492</v>
+        <v>0.169868</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190476</v>
+        <v>0.190789</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168215</v>
+        <v>0.168623</v>
       </c>
       <c r="D92" t="n">
-        <v>0.167497</v>
+        <v>0.167875</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189154</v>
+        <v>0.190041</v>
       </c>
       <c r="C93" t="n">
-        <v>0.168012</v>
+        <v>0.168021</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1678</v>
+        <v>0.168096</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190089</v>
+        <v>0.19109</v>
       </c>
       <c r="C94" t="n">
-        <v>0.255184</v>
+        <v>0.255326</v>
       </c>
       <c r="D94" t="n">
-        <v>0.260299</v>
+        <v>0.260777</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.270648</v>
+        <v>0.270967</v>
       </c>
       <c r="C95" t="n">
-        <v>0.246586</v>
+        <v>0.247557</v>
       </c>
       <c r="D95" t="n">
-        <v>0.252482</v>
+        <v>0.252927</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265111</v>
+        <v>0.2652</v>
       </c>
       <c r="C96" t="n">
-        <v>0.238353</v>
+        <v>0.239573</v>
       </c>
       <c r="D96" t="n">
-        <v>0.243907</v>
+        <v>0.244746</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258692</v>
+        <v>0.258212</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230511</v>
+        <v>0.231135</v>
       </c>
       <c r="D97" t="n">
-        <v>0.235644</v>
+        <v>0.236209</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251958</v>
+        <v>0.251347</v>
       </c>
       <c r="C98" t="n">
-        <v>0.22306</v>
+        <v>0.223713</v>
       </c>
       <c r="D98" t="n">
-        <v>0.227951</v>
+        <v>0.228281</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245588</v>
+        <v>0.245086</v>
       </c>
       <c r="C99" t="n">
-        <v>0.216218</v>
+        <v>0.216173</v>
       </c>
       <c r="D99" t="n">
-        <v>0.220441</v>
+        <v>0.221242</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239389</v>
+        <v>0.238602</v>
       </c>
       <c r="C100" t="n">
-        <v>0.209136</v>
+        <v>0.209235</v>
       </c>
       <c r="D100" t="n">
-        <v>0.213318</v>
+        <v>0.214209</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233477</v>
+        <v>0.233561</v>
       </c>
       <c r="C101" t="n">
-        <v>0.202882</v>
+        <v>0.202954</v>
       </c>
       <c r="D101" t="n">
-        <v>0.20749</v>
+        <v>0.207407</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228216</v>
+        <v>0.227832</v>
       </c>
       <c r="C102" t="n">
-        <v>0.196983</v>
+        <v>0.19784</v>
       </c>
       <c r="D102" t="n">
-        <v>0.201194</v>
+        <v>0.200795</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222728</v>
+        <v>0.222605</v>
       </c>
       <c r="C103" t="n">
-        <v>0.191579</v>
+        <v>0.192102</v>
       </c>
       <c r="D103" t="n">
-        <v>0.195436</v>
+        <v>0.196014</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218415</v>
+        <v>0.218079</v>
       </c>
       <c r="C104" t="n">
-        <v>0.187089</v>
+        <v>0.187805</v>
       </c>
       <c r="D104" t="n">
-        <v>0.19025</v>
+        <v>0.191065</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214692</v>
+        <v>0.213916</v>
       </c>
       <c r="C105" t="n">
-        <v>0.183514</v>
+        <v>0.183842</v>
       </c>
       <c r="D105" t="n">
-        <v>0.187367</v>
+        <v>0.18717</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211101</v>
+        <v>0.210857</v>
       </c>
       <c r="C106" t="n">
-        <v>0.180696</v>
+        <v>0.181054</v>
       </c>
       <c r="D106" t="n">
-        <v>0.184249</v>
+        <v>0.184731</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209082</v>
+        <v>0.208709</v>
       </c>
       <c r="C107" t="n">
-        <v>0.179559</v>
+        <v>0.180027</v>
       </c>
       <c r="D107" t="n">
-        <v>0.183899</v>
+        <v>0.184967</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208759</v>
+        <v>0.20835</v>
       </c>
       <c r="C108" t="n">
-        <v>0.269898</v>
+        <v>0.272032</v>
       </c>
       <c r="D108" t="n">
-        <v>0.276077</v>
+        <v>0.27928</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210793</v>
+        <v>0.210526</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263348</v>
+        <v>0.2646</v>
       </c>
       <c r="D109" t="n">
-        <v>0.268099</v>
+        <v>0.272578</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.284589</v>
+        <v>0.284914</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2552</v>
+        <v>0.257433</v>
       </c>
       <c r="D110" t="n">
-        <v>0.260633</v>
+        <v>0.262806</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278291</v>
+        <v>0.278527</v>
       </c>
       <c r="C111" t="n">
-        <v>0.247748</v>
+        <v>0.25035</v>
       </c>
       <c r="D111" t="n">
-        <v>0.252539</v>
+        <v>0.256491</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.271794</v>
+        <v>0.289434</v>
       </c>
       <c r="C112" t="n">
-        <v>0.240505</v>
+        <v>0.255882</v>
       </c>
       <c r="D112" t="n">
-        <v>0.244788</v>
+        <v>0.257998</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266388</v>
+        <v>0.28237</v>
       </c>
       <c r="C113" t="n">
-        <v>0.233857</v>
+        <v>0.254586</v>
       </c>
       <c r="D113" t="n">
-        <v>0.237743</v>
+        <v>0.259174</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260997</v>
+        <v>0.291928</v>
       </c>
       <c r="C114" t="n">
-        <v>0.227339</v>
+        <v>0.257978</v>
       </c>
       <c r="D114" t="n">
-        <v>0.231066</v>
+        <v>0.259058</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.25536</v>
+        <v>0.28317</v>
       </c>
       <c r="C115" t="n">
-        <v>0.221156</v>
+        <v>0.244421</v>
       </c>
       <c r="D115" t="n">
-        <v>0.224773</v>
+        <v>0.258405</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250518</v>
+        <v>0.302917</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215675</v>
+        <v>0.256047</v>
       </c>
       <c r="D116" t="n">
-        <v>0.219199</v>
+        <v>0.264907</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245796</v>
+        <v>0.296595</v>
       </c>
       <c r="C117" t="n">
-        <v>0.210759</v>
+        <v>0.25163</v>
       </c>
       <c r="D117" t="n">
-        <v>0.213456</v>
+        <v>0.258849</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241761</v>
+        <v>0.256357</v>
       </c>
       <c r="C118" t="n">
-        <v>0.206278</v>
+        <v>0.207651</v>
       </c>
       <c r="D118" t="n">
-        <v>0.20977</v>
+        <v>0.208552</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.23764</v>
+        <v>0.237514</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202927</v>
+        <v>0.203251</v>
       </c>
       <c r="D119" t="n">
-        <v>0.206848</v>
+        <v>0.204617</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234501</v>
+        <v>0.234283</v>
       </c>
       <c r="C120" t="n">
-        <v>0.200096</v>
+        <v>0.19991</v>
       </c>
       <c r="D120" t="n">
-        <v>0.204462</v>
+        <v>0.20188</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.23232</v>
+        <v>0.231549</v>
       </c>
       <c r="C121" t="n">
-        <v>0.199897</v>
+        <v>0.198477</v>
       </c>
       <c r="D121" t="n">
-        <v>0.203051</v>
+        <v>0.200756</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.232343</v>
+        <v>0.231074</v>
       </c>
       <c r="C122" t="n">
-        <v>0.200052</v>
+        <v>0.199353</v>
       </c>
       <c r="D122" t="n">
-        <v>0.20691</v>
+        <v>0.201793</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.253819</v>
+        <v>0.232094</v>
       </c>
       <c r="C123" t="n">
-        <v>0.304019</v>
+        <v>0.28381</v>
       </c>
       <c r="D123" t="n">
-        <v>0.30088</v>
+        <v>0.286908</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.353283</v>
+        <v>0.31293</v>
       </c>
       <c r="C124" t="n">
-        <v>0.295523</v>
+        <v>0.277492</v>
       </c>
       <c r="D124" t="n">
-        <v>0.309478</v>
+        <v>0.27991</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.337239</v>
+        <v>0.307239</v>
       </c>
       <c r="C125" t="n">
-        <v>0.317901</v>
+        <v>0.271785</v>
       </c>
       <c r="D125" t="n">
-        <v>0.316998</v>
+        <v>0.274167</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.345318</v>
+        <v>0.301854</v>
       </c>
       <c r="C126" t="n">
-        <v>0.325799</v>
+        <v>0.266058</v>
       </c>
       <c r="D126" t="n">
-        <v>0.330558</v>
+        <v>0.266673</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.351961</v>
+        <v>0.296113</v>
       </c>
       <c r="C127" t="n">
-        <v>0.324938</v>
+        <v>0.26075</v>
       </c>
       <c r="D127" t="n">
-        <v>0.324403</v>
+        <v>0.261633</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.355326</v>
+        <v>0.291484</v>
       </c>
       <c r="C128" t="n">
-        <v>0.273486</v>
+        <v>0.255789</v>
       </c>
       <c r="D128" t="n">
-        <v>0.260802</v>
+        <v>0.25695</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.28839</v>
+        <v>0.286784</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251046</v>
+        <v>0.251032</v>
       </c>
       <c r="D129" t="n">
-        <v>0.252148</v>
+        <v>0.251771</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.283716</v>
+        <v>0.282409</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246964</v>
+        <v>0.246319</v>
       </c>
       <c r="D130" t="n">
-        <v>0.247137</v>
+        <v>0.246733</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.279505</v>
+        <v>0.278761</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242567</v>
+        <v>0.24248</v>
       </c>
       <c r="D131" t="n">
-        <v>0.243704</v>
+        <v>0.242281</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.276172</v>
+        <v>0.275262</v>
       </c>
       <c r="C132" t="n">
-        <v>0.239045</v>
+        <v>0.239294</v>
       </c>
       <c r="D132" t="n">
-        <v>0.239303</v>
+        <v>0.239217</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.272713</v>
+        <v>0.272633</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235777</v>
+        <v>0.236463</v>
       </c>
       <c r="D133" t="n">
-        <v>0.236601</v>
+        <v>0.235741</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.270282</v>
+        <v>0.269847</v>
       </c>
       <c r="C134" t="n">
-        <v>0.233486</v>
+        <v>0.233843</v>
       </c>
       <c r="D134" t="n">
-        <v>0.233747</v>
+        <v>0.232722</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.26848</v>
+        <v>0.268117</v>
       </c>
       <c r="C135" t="n">
-        <v>0.232127</v>
+        <v>0.232558</v>
       </c>
       <c r="D135" t="n">
-        <v>0.232963</v>
+        <v>0.232231</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.26743</v>
+        <v>0.267418</v>
       </c>
       <c r="C136" t="n">
-        <v>0.232394</v>
+        <v>0.232739</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2335</v>
+        <v>0.232135</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.268376</v>
+        <v>0.268397</v>
       </c>
       <c r="C137" t="n">
-        <v>0.326696</v>
+        <v>0.327506</v>
       </c>
       <c r="D137" t="n">
-        <v>0.326162</v>
+        <v>0.324931</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.354976</v>
+        <v>0.351659</v>
       </c>
       <c r="C138" t="n">
-        <v>0.321084</v>
+        <v>0.322192</v>
       </c>
       <c r="D138" t="n">
-        <v>0.319177</v>
+        <v>0.319163</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.350001</v>
+        <v>0.34602</v>
       </c>
       <c r="C139" t="n">
-        <v>0.316117</v>
+        <v>0.316485</v>
       </c>
       <c r="D139" t="n">
-        <v>0.314519</v>
+        <v>0.313589</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.345183</v>
+        <v>0.340849</v>
       </c>
       <c r="C140" t="n">
-        <v>0.311241</v>
+        <v>0.311019</v>
       </c>
       <c r="D140" t="n">
-        <v>0.308084</v>
+        <v>0.308269</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.340176</v>
+        <v>0.336133</v>
       </c>
       <c r="C141" t="n">
-        <v>0.305981</v>
+        <v>0.306426</v>
       </c>
       <c r="D141" t="n">
-        <v>0.304182</v>
+        <v>0.303227</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.335684</v>
+        <v>0.331553</v>
       </c>
       <c r="C142" t="n">
-        <v>0.302068</v>
+        <v>0.30225</v>
       </c>
       <c r="D142" t="n">
-        <v>0.299579</v>
+        <v>0.298887</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.332669</v>
+        <v>0.32815</v>
       </c>
       <c r="C143" t="n">
-        <v>0.297509</v>
+        <v>0.297866</v>
       </c>
       <c r="D143" t="n">
-        <v>0.294522</v>
+        <v>0.294234</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.156816</v>
+        <v>0.164987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.135458</v>
+        <v>0.138612</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13597</v>
+        <v>0.145103</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.146428</v>
+        <v>0.170075</v>
       </c>
       <c r="C3" t="n">
-        <v>0.133926</v>
+        <v>0.133704</v>
       </c>
       <c r="D3" t="n">
-        <v>0.144472</v>
+        <v>0.14272</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.16012</v>
+        <v>0.1639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.126734</v>
+        <v>0.126252</v>
       </c>
       <c r="D4" t="n">
-        <v>0.126395</v>
+        <v>0.126949</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.145893</v>
+        <v>0.155104</v>
       </c>
       <c r="C5" t="n">
-        <v>0.124934</v>
+        <v>0.127276</v>
       </c>
       <c r="D5" t="n">
-        <v>0.123454</v>
+        <v>0.128896</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.147142</v>
+        <v>0.151149</v>
       </c>
       <c r="C6" t="n">
-        <v>0.118102</v>
+        <v>0.117248</v>
       </c>
       <c r="D6" t="n">
-        <v>0.135912</v>
+        <v>0.120355</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.144414</v>
+        <v>0.153631</v>
       </c>
       <c r="C7" t="n">
-        <v>0.115225</v>
+        <v>0.122051</v>
       </c>
       <c r="D7" t="n">
-        <v>0.115072</v>
+        <v>0.122208</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.144779</v>
+        <v>0.154348</v>
       </c>
       <c r="C8" t="n">
-        <v>0.111093</v>
+        <v>0.121173</v>
       </c>
       <c r="D8" t="n">
-        <v>0.123488</v>
+        <v>0.123645</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148911</v>
+        <v>0.156002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.196142</v>
+        <v>0.185979</v>
       </c>
       <c r="D9" t="n">
-        <v>0.192032</v>
+        <v>0.200463</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.209843</v>
+        <v>0.208402</v>
       </c>
       <c r="C10" t="n">
-        <v>0.170996</v>
+        <v>0.184735</v>
       </c>
       <c r="D10" t="n">
-        <v>0.183931</v>
+        <v>0.192969</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.199324</v>
+        <v>0.206356</v>
       </c>
       <c r="C11" t="n">
-        <v>0.172609</v>
+        <v>0.171985</v>
       </c>
       <c r="D11" t="n">
-        <v>0.17319</v>
+        <v>0.186389</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.200646</v>
+        <v>0.190757</v>
       </c>
       <c r="C12" t="n">
-        <v>0.168758</v>
+        <v>0.166353</v>
       </c>
       <c r="D12" t="n">
-        <v>0.175652</v>
+        <v>0.175636</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.188105</v>
+        <v>0.196485</v>
       </c>
       <c r="C13" t="n">
-        <v>0.153891</v>
+        <v>0.165332</v>
       </c>
       <c r="D13" t="n">
-        <v>0.164778</v>
+        <v>0.168338</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.17967</v>
+        <v>0.185761</v>
       </c>
       <c r="C14" t="n">
-        <v>0.149764</v>
+        <v>0.152149</v>
       </c>
       <c r="D14" t="n">
-        <v>0.15677</v>
+        <v>0.15593</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.174484</v>
+        <v>0.182379</v>
       </c>
       <c r="C15" t="n">
-        <v>0.14613</v>
+        <v>0.146184</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163061</v>
+        <v>0.159395</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.17374</v>
+        <v>0.166899</v>
       </c>
       <c r="C16" t="n">
-        <v>0.148945</v>
+        <v>0.144421</v>
       </c>
       <c r="D16" t="n">
-        <v>0.157062</v>
+        <v>0.151093</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.167921</v>
+        <v>0.160847</v>
       </c>
       <c r="C17" t="n">
-        <v>0.145076</v>
+        <v>0.144363</v>
       </c>
       <c r="D17" t="n">
-        <v>0.151069</v>
+        <v>0.144782</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.164471</v>
+        <v>0.167405</v>
       </c>
       <c r="C18" t="n">
-        <v>0.135333</v>
+        <v>0.14163</v>
       </c>
       <c r="D18" t="n">
-        <v>0.146899</v>
+        <v>0.145391</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.159336</v>
+        <v>0.168782</v>
       </c>
       <c r="C19" t="n">
-        <v>0.135658</v>
+        <v>0.129395</v>
       </c>
       <c r="D19" t="n">
-        <v>0.142739</v>
+        <v>0.141784</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155479</v>
+        <v>0.166026</v>
       </c>
       <c r="C20" t="n">
-        <v>0.132112</v>
+        <v>0.134126</v>
       </c>
       <c r="D20" t="n">
-        <v>0.139457</v>
+        <v>0.143687</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.155322</v>
+        <v>0.161596</v>
       </c>
       <c r="C21" t="n">
-        <v>0.129888</v>
+        <v>0.12861</v>
       </c>
       <c r="D21" t="n">
-        <v>0.139499</v>
+        <v>0.140914</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.15904</v>
+        <v>0.16066</v>
       </c>
       <c r="C22" t="n">
-        <v>0.132124</v>
+        <v>0.126779</v>
       </c>
       <c r="D22" t="n">
-        <v>0.136289</v>
+        <v>0.139785</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.156175</v>
+        <v>0.162554</v>
       </c>
       <c r="C23" t="n">
-        <v>0.206676</v>
+        <v>0.223649</v>
       </c>
       <c r="D23" t="n">
-        <v>0.231516</v>
+        <v>0.230667</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.230346</v>
+        <v>0.241399</v>
       </c>
       <c r="C24" t="n">
-        <v>0.201868</v>
+        <v>0.214894</v>
       </c>
       <c r="D24" t="n">
-        <v>0.222914</v>
+        <v>0.221494</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.22031</v>
+        <v>0.237562</v>
       </c>
       <c r="C25" t="n">
-        <v>0.193626</v>
+        <v>0.209269</v>
       </c>
       <c r="D25" t="n">
-        <v>0.212646</v>
+        <v>0.213519</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.212447</v>
+        <v>0.229395</v>
       </c>
       <c r="C26" t="n">
-        <v>0.190666</v>
+        <v>0.200614</v>
       </c>
       <c r="D26" t="n">
-        <v>0.205824</v>
+        <v>0.206487</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.209791</v>
+        <v>0.221605</v>
       </c>
       <c r="C27" t="n">
-        <v>0.180438</v>
+        <v>0.181885</v>
       </c>
       <c r="D27" t="n">
-        <v>0.197481</v>
+        <v>0.194829</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.20214</v>
+        <v>0.213766</v>
       </c>
       <c r="C28" t="n">
-        <v>0.17242</v>
+        <v>0.18012</v>
       </c>
       <c r="D28" t="n">
-        <v>0.191288</v>
+        <v>0.18941</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.191972</v>
+        <v>0.205498</v>
       </c>
       <c r="C29" t="n">
-        <v>0.172731</v>
+        <v>0.173782</v>
       </c>
       <c r="D29" t="n">
-        <v>0.182779</v>
+        <v>0.182123</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.185082</v>
+        <v>0.192374</v>
       </c>
       <c r="C30" t="n">
-        <v>0.16347</v>
+        <v>0.159875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.176129</v>
+        <v>0.173324</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.179314</v>
+        <v>0.186566</v>
       </c>
       <c r="C31" t="n">
-        <v>0.156179</v>
+        <v>0.157874</v>
       </c>
       <c r="D31" t="n">
-        <v>0.169933</v>
+        <v>0.168744</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.175485</v>
+        <v>0.180311</v>
       </c>
       <c r="C32" t="n">
-        <v>0.150671</v>
+        <v>0.156302</v>
       </c>
       <c r="D32" t="n">
-        <v>0.162391</v>
+        <v>0.161803</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.16875</v>
+        <v>0.175899</v>
       </c>
       <c r="C33" t="n">
-        <v>0.145899</v>
+        <v>0.154107</v>
       </c>
       <c r="D33" t="n">
-        <v>0.156953</v>
+        <v>0.15805</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.167915</v>
+        <v>0.175348</v>
       </c>
       <c r="C34" t="n">
-        <v>0.150414</v>
+        <v>0.1443</v>
       </c>
       <c r="D34" t="n">
-        <v>0.152798</v>
+        <v>0.154366</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.169517</v>
+        <v>0.172006</v>
       </c>
       <c r="C35" t="n">
-        <v>0.141506</v>
+        <v>0.142736</v>
       </c>
       <c r="D35" t="n">
-        <v>0.151158</v>
+        <v>0.151654</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.165409</v>
+        <v>0.168624</v>
       </c>
       <c r="C36" t="n">
-        <v>0.143771</v>
+        <v>0.149408</v>
       </c>
       <c r="D36" t="n">
-        <v>0.153601</v>
+        <v>0.152763</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172045</v>
+        <v>0.171723</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232868</v>
+        <v>0.232849</v>
       </c>
       <c r="D37" t="n">
-        <v>0.237001</v>
+        <v>0.235431</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241981</v>
+        <v>0.2413</v>
       </c>
       <c r="C38" t="n">
-        <v>0.224362</v>
+        <v>0.225771</v>
       </c>
       <c r="D38" t="n">
-        <v>0.22695</v>
+        <v>0.228035</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233926</v>
+        <v>0.232384</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216261</v>
+        <v>0.215182</v>
       </c>
       <c r="D39" t="n">
-        <v>0.21605</v>
+        <v>0.218454</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.225574</v>
+        <v>0.221427</v>
       </c>
       <c r="C40" t="n">
-        <v>0.207455</v>
+        <v>0.209342</v>
       </c>
       <c r="D40" t="n">
-        <v>0.208991</v>
+        <v>0.20943</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2174</v>
+        <v>0.214323</v>
       </c>
       <c r="C41" t="n">
-        <v>0.198723</v>
+        <v>0.199837</v>
       </c>
       <c r="D41" t="n">
-        <v>0.201172</v>
+        <v>0.202727</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209127</v>
+        <v>0.206648</v>
       </c>
       <c r="C42" t="n">
-        <v>0.192284</v>
+        <v>0.191453</v>
       </c>
       <c r="D42" t="n">
-        <v>0.191934</v>
+        <v>0.193538</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.201352</v>
+        <v>0.200418</v>
       </c>
       <c r="C43" t="n">
-        <v>0.186742</v>
+        <v>0.186115</v>
       </c>
       <c r="D43" t="n">
-        <v>0.185339</v>
+        <v>0.18623</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.194757</v>
+        <v>0.194153</v>
       </c>
       <c r="C44" t="n">
-        <v>0.178178</v>
+        <v>0.18068</v>
       </c>
       <c r="D44" t="n">
-        <v>0.179312</v>
+        <v>0.180726</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190337</v>
+        <v>0.188384</v>
       </c>
       <c r="C45" t="n">
-        <v>0.172181</v>
+        <v>0.173693</v>
       </c>
       <c r="D45" t="n">
-        <v>0.174318</v>
+        <v>0.17436</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.182739</v>
+        <v>0.182228</v>
       </c>
       <c r="C46" t="n">
-        <v>0.168841</v>
+        <v>0.16904</v>
       </c>
       <c r="D46" t="n">
-        <v>0.166696</v>
+        <v>0.168519</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.179846</v>
+        <v>0.177636</v>
       </c>
       <c r="C47" t="n">
-        <v>0.163962</v>
+        <v>0.164108</v>
       </c>
       <c r="D47" t="n">
-        <v>0.162331</v>
+        <v>0.162293</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175581</v>
+        <v>0.173925</v>
       </c>
       <c r="C48" t="n">
-        <v>0.158979</v>
+        <v>0.159347</v>
       </c>
       <c r="D48" t="n">
-        <v>0.159062</v>
+        <v>0.158958</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.171693</v>
+        <v>0.17198</v>
       </c>
       <c r="C49" t="n">
-        <v>0.157339</v>
+        <v>0.156504</v>
       </c>
       <c r="D49" t="n">
-        <v>0.15708</v>
+        <v>0.157061</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170413</v>
+        <v>0.169879</v>
       </c>
       <c r="C50" t="n">
-        <v>0.15659</v>
+        <v>0.156222</v>
       </c>
       <c r="D50" t="n">
-        <v>0.156187</v>
+        <v>0.1565</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.171899</v>
+        <v>0.172139</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242457</v>
+        <v>0.242947</v>
       </c>
       <c r="D51" t="n">
-        <v>0.241259</v>
+        <v>0.239778</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174643</v>
+        <v>0.175543</v>
       </c>
       <c r="C52" t="n">
-        <v>0.233822</v>
+        <v>0.233817</v>
       </c>
       <c r="D52" t="n">
-        <v>0.23102</v>
+        <v>0.230912</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24069</v>
+        <v>0.241332</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224083</v>
+        <v>0.225111</v>
       </c>
       <c r="D53" t="n">
-        <v>0.221067</v>
+        <v>0.221612</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232038</v>
+        <v>0.233007</v>
       </c>
       <c r="C54" t="n">
-        <v>0.216462</v>
+        <v>0.215399</v>
       </c>
       <c r="D54" t="n">
-        <v>0.213055</v>
+        <v>0.21396</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.22244</v>
+        <v>0.224324</v>
       </c>
       <c r="C55" t="n">
-        <v>0.208028</v>
+        <v>0.207829</v>
       </c>
       <c r="D55" t="n">
-        <v>0.205021</v>
+        <v>0.205004</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.215225</v>
+        <v>0.216442</v>
       </c>
       <c r="C56" t="n">
-        <v>0.199891</v>
+        <v>0.200562</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197609</v>
+        <v>0.197986</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.207937</v>
+        <v>0.208817</v>
       </c>
       <c r="C57" t="n">
-        <v>0.193482</v>
+        <v>0.192874</v>
       </c>
       <c r="D57" t="n">
-        <v>0.190671</v>
+        <v>0.190743</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.201423</v>
+        <v>0.202126</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186665</v>
+        <v>0.187245</v>
       </c>
       <c r="D58" t="n">
-        <v>0.184221</v>
+        <v>0.18322</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.195054</v>
+        <v>0.195544</v>
       </c>
       <c r="C59" t="n">
-        <v>0.180854</v>
+        <v>0.1807</v>
       </c>
       <c r="D59" t="n">
-        <v>0.177355</v>
+        <v>0.177217</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.189267</v>
+        <v>0.190469</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174177</v>
+        <v>0.174409</v>
       </c>
       <c r="D60" t="n">
-        <v>0.172045</v>
+        <v>0.171924</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.184444</v>
+        <v>0.185059</v>
       </c>
       <c r="C61" t="n">
-        <v>0.169285</v>
+        <v>0.169693</v>
       </c>
       <c r="D61" t="n">
-        <v>0.167306</v>
+        <v>0.166931</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.18034</v>
+        <v>0.181093</v>
       </c>
       <c r="C62" t="n">
-        <v>0.165613</v>
+        <v>0.165829</v>
       </c>
       <c r="D62" t="n">
-        <v>0.162397</v>
+        <v>0.163588</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177288</v>
+        <v>0.178394</v>
       </c>
       <c r="C63" t="n">
-        <v>0.162429</v>
+        <v>0.16289</v>
       </c>
       <c r="D63" t="n">
-        <v>0.161091</v>
+        <v>0.161078</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175671</v>
+        <v>0.176208</v>
       </c>
       <c r="C64" t="n">
-        <v>0.161074</v>
+        <v>0.161442</v>
       </c>
       <c r="D64" t="n">
-        <v>0.160885</v>
+        <v>0.160209</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.175978</v>
+        <v>0.176689</v>
       </c>
       <c r="C65" t="n">
-        <v>0.161424</v>
+        <v>0.161807</v>
       </c>
       <c r="D65" t="n">
-        <v>0.162236</v>
+        <v>0.162291</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.178646</v>
+        <v>0.179284</v>
       </c>
       <c r="C66" t="n">
-        <v>0.243785</v>
+        <v>0.245016</v>
       </c>
       <c r="D66" t="n">
-        <v>0.239033</v>
+        <v>0.23915</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244268</v>
+        <v>0.244773</v>
       </c>
       <c r="C67" t="n">
-        <v>0.234326</v>
+        <v>0.236046</v>
       </c>
       <c r="D67" t="n">
-        <v>0.229134</v>
+        <v>0.229848</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236195</v>
+        <v>0.235035</v>
       </c>
       <c r="C68" t="n">
-        <v>0.225287</v>
+        <v>0.226397</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221046</v>
+        <v>0.220777</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.228283</v>
+        <v>0.228872</v>
       </c>
       <c r="C69" t="n">
-        <v>0.217476</v>
+        <v>0.218527</v>
       </c>
       <c r="D69" t="n">
-        <v>0.212498</v>
+        <v>0.21277</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.220582</v>
+        <v>0.220036</v>
       </c>
       <c r="C70" t="n">
-        <v>0.209739</v>
+        <v>0.210644</v>
       </c>
       <c r="D70" t="n">
-        <v>0.204731</v>
+        <v>0.204656</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213134</v>
+        <v>0.213538</v>
       </c>
       <c r="C71" t="n">
-        <v>0.202568</v>
+        <v>0.202563</v>
       </c>
       <c r="D71" t="n">
-        <v>0.196513</v>
+        <v>0.197212</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205973</v>
+        <v>0.206095</v>
       </c>
       <c r="C72" t="n">
-        <v>0.196038</v>
+        <v>0.194183</v>
       </c>
       <c r="D72" t="n">
-        <v>0.190131</v>
+        <v>0.189692</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200658</v>
+        <v>0.199832</v>
       </c>
       <c r="C73" t="n">
-        <v>0.188985</v>
+        <v>0.188939</v>
       </c>
       <c r="D73" t="n">
-        <v>0.183723</v>
+        <v>0.18379</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194602</v>
+        <v>0.193499</v>
       </c>
       <c r="C74" t="n">
-        <v>0.182702</v>
+        <v>0.182921</v>
       </c>
       <c r="D74" t="n">
-        <v>0.178064</v>
+        <v>0.178106</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189816</v>
+        <v>0.189061</v>
       </c>
       <c r="C75" t="n">
-        <v>0.177409</v>
+        <v>0.177614</v>
       </c>
       <c r="D75" t="n">
-        <v>0.173033</v>
+        <v>0.172766</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185692</v>
+        <v>0.18469</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173171</v>
+        <v>0.172998</v>
       </c>
       <c r="D76" t="n">
-        <v>0.168795</v>
+        <v>0.168754</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181935</v>
+        <v>0.181687</v>
       </c>
       <c r="C77" t="n">
-        <v>0.169825</v>
+        <v>0.169512</v>
       </c>
       <c r="D77" t="n">
-        <v>0.165924</v>
+        <v>0.165856</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.18005</v>
+        <v>0.178856</v>
       </c>
       <c r="C78" t="n">
-        <v>0.167381</v>
+        <v>0.16695</v>
       </c>
       <c r="D78" t="n">
-        <v>0.163841</v>
+        <v>0.164492</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180339</v>
+        <v>0.179133</v>
       </c>
       <c r="C79" t="n">
-        <v>0.167637</v>
+        <v>0.167234</v>
       </c>
       <c r="D79" t="n">
-        <v>0.165188</v>
+        <v>0.165513</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.182097</v>
+        <v>0.181359</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242503</v>
+        <v>0.242463</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243259</v>
+        <v>0.243672</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.25912</v>
+        <v>0.25789</v>
       </c>
       <c r="C81" t="n">
-        <v>0.233588</v>
+        <v>0.233691</v>
       </c>
       <c r="D81" t="n">
-        <v>0.233859</v>
+        <v>0.234767</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251703</v>
+        <v>0.249466</v>
       </c>
       <c r="C82" t="n">
-        <v>0.225203</v>
+        <v>0.225292</v>
       </c>
       <c r="D82" t="n">
-        <v>0.225912</v>
+        <v>0.225913</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243854</v>
+        <v>0.241598</v>
       </c>
       <c r="C83" t="n">
-        <v>0.217226</v>
+        <v>0.217181</v>
       </c>
       <c r="D83" t="n">
-        <v>0.217088</v>
+        <v>0.217768</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236418</v>
+        <v>0.234319</v>
       </c>
       <c r="C84" t="n">
-        <v>0.20964</v>
+        <v>0.209502</v>
       </c>
       <c r="D84" t="n">
-        <v>0.20901</v>
+        <v>0.209831</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.22822</v>
+        <v>0.227129</v>
       </c>
       <c r="C85" t="n">
-        <v>0.202511</v>
+        <v>0.20225</v>
       </c>
       <c r="D85" t="n">
-        <v>0.201103</v>
+        <v>0.202272</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.221286</v>
+        <v>0.220172</v>
       </c>
       <c r="C86" t="n">
-        <v>0.195474</v>
+        <v>0.195549</v>
       </c>
       <c r="D86" t="n">
-        <v>0.194763</v>
+        <v>0.195401</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.215067</v>
+        <v>0.21363</v>
       </c>
       <c r="C87" t="n">
-        <v>0.189725</v>
+        <v>0.189211</v>
       </c>
       <c r="D87" t="n">
-        <v>0.188448</v>
+        <v>0.188885</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208551</v>
+        <v>0.207904</v>
       </c>
       <c r="C88" t="n">
-        <v>0.183781</v>
+        <v>0.183763</v>
       </c>
       <c r="D88" t="n">
-        <v>0.182685</v>
+        <v>0.183084</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203104</v>
+        <v>0.201552</v>
       </c>
       <c r="C89" t="n">
-        <v>0.178326</v>
+        <v>0.178435</v>
       </c>
       <c r="D89" t="n">
-        <v>0.17739</v>
+        <v>0.177797</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197907</v>
+        <v>0.196765</v>
       </c>
       <c r="C90" t="n">
-        <v>0.174275</v>
+        <v>0.174106</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173035</v>
+        <v>0.173371</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193661</v>
+        <v>0.192907</v>
       </c>
       <c r="C91" t="n">
-        <v>0.170818</v>
+        <v>0.170493</v>
       </c>
       <c r="D91" t="n">
-        <v>0.169868</v>
+        <v>0.169709</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190789</v>
+        <v>0.189806</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168623</v>
+        <v>0.168655</v>
       </c>
       <c r="D92" t="n">
-        <v>0.167875</v>
+        <v>0.168074</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190041</v>
+        <v>0.188528</v>
       </c>
       <c r="C93" t="n">
-        <v>0.168021</v>
+        <v>0.168334</v>
       </c>
       <c r="D93" t="n">
-        <v>0.168096</v>
+        <v>0.168428</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.19109</v>
+        <v>0.189458</v>
       </c>
       <c r="C94" t="n">
-        <v>0.255326</v>
+        <v>0.254761</v>
       </c>
       <c r="D94" t="n">
-        <v>0.260777</v>
+        <v>0.260919</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.270967</v>
+        <v>0.271551</v>
       </c>
       <c r="C95" t="n">
-        <v>0.247557</v>
+        <v>0.246774</v>
       </c>
       <c r="D95" t="n">
-        <v>0.252927</v>
+        <v>0.2524</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2652</v>
+        <v>0.26556</v>
       </c>
       <c r="C96" t="n">
-        <v>0.239573</v>
+        <v>0.239099</v>
       </c>
       <c r="D96" t="n">
-        <v>0.244746</v>
+        <v>0.244492</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258212</v>
+        <v>0.258074</v>
       </c>
       <c r="C97" t="n">
-        <v>0.231135</v>
+        <v>0.230606</v>
       </c>
       <c r="D97" t="n">
-        <v>0.236209</v>
+        <v>0.236427</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251347</v>
+        <v>0.251612</v>
       </c>
       <c r="C98" t="n">
-        <v>0.223713</v>
+        <v>0.222651</v>
       </c>
       <c r="D98" t="n">
-        <v>0.228281</v>
+        <v>0.228362</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245086</v>
+        <v>0.245149</v>
       </c>
       <c r="C99" t="n">
-        <v>0.216173</v>
+        <v>0.215394</v>
       </c>
       <c r="D99" t="n">
-        <v>0.221242</v>
+        <v>0.221279</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238602</v>
+        <v>0.239091</v>
       </c>
       <c r="C100" t="n">
-        <v>0.209235</v>
+        <v>0.208525</v>
       </c>
       <c r="D100" t="n">
-        <v>0.214209</v>
+        <v>0.214433</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233561</v>
+        <v>0.233173</v>
       </c>
       <c r="C101" t="n">
-        <v>0.202954</v>
+        <v>0.202244</v>
       </c>
       <c r="D101" t="n">
-        <v>0.207407</v>
+        <v>0.208836</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227832</v>
+        <v>0.22761</v>
       </c>
       <c r="C102" t="n">
-        <v>0.19784</v>
+        <v>0.197012</v>
       </c>
       <c r="D102" t="n">
-        <v>0.200795</v>
+        <v>0.202923</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222605</v>
+        <v>0.222636</v>
       </c>
       <c r="C103" t="n">
-        <v>0.192102</v>
+        <v>0.191942</v>
       </c>
       <c r="D103" t="n">
-        <v>0.196014</v>
+        <v>0.198128</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218079</v>
+        <v>0.218272</v>
       </c>
       <c r="C104" t="n">
-        <v>0.187805</v>
+        <v>0.187378</v>
       </c>
       <c r="D104" t="n">
-        <v>0.191065</v>
+        <v>0.192821</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213916</v>
+        <v>0.214135</v>
       </c>
       <c r="C105" t="n">
-        <v>0.183842</v>
+        <v>0.183527</v>
       </c>
       <c r="D105" t="n">
-        <v>0.18717</v>
+        <v>0.188747</v>
       </c>
     </row>
     <row r="106">
@@ -4705,10 +4705,10 @@
         <v>0.210857</v>
       </c>
       <c r="C106" t="n">
-        <v>0.181054</v>
+        <v>0.180741</v>
       </c>
       <c r="D106" t="n">
-        <v>0.184731</v>
+        <v>0.186165</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208709</v>
+        <v>0.208415</v>
       </c>
       <c r="C107" t="n">
-        <v>0.180027</v>
+        <v>0.179673</v>
       </c>
       <c r="D107" t="n">
-        <v>0.184967</v>
+        <v>0.184982</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.20835</v>
+        <v>0.208332</v>
       </c>
       <c r="C108" t="n">
-        <v>0.272032</v>
+        <v>0.270375</v>
       </c>
       <c r="D108" t="n">
-        <v>0.27928</v>
+        <v>0.279244</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210526</v>
+        <v>0.210093</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2646</v>
+        <v>0.263506</v>
       </c>
       <c r="D109" t="n">
-        <v>0.272578</v>
+        <v>0.271939</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.284914</v>
+        <v>0.284212</v>
       </c>
       <c r="C110" t="n">
-        <v>0.257433</v>
+        <v>0.255777</v>
       </c>
       <c r="D110" t="n">
-        <v>0.262806</v>
+        <v>0.263613</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278527</v>
+        <v>0.277581</v>
       </c>
       <c r="C111" t="n">
-        <v>0.25035</v>
+        <v>0.248196</v>
       </c>
       <c r="D111" t="n">
-        <v>0.256491</v>
+        <v>0.254329</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.289434</v>
+        <v>0.271648</v>
       </c>
       <c r="C112" t="n">
-        <v>0.255882</v>
+        <v>0.240821</v>
       </c>
       <c r="D112" t="n">
-        <v>0.257998</v>
+        <v>0.247429</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.28237</v>
+        <v>0.265644</v>
       </c>
       <c r="C113" t="n">
-        <v>0.254586</v>
+        <v>0.234118</v>
       </c>
       <c r="D113" t="n">
-        <v>0.259174</v>
+        <v>0.24029</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.291928</v>
+        <v>0.260049</v>
       </c>
       <c r="C114" t="n">
-        <v>0.257978</v>
+        <v>0.227719</v>
       </c>
       <c r="D114" t="n">
-        <v>0.259058</v>
+        <v>0.233495</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.28317</v>
+        <v>0.254916</v>
       </c>
       <c r="C115" t="n">
-        <v>0.244421</v>
+        <v>0.221738</v>
       </c>
       <c r="D115" t="n">
-        <v>0.258405</v>
+        <v>0.227097</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.302917</v>
+        <v>0.249838</v>
       </c>
       <c r="C116" t="n">
-        <v>0.256047</v>
+        <v>0.216355</v>
       </c>
       <c r="D116" t="n">
-        <v>0.264907</v>
+        <v>0.220148</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296595</v>
+        <v>0.245369</v>
       </c>
       <c r="C117" t="n">
-        <v>0.25163</v>
+        <v>0.211344</v>
       </c>
       <c r="D117" t="n">
-        <v>0.258849</v>
+        <v>0.215752</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.256357</v>
+        <v>0.241184</v>
       </c>
       <c r="C118" t="n">
-        <v>0.207651</v>
+        <v>0.206816</v>
       </c>
       <c r="D118" t="n">
-        <v>0.208552</v>
+        <v>0.211049</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237514</v>
+        <v>0.237516</v>
       </c>
       <c r="C119" t="n">
-        <v>0.203251</v>
+        <v>0.202896</v>
       </c>
       <c r="D119" t="n">
-        <v>0.204617</v>
+        <v>0.206846</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234283</v>
+        <v>0.234232</v>
       </c>
       <c r="C120" t="n">
-        <v>0.19991</v>
+        <v>0.200017</v>
       </c>
       <c r="D120" t="n">
-        <v>0.20188</v>
+        <v>0.203989</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.231549</v>
+        <v>0.232672</v>
       </c>
       <c r="C121" t="n">
-        <v>0.198477</v>
+        <v>0.198907</v>
       </c>
       <c r="D121" t="n">
-        <v>0.200756</v>
+        <v>0.202854</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231074</v>
+        <v>0.231954</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199353</v>
+        <v>0.200225</v>
       </c>
       <c r="D122" t="n">
-        <v>0.201793</v>
+        <v>0.204375</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232094</v>
+        <v>0.232368</v>
       </c>
       <c r="C123" t="n">
-        <v>0.28381</v>
+        <v>0.28435</v>
       </c>
       <c r="D123" t="n">
-        <v>0.286908</v>
+        <v>0.287214</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.31293</v>
+        <v>0.323972</v>
       </c>
       <c r="C124" t="n">
-        <v>0.277492</v>
+        <v>0.277486</v>
       </c>
       <c r="D124" t="n">
-        <v>0.27991</v>
+        <v>0.28059</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.307239</v>
+        <v>0.317658</v>
       </c>
       <c r="C125" t="n">
-        <v>0.271785</v>
+        <v>0.271632</v>
       </c>
       <c r="D125" t="n">
-        <v>0.274167</v>
+        <v>0.273712</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.301854</v>
+        <v>0.311585</v>
       </c>
       <c r="C126" t="n">
-        <v>0.266058</v>
+        <v>0.266894</v>
       </c>
       <c r="D126" t="n">
-        <v>0.266673</v>
+        <v>0.268302</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.296113</v>
+        <v>0.305988</v>
       </c>
       <c r="C127" t="n">
-        <v>0.26075</v>
+        <v>0.261698</v>
       </c>
       <c r="D127" t="n">
-        <v>0.261633</v>
+        <v>0.262934</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.291484</v>
+        <v>0.300678</v>
       </c>
       <c r="C128" t="n">
-        <v>0.255789</v>
+        <v>0.255604</v>
       </c>
       <c r="D128" t="n">
-        <v>0.25695</v>
+        <v>0.257321</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.286784</v>
+        <v>0.29643</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251032</v>
+        <v>0.251025</v>
       </c>
       <c r="D129" t="n">
-        <v>0.251771</v>
+        <v>0.252472</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.282409</v>
+        <v>0.291407</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246319</v>
+        <v>0.246701</v>
       </c>
       <c r="D130" t="n">
-        <v>0.246733</v>
+        <v>0.248047</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.278761</v>
+        <v>0.287283</v>
       </c>
       <c r="C131" t="n">
-        <v>0.24248</v>
+        <v>0.242749</v>
       </c>
       <c r="D131" t="n">
-        <v>0.242281</v>
+        <v>0.24359</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.275262</v>
+        <v>0.283423</v>
       </c>
       <c r="C132" t="n">
-        <v>0.239294</v>
+        <v>0.239312</v>
       </c>
       <c r="D132" t="n">
-        <v>0.239217</v>
+        <v>0.240021</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.272633</v>
+        <v>0.280168</v>
       </c>
       <c r="C133" t="n">
-        <v>0.236463</v>
+        <v>0.236307</v>
       </c>
       <c r="D133" t="n">
-        <v>0.235741</v>
+        <v>0.237131</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.269847</v>
+        <v>0.276452</v>
       </c>
       <c r="C134" t="n">
-        <v>0.233843</v>
+        <v>0.233802</v>
       </c>
       <c r="D134" t="n">
-        <v>0.232722</v>
+        <v>0.234092</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.268117</v>
+        <v>0.274605</v>
       </c>
       <c r="C135" t="n">
-        <v>0.232558</v>
+        <v>0.232494</v>
       </c>
       <c r="D135" t="n">
-        <v>0.232231</v>
+        <v>0.232989</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.267418</v>
+        <v>0.273808</v>
       </c>
       <c r="C136" t="n">
-        <v>0.232739</v>
+        <v>0.232704</v>
       </c>
       <c r="D136" t="n">
-        <v>0.232135</v>
+        <v>0.233712</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.268397</v>
+        <v>0.274045</v>
       </c>
       <c r="C137" t="n">
-        <v>0.327506</v>
+        <v>0.330623</v>
       </c>
       <c r="D137" t="n">
-        <v>0.324931</v>
+        <v>0.331411</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.351659</v>
+        <v>0.37238</v>
       </c>
       <c r="C138" t="n">
-        <v>0.322192</v>
+        <v>0.325117</v>
       </c>
       <c r="D138" t="n">
-        <v>0.319163</v>
+        <v>0.32484</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.34602</v>
+        <v>0.366731</v>
       </c>
       <c r="C139" t="n">
-        <v>0.316485</v>
+        <v>0.319465</v>
       </c>
       <c r="D139" t="n">
-        <v>0.313589</v>
+        <v>0.319103</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340849</v>
+        <v>0.360974</v>
       </c>
       <c r="C140" t="n">
-        <v>0.311019</v>
+        <v>0.314441</v>
       </c>
       <c r="D140" t="n">
-        <v>0.308269</v>
+        <v>0.313895</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.336133</v>
+        <v>0.355101</v>
       </c>
       <c r="C141" t="n">
-        <v>0.306426</v>
+        <v>0.309611</v>
       </c>
       <c r="D141" t="n">
-        <v>0.303227</v>
+        <v>0.307886</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.331553</v>
+        <v>0.350365</v>
       </c>
       <c r="C142" t="n">
-        <v>0.30225</v>
+        <v>0.305105</v>
       </c>
       <c r="D142" t="n">
-        <v>0.298887</v>
+        <v>0.303231</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.32815</v>
+        <v>0.345481</v>
       </c>
       <c r="C143" t="n">
-        <v>0.297866</v>
+        <v>0.300933</v>
       </c>
       <c r="D143" t="n">
-        <v>0.294234</v>
+        <v>0.29877</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.15495</v>
+        <v>0.162896</v>
       </c>
       <c r="C2" t="n">
-        <v>0.133487</v>
+        <v>0.150351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.344005</v>
+        <v>0.346339</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.153545</v>
+        <v>0.159489</v>
       </c>
       <c r="C3" t="n">
-        <v>0.128996</v>
+        <v>0.133592</v>
       </c>
       <c r="D3" t="n">
-        <v>0.340023</v>
+        <v>0.343516</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.156261</v>
+        <v>0.155368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.128778</v>
+        <v>0.125129</v>
       </c>
       <c r="D4" t="n">
-        <v>0.339171</v>
+        <v>0.340969</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.154468</v>
+        <v>0.148697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.123893</v>
+        <v>0.124249</v>
       </c>
       <c r="D5" t="n">
-        <v>0.337006</v>
+        <v>0.339206</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.159997</v>
+        <v>0.146637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.115629</v>
+        <v>0.11655</v>
       </c>
       <c r="D6" t="n">
-        <v>0.334346</v>
+        <v>0.336659</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.148057</v>
+        <v>0.145627</v>
       </c>
       <c r="C7" t="n">
-        <v>0.117525</v>
+        <v>0.113635</v>
       </c>
       <c r="D7" t="n">
-        <v>0.44346</v>
+        <v>0.446683</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.149778</v>
+        <v>0.146112</v>
       </c>
       <c r="C8" t="n">
-        <v>0.110211</v>
+        <v>0.109996</v>
       </c>
       <c r="D8" t="n">
-        <v>0.42934</v>
+        <v>0.4315</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.154311</v>
+        <v>0.150035</v>
       </c>
       <c r="C9" t="n">
-        <v>0.176215</v>
+        <v>0.182506</v>
       </c>
       <c r="D9" t="n">
-        <v>0.422947</v>
+        <v>0.42611</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.223686</v>
+        <v>0.197871</v>
       </c>
       <c r="C10" t="n">
-        <v>0.169618</v>
+        <v>0.173821</v>
       </c>
       <c r="D10" t="n">
-        <v>0.414834</v>
+        <v>0.418478</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.205186</v>
+        <v>0.19399</v>
       </c>
       <c r="C11" t="n">
-        <v>0.167522</v>
+        <v>0.164724</v>
       </c>
       <c r="D11" t="n">
-        <v>0.412844</v>
+        <v>0.410115</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.205051</v>
+        <v>0.187917</v>
       </c>
       <c r="C12" t="n">
-        <v>0.164985</v>
+        <v>0.15724</v>
       </c>
       <c r="D12" t="n">
-        <v>0.410981</v>
+        <v>0.403066</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.191499</v>
+        <v>0.180667</v>
       </c>
       <c r="C13" t="n">
-        <v>0.157948</v>
+        <v>0.15488</v>
       </c>
       <c r="D13" t="n">
-        <v>0.402817</v>
+        <v>0.398503</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.185229</v>
+        <v>0.177555</v>
       </c>
       <c r="C14" t="n">
-        <v>0.154722</v>
+        <v>0.158879</v>
       </c>
       <c r="D14" t="n">
-        <v>0.395902</v>
+        <v>0.392408</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.180374</v>
+        <v>0.165051</v>
       </c>
       <c r="C15" t="n">
-        <v>0.145283</v>
+        <v>0.153781</v>
       </c>
       <c r="D15" t="n">
-        <v>0.389522</v>
+        <v>0.390939</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.173777</v>
+        <v>0.173185</v>
       </c>
       <c r="C16" t="n">
-        <v>0.14847</v>
+        <v>0.146297</v>
       </c>
       <c r="D16" t="n">
-        <v>0.38781</v>
+        <v>0.386683</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.174067</v>
+        <v>0.169575</v>
       </c>
       <c r="C17" t="n">
-        <v>0.137933</v>
+        <v>0.141362</v>
       </c>
       <c r="D17" t="n">
-        <v>0.384793</v>
+        <v>0.381731</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.166807</v>
+        <v>0.163963</v>
       </c>
       <c r="C18" t="n">
-        <v>0.132223</v>
+        <v>0.138468</v>
       </c>
       <c r="D18" t="n">
-        <v>0.379955</v>
+        <v>0.380007</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.160047</v>
+        <v>0.164579</v>
       </c>
       <c r="C19" t="n">
-        <v>0.130486</v>
+        <v>0.133127</v>
       </c>
       <c r="D19" t="n">
-        <v>0.378853</v>
+        <v>0.379578</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.157303</v>
+        <v>0.1585</v>
       </c>
       <c r="C20" t="n">
-        <v>0.124625</v>
+        <v>0.132893</v>
       </c>
       <c r="D20" t="n">
-        <v>0.373582</v>
+        <v>0.371703</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.156402</v>
+        <v>0.155174</v>
       </c>
       <c r="C21" t="n">
-        <v>0.122399</v>
+        <v>0.130563</v>
       </c>
       <c r="D21" t="n">
-        <v>0.476217</v>
+        <v>0.47547</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.163726</v>
+        <v>0.157394</v>
       </c>
       <c r="C22" t="n">
-        <v>0.122231</v>
+        <v>0.128773</v>
       </c>
       <c r="D22" t="n">
-        <v>0.46546</v>
+        <v>0.466948</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.160119</v>
+        <v>0.155844</v>
       </c>
       <c r="C23" t="n">
-        <v>0.215673</v>
+        <v>0.207438</v>
       </c>
       <c r="D23" t="n">
-        <v>0.464787</v>
+        <v>0.457763</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240097</v>
+        <v>0.245146</v>
       </c>
       <c r="C24" t="n">
-        <v>0.209008</v>
+        <v>0.194784</v>
       </c>
       <c r="D24" t="n">
-        <v>0.45141</v>
+        <v>0.446362</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.231232</v>
+        <v>0.239647</v>
       </c>
       <c r="C25" t="n">
-        <v>0.196812</v>
+        <v>0.198349</v>
       </c>
       <c r="D25" t="n">
-        <v>0.445799</v>
+        <v>0.438291</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.227764</v>
+        <v>0.226802</v>
       </c>
       <c r="C26" t="n">
-        <v>0.193513</v>
+        <v>0.187074</v>
       </c>
       <c r="D26" t="n">
-        <v>0.434497</v>
+        <v>0.431587</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.219773</v>
+        <v>0.220509</v>
       </c>
       <c r="C27" t="n">
-        <v>0.186064</v>
+        <v>0.180172</v>
       </c>
       <c r="D27" t="n">
-        <v>0.427631</v>
+        <v>0.42586</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.21386</v>
+        <v>0.210365</v>
       </c>
       <c r="C28" t="n">
-        <v>0.182841</v>
+        <v>0.175354</v>
       </c>
       <c r="D28" t="n">
-        <v>0.419558</v>
+        <v>0.421221</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.200835</v>
+        <v>0.20472</v>
       </c>
       <c r="C29" t="n">
-        <v>0.175024</v>
+        <v>0.166139</v>
       </c>
       <c r="D29" t="n">
-        <v>0.411806</v>
+        <v>0.413502</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.197722</v>
+        <v>0.196512</v>
       </c>
       <c r="C30" t="n">
-        <v>0.170131</v>
+        <v>0.160797</v>
       </c>
       <c r="D30" t="n">
-        <v>0.406268</v>
+        <v>0.408435</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.185452</v>
+        <v>0.191024</v>
       </c>
       <c r="C31" t="n">
-        <v>0.161414</v>
+        <v>0.159212</v>
       </c>
       <c r="D31" t="n">
-        <v>0.401866</v>
+        <v>0.401978</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.185902</v>
+        <v>0.180668</v>
       </c>
       <c r="C32" t="n">
-        <v>0.156848</v>
+        <v>0.162778</v>
       </c>
       <c r="D32" t="n">
-        <v>0.397333</v>
+        <v>0.395394</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.179391</v>
+        <v>0.176448</v>
       </c>
       <c r="C33" t="n">
-        <v>0.155946</v>
+        <v>0.158782</v>
       </c>
       <c r="D33" t="n">
-        <v>0.393844</v>
+        <v>0.392121</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.174647</v>
+        <v>0.172307</v>
       </c>
       <c r="C34" t="n">
-        <v>0.14656</v>
+        <v>0.154265</v>
       </c>
       <c r="D34" t="n">
-        <v>0.389286</v>
+        <v>0.3893</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.167433</v>
+        <v>0.168467</v>
       </c>
       <c r="C35" t="n">
-        <v>0.150628</v>
+        <v>0.149136</v>
       </c>
       <c r="D35" t="n">
-        <v>0.493518</v>
+        <v>0.492861</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.173431</v>
+        <v>0.169004</v>
       </c>
       <c r="C36" t="n">
-        <v>0.146053</v>
+        <v>0.146914</v>
       </c>
       <c r="D36" t="n">
-        <v>0.484731</v>
+        <v>0.481898</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169377</v>
+        <v>0.169924</v>
       </c>
       <c r="C37" t="n">
-        <v>0.230175</v>
+        <v>0.232032</v>
       </c>
       <c r="D37" t="n">
-        <v>0.475688</v>
+        <v>0.472948</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245427</v>
+        <v>0.243116</v>
       </c>
       <c r="C38" t="n">
-        <v>0.222468</v>
+        <v>0.222808</v>
       </c>
       <c r="D38" t="n">
-        <v>0.463878</v>
+        <v>0.461288</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236324</v>
+        <v>0.233943</v>
       </c>
       <c r="C39" t="n">
-        <v>0.212657</v>
+        <v>0.216212</v>
       </c>
       <c r="D39" t="n">
-        <v>0.455129</v>
+        <v>0.45271</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.228014</v>
+        <v>0.226137</v>
       </c>
       <c r="C40" t="n">
-        <v>0.20674</v>
+        <v>0.208591</v>
       </c>
       <c r="D40" t="n">
-        <v>0.446551</v>
+        <v>0.44622</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.220475</v>
+        <v>0.216088</v>
       </c>
       <c r="C41" t="n">
-        <v>0.198642</v>
+        <v>0.200975</v>
       </c>
       <c r="D41" t="n">
-        <v>0.438381</v>
+        <v>0.43728</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.211363</v>
+        <v>0.210244</v>
       </c>
       <c r="C42" t="n">
-        <v>0.191772</v>
+        <v>0.191439</v>
       </c>
       <c r="D42" t="n">
-        <v>0.43272</v>
+        <v>0.431068</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.205815</v>
+        <v>0.201758</v>
       </c>
       <c r="C43" t="n">
-        <v>0.188281</v>
+        <v>0.186818</v>
       </c>
       <c r="D43" t="n">
-        <v>0.425374</v>
+        <v>0.425196</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.198957</v>
+        <v>0.195155</v>
       </c>
       <c r="C44" t="n">
-        <v>0.177377</v>
+        <v>0.179145</v>
       </c>
       <c r="D44" t="n">
-        <v>0.420618</v>
+        <v>0.418915</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.192026</v>
+        <v>0.190794</v>
       </c>
       <c r="C45" t="n">
-        <v>0.171985</v>
+        <v>0.173928</v>
       </c>
       <c r="D45" t="n">
-        <v>0.41841</v>
+        <v>0.414632</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.186259</v>
+        <v>0.183817</v>
       </c>
       <c r="C46" t="n">
-        <v>0.166429</v>
+        <v>0.168954</v>
       </c>
       <c r="D46" t="n">
-        <v>0.414417</v>
+        <v>0.40958</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.182829</v>
+        <v>0.18022</v>
       </c>
       <c r="C47" t="n">
-        <v>0.166079</v>
+        <v>0.163663</v>
       </c>
       <c r="D47" t="n">
-        <v>0.412106</v>
+        <v>0.405111</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.178498</v>
+        <v>0.175056</v>
       </c>
       <c r="C48" t="n">
-        <v>0.159028</v>
+        <v>0.160194</v>
       </c>
       <c r="D48" t="n">
-        <v>0.406774</v>
+        <v>0.401079</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174932</v>
+        <v>0.174192</v>
       </c>
       <c r="C49" t="n">
-        <v>0.15706</v>
+        <v>0.159002</v>
       </c>
       <c r="D49" t="n">
-        <v>0.402662</v>
+        <v>0.398914</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173529</v>
+        <v>0.172571</v>
       </c>
       <c r="C50" t="n">
-        <v>0.156108</v>
+        <v>0.157331</v>
       </c>
       <c r="D50" t="n">
-        <v>0.505211</v>
+        <v>0.503147</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174603</v>
+        <v>0.173154</v>
       </c>
       <c r="C51" t="n">
-        <v>0.244006</v>
+        <v>0.242329</v>
       </c>
       <c r="D51" t="n">
-        <v>0.498063</v>
+        <v>0.492384</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178568</v>
+        <v>0.174975</v>
       </c>
       <c r="C52" t="n">
-        <v>0.234167</v>
+        <v>0.232874</v>
       </c>
       <c r="D52" t="n">
-        <v>0.485203</v>
+        <v>0.482301</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242911</v>
+        <v>0.239909</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224348</v>
+        <v>0.224666</v>
       </c>
       <c r="D53" t="n">
-        <v>0.477573</v>
+        <v>0.472939</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233062</v>
+        <v>0.232111</v>
       </c>
       <c r="C54" t="n">
-        <v>0.216183</v>
+        <v>0.216011</v>
       </c>
       <c r="D54" t="n">
-        <v>0.46772</v>
+        <v>0.466216</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.225756</v>
+        <v>0.223508</v>
       </c>
       <c r="C55" t="n">
-        <v>0.208516</v>
+        <v>0.208663</v>
       </c>
       <c r="D55" t="n">
-        <v>0.463373</v>
+        <v>0.457846</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.219169</v>
+        <v>0.216117</v>
       </c>
       <c r="C56" t="n">
-        <v>0.200898</v>
+        <v>0.200123</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4539</v>
+        <v>0.451905</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.211266</v>
+        <v>0.208584</v>
       </c>
       <c r="C57" t="n">
-        <v>0.193874</v>
+        <v>0.193327</v>
       </c>
       <c r="D57" t="n">
-        <v>0.446932</v>
+        <v>0.444817</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.204869</v>
+        <v>0.200772</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186857</v>
+        <v>0.186277</v>
       </c>
       <c r="D58" t="n">
-        <v>0.440617</v>
+        <v>0.438164</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.198465</v>
+        <v>0.195973</v>
       </c>
       <c r="C59" t="n">
-        <v>0.180909</v>
+        <v>0.180603</v>
       </c>
       <c r="D59" t="n">
-        <v>0.437856</v>
+        <v>0.43285</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.192641</v>
+        <v>0.18962</v>
       </c>
       <c r="C60" t="n">
-        <v>0.175261</v>
+        <v>0.175381</v>
       </c>
       <c r="D60" t="n">
-        <v>0.432426</v>
+        <v>0.428824</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.187453</v>
+        <v>0.184933</v>
       </c>
       <c r="C61" t="n">
-        <v>0.170349</v>
+        <v>0.169865</v>
       </c>
       <c r="D61" t="n">
-        <v>0.428781</v>
+        <v>0.423146</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.183317</v>
+        <v>0.1808</v>
       </c>
       <c r="C62" t="n">
-        <v>0.166078</v>
+        <v>0.166342</v>
       </c>
       <c r="D62" t="n">
-        <v>0.423174</v>
+        <v>0.420087</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.180442</v>
+        <v>0.177751</v>
       </c>
       <c r="C63" t="n">
-        <v>0.163411</v>
+        <v>0.163187</v>
       </c>
       <c r="D63" t="n">
-        <v>0.422691</v>
+        <v>0.417488</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.178772</v>
+        <v>0.175901</v>
       </c>
       <c r="C64" t="n">
-        <v>0.161494</v>
+        <v>0.161594</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5450739999999999</v>
+        <v>0.543864</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178868</v>
+        <v>0.175593</v>
       </c>
       <c r="C65" t="n">
-        <v>0.16251</v>
+        <v>0.162458</v>
       </c>
       <c r="D65" t="n">
-        <v>0.540152</v>
+        <v>0.532867</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.182404</v>
+        <v>0.178065</v>
       </c>
       <c r="C66" t="n">
-        <v>0.243741</v>
+        <v>0.24374</v>
       </c>
       <c r="D66" t="n">
-        <v>0.524844</v>
+        <v>0.523168</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.246499</v>
+        <v>0.243331</v>
       </c>
       <c r="C67" t="n">
-        <v>0.233795</v>
+        <v>0.234338</v>
       </c>
       <c r="D67" t="n">
-        <v>0.515304</v>
+        <v>0.515294</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.24057</v>
+        <v>0.235731</v>
       </c>
       <c r="C68" t="n">
-        <v>0.226048</v>
+        <v>0.223903</v>
       </c>
       <c r="D68" t="n">
-        <v>0.507802</v>
+        <v>0.505839</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.229261</v>
+        <v>0.227402</v>
       </c>
       <c r="C69" t="n">
-        <v>0.218522</v>
+        <v>0.217912</v>
       </c>
       <c r="D69" t="n">
-        <v>0.498374</v>
+        <v>0.498996</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.222631</v>
+        <v>0.219938</v>
       </c>
       <c r="C70" t="n">
-        <v>0.208423</v>
+        <v>0.209851</v>
       </c>
       <c r="D70" t="n">
-        <v>0.494679</v>
+        <v>0.493625</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.214224</v>
+        <v>0.212089</v>
       </c>
       <c r="C71" t="n">
-        <v>0.20239</v>
+        <v>0.202046</v>
       </c>
       <c r="D71" t="n">
-        <v>0.495527</v>
+        <v>0.487455</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.208225</v>
+        <v>0.20497</v>
       </c>
       <c r="C72" t="n">
-        <v>0.195978</v>
+        <v>0.194916</v>
       </c>
       <c r="D72" t="n">
-        <v>0.483948</v>
+        <v>0.483636</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200051</v>
+        <v>0.198678</v>
       </c>
       <c r="C73" t="n">
-        <v>0.190244</v>
+        <v>0.18929</v>
       </c>
       <c r="D73" t="n">
-        <v>0.481365</v>
+        <v>0.479793</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.196592</v>
+        <v>0.193916</v>
       </c>
       <c r="C74" t="n">
-        <v>0.183549</v>
+        <v>0.183049</v>
       </c>
       <c r="D74" t="n">
-        <v>0.496964</v>
+        <v>0.495005</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.191699</v>
+        <v>0.18884</v>
       </c>
       <c r="C75" t="n">
-        <v>0.17921</v>
+        <v>0.179281</v>
       </c>
       <c r="D75" t="n">
-        <v>0.492901</v>
+        <v>0.489559</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.187385</v>
+        <v>0.18364</v>
       </c>
       <c r="C76" t="n">
-        <v>0.174505</v>
+        <v>0.174807</v>
       </c>
       <c r="D76" t="n">
-        <v>0.489043</v>
+        <v>0.486249</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.184281</v>
+        <v>0.179914</v>
       </c>
       <c r="C77" t="n">
-        <v>0.17026</v>
+        <v>0.172051</v>
       </c>
       <c r="D77" t="n">
-        <v>0.486233</v>
+        <v>0.48297</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181944</v>
+        <v>0.178236</v>
       </c>
       <c r="C78" t="n">
-        <v>0.168555</v>
+        <v>0.168732</v>
       </c>
       <c r="D78" t="n">
-        <v>0.664263</v>
+        <v>0.66417</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181193</v>
+        <v>0.178468</v>
       </c>
       <c r="C79" t="n">
-        <v>0.167771</v>
+        <v>0.168766</v>
       </c>
       <c r="D79" t="n">
-        <v>0.653161</v>
+        <v>0.650425</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.183598</v>
+        <v>0.181046</v>
       </c>
       <c r="C80" t="n">
-        <v>0.243049</v>
+        <v>0.242114</v>
       </c>
       <c r="D80" t="n">
-        <v>0.643571</v>
+        <v>0.640389</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259901</v>
+        <v>0.257215</v>
       </c>
       <c r="C81" t="n">
-        <v>0.233663</v>
+        <v>0.233351</v>
       </c>
       <c r="D81" t="n">
-        <v>0.63595</v>
+        <v>0.6298550000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251809</v>
+        <v>0.24921</v>
       </c>
       <c r="C82" t="n">
-        <v>0.225806</v>
+        <v>0.224814</v>
       </c>
       <c r="D82" t="n">
-        <v>0.629796</v>
+        <v>0.625536</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.245416</v>
+        <v>0.241134</v>
       </c>
       <c r="C83" t="n">
-        <v>0.217961</v>
+        <v>0.216297</v>
       </c>
       <c r="D83" t="n">
-        <v>0.622012</v>
+        <v>0.623265</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236506</v>
+        <v>0.234088</v>
       </c>
       <c r="C84" t="n">
-        <v>0.210345</v>
+        <v>0.209257</v>
       </c>
       <c r="D84" t="n">
-        <v>0.619332</v>
+        <v>0.62019</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.228865</v>
+        <v>0.227656</v>
       </c>
       <c r="C85" t="n">
-        <v>0.202909</v>
+        <v>0.202561</v>
       </c>
       <c r="D85" t="n">
-        <v>0.615398</v>
+        <v>0.617249</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.222002</v>
+        <v>0.218988</v>
       </c>
       <c r="C86" t="n">
-        <v>0.196278</v>
+        <v>0.195303</v>
       </c>
       <c r="D86" t="n">
-        <v>0.615523</v>
+        <v>0.614185</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.215267</v>
+        <v>0.213188</v>
       </c>
       <c r="C87" t="n">
-        <v>0.190457</v>
+        <v>0.189051</v>
       </c>
       <c r="D87" t="n">
-        <v>0.615955</v>
+        <v>0.612168</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208708</v>
+        <v>0.206594</v>
       </c>
       <c r="C88" t="n">
-        <v>0.184578</v>
+        <v>0.183698</v>
       </c>
       <c r="D88" t="n">
-        <v>0.622347</v>
+        <v>0.6210639999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203164</v>
+        <v>0.201044</v>
       </c>
       <c r="C89" t="n">
-        <v>0.179115</v>
+        <v>0.178227</v>
       </c>
       <c r="D89" t="n">
-        <v>0.631071</v>
+        <v>0.632734</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.198265</v>
+        <v>0.196232</v>
       </c>
       <c r="C90" t="n">
-        <v>0.174858</v>
+        <v>0.173689</v>
       </c>
       <c r="D90" t="n">
-        <v>0.635074</v>
+        <v>0.636409</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.194029</v>
+        <v>0.192104</v>
       </c>
       <c r="C91" t="n">
-        <v>0.171276</v>
+        <v>0.170544</v>
       </c>
       <c r="D91" t="n">
-        <v>0.639845</v>
+        <v>0.64097</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191051</v>
+        <v>0.189066</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168786</v>
+        <v>0.167971</v>
       </c>
       <c r="D92" t="n">
-        <v>0.852201</v>
+        <v>0.854716</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190331</v>
+        <v>0.188601</v>
       </c>
       <c r="C93" t="n">
-        <v>0.169004</v>
+        <v>0.168477</v>
       </c>
       <c r="D93" t="n">
-        <v>0.847971</v>
+        <v>0.849989</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190609</v>
+        <v>0.188876</v>
       </c>
       <c r="C94" t="n">
-        <v>0.254981</v>
+        <v>0.254746</v>
       </c>
       <c r="D94" t="n">
-        <v>0.845392</v>
+        <v>0.843439</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.271708</v>
+        <v>0.27163</v>
       </c>
       <c r="C95" t="n">
-        <v>0.247215</v>
+        <v>0.246933</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8368139999999999</v>
+        <v>0.839051</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265444</v>
+        <v>0.265728</v>
       </c>
       <c r="C96" t="n">
-        <v>0.239115</v>
+        <v>0.238405</v>
       </c>
       <c r="D96" t="n">
-        <v>0.834033</v>
+        <v>0.837152</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258822</v>
+        <v>0.25862</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230624</v>
+        <v>0.230642</v>
       </c>
       <c r="D97" t="n">
-        <v>0.841704</v>
+        <v>0.842343</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251693</v>
+        <v>0.251943</v>
       </c>
       <c r="C98" t="n">
-        <v>0.222856</v>
+        <v>0.223104</v>
       </c>
       <c r="D98" t="n">
-        <v>0.83904</v>
+        <v>0.842353</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245207</v>
+        <v>0.244558</v>
       </c>
       <c r="C99" t="n">
-        <v>0.21591</v>
+        <v>0.215809</v>
       </c>
       <c r="D99" t="n">
-        <v>0.838568</v>
+        <v>0.840847</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238911</v>
+        <v>0.239691</v>
       </c>
       <c r="C100" t="n">
-        <v>0.209102</v>
+        <v>0.209016</v>
       </c>
       <c r="D100" t="n">
-        <v>0.839709</v>
+        <v>0.842368</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233314</v>
+        <v>0.233799</v>
       </c>
       <c r="C101" t="n">
-        <v>0.202675</v>
+        <v>0.2027</v>
       </c>
       <c r="D101" t="n">
-        <v>0.842832</v>
+        <v>0.845433</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227926</v>
+        <v>0.228324</v>
       </c>
       <c r="C102" t="n">
-        <v>0.196973</v>
+        <v>0.196987</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8481</v>
+        <v>0.847591</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223038</v>
+        <v>0.223199</v>
       </c>
       <c r="C103" t="n">
-        <v>0.19177</v>
+        <v>0.191732</v>
       </c>
       <c r="D103" t="n">
-        <v>0.858892</v>
+        <v>0.859306</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218392</v>
+        <v>0.218231</v>
       </c>
       <c r="C104" t="n">
-        <v>0.187172</v>
+        <v>0.186968</v>
       </c>
       <c r="D104" t="n">
-        <v>0.865506</v>
+        <v>0.866473</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214392</v>
+        <v>0.214606</v>
       </c>
       <c r="C105" t="n">
-        <v>0.183301</v>
+        <v>0.183323</v>
       </c>
       <c r="D105" t="n">
-        <v>0.870801</v>
+        <v>0.873781</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211043</v>
+        <v>0.211198</v>
       </c>
       <c r="C106" t="n">
-        <v>0.18078</v>
+        <v>0.180482</v>
       </c>
       <c r="D106" t="n">
-        <v>0.883047</v>
+        <v>0.883015</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208798</v>
+        <v>0.208609</v>
       </c>
       <c r="C107" t="n">
-        <v>0.179522</v>
+        <v>0.179232</v>
       </c>
       <c r="D107" t="n">
-        <v>1.1251</v>
+        <v>1.12858</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208902</v>
+        <v>0.20919</v>
       </c>
       <c r="C108" t="n">
-        <v>0.269489</v>
+        <v>0.270214</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11268</v>
+        <v>1.11773</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210912</v>
+        <v>0.210419</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262897</v>
+        <v>0.26324</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10474</v>
+        <v>1.10873</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.282122</v>
+        <v>0.28474</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256726</v>
+        <v>0.255134</v>
       </c>
       <c r="D110" t="n">
-        <v>1.09904</v>
+        <v>1.10418</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277332</v>
+        <v>0.279352</v>
       </c>
       <c r="C111" t="n">
-        <v>0.247451</v>
+        <v>0.248131</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09986</v>
+        <v>1.10124</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.271849</v>
+        <v>0.272696</v>
       </c>
       <c r="C112" t="n">
-        <v>0.24043</v>
+        <v>0.240354</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09551</v>
+        <v>1.09656</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.265643</v>
+        <v>0.26645</v>
       </c>
       <c r="C113" t="n">
-        <v>0.233607</v>
+        <v>0.233594</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09076</v>
+        <v>1.09186</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.259825</v>
+        <v>0.261445</v>
       </c>
       <c r="C114" t="n">
-        <v>0.227423</v>
+        <v>0.22709</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09524</v>
+        <v>1.09417</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.254755</v>
+        <v>0.256588</v>
       </c>
       <c r="C115" t="n">
-        <v>0.221229</v>
+        <v>0.22143</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09316</v>
+        <v>1.09417</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.249822</v>
+        <v>0.25042</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215868</v>
+        <v>0.215572</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09388</v>
+        <v>1.09533</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.24522</v>
+        <v>0.246285</v>
       </c>
       <c r="C117" t="n">
-        <v>0.210591</v>
+        <v>0.210824</v>
       </c>
       <c r="D117" t="n">
-        <v>1.0979</v>
+        <v>1.1019</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241839</v>
+        <v>0.242452</v>
       </c>
       <c r="C118" t="n">
-        <v>0.206479</v>
+        <v>0.206184</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10358</v>
+        <v>1.10372</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.23729</v>
+        <v>0.238341</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202559</v>
+        <v>0.202222</v>
       </c>
       <c r="D119" t="n">
-        <v>1.11072</v>
+        <v>1.11426</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234272</v>
+        <v>0.234971</v>
       </c>
       <c r="C120" t="n">
-        <v>0.199773</v>
+        <v>0.199437</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11523</v>
+        <v>1.11985</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232088</v>
+        <v>0.232822</v>
       </c>
       <c r="C121" t="n">
-        <v>0.198176</v>
+        <v>0.198432</v>
       </c>
       <c r="D121" t="n">
-        <v>1.38026</v>
+        <v>1.38305</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231128</v>
+        <v>0.232124</v>
       </c>
       <c r="C122" t="n">
-        <v>0.198841</v>
+        <v>0.198605</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36735</v>
+        <v>1.36949</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232239</v>
+        <v>0.233228</v>
       </c>
       <c r="C123" t="n">
-        <v>0.285232</v>
+        <v>0.283726</v>
       </c>
       <c r="D123" t="n">
-        <v>1.35413</v>
+        <v>1.35582</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.317627</v>
+        <v>0.317553</v>
       </c>
       <c r="C124" t="n">
-        <v>0.276811</v>
+        <v>0.277136</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34011</v>
+        <v>1.34257</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.312009</v>
+        <v>0.311107</v>
       </c>
       <c r="C125" t="n">
-        <v>0.270839</v>
+        <v>0.27094</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33068</v>
+        <v>1.33575</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.30586</v>
+        <v>0.305616</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265608</v>
+        <v>0.265239</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32008</v>
+        <v>1.32557</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.300592</v>
+        <v>0.29993</v>
       </c>
       <c r="C127" t="n">
-        <v>0.260523</v>
+        <v>0.26004</v>
       </c>
       <c r="D127" t="n">
-        <v>1.3181</v>
+        <v>1.3187</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295357</v>
+        <v>0.294921</v>
       </c>
       <c r="C128" t="n">
-        <v>0.255044</v>
+        <v>0.255378</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31133</v>
+        <v>1.31313</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.291282</v>
+        <v>0.290612</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251807</v>
+        <v>0.251118</v>
       </c>
       <c r="D129" t="n">
-        <v>1.2952</v>
+        <v>1.30902</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.290024</v>
+        <v>0.286535</v>
       </c>
       <c r="C130" t="n">
-        <v>0.249694</v>
+        <v>0.246459</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30043</v>
+        <v>1.30457</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.292332</v>
+        <v>0.281678</v>
       </c>
       <c r="C131" t="n">
-        <v>0.266801</v>
+        <v>0.242335</v>
       </c>
       <c r="D131" t="n">
-        <v>1.45637</v>
+        <v>1.30408</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.316529</v>
+        <v>0.277964</v>
       </c>
       <c r="C132" t="n">
-        <v>0.263743</v>
+        <v>0.238892</v>
       </c>
       <c r="D132" t="n">
-        <v>1.43621</v>
+        <v>1.30592</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.313286</v>
+        <v>0.274791</v>
       </c>
       <c r="C133" t="n">
-        <v>0.282668</v>
+        <v>0.235795</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30867</v>
+        <v>1.30686</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.269433</v>
+        <v>0.272665</v>
       </c>
       <c r="C134" t="n">
-        <v>0.233059</v>
+        <v>0.233934</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30653</v>
+        <v>1.3096</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.267928</v>
+        <v>0.270817</v>
       </c>
       <c r="C135" t="n">
-        <v>0.231579</v>
+        <v>0.232041</v>
       </c>
       <c r="D135" t="n">
-        <v>1.581</v>
+        <v>1.58363</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.267051</v>
+        <v>0.269507</v>
       </c>
       <c r="C136" t="n">
-        <v>0.231913</v>
+        <v>0.233154</v>
       </c>
       <c r="D136" t="n">
-        <v>1.56049</v>
+        <v>1.55016</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.267636</v>
+        <v>0.270657</v>
       </c>
       <c r="C137" t="n">
-        <v>0.326305</v>
+        <v>0.33125</v>
       </c>
       <c r="D137" t="n">
-        <v>1.53923</v>
+        <v>1.52904</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350842</v>
+        <v>0.362923</v>
       </c>
       <c r="C138" t="n">
-        <v>0.320686</v>
+        <v>0.321587</v>
       </c>
       <c r="D138" t="n">
-        <v>1.52452</v>
+        <v>1.5081</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.345442</v>
+        <v>0.358997</v>
       </c>
       <c r="C139" t="n">
-        <v>0.315677</v>
+        <v>0.31624</v>
       </c>
       <c r="D139" t="n">
-        <v>1.50727</v>
+        <v>1.50597</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341276</v>
+        <v>0.352711</v>
       </c>
       <c r="C140" t="n">
-        <v>0.310855</v>
+        <v>0.310445</v>
       </c>
       <c r="D140" t="n">
-        <v>1.4928</v>
+        <v>1.49514</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.336592</v>
+        <v>0.347576</v>
       </c>
       <c r="C141" t="n">
-        <v>0.306001</v>
+        <v>0.306173</v>
       </c>
       <c r="D141" t="n">
-        <v>1.4814</v>
+        <v>1.48303</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.332195</v>
+        <v>0.34304</v>
       </c>
       <c r="C142" t="n">
-        <v>0.30133</v>
+        <v>0.301251</v>
       </c>
       <c r="D142" t="n">
-        <v>1.46927</v>
+        <v>1.47172</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.328062</v>
+        <v>0.338531</v>
       </c>
       <c r="C143" t="n">
-        <v>0.297474</v>
+        <v>0.297468</v>
       </c>
       <c r="D143" t="n">
-        <v>1.46123</v>
+        <v>1.46443</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.162896</v>
+        <v>0.175899</v>
       </c>
       <c r="C2" t="n">
-        <v>0.150351</v>
+        <v>0.13695</v>
       </c>
       <c r="D2" t="n">
-        <v>0.346339</v>
+        <v>0.346983</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.159489</v>
+        <v>0.16262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.133592</v>
+        <v>0.144729</v>
       </c>
       <c r="D3" t="n">
-        <v>0.343516</v>
+        <v>0.3418</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.155368</v>
+        <v>0.163218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.125129</v>
+        <v>0.135452</v>
       </c>
       <c r="D4" t="n">
-        <v>0.340969</v>
+        <v>0.34089</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.148697</v>
+        <v>0.158135</v>
       </c>
       <c r="C5" t="n">
-        <v>0.124249</v>
+        <v>0.118966</v>
       </c>
       <c r="D5" t="n">
-        <v>0.339206</v>
+        <v>0.336786</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.146637</v>
+        <v>0.150621</v>
       </c>
       <c r="C6" t="n">
-        <v>0.11655</v>
+        <v>0.12166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.336659</v>
+        <v>0.338508</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.145627</v>
+        <v>0.147941</v>
       </c>
       <c r="C7" t="n">
-        <v>0.113635</v>
+        <v>0.114118</v>
       </c>
       <c r="D7" t="n">
-        <v>0.446683</v>
+        <v>0.444248</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.146112</v>
+        <v>0.148207</v>
       </c>
       <c r="C8" t="n">
-        <v>0.109996</v>
+        <v>0.10857</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4315</v>
+        <v>0.430823</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150035</v>
+        <v>0.14806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.182506</v>
+        <v>0.141836</v>
       </c>
       <c r="D9" t="n">
-        <v>0.42611</v>
+        <v>0.425458</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.197871</v>
+        <v>0.207037</v>
       </c>
       <c r="C10" t="n">
-        <v>0.173821</v>
+        <v>0.130348</v>
       </c>
       <c r="D10" t="n">
-        <v>0.418478</v>
+        <v>0.417859</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.19399</v>
+        <v>0.200222</v>
       </c>
       <c r="C11" t="n">
-        <v>0.164724</v>
+        <v>0.123782</v>
       </c>
       <c r="D11" t="n">
-        <v>0.410115</v>
+        <v>0.410888</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.187917</v>
+        <v>0.198315</v>
       </c>
       <c r="C12" t="n">
-        <v>0.15724</v>
+        <v>0.122607</v>
       </c>
       <c r="D12" t="n">
-        <v>0.403066</v>
+        <v>0.404795</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.180667</v>
+        <v>0.187256</v>
       </c>
       <c r="C13" t="n">
-        <v>0.15488</v>
+        <v>0.120674</v>
       </c>
       <c r="D13" t="n">
-        <v>0.398503</v>
+        <v>0.399015</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.177555</v>
+        <v>0.187645</v>
       </c>
       <c r="C14" t="n">
-        <v>0.158879</v>
+        <v>0.115644</v>
       </c>
       <c r="D14" t="n">
-        <v>0.392408</v>
+        <v>0.395114</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.165051</v>
+        <v>0.179158</v>
       </c>
       <c r="C15" t="n">
-        <v>0.153781</v>
+        <v>0.112987</v>
       </c>
       <c r="D15" t="n">
-        <v>0.390939</v>
+        <v>0.389334</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.173185</v>
+        <v>0.175033</v>
       </c>
       <c r="C16" t="n">
-        <v>0.146297</v>
+        <v>0.107703</v>
       </c>
       <c r="D16" t="n">
-        <v>0.386683</v>
+        <v>0.383631</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.169575</v>
+        <v>0.166188</v>
       </c>
       <c r="C17" t="n">
-        <v>0.141362</v>
+        <v>0.11286</v>
       </c>
       <c r="D17" t="n">
-        <v>0.381731</v>
+        <v>0.381639</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.163963</v>
+        <v>0.164339</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138468</v>
+        <v>0.105514</v>
       </c>
       <c r="D18" t="n">
-        <v>0.380007</v>
+        <v>0.377794</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.164579</v>
+        <v>0.160039</v>
       </c>
       <c r="C19" t="n">
-        <v>0.133127</v>
+        <v>0.100221</v>
       </c>
       <c r="D19" t="n">
-        <v>0.379578</v>
+        <v>0.374874</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1585</v>
+        <v>0.155396</v>
       </c>
       <c r="C20" t="n">
-        <v>0.132893</v>
+        <v>0.09614399999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.371703</v>
+        <v>0.369512</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.155174</v>
+        <v>0.147148</v>
       </c>
       <c r="C21" t="n">
-        <v>0.130563</v>
+        <v>0.102157</v>
       </c>
       <c r="D21" t="n">
-        <v>0.47547</v>
+        <v>0.472226</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.157394</v>
+        <v>0.154157</v>
       </c>
       <c r="C22" t="n">
-        <v>0.128773</v>
+        <v>0.101507</v>
       </c>
       <c r="D22" t="n">
-        <v>0.466948</v>
+        <v>0.46206</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.155844</v>
+        <v>0.147422</v>
       </c>
       <c r="C23" t="n">
-        <v>0.207438</v>
+        <v>0.193279</v>
       </c>
       <c r="D23" t="n">
-        <v>0.457763</v>
+        <v>0.454135</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245146</v>
+        <v>0.237905</v>
       </c>
       <c r="C24" t="n">
-        <v>0.194784</v>
+        <v>0.188958</v>
       </c>
       <c r="D24" t="n">
-        <v>0.446362</v>
+        <v>0.446107</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239647</v>
+        <v>0.22482</v>
       </c>
       <c r="C25" t="n">
-        <v>0.198349</v>
+        <v>0.178918</v>
       </c>
       <c r="D25" t="n">
-        <v>0.438291</v>
+        <v>0.439111</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.226802</v>
+        <v>0.220449</v>
       </c>
       <c r="C26" t="n">
-        <v>0.187074</v>
+        <v>0.167788</v>
       </c>
       <c r="D26" t="n">
-        <v>0.431587</v>
+        <v>0.431023</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.220509</v>
+        <v>0.214531</v>
       </c>
       <c r="C27" t="n">
-        <v>0.180172</v>
+        <v>0.166547</v>
       </c>
       <c r="D27" t="n">
-        <v>0.42586</v>
+        <v>0.423625</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.210365</v>
+        <v>0.207825</v>
       </c>
       <c r="C28" t="n">
-        <v>0.175354</v>
+        <v>0.158566</v>
       </c>
       <c r="D28" t="n">
-        <v>0.421221</v>
+        <v>0.41806</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.20472</v>
+        <v>0.197373</v>
       </c>
       <c r="C29" t="n">
-        <v>0.166139</v>
+        <v>0.155873</v>
       </c>
       <c r="D29" t="n">
-        <v>0.413502</v>
+        <v>0.413311</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.196512</v>
+        <v>0.19202</v>
       </c>
       <c r="C30" t="n">
-        <v>0.160797</v>
+        <v>0.142795</v>
       </c>
       <c r="D30" t="n">
-        <v>0.408435</v>
+        <v>0.406639</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.191024</v>
+        <v>0.185311</v>
       </c>
       <c r="C31" t="n">
-        <v>0.159212</v>
+        <v>0.142695</v>
       </c>
       <c r="D31" t="n">
-        <v>0.401978</v>
+        <v>0.399987</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180668</v>
+        <v>0.180229</v>
       </c>
       <c r="C32" t="n">
-        <v>0.162778</v>
+        <v>0.142117</v>
       </c>
       <c r="D32" t="n">
-        <v>0.395394</v>
+        <v>0.396059</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.176448</v>
+        <v>0.179558</v>
       </c>
       <c r="C33" t="n">
-        <v>0.158782</v>
+        <v>0.140604</v>
       </c>
       <c r="D33" t="n">
-        <v>0.392121</v>
+        <v>0.393419</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.172307</v>
+        <v>0.175433</v>
       </c>
       <c r="C34" t="n">
-        <v>0.154265</v>
+        <v>0.140112</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3893</v>
+        <v>0.389446</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.168467</v>
+        <v>0.172541</v>
       </c>
       <c r="C35" t="n">
-        <v>0.149136</v>
+        <v>0.137497</v>
       </c>
       <c r="D35" t="n">
-        <v>0.492861</v>
+        <v>0.496066</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.169004</v>
+        <v>0.171457</v>
       </c>
       <c r="C36" t="n">
-        <v>0.146914</v>
+        <v>0.139274</v>
       </c>
       <c r="D36" t="n">
-        <v>0.481898</v>
+        <v>0.490837</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169924</v>
+        <v>0.181474</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232032</v>
+        <v>0.228601</v>
       </c>
       <c r="D37" t="n">
-        <v>0.472948</v>
+        <v>0.479503</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243116</v>
+        <v>0.257303</v>
       </c>
       <c r="C38" t="n">
-        <v>0.222808</v>
+        <v>0.22177</v>
       </c>
       <c r="D38" t="n">
-        <v>0.461288</v>
+        <v>0.469962</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233943</v>
+        <v>0.248403</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216212</v>
+        <v>0.214862</v>
       </c>
       <c r="D39" t="n">
-        <v>0.45271</v>
+        <v>0.464124</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226137</v>
+        <v>0.242459</v>
       </c>
       <c r="C40" t="n">
-        <v>0.208591</v>
+        <v>0.21206</v>
       </c>
       <c r="D40" t="n">
-        <v>0.44622</v>
+        <v>0.473521</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.216088</v>
+        <v>0.238382</v>
       </c>
       <c r="C41" t="n">
-        <v>0.200975</v>
+        <v>0.20783</v>
       </c>
       <c r="D41" t="n">
-        <v>0.43728</v>
+        <v>0.475095</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.210244</v>
+        <v>0.231229</v>
       </c>
       <c r="C42" t="n">
-        <v>0.191439</v>
+        <v>0.197759</v>
       </c>
       <c r="D42" t="n">
-        <v>0.431068</v>
+        <v>0.46561</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.201758</v>
+        <v>0.225073</v>
       </c>
       <c r="C43" t="n">
-        <v>0.186818</v>
+        <v>0.194221</v>
       </c>
       <c r="D43" t="n">
-        <v>0.425196</v>
+        <v>0.453354</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.195155</v>
+        <v>0.205426</v>
       </c>
       <c r="C44" t="n">
-        <v>0.179145</v>
+        <v>0.171455</v>
       </c>
       <c r="D44" t="n">
-        <v>0.418915</v>
+        <v>0.422101</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190794</v>
+        <v>0.190315</v>
       </c>
       <c r="C45" t="n">
-        <v>0.173928</v>
+        <v>0.163253</v>
       </c>
       <c r="D45" t="n">
-        <v>0.414632</v>
+        <v>0.414234</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.183817</v>
+        <v>0.184168</v>
       </c>
       <c r="C46" t="n">
-        <v>0.168954</v>
+        <v>0.158433</v>
       </c>
       <c r="D46" t="n">
-        <v>0.40958</v>
+        <v>0.410317</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.18022</v>
+        <v>0.178255</v>
       </c>
       <c r="C47" t="n">
-        <v>0.163663</v>
+        <v>0.154198</v>
       </c>
       <c r="D47" t="n">
-        <v>0.405111</v>
+        <v>0.405728</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175056</v>
+        <v>0.175044</v>
       </c>
       <c r="C48" t="n">
-        <v>0.160194</v>
+        <v>0.151346</v>
       </c>
       <c r="D48" t="n">
-        <v>0.401079</v>
+        <v>0.401742</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174192</v>
+        <v>0.172096</v>
       </c>
       <c r="C49" t="n">
-        <v>0.159002</v>
+        <v>0.149423</v>
       </c>
       <c r="D49" t="n">
-        <v>0.398914</v>
+        <v>0.397857</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172571</v>
+        <v>0.170643</v>
       </c>
       <c r="C50" t="n">
-        <v>0.157331</v>
+        <v>0.148783</v>
       </c>
       <c r="D50" t="n">
-        <v>0.503147</v>
+        <v>0.502007</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173154</v>
+        <v>0.171813</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242329</v>
+        <v>0.233546</v>
       </c>
       <c r="D51" t="n">
-        <v>0.492384</v>
+        <v>0.49346</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174975</v>
+        <v>0.175331</v>
       </c>
       <c r="C52" t="n">
-        <v>0.232874</v>
+        <v>0.224193</v>
       </c>
       <c r="D52" t="n">
-        <v>0.482301</v>
+        <v>0.483333</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.239909</v>
+        <v>0.240918</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224666</v>
+        <v>0.215799</v>
       </c>
       <c r="D53" t="n">
-        <v>0.472939</v>
+        <v>0.474382</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232111</v>
+        <v>0.232215</v>
       </c>
       <c r="C54" t="n">
-        <v>0.216011</v>
+        <v>0.208499</v>
       </c>
       <c r="D54" t="n">
-        <v>0.466216</v>
+        <v>0.466479</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.223508</v>
+        <v>0.224046</v>
       </c>
       <c r="C55" t="n">
-        <v>0.208663</v>
+        <v>0.200277</v>
       </c>
       <c r="D55" t="n">
-        <v>0.457846</v>
+        <v>0.459095</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216117</v>
+        <v>0.21561</v>
       </c>
       <c r="C56" t="n">
-        <v>0.200123</v>
+        <v>0.193088</v>
       </c>
       <c r="D56" t="n">
-        <v>0.451905</v>
+        <v>0.450266</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208584</v>
+        <v>0.208464</v>
       </c>
       <c r="C57" t="n">
-        <v>0.193327</v>
+        <v>0.186876</v>
       </c>
       <c r="D57" t="n">
-        <v>0.444817</v>
+        <v>0.442786</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.200772</v>
+        <v>0.201843</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186277</v>
+        <v>0.180617</v>
       </c>
       <c r="D58" t="n">
-        <v>0.438164</v>
+        <v>0.43765</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.195973</v>
+        <v>0.195195</v>
       </c>
       <c r="C59" t="n">
-        <v>0.180603</v>
+        <v>0.174342</v>
       </c>
       <c r="D59" t="n">
-        <v>0.43285</v>
+        <v>0.433326</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.18962</v>
+        <v>0.189541</v>
       </c>
       <c r="C60" t="n">
-        <v>0.175381</v>
+        <v>0.169222</v>
       </c>
       <c r="D60" t="n">
-        <v>0.428824</v>
+        <v>0.428127</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.184933</v>
+        <v>0.184914</v>
       </c>
       <c r="C61" t="n">
-        <v>0.169865</v>
+        <v>0.164265</v>
       </c>
       <c r="D61" t="n">
-        <v>0.423146</v>
+        <v>0.423228</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1808</v>
+        <v>0.18044</v>
       </c>
       <c r="C62" t="n">
-        <v>0.166342</v>
+        <v>0.160687</v>
       </c>
       <c r="D62" t="n">
-        <v>0.420087</v>
+        <v>0.420228</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177751</v>
+        <v>0.177332</v>
       </c>
       <c r="C63" t="n">
-        <v>0.163187</v>
+        <v>0.15823</v>
       </c>
       <c r="D63" t="n">
-        <v>0.417488</v>
+        <v>0.41801</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175901</v>
+        <v>0.175902</v>
       </c>
       <c r="C64" t="n">
-        <v>0.161594</v>
+        <v>0.156879</v>
       </c>
       <c r="D64" t="n">
-        <v>0.543864</v>
+        <v>0.545501</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.175593</v>
+        <v>0.176467</v>
       </c>
       <c r="C65" t="n">
-        <v>0.162458</v>
+        <v>0.158161</v>
       </c>
       <c r="D65" t="n">
-        <v>0.532867</v>
+        <v>0.533202</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.178065</v>
+        <v>0.178959</v>
       </c>
       <c r="C66" t="n">
-        <v>0.24374</v>
+        <v>0.237917</v>
       </c>
       <c r="D66" t="n">
-        <v>0.523168</v>
+        <v>0.524347</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243331</v>
+        <v>0.242498</v>
       </c>
       <c r="C67" t="n">
-        <v>0.234338</v>
+        <v>0.229115</v>
       </c>
       <c r="D67" t="n">
-        <v>0.515294</v>
+        <v>0.514045</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235731</v>
+        <v>0.235263</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223903</v>
+        <v>0.220775</v>
       </c>
       <c r="D68" t="n">
-        <v>0.505839</v>
+        <v>0.507563</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227402</v>
+        <v>0.226725</v>
       </c>
       <c r="C69" t="n">
-        <v>0.217912</v>
+        <v>0.213434</v>
       </c>
       <c r="D69" t="n">
-        <v>0.498996</v>
+        <v>0.499176</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219938</v>
+        <v>0.220073</v>
       </c>
       <c r="C70" t="n">
-        <v>0.209851</v>
+        <v>0.206055</v>
       </c>
       <c r="D70" t="n">
-        <v>0.493625</v>
+        <v>0.493608</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.212089</v>
+        <v>0.213286</v>
       </c>
       <c r="C71" t="n">
-        <v>0.202046</v>
+        <v>0.197722</v>
       </c>
       <c r="D71" t="n">
-        <v>0.487455</v>
+        <v>0.488676</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.20497</v>
+        <v>0.204894</v>
       </c>
       <c r="C72" t="n">
-        <v>0.194916</v>
+        <v>0.190228</v>
       </c>
       <c r="D72" t="n">
-        <v>0.483636</v>
+        <v>0.485183</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.198678</v>
+        <v>0.19872</v>
       </c>
       <c r="C73" t="n">
-        <v>0.18929</v>
+        <v>0.184418</v>
       </c>
       <c r="D73" t="n">
-        <v>0.479793</v>
+        <v>0.479868</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193916</v>
+        <v>0.19331</v>
       </c>
       <c r="C74" t="n">
-        <v>0.183049</v>
+        <v>0.178896</v>
       </c>
       <c r="D74" t="n">
-        <v>0.495005</v>
+        <v>0.494179</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18884</v>
+        <v>0.188137</v>
       </c>
       <c r="C75" t="n">
-        <v>0.179281</v>
+        <v>0.174716</v>
       </c>
       <c r="D75" t="n">
-        <v>0.489559</v>
+        <v>0.489926</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.18364</v>
+        <v>0.184059</v>
       </c>
       <c r="C76" t="n">
-        <v>0.174807</v>
+        <v>0.169944</v>
       </c>
       <c r="D76" t="n">
-        <v>0.486249</v>
+        <v>0.486992</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.179914</v>
+        <v>0.181065</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172051</v>
+        <v>0.165739</v>
       </c>
       <c r="D77" t="n">
-        <v>0.48297</v>
+        <v>0.48514</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178236</v>
+        <v>0.179057</v>
       </c>
       <c r="C78" t="n">
-        <v>0.168732</v>
+        <v>0.164495</v>
       </c>
       <c r="D78" t="n">
-        <v>0.66417</v>
+        <v>0.66215</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178468</v>
+        <v>0.178066</v>
       </c>
       <c r="C79" t="n">
-        <v>0.168766</v>
+        <v>0.164729</v>
       </c>
       <c r="D79" t="n">
-        <v>0.650425</v>
+        <v>0.651226</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181046</v>
+        <v>0.180032</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242114</v>
+        <v>0.237154</v>
       </c>
       <c r="D80" t="n">
-        <v>0.640389</v>
+        <v>0.641823</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257215</v>
+        <v>0.255889</v>
       </c>
       <c r="C81" t="n">
-        <v>0.233351</v>
+        <v>0.228327</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6298550000000001</v>
+        <v>0.633027</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.24921</v>
+        <v>0.248236</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224814</v>
+        <v>0.218205</v>
       </c>
       <c r="D82" t="n">
-        <v>0.625536</v>
+        <v>0.628561</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241134</v>
+        <v>0.240465</v>
       </c>
       <c r="C83" t="n">
-        <v>0.216297</v>
+        <v>0.213036</v>
       </c>
       <c r="D83" t="n">
-        <v>0.623265</v>
+        <v>0.623136</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234088</v>
+        <v>0.232014</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209257</v>
+        <v>0.204841</v>
       </c>
       <c r="D84" t="n">
-        <v>0.62019</v>
+        <v>0.618668</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227656</v>
+        <v>0.225711</v>
       </c>
       <c r="C85" t="n">
-        <v>0.202561</v>
+        <v>0.198057</v>
       </c>
       <c r="D85" t="n">
-        <v>0.617249</v>
+        <v>0.617126</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.218988</v>
+        <v>0.218791</v>
       </c>
       <c r="C86" t="n">
-        <v>0.195303</v>
+        <v>0.191335</v>
       </c>
       <c r="D86" t="n">
-        <v>0.614185</v>
+        <v>0.6161219999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213188</v>
+        <v>0.211906</v>
       </c>
       <c r="C87" t="n">
-        <v>0.189051</v>
+        <v>0.185882</v>
       </c>
       <c r="D87" t="n">
-        <v>0.612168</v>
+        <v>0.615958</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206594</v>
+        <v>0.20659</v>
       </c>
       <c r="C88" t="n">
-        <v>0.183698</v>
+        <v>0.17933</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6210639999999999</v>
+        <v>0.622481</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201044</v>
+        <v>0.200085</v>
       </c>
       <c r="C89" t="n">
-        <v>0.178227</v>
+        <v>0.1752</v>
       </c>
       <c r="D89" t="n">
-        <v>0.632734</v>
+        <v>0.634346</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196232</v>
+        <v>0.195307</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173689</v>
+        <v>0.170304</v>
       </c>
       <c r="D90" t="n">
-        <v>0.636409</v>
+        <v>0.634503</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192104</v>
+        <v>0.191724</v>
       </c>
       <c r="C91" t="n">
-        <v>0.170544</v>
+        <v>0.167599</v>
       </c>
       <c r="D91" t="n">
-        <v>0.64097</v>
+        <v>0.641313</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189066</v>
+        <v>0.188175</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167971</v>
+        <v>0.165722</v>
       </c>
       <c r="D92" t="n">
-        <v>0.854716</v>
+        <v>0.853329</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188601</v>
+        <v>0.186818</v>
       </c>
       <c r="C93" t="n">
-        <v>0.168477</v>
+        <v>0.165042</v>
       </c>
       <c r="D93" t="n">
-        <v>0.849989</v>
+        <v>0.8503270000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.188876</v>
+        <v>0.188099</v>
       </c>
       <c r="C94" t="n">
-        <v>0.254746</v>
+        <v>0.228061</v>
       </c>
       <c r="D94" t="n">
-        <v>0.843439</v>
+        <v>0.843761</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.27163</v>
+        <v>0.268892</v>
       </c>
       <c r="C95" t="n">
-        <v>0.246933</v>
+        <v>0.218881</v>
       </c>
       <c r="D95" t="n">
-        <v>0.839051</v>
+        <v>0.840384</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265728</v>
+        <v>0.263098</v>
       </c>
       <c r="C96" t="n">
-        <v>0.238405</v>
+        <v>0.21333</v>
       </c>
       <c r="D96" t="n">
-        <v>0.837152</v>
+        <v>0.838665</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.25862</v>
+        <v>0.256166</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230642</v>
+        <v>0.206059</v>
       </c>
       <c r="D97" t="n">
-        <v>0.842343</v>
+        <v>0.842438</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251943</v>
+        <v>0.249474</v>
       </c>
       <c r="C98" t="n">
-        <v>0.223104</v>
+        <v>0.199717</v>
       </c>
       <c r="D98" t="n">
-        <v>0.842353</v>
+        <v>0.840417</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244558</v>
+        <v>0.243453</v>
       </c>
       <c r="C99" t="n">
-        <v>0.215809</v>
+        <v>0.193595</v>
       </c>
       <c r="D99" t="n">
-        <v>0.840847</v>
+        <v>0.842668</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239691</v>
+        <v>0.237338</v>
       </c>
       <c r="C100" t="n">
-        <v>0.209016</v>
+        <v>0.187842</v>
       </c>
       <c r="D100" t="n">
-        <v>0.842368</v>
+        <v>0.841182</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233799</v>
+        <v>0.231288</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2027</v>
+        <v>0.182715</v>
       </c>
       <c r="D101" t="n">
-        <v>0.845433</v>
+        <v>0.845816</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228324</v>
+        <v>0.226169</v>
       </c>
       <c r="C102" t="n">
-        <v>0.196987</v>
+        <v>0.1781</v>
       </c>
       <c r="D102" t="n">
-        <v>0.847591</v>
+        <v>0.848409</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223199</v>
+        <v>0.221152</v>
       </c>
       <c r="C103" t="n">
-        <v>0.191732</v>
+        <v>0.173525</v>
       </c>
       <c r="D103" t="n">
-        <v>0.859306</v>
+        <v>0.8590680000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218231</v>
+        <v>0.216622</v>
       </c>
       <c r="C104" t="n">
-        <v>0.186968</v>
+        <v>0.169641</v>
       </c>
       <c r="D104" t="n">
-        <v>0.866473</v>
+        <v>0.86644</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214606</v>
+        <v>0.212536</v>
       </c>
       <c r="C105" t="n">
-        <v>0.183323</v>
+        <v>0.167077</v>
       </c>
       <c r="D105" t="n">
-        <v>0.873781</v>
+        <v>0.873309</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211198</v>
+        <v>0.209359</v>
       </c>
       <c r="C106" t="n">
-        <v>0.180482</v>
+        <v>0.165045</v>
       </c>
       <c r="D106" t="n">
-        <v>0.883015</v>
+        <v>0.881181</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208609</v>
+        <v>0.207275</v>
       </c>
       <c r="C107" t="n">
-        <v>0.179232</v>
+        <v>0.165077</v>
       </c>
       <c r="D107" t="n">
-        <v>1.12858</v>
+        <v>1.12647</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.20919</v>
+        <v>0.206874</v>
       </c>
       <c r="C108" t="n">
-        <v>0.270214</v>
+        <v>0.254049</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11773</v>
+        <v>1.11476</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210419</v>
+        <v>0.208902</v>
       </c>
       <c r="C109" t="n">
-        <v>0.26324</v>
+        <v>0.247959</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10873</v>
+        <v>1.10676</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.28474</v>
+        <v>0.294516</v>
       </c>
       <c r="C110" t="n">
-        <v>0.255134</v>
+        <v>0.242156</v>
       </c>
       <c r="D110" t="n">
-        <v>1.10418</v>
+        <v>1.09662</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279352</v>
+        <v>0.28779</v>
       </c>
       <c r="C111" t="n">
-        <v>0.248131</v>
+        <v>0.235292</v>
       </c>
       <c r="D111" t="n">
-        <v>1.10124</v>
+        <v>1.09217</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272696</v>
+        <v>0.282572</v>
       </c>
       <c r="C112" t="n">
-        <v>0.240354</v>
+        <v>0.22891</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09656</v>
+        <v>1.09233</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.26645</v>
+        <v>0.275154</v>
       </c>
       <c r="C113" t="n">
-        <v>0.233594</v>
+        <v>0.223336</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09186</v>
+        <v>1.09439</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.261445</v>
+        <v>0.27023</v>
       </c>
       <c r="C114" t="n">
-        <v>0.22709</v>
+        <v>0.217888</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09417</v>
+        <v>1.13781</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.256588</v>
+        <v>0.276437</v>
       </c>
       <c r="C115" t="n">
-        <v>0.22143</v>
+        <v>0.220423</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09417</v>
+        <v>1.15706</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.25042</v>
+        <v>0.270245</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215572</v>
+        <v>0.216423</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09533</v>
+        <v>1.16045</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.246285</v>
+        <v>0.26507</v>
       </c>
       <c r="C117" t="n">
-        <v>0.210824</v>
+        <v>0.212935</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1019</v>
+        <v>1.22533</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.242452</v>
+        <v>0.270586</v>
       </c>
       <c r="C118" t="n">
-        <v>0.206184</v>
+        <v>0.216357</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10372</v>
+        <v>1.27803</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238341</v>
+        <v>0.272051</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202222</v>
+        <v>0.218295</v>
       </c>
       <c r="D119" t="n">
-        <v>1.11426</v>
+        <v>1.32106</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234971</v>
+        <v>0.247725</v>
       </c>
       <c r="C120" t="n">
-        <v>0.199437</v>
+        <v>0.193453</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11985</v>
+        <v>1.11775</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232822</v>
+        <v>0.238009</v>
       </c>
       <c r="C121" t="n">
-        <v>0.198432</v>
+        <v>0.190941</v>
       </c>
       <c r="D121" t="n">
-        <v>1.38305</v>
+        <v>1.38416</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.232124</v>
+        <v>0.236306</v>
       </c>
       <c r="C122" t="n">
-        <v>0.198605</v>
+        <v>0.191985</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36949</v>
+        <v>1.36947</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233228</v>
+        <v>0.237829</v>
       </c>
       <c r="C123" t="n">
-        <v>0.283726</v>
+        <v>0.275237</v>
       </c>
       <c r="D123" t="n">
-        <v>1.35582</v>
+        <v>1.34983</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.317553</v>
+        <v>0.317182</v>
       </c>
       <c r="C124" t="n">
-        <v>0.277136</v>
+        <v>0.268957</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34257</v>
+        <v>1.339</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311107</v>
+        <v>0.311292</v>
       </c>
       <c r="C125" t="n">
-        <v>0.27094</v>
+        <v>0.264655</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33575</v>
+        <v>1.331</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305616</v>
+        <v>0.305436</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265239</v>
+        <v>0.258443</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32557</v>
+        <v>1.32072</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29993</v>
+        <v>0.300759</v>
       </c>
       <c r="C127" t="n">
-        <v>0.26004</v>
+        <v>0.253333</v>
       </c>
       <c r="D127" t="n">
-        <v>1.3187</v>
+        <v>1.31376</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.294921</v>
+        <v>0.295943</v>
       </c>
       <c r="C128" t="n">
-        <v>0.255378</v>
+        <v>0.24861</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31313</v>
+        <v>1.30803</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290612</v>
+        <v>0.290695</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251118</v>
+        <v>0.244851</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30902</v>
+        <v>1.30352</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286535</v>
+        <v>0.286025</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246459</v>
+        <v>0.240545</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30457</v>
+        <v>1.30103</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281678</v>
+        <v>0.282003</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242335</v>
+        <v>0.236832</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30408</v>
+        <v>1.29995</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.277964</v>
+        <v>0.278491</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238892</v>
+        <v>0.233738</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30592</v>
+        <v>1.30171</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.274791</v>
+        <v>0.27509</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235795</v>
+        <v>0.230995</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30686</v>
+        <v>1.30248</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.272665</v>
+        <v>0.272762</v>
       </c>
       <c r="C134" t="n">
-        <v>0.233934</v>
+        <v>0.228716</v>
       </c>
       <c r="D134" t="n">
-        <v>1.3096</v>
+        <v>1.30485</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270817</v>
+        <v>0.270542</v>
       </c>
       <c r="C135" t="n">
-        <v>0.232041</v>
+        <v>0.227717</v>
       </c>
       <c r="D135" t="n">
-        <v>1.58363</v>
+        <v>1.57992</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.269507</v>
+        <v>0.269632</v>
       </c>
       <c r="C136" t="n">
-        <v>0.233154</v>
+        <v>0.228302</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55016</v>
+        <v>1.55618</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.270657</v>
+        <v>0.270318</v>
       </c>
       <c r="C137" t="n">
-        <v>0.33125</v>
+        <v>0.319718</v>
       </c>
       <c r="D137" t="n">
-        <v>1.52904</v>
+        <v>1.5376</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.362923</v>
+        <v>0.3657</v>
       </c>
       <c r="C138" t="n">
-        <v>0.321587</v>
+        <v>0.314697</v>
       </c>
       <c r="D138" t="n">
-        <v>1.5081</v>
+        <v>1.51974</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.358997</v>
+        <v>0.360324</v>
       </c>
       <c r="C139" t="n">
-        <v>0.31624</v>
+        <v>0.310526</v>
       </c>
       <c r="D139" t="n">
-        <v>1.50597</v>
+        <v>1.50395</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.352711</v>
+        <v>0.354475</v>
       </c>
       <c r="C140" t="n">
-        <v>0.310445</v>
+        <v>0.304915</v>
       </c>
       <c r="D140" t="n">
-        <v>1.49514</v>
+        <v>1.49009</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.347576</v>
+        <v>0.349808</v>
       </c>
       <c r="C141" t="n">
-        <v>0.306173</v>
+        <v>0.300989</v>
       </c>
       <c r="D141" t="n">
-        <v>1.48303</v>
+        <v>1.47839</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.34304</v>
+        <v>0.344834</v>
       </c>
       <c r="C142" t="n">
-        <v>0.301251</v>
+        <v>0.296843</v>
       </c>
       <c r="D142" t="n">
-        <v>1.47172</v>
+        <v>1.46944</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.338531</v>
+        <v>0.339658</v>
       </c>
       <c r="C143" t="n">
-        <v>0.297468</v>
+        <v>0.292721</v>
       </c>
       <c r="D143" t="n">
-        <v>1.46443</v>
+        <v>1.45782</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.162896</v>
+        <v>0.169613</v>
       </c>
       <c r="C2" t="n">
-        <v>0.150351</v>
+        <v>0.140607</v>
       </c>
       <c r="D2" t="n">
-        <v>0.346339</v>
+        <v>0.346873</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.159489</v>
+        <v>0.162581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.133592</v>
+        <v>0.138369</v>
       </c>
       <c r="D3" t="n">
-        <v>0.343516</v>
+        <v>0.343704</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.155368</v>
+        <v>0.162161</v>
       </c>
       <c r="C4" t="n">
-        <v>0.125129</v>
+        <v>0.127483</v>
       </c>
       <c r="D4" t="n">
-        <v>0.340969</v>
+        <v>0.340552</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.148697</v>
+        <v>0.156603</v>
       </c>
       <c r="C5" t="n">
-        <v>0.124249</v>
+        <v>0.13108</v>
       </c>
       <c r="D5" t="n">
-        <v>0.339206</v>
+        <v>0.338776</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.146637</v>
+        <v>0.152247</v>
       </c>
       <c r="C6" t="n">
-        <v>0.11655</v>
+        <v>0.124131</v>
       </c>
       <c r="D6" t="n">
-        <v>0.336659</v>
+        <v>0.33954</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.145627</v>
+        <v>0.146244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.113635</v>
+        <v>0.114148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.446683</v>
+        <v>0.451328</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.146112</v>
+        <v>0.147291</v>
       </c>
       <c r="C8" t="n">
-        <v>0.109996</v>
+        <v>0.110429</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4315</v>
+        <v>0.443074</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150035</v>
+        <v>0.149578</v>
       </c>
       <c r="C9" t="n">
-        <v>0.182506</v>
+        <v>0.18218</v>
       </c>
       <c r="D9" t="n">
-        <v>0.42611</v>
+        <v>0.434464</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.197871</v>
+        <v>0.214407</v>
       </c>
       <c r="C10" t="n">
-        <v>0.173821</v>
+        <v>0.183371</v>
       </c>
       <c r="D10" t="n">
-        <v>0.418478</v>
+        <v>0.428038</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.19399</v>
+        <v>0.211894</v>
       </c>
       <c r="C11" t="n">
-        <v>0.164724</v>
+        <v>0.164938</v>
       </c>
       <c r="D11" t="n">
-        <v>0.410115</v>
+        <v>0.416682</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.187917</v>
+        <v>0.19938</v>
       </c>
       <c r="C12" t="n">
-        <v>0.15724</v>
+        <v>0.168951</v>
       </c>
       <c r="D12" t="n">
-        <v>0.403066</v>
+        <v>0.414467</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.180667</v>
+        <v>0.190648</v>
       </c>
       <c r="C13" t="n">
-        <v>0.15488</v>
+        <v>0.170647</v>
       </c>
       <c r="D13" t="n">
-        <v>0.398503</v>
+        <v>0.408361</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.177555</v>
+        <v>0.184712</v>
       </c>
       <c r="C14" t="n">
-        <v>0.158879</v>
+        <v>0.1646</v>
       </c>
       <c r="D14" t="n">
-        <v>0.392408</v>
+        <v>0.406461</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.165051</v>
+        <v>0.186632</v>
       </c>
       <c r="C15" t="n">
-        <v>0.153781</v>
+        <v>0.154612</v>
       </c>
       <c r="D15" t="n">
-        <v>0.390939</v>
+        <v>0.39041</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.173185</v>
+        <v>0.17291</v>
       </c>
       <c r="C16" t="n">
-        <v>0.146297</v>
+        <v>0.149686</v>
       </c>
       <c r="D16" t="n">
-        <v>0.386683</v>
+        <v>0.387712</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.169575</v>
+        <v>0.164482</v>
       </c>
       <c r="C17" t="n">
-        <v>0.141362</v>
+        <v>0.144014</v>
       </c>
       <c r="D17" t="n">
-        <v>0.381731</v>
+        <v>0.384706</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.163963</v>
+        <v>0.16249</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138468</v>
+        <v>0.139543</v>
       </c>
       <c r="D18" t="n">
-        <v>0.380007</v>
+        <v>0.379061</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.164579</v>
+        <v>0.159224</v>
       </c>
       <c r="C19" t="n">
-        <v>0.133127</v>
+        <v>0.135158</v>
       </c>
       <c r="D19" t="n">
-        <v>0.379578</v>
+        <v>0.377563</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1585</v>
+        <v>0.156178</v>
       </c>
       <c r="C20" t="n">
-        <v>0.132893</v>
+        <v>0.130961</v>
       </c>
       <c r="D20" t="n">
-        <v>0.371703</v>
+        <v>0.375539</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.155174</v>
+        <v>0.155148</v>
       </c>
       <c r="C21" t="n">
-        <v>0.130563</v>
+        <v>0.127687</v>
       </c>
       <c r="D21" t="n">
-        <v>0.47547</v>
+        <v>0.476298</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.157394</v>
+        <v>0.15438</v>
       </c>
       <c r="C22" t="n">
-        <v>0.128773</v>
+        <v>0.1257</v>
       </c>
       <c r="D22" t="n">
-        <v>0.466948</v>
+        <v>0.464837</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.155844</v>
+        <v>0.156479</v>
       </c>
       <c r="C23" t="n">
-        <v>0.207438</v>
+        <v>0.22228</v>
       </c>
       <c r="D23" t="n">
-        <v>0.457763</v>
+        <v>0.454473</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245146</v>
+        <v>0.230894</v>
       </c>
       <c r="C24" t="n">
-        <v>0.194784</v>
+        <v>0.210051</v>
       </c>
       <c r="D24" t="n">
-        <v>0.446362</v>
+        <v>0.448186</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239647</v>
+        <v>0.22906</v>
       </c>
       <c r="C25" t="n">
-        <v>0.198349</v>
+        <v>0.202889</v>
       </c>
       <c r="D25" t="n">
-        <v>0.438291</v>
+        <v>0.439866</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.226802</v>
+        <v>0.221571</v>
       </c>
       <c r="C26" t="n">
-        <v>0.187074</v>
+        <v>0.19551</v>
       </c>
       <c r="D26" t="n">
-        <v>0.431587</v>
+        <v>0.431553</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.220509</v>
+        <v>0.212221</v>
       </c>
       <c r="C27" t="n">
-        <v>0.180172</v>
+        <v>0.191304</v>
       </c>
       <c r="D27" t="n">
-        <v>0.42586</v>
+        <v>0.425151</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.210365</v>
+        <v>0.205891</v>
       </c>
       <c r="C28" t="n">
-        <v>0.175354</v>
+        <v>0.184591</v>
       </c>
       <c r="D28" t="n">
-        <v>0.421221</v>
+        <v>0.419273</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.20472</v>
+        <v>0.196045</v>
       </c>
       <c r="C29" t="n">
-        <v>0.166139</v>
+        <v>0.176899</v>
       </c>
       <c r="D29" t="n">
-        <v>0.413502</v>
+        <v>0.414214</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.196512</v>
+        <v>0.188637</v>
       </c>
       <c r="C30" t="n">
-        <v>0.160797</v>
+        <v>0.170692</v>
       </c>
       <c r="D30" t="n">
-        <v>0.408435</v>
+        <v>0.409281</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.191024</v>
+        <v>0.183834</v>
       </c>
       <c r="C31" t="n">
-        <v>0.159212</v>
+        <v>0.164278</v>
       </c>
       <c r="D31" t="n">
-        <v>0.401978</v>
+        <v>0.401289</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180668</v>
+        <v>0.183026</v>
       </c>
       <c r="C32" t="n">
-        <v>0.162778</v>
+        <v>0.164648</v>
       </c>
       <c r="D32" t="n">
-        <v>0.395394</v>
+        <v>0.398122</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.176448</v>
+        <v>0.17889</v>
       </c>
       <c r="C33" t="n">
-        <v>0.158782</v>
+        <v>0.158797</v>
       </c>
       <c r="D33" t="n">
-        <v>0.392121</v>
+        <v>0.39486</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.172307</v>
+        <v>0.174562</v>
       </c>
       <c r="C34" t="n">
-        <v>0.154265</v>
+        <v>0.157566</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3893</v>
+        <v>0.394525</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.168467</v>
+        <v>0.180983</v>
       </c>
       <c r="C35" t="n">
-        <v>0.149136</v>
+        <v>0.15877</v>
       </c>
       <c r="D35" t="n">
-        <v>0.492861</v>
+        <v>0.501956</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.169004</v>
+        <v>0.178798</v>
       </c>
       <c r="C36" t="n">
-        <v>0.146914</v>
+        <v>0.157367</v>
       </c>
       <c r="D36" t="n">
-        <v>0.481898</v>
+        <v>0.49242</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169924</v>
+        <v>0.178548</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232032</v>
+        <v>0.246513</v>
       </c>
       <c r="D37" t="n">
-        <v>0.472948</v>
+        <v>0.481214</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243116</v>
+        <v>0.257322</v>
       </c>
       <c r="C38" t="n">
-        <v>0.222808</v>
+        <v>0.240345</v>
       </c>
       <c r="D38" t="n">
-        <v>0.461288</v>
+        <v>0.472874</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233943</v>
+        <v>0.248751</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216212</v>
+        <v>0.230656</v>
       </c>
       <c r="D39" t="n">
-        <v>0.45271</v>
+        <v>0.464096</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226137</v>
+        <v>0.23605</v>
       </c>
       <c r="C40" t="n">
-        <v>0.208591</v>
+        <v>0.218631</v>
       </c>
       <c r="D40" t="n">
-        <v>0.44622</v>
+        <v>0.463839</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.216088</v>
+        <v>0.228132</v>
       </c>
       <c r="C41" t="n">
-        <v>0.200975</v>
+        <v>0.211715</v>
       </c>
       <c r="D41" t="n">
-        <v>0.43728</v>
+        <v>0.447118</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.210244</v>
+        <v>0.221852</v>
       </c>
       <c r="C42" t="n">
-        <v>0.191439</v>
+        <v>0.204438</v>
       </c>
       <c r="D42" t="n">
-        <v>0.431068</v>
+        <v>0.439508</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.201758</v>
+        <v>0.21456</v>
       </c>
       <c r="C43" t="n">
-        <v>0.186818</v>
+        <v>0.197161</v>
       </c>
       <c r="D43" t="n">
-        <v>0.425196</v>
+        <v>0.433564</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.195155</v>
+        <v>0.205415</v>
       </c>
       <c r="C44" t="n">
-        <v>0.179145</v>
+        <v>0.190093</v>
       </c>
       <c r="D44" t="n">
-        <v>0.418915</v>
+        <v>0.428349</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190794</v>
+        <v>0.200641</v>
       </c>
       <c r="C45" t="n">
-        <v>0.173928</v>
+        <v>0.183763</v>
       </c>
       <c r="D45" t="n">
-        <v>0.414632</v>
+        <v>0.423395</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.183817</v>
+        <v>0.195666</v>
       </c>
       <c r="C46" t="n">
-        <v>0.168954</v>
+        <v>0.177656</v>
       </c>
       <c r="D46" t="n">
-        <v>0.40958</v>
+        <v>0.420103</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.18022</v>
+        <v>0.19355</v>
       </c>
       <c r="C47" t="n">
-        <v>0.163663</v>
+        <v>0.17518</v>
       </c>
       <c r="D47" t="n">
-        <v>0.405111</v>
+        <v>0.414351</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175056</v>
+        <v>0.186069</v>
       </c>
       <c r="C48" t="n">
-        <v>0.160194</v>
+        <v>0.170003</v>
       </c>
       <c r="D48" t="n">
-        <v>0.401079</v>
+        <v>0.416581</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174192</v>
+        <v>0.186176</v>
       </c>
       <c r="C49" t="n">
-        <v>0.159002</v>
+        <v>0.169047</v>
       </c>
       <c r="D49" t="n">
-        <v>0.398914</v>
+        <v>0.419501</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172571</v>
+        <v>0.185139</v>
       </c>
       <c r="C50" t="n">
-        <v>0.157331</v>
+        <v>0.170605</v>
       </c>
       <c r="D50" t="n">
-        <v>0.503147</v>
+        <v>0.542046</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173154</v>
+        <v>0.185803</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242329</v>
+        <v>0.29455</v>
       </c>
       <c r="D51" t="n">
-        <v>0.492384</v>
+        <v>0.588574</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174975</v>
+        <v>0.199803</v>
       </c>
       <c r="C52" t="n">
-        <v>0.232874</v>
+        <v>0.282485</v>
       </c>
       <c r="D52" t="n">
-        <v>0.482301</v>
+        <v>0.512095</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.239909</v>
+        <v>0.260714</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224666</v>
+        <v>0.230222</v>
       </c>
       <c r="D53" t="n">
-        <v>0.472939</v>
+        <v>0.476408</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232111</v>
+        <v>0.231669</v>
       </c>
       <c r="C54" t="n">
-        <v>0.216011</v>
+        <v>0.217158</v>
       </c>
       <c r="D54" t="n">
-        <v>0.466216</v>
+        <v>0.466552</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.223508</v>
+        <v>0.22301</v>
       </c>
       <c r="C55" t="n">
-        <v>0.208663</v>
+        <v>0.208738</v>
       </c>
       <c r="D55" t="n">
-        <v>0.457846</v>
+        <v>0.456638</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216117</v>
+        <v>0.216089</v>
       </c>
       <c r="C56" t="n">
-        <v>0.200123</v>
+        <v>0.201629</v>
       </c>
       <c r="D56" t="n">
-        <v>0.451905</v>
+        <v>0.449479</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208584</v>
+        <v>0.208074</v>
       </c>
       <c r="C57" t="n">
-        <v>0.193327</v>
+        <v>0.194111</v>
       </c>
       <c r="D57" t="n">
-        <v>0.444817</v>
+        <v>0.444444</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.200772</v>
+        <v>0.201069</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186277</v>
+        <v>0.186874</v>
       </c>
       <c r="D58" t="n">
-        <v>0.438164</v>
+        <v>0.439428</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.195973</v>
+        <v>0.195234</v>
       </c>
       <c r="C59" t="n">
-        <v>0.180603</v>
+        <v>0.181629</v>
       </c>
       <c r="D59" t="n">
-        <v>0.43285</v>
+        <v>0.43441</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.18962</v>
+        <v>0.189417</v>
       </c>
       <c r="C60" t="n">
-        <v>0.175381</v>
+        <v>0.175183</v>
       </c>
       <c r="D60" t="n">
-        <v>0.428824</v>
+        <v>0.42997</v>
       </c>
     </row>
     <row r="61">
@@ -4075,10 +4075,10 @@
         <v>0.184933</v>
       </c>
       <c r="C61" t="n">
-        <v>0.169865</v>
+        <v>0.171184</v>
       </c>
       <c r="D61" t="n">
-        <v>0.423146</v>
+        <v>0.423573</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1808</v>
+        <v>0.18074</v>
       </c>
       <c r="C62" t="n">
-        <v>0.166342</v>
+        <v>0.166525</v>
       </c>
       <c r="D62" t="n">
-        <v>0.420087</v>
+        <v>0.422302</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177751</v>
+        <v>0.177198</v>
       </c>
       <c r="C63" t="n">
-        <v>0.163187</v>
+        <v>0.163314</v>
       </c>
       <c r="D63" t="n">
-        <v>0.417488</v>
+        <v>0.420175</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175901</v>
+        <v>0.17638</v>
       </c>
       <c r="C64" t="n">
-        <v>0.161594</v>
+        <v>0.162053</v>
       </c>
       <c r="D64" t="n">
-        <v>0.543864</v>
+        <v>0.544669</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.175593</v>
+        <v>0.176052</v>
       </c>
       <c r="C65" t="n">
-        <v>0.162458</v>
+        <v>0.16355</v>
       </c>
       <c r="D65" t="n">
-        <v>0.532867</v>
+        <v>0.533887</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.178065</v>
+        <v>0.178116</v>
       </c>
       <c r="C66" t="n">
-        <v>0.24374</v>
+        <v>0.247576</v>
       </c>
       <c r="D66" t="n">
-        <v>0.523168</v>
+        <v>0.5235069999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243331</v>
+        <v>0.240549</v>
       </c>
       <c r="C67" t="n">
-        <v>0.234338</v>
+        <v>0.237598</v>
       </c>
       <c r="D67" t="n">
-        <v>0.515294</v>
+        <v>0.514582</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235731</v>
+        <v>0.234109</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223903</v>
+        <v>0.228464</v>
       </c>
       <c r="D68" t="n">
-        <v>0.505839</v>
+        <v>0.507239</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227402</v>
+        <v>0.227424</v>
       </c>
       <c r="C69" t="n">
-        <v>0.217912</v>
+        <v>0.217722</v>
       </c>
       <c r="D69" t="n">
-        <v>0.498996</v>
+        <v>0.499135</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219938</v>
+        <v>0.218911</v>
       </c>
       <c r="C70" t="n">
-        <v>0.209851</v>
+        <v>0.21206</v>
       </c>
       <c r="D70" t="n">
-        <v>0.493625</v>
+        <v>0.493563</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.212089</v>
+        <v>0.211421</v>
       </c>
       <c r="C71" t="n">
-        <v>0.202046</v>
+        <v>0.201565</v>
       </c>
       <c r="D71" t="n">
-        <v>0.487455</v>
+        <v>0.489251</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.20497</v>
+        <v>0.204908</v>
       </c>
       <c r="C72" t="n">
-        <v>0.194916</v>
+        <v>0.196058</v>
       </c>
       <c r="D72" t="n">
-        <v>0.483636</v>
+        <v>0.483669</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.198678</v>
+        <v>0.198947</v>
       </c>
       <c r="C73" t="n">
-        <v>0.18929</v>
+        <v>0.187998</v>
       </c>
       <c r="D73" t="n">
-        <v>0.479793</v>
+        <v>0.481005</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193916</v>
+        <v>0.193825</v>
       </c>
       <c r="C74" t="n">
-        <v>0.183049</v>
+        <v>0.183159</v>
       </c>
       <c r="D74" t="n">
-        <v>0.495005</v>
+        <v>0.494653</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18884</v>
+        <v>0.188448</v>
       </c>
       <c r="C75" t="n">
-        <v>0.179281</v>
+        <v>0.178378</v>
       </c>
       <c r="D75" t="n">
-        <v>0.489559</v>
+        <v>0.489973</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.18364</v>
+        <v>0.183743</v>
       </c>
       <c r="C76" t="n">
-        <v>0.174807</v>
+        <v>0.173868</v>
       </c>
       <c r="D76" t="n">
-        <v>0.486249</v>
+        <v>0.48563</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.179914</v>
+        <v>0.181188</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172051</v>
+        <v>0.170299</v>
       </c>
       <c r="D77" t="n">
-        <v>0.48297</v>
+        <v>0.482726</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178236</v>
+        <v>0.179089</v>
       </c>
       <c r="C78" t="n">
-        <v>0.168732</v>
+        <v>0.168668</v>
       </c>
       <c r="D78" t="n">
-        <v>0.66417</v>
+        <v>0.664075</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178468</v>
+        <v>0.178466</v>
       </c>
       <c r="C79" t="n">
-        <v>0.168766</v>
+        <v>0.170997</v>
       </c>
       <c r="D79" t="n">
-        <v>0.650425</v>
+        <v>0.67808</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181046</v>
+        <v>0.17979</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242114</v>
+        <v>0.241644</v>
       </c>
       <c r="D80" t="n">
-        <v>0.640389</v>
+        <v>0.643141</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257215</v>
+        <v>0.257117</v>
       </c>
       <c r="C81" t="n">
-        <v>0.233351</v>
+        <v>0.233888</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6298550000000001</v>
+        <v>0.63251</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.24921</v>
+        <v>0.249419</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224814</v>
+        <v>0.226035</v>
       </c>
       <c r="D82" t="n">
-        <v>0.625536</v>
+        <v>0.627818</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241134</v>
+        <v>0.24139</v>
       </c>
       <c r="C83" t="n">
-        <v>0.216297</v>
+        <v>0.217214</v>
       </c>
       <c r="D83" t="n">
-        <v>0.623265</v>
+        <v>0.6227279999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234088</v>
+        <v>0.233522</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209257</v>
+        <v>0.210699</v>
       </c>
       <c r="D84" t="n">
-        <v>0.62019</v>
+        <v>0.619224</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227656</v>
+        <v>0.226511</v>
       </c>
       <c r="C85" t="n">
-        <v>0.202561</v>
+        <v>0.202299</v>
       </c>
       <c r="D85" t="n">
-        <v>0.617249</v>
+        <v>0.616981</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.218988</v>
+        <v>0.219902</v>
       </c>
       <c r="C86" t="n">
-        <v>0.195303</v>
+        <v>0.196103</v>
       </c>
       <c r="D86" t="n">
-        <v>0.614185</v>
+        <v>0.613592</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213188</v>
+        <v>0.212416</v>
       </c>
       <c r="C87" t="n">
-        <v>0.189051</v>
+        <v>0.189553</v>
       </c>
       <c r="D87" t="n">
-        <v>0.612168</v>
+        <v>0.614194</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206594</v>
+        <v>0.206741</v>
       </c>
       <c r="C88" t="n">
-        <v>0.183698</v>
+        <v>0.183696</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6210639999999999</v>
+        <v>0.6239710000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201044</v>
+        <v>0.201644</v>
       </c>
       <c r="C89" t="n">
-        <v>0.178227</v>
+        <v>0.179309</v>
       </c>
       <c r="D89" t="n">
-        <v>0.632734</v>
+        <v>0.632053</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196232</v>
+        <v>0.196441</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173689</v>
+        <v>0.175217</v>
       </c>
       <c r="D90" t="n">
-        <v>0.636409</v>
+        <v>0.633266</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192104</v>
+        <v>0.192669</v>
       </c>
       <c r="C91" t="n">
-        <v>0.170544</v>
+        <v>0.170696</v>
       </c>
       <c r="D91" t="n">
-        <v>0.64097</v>
+        <v>0.639566</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189066</v>
+        <v>0.189524</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167971</v>
+        <v>0.169276</v>
       </c>
       <c r="D92" t="n">
-        <v>0.854716</v>
+        <v>0.852436</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188601</v>
+        <v>0.188576</v>
       </c>
       <c r="C93" t="n">
-        <v>0.168477</v>
+        <v>0.169212</v>
       </c>
       <c r="D93" t="n">
-        <v>0.849989</v>
+        <v>0.849848</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.188876</v>
+        <v>0.18917</v>
       </c>
       <c r="C94" t="n">
-        <v>0.254746</v>
+        <v>0.255736</v>
       </c>
       <c r="D94" t="n">
-        <v>0.843439</v>
+        <v>0.841556</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.27163</v>
+        <v>0.269499</v>
       </c>
       <c r="C95" t="n">
-        <v>0.246933</v>
+        <v>0.247525</v>
       </c>
       <c r="D95" t="n">
-        <v>0.839051</v>
+        <v>0.837158</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265728</v>
+        <v>0.26406</v>
       </c>
       <c r="C96" t="n">
-        <v>0.238405</v>
+        <v>0.240369</v>
       </c>
       <c r="D96" t="n">
-        <v>0.837152</v>
+        <v>0.832128</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.25862</v>
+        <v>0.257212</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230642</v>
+        <v>0.232452</v>
       </c>
       <c r="D97" t="n">
-        <v>0.842343</v>
+        <v>0.835684</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251943</v>
+        <v>0.252011</v>
       </c>
       <c r="C98" t="n">
-        <v>0.223104</v>
+        <v>0.225193</v>
       </c>
       <c r="D98" t="n">
-        <v>0.842353</v>
+        <v>0.840137</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244558</v>
+        <v>0.249434</v>
       </c>
       <c r="C99" t="n">
-        <v>0.215809</v>
+        <v>0.218022</v>
       </c>
       <c r="D99" t="n">
-        <v>0.840847</v>
+        <v>0.839358</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239691</v>
+        <v>0.239448</v>
       </c>
       <c r="C100" t="n">
-        <v>0.209016</v>
+        <v>0.212756</v>
       </c>
       <c r="D100" t="n">
-        <v>0.842368</v>
+        <v>0.8492150000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233799</v>
+        <v>0.245191</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2027</v>
+        <v>0.213709</v>
       </c>
       <c r="D101" t="n">
-        <v>0.845433</v>
+        <v>0.916971</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228324</v>
+        <v>0.236164</v>
       </c>
       <c r="C102" t="n">
-        <v>0.196987</v>
+        <v>0.207222</v>
       </c>
       <c r="D102" t="n">
-        <v>0.847591</v>
+        <v>0.914568</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223199</v>
+        <v>0.234524</v>
       </c>
       <c r="C103" t="n">
-        <v>0.191732</v>
+        <v>0.201475</v>
       </c>
       <c r="D103" t="n">
-        <v>0.859306</v>
+        <v>0.9326449999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218231</v>
+        <v>0.232125</v>
       </c>
       <c r="C104" t="n">
-        <v>0.186968</v>
+        <v>0.198839</v>
       </c>
       <c r="D104" t="n">
-        <v>0.866473</v>
+        <v>1.02355</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214606</v>
+        <v>0.232939</v>
       </c>
       <c r="C105" t="n">
-        <v>0.183323</v>
+        <v>0.199063</v>
       </c>
       <c r="D105" t="n">
-        <v>0.873781</v>
+        <v>1.07067</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211198</v>
+        <v>0.236673</v>
       </c>
       <c r="C106" t="n">
-        <v>0.180482</v>
+        <v>0.203338</v>
       </c>
       <c r="D106" t="n">
-        <v>0.883015</v>
+        <v>1.3133</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208609</v>
+        <v>0.258594</v>
       </c>
       <c r="C107" t="n">
-        <v>0.179232</v>
+        <v>0.217143</v>
       </c>
       <c r="D107" t="n">
-        <v>1.12858</v>
+        <v>1.55402</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.20919</v>
+        <v>0.225503</v>
       </c>
       <c r="C108" t="n">
-        <v>0.270214</v>
+        <v>0.281965</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11773</v>
+        <v>1.12085</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210419</v>
+        <v>0.21005</v>
       </c>
       <c r="C109" t="n">
-        <v>0.26324</v>
+        <v>0.26341</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10873</v>
+        <v>1.10912</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.28474</v>
+        <v>0.284058</v>
       </c>
       <c r="C110" t="n">
-        <v>0.255134</v>
+        <v>0.255565</v>
       </c>
       <c r="D110" t="n">
-        <v>1.10418</v>
+        <v>1.0988</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279352</v>
+        <v>0.279228</v>
       </c>
       <c r="C111" t="n">
-        <v>0.248131</v>
+        <v>0.248323</v>
       </c>
       <c r="D111" t="n">
-        <v>1.10124</v>
+        <v>1.09808</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272696</v>
+        <v>0.272182</v>
       </c>
       <c r="C112" t="n">
-        <v>0.240354</v>
+        <v>0.242431</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09656</v>
+        <v>1.09173</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.26645</v>
+        <v>0.266166</v>
       </c>
       <c r="C113" t="n">
-        <v>0.233594</v>
+        <v>0.237792</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09186</v>
+        <v>1.1448</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.261445</v>
+        <v>0.258655</v>
       </c>
       <c r="C114" t="n">
-        <v>0.22709</v>
+        <v>0.228499</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09417</v>
+        <v>1.09341</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.256588</v>
+        <v>0.25483</v>
       </c>
       <c r="C115" t="n">
-        <v>0.22143</v>
+        <v>0.221771</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09417</v>
+        <v>1.09249</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.25042</v>
+        <v>0.249212</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215572</v>
+        <v>0.21589</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09533</v>
+        <v>1.09072</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.246285</v>
+        <v>0.245549</v>
       </c>
       <c r="C117" t="n">
-        <v>0.210824</v>
+        <v>0.211234</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1019</v>
+        <v>1.09875</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.242452</v>
+        <v>0.240575</v>
       </c>
       <c r="C118" t="n">
-        <v>0.206184</v>
+        <v>0.206971</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10372</v>
+        <v>1.10215</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238341</v>
+        <v>0.237178</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202222</v>
+        <v>0.203169</v>
       </c>
       <c r="D119" t="n">
-        <v>1.11426</v>
+        <v>1.10833</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234971</v>
+        <v>0.234634</v>
       </c>
       <c r="C120" t="n">
-        <v>0.199437</v>
+        <v>0.200139</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11985</v>
+        <v>1.11522</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232822</v>
+        <v>0.232249</v>
       </c>
       <c r="C121" t="n">
-        <v>0.198432</v>
+        <v>0.198621</v>
       </c>
       <c r="D121" t="n">
-        <v>1.38305</v>
+        <v>1.38166</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.232124</v>
+        <v>0.2311</v>
       </c>
       <c r="C122" t="n">
-        <v>0.198605</v>
+        <v>0.199683</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36949</v>
+        <v>1.3644</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233228</v>
+        <v>0.232344</v>
       </c>
       <c r="C123" t="n">
-        <v>0.283726</v>
+        <v>0.28346</v>
       </c>
       <c r="D123" t="n">
-        <v>1.35582</v>
+        <v>1.35443</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.317553</v>
+        <v>0.317447</v>
       </c>
       <c r="C124" t="n">
-        <v>0.277136</v>
+        <v>0.277732</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34257</v>
+        <v>1.33947</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311107</v>
+        <v>0.310722</v>
       </c>
       <c r="C125" t="n">
-        <v>0.27094</v>
+        <v>0.271587</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33575</v>
+        <v>1.32929</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305616</v>
+        <v>0.307047</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265239</v>
+        <v>0.265884</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32557</v>
+        <v>1.31815</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29993</v>
+        <v>0.300529</v>
       </c>
       <c r="C127" t="n">
-        <v>0.26004</v>
+        <v>0.260817</v>
       </c>
       <c r="D127" t="n">
-        <v>1.3187</v>
+        <v>1.31449</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.294921</v>
+        <v>0.295402</v>
       </c>
       <c r="C128" t="n">
-        <v>0.255378</v>
+        <v>0.255583</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31313</v>
+        <v>1.3089</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290612</v>
+        <v>0.290867</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251118</v>
+        <v>0.251046</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30902</v>
+        <v>1.30407</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286535</v>
+        <v>0.286055</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246459</v>
+        <v>0.246581</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30457</v>
+        <v>1.30011</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281678</v>
+        <v>0.281842</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242335</v>
+        <v>0.243067</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30408</v>
+        <v>1.30068</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.277964</v>
+        <v>0.278764</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238892</v>
+        <v>0.240179</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30592</v>
+        <v>1.30354</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.274791</v>
+        <v>0.275851</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235795</v>
+        <v>0.237083</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30686</v>
+        <v>1.30325</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.272665</v>
+        <v>0.273289</v>
       </c>
       <c r="C134" t="n">
-        <v>0.233934</v>
+        <v>0.234245</v>
       </c>
       <c r="D134" t="n">
-        <v>1.3096</v>
+        <v>1.30583</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270817</v>
+        <v>0.270884</v>
       </c>
       <c r="C135" t="n">
-        <v>0.232041</v>
+        <v>0.232853</v>
       </c>
       <c r="D135" t="n">
-        <v>1.58363</v>
+        <v>1.58171</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.269507</v>
+        <v>0.270747</v>
       </c>
       <c r="C136" t="n">
-        <v>0.233154</v>
+        <v>0.233487</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55016</v>
+        <v>1.55811</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.270657</v>
+        <v>0.270076</v>
       </c>
       <c r="C137" t="n">
-        <v>0.33125</v>
+        <v>0.335333</v>
       </c>
       <c r="D137" t="n">
-        <v>1.52904</v>
+        <v>1.53831</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.362923</v>
+        <v>0.368226</v>
       </c>
       <c r="C138" t="n">
-        <v>0.321587</v>
+        <v>0.328254</v>
       </c>
       <c r="D138" t="n">
-        <v>1.5081</v>
+        <v>1.52054</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.358997</v>
+        <v>0.362765</v>
       </c>
       <c r="C139" t="n">
-        <v>0.31624</v>
+        <v>0.320304</v>
       </c>
       <c r="D139" t="n">
-        <v>1.50597</v>
+        <v>1.50512</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.352711</v>
+        <v>0.356706</v>
       </c>
       <c r="C140" t="n">
-        <v>0.310445</v>
+        <v>0.315581</v>
       </c>
       <c r="D140" t="n">
-        <v>1.49514</v>
+        <v>1.49206</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.347576</v>
+        <v>0.349473</v>
       </c>
       <c r="C141" t="n">
-        <v>0.306173</v>
+        <v>0.310023</v>
       </c>
       <c r="D141" t="n">
-        <v>1.48303</v>
+        <v>1.47931</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.34304</v>
+        <v>0.346473</v>
       </c>
       <c r="C142" t="n">
-        <v>0.301251</v>
+        <v>0.305999</v>
       </c>
       <c r="D142" t="n">
-        <v>1.47172</v>
+        <v>1.46897</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.338531</v>
+        <v>0.344071</v>
       </c>
       <c r="C143" t="n">
-        <v>0.297468</v>
+        <v>0.30296</v>
       </c>
       <c r="D143" t="n">
-        <v>1.46443</v>
+        <v>1.45928</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.162896</v>
+        <v>0.158659</v>
       </c>
       <c r="C2" t="n">
-        <v>0.150351</v>
+        <v>0.14865</v>
       </c>
       <c r="D2" t="n">
-        <v>0.346339</v>
+        <v>0.346377</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.159489</v>
+        <v>0.161098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.133592</v>
+        <v>0.139425</v>
       </c>
       <c r="D3" t="n">
-        <v>0.343516</v>
+        <v>0.343112</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.155368</v>
+        <v>0.154785</v>
       </c>
       <c r="C4" t="n">
-        <v>0.125129</v>
+        <v>0.146203</v>
       </c>
       <c r="D4" t="n">
-        <v>0.340969</v>
+        <v>0.339874</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.148697</v>
+        <v>0.158886</v>
       </c>
       <c r="C5" t="n">
-        <v>0.124249</v>
+        <v>0.134312</v>
       </c>
       <c r="D5" t="n">
-        <v>0.339206</v>
+        <v>0.337445</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.146637</v>
+        <v>0.154943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.11655</v>
+        <v>0.120061</v>
       </c>
       <c r="D6" t="n">
-        <v>0.336659</v>
+        <v>0.336367</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.145627</v>
+        <v>0.153789</v>
       </c>
       <c r="C7" t="n">
-        <v>0.113635</v>
+        <v>0.128537</v>
       </c>
       <c r="D7" t="n">
-        <v>0.446683</v>
+        <v>0.45198</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.146112</v>
+        <v>0.149653</v>
       </c>
       <c r="C8" t="n">
-        <v>0.109996</v>
+        <v>0.116748</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4315</v>
+        <v>0.432891</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150035</v>
+        <v>0.152078</v>
       </c>
       <c r="C9" t="n">
-        <v>0.182506</v>
+        <v>0.186181</v>
       </c>
       <c r="D9" t="n">
-        <v>0.42611</v>
+        <v>0.431487</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.197871</v>
+        <v>0.221886</v>
       </c>
       <c r="C10" t="n">
-        <v>0.173821</v>
+        <v>0.18115</v>
       </c>
       <c r="D10" t="n">
-        <v>0.418478</v>
+        <v>0.426021</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.19399</v>
+        <v>0.207952</v>
       </c>
       <c r="C11" t="n">
-        <v>0.164724</v>
+        <v>0.174363</v>
       </c>
       <c r="D11" t="n">
-        <v>0.410115</v>
+        <v>0.414902</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.187917</v>
+        <v>0.203804</v>
       </c>
       <c r="C12" t="n">
-        <v>0.15724</v>
+        <v>0.174222</v>
       </c>
       <c r="D12" t="n">
-        <v>0.403066</v>
+        <v>0.402958</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.180667</v>
+        <v>0.189824</v>
       </c>
       <c r="C13" t="n">
-        <v>0.15488</v>
+        <v>0.160656</v>
       </c>
       <c r="D13" t="n">
-        <v>0.398503</v>
+        <v>0.398352</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.177555</v>
+        <v>0.185428</v>
       </c>
       <c r="C14" t="n">
-        <v>0.158879</v>
+        <v>0.158162</v>
       </c>
       <c r="D14" t="n">
-        <v>0.392408</v>
+        <v>0.404513</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.165051</v>
+        <v>0.183677</v>
       </c>
       <c r="C15" t="n">
-        <v>0.153781</v>
+        <v>0.158966</v>
       </c>
       <c r="D15" t="n">
-        <v>0.390939</v>
+        <v>0.38872</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.173185</v>
+        <v>0.17655</v>
       </c>
       <c r="C16" t="n">
-        <v>0.146297</v>
+        <v>0.150735</v>
       </c>
       <c r="D16" t="n">
-        <v>0.386683</v>
+        <v>0.391832</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.169575</v>
+        <v>0.16626</v>
       </c>
       <c r="C17" t="n">
-        <v>0.141362</v>
+        <v>0.138444</v>
       </c>
       <c r="D17" t="n">
-        <v>0.381731</v>
+        <v>0.385509</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.163963</v>
+        <v>0.163419</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138468</v>
+        <v>0.133414</v>
       </c>
       <c r="D18" t="n">
-        <v>0.380007</v>
+        <v>0.384012</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.164579</v>
+        <v>0.159237</v>
       </c>
       <c r="C19" t="n">
-        <v>0.133127</v>
+        <v>0.133441</v>
       </c>
       <c r="D19" t="n">
-        <v>0.379578</v>
+        <v>0.374286</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1585</v>
+        <v>0.159979</v>
       </c>
       <c r="C20" t="n">
-        <v>0.132893</v>
+        <v>0.137717</v>
       </c>
       <c r="D20" t="n">
-        <v>0.371703</v>
+        <v>0.374142</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.155174</v>
+        <v>0.159707</v>
       </c>
       <c r="C21" t="n">
-        <v>0.130563</v>
+        <v>0.139025</v>
       </c>
       <c r="D21" t="n">
-        <v>0.47547</v>
+        <v>0.476956</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.157394</v>
+        <v>0.155357</v>
       </c>
       <c r="C22" t="n">
-        <v>0.128773</v>
+        <v>0.136242</v>
       </c>
       <c r="D22" t="n">
-        <v>0.466948</v>
+        <v>0.462328</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.155844</v>
+        <v>0.15882</v>
       </c>
       <c r="C23" t="n">
-        <v>0.207438</v>
+        <v>0.214522</v>
       </c>
       <c r="D23" t="n">
-        <v>0.457763</v>
+        <v>0.460268</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245146</v>
+        <v>0.238374</v>
       </c>
       <c r="C24" t="n">
-        <v>0.194784</v>
+        <v>0.211237</v>
       </c>
       <c r="D24" t="n">
-        <v>0.446362</v>
+        <v>0.448675</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239647</v>
+        <v>0.235203</v>
       </c>
       <c r="C25" t="n">
-        <v>0.198349</v>
+        <v>0.205523</v>
       </c>
       <c r="D25" t="n">
-        <v>0.438291</v>
+        <v>0.442326</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.226802</v>
+        <v>0.226952</v>
       </c>
       <c r="C26" t="n">
-        <v>0.187074</v>
+        <v>0.200803</v>
       </c>
       <c r="D26" t="n">
-        <v>0.431587</v>
+        <v>0.432396</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.220509</v>
+        <v>0.220504</v>
       </c>
       <c r="C27" t="n">
-        <v>0.180172</v>
+        <v>0.194077</v>
       </c>
       <c r="D27" t="n">
-        <v>0.42586</v>
+        <v>0.426145</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.210365</v>
+        <v>0.212552</v>
       </c>
       <c r="C28" t="n">
-        <v>0.175354</v>
+        <v>0.180127</v>
       </c>
       <c r="D28" t="n">
-        <v>0.421221</v>
+        <v>0.421648</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.20472</v>
+        <v>0.202501</v>
       </c>
       <c r="C29" t="n">
-        <v>0.166139</v>
+        <v>0.176276</v>
       </c>
       <c r="D29" t="n">
-        <v>0.413502</v>
+        <v>0.416563</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.196512</v>
+        <v>0.200266</v>
       </c>
       <c r="C30" t="n">
-        <v>0.160797</v>
+        <v>0.1703</v>
       </c>
       <c r="D30" t="n">
-        <v>0.408435</v>
+        <v>0.411541</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.191024</v>
+        <v>0.192761</v>
       </c>
       <c r="C31" t="n">
-        <v>0.159212</v>
+        <v>0.169086</v>
       </c>
       <c r="D31" t="n">
-        <v>0.401978</v>
+        <v>0.403742</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180668</v>
+        <v>0.183718</v>
       </c>
       <c r="C32" t="n">
-        <v>0.162778</v>
+        <v>0.157137</v>
       </c>
       <c r="D32" t="n">
-        <v>0.395394</v>
+        <v>0.398152</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.176448</v>
+        <v>0.176208</v>
       </c>
       <c r="C33" t="n">
-        <v>0.158782</v>
+        <v>0.162395</v>
       </c>
       <c r="D33" t="n">
-        <v>0.392121</v>
+        <v>0.395727</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.172307</v>
+        <v>0.175749</v>
       </c>
       <c r="C34" t="n">
-        <v>0.154265</v>
+        <v>0.159589</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3893</v>
+        <v>0.390928</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.168467</v>
+        <v>0.173483</v>
       </c>
       <c r="C35" t="n">
-        <v>0.149136</v>
+        <v>0.152885</v>
       </c>
       <c r="D35" t="n">
-        <v>0.492861</v>
+        <v>0.495303</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.169004</v>
+        <v>0.171505</v>
       </c>
       <c r="C36" t="n">
-        <v>0.146914</v>
+        <v>0.149869</v>
       </c>
       <c r="D36" t="n">
-        <v>0.481898</v>
+        <v>0.483112</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169924</v>
+        <v>0.173119</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232032</v>
+        <v>0.23404</v>
       </c>
       <c r="D37" t="n">
-        <v>0.472948</v>
+        <v>0.473112</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243116</v>
+        <v>0.246249</v>
       </c>
       <c r="C38" t="n">
-        <v>0.222808</v>
+        <v>0.222619</v>
       </c>
       <c r="D38" t="n">
-        <v>0.461288</v>
+        <v>0.462966</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233943</v>
+        <v>0.236821</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216212</v>
+        <v>0.215764</v>
       </c>
       <c r="D39" t="n">
-        <v>0.45271</v>
+        <v>0.455747</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226137</v>
+        <v>0.228245</v>
       </c>
       <c r="C40" t="n">
-        <v>0.208591</v>
+        <v>0.204915</v>
       </c>
       <c r="D40" t="n">
-        <v>0.44622</v>
+        <v>0.446781</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.216088</v>
+        <v>0.219949</v>
       </c>
       <c r="C41" t="n">
-        <v>0.200975</v>
+        <v>0.199146</v>
       </c>
       <c r="D41" t="n">
-        <v>0.43728</v>
+        <v>0.439249</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.210244</v>
+        <v>0.211504</v>
       </c>
       <c r="C42" t="n">
-        <v>0.191439</v>
+        <v>0.192234</v>
       </c>
       <c r="D42" t="n">
-        <v>0.431068</v>
+        <v>0.435384</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.201758</v>
+        <v>0.202797</v>
       </c>
       <c r="C43" t="n">
-        <v>0.186818</v>
+        <v>0.184132</v>
       </c>
       <c r="D43" t="n">
-        <v>0.425196</v>
+        <v>0.426343</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.195155</v>
+        <v>0.19743</v>
       </c>
       <c r="C44" t="n">
-        <v>0.179145</v>
+        <v>0.179294</v>
       </c>
       <c r="D44" t="n">
-        <v>0.418915</v>
+        <v>0.419823</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190794</v>
+        <v>0.191887</v>
       </c>
       <c r="C45" t="n">
-        <v>0.173928</v>
+        <v>0.173393</v>
       </c>
       <c r="D45" t="n">
-        <v>0.414632</v>
+        <v>0.417041</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.183817</v>
+        <v>0.186306</v>
       </c>
       <c r="C46" t="n">
-        <v>0.168954</v>
+        <v>0.166371</v>
       </c>
       <c r="D46" t="n">
-        <v>0.40958</v>
+        <v>0.4105</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.18022</v>
+        <v>0.181713</v>
       </c>
       <c r="C47" t="n">
-        <v>0.163663</v>
+        <v>0.163945</v>
       </c>
       <c r="D47" t="n">
-        <v>0.405111</v>
+        <v>0.406811</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175056</v>
+        <v>0.177569</v>
       </c>
       <c r="C48" t="n">
-        <v>0.160194</v>
+        <v>0.159033</v>
       </c>
       <c r="D48" t="n">
-        <v>0.401079</v>
+        <v>0.402657</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174192</v>
+        <v>0.174109</v>
       </c>
       <c r="C49" t="n">
-        <v>0.159002</v>
+        <v>0.157422</v>
       </c>
       <c r="D49" t="n">
-        <v>0.398914</v>
+        <v>0.400943</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172571</v>
+        <v>0.173635</v>
       </c>
       <c r="C50" t="n">
-        <v>0.157331</v>
+        <v>0.156421</v>
       </c>
       <c r="D50" t="n">
-        <v>0.503147</v>
+        <v>0.506372</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173154</v>
+        <v>0.174693</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242329</v>
+        <v>0.242762</v>
       </c>
       <c r="D51" t="n">
-        <v>0.492384</v>
+        <v>0.495946</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174975</v>
+        <v>0.178387</v>
       </c>
       <c r="C52" t="n">
-        <v>0.232874</v>
+        <v>0.23294</v>
       </c>
       <c r="D52" t="n">
-        <v>0.482301</v>
+        <v>0.485773</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.239909</v>
+        <v>0.244522</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224666</v>
+        <v>0.224275</v>
       </c>
       <c r="D53" t="n">
-        <v>0.472939</v>
+        <v>0.477488</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232111</v>
+        <v>0.23478</v>
       </c>
       <c r="C54" t="n">
-        <v>0.216011</v>
+        <v>0.21597</v>
       </c>
       <c r="D54" t="n">
-        <v>0.466216</v>
+        <v>0.468244</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.223508</v>
+        <v>0.226881</v>
       </c>
       <c r="C55" t="n">
-        <v>0.208663</v>
+        <v>0.207312</v>
       </c>
       <c r="D55" t="n">
-        <v>0.457846</v>
+        <v>0.459198</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216117</v>
+        <v>0.218753</v>
       </c>
       <c r="C56" t="n">
-        <v>0.200123</v>
+        <v>0.200108</v>
       </c>
       <c r="D56" t="n">
-        <v>0.451905</v>
+        <v>0.452283</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208584</v>
+        <v>0.211147</v>
       </c>
       <c r="C57" t="n">
-        <v>0.193327</v>
+        <v>0.192796</v>
       </c>
       <c r="D57" t="n">
-        <v>0.444817</v>
+        <v>0.446353</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.200772</v>
+        <v>0.204223</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186277</v>
+        <v>0.186393</v>
       </c>
       <c r="D58" t="n">
-        <v>0.438164</v>
+        <v>0.441334</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.195973</v>
+        <v>0.198247</v>
       </c>
       <c r="C59" t="n">
-        <v>0.180603</v>
+        <v>0.180292</v>
       </c>
       <c r="D59" t="n">
-        <v>0.43285</v>
+        <v>0.43443</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.18962</v>
+        <v>0.192253</v>
       </c>
       <c r="C60" t="n">
-        <v>0.175381</v>
+        <v>0.17447</v>
       </c>
       <c r="D60" t="n">
-        <v>0.428824</v>
+        <v>0.43011</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.184933</v>
+        <v>0.187028</v>
       </c>
       <c r="C61" t="n">
-        <v>0.169865</v>
+        <v>0.169692</v>
       </c>
       <c r="D61" t="n">
-        <v>0.423146</v>
+        <v>0.42581</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1808</v>
+        <v>0.183107</v>
       </c>
       <c r="C62" t="n">
-        <v>0.166342</v>
+        <v>0.165578</v>
       </c>
       <c r="D62" t="n">
-        <v>0.420087</v>
+        <v>0.421795</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177751</v>
+        <v>0.179814</v>
       </c>
       <c r="C63" t="n">
-        <v>0.163187</v>
+        <v>0.162546</v>
       </c>
       <c r="D63" t="n">
-        <v>0.417488</v>
+        <v>0.419445</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175901</v>
+        <v>0.177955</v>
       </c>
       <c r="C64" t="n">
-        <v>0.161594</v>
+        <v>0.160799</v>
       </c>
       <c r="D64" t="n">
-        <v>0.543864</v>
+        <v>0.546164</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.175593</v>
+        <v>0.178347</v>
       </c>
       <c r="C65" t="n">
-        <v>0.162458</v>
+        <v>0.161871</v>
       </c>
       <c r="D65" t="n">
-        <v>0.532867</v>
+        <v>0.535215</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.178065</v>
+        <v>0.181142</v>
       </c>
       <c r="C66" t="n">
-        <v>0.24374</v>
+        <v>0.244008</v>
       </c>
       <c r="D66" t="n">
-        <v>0.523168</v>
+        <v>0.526288</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243331</v>
+        <v>0.245572</v>
       </c>
       <c r="C67" t="n">
-        <v>0.234338</v>
+        <v>0.234928</v>
       </c>
       <c r="D67" t="n">
-        <v>0.515294</v>
+        <v>0.516107</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235731</v>
+        <v>0.235968</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223903</v>
+        <v>0.224476</v>
       </c>
       <c r="D68" t="n">
-        <v>0.505839</v>
+        <v>0.508477</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227402</v>
+        <v>0.227353</v>
       </c>
       <c r="C69" t="n">
-        <v>0.217912</v>
+        <v>0.217264</v>
       </c>
       <c r="D69" t="n">
-        <v>0.498996</v>
+        <v>0.5029130000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219938</v>
+        <v>0.219684</v>
       </c>
       <c r="C70" t="n">
-        <v>0.209851</v>
+        <v>0.208928</v>
       </c>
       <c r="D70" t="n">
-        <v>0.493625</v>
+        <v>0.493946</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.212089</v>
+        <v>0.212789</v>
       </c>
       <c r="C71" t="n">
-        <v>0.202046</v>
+        <v>0.201555</v>
       </c>
       <c r="D71" t="n">
-        <v>0.487455</v>
+        <v>0.4894</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.20497</v>
+        <v>0.205838</v>
       </c>
       <c r="C72" t="n">
-        <v>0.194916</v>
+        <v>0.195007</v>
       </c>
       <c r="D72" t="n">
-        <v>0.483636</v>
+        <v>0.485687</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.198678</v>
+        <v>0.199724</v>
       </c>
       <c r="C73" t="n">
-        <v>0.18929</v>
+        <v>0.188069</v>
       </c>
       <c r="D73" t="n">
-        <v>0.479793</v>
+        <v>0.481168</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193916</v>
+        <v>0.193809</v>
       </c>
       <c r="C74" t="n">
-        <v>0.183049</v>
+        <v>0.182358</v>
       </c>
       <c r="D74" t="n">
-        <v>0.495005</v>
+        <v>0.49392</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18884</v>
+        <v>0.188677</v>
       </c>
       <c r="C75" t="n">
-        <v>0.179281</v>
+        <v>0.177226</v>
       </c>
       <c r="D75" t="n">
-        <v>0.489559</v>
+        <v>0.490551</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.18364</v>
+        <v>0.184545</v>
       </c>
       <c r="C76" t="n">
-        <v>0.174807</v>
+        <v>0.172444</v>
       </c>
       <c r="D76" t="n">
-        <v>0.486249</v>
+        <v>0.487194</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.179914</v>
+        <v>0.181437</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172051</v>
+        <v>0.16943</v>
       </c>
       <c r="D77" t="n">
-        <v>0.48297</v>
+        <v>0.48451</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178236</v>
+        <v>0.179333</v>
       </c>
       <c r="C78" t="n">
-        <v>0.168732</v>
+        <v>0.166424</v>
       </c>
       <c r="D78" t="n">
-        <v>0.66417</v>
+        <v>0.661036</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178468</v>
+        <v>0.179541</v>
       </c>
       <c r="C79" t="n">
-        <v>0.168766</v>
+        <v>0.167827</v>
       </c>
       <c r="D79" t="n">
-        <v>0.650425</v>
+        <v>0.650971</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181046</v>
+        <v>0.18193</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242114</v>
+        <v>0.241708</v>
       </c>
       <c r="D80" t="n">
-        <v>0.640389</v>
+        <v>0.640024</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257215</v>
+        <v>0.259642</v>
       </c>
       <c r="C81" t="n">
-        <v>0.233351</v>
+        <v>0.232953</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6298550000000001</v>
+        <v>0.633004</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.24921</v>
+        <v>0.252444</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224814</v>
+        <v>0.224744</v>
       </c>
       <c r="D82" t="n">
-        <v>0.625536</v>
+        <v>0.6263339999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241134</v>
+        <v>0.243507</v>
       </c>
       <c r="C83" t="n">
-        <v>0.216297</v>
+        <v>0.216698</v>
       </c>
       <c r="D83" t="n">
-        <v>0.623265</v>
+        <v>0.621302</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234088</v>
+        <v>0.235612</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209257</v>
+        <v>0.209815</v>
       </c>
       <c r="D84" t="n">
-        <v>0.62019</v>
+        <v>0.616608</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227656</v>
+        <v>0.228547</v>
       </c>
       <c r="C85" t="n">
-        <v>0.202561</v>
+        <v>0.202507</v>
       </c>
       <c r="D85" t="n">
-        <v>0.617249</v>
+        <v>0.6142030000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.218988</v>
+        <v>0.221511</v>
       </c>
       <c r="C86" t="n">
-        <v>0.195303</v>
+        <v>0.195645</v>
       </c>
       <c r="D86" t="n">
-        <v>0.614185</v>
+        <v>0.613242</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213188</v>
+        <v>0.21463</v>
       </c>
       <c r="C87" t="n">
-        <v>0.189051</v>
+        <v>0.189505</v>
       </c>
       <c r="D87" t="n">
-        <v>0.612168</v>
+        <v>0.613114</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206594</v>
+        <v>0.208865</v>
       </c>
       <c r="C88" t="n">
-        <v>0.183698</v>
+        <v>0.183905</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6210639999999999</v>
+        <v>0.621965</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201044</v>
+        <v>0.202935</v>
       </c>
       <c r="C89" t="n">
-        <v>0.178227</v>
+        <v>0.178249</v>
       </c>
       <c r="D89" t="n">
-        <v>0.632734</v>
+        <v>0.629526</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196232</v>
+        <v>0.19782</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173689</v>
+        <v>0.174012</v>
       </c>
       <c r="D90" t="n">
-        <v>0.636409</v>
+        <v>0.632848</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192104</v>
+        <v>0.193647</v>
       </c>
       <c r="C91" t="n">
-        <v>0.170544</v>
+        <v>0.170906</v>
       </c>
       <c r="D91" t="n">
-        <v>0.64097</v>
+        <v>0.637792</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189066</v>
+        <v>0.191139</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167971</v>
+        <v>0.168604</v>
       </c>
       <c r="D92" t="n">
-        <v>0.854716</v>
+        <v>0.852532</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188601</v>
+        <v>0.189603</v>
       </c>
       <c r="C93" t="n">
-        <v>0.168477</v>
+        <v>0.168737</v>
       </c>
       <c r="D93" t="n">
-        <v>0.849989</v>
+        <v>0.84888</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.188876</v>
+        <v>0.190782</v>
       </c>
       <c r="C94" t="n">
-        <v>0.254746</v>
+        <v>0.254203</v>
       </c>
       <c r="D94" t="n">
-        <v>0.843439</v>
+        <v>0.843313</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.27163</v>
+        <v>0.27264</v>
       </c>
       <c r="C95" t="n">
-        <v>0.246933</v>
+        <v>0.246506</v>
       </c>
       <c r="D95" t="n">
-        <v>0.839051</v>
+        <v>0.838852</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265728</v>
+        <v>0.266078</v>
       </c>
       <c r="C96" t="n">
-        <v>0.238405</v>
+        <v>0.238495</v>
       </c>
       <c r="D96" t="n">
-        <v>0.837152</v>
+        <v>0.835538</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.25862</v>
+        <v>0.258922</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230642</v>
+        <v>0.230428</v>
       </c>
       <c r="D97" t="n">
-        <v>0.842343</v>
+        <v>0.8399799999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251943</v>
+        <v>0.252131</v>
       </c>
       <c r="C98" t="n">
-        <v>0.223104</v>
+        <v>0.222764</v>
       </c>
       <c r="D98" t="n">
-        <v>0.842353</v>
+        <v>0.83892</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244558</v>
+        <v>0.245359</v>
       </c>
       <c r="C99" t="n">
-        <v>0.215809</v>
+        <v>0.216035</v>
       </c>
       <c r="D99" t="n">
-        <v>0.840847</v>
+        <v>0.83705</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239691</v>
+        <v>0.239389</v>
       </c>
       <c r="C100" t="n">
-        <v>0.209016</v>
+        <v>0.209087</v>
       </c>
       <c r="D100" t="n">
-        <v>0.842368</v>
+        <v>0.838961</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233799</v>
+        <v>0.233531</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2027</v>
+        <v>0.202503</v>
       </c>
       <c r="D101" t="n">
-        <v>0.845433</v>
+        <v>0.8412809999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228324</v>
+        <v>0.228154</v>
       </c>
       <c r="C102" t="n">
-        <v>0.196987</v>
+        <v>0.197063</v>
       </c>
       <c r="D102" t="n">
-        <v>0.847591</v>
+        <v>0.845768</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223199</v>
+        <v>0.223173</v>
       </c>
       <c r="C103" t="n">
-        <v>0.191732</v>
+        <v>0.191797</v>
       </c>
       <c r="D103" t="n">
-        <v>0.859306</v>
+        <v>0.857561</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218231</v>
+        <v>0.218599</v>
       </c>
       <c r="C104" t="n">
-        <v>0.186968</v>
+        <v>0.187599</v>
       </c>
       <c r="D104" t="n">
-        <v>0.866473</v>
+        <v>0.862704</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214606</v>
+        <v>0.214585</v>
       </c>
       <c r="C105" t="n">
-        <v>0.183323</v>
+        <v>0.183549</v>
       </c>
       <c r="D105" t="n">
-        <v>0.873781</v>
+        <v>0.868217</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211198</v>
+        <v>0.211394</v>
       </c>
       <c r="C106" t="n">
-        <v>0.180482</v>
+        <v>0.18081</v>
       </c>
       <c r="D106" t="n">
-        <v>0.883015</v>
+        <v>0.878754</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208609</v>
+        <v>0.209213</v>
       </c>
       <c r="C107" t="n">
-        <v>0.179232</v>
+        <v>0.179677</v>
       </c>
       <c r="D107" t="n">
-        <v>1.12858</v>
+        <v>1.1237</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.20919</v>
+        <v>0.209344</v>
       </c>
       <c r="C108" t="n">
-        <v>0.270214</v>
+        <v>0.269854</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11773</v>
+        <v>1.11399</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210419</v>
+        <v>0.211606</v>
       </c>
       <c r="C109" t="n">
-        <v>0.26324</v>
+        <v>0.263284</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10873</v>
+        <v>1.10593</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.28474</v>
+        <v>0.285701</v>
       </c>
       <c r="C110" t="n">
-        <v>0.255134</v>
+        <v>0.255878</v>
       </c>
       <c r="D110" t="n">
-        <v>1.10418</v>
+        <v>1.09742</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279352</v>
+        <v>0.27942</v>
       </c>
       <c r="C111" t="n">
-        <v>0.248131</v>
+        <v>0.248052</v>
       </c>
       <c r="D111" t="n">
-        <v>1.10124</v>
+        <v>1.09807</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272696</v>
+        <v>0.272852</v>
       </c>
       <c r="C112" t="n">
-        <v>0.240354</v>
+        <v>0.241254</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09656</v>
+        <v>1.09234</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.26645</v>
+        <v>0.26706</v>
       </c>
       <c r="C113" t="n">
-        <v>0.233594</v>
+        <v>0.235172</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09186</v>
+        <v>1.0823</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.261445</v>
+        <v>0.261669</v>
       </c>
       <c r="C114" t="n">
-        <v>0.22709</v>
+        <v>0.229132</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09417</v>
+        <v>1.08461</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.256588</v>
+        <v>0.255677</v>
       </c>
       <c r="C115" t="n">
-        <v>0.22143</v>
+        <v>0.223238</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09417</v>
+        <v>1.09305</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.25042</v>
+        <v>0.25092</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215572</v>
+        <v>0.217397</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09533</v>
+        <v>1.09135</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.246285</v>
+        <v>0.2465</v>
       </c>
       <c r="C117" t="n">
-        <v>0.210824</v>
+        <v>0.212337</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1019</v>
+        <v>1.09898</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.242452</v>
+        <v>0.242144</v>
       </c>
       <c r="C118" t="n">
-        <v>0.206184</v>
+        <v>0.207977</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10372</v>
+        <v>1.1026</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238341</v>
+        <v>0.238347</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202222</v>
+        <v>0.204081</v>
       </c>
       <c r="D119" t="n">
-        <v>1.11426</v>
+        <v>1.11202</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234971</v>
+        <v>0.235221</v>
       </c>
       <c r="C120" t="n">
-        <v>0.199437</v>
+        <v>0.201521</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11985</v>
+        <v>1.11771</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232822</v>
+        <v>0.232876</v>
       </c>
       <c r="C121" t="n">
-        <v>0.198432</v>
+        <v>0.199996</v>
       </c>
       <c r="D121" t="n">
-        <v>1.38305</v>
+        <v>1.38082</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.232124</v>
+        <v>0.232038</v>
       </c>
       <c r="C122" t="n">
-        <v>0.198605</v>
+        <v>0.200804</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36949</v>
+        <v>1.36697</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233228</v>
+        <v>0.233042</v>
       </c>
       <c r="C123" t="n">
-        <v>0.283726</v>
+        <v>0.285016</v>
       </c>
       <c r="D123" t="n">
-        <v>1.35582</v>
+        <v>1.35378</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.317553</v>
+        <v>0.317711</v>
       </c>
       <c r="C124" t="n">
-        <v>0.277136</v>
+        <v>0.279068</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34257</v>
+        <v>1.33956</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311107</v>
+        <v>0.312115</v>
       </c>
       <c r="C125" t="n">
-        <v>0.27094</v>
+        <v>0.273677</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33575</v>
+        <v>1.33162</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305616</v>
+        <v>0.305769</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265239</v>
+        <v>0.268278</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32557</v>
+        <v>1.32169</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29993</v>
+        <v>0.300053</v>
       </c>
       <c r="C127" t="n">
-        <v>0.26004</v>
+        <v>0.263249</v>
       </c>
       <c r="D127" t="n">
-        <v>1.3187</v>
+        <v>1.31377</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.294921</v>
+        <v>0.294951</v>
       </c>
       <c r="C128" t="n">
-        <v>0.255378</v>
+        <v>0.258549</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31313</v>
+        <v>1.30915</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290612</v>
+        <v>0.290231</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251118</v>
+        <v>0.253871</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30902</v>
+        <v>1.30351</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286535</v>
+        <v>0.286052</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246459</v>
+        <v>0.250111</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30457</v>
+        <v>1.30269</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281678</v>
+        <v>0.282232</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242335</v>
+        <v>0.246388</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30408</v>
+        <v>1.30035</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.277964</v>
+        <v>0.278564</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238892</v>
+        <v>0.243102</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30592</v>
+        <v>1.30185</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.274791</v>
+        <v>0.275684</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235795</v>
+        <v>0.240112</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30686</v>
+        <v>1.30282</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.272665</v>
+        <v>0.273019</v>
       </c>
       <c r="C134" t="n">
-        <v>0.233934</v>
+        <v>0.237712</v>
       </c>
       <c r="D134" t="n">
-        <v>1.3096</v>
+        <v>1.30501</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270817</v>
+        <v>0.271381</v>
       </c>
       <c r="C135" t="n">
-        <v>0.232041</v>
+        <v>0.236283</v>
       </c>
       <c r="D135" t="n">
-        <v>1.58363</v>
+        <v>1.5808</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.269507</v>
+        <v>0.270606</v>
       </c>
       <c r="C136" t="n">
-        <v>0.233154</v>
+        <v>0.236678</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55016</v>
+        <v>1.55856</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.270657</v>
+        <v>0.271376</v>
       </c>
       <c r="C137" t="n">
-        <v>0.33125</v>
+        <v>0.334236</v>
       </c>
       <c r="D137" t="n">
-        <v>1.52904</v>
+        <v>1.5395</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.362923</v>
+        <v>0.362322</v>
       </c>
       <c r="C138" t="n">
-        <v>0.321587</v>
+        <v>0.329108</v>
       </c>
       <c r="D138" t="n">
-        <v>1.5081</v>
+        <v>1.52039</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.358997</v>
+        <v>0.356275</v>
       </c>
       <c r="C139" t="n">
-        <v>0.31624</v>
+        <v>0.324014</v>
       </c>
       <c r="D139" t="n">
-        <v>1.50597</v>
+        <v>1.50534</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.352711</v>
+        <v>0.35116</v>
       </c>
       <c r="C140" t="n">
-        <v>0.310445</v>
+        <v>0.31918</v>
       </c>
       <c r="D140" t="n">
-        <v>1.49514</v>
+        <v>1.49019</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.347576</v>
+        <v>0.345752</v>
       </c>
       <c r="C141" t="n">
-        <v>0.306173</v>
+        <v>0.314502</v>
       </c>
       <c r="D141" t="n">
-        <v>1.48303</v>
+        <v>1.47713</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.34304</v>
+        <v>0.341876</v>
       </c>
       <c r="C142" t="n">
-        <v>0.301251</v>
+        <v>0.310917</v>
       </c>
       <c r="D142" t="n">
-        <v>1.47172</v>
+        <v>1.46846</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.338531</v>
+        <v>0.337116</v>
       </c>
       <c r="C143" t="n">
-        <v>0.297468</v>
+        <v>0.3069</v>
       </c>
       <c r="D143" t="n">
-        <v>1.46443</v>
+        <v>1.46107</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.158659</v>
+        <v>0.151027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.14865</v>
+        <v>0.138422</v>
       </c>
       <c r="D2" t="n">
-        <v>0.346377</v>
+        <v>0.346713</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.161098</v>
+        <v>0.154613</v>
       </c>
       <c r="C3" t="n">
-        <v>0.139425</v>
+        <v>0.133272</v>
       </c>
       <c r="D3" t="n">
-        <v>0.343112</v>
+        <v>0.34297</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.154785</v>
+        <v>0.154502</v>
       </c>
       <c r="C4" t="n">
-        <v>0.146203</v>
+        <v>0.134971</v>
       </c>
       <c r="D4" t="n">
-        <v>0.339874</v>
+        <v>0.339651</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.158886</v>
+        <v>0.154533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.134312</v>
+        <v>0.123967</v>
       </c>
       <c r="D5" t="n">
-        <v>0.337445</v>
+        <v>0.338413</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.154943</v>
+        <v>0.158535</v>
       </c>
       <c r="C6" t="n">
-        <v>0.120061</v>
+        <v>0.126471</v>
       </c>
       <c r="D6" t="n">
-        <v>0.336367</v>
+        <v>0.336825</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.153789</v>
+        <v>0.148312</v>
       </c>
       <c r="C7" t="n">
-        <v>0.128537</v>
+        <v>0.117973</v>
       </c>
       <c r="D7" t="n">
-        <v>0.45198</v>
+        <v>0.443214</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.149653</v>
+        <v>0.156555</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116748</v>
+        <v>0.122458</v>
       </c>
       <c r="D8" t="n">
-        <v>0.432891</v>
+        <v>0.441712</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152078</v>
+        <v>0.150548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.186181</v>
+        <v>0.194162</v>
       </c>
       <c r="D9" t="n">
-        <v>0.431487</v>
+        <v>0.428041</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.221886</v>
+        <v>0.206135</v>
       </c>
       <c r="C10" t="n">
-        <v>0.18115</v>
+        <v>0.178135</v>
       </c>
       <c r="D10" t="n">
-        <v>0.426021</v>
+        <v>0.423452</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.207952</v>
+        <v>0.203752</v>
       </c>
       <c r="C11" t="n">
-        <v>0.174363</v>
+        <v>0.173586</v>
       </c>
       <c r="D11" t="n">
-        <v>0.414902</v>
+        <v>0.409679</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.203804</v>
+        <v>0.194175</v>
       </c>
       <c r="C12" t="n">
-        <v>0.174222</v>
+        <v>0.161549</v>
       </c>
       <c r="D12" t="n">
-        <v>0.402958</v>
+        <v>0.402638</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.189824</v>
+        <v>0.186392</v>
       </c>
       <c r="C13" t="n">
-        <v>0.160656</v>
+        <v>0.157091</v>
       </c>
       <c r="D13" t="n">
-        <v>0.398352</v>
+        <v>0.39928</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.185428</v>
+        <v>0.192786</v>
       </c>
       <c r="C14" t="n">
-        <v>0.158162</v>
+        <v>0.166613</v>
       </c>
       <c r="D14" t="n">
-        <v>0.404513</v>
+        <v>0.397738</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.183677</v>
+        <v>0.175205</v>
       </c>
       <c r="C15" t="n">
-        <v>0.158966</v>
+        <v>0.158048</v>
       </c>
       <c r="D15" t="n">
-        <v>0.38872</v>
+        <v>0.389998</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.17655</v>
+        <v>0.179537</v>
       </c>
       <c r="C16" t="n">
-        <v>0.150735</v>
+        <v>0.144736</v>
       </c>
       <c r="D16" t="n">
-        <v>0.391832</v>
+        <v>0.382266</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.16626</v>
+        <v>0.16519</v>
       </c>
       <c r="C17" t="n">
-        <v>0.138444</v>
+        <v>0.136932</v>
       </c>
       <c r="D17" t="n">
-        <v>0.385509</v>
+        <v>0.380348</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.163419</v>
+        <v>0.161532</v>
       </c>
       <c r="C18" t="n">
-        <v>0.133414</v>
+        <v>0.133372</v>
       </c>
       <c r="D18" t="n">
-        <v>0.384012</v>
+        <v>0.375934</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.159237</v>
+        <v>0.159367</v>
       </c>
       <c r="C19" t="n">
-        <v>0.133441</v>
+        <v>0.132348</v>
       </c>
       <c r="D19" t="n">
-        <v>0.374286</v>
+        <v>0.37794</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.159979</v>
+        <v>0.154501</v>
       </c>
       <c r="C20" t="n">
-        <v>0.137717</v>
+        <v>0.136143</v>
       </c>
       <c r="D20" t="n">
-        <v>0.374142</v>
+        <v>0.369228</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.159707</v>
+        <v>0.153177</v>
       </c>
       <c r="C21" t="n">
-        <v>0.139025</v>
+        <v>0.125582</v>
       </c>
       <c r="D21" t="n">
-        <v>0.476956</v>
+        <v>0.475311</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.155357</v>
+        <v>0.15307</v>
       </c>
       <c r="C22" t="n">
-        <v>0.136242</v>
+        <v>0.126814</v>
       </c>
       <c r="D22" t="n">
-        <v>0.462328</v>
+        <v>0.464641</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.15882</v>
+        <v>0.159212</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214522</v>
+        <v>0.218049</v>
       </c>
       <c r="D23" t="n">
-        <v>0.460268</v>
+        <v>0.456606</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238374</v>
+        <v>0.23845</v>
       </c>
       <c r="C24" t="n">
-        <v>0.211237</v>
+        <v>0.208197</v>
       </c>
       <c r="D24" t="n">
-        <v>0.448675</v>
+        <v>0.450007</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235203</v>
+        <v>0.228745</v>
       </c>
       <c r="C25" t="n">
-        <v>0.205523</v>
+        <v>0.195747</v>
       </c>
       <c r="D25" t="n">
-        <v>0.442326</v>
+        <v>0.438723</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.226952</v>
+        <v>0.22451</v>
       </c>
       <c r="C26" t="n">
-        <v>0.200803</v>
+        <v>0.201852</v>
       </c>
       <c r="D26" t="n">
-        <v>0.432396</v>
+        <v>0.433312</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.220504</v>
+        <v>0.216976</v>
       </c>
       <c r="C27" t="n">
-        <v>0.194077</v>
+        <v>0.191335</v>
       </c>
       <c r="D27" t="n">
-        <v>0.426145</v>
+        <v>0.427934</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.212552</v>
+        <v>0.210774</v>
       </c>
       <c r="C28" t="n">
-        <v>0.180127</v>
+        <v>0.184716</v>
       </c>
       <c r="D28" t="n">
-        <v>0.421648</v>
+        <v>0.421377</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.202501</v>
+        <v>0.204721</v>
       </c>
       <c r="C29" t="n">
-        <v>0.176276</v>
+        <v>0.177072</v>
       </c>
       <c r="D29" t="n">
-        <v>0.416563</v>
+        <v>0.414401</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.200266</v>
+        <v>0.198267</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1703</v>
+        <v>0.171179</v>
       </c>
       <c r="D30" t="n">
-        <v>0.411541</v>
+        <v>0.410899</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.192761</v>
+        <v>0.188597</v>
       </c>
       <c r="C31" t="n">
-        <v>0.169086</v>
+        <v>0.166226</v>
       </c>
       <c r="D31" t="n">
-        <v>0.403742</v>
+        <v>0.405117</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.183718</v>
+        <v>0.184848</v>
       </c>
       <c r="C32" t="n">
-        <v>0.157137</v>
+        <v>0.161231</v>
       </c>
       <c r="D32" t="n">
-        <v>0.398152</v>
+        <v>0.400239</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.176208</v>
+        <v>0.179463</v>
       </c>
       <c r="C33" t="n">
-        <v>0.162395</v>
+        <v>0.161611</v>
       </c>
       <c r="D33" t="n">
-        <v>0.395727</v>
+        <v>0.395257</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.175749</v>
+        <v>0.17537</v>
       </c>
       <c r="C34" t="n">
-        <v>0.159589</v>
+        <v>0.153572</v>
       </c>
       <c r="D34" t="n">
-        <v>0.390928</v>
+        <v>0.3904</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.173483</v>
+        <v>0.170063</v>
       </c>
       <c r="C35" t="n">
-        <v>0.152885</v>
+        <v>0.150584</v>
       </c>
       <c r="D35" t="n">
-        <v>0.495303</v>
+        <v>0.496645</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.171505</v>
+        <v>0.171976</v>
       </c>
       <c r="C36" t="n">
-        <v>0.149869</v>
+        <v>0.154828</v>
       </c>
       <c r="D36" t="n">
-        <v>0.483112</v>
+        <v>0.483412</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173119</v>
+        <v>0.171795</v>
       </c>
       <c r="C37" t="n">
-        <v>0.23404</v>
+        <v>0.23082</v>
       </c>
       <c r="D37" t="n">
-        <v>0.473112</v>
+        <v>0.472951</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246249</v>
+        <v>0.246502</v>
       </c>
       <c r="C38" t="n">
-        <v>0.222619</v>
+        <v>0.222346</v>
       </c>
       <c r="D38" t="n">
-        <v>0.462966</v>
+        <v>0.463967</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236821</v>
+        <v>0.237467</v>
       </c>
       <c r="C39" t="n">
-        <v>0.215764</v>
+        <v>0.214263</v>
       </c>
       <c r="D39" t="n">
-        <v>0.455747</v>
+        <v>0.457155</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.228245</v>
+        <v>0.228522</v>
       </c>
       <c r="C40" t="n">
-        <v>0.204915</v>
+        <v>0.205957</v>
       </c>
       <c r="D40" t="n">
-        <v>0.446781</v>
+        <v>0.446592</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.219949</v>
+        <v>0.220106</v>
       </c>
       <c r="C41" t="n">
-        <v>0.199146</v>
+        <v>0.198103</v>
       </c>
       <c r="D41" t="n">
-        <v>0.439249</v>
+        <v>0.439508</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.211504</v>
+        <v>0.212864</v>
       </c>
       <c r="C42" t="n">
-        <v>0.192234</v>
+        <v>0.190945</v>
       </c>
       <c r="D42" t="n">
-        <v>0.435384</v>
+        <v>0.434979</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202797</v>
+        <v>0.205373</v>
       </c>
       <c r="C43" t="n">
-        <v>0.184132</v>
+        <v>0.185335</v>
       </c>
       <c r="D43" t="n">
-        <v>0.426343</v>
+        <v>0.426259</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.19743</v>
+        <v>0.198794</v>
       </c>
       <c r="C44" t="n">
-        <v>0.179294</v>
+        <v>0.177401</v>
       </c>
       <c r="D44" t="n">
-        <v>0.419823</v>
+        <v>0.421947</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.191887</v>
+        <v>0.192543</v>
       </c>
       <c r="C45" t="n">
-        <v>0.173393</v>
+        <v>0.172223</v>
       </c>
       <c r="D45" t="n">
-        <v>0.417041</v>
+        <v>0.418125</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.186306</v>
+        <v>0.18658</v>
       </c>
       <c r="C46" t="n">
-        <v>0.166371</v>
+        <v>0.165978</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4105</v>
+        <v>0.41231</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.181713</v>
+        <v>0.182155</v>
       </c>
       <c r="C47" t="n">
-        <v>0.163945</v>
+        <v>0.162226</v>
       </c>
       <c r="D47" t="n">
-        <v>0.406811</v>
+        <v>0.408517</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.177569</v>
+        <v>0.178194</v>
       </c>
       <c r="C48" t="n">
-        <v>0.159033</v>
+        <v>0.159124</v>
       </c>
       <c r="D48" t="n">
-        <v>0.402657</v>
+        <v>0.403937</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174109</v>
+        <v>0.175652</v>
       </c>
       <c r="C49" t="n">
-        <v>0.157422</v>
+        <v>0.156235</v>
       </c>
       <c r="D49" t="n">
-        <v>0.400943</v>
+        <v>0.400494</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173635</v>
+        <v>0.17408</v>
       </c>
       <c r="C50" t="n">
-        <v>0.156421</v>
+        <v>0.156098</v>
       </c>
       <c r="D50" t="n">
-        <v>0.506372</v>
+        <v>0.508317</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174693</v>
+        <v>0.17449</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242762</v>
+        <v>0.241292</v>
       </c>
       <c r="D51" t="n">
-        <v>0.495946</v>
+        <v>0.49435</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178387</v>
+        <v>0.17787</v>
       </c>
       <c r="C52" t="n">
-        <v>0.23294</v>
+        <v>0.231604</v>
       </c>
       <c r="D52" t="n">
-        <v>0.485773</v>
+        <v>0.486397</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244522</v>
+        <v>0.243403</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224275</v>
+        <v>0.222842</v>
       </c>
       <c r="D53" t="n">
-        <v>0.477488</v>
+        <v>0.475309</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.23478</v>
+        <v>0.234038</v>
       </c>
       <c r="C54" t="n">
-        <v>0.21597</v>
+        <v>0.214367</v>
       </c>
       <c r="D54" t="n">
-        <v>0.468244</v>
+        <v>0.470016</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.226881</v>
+        <v>0.225293</v>
       </c>
       <c r="C55" t="n">
-        <v>0.207312</v>
+        <v>0.205956</v>
       </c>
       <c r="D55" t="n">
-        <v>0.459198</v>
+        <v>0.458921</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.218753</v>
+        <v>0.217747</v>
       </c>
       <c r="C56" t="n">
-        <v>0.200108</v>
+        <v>0.199284</v>
       </c>
       <c r="D56" t="n">
-        <v>0.452283</v>
+        <v>0.452037</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.211147</v>
+        <v>0.211195</v>
       </c>
       <c r="C57" t="n">
-        <v>0.192796</v>
+        <v>0.191615</v>
       </c>
       <c r="D57" t="n">
-        <v>0.446353</v>
+        <v>0.445177</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.204223</v>
+        <v>0.203591</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186393</v>
+        <v>0.185139</v>
       </c>
       <c r="D58" t="n">
-        <v>0.441334</v>
+        <v>0.438339</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.198247</v>
+        <v>0.197597</v>
       </c>
       <c r="C59" t="n">
-        <v>0.180292</v>
+        <v>0.179284</v>
       </c>
       <c r="D59" t="n">
-        <v>0.43443</v>
+        <v>0.434398</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.192253</v>
+        <v>0.191705</v>
       </c>
       <c r="C60" t="n">
-        <v>0.17447</v>
+        <v>0.173371</v>
       </c>
       <c r="D60" t="n">
-        <v>0.43011</v>
+        <v>0.429073</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.187028</v>
+        <v>0.187175</v>
       </c>
       <c r="C61" t="n">
-        <v>0.169692</v>
+        <v>0.168835</v>
       </c>
       <c r="D61" t="n">
-        <v>0.42581</v>
+        <v>0.426352</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.183107</v>
+        <v>0.182694</v>
       </c>
       <c r="C62" t="n">
-        <v>0.165578</v>
+        <v>0.165112</v>
       </c>
       <c r="D62" t="n">
-        <v>0.421795</v>
+        <v>0.423473</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.179814</v>
+        <v>0.180076</v>
       </c>
       <c r="C63" t="n">
-        <v>0.162546</v>
+        <v>0.162073</v>
       </c>
       <c r="D63" t="n">
-        <v>0.419445</v>
+        <v>0.41918</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177955</v>
+        <v>0.178487</v>
       </c>
       <c r="C64" t="n">
-        <v>0.160799</v>
+        <v>0.160405</v>
       </c>
       <c r="D64" t="n">
-        <v>0.546164</v>
+        <v>0.546455</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178347</v>
+        <v>0.178667</v>
       </c>
       <c r="C65" t="n">
-        <v>0.161871</v>
+        <v>0.16111</v>
       </c>
       <c r="D65" t="n">
-        <v>0.535215</v>
+        <v>0.534612</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.181142</v>
+        <v>0.181639</v>
       </c>
       <c r="C66" t="n">
-        <v>0.244008</v>
+        <v>0.243983</v>
       </c>
       <c r="D66" t="n">
-        <v>0.526288</v>
+        <v>0.52455</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.245572</v>
+        <v>0.247351</v>
       </c>
       <c r="C67" t="n">
-        <v>0.234928</v>
+        <v>0.232923</v>
       </c>
       <c r="D67" t="n">
-        <v>0.516107</v>
+        <v>0.516053</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235968</v>
+        <v>0.239208</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224476</v>
+        <v>0.225023</v>
       </c>
       <c r="D68" t="n">
-        <v>0.508477</v>
+        <v>0.510695</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227353</v>
+        <v>0.230375</v>
       </c>
       <c r="C69" t="n">
-        <v>0.217264</v>
+        <v>0.217801</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5029130000000001</v>
+        <v>0.503057</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219684</v>
+        <v>0.22328</v>
       </c>
       <c r="C70" t="n">
-        <v>0.208928</v>
+        <v>0.210013</v>
       </c>
       <c r="D70" t="n">
-        <v>0.493946</v>
+        <v>0.496096</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.212789</v>
+        <v>0.21613</v>
       </c>
       <c r="C71" t="n">
-        <v>0.201555</v>
+        <v>0.202525</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4894</v>
+        <v>0.489111</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205838</v>
+        <v>0.20974</v>
       </c>
       <c r="C72" t="n">
-        <v>0.195007</v>
+        <v>0.195447</v>
       </c>
       <c r="D72" t="n">
-        <v>0.485687</v>
+        <v>0.485727</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199724</v>
+        <v>0.202225</v>
       </c>
       <c r="C73" t="n">
-        <v>0.188069</v>
+        <v>0.189067</v>
       </c>
       <c r="D73" t="n">
-        <v>0.481168</v>
+        <v>0.481834</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193809</v>
+        <v>0.196256</v>
       </c>
       <c r="C74" t="n">
-        <v>0.182358</v>
+        <v>0.182632</v>
       </c>
       <c r="D74" t="n">
-        <v>0.49392</v>
+        <v>0.493357</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188677</v>
+        <v>0.191309</v>
       </c>
       <c r="C75" t="n">
-        <v>0.177226</v>
+        <v>0.177568</v>
       </c>
       <c r="D75" t="n">
-        <v>0.490551</v>
+        <v>0.49197</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.184545</v>
+        <v>0.187386</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172444</v>
+        <v>0.172921</v>
       </c>
       <c r="D76" t="n">
-        <v>0.487194</v>
+        <v>0.487143</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181437</v>
+        <v>0.182795</v>
       </c>
       <c r="C77" t="n">
-        <v>0.16943</v>
+        <v>0.169549</v>
       </c>
       <c r="D77" t="n">
-        <v>0.48451</v>
+        <v>0.483862</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179333</v>
+        <v>0.181485</v>
       </c>
       <c r="C78" t="n">
-        <v>0.166424</v>
+        <v>0.167424</v>
       </c>
       <c r="D78" t="n">
-        <v>0.661036</v>
+        <v>0.66315</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179541</v>
+        <v>0.181545</v>
       </c>
       <c r="C79" t="n">
-        <v>0.167827</v>
+        <v>0.167188</v>
       </c>
       <c r="D79" t="n">
-        <v>0.650971</v>
+        <v>0.65221</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.18193</v>
+        <v>0.183045</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241708</v>
+        <v>0.241057</v>
       </c>
       <c r="D80" t="n">
-        <v>0.640024</v>
+        <v>0.641151</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259642</v>
+        <v>0.260102</v>
       </c>
       <c r="C81" t="n">
-        <v>0.232953</v>
+        <v>0.232815</v>
       </c>
       <c r="D81" t="n">
-        <v>0.633004</v>
+        <v>0.633646</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.252444</v>
+        <v>0.251905</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224744</v>
+        <v>0.224533</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6263339999999999</v>
+        <v>0.6273030000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243507</v>
+        <v>0.243958</v>
       </c>
       <c r="C83" t="n">
-        <v>0.216698</v>
+        <v>0.216472</v>
       </c>
       <c r="D83" t="n">
-        <v>0.621302</v>
+        <v>0.61992</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235612</v>
+        <v>0.236402</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209815</v>
+        <v>0.209206</v>
       </c>
       <c r="D84" t="n">
-        <v>0.616608</v>
+        <v>0.618355</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.228547</v>
+        <v>0.22856</v>
       </c>
       <c r="C85" t="n">
-        <v>0.202507</v>
+        <v>0.201715</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6142030000000001</v>
+        <v>0.61598</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.221511</v>
+        <v>0.222144</v>
       </c>
       <c r="C86" t="n">
-        <v>0.195645</v>
+        <v>0.195005</v>
       </c>
       <c r="D86" t="n">
-        <v>0.613242</v>
+        <v>0.614083</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.21463</v>
+        <v>0.214926</v>
       </c>
       <c r="C87" t="n">
-        <v>0.189505</v>
+        <v>0.188749</v>
       </c>
       <c r="D87" t="n">
-        <v>0.613114</v>
+        <v>0.615139</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208865</v>
+        <v>0.208582</v>
       </c>
       <c r="C88" t="n">
-        <v>0.183905</v>
+        <v>0.183252</v>
       </c>
       <c r="D88" t="n">
-        <v>0.621965</v>
+        <v>0.616509</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.202935</v>
+        <v>0.203056</v>
       </c>
       <c r="C89" t="n">
-        <v>0.178249</v>
+        <v>0.178204</v>
       </c>
       <c r="D89" t="n">
-        <v>0.629526</v>
+        <v>0.629589</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19782</v>
+        <v>0.19818</v>
       </c>
       <c r="C90" t="n">
-        <v>0.174012</v>
+        <v>0.173774</v>
       </c>
       <c r="D90" t="n">
-        <v>0.632848</v>
+        <v>0.633431</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193647</v>
+        <v>0.19431</v>
       </c>
       <c r="C91" t="n">
-        <v>0.170906</v>
+        <v>0.170332</v>
       </c>
       <c r="D91" t="n">
-        <v>0.637792</v>
+        <v>0.6378</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191139</v>
+        <v>0.191244</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168604</v>
+        <v>0.168209</v>
       </c>
       <c r="D92" t="n">
-        <v>0.852532</v>
+        <v>0.851248</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189603</v>
+        <v>0.189939</v>
       </c>
       <c r="C93" t="n">
-        <v>0.168737</v>
+        <v>0.167887</v>
       </c>
       <c r="D93" t="n">
-        <v>0.84888</v>
+        <v>0.8456360000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190782</v>
+        <v>0.190795</v>
       </c>
       <c r="C94" t="n">
-        <v>0.254203</v>
+        <v>0.253803</v>
       </c>
       <c r="D94" t="n">
-        <v>0.843313</v>
+        <v>0.842193</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.27264</v>
+        <v>0.272935</v>
       </c>
       <c r="C95" t="n">
-        <v>0.246506</v>
+        <v>0.245761</v>
       </c>
       <c r="D95" t="n">
-        <v>0.838852</v>
+        <v>0.836674</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.266078</v>
+        <v>0.266653</v>
       </c>
       <c r="C96" t="n">
-        <v>0.238495</v>
+        <v>0.238014</v>
       </c>
       <c r="D96" t="n">
-        <v>0.835538</v>
+        <v>0.833461</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258922</v>
+        <v>0.259564</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230428</v>
+        <v>0.229775</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8399799999999999</v>
+        <v>0.8394239999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252131</v>
+        <v>0.253002</v>
       </c>
       <c r="C98" t="n">
-        <v>0.222764</v>
+        <v>0.222431</v>
       </c>
       <c r="D98" t="n">
-        <v>0.83892</v>
+        <v>0.837679</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245359</v>
+        <v>0.246578</v>
       </c>
       <c r="C99" t="n">
-        <v>0.216035</v>
+        <v>0.215037</v>
       </c>
       <c r="D99" t="n">
-        <v>0.83705</v>
+        <v>0.8355669999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239389</v>
+        <v>0.240328</v>
       </c>
       <c r="C100" t="n">
-        <v>0.209087</v>
+        <v>0.208753</v>
       </c>
       <c r="D100" t="n">
-        <v>0.838961</v>
+        <v>0.836598</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233531</v>
+        <v>0.234512</v>
       </c>
       <c r="C101" t="n">
-        <v>0.202503</v>
+        <v>0.202368</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8412809999999999</v>
+        <v>0.840087</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228154</v>
+        <v>0.22887</v>
       </c>
       <c r="C102" t="n">
-        <v>0.197063</v>
+        <v>0.196888</v>
       </c>
       <c r="D102" t="n">
-        <v>0.845768</v>
+        <v>0.842758</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223173</v>
+        <v>0.223796</v>
       </c>
       <c r="C103" t="n">
-        <v>0.191797</v>
+        <v>0.191536</v>
       </c>
       <c r="D103" t="n">
-        <v>0.857561</v>
+        <v>0.857027</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218599</v>
+        <v>0.2193</v>
       </c>
       <c r="C104" t="n">
-        <v>0.187599</v>
+        <v>0.186954</v>
       </c>
       <c r="D104" t="n">
-        <v>0.862704</v>
+        <v>0.861546</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214585</v>
+        <v>0.215363</v>
       </c>
       <c r="C105" t="n">
-        <v>0.183549</v>
+        <v>0.183297</v>
       </c>
       <c r="D105" t="n">
-        <v>0.868217</v>
+        <v>0.868042</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211394</v>
+        <v>0.21224</v>
       </c>
       <c r="C106" t="n">
-        <v>0.18081</v>
+        <v>0.18042</v>
       </c>
       <c r="D106" t="n">
-        <v>0.878754</v>
+        <v>0.876494</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209213</v>
+        <v>0.209771</v>
       </c>
       <c r="C107" t="n">
-        <v>0.179677</v>
+        <v>0.179381</v>
       </c>
       <c r="D107" t="n">
-        <v>1.1237</v>
+        <v>1.12114</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.209344</v>
+        <v>0.209884</v>
       </c>
       <c r="C108" t="n">
-        <v>0.269854</v>
+        <v>0.268947</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11399</v>
+        <v>1.11129</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211606</v>
+        <v>0.211834</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263284</v>
+        <v>0.263054</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10593</v>
+        <v>1.10281</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285701</v>
+        <v>0.286382</v>
       </c>
       <c r="C110" t="n">
-        <v>0.255878</v>
+        <v>0.255563</v>
       </c>
       <c r="D110" t="n">
-        <v>1.09742</v>
+        <v>1.09548</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.27942</v>
+        <v>0.279713</v>
       </c>
       <c r="C111" t="n">
-        <v>0.248052</v>
+        <v>0.247905</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09807</v>
+        <v>1.09357</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272852</v>
+        <v>0.273401</v>
       </c>
       <c r="C112" t="n">
-        <v>0.241254</v>
+        <v>0.240901</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09234</v>
+        <v>1.08659</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.26706</v>
+        <v>0.266979</v>
       </c>
       <c r="C113" t="n">
-        <v>0.235172</v>
+        <v>0.235402</v>
       </c>
       <c r="D113" t="n">
-        <v>1.0823</v>
+        <v>1.08531</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.261669</v>
+        <v>0.261288</v>
       </c>
       <c r="C114" t="n">
-        <v>0.229132</v>
+        <v>0.228734</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08461</v>
+        <v>1.09309</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255677</v>
+        <v>0.256469</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223238</v>
+        <v>0.222415</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09305</v>
+        <v>1.08802</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.25092</v>
+        <v>0.251435</v>
       </c>
       <c r="C116" t="n">
-        <v>0.217397</v>
+        <v>0.217092</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09135</v>
+        <v>1.09052</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2465</v>
+        <v>0.246994</v>
       </c>
       <c r="C117" t="n">
-        <v>0.212337</v>
+        <v>0.212289</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09898</v>
+        <v>1.09719</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.242144</v>
+        <v>0.242769</v>
       </c>
       <c r="C118" t="n">
-        <v>0.207977</v>
+        <v>0.207931</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1026</v>
+        <v>1.09893</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238347</v>
+        <v>0.238957</v>
       </c>
       <c r="C119" t="n">
-        <v>0.204081</v>
+        <v>0.204201</v>
       </c>
       <c r="D119" t="n">
-        <v>1.11202</v>
+        <v>1.10784</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.235221</v>
+        <v>0.2358</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201521</v>
+        <v>0.201322</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11771</v>
+        <v>1.11412</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232876</v>
+        <v>0.233469</v>
       </c>
       <c r="C121" t="n">
-        <v>0.199996</v>
+        <v>0.199921</v>
       </c>
       <c r="D121" t="n">
-        <v>1.38082</v>
+        <v>1.37898</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.232038</v>
+        <v>0.232713</v>
       </c>
       <c r="C122" t="n">
-        <v>0.200804</v>
+        <v>0.200676</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36697</v>
+        <v>1.36219</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233042</v>
+        <v>0.233658</v>
       </c>
       <c r="C123" t="n">
-        <v>0.285016</v>
+        <v>0.285289</v>
       </c>
       <c r="D123" t="n">
-        <v>1.35378</v>
+        <v>1.34891</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.317711</v>
+        <v>0.318055</v>
       </c>
       <c r="C124" t="n">
-        <v>0.279068</v>
+        <v>0.279252</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33956</v>
+        <v>1.33734</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.312115</v>
+        <v>0.312136</v>
       </c>
       <c r="C125" t="n">
-        <v>0.273677</v>
+        <v>0.273665</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33162</v>
+        <v>1.32806</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305769</v>
+        <v>0.305957</v>
       </c>
       <c r="C126" t="n">
-        <v>0.268278</v>
+        <v>0.268237</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32169</v>
+        <v>1.32007</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.300053</v>
+        <v>0.301035</v>
       </c>
       <c r="C127" t="n">
-        <v>0.263249</v>
+        <v>0.263372</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31377</v>
+        <v>1.31214</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.294951</v>
+        <v>0.296653</v>
       </c>
       <c r="C128" t="n">
-        <v>0.258549</v>
+        <v>0.258893</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30915</v>
+        <v>1.30807</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290231</v>
+        <v>0.291652</v>
       </c>
       <c r="C129" t="n">
-        <v>0.253871</v>
+        <v>0.254345</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30351</v>
+        <v>1.30341</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286052</v>
+        <v>0.286946</v>
       </c>
       <c r="C130" t="n">
-        <v>0.250111</v>
+        <v>0.250354</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30269</v>
+        <v>1.30143</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.282232</v>
+        <v>0.283181</v>
       </c>
       <c r="C131" t="n">
-        <v>0.246388</v>
+        <v>0.246887</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30035</v>
+        <v>1.30214</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278564</v>
+        <v>0.279195</v>
       </c>
       <c r="C132" t="n">
-        <v>0.243102</v>
+        <v>0.243291</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30185</v>
+        <v>1.30142</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275684</v>
+        <v>0.27598</v>
       </c>
       <c r="C133" t="n">
-        <v>0.240112</v>
+        <v>0.240691</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30282</v>
+        <v>1.30269</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.273019</v>
+        <v>0.273425</v>
       </c>
       <c r="C134" t="n">
-        <v>0.237712</v>
+        <v>0.23822</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30501</v>
+        <v>1.30712</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.271381</v>
+        <v>0.271501</v>
       </c>
       <c r="C135" t="n">
-        <v>0.236283</v>
+        <v>0.236892</v>
       </c>
       <c r="D135" t="n">
-        <v>1.5808</v>
+        <v>1.58129</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.270606</v>
+        <v>0.270688</v>
       </c>
       <c r="C136" t="n">
-        <v>0.236678</v>
+        <v>0.23686</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55856</v>
+        <v>1.55872</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.271376</v>
+        <v>0.271338</v>
       </c>
       <c r="C137" t="n">
-        <v>0.334236</v>
+        <v>0.334783</v>
       </c>
       <c r="D137" t="n">
-        <v>1.5395</v>
+        <v>1.5383</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.362322</v>
+        <v>0.355597</v>
       </c>
       <c r="C138" t="n">
-        <v>0.329108</v>
+        <v>0.32792</v>
       </c>
       <c r="D138" t="n">
-        <v>1.52039</v>
+        <v>1.52049</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.356275</v>
+        <v>0.350333</v>
       </c>
       <c r="C139" t="n">
-        <v>0.324014</v>
+        <v>0.322702</v>
       </c>
       <c r="D139" t="n">
-        <v>1.50534</v>
+        <v>1.5052</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.35116</v>
+        <v>0.345189</v>
       </c>
       <c r="C140" t="n">
-        <v>0.31918</v>
+        <v>0.318134</v>
       </c>
       <c r="D140" t="n">
-        <v>1.49019</v>
+        <v>1.49181</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.345752</v>
+        <v>0.340811</v>
       </c>
       <c r="C141" t="n">
-        <v>0.314502</v>
+        <v>0.313586</v>
       </c>
       <c r="D141" t="n">
-        <v>1.47713</v>
+        <v>1.47932</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.341876</v>
+        <v>0.336408</v>
       </c>
       <c r="C142" t="n">
-        <v>0.310917</v>
+        <v>0.30976</v>
       </c>
       <c r="D142" t="n">
-        <v>1.46846</v>
+        <v>1.46889</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.337116</v>
+        <v>0.332817</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3069</v>
+        <v>0.305897</v>
       </c>
       <c r="D143" t="n">
-        <v>1.46107</v>
+        <v>1.46149</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.151027</v>
+        <v>0.15337</v>
       </c>
       <c r="C2" t="n">
-        <v>0.138422</v>
+        <v>0.312145</v>
       </c>
       <c r="D2" t="n">
-        <v>0.346713</v>
+        <v>0.142888</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.271192</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.154613</v>
+        <v>0.155158</v>
       </c>
       <c r="C3" t="n">
-        <v>0.133272</v>
+        <v>0.311864</v>
       </c>
       <c r="D3" t="n">
-        <v>0.34297</v>
+        <v>0.144159</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.269766</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.154502</v>
+        <v>0.159661</v>
       </c>
       <c r="C4" t="n">
-        <v>0.134971</v>
+        <v>0.311341</v>
       </c>
       <c r="D4" t="n">
-        <v>0.339651</v>
+        <v>0.139729</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.261942</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.154533</v>
+        <v>0.151036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.123967</v>
+        <v>0.306772</v>
       </c>
       <c r="D5" t="n">
-        <v>0.338413</v>
+        <v>0.130455</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.266898</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.158535</v>
+        <v>0.145481</v>
       </c>
       <c r="C6" t="n">
-        <v>0.126471</v>
+        <v>0.308161</v>
       </c>
       <c r="D6" t="n">
-        <v>0.336825</v>
+        <v>0.130001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.264205</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.148312</v>
+        <v>0.143135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.117973</v>
+        <v>0.408994</v>
       </c>
       <c r="D7" t="n">
-        <v>0.443214</v>
+        <v>0.114646</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.261823</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.156555</v>
+        <v>0.148369</v>
       </c>
       <c r="C8" t="n">
-        <v>0.122458</v>
+        <v>0.405189</v>
       </c>
       <c r="D8" t="n">
-        <v>0.441712</v>
+        <v>0.121203</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.260876</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150548</v>
+        <v>0.150446</v>
       </c>
       <c r="C9" t="n">
-        <v>0.194162</v>
+        <v>0.401577</v>
       </c>
       <c r="D9" t="n">
-        <v>0.428041</v>
+        <v>0.177485</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.337755</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.206135</v>
+        <v>0.207322</v>
       </c>
       <c r="C10" t="n">
-        <v>0.178135</v>
+        <v>0.391147</v>
       </c>
       <c r="D10" t="n">
-        <v>0.423452</v>
+        <v>0.178184</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.32141</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.203752</v>
+        <v>0.209592</v>
       </c>
       <c r="C11" t="n">
-        <v>0.173586</v>
+        <v>0.391102</v>
       </c>
       <c r="D11" t="n">
-        <v>0.409679</v>
+        <v>0.167977</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.306307</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.194175</v>
+        <v>0.195598</v>
       </c>
       <c r="C12" t="n">
-        <v>0.161549</v>
+        <v>0.38111</v>
       </c>
       <c r="D12" t="n">
-        <v>0.402638</v>
+        <v>0.158496</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.303579</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.186392</v>
+        <v>0.190781</v>
       </c>
       <c r="C13" t="n">
-        <v>0.157091</v>
+        <v>0.379912</v>
       </c>
       <c r="D13" t="n">
-        <v>0.39928</v>
+        <v>0.152255</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.295531</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.192786</v>
+        <v>0.190823</v>
       </c>
       <c r="C14" t="n">
-        <v>0.166613</v>
+        <v>0.376405</v>
       </c>
       <c r="D14" t="n">
-        <v>0.397738</v>
+        <v>0.15716</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.290788</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.175205</v>
+        <v>0.175134</v>
       </c>
       <c r="C15" t="n">
-        <v>0.158048</v>
+        <v>0.370044</v>
       </c>
       <c r="D15" t="n">
-        <v>0.389998</v>
+        <v>0.142005</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.286236</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.179537</v>
+        <v>0.168551</v>
       </c>
       <c r="C16" t="n">
-        <v>0.144736</v>
+        <v>0.366509</v>
       </c>
       <c r="D16" t="n">
-        <v>0.382266</v>
+        <v>0.136816</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.27627</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.16519</v>
+        <v>0.159679</v>
       </c>
       <c r="C17" t="n">
-        <v>0.136932</v>
+        <v>0.362169</v>
       </c>
       <c r="D17" t="n">
-        <v>0.380348</v>
+        <v>0.139587</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.269827</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.161532</v>
+        <v>0.164206</v>
       </c>
       <c r="C18" t="n">
-        <v>0.133372</v>
+        <v>0.364199</v>
       </c>
       <c r="D18" t="n">
-        <v>0.375934</v>
+        <v>0.131545</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.269586</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.159367</v>
+        <v>0.167199</v>
       </c>
       <c r="C19" t="n">
-        <v>0.132348</v>
+        <v>0.36117</v>
       </c>
       <c r="D19" t="n">
-        <v>0.37794</v>
+        <v>0.129135</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.261332</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154501</v>
+        <v>0.154037</v>
       </c>
       <c r="C20" t="n">
-        <v>0.136143</v>
+        <v>0.357351</v>
       </c>
       <c r="D20" t="n">
-        <v>0.369228</v>
+        <v>0.123154</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.262818</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.153177</v>
+        <v>0.157372</v>
       </c>
       <c r="C21" t="n">
-        <v>0.125582</v>
+        <v>0.478261</v>
       </c>
       <c r="D21" t="n">
-        <v>0.475311</v>
+        <v>0.1263</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.25938</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.15307</v>
+        <v>0.151621</v>
       </c>
       <c r="C22" t="n">
-        <v>0.126814</v>
+        <v>0.464696</v>
       </c>
       <c r="D22" t="n">
-        <v>0.464641</v>
+        <v>0.129065</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.25735</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.159212</v>
+        <v>0.157259</v>
       </c>
       <c r="C23" t="n">
-        <v>0.218049</v>
+        <v>0.456439</v>
       </c>
       <c r="D23" t="n">
-        <v>0.456606</v>
+        <v>0.214336</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.333717</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.23845</v>
+        <v>0.238303</v>
       </c>
       <c r="C24" t="n">
-        <v>0.208197</v>
+        <v>0.448159</v>
       </c>
       <c r="D24" t="n">
-        <v>0.450007</v>
+        <v>0.21995</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.338816</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.228745</v>
+        <v>0.224434</v>
       </c>
       <c r="C25" t="n">
-        <v>0.195747</v>
+        <v>0.440673</v>
       </c>
       <c r="D25" t="n">
-        <v>0.438723</v>
+        <v>0.204141</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.31587</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.22451</v>
+        <v>0.224004</v>
       </c>
       <c r="C26" t="n">
-        <v>0.201852</v>
+        <v>0.431649</v>
       </c>
       <c r="D26" t="n">
-        <v>0.433312</v>
+        <v>0.187606</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.308427</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.216976</v>
+        <v>0.215688</v>
       </c>
       <c r="C27" t="n">
-        <v>0.191335</v>
+        <v>0.425692</v>
       </c>
       <c r="D27" t="n">
-        <v>0.427934</v>
+        <v>0.185954</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.298987</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.210774</v>
+        <v>0.20293</v>
       </c>
       <c r="C28" t="n">
-        <v>0.184716</v>
+        <v>0.418998</v>
       </c>
       <c r="D28" t="n">
-        <v>0.421377</v>
+        <v>0.178845</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.294611</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.204721</v>
+        <v>0.198964</v>
       </c>
       <c r="C29" t="n">
-        <v>0.177072</v>
+        <v>0.412593</v>
       </c>
       <c r="D29" t="n">
-        <v>0.414401</v>
+        <v>0.168237</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.288183</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.198267</v>
+        <v>0.187941</v>
       </c>
       <c r="C30" t="n">
-        <v>0.171179</v>
+        <v>0.408417</v>
       </c>
       <c r="D30" t="n">
-        <v>0.410899</v>
+        <v>0.165532</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.281609</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.188597</v>
+        <v>0.185272</v>
       </c>
       <c r="C31" t="n">
-        <v>0.166226</v>
+        <v>0.40367</v>
       </c>
       <c r="D31" t="n">
-        <v>0.405117</v>
+        <v>0.164239</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.27668</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.184848</v>
+        <v>0.178074</v>
       </c>
       <c r="C32" t="n">
-        <v>0.161231</v>
+        <v>0.399719</v>
       </c>
       <c r="D32" t="n">
-        <v>0.400239</v>
+        <v>0.154562</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.272235</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.179463</v>
+        <v>0.173278</v>
       </c>
       <c r="C33" t="n">
-        <v>0.161611</v>
+        <v>0.393748</v>
       </c>
       <c r="D33" t="n">
-        <v>0.395257</v>
+        <v>0.153521</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.267661</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.17537</v>
+        <v>0.170074</v>
       </c>
       <c r="C34" t="n">
-        <v>0.153572</v>
+        <v>0.390428</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3904</v>
+        <v>0.14963</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.264742</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.170063</v>
+        <v>0.168305</v>
       </c>
       <c r="C35" t="n">
-        <v>0.150584</v>
+        <v>0.499331</v>
       </c>
       <c r="D35" t="n">
-        <v>0.496645</v>
+        <v>0.150836</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.262336</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.171976</v>
+        <v>0.170652</v>
       </c>
       <c r="C36" t="n">
-        <v>0.154828</v>
+        <v>0.48684</v>
       </c>
       <c r="D36" t="n">
-        <v>0.483412</v>
+        <v>0.14771</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.263208</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171795</v>
+        <v>0.167843</v>
       </c>
       <c r="C37" t="n">
-        <v>0.23082</v>
+        <v>0.478061</v>
       </c>
       <c r="D37" t="n">
-        <v>0.472951</v>
+        <v>0.230768</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.347369</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246502</v>
+        <v>0.243961</v>
       </c>
       <c r="C38" t="n">
-        <v>0.222346</v>
+        <v>0.46875</v>
       </c>
       <c r="D38" t="n">
-        <v>0.463967</v>
+        <v>0.222972</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.339619</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.237467</v>
+        <v>0.235067</v>
       </c>
       <c r="C39" t="n">
-        <v>0.214263</v>
+        <v>0.458947</v>
       </c>
       <c r="D39" t="n">
-        <v>0.457155</v>
+        <v>0.213998</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.332237</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.228522</v>
+        <v>0.22627</v>
       </c>
       <c r="C40" t="n">
-        <v>0.205957</v>
+        <v>0.450864</v>
       </c>
       <c r="D40" t="n">
-        <v>0.446592</v>
+        <v>0.205509</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.323095</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.220106</v>
+        <v>0.218024</v>
       </c>
       <c r="C41" t="n">
-        <v>0.198103</v>
+        <v>0.443182</v>
       </c>
       <c r="D41" t="n">
-        <v>0.439508</v>
+        <v>0.19903</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.315365</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.212864</v>
+        <v>0.210212</v>
       </c>
       <c r="C42" t="n">
-        <v>0.190945</v>
+        <v>0.437353</v>
       </c>
       <c r="D42" t="n">
-        <v>0.434979</v>
+        <v>0.191431</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.308467</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.205373</v>
+        <v>0.202858</v>
       </c>
       <c r="C43" t="n">
-        <v>0.185335</v>
+        <v>0.430382</v>
       </c>
       <c r="D43" t="n">
-        <v>0.426259</v>
+        <v>0.185004</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.302061</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.198794</v>
+        <v>0.196171</v>
       </c>
       <c r="C44" t="n">
-        <v>0.177401</v>
+        <v>0.424477</v>
       </c>
       <c r="D44" t="n">
-        <v>0.421947</v>
+        <v>0.178242</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.296349</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.192543</v>
+        <v>0.190461</v>
       </c>
       <c r="C45" t="n">
-        <v>0.172223</v>
+        <v>0.419409</v>
       </c>
       <c r="D45" t="n">
-        <v>0.418125</v>
+        <v>0.171721</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.290374</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.18658</v>
+        <v>0.185034</v>
       </c>
       <c r="C46" t="n">
-        <v>0.165978</v>
+        <v>0.414636</v>
       </c>
       <c r="D46" t="n">
-        <v>0.41231</v>
+        <v>0.166785</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.285623</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.182155</v>
+        <v>0.180206</v>
       </c>
       <c r="C47" t="n">
-        <v>0.162226</v>
+        <v>0.40978</v>
       </c>
       <c r="D47" t="n">
-        <v>0.408517</v>
+        <v>0.163076</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.281956</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.178194</v>
+        <v>0.176532</v>
       </c>
       <c r="C48" t="n">
-        <v>0.159124</v>
+        <v>0.406225</v>
       </c>
       <c r="D48" t="n">
-        <v>0.403937</v>
+        <v>0.159074</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.278551</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.175652</v>
+        <v>0.173492</v>
       </c>
       <c r="C49" t="n">
-        <v>0.156235</v>
+        <v>0.403185</v>
       </c>
       <c r="D49" t="n">
-        <v>0.400494</v>
+        <v>0.157048</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.276744</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.17408</v>
+        <v>0.171855</v>
       </c>
       <c r="C50" t="n">
-        <v>0.156098</v>
+        <v>0.506923</v>
       </c>
       <c r="D50" t="n">
-        <v>0.508317</v>
+        <v>0.155008</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.275847</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17449</v>
+        <v>0.172451</v>
       </c>
       <c r="C51" t="n">
-        <v>0.241292</v>
+        <v>0.49607</v>
       </c>
       <c r="D51" t="n">
-        <v>0.49435</v>
+        <v>0.241177</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.35945</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17787</v>
+        <v>0.174531</v>
       </c>
       <c r="C52" t="n">
-        <v>0.231604</v>
+        <v>0.485393</v>
       </c>
       <c r="D52" t="n">
-        <v>0.486397</v>
+        <v>0.232474</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.352226</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243403</v>
+        <v>0.241212</v>
       </c>
       <c r="C53" t="n">
-        <v>0.222842</v>
+        <v>0.47704</v>
       </c>
       <c r="D53" t="n">
-        <v>0.475309</v>
+        <v>0.222617</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.342043</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.234038</v>
+        <v>0.231315</v>
       </c>
       <c r="C54" t="n">
-        <v>0.214367</v>
+        <v>0.467187</v>
       </c>
       <c r="D54" t="n">
-        <v>0.470016</v>
+        <v>0.214052</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.334021</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.225293</v>
+        <v>0.222959</v>
       </c>
       <c r="C55" t="n">
-        <v>0.205956</v>
+        <v>0.459395</v>
       </c>
       <c r="D55" t="n">
-        <v>0.458921</v>
+        <v>0.206278</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.329362</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217747</v>
+        <v>0.216001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.199284</v>
+        <v>0.452921</v>
       </c>
       <c r="D56" t="n">
-        <v>0.452037</v>
+        <v>0.198674</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.3219</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.211195</v>
+        <v>0.208546</v>
       </c>
       <c r="C57" t="n">
-        <v>0.191615</v>
+        <v>0.445497</v>
       </c>
       <c r="D57" t="n">
-        <v>0.445177</v>
+        <v>0.191601</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.31556</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.203591</v>
+        <v>0.20144</v>
       </c>
       <c r="C58" t="n">
-        <v>0.185139</v>
+        <v>0.440853</v>
       </c>
       <c r="D58" t="n">
-        <v>0.438339</v>
+        <v>0.184668</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.309051</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.197597</v>
+        <v>0.195596</v>
       </c>
       <c r="C59" t="n">
-        <v>0.179284</v>
+        <v>0.434352</v>
       </c>
       <c r="D59" t="n">
-        <v>0.434398</v>
+        <v>0.179357</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.303773</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.191705</v>
+        <v>0.189667</v>
       </c>
       <c r="C60" t="n">
-        <v>0.173371</v>
+        <v>0.430313</v>
       </c>
       <c r="D60" t="n">
-        <v>0.429073</v>
+        <v>0.1736</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.298791</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.187175</v>
+        <v>0.184353</v>
       </c>
       <c r="C61" t="n">
-        <v>0.168835</v>
+        <v>0.426534</v>
       </c>
       <c r="D61" t="n">
-        <v>0.426352</v>
+        <v>0.168138</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.29423</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.182694</v>
+        <v>0.180335</v>
       </c>
       <c r="C62" t="n">
-        <v>0.165112</v>
+        <v>0.422625</v>
       </c>
       <c r="D62" t="n">
-        <v>0.423473</v>
+        <v>0.164634</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.29061</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.180076</v>
+        <v>0.178093</v>
       </c>
       <c r="C63" t="n">
-        <v>0.162073</v>
+        <v>0.419713</v>
       </c>
       <c r="D63" t="n">
-        <v>0.41918</v>
+        <v>0.161852</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.28855</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.178487</v>
+        <v>0.176032</v>
       </c>
       <c r="C64" t="n">
-        <v>0.160405</v>
+        <v>0.544347</v>
       </c>
       <c r="D64" t="n">
-        <v>0.546455</v>
+        <v>0.159915</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.286849</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178667</v>
+        <v>0.176322</v>
       </c>
       <c r="C65" t="n">
-        <v>0.16111</v>
+        <v>0.53371</v>
       </c>
       <c r="D65" t="n">
-        <v>0.534612</v>
+        <v>0.160633</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.288573</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.181639</v>
+        <v>0.178398</v>
       </c>
       <c r="C66" t="n">
-        <v>0.243983</v>
+        <v>0.523499</v>
       </c>
       <c r="D66" t="n">
-        <v>0.52455</v>
+        <v>0.241778</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.368444</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247351</v>
+        <v>0.246205</v>
       </c>
       <c r="C67" t="n">
-        <v>0.232923</v>
+        <v>0.516787</v>
       </c>
       <c r="D67" t="n">
-        <v>0.516053</v>
+        <v>0.234316</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.360264</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.239208</v>
+        <v>0.235745</v>
       </c>
       <c r="C68" t="n">
-        <v>0.225023</v>
+        <v>0.508951</v>
       </c>
       <c r="D68" t="n">
-        <v>0.510695</v>
+        <v>0.223856</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.351966</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.230375</v>
+        <v>0.22844</v>
       </c>
       <c r="C69" t="n">
-        <v>0.217801</v>
+        <v>0.500625</v>
       </c>
       <c r="D69" t="n">
-        <v>0.503057</v>
+        <v>0.214878</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.346137</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.22328</v>
+        <v>0.219722</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210013</v>
+        <v>0.494779</v>
       </c>
       <c r="D70" t="n">
-        <v>0.496096</v>
+        <v>0.206553</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.338777</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.21613</v>
+        <v>0.211882</v>
       </c>
       <c r="C71" t="n">
-        <v>0.202525</v>
+        <v>0.489162</v>
       </c>
       <c r="D71" t="n">
-        <v>0.489111</v>
+        <v>0.200975</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.33184</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.20974</v>
+        <v>0.205851</v>
       </c>
       <c r="C72" t="n">
-        <v>0.195447</v>
+        <v>0.483936</v>
       </c>
       <c r="D72" t="n">
-        <v>0.485727</v>
+        <v>0.194188</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.324914</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.202225</v>
+        <v>0.199915</v>
       </c>
       <c r="C73" t="n">
-        <v>0.189067</v>
+        <v>0.481121</v>
       </c>
       <c r="D73" t="n">
-        <v>0.481834</v>
+        <v>0.188362</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.319398</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.196256</v>
+        <v>0.19416</v>
       </c>
       <c r="C74" t="n">
-        <v>0.182632</v>
+        <v>0.496074</v>
       </c>
       <c r="D74" t="n">
-        <v>0.493357</v>
+        <v>0.182427</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.313882</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.191309</v>
+        <v>0.188783</v>
       </c>
       <c r="C75" t="n">
-        <v>0.177568</v>
+        <v>0.488899</v>
       </c>
       <c r="D75" t="n">
-        <v>0.49197</v>
+        <v>0.17682</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.308808</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.187386</v>
+        <v>0.183925</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172921</v>
+        <v>0.486092</v>
       </c>
       <c r="D76" t="n">
-        <v>0.487143</v>
+        <v>0.171969</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.305441</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182795</v>
+        <v>0.182219</v>
       </c>
       <c r="C77" t="n">
-        <v>0.169549</v>
+        <v>0.483301</v>
       </c>
       <c r="D77" t="n">
-        <v>0.483862</v>
+        <v>0.167466</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.301947</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181485</v>
+        <v>0.178711</v>
       </c>
       <c r="C78" t="n">
-        <v>0.167424</v>
+        <v>0.6619080000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.66315</v>
+        <v>0.166872</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.303099</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181545</v>
+        <v>0.17904</v>
       </c>
       <c r="C79" t="n">
-        <v>0.167188</v>
+        <v>0.651641</v>
       </c>
       <c r="D79" t="n">
-        <v>0.65221</v>
+        <v>0.166623</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.303311</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.183045</v>
+        <v>0.180346</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241057</v>
+        <v>0.6414840000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.641151</v>
+        <v>0.2389</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.384061</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.260102</v>
+        <v>0.257797</v>
       </c>
       <c r="C81" t="n">
-        <v>0.232815</v>
+        <v>0.634898</v>
       </c>
       <c r="D81" t="n">
-        <v>0.633646</v>
+        <v>0.231233</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.377682</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251905</v>
+        <v>0.248989</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224533</v>
+        <v>0.626458</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6273030000000001</v>
+        <v>0.222629</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.372194</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243958</v>
+        <v>0.242374</v>
       </c>
       <c r="C83" t="n">
-        <v>0.216472</v>
+        <v>0.619111</v>
       </c>
       <c r="D83" t="n">
-        <v>0.61992</v>
+        <v>0.215057</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.364102</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236402</v>
+        <v>0.233789</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209206</v>
+        <v>0.618937</v>
       </c>
       <c r="D84" t="n">
-        <v>0.618355</v>
+        <v>0.207065</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.360852</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.22856</v>
+        <v>0.22662</v>
       </c>
       <c r="C85" t="n">
-        <v>0.201715</v>
+        <v>0.616578</v>
       </c>
       <c r="D85" t="n">
-        <v>0.61598</v>
+        <v>0.200438</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.355225</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.222144</v>
+        <v>0.219911</v>
       </c>
       <c r="C86" t="n">
-        <v>0.195005</v>
+        <v>0.616543</v>
       </c>
       <c r="D86" t="n">
-        <v>0.614083</v>
+        <v>0.193262</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.34856</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214926</v>
+        <v>0.21385</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188749</v>
+        <v>0.618468</v>
       </c>
       <c r="D87" t="n">
-        <v>0.615139</v>
+        <v>0.187335</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.34299</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208582</v>
+        <v>0.20712</v>
       </c>
       <c r="C88" t="n">
-        <v>0.183252</v>
+        <v>0.618605</v>
       </c>
       <c r="D88" t="n">
-        <v>0.616509</v>
+        <v>0.182132</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.338553</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203056</v>
+        <v>0.2016</v>
       </c>
       <c r="C89" t="n">
-        <v>0.178204</v>
+        <v>0.631288</v>
       </c>
       <c r="D89" t="n">
-        <v>0.629589</v>
+        <v>0.176589</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.332812</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19818</v>
+        <v>0.196505</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173774</v>
+        <v>0.634706</v>
       </c>
       <c r="D90" t="n">
-        <v>0.633431</v>
+        <v>0.173081</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.329783</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19431</v>
+        <v>0.193329</v>
       </c>
       <c r="C91" t="n">
-        <v>0.170332</v>
+        <v>0.640709</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6378</v>
+        <v>0.169023</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.326459</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191244</v>
+        <v>0.190124</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168209</v>
+        <v>0.853437</v>
       </c>
       <c r="D92" t="n">
-        <v>0.851248</v>
+        <v>0.166908</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.325092</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189939</v>
+        <v>0.188597</v>
       </c>
       <c r="C93" t="n">
-        <v>0.167887</v>
+        <v>0.851041</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8456360000000001</v>
+        <v>0.166814</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.32522</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190795</v>
+        <v>0.189371</v>
       </c>
       <c r="C94" t="n">
-        <v>0.253803</v>
+        <v>0.846677</v>
       </c>
       <c r="D94" t="n">
-        <v>0.842193</v>
+        <v>0.252534</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.452238</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.272935</v>
+        <v>0.270674</v>
       </c>
       <c r="C95" t="n">
-        <v>0.245761</v>
+        <v>0.839566</v>
       </c>
       <c r="D95" t="n">
-        <v>0.836674</v>
+        <v>0.244438</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.451668</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.266653</v>
+        <v>0.265072</v>
       </c>
       <c r="C96" t="n">
-        <v>0.238014</v>
+        <v>0.837027</v>
       </c>
       <c r="D96" t="n">
-        <v>0.833461</v>
+        <v>0.236967</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.447145</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.259564</v>
+        <v>0.258834</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229775</v>
+        <v>0.84036</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8394239999999999</v>
+        <v>0.229011</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.442183</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.253002</v>
+        <v>0.251641</v>
       </c>
       <c r="C98" t="n">
-        <v>0.222431</v>
+        <v>0.840439</v>
       </c>
       <c r="D98" t="n">
-        <v>0.837679</v>
+        <v>0.220682</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.437287</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246578</v>
+        <v>0.245263</v>
       </c>
       <c r="C99" t="n">
-        <v>0.215037</v>
+        <v>0.841024</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8355669999999999</v>
+        <v>0.213943</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.432007</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.240328</v>
+        <v>0.238488</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208753</v>
+        <v>0.84118</v>
       </c>
       <c r="D100" t="n">
-        <v>0.836598</v>
+        <v>0.20784</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.428233</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.234512</v>
+        <v>0.233411</v>
       </c>
       <c r="C101" t="n">
-        <v>0.202368</v>
+        <v>0.845235</v>
       </c>
       <c r="D101" t="n">
-        <v>0.840087</v>
+        <v>0.20147</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.423292</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.22887</v>
+        <v>0.227946</v>
       </c>
       <c r="C102" t="n">
-        <v>0.196888</v>
+        <v>0.849178</v>
       </c>
       <c r="D102" t="n">
-        <v>0.842758</v>
+        <v>0.195865</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.418646</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223796</v>
+        <v>0.222458</v>
       </c>
       <c r="C103" t="n">
-        <v>0.191536</v>
+        <v>0.859448</v>
       </c>
       <c r="D103" t="n">
-        <v>0.857027</v>
+        <v>0.190898</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.41523</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2193</v>
+        <v>0.218327</v>
       </c>
       <c r="C104" t="n">
-        <v>0.186954</v>
+        <v>0.866117</v>
       </c>
       <c r="D104" t="n">
-        <v>0.861546</v>
+        <v>0.186294</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.411758</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215363</v>
+        <v>0.214176</v>
       </c>
       <c r="C105" t="n">
-        <v>0.183297</v>
+        <v>0.873801</v>
       </c>
       <c r="D105" t="n">
-        <v>0.868042</v>
+        <v>0.182449</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.409843</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.21224</v>
+        <v>0.211275</v>
       </c>
       <c r="C106" t="n">
-        <v>0.18042</v>
+        <v>0.882031</v>
       </c>
       <c r="D106" t="n">
-        <v>0.876494</v>
+        <v>0.180164</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.408188</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209771</v>
+        <v>0.208723</v>
       </c>
       <c r="C107" t="n">
-        <v>0.179381</v>
+        <v>1.12628</v>
       </c>
       <c r="D107" t="n">
-        <v>1.12114</v>
+        <v>0.179211</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.407718</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.209884</v>
+        <v>0.208655</v>
       </c>
       <c r="C108" t="n">
-        <v>0.268947</v>
+        <v>1.11366</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11129</v>
+        <v>0.268571</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.566439</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211834</v>
+        <v>0.210629</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263054</v>
+        <v>1.10831</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10281</v>
+        <v>0.263123</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.564304</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.286382</v>
+        <v>0.285509</v>
       </c>
       <c r="C110" t="n">
-        <v>0.255563</v>
+        <v>1.09924</v>
       </c>
       <c r="D110" t="n">
-        <v>1.09548</v>
+        <v>0.255147</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.557965</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279713</v>
+        <v>0.278433</v>
       </c>
       <c r="C111" t="n">
-        <v>0.247905</v>
+        <v>1.10141</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09357</v>
+        <v>0.248045</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.551828</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.273401</v>
+        <v>0.271806</v>
       </c>
       <c r="C112" t="n">
-        <v>0.240901</v>
+        <v>1.09589</v>
       </c>
       <c r="D112" t="n">
-        <v>1.08659</v>
+        <v>0.24044</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.544925</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266979</v>
+        <v>0.266427</v>
       </c>
       <c r="C113" t="n">
-        <v>0.235402</v>
+        <v>1.09404</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08531</v>
+        <v>0.234071</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5423289999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.261288</v>
+        <v>0.260565</v>
       </c>
       <c r="C114" t="n">
-        <v>0.228734</v>
+        <v>1.09267</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09309</v>
+        <v>0.227632</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.536821</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.256469</v>
+        <v>0.255512</v>
       </c>
       <c r="C115" t="n">
-        <v>0.222415</v>
+        <v>1.09583</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08802</v>
+        <v>0.22211</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.533166</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.251435</v>
+        <v>0.250615</v>
       </c>
       <c r="C116" t="n">
-        <v>0.217092</v>
+        <v>1.09592</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09052</v>
+        <v>0.216672</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.529174</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.246994</v>
+        <v>0.245594</v>
       </c>
       <c r="C117" t="n">
-        <v>0.212289</v>
+        <v>1.09785</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09719</v>
+        <v>0.211883</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.526789</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.242769</v>
+        <v>0.244716</v>
       </c>
       <c r="C118" t="n">
-        <v>0.207931</v>
+        <v>1.10406</v>
       </c>
       <c r="D118" t="n">
-        <v>1.09893</v>
+        <v>0.2085</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.52432</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238957</v>
+        <v>0.237814</v>
       </c>
       <c r="C119" t="n">
-        <v>0.204201</v>
+        <v>1.1105</v>
       </c>
       <c r="D119" t="n">
-        <v>1.10784</v>
+        <v>0.204125</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.523133</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2358</v>
+        <v>0.234924</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201322</v>
+        <v>1.1192</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11412</v>
+        <v>0.201067</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.520985</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.233469</v>
+        <v>0.232693</v>
       </c>
       <c r="C121" t="n">
-        <v>0.199921</v>
+        <v>1.38021</v>
       </c>
       <c r="D121" t="n">
-        <v>1.37898</v>
+        <v>0.199423</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.520991</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.232713</v>
+        <v>0.231404</v>
       </c>
       <c r="C122" t="n">
-        <v>0.200676</v>
+        <v>1.36711</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36219</v>
+        <v>0.200191</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.522709</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233658</v>
+        <v>0.232607</v>
       </c>
       <c r="C123" t="n">
-        <v>0.285289</v>
+        <v>1.35208</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34891</v>
+        <v>0.285389</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.694646</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.318055</v>
+        <v>0.316721</v>
       </c>
       <c r="C124" t="n">
-        <v>0.279252</v>
+        <v>1.33879</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33734</v>
+        <v>0.279535</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.688746</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.312136</v>
+        <v>0.311521</v>
       </c>
       <c r="C125" t="n">
-        <v>0.273665</v>
+        <v>1.33025</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32806</v>
+        <v>0.273237</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.685202</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305957</v>
+        <v>0.304916</v>
       </c>
       <c r="C126" t="n">
-        <v>0.268237</v>
+        <v>1.32117</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32007</v>
+        <v>0.267652</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.680929</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.301035</v>
+        <v>0.299863</v>
       </c>
       <c r="C127" t="n">
-        <v>0.263372</v>
+        <v>1.31379</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31214</v>
+        <v>0.26304</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.678063</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.296653</v>
+        <v>0.294634</v>
       </c>
       <c r="C128" t="n">
-        <v>0.258893</v>
+        <v>1.30768</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30807</v>
+        <v>0.258886</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.660381</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.291652</v>
+        <v>0.290007</v>
       </c>
       <c r="C129" t="n">
-        <v>0.254345</v>
+        <v>1.30326</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30341</v>
+        <v>0.254448</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.669822</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286946</v>
+        <v>0.285681</v>
       </c>
       <c r="C130" t="n">
-        <v>0.250354</v>
+        <v>1.30056</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30143</v>
+        <v>0.250205</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.66858</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.283181</v>
+        <v>0.281672</v>
       </c>
       <c r="C131" t="n">
-        <v>0.246887</v>
+        <v>1.30008</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30214</v>
+        <v>0.24612</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.666127</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.279195</v>
+        <v>0.278486</v>
       </c>
       <c r="C132" t="n">
-        <v>0.243291</v>
+        <v>1.30108</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30142</v>
+        <v>0.243283</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.664091</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.27598</v>
+        <v>0.275255</v>
       </c>
       <c r="C133" t="n">
-        <v>0.240691</v>
+        <v>1.30141</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30269</v>
+        <v>0.240187</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.662888</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.273425</v>
+        <v>0.272149</v>
       </c>
       <c r="C134" t="n">
-        <v>0.23822</v>
+        <v>1.30559</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30712</v>
+        <v>0.238426</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.662808</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.271501</v>
+        <v>0.270314</v>
       </c>
       <c r="C135" t="n">
-        <v>0.236892</v>
+        <v>1.58034</v>
       </c>
       <c r="D135" t="n">
-        <v>1.58129</v>
+        <v>0.236633</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.663058</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.270688</v>
+        <v>0.269997</v>
       </c>
       <c r="C136" t="n">
-        <v>0.23686</v>
+        <v>1.55781</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55872</v>
+        <v>0.23708</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.664988</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.271338</v>
+        <v>0.270583</v>
       </c>
       <c r="C137" t="n">
-        <v>0.334783</v>
+        <v>1.53836</v>
       </c>
       <c r="D137" t="n">
-        <v>1.5383</v>
+        <v>0.334836</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.847299</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.355597</v>
+        <v>0.369063</v>
       </c>
       <c r="C138" t="n">
-        <v>0.32792</v>
+        <v>1.5207</v>
       </c>
       <c r="D138" t="n">
-        <v>1.52049</v>
+        <v>0.329067</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.846291</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.350333</v>
+        <v>0.363506</v>
       </c>
       <c r="C139" t="n">
-        <v>0.322702</v>
+        <v>1.50344</v>
       </c>
       <c r="D139" t="n">
-        <v>1.5052</v>
+        <v>0.323726</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.845287</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.345189</v>
+        <v>0.358269</v>
       </c>
       <c r="C140" t="n">
-        <v>0.318134</v>
+        <v>1.49007</v>
       </c>
       <c r="D140" t="n">
-        <v>1.49181</v>
+        <v>0.319833</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.8449950000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.340811</v>
+        <v>0.352863</v>
       </c>
       <c r="C141" t="n">
-        <v>0.313586</v>
+        <v>1.47742</v>
       </c>
       <c r="D141" t="n">
-        <v>1.47932</v>
+        <v>0.314732</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.844019</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.336408</v>
+        <v>0.34801</v>
       </c>
       <c r="C142" t="n">
-        <v>0.30976</v>
+        <v>1.46587</v>
       </c>
       <c r="D142" t="n">
-        <v>1.46889</v>
+        <v>0.310756</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.844831</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.332817</v>
+        <v>0.34351</v>
       </c>
       <c r="C143" t="n">
-        <v>0.305897</v>
+        <v>1.45791</v>
       </c>
       <c r="D143" t="n">
-        <v>1.46149</v>
+        <v>0.307162</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.844638</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.15495</v>
+                  <v>0.15337</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.153545</v>
+                  <v>0.155158</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.156261</v>
+                  <v>0.159661</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.154468</v>
+                  <v>0.151036</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.159997</v>
+                  <v>0.145481</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.148057</v>
+                  <v>0.143135</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.149778</v>
+                  <v>0.148369</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.154311</v>
+                  <v>0.150446</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.223686</v>
+                  <v>0.207322</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.205186</v>
+                  <v>0.209592</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.205051</v>
+                  <v>0.195598</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.191499</v>
+                  <v>0.190781</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.185229</v>
+                  <v>0.190823</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.180374</v>
+                  <v>0.175134</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.173777</v>
+                  <v>0.168551</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174067</v>
+                  <v>0.159679</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.166807</v>
+                  <v>0.164206</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.160047</v>
+                  <v>0.167199</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.157303</v>
+                  <v>0.154037</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.156402</v>
+                  <v>0.157372</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163726</v>
+                  <v>0.151621</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.160119</v>
+                  <v>0.157259</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.240097</v>
+                  <v>0.238303</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.231232</v>
+                  <v>0.224434</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227764</v>
+                  <v>0.224004</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.219773</v>
+                  <v>0.215688</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.21386</v>
+                  <v>0.20293</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.200835</v>
+                  <v>0.198964</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.197722</v>
+                  <v>0.187941</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.185452</v>
+                  <v>0.185272</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.185902</v>
+                  <v>0.178074</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179391</v>
+                  <v>0.173278</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.174647</v>
+                  <v>0.170074</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.167433</v>
+                  <v>0.168305</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.173431</v>
+                  <v>0.170652</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.169377</v>
+                  <v>0.167843</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.245427</v>
+                  <v>0.243961</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236324</v>
+                  <v>0.235067</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.228014</v>
+                  <v>0.22627</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.220475</v>
+                  <v>0.218024</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.211363</v>
+                  <v>0.210212</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.205815</v>
+                  <v>0.202858</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.198957</v>
+                  <v>0.196171</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.192026</v>
+                  <v>0.190461</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.186259</v>
+                  <v>0.185034</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.182829</v>
+                  <v>0.180206</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.178498</v>
+                  <v>0.176532</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174932</v>
+                  <v>0.173492</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173529</v>
+                  <v>0.171855</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.174603</v>
+                  <v>0.172451</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.178568</v>
+                  <v>0.174531</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.242911</v>
+                  <v>0.241212</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233062</v>
+                  <v>0.231315</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.225756</v>
+                  <v>0.222959</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219169</v>
+                  <v>0.216001</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.211266</v>
+                  <v>0.208546</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.204869</v>
+                  <v>0.20144</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.198465</v>
+                  <v>0.195596</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.192641</v>
+                  <v>0.189667</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.187453</v>
+                  <v>0.184353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.183317</v>
+                  <v>0.180335</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.180442</v>
+                  <v>0.178093</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.178772</v>
+                  <v>0.176032</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.178868</v>
+                  <v>0.176322</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.182404</v>
+                  <v>0.178398</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246499</v>
+                  <v>0.246205</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.24057</v>
+                  <v>0.235745</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.229261</v>
+                  <v>0.22844</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.222631</v>
+                  <v>0.219722</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.214224</v>
+                  <v>0.211882</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.208225</v>
+                  <v>0.205851</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200051</v>
+                  <v>0.199915</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.196592</v>
+                  <v>0.19416</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.191699</v>
+                  <v>0.188783</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.187385</v>
+                  <v>0.183925</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.184281</v>
+                  <v>0.182219</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.181944</v>
+                  <v>0.178711</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.181193</v>
+                  <v>0.17904</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.183598</v>
+                  <v>0.180346</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.259901</v>
+                  <v>0.257797</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.251809</v>
+                  <v>0.248989</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245416</v>
+                  <v>0.242374</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.236506</v>
+                  <v>0.233789</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.228865</v>
+                  <v>0.22662</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222002</v>
+                  <v>0.219911</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215267</v>
+                  <v>0.21385</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208708</v>
+                  <v>0.20712</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.203164</v>
+                  <v>0.2016</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.198265</v>
+                  <v>0.196505</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.194029</v>
+                  <v>0.193329</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.191051</v>
+                  <v>0.190124</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.190331</v>
+                  <v>0.188597</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.190609</v>
+                  <v>0.189371</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271708</v>
+                  <v>0.270674</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265444</v>
+                  <v>0.265072</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258822</v>
+                  <v>0.258834</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251693</v>
+                  <v>0.251641</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.245207</v>
+                  <v>0.245263</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238911</v>
+                  <v>0.238488</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.233314</v>
+                  <v>0.233411</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227926</v>
+                  <v>0.227946</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.223038</v>
+                  <v>0.222458</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.218392</v>
+                  <v>0.218327</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.214392</v>
+                  <v>0.214176</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.211043</v>
+                  <v>0.211275</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208798</v>
+                  <v>0.208723</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208902</v>
+                  <v>0.208655</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210912</v>
+                  <v>0.210629</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.282122</v>
+                  <v>0.285509</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277332</v>
+                  <v>0.278433</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271849</v>
+                  <v>0.271806</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.265643</v>
+                  <v>0.266427</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259825</v>
+                  <v>0.260565</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.254755</v>
+                  <v>0.255512</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.249822</v>
+                  <v>0.250615</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.24522</v>
+                  <v>0.245594</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241839</v>
+                  <v>0.244716</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.23729</v>
+                  <v>0.237814</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234272</v>
+                  <v>0.234924</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.232088</v>
+                  <v>0.232693</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231128</v>
+                  <v>0.231404</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232239</v>
+                  <v>0.232607</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.317627</v>
+                  <v>0.316721</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.312009</v>
+                  <v>0.311521</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.30586</v>
+                  <v>0.304916</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.300592</v>
+                  <v>0.299863</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.295357</v>
+                  <v>0.294634</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291282</v>
+                  <v>0.290007</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.290024</v>
+                  <v>0.285681</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.292332</v>
+                  <v>0.281672</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.316529</v>
+                  <v>0.278486</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.313286</v>
+                  <v>0.275255</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.269433</v>
+                  <v>0.272149</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.267928</v>
+                  <v>0.270314</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.267051</v>
+                  <v>0.269997</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.267636</v>
+                  <v>0.270583</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.350842</v>
+                  <v>0.369063</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.345442</v>
+                  <v>0.363506</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.341276</v>
+                  <v>0.358269</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.336592</v>
+                  <v>0.352863</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.332195</v>
+                  <v>0.34801</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.328062</v>
+                  <v>0.34351</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.133487</v>
+                  <v>0.312145</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.128996</v>
+                  <v>0.311864</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.128778</v>
+                  <v>0.311341</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.123893</v>
+                  <v>0.306772</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.115629</v>
+                  <v>0.308161</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.117525</v>
+                  <v>0.408994</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.110211</v>
+                  <v>0.405189</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.176215</v>
+                  <v>0.401577</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.169618</v>
+                  <v>0.391147</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167522</v>
+                  <v>0.391102</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.164985</v>
+                  <v>0.38111</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.157948</v>
+                  <v>0.379912</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.154722</v>
+                  <v>0.376405</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.145283</v>
+                  <v>0.370044</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.14847</v>
+                  <v>0.366509</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.137933</v>
+                  <v>0.362169</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.132223</v>
+                  <v>0.364199</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.130486</v>
+                  <v>0.36117</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.124625</v>
+                  <v>0.357351</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.122399</v>
+                  <v>0.478261</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.122231</v>
+                  <v>0.464696</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.215673</v>
+                  <v>0.456439</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209008</v>
+                  <v>0.448159</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.196812</v>
+                  <v>0.440673</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.193513</v>
+                  <v>0.431649</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.186064</v>
+                  <v>0.425692</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.182841</v>
+                  <v>0.418998</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.175024</v>
+                  <v>0.412593</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170131</v>
+                  <v>0.408417</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.161414</v>
+                  <v>0.40367</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.156848</v>
+                  <v>0.399719</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.155946</v>
+                  <v>0.393748</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.14656</v>
+                  <v>0.390428</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150628</v>
+                  <v>0.499331</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.146053</v>
+                  <v>0.48684</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230175</v>
+                  <v>0.478061</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.222468</v>
+                  <v>0.46875</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.212657</v>
+                  <v>0.458947</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20674</v>
+                  <v>0.450864</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.198642</v>
+                  <v>0.443182</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191772</v>
+                  <v>0.437353</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.188281</v>
+                  <v>0.430382</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.177377</v>
+                  <v>0.424477</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.171985</v>
+                  <v>0.419409</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.166429</v>
+                  <v>0.414636</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.166079</v>
+                  <v>0.40978</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159028</v>
+                  <v>0.406225</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.15706</v>
+                  <v>0.403185</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.156108</v>
+                  <v>0.506923</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.244006</v>
+                  <v>0.49607</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.234167</v>
+                  <v>0.485393</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.224348</v>
+                  <v>0.47704</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.216183</v>
+                  <v>0.467187</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.208516</v>
+                  <v>0.459395</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.200898</v>
+                  <v>0.452921</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.193874</v>
+                  <v>0.445497</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.186857</v>
+                  <v>0.440853</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.180909</v>
+                  <v>0.434352</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.175261</v>
+                  <v>0.430313</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.170349</v>
+                  <v>0.426534</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.166078</v>
+                  <v>0.422625</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.163411</v>
+                  <v>0.419713</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.161494</v>
+                  <v>0.544347</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.16251</v>
+                  <v>0.53371</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.243741</v>
+                  <v>0.523499</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.233795</v>
+                  <v>0.516787</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.226048</v>
+                  <v>0.508951</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.218522</v>
+                  <v>0.500625</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.208423</v>
+                  <v>0.494779</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.20239</v>
+                  <v>0.489162</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.195978</v>
+                  <v>0.483936</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.190244</v>
+                  <v>0.481121</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.183549</v>
+                  <v>0.496074</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.17921</v>
+                  <v>0.488899</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.174505</v>
+                  <v>0.486092</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.17026</v>
+                  <v>0.483301</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.168555</v>
+                  <v>0.6619080000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.167771</v>
+                  <v>0.651641</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.243049</v>
+                  <v>0.6414840000000001</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.233663</v>
+                  <v>0.634898</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.225806</v>
+                  <v>0.626458</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.217961</v>
+                  <v>0.619111</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.210345</v>
+                  <v>0.618937</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.202909</v>
+                  <v>0.616578</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.196278</v>
+                  <v>0.616543</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.190457</v>
+                  <v>0.618468</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.184578</v>
+                  <v>0.618605</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.179115</v>
+                  <v>0.631288</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.174858</v>
+                  <v>0.634706</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.171276</v>
+                  <v>0.640709</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.168786</v>
+                  <v>0.853437</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.169004</v>
+                  <v>0.851041</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.254981</v>
+                  <v>0.846677</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.247215</v>
+                  <v>0.839566</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.239115</v>
+                  <v>0.837027</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.230624</v>
+                  <v>0.84036</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.222856</v>
+                  <v>0.840439</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.21591</v>
+                  <v>0.841024</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.209102</v>
+                  <v>0.84118</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.202675</v>
+                  <v>0.845235</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.196973</v>
+                  <v>0.849178</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.19177</v>
+                  <v>0.859448</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.187172</v>
+                  <v>0.866117</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.183301</v>
+                  <v>0.873801</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.18078</v>
+                  <v>0.882031</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.179522</v>
+                  <v>1.12628</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.269489</v>
+                  <v>1.11366</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.262897</v>
+                  <v>1.10831</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.256726</v>
+                  <v>1.09924</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.247451</v>
+                  <v>1.10141</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.24043</v>
+                  <v>1.09589</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233607</v>
+                  <v>1.09404</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.227423</v>
+                  <v>1.09267</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.221229</v>
+                  <v>1.09583</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.215868</v>
+                  <v>1.09592</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.210591</v>
+                  <v>1.09785</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.206479</v>
+                  <v>1.10406</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.202559</v>
+                  <v>1.1105</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.199773</v>
+                  <v>1.1192</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.198176</v>
+                  <v>1.38021</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.198841</v>
+                  <v>1.36711</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.285232</v>
+                  <v>1.35208</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.276811</v>
+                  <v>1.33879</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.270839</v>
+                  <v>1.33025</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.265608</v>
+                  <v>1.32117</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.260523</v>
+                  <v>1.31379</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.255044</v>
+                  <v>1.30768</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.251807</v>
+                  <v>1.30326</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.249694</v>
+                  <v>1.30056</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.266801</v>
+                  <v>1.30008</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.263743</v>
+                  <v>1.30108</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.282668</v>
+                  <v>1.30141</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.233059</v>
+                  <v>1.30559</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.231579</v>
+                  <v>1.58034</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.231913</v>
+                  <v>1.55781</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.326305</v>
+                  <v>1.53836</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.320686</v>
+                  <v>1.5207</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.315677</v>
+                  <v>1.50344</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.310855</v>
+                  <v>1.49007</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.306001</v>
+                  <v>1.47742</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.30133</v>
+                  <v>1.46587</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.297474</v>
+                  <v>1.45791</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.344005</v>
+                  <v>0.142888</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.340023</v>
+                  <v>0.144159</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.339171</v>
+                  <v>0.139729</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.337006</v>
+                  <v>0.130455</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.334346</v>
+                  <v>0.130001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.44346</v>
+                  <v>0.114646</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.42934</v>
+                  <v>0.121203</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.422947</v>
+                  <v>0.177485</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.414834</v>
+                  <v>0.178184</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.412844</v>
+                  <v>0.167977</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.410981</v>
+                  <v>0.158496</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.402817</v>
+                  <v>0.152255</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.395902</v>
+                  <v>0.15716</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.389522</v>
+                  <v>0.142005</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.38781</v>
+                  <v>0.136816</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.384793</v>
+                  <v>0.139587</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.379955</v>
+                  <v>0.131545</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.378853</v>
+                  <v>0.129135</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.373582</v>
+                  <v>0.123154</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.476217</v>
+                  <v>0.1263</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.46546</v>
+                  <v>0.129065</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.464787</v>
+                  <v>0.214336</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.45141</v>
+                  <v>0.21995</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.445799</v>
+                  <v>0.204141</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.434497</v>
+                  <v>0.187606</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.427631</v>
+                  <v>0.185954</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.419558</v>
+                  <v>0.178845</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.411806</v>
+                  <v>0.168237</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.406268</v>
+                  <v>0.165532</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.401866</v>
+                  <v>0.164239</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.397333</v>
+                  <v>0.154562</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.393844</v>
+                  <v>0.153521</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.389286</v>
+                  <v>0.14963</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.493518</v>
+                  <v>0.150836</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.484731</v>
+                  <v>0.14771</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.475688</v>
+                  <v>0.230768</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.463878</v>
+                  <v>0.222972</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.455129</v>
+                  <v>0.213998</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.446551</v>
+                  <v>0.205509</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.438381</v>
+                  <v>0.19903</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.43272</v>
+                  <v>0.191431</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.425374</v>
+                  <v>0.185004</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.420618</v>
+                  <v>0.178242</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.41841</v>
+                  <v>0.171721</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.414417</v>
+                  <v>0.166785</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.412106</v>
+                  <v>0.163076</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.406774</v>
+                  <v>0.159074</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.402662</v>
+                  <v>0.157048</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.505211</v>
+                  <v>0.155008</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.498063</v>
+                  <v>0.241177</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.485203</v>
+                  <v>0.232474</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.477573</v>
+                  <v>0.222617</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.46772</v>
+                  <v>0.214052</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.463373</v>
+                  <v>0.206278</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.4539</v>
+                  <v>0.198674</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.446932</v>
+                  <v>0.191601</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.440617</v>
+                  <v>0.184668</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.437856</v>
+                  <v>0.179357</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.432426</v>
+                  <v>0.1736</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.428781</v>
+                  <v>0.168138</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.423174</v>
+                  <v>0.164634</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.422691</v>
+                  <v>0.161852</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.5450739999999999</v>
+                  <v>0.159915</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.540152</v>
+                  <v>0.160633</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.524844</v>
+                  <v>0.241778</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.515304</v>
+                  <v>0.234316</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.507802</v>
+                  <v>0.223856</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.498374</v>
+                  <v>0.214878</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.494679</v>
+                  <v>0.206553</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.495527</v>
+                  <v>0.200975</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.483948</v>
+                  <v>0.194188</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.481365</v>
+                  <v>0.188362</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.496964</v>
+                  <v>0.182427</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.492901</v>
+                  <v>0.17682</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.489043</v>
+                  <v>0.171969</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.486233</v>
+                  <v>0.167466</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.664263</v>
+                  <v>0.166872</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.653161</v>
+                  <v>0.166623</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.643571</v>
+                  <v>0.2389</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.63595</v>
+                  <v>0.231233</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.629796</v>
+                  <v>0.222629</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.622012</v>
+                  <v>0.215057</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.619332</v>
+                  <v>0.207065</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.615398</v>
+                  <v>0.200438</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.615523</v>
+                  <v>0.193262</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.615955</v>
+                  <v>0.187335</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.622347</v>
+                  <v>0.182132</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.631071</v>
+                  <v>0.176589</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.635074</v>
+                  <v>0.173081</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.639845</v>
+                  <v>0.169023</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.852201</v>
+                  <v>0.166908</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.847971</v>
+                  <v>0.166814</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.845392</v>
+                  <v>0.252534</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.8368139999999999</v>
+                  <v>0.244438</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.834033</v>
+                  <v>0.236967</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.841704</v>
+                  <v>0.229011</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.83904</v>
+                  <v>0.220682</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.838568</v>
+                  <v>0.213943</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.839709</v>
+                  <v>0.20784</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.842832</v>
+                  <v>0.20147</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.8481</v>
+                  <v>0.195865</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.858892</v>
+                  <v>0.190898</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.865506</v>
+                  <v>0.186294</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.870801</v>
+                  <v>0.182449</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.883047</v>
+                  <v>0.180164</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.1251</v>
+                  <v>0.179211</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.11268</v>
+                  <v>0.268571</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.10474</v>
+                  <v>0.263123</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.09904</v>
+                  <v>0.255147</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.09986</v>
+                  <v>0.248045</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.09551</v>
+                  <v>0.24044</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.09076</v>
+                  <v>0.234071</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.09524</v>
+                  <v>0.227632</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.09316</v>
+                  <v>0.22211</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.09388</v>
+                  <v>0.216672</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.0979</v>
+                  <v>0.211883</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.10358</v>
+                  <v>0.2085</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.11072</v>
+                  <v>0.204125</v>
                 </pt>
                 <pt idx="118">
-                  <v>1.11523</v>
+                  <v>0.201067</v>
                 </pt>
                 <pt idx="119">
-                  <v>1.38026</v>
+                  <v>0.199423</v>
                 </pt>
                 <pt idx="120">
-                  <v>1.36735</v>
+                  <v>0.200191</v>
                 </pt>
                 <pt idx="121">
-                  <v>1.35413</v>
+                  <v>0.285389</v>
                 </pt>
                 <pt idx="122">
-                  <v>1.34011</v>
+                  <v>0.279535</v>
                 </pt>
                 <pt idx="123">
-                  <v>1.33068</v>
+                  <v>0.273237</v>
                 </pt>
                 <pt idx="124">
-                  <v>1.32008</v>
+                  <v>0.267652</v>
                 </pt>
                 <pt idx="125">
-                  <v>1.3181</v>
+                  <v>0.26304</v>
                 </pt>
                 <pt idx="126">
-                  <v>1.31133</v>
+                  <v>0.258886</v>
                 </pt>
                 <pt idx="127">
-                  <v>1.2952</v>
+                  <v>0.254448</v>
                 </pt>
                 <pt idx="128">
-                  <v>1.30043</v>
+                  <v>0.250205</v>
                 </pt>
                 <pt idx="129">
-                  <v>1.45637</v>
+                  <v>0.24612</v>
                 </pt>
                 <pt idx="130">
-                  <v>1.43621</v>
+                  <v>0.243283</v>
                 </pt>
                 <pt idx="131">
-                  <v>1.30867</v>
+                  <v>0.240187</v>
                 </pt>
                 <pt idx="132">
-                  <v>1.30653</v>
+                  <v>0.238426</v>
                 </pt>
                 <pt idx="133">
-                  <v>1.581</v>
+                  <v>0.236633</v>
                 </pt>
                 <pt idx="134">
-                  <v>1.56049</v>
+                  <v>0.23708</v>
                 </pt>
                 <pt idx="135">
-                  <v>1.53923</v>
+                  <v>0.334836</v>
                 </pt>
                 <pt idx="136">
-                  <v>1.52452</v>
+                  <v>0.329067</v>
                 </pt>
                 <pt idx="137">
-                  <v>1.50727</v>
+                  <v>0.323726</v>
                 </pt>
                 <pt idx="138">
-                  <v>1.4928</v>
+                  <v>0.319833</v>
                 </pt>
                 <pt idx="139">
-                  <v>1.4814</v>
+                  <v>0.314732</v>
                 </pt>
                 <pt idx="140">
-                  <v>1.46927</v>
+                  <v>0.310756</v>
                 </pt>
                 <pt idx="141">
-                  <v>1.46123</v>
+                  <v>0.307162</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.271192</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.269766</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.261942</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.266898</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.264205</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.261823</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.260876</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.337755</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.32141</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.306307</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.303579</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.295531</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.290788</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.286236</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.27627</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.269827</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.269586</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.261332</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.262818</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.25938</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.25735</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.333717</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.338816</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.31587</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.308427</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.298987</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.294611</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.288183</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.281609</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.27668</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.272235</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.267661</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.264742</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.262336</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.263208</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.347369</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.339619</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.332237</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.323095</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.315365</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.308467</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.302061</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.296349</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.290374</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.285623</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.281956</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.278551</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.276744</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.275847</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.35945</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.352226</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.342043</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.334021</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.329362</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.3219</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.31556</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.309051</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.303773</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.298791</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.29423</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.29061</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.28855</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.286849</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.288573</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.368444</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.360264</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.351966</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.346137</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.338777</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.33184</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.324914</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.319398</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.313882</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.308808</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.305441</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.301947</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.303099</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.303311</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.384061</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.377682</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.372194</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.364102</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.360852</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.355225</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.34856</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.34299</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.338553</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.332812</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.329783</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.326459</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.325092</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.32522</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.452238</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.451668</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.447145</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.442183</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.437287</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.432007</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.428233</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.423292</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.418646</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.41523</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.411758</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.409843</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.408188</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.407718</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.566439</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.564304</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.557965</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.551828</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.544925</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.5423289999999999</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.536821</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.533166</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.529174</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.526789</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.52432</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.523133</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.520985</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.520991</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.522709</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.694646</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.688746</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.685202</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.680929</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.678063</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.660381</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.669822</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.66858</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.666127</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.664091</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.662888</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.662808</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.663058</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.664988</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.847299</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.846291</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.845287</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.8449950000000001</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.844019</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.844831</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.844638</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.15337</v>
+        <v>0.151156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.312145</v>
+        <v>0.290079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.142888</v>
+        <v>0.136414</v>
       </c>
       <c r="E2" t="n">
-        <v>0.271192</v>
+        <v>0.271321</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.155158</v>
+        <v>0.15907</v>
       </c>
       <c r="C3" t="n">
-        <v>0.311864</v>
+        <v>0.280882</v>
       </c>
       <c r="D3" t="n">
-        <v>0.144159</v>
+        <v>0.139298</v>
       </c>
       <c r="E3" t="n">
-        <v>0.269766</v>
+        <v>0.269439</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.159661</v>
+        <v>0.155957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.311341</v>
+        <v>0.276142</v>
       </c>
       <c r="D4" t="n">
-        <v>0.139729</v>
+        <v>0.128299</v>
       </c>
       <c r="E4" t="n">
-        <v>0.261942</v>
+        <v>0.268559</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.151036</v>
+        <v>0.151041</v>
       </c>
       <c r="C5" t="n">
-        <v>0.306772</v>
+        <v>0.273989</v>
       </c>
       <c r="D5" t="n">
-        <v>0.130455</v>
+        <v>0.132522</v>
       </c>
       <c r="E5" t="n">
-        <v>0.266898</v>
+        <v>0.265679</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.145481</v>
+        <v>0.155912</v>
       </c>
       <c r="C6" t="n">
-        <v>0.308161</v>
+        <v>0.275696</v>
       </c>
       <c r="D6" t="n">
-        <v>0.130001</v>
+        <v>0.120143</v>
       </c>
       <c r="E6" t="n">
-        <v>0.264205</v>
+        <v>0.256946</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.143135</v>
+        <v>0.154207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.408994</v>
+        <v>0.26564</v>
       </c>
       <c r="D7" t="n">
-        <v>0.114646</v>
+        <v>0.116552</v>
       </c>
       <c r="E7" t="n">
-        <v>0.261823</v>
+        <v>0.253992</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.148369</v>
+        <v>0.150877</v>
       </c>
       <c r="C8" t="n">
-        <v>0.405189</v>
+        <v>0.270145</v>
       </c>
       <c r="D8" t="n">
-        <v>0.121203</v>
+        <v>0.11478</v>
       </c>
       <c r="E8" t="n">
-        <v>0.260876</v>
+        <v>0.259782</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150446</v>
+        <v>0.150407</v>
       </c>
       <c r="C9" t="n">
-        <v>0.401577</v>
+        <v>0.271235</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177485</v>
+        <v>0.186967</v>
       </c>
       <c r="E9" t="n">
-        <v>0.337755</v>
+        <v>0.328267</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.207322</v>
+        <v>0.219728</v>
       </c>
       <c r="C10" t="n">
-        <v>0.391147</v>
+        <v>0.3286</v>
       </c>
       <c r="D10" t="n">
-        <v>0.178184</v>
+        <v>0.184301</v>
       </c>
       <c r="E10" t="n">
-        <v>0.32141</v>
+        <v>0.319821</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.209592</v>
+        <v>0.200101</v>
       </c>
       <c r="C11" t="n">
-        <v>0.391102</v>
+        <v>0.327138</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167977</v>
+        <v>0.17318</v>
       </c>
       <c r="E11" t="n">
-        <v>0.306307</v>
+        <v>0.313821</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.195598</v>
+        <v>0.20223</v>
       </c>
       <c r="C12" t="n">
-        <v>0.38111</v>
+        <v>0.313746</v>
       </c>
       <c r="D12" t="n">
-        <v>0.158496</v>
+        <v>0.168768</v>
       </c>
       <c r="E12" t="n">
-        <v>0.303579</v>
+        <v>0.303814</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.190781</v>
+        <v>0.186763</v>
       </c>
       <c r="C13" t="n">
-        <v>0.379912</v>
+        <v>0.304388</v>
       </c>
       <c r="D13" t="n">
-        <v>0.152255</v>
+        <v>0.158934</v>
       </c>
       <c r="E13" t="n">
-        <v>0.295531</v>
+        <v>0.297779</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.190823</v>
+        <v>0.186169</v>
       </c>
       <c r="C14" t="n">
-        <v>0.376405</v>
+        <v>0.299409</v>
       </c>
       <c r="D14" t="n">
-        <v>0.15716</v>
+        <v>0.152351</v>
       </c>
       <c r="E14" t="n">
-        <v>0.290788</v>
+        <v>0.290491</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.175134</v>
+        <v>0.17955</v>
       </c>
       <c r="C15" t="n">
-        <v>0.370044</v>
+        <v>0.297283</v>
       </c>
       <c r="D15" t="n">
-        <v>0.142005</v>
+        <v>0.151376</v>
       </c>
       <c r="E15" t="n">
-        <v>0.286236</v>
+        <v>0.28236</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.168551</v>
+        <v>0.169925</v>
       </c>
       <c r="C16" t="n">
-        <v>0.366509</v>
+        <v>0.288133</v>
       </c>
       <c r="D16" t="n">
-        <v>0.136816</v>
+        <v>0.144453</v>
       </c>
       <c r="E16" t="n">
-        <v>0.27627</v>
+        <v>0.279277</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.159679</v>
+        <v>0.169952</v>
       </c>
       <c r="C17" t="n">
-        <v>0.362169</v>
+        <v>0.286116</v>
       </c>
       <c r="D17" t="n">
-        <v>0.139587</v>
+        <v>0.14255</v>
       </c>
       <c r="E17" t="n">
-        <v>0.269827</v>
+        <v>0.278583</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.164206</v>
+        <v>0.159428</v>
       </c>
       <c r="C18" t="n">
-        <v>0.364199</v>
+        <v>0.277447</v>
       </c>
       <c r="D18" t="n">
-        <v>0.131545</v>
+        <v>0.138287</v>
       </c>
       <c r="E18" t="n">
-        <v>0.269586</v>
+        <v>0.270986</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.167199</v>
+        <v>0.159849</v>
       </c>
       <c r="C19" t="n">
-        <v>0.36117</v>
+        <v>0.275774</v>
       </c>
       <c r="D19" t="n">
-        <v>0.129135</v>
+        <v>0.132174</v>
       </c>
       <c r="E19" t="n">
-        <v>0.261332</v>
+        <v>0.262996</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154037</v>
+        <v>0.156023</v>
       </c>
       <c r="C20" t="n">
-        <v>0.357351</v>
+        <v>0.272375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.123154</v>
+        <v>0.12624</v>
       </c>
       <c r="E20" t="n">
-        <v>0.262818</v>
+        <v>0.259644</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.157372</v>
+        <v>0.1557</v>
       </c>
       <c r="C21" t="n">
-        <v>0.478261</v>
+        <v>0.272243</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1263</v>
+        <v>0.126251</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25938</v>
+        <v>0.256898</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.151621</v>
+        <v>0.152435</v>
       </c>
       <c r="C22" t="n">
-        <v>0.464696</v>
+        <v>0.266636</v>
       </c>
       <c r="D22" t="n">
-        <v>0.129065</v>
+        <v>0.130388</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25735</v>
+        <v>0.25623</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.157259</v>
+        <v>0.156024</v>
       </c>
       <c r="C23" t="n">
-        <v>0.456439</v>
+        <v>0.271617</v>
       </c>
       <c r="D23" t="n">
-        <v>0.214336</v>
+        <v>0.218024</v>
       </c>
       <c r="E23" t="n">
-        <v>0.333717</v>
+        <v>0.333706</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238303</v>
+        <v>0.233827</v>
       </c>
       <c r="C24" t="n">
-        <v>0.448159</v>
+        <v>0.337279</v>
       </c>
       <c r="D24" t="n">
-        <v>0.21995</v>
+        <v>0.210501</v>
       </c>
       <c r="E24" t="n">
-        <v>0.338816</v>
+        <v>0.32423</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.224434</v>
+        <v>0.228383</v>
       </c>
       <c r="C25" t="n">
-        <v>0.440673</v>
+        <v>0.32876</v>
       </c>
       <c r="D25" t="n">
-        <v>0.204141</v>
+        <v>0.204208</v>
       </c>
       <c r="E25" t="n">
-        <v>0.31587</v>
+        <v>0.316508</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224004</v>
+        <v>0.220456</v>
       </c>
       <c r="C26" t="n">
-        <v>0.431649</v>
+        <v>0.322134</v>
       </c>
       <c r="D26" t="n">
-        <v>0.187606</v>
+        <v>0.196868</v>
       </c>
       <c r="E26" t="n">
-        <v>0.308427</v>
+        <v>0.309382</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.215688</v>
+        <v>0.213422</v>
       </c>
       <c r="C27" t="n">
-        <v>0.425692</v>
+        <v>0.313981</v>
       </c>
       <c r="D27" t="n">
-        <v>0.185954</v>
+        <v>0.188748</v>
       </c>
       <c r="E27" t="n">
-        <v>0.298987</v>
+        <v>0.303421</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.20293</v>
+        <v>0.205874</v>
       </c>
       <c r="C28" t="n">
-        <v>0.418998</v>
+        <v>0.308687</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178845</v>
+        <v>0.179892</v>
       </c>
       <c r="E28" t="n">
-        <v>0.294611</v>
+        <v>0.294986</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.198964</v>
+        <v>0.200813</v>
       </c>
       <c r="C29" t="n">
-        <v>0.412593</v>
+        <v>0.301917</v>
       </c>
       <c r="D29" t="n">
-        <v>0.168237</v>
+        <v>0.179427</v>
       </c>
       <c r="E29" t="n">
-        <v>0.288183</v>
+        <v>0.288678</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.187941</v>
+        <v>0.189778</v>
       </c>
       <c r="C30" t="n">
-        <v>0.408417</v>
+        <v>0.294085</v>
       </c>
       <c r="D30" t="n">
-        <v>0.165532</v>
+        <v>0.171982</v>
       </c>
       <c r="E30" t="n">
-        <v>0.281609</v>
+        <v>0.281464</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.185272</v>
+        <v>0.187573</v>
       </c>
       <c r="C31" t="n">
-        <v>0.40367</v>
+        <v>0.289562</v>
       </c>
       <c r="D31" t="n">
-        <v>0.164239</v>
+        <v>0.163987</v>
       </c>
       <c r="E31" t="n">
-        <v>0.27668</v>
+        <v>0.276115</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.178074</v>
+        <v>0.179298</v>
       </c>
       <c r="C32" t="n">
-        <v>0.399719</v>
+        <v>0.285089</v>
       </c>
       <c r="D32" t="n">
-        <v>0.154562</v>
+        <v>0.161604</v>
       </c>
       <c r="E32" t="n">
-        <v>0.272235</v>
+        <v>0.272424</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.173278</v>
+        <v>0.174372</v>
       </c>
       <c r="C33" t="n">
-        <v>0.393748</v>
+        <v>0.281173</v>
       </c>
       <c r="D33" t="n">
-        <v>0.153521</v>
+        <v>0.155228</v>
       </c>
       <c r="E33" t="n">
-        <v>0.267661</v>
+        <v>0.269198</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.170074</v>
+        <v>0.170737</v>
       </c>
       <c r="C34" t="n">
-        <v>0.390428</v>
+        <v>0.278449</v>
       </c>
       <c r="D34" t="n">
-        <v>0.14963</v>
+        <v>0.151235</v>
       </c>
       <c r="E34" t="n">
-        <v>0.264742</v>
+        <v>0.265991</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.168305</v>
+        <v>0.169776</v>
       </c>
       <c r="C35" t="n">
-        <v>0.499331</v>
+        <v>0.277501</v>
       </c>
       <c r="D35" t="n">
-        <v>0.150836</v>
+        <v>0.148978</v>
       </c>
       <c r="E35" t="n">
-        <v>0.262336</v>
+        <v>0.263639</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.170652</v>
+        <v>0.167458</v>
       </c>
       <c r="C36" t="n">
-        <v>0.48684</v>
+        <v>0.275542</v>
       </c>
       <c r="D36" t="n">
-        <v>0.14771</v>
+        <v>0.151053</v>
       </c>
       <c r="E36" t="n">
-        <v>0.263208</v>
+        <v>0.262732</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167843</v>
+        <v>0.168934</v>
       </c>
       <c r="C37" t="n">
-        <v>0.478061</v>
+        <v>0.277917</v>
       </c>
       <c r="D37" t="n">
-        <v>0.230768</v>
+        <v>0.232206</v>
       </c>
       <c r="E37" t="n">
-        <v>0.347369</v>
+        <v>0.346762</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243961</v>
+        <v>0.24265</v>
       </c>
       <c r="C38" t="n">
-        <v>0.46875</v>
+        <v>0.349081</v>
       </c>
       <c r="D38" t="n">
-        <v>0.222972</v>
+        <v>0.224145</v>
       </c>
       <c r="E38" t="n">
-        <v>0.339619</v>
+        <v>0.339228</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235067</v>
+        <v>0.233352</v>
       </c>
       <c r="C39" t="n">
-        <v>0.458947</v>
+        <v>0.342839</v>
       </c>
       <c r="D39" t="n">
-        <v>0.213998</v>
+        <v>0.214385</v>
       </c>
       <c r="E39" t="n">
-        <v>0.332237</v>
+        <v>0.330513</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.22627</v>
+        <v>0.224601</v>
       </c>
       <c r="C40" t="n">
-        <v>0.450864</v>
+        <v>0.33484</v>
       </c>
       <c r="D40" t="n">
-        <v>0.205509</v>
+        <v>0.20562</v>
       </c>
       <c r="E40" t="n">
-        <v>0.323095</v>
+        <v>0.323463</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.218024</v>
+        <v>0.216783</v>
       </c>
       <c r="C41" t="n">
-        <v>0.443182</v>
+        <v>0.326773</v>
       </c>
       <c r="D41" t="n">
-        <v>0.19903</v>
+        <v>0.198049</v>
       </c>
       <c r="E41" t="n">
-        <v>0.315365</v>
+        <v>0.315191</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.210212</v>
+        <v>0.209271</v>
       </c>
       <c r="C42" t="n">
-        <v>0.437353</v>
+        <v>0.319283</v>
       </c>
       <c r="D42" t="n">
-        <v>0.191431</v>
+        <v>0.19209</v>
       </c>
       <c r="E42" t="n">
-        <v>0.308467</v>
+        <v>0.308142</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202858</v>
+        <v>0.202387</v>
       </c>
       <c r="C43" t="n">
-        <v>0.430382</v>
+        <v>0.314921</v>
       </c>
       <c r="D43" t="n">
-        <v>0.185004</v>
+        <v>0.184829</v>
       </c>
       <c r="E43" t="n">
-        <v>0.302061</v>
+        <v>0.302765</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.196171</v>
+        <v>0.195339</v>
       </c>
       <c r="C44" t="n">
-        <v>0.424477</v>
+        <v>0.307373</v>
       </c>
       <c r="D44" t="n">
-        <v>0.178242</v>
+        <v>0.178229</v>
       </c>
       <c r="E44" t="n">
-        <v>0.296349</v>
+        <v>0.295745</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190461</v>
+        <v>0.189984</v>
       </c>
       <c r="C45" t="n">
-        <v>0.419409</v>
+        <v>0.303327</v>
       </c>
       <c r="D45" t="n">
-        <v>0.171721</v>
+        <v>0.171888</v>
       </c>
       <c r="E45" t="n">
-        <v>0.290374</v>
+        <v>0.290152</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.185034</v>
+        <v>0.184114</v>
       </c>
       <c r="C46" t="n">
-        <v>0.414636</v>
+        <v>0.298358</v>
       </c>
       <c r="D46" t="n">
-        <v>0.166785</v>
+        <v>0.167221</v>
       </c>
       <c r="E46" t="n">
-        <v>0.285623</v>
+        <v>0.285459</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.180206</v>
+        <v>0.179742</v>
       </c>
       <c r="C47" t="n">
-        <v>0.40978</v>
+        <v>0.29493</v>
       </c>
       <c r="D47" t="n">
-        <v>0.163076</v>
+        <v>0.16227</v>
       </c>
       <c r="E47" t="n">
-        <v>0.281956</v>
+        <v>0.281763</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.176532</v>
+        <v>0.175957</v>
       </c>
       <c r="C48" t="n">
-        <v>0.406225</v>
+        <v>0.291795</v>
       </c>
       <c r="D48" t="n">
-        <v>0.159074</v>
+        <v>0.158313</v>
       </c>
       <c r="E48" t="n">
-        <v>0.278551</v>
+        <v>0.278584</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173492</v>
+        <v>0.172995</v>
       </c>
       <c r="C49" t="n">
-        <v>0.403185</v>
+        <v>0.289699</v>
       </c>
       <c r="D49" t="n">
-        <v>0.157048</v>
+        <v>0.156381</v>
       </c>
       <c r="E49" t="n">
-        <v>0.276744</v>
+        <v>0.276905</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171855</v>
+        <v>0.171902</v>
       </c>
       <c r="C50" t="n">
-        <v>0.506923</v>
+        <v>0.28985</v>
       </c>
       <c r="D50" t="n">
-        <v>0.155008</v>
+        <v>0.155032</v>
       </c>
       <c r="E50" t="n">
-        <v>0.275847</v>
+        <v>0.276418</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172451</v>
+        <v>0.172561</v>
       </c>
       <c r="C51" t="n">
-        <v>0.49607</v>
+        <v>0.290332</v>
       </c>
       <c r="D51" t="n">
-        <v>0.241177</v>
+        <v>0.240826</v>
       </c>
       <c r="E51" t="n">
-        <v>0.35945</v>
+        <v>0.358916</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174531</v>
+        <v>0.175413</v>
       </c>
       <c r="C52" t="n">
-        <v>0.485393</v>
+        <v>0.294745</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232474</v>
+        <v>0.23166</v>
       </c>
       <c r="E52" t="n">
-        <v>0.352226</v>
+        <v>0.349914</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241212</v>
+        <v>0.239534</v>
       </c>
       <c r="C53" t="n">
-        <v>0.47704</v>
+        <v>0.354679</v>
       </c>
       <c r="D53" t="n">
-        <v>0.222617</v>
+        <v>0.22326</v>
       </c>
       <c r="E53" t="n">
-        <v>0.342043</v>
+        <v>0.342049</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.231315</v>
+        <v>0.232159</v>
       </c>
       <c r="C54" t="n">
-        <v>0.467187</v>
+        <v>0.346221</v>
       </c>
       <c r="D54" t="n">
-        <v>0.214052</v>
+        <v>0.214667</v>
       </c>
       <c r="E54" t="n">
-        <v>0.334021</v>
+        <v>0.33405</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.222959</v>
+        <v>0.223622</v>
       </c>
       <c r="C55" t="n">
-        <v>0.459395</v>
+        <v>0.341407</v>
       </c>
       <c r="D55" t="n">
-        <v>0.206278</v>
+        <v>0.206755</v>
       </c>
       <c r="E55" t="n">
-        <v>0.329362</v>
+        <v>0.328488</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216001</v>
+        <v>0.215443</v>
       </c>
       <c r="C56" t="n">
-        <v>0.452921</v>
+        <v>0.334361</v>
       </c>
       <c r="D56" t="n">
-        <v>0.198674</v>
+        <v>0.198917</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3219</v>
+        <v>0.32179</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208546</v>
+        <v>0.208911</v>
       </c>
       <c r="C57" t="n">
-        <v>0.445497</v>
+        <v>0.328153</v>
       </c>
       <c r="D57" t="n">
-        <v>0.191601</v>
+        <v>0.19166</v>
       </c>
       <c r="E57" t="n">
-        <v>0.31556</v>
+        <v>0.314947</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.20144</v>
+        <v>0.201942</v>
       </c>
       <c r="C58" t="n">
-        <v>0.440853</v>
+        <v>0.3223</v>
       </c>
       <c r="D58" t="n">
-        <v>0.184668</v>
+        <v>0.185573</v>
       </c>
       <c r="E58" t="n">
-        <v>0.309051</v>
+        <v>0.309332</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.195596</v>
+        <v>0.194912</v>
       </c>
       <c r="C59" t="n">
-        <v>0.434352</v>
+        <v>0.31676</v>
       </c>
       <c r="D59" t="n">
-        <v>0.179357</v>
+        <v>0.179368</v>
       </c>
       <c r="E59" t="n">
-        <v>0.303773</v>
+        <v>0.30364</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.189667</v>
+        <v>0.190056</v>
       </c>
       <c r="C60" t="n">
-        <v>0.430313</v>
+        <v>0.312065</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1736</v>
+        <v>0.174019</v>
       </c>
       <c r="E60" t="n">
-        <v>0.298791</v>
+        <v>0.29824</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.184353</v>
+        <v>0.185024</v>
       </c>
       <c r="C61" t="n">
-        <v>0.426534</v>
+        <v>0.307972</v>
       </c>
       <c r="D61" t="n">
-        <v>0.168138</v>
+        <v>0.169024</v>
       </c>
       <c r="E61" t="n">
-        <v>0.29423</v>
+        <v>0.294058</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.180335</v>
+        <v>0.180688</v>
       </c>
       <c r="C62" t="n">
-        <v>0.422625</v>
+        <v>0.30471</v>
       </c>
       <c r="D62" t="n">
-        <v>0.164634</v>
+        <v>0.164984</v>
       </c>
       <c r="E62" t="n">
-        <v>0.29061</v>
+        <v>0.290343</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178093</v>
+        <v>0.177643</v>
       </c>
       <c r="C63" t="n">
-        <v>0.419713</v>
+        <v>0.302904</v>
       </c>
       <c r="D63" t="n">
-        <v>0.161852</v>
+        <v>0.162074</v>
       </c>
       <c r="E63" t="n">
-        <v>0.28855</v>
+        <v>0.288143</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176032</v>
+        <v>0.175814</v>
       </c>
       <c r="C64" t="n">
-        <v>0.544347</v>
+        <v>0.301407</v>
       </c>
       <c r="D64" t="n">
-        <v>0.159915</v>
+        <v>0.160201</v>
       </c>
       <c r="E64" t="n">
-        <v>0.286849</v>
+        <v>0.287438</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176322</v>
+        <v>0.175402</v>
       </c>
       <c r="C65" t="n">
-        <v>0.53371</v>
+        <v>0.30223</v>
       </c>
       <c r="D65" t="n">
-        <v>0.160633</v>
+        <v>0.160778</v>
       </c>
       <c r="E65" t="n">
-        <v>0.288573</v>
+        <v>0.288255</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.178398</v>
+        <v>0.178474</v>
       </c>
       <c r="C66" t="n">
-        <v>0.523499</v>
+        <v>0.305982</v>
       </c>
       <c r="D66" t="n">
-        <v>0.241778</v>
+        <v>0.242771</v>
       </c>
       <c r="E66" t="n">
-        <v>0.368444</v>
+        <v>0.36746</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.246205</v>
+        <v>0.243572</v>
       </c>
       <c r="C67" t="n">
-        <v>0.516787</v>
+        <v>0.372989</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234316</v>
+        <v>0.233622</v>
       </c>
       <c r="E67" t="n">
-        <v>0.360264</v>
+        <v>0.358745</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235745</v>
+        <v>0.234212</v>
       </c>
       <c r="C68" t="n">
-        <v>0.508951</v>
+        <v>0.365205</v>
       </c>
       <c r="D68" t="n">
-        <v>0.223856</v>
+        <v>0.22501</v>
       </c>
       <c r="E68" t="n">
-        <v>0.351966</v>
+        <v>0.350449</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.22844</v>
+        <v>0.228216</v>
       </c>
       <c r="C69" t="n">
-        <v>0.500625</v>
+        <v>0.360056</v>
       </c>
       <c r="D69" t="n">
-        <v>0.214878</v>
+        <v>0.216362</v>
       </c>
       <c r="E69" t="n">
-        <v>0.346137</v>
+        <v>0.345189</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219722</v>
+        <v>0.219632</v>
       </c>
       <c r="C70" t="n">
-        <v>0.494779</v>
+        <v>0.353916</v>
       </c>
       <c r="D70" t="n">
-        <v>0.206553</v>
+        <v>0.206836</v>
       </c>
       <c r="E70" t="n">
-        <v>0.338777</v>
+        <v>0.336985</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.211882</v>
+        <v>0.213174</v>
       </c>
       <c r="C71" t="n">
-        <v>0.489162</v>
+        <v>0.345508</v>
       </c>
       <c r="D71" t="n">
-        <v>0.200975</v>
+        <v>0.201062</v>
       </c>
       <c r="E71" t="n">
-        <v>0.33184</v>
+        <v>0.331306</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205851</v>
+        <v>0.205912</v>
       </c>
       <c r="C72" t="n">
-        <v>0.483936</v>
+        <v>0.340693</v>
       </c>
       <c r="D72" t="n">
-        <v>0.194188</v>
+        <v>0.195946</v>
       </c>
       <c r="E72" t="n">
-        <v>0.324914</v>
+        <v>0.324755</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199915</v>
+        <v>0.199496</v>
       </c>
       <c r="C73" t="n">
-        <v>0.481121</v>
+        <v>0.334037</v>
       </c>
       <c r="D73" t="n">
-        <v>0.188362</v>
+        <v>0.187514</v>
       </c>
       <c r="E73" t="n">
-        <v>0.319398</v>
+        <v>0.317328</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.19416</v>
+        <v>0.193273</v>
       </c>
       <c r="C74" t="n">
-        <v>0.496074</v>
+        <v>0.329398</v>
       </c>
       <c r="D74" t="n">
-        <v>0.182427</v>
+        <v>0.180711</v>
       </c>
       <c r="E74" t="n">
-        <v>0.313882</v>
+        <v>0.311783</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188783</v>
+        <v>0.188503</v>
       </c>
       <c r="C75" t="n">
-        <v>0.488899</v>
+        <v>0.325313</v>
       </c>
       <c r="D75" t="n">
-        <v>0.17682</v>
+        <v>0.176556</v>
       </c>
       <c r="E75" t="n">
-        <v>0.308808</v>
+        <v>0.308664</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.183925</v>
+        <v>0.184609</v>
       </c>
       <c r="C76" t="n">
-        <v>0.486092</v>
+        <v>0.321242</v>
       </c>
       <c r="D76" t="n">
-        <v>0.171969</v>
+        <v>0.17224</v>
       </c>
       <c r="E76" t="n">
-        <v>0.305441</v>
+        <v>0.3047</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182219</v>
+        <v>0.18148</v>
       </c>
       <c r="C77" t="n">
-        <v>0.483301</v>
+        <v>0.318939</v>
       </c>
       <c r="D77" t="n">
-        <v>0.167466</v>
+        <v>0.168469</v>
       </c>
       <c r="E77" t="n">
-        <v>0.301947</v>
+        <v>0.302101</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178711</v>
+        <v>0.179322</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6619080000000001</v>
+        <v>0.319787</v>
       </c>
       <c r="D78" t="n">
-        <v>0.166872</v>
+        <v>0.166355</v>
       </c>
       <c r="E78" t="n">
-        <v>0.303099</v>
+        <v>0.302649</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.17904</v>
+        <v>0.178584</v>
       </c>
       <c r="C79" t="n">
-        <v>0.651641</v>
+        <v>0.320263</v>
       </c>
       <c r="D79" t="n">
-        <v>0.166623</v>
+        <v>0.1663</v>
       </c>
       <c r="E79" t="n">
-        <v>0.303311</v>
+        <v>0.304102</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180346</v>
+        <v>0.181019</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6414840000000001</v>
+        <v>0.322594</v>
       </c>
       <c r="D80" t="n">
-        <v>0.2389</v>
+        <v>0.240341</v>
       </c>
       <c r="E80" t="n">
-        <v>0.384061</v>
+        <v>0.385263</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257797</v>
+        <v>0.257652</v>
       </c>
       <c r="C81" t="n">
-        <v>0.634898</v>
+        <v>0.395567</v>
       </c>
       <c r="D81" t="n">
-        <v>0.231233</v>
+        <v>0.231719</v>
       </c>
       <c r="E81" t="n">
-        <v>0.377682</v>
+        <v>0.379656</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.248989</v>
+        <v>0.248963</v>
       </c>
       <c r="C82" t="n">
-        <v>0.626458</v>
+        <v>0.390343</v>
       </c>
       <c r="D82" t="n">
-        <v>0.222629</v>
+        <v>0.223587</v>
       </c>
       <c r="E82" t="n">
-        <v>0.372194</v>
+        <v>0.372764</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242374</v>
+        <v>0.241342</v>
       </c>
       <c r="C83" t="n">
-        <v>0.619111</v>
+        <v>0.384899</v>
       </c>
       <c r="D83" t="n">
-        <v>0.215057</v>
+        <v>0.215692</v>
       </c>
       <c r="E83" t="n">
-        <v>0.364102</v>
+        <v>0.366559</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.233789</v>
+        <v>0.233611</v>
       </c>
       <c r="C84" t="n">
-        <v>0.618937</v>
+        <v>0.380922</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207065</v>
+        <v>0.208063</v>
       </c>
       <c r="E84" t="n">
-        <v>0.360852</v>
+        <v>0.362256</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.22662</v>
+        <v>0.22627</v>
       </c>
       <c r="C85" t="n">
-        <v>0.616578</v>
+        <v>0.376421</v>
       </c>
       <c r="D85" t="n">
-        <v>0.200438</v>
+        <v>0.200958</v>
       </c>
       <c r="E85" t="n">
-        <v>0.355225</v>
+        <v>0.355983</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219911</v>
+        <v>0.219501</v>
       </c>
       <c r="C86" t="n">
-        <v>0.616543</v>
+        <v>0.371421</v>
       </c>
       <c r="D86" t="n">
-        <v>0.193262</v>
+        <v>0.19433</v>
       </c>
       <c r="E86" t="n">
-        <v>0.34856</v>
+        <v>0.349872</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.21385</v>
+        <v>0.213033</v>
       </c>
       <c r="C87" t="n">
-        <v>0.618468</v>
+        <v>0.36511</v>
       </c>
       <c r="D87" t="n">
-        <v>0.187335</v>
+        <v>0.188192</v>
       </c>
       <c r="E87" t="n">
-        <v>0.34299</v>
+        <v>0.344329</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20712</v>
+        <v>0.206799</v>
       </c>
       <c r="C88" t="n">
-        <v>0.618605</v>
+        <v>0.36111</v>
       </c>
       <c r="D88" t="n">
-        <v>0.182132</v>
+        <v>0.182418</v>
       </c>
       <c r="E88" t="n">
-        <v>0.338553</v>
+        <v>0.339723</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2016</v>
+        <v>0.201245</v>
       </c>
       <c r="C89" t="n">
-        <v>0.631288</v>
+        <v>0.356943</v>
       </c>
       <c r="D89" t="n">
-        <v>0.176589</v>
+        <v>0.177</v>
       </c>
       <c r="E89" t="n">
-        <v>0.332812</v>
+        <v>0.334136</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196505</v>
+        <v>0.196064</v>
       </c>
       <c r="C90" t="n">
-        <v>0.634706</v>
+        <v>0.352875</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173081</v>
+        <v>0.172453</v>
       </c>
       <c r="E90" t="n">
-        <v>0.329783</v>
+        <v>0.330572</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193329</v>
+        <v>0.192297</v>
       </c>
       <c r="C91" t="n">
-        <v>0.640709</v>
+        <v>0.349672</v>
       </c>
       <c r="D91" t="n">
-        <v>0.169023</v>
+        <v>0.169365</v>
       </c>
       <c r="E91" t="n">
-        <v>0.326459</v>
+        <v>0.327438</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190124</v>
+        <v>0.189483</v>
       </c>
       <c r="C92" t="n">
-        <v>0.853437</v>
+        <v>0.348847</v>
       </c>
       <c r="D92" t="n">
-        <v>0.166908</v>
+        <v>0.166989</v>
       </c>
       <c r="E92" t="n">
-        <v>0.325092</v>
+        <v>0.326446</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188597</v>
+        <v>0.187696</v>
       </c>
       <c r="C93" t="n">
-        <v>0.851041</v>
+        <v>0.348857</v>
       </c>
       <c r="D93" t="n">
-        <v>0.166814</v>
+        <v>0.166374</v>
       </c>
       <c r="E93" t="n">
-        <v>0.32522</v>
+        <v>0.326881</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189371</v>
+        <v>0.188877</v>
       </c>
       <c r="C94" t="n">
-        <v>0.846677</v>
+        <v>0.351406</v>
       </c>
       <c r="D94" t="n">
-        <v>0.252534</v>
+        <v>0.252362</v>
       </c>
       <c r="E94" t="n">
-        <v>0.452238</v>
+        <v>0.451844</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.270674</v>
+        <v>0.269422</v>
       </c>
       <c r="C95" t="n">
-        <v>0.839566</v>
+        <v>0.466213</v>
       </c>
       <c r="D95" t="n">
-        <v>0.244438</v>
+        <v>0.244749</v>
       </c>
       <c r="E95" t="n">
-        <v>0.451668</v>
+        <v>0.449311</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265072</v>
+        <v>0.264055</v>
       </c>
       <c r="C96" t="n">
-        <v>0.837027</v>
+        <v>0.46554</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236967</v>
+        <v>0.236982</v>
       </c>
       <c r="E96" t="n">
-        <v>0.447145</v>
+        <v>0.446572</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258834</v>
+        <v>0.256954</v>
       </c>
       <c r="C97" t="n">
-        <v>0.84036</v>
+        <v>0.462561</v>
       </c>
       <c r="D97" t="n">
-        <v>0.229011</v>
+        <v>0.228715</v>
       </c>
       <c r="E97" t="n">
-        <v>0.442183</v>
+        <v>0.439353</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251641</v>
+        <v>0.250339</v>
       </c>
       <c r="C98" t="n">
-        <v>0.840439</v>
+        <v>0.45841</v>
       </c>
       <c r="D98" t="n">
-        <v>0.220682</v>
+        <v>0.221592</v>
       </c>
       <c r="E98" t="n">
-        <v>0.437287</v>
+        <v>0.435389</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245263</v>
+        <v>0.243449</v>
       </c>
       <c r="C99" t="n">
-        <v>0.841024</v>
+        <v>0.452312</v>
       </c>
       <c r="D99" t="n">
-        <v>0.213943</v>
+        <v>0.214491</v>
       </c>
       <c r="E99" t="n">
-        <v>0.432007</v>
+        <v>0.431374</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238488</v>
+        <v>0.237426</v>
       </c>
       <c r="C100" t="n">
-        <v>0.84118</v>
+        <v>0.448581</v>
       </c>
       <c r="D100" t="n">
-        <v>0.20784</v>
+        <v>0.208163</v>
       </c>
       <c r="E100" t="n">
-        <v>0.428233</v>
+        <v>0.426456</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233411</v>
+        <v>0.23176</v>
       </c>
       <c r="C101" t="n">
-        <v>0.845235</v>
+        <v>0.443763</v>
       </c>
       <c r="D101" t="n">
-        <v>0.20147</v>
+        <v>0.201468</v>
       </c>
       <c r="E101" t="n">
-        <v>0.423292</v>
+        <v>0.421453</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227946</v>
+        <v>0.22628</v>
       </c>
       <c r="C102" t="n">
-        <v>0.849178</v>
+        <v>0.441738</v>
       </c>
       <c r="D102" t="n">
-        <v>0.195865</v>
+        <v>0.195991</v>
       </c>
       <c r="E102" t="n">
-        <v>0.418646</v>
+        <v>0.416408</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222458</v>
+        <v>0.22135</v>
       </c>
       <c r="C103" t="n">
-        <v>0.859448</v>
+        <v>0.437504</v>
       </c>
       <c r="D103" t="n">
-        <v>0.190898</v>
+        <v>0.190654</v>
       </c>
       <c r="E103" t="n">
-        <v>0.41523</v>
+        <v>0.414015</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218327</v>
+        <v>0.216885</v>
       </c>
       <c r="C104" t="n">
-        <v>0.866117</v>
+        <v>0.435546</v>
       </c>
       <c r="D104" t="n">
-        <v>0.186294</v>
+        <v>0.186415</v>
       </c>
       <c r="E104" t="n">
-        <v>0.411758</v>
+        <v>0.410954</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214176</v>
+        <v>0.213133</v>
       </c>
       <c r="C105" t="n">
-        <v>0.873801</v>
+        <v>0.43324</v>
       </c>
       <c r="D105" t="n">
-        <v>0.182449</v>
+        <v>0.182418</v>
       </c>
       <c r="E105" t="n">
-        <v>0.409843</v>
+        <v>0.408652</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211275</v>
+        <v>0.209857</v>
       </c>
       <c r="C106" t="n">
-        <v>0.882031</v>
+        <v>0.433076</v>
       </c>
       <c r="D106" t="n">
-        <v>0.180164</v>
+        <v>0.180021</v>
       </c>
       <c r="E106" t="n">
-        <v>0.408188</v>
+        <v>0.407249</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208723</v>
+        <v>0.208114</v>
       </c>
       <c r="C107" t="n">
-        <v>1.12628</v>
+        <v>0.433445</v>
       </c>
       <c r="D107" t="n">
-        <v>0.179211</v>
+        <v>0.178849</v>
       </c>
       <c r="E107" t="n">
-        <v>0.407718</v>
+        <v>0.407123</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208655</v>
+        <v>0.207752</v>
       </c>
       <c r="C108" t="n">
-        <v>1.11366</v>
+        <v>0.437247</v>
       </c>
       <c r="D108" t="n">
-        <v>0.268571</v>
+        <v>0.268088</v>
       </c>
       <c r="E108" t="n">
-        <v>0.566439</v>
+        <v>0.567639</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210629</v>
+        <v>0.209941</v>
       </c>
       <c r="C109" t="n">
-        <v>1.10831</v>
+        <v>0.441556</v>
       </c>
       <c r="D109" t="n">
-        <v>0.263123</v>
+        <v>0.261836</v>
       </c>
       <c r="E109" t="n">
-        <v>0.564304</v>
+        <v>0.56411</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285509</v>
+        <v>0.28336</v>
       </c>
       <c r="C110" t="n">
-        <v>1.09924</v>
+        <v>0.5845900000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.255147</v>
+        <v>0.254596</v>
       </c>
       <c r="E110" t="n">
-        <v>0.557965</v>
+        <v>0.560036</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278433</v>
+        <v>0.277015</v>
       </c>
       <c r="C111" t="n">
-        <v>1.10141</v>
+        <v>0.5769339999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.248045</v>
+        <v>0.246936</v>
       </c>
       <c r="E111" t="n">
-        <v>0.551828</v>
+        <v>0.553359</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.271806</v>
+        <v>0.271433</v>
       </c>
       <c r="C112" t="n">
-        <v>1.09589</v>
+        <v>0.570306</v>
       </c>
       <c r="D112" t="n">
-        <v>0.24044</v>
+        <v>0.240006</v>
       </c>
       <c r="E112" t="n">
-        <v>0.544925</v>
+        <v>0.549264</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266427</v>
+        <v>0.264697</v>
       </c>
       <c r="C113" t="n">
-        <v>1.09404</v>
+        <v>0.566022</v>
       </c>
       <c r="D113" t="n">
-        <v>0.234071</v>
+        <v>0.233716</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5423289999999999</v>
+        <v>0.544668</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260565</v>
+        <v>0.25946</v>
       </c>
       <c r="C114" t="n">
-        <v>1.09267</v>
+        <v>0.561483</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227632</v>
+        <v>0.227718</v>
       </c>
       <c r="E114" t="n">
-        <v>0.536821</v>
+        <v>0.538048</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255512</v>
+        <v>0.254056</v>
       </c>
       <c r="C115" t="n">
-        <v>1.09583</v>
+        <v>0.5574</v>
       </c>
       <c r="D115" t="n">
-        <v>0.22211</v>
+        <v>0.222037</v>
       </c>
       <c r="E115" t="n">
-        <v>0.533166</v>
+        <v>0.532088</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250615</v>
+        <v>0.249101</v>
       </c>
       <c r="C116" t="n">
-        <v>1.09592</v>
+        <v>0.553669</v>
       </c>
       <c r="D116" t="n">
-        <v>0.216672</v>
+        <v>0.216501</v>
       </c>
       <c r="E116" t="n">
-        <v>0.529174</v>
+        <v>0.530716</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245594</v>
+        <v>0.24431</v>
       </c>
       <c r="C117" t="n">
-        <v>1.09785</v>
+        <v>0.548963</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211883</v>
+        <v>0.211595</v>
       </c>
       <c r="E117" t="n">
-        <v>0.526789</v>
+        <v>0.528498</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.244716</v>
+        <v>0.240493</v>
       </c>
       <c r="C118" t="n">
-        <v>1.10406</v>
+        <v>0.546881</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2085</v>
+        <v>0.207413</v>
       </c>
       <c r="E118" t="n">
-        <v>0.52432</v>
+        <v>0.525135</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237814</v>
+        <v>0.236525</v>
       </c>
       <c r="C119" t="n">
-        <v>1.1105</v>
+        <v>0.54664</v>
       </c>
       <c r="D119" t="n">
-        <v>0.204125</v>
+        <v>0.203898</v>
       </c>
       <c r="E119" t="n">
-        <v>0.523133</v>
+        <v>0.523871</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234924</v>
+        <v>0.233723</v>
       </c>
       <c r="C120" t="n">
-        <v>1.1192</v>
+        <v>0.545049</v>
       </c>
       <c r="D120" t="n">
-        <v>0.201067</v>
+        <v>0.201083</v>
       </c>
       <c r="E120" t="n">
-        <v>0.520985</v>
+        <v>0.522373</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232693</v>
+        <v>0.231859</v>
       </c>
       <c r="C121" t="n">
-        <v>1.38021</v>
+        <v>0.545854</v>
       </c>
       <c r="D121" t="n">
-        <v>0.199423</v>
+        <v>0.199461</v>
       </c>
       <c r="E121" t="n">
-        <v>0.520991</v>
+        <v>0.512311</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231404</v>
+        <v>0.230759</v>
       </c>
       <c r="C122" t="n">
-        <v>1.36711</v>
+        <v>0.539725</v>
       </c>
       <c r="D122" t="n">
-        <v>0.200191</v>
+        <v>0.200136</v>
       </c>
       <c r="E122" t="n">
-        <v>0.522709</v>
+        <v>0.523827</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232607</v>
+        <v>0.231814</v>
       </c>
       <c r="C123" t="n">
-        <v>1.35208</v>
+        <v>0.5530350000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.285389</v>
+        <v>0.284681</v>
       </c>
       <c r="E123" t="n">
-        <v>0.694646</v>
+        <v>0.694266</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.316721</v>
+        <v>0.314521</v>
       </c>
       <c r="C124" t="n">
-        <v>1.33879</v>
+        <v>0.716462</v>
       </c>
       <c r="D124" t="n">
-        <v>0.279535</v>
+        <v>0.277946</v>
       </c>
       <c r="E124" t="n">
-        <v>0.688746</v>
+        <v>0.6908339999999999</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311521</v>
+        <v>0.309412</v>
       </c>
       <c r="C125" t="n">
-        <v>1.33025</v>
+        <v>0.7118989999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.273237</v>
+        <v>0.273137</v>
       </c>
       <c r="E125" t="n">
-        <v>0.685202</v>
+        <v>0.685786</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.304916</v>
+        <v>0.303327</v>
       </c>
       <c r="C126" t="n">
-        <v>1.32117</v>
+        <v>0.7065709999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.267652</v>
+        <v>0.267512</v>
       </c>
       <c r="E126" t="n">
-        <v>0.680929</v>
+        <v>0.681535</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.299863</v>
+        <v>0.298392</v>
       </c>
       <c r="C127" t="n">
-        <v>1.31379</v>
+        <v>0.7038140000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.26304</v>
+        <v>0.262561</v>
       </c>
       <c r="E127" t="n">
-        <v>0.678063</v>
+        <v>0.67717</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.294634</v>
+        <v>0.293543</v>
       </c>
       <c r="C128" t="n">
-        <v>1.30768</v>
+        <v>0.699593</v>
       </c>
       <c r="D128" t="n">
-        <v>0.258886</v>
+        <v>0.258069</v>
       </c>
       <c r="E128" t="n">
-        <v>0.660381</v>
+        <v>0.674154</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290007</v>
+        <v>0.288746</v>
       </c>
       <c r="C129" t="n">
-        <v>1.30326</v>
+        <v>0.696249</v>
       </c>
       <c r="D129" t="n">
-        <v>0.254448</v>
+        <v>0.253704</v>
       </c>
       <c r="E129" t="n">
-        <v>0.669822</v>
+        <v>0.672901</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.285681</v>
+        <v>0.284622</v>
       </c>
       <c r="C130" t="n">
-        <v>1.30056</v>
+        <v>0.69355</v>
       </c>
       <c r="D130" t="n">
-        <v>0.250205</v>
+        <v>0.249483</v>
       </c>
       <c r="E130" t="n">
-        <v>0.66858</v>
+        <v>0.668199</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281672</v>
+        <v>0.280478</v>
       </c>
       <c r="C131" t="n">
-        <v>1.30008</v>
+        <v>0.692519</v>
       </c>
       <c r="D131" t="n">
-        <v>0.24612</v>
+        <v>0.246692</v>
       </c>
       <c r="E131" t="n">
-        <v>0.666127</v>
+        <v>0.66727</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278486</v>
+        <v>0.276987</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30108</v>
+        <v>0.691621</v>
       </c>
       <c r="D132" t="n">
-        <v>0.243283</v>
+        <v>0.242649</v>
       </c>
       <c r="E132" t="n">
-        <v>0.664091</v>
+        <v>0.665625</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275255</v>
+        <v>0.273816</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30141</v>
+        <v>0.691631</v>
       </c>
       <c r="D133" t="n">
-        <v>0.240187</v>
+        <v>0.239864</v>
       </c>
       <c r="E133" t="n">
-        <v>0.662888</v>
+        <v>0.664073</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.272149</v>
+        <v>0.270872</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30559</v>
+        <v>0.690905</v>
       </c>
       <c r="D134" t="n">
-        <v>0.238426</v>
+        <v>0.237659</v>
       </c>
       <c r="E134" t="n">
-        <v>0.662808</v>
+        <v>0.663954</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270314</v>
+        <v>0.269006</v>
       </c>
       <c r="C135" t="n">
-        <v>1.58034</v>
+        <v>0.69285</v>
       </c>
       <c r="D135" t="n">
-        <v>0.236633</v>
+        <v>0.236048</v>
       </c>
       <c r="E135" t="n">
-        <v>0.663058</v>
+        <v>0.6647960000000001</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.269997</v>
+        <v>0.26843</v>
       </c>
       <c r="C136" t="n">
-        <v>1.55781</v>
+        <v>0.695559</v>
       </c>
       <c r="D136" t="n">
-        <v>0.23708</v>
+        <v>0.23626</v>
       </c>
       <c r="E136" t="n">
-        <v>0.664988</v>
+        <v>0.668096</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.270583</v>
+        <v>0.269019</v>
       </c>
       <c r="C137" t="n">
-        <v>1.53836</v>
+        <v>0.699852</v>
       </c>
       <c r="D137" t="n">
-        <v>0.334836</v>
+        <v>0.33312</v>
       </c>
       <c r="E137" t="n">
-        <v>0.847299</v>
+        <v>0.846157</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.369063</v>
+        <v>0.352446</v>
       </c>
       <c r="C138" t="n">
-        <v>1.5207</v>
+        <v>0.876627</v>
       </c>
       <c r="D138" t="n">
-        <v>0.329067</v>
+        <v>0.325027</v>
       </c>
       <c r="E138" t="n">
-        <v>0.846291</v>
+        <v>0.845283</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.363506</v>
+        <v>0.346175</v>
       </c>
       <c r="C139" t="n">
-        <v>1.50344</v>
+        <v>0.875633</v>
       </c>
       <c r="D139" t="n">
-        <v>0.323726</v>
+        <v>0.319971</v>
       </c>
       <c r="E139" t="n">
-        <v>0.845287</v>
+        <v>0.8446900000000001</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.358269</v>
+        <v>0.341612</v>
       </c>
       <c r="C140" t="n">
-        <v>1.49007</v>
+        <v>0.876149</v>
       </c>
       <c r="D140" t="n">
-        <v>0.319833</v>
+        <v>0.315505</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8449950000000001</v>
+        <v>0.843602</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.352863</v>
+        <v>0.336588</v>
       </c>
       <c r="C141" t="n">
-        <v>1.47742</v>
+        <v>0.875182</v>
       </c>
       <c r="D141" t="n">
-        <v>0.314732</v>
+        <v>0.311598</v>
       </c>
       <c r="E141" t="n">
-        <v>0.844019</v>
+        <v>0.8426</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.34801</v>
+        <v>0.33368</v>
       </c>
       <c r="C142" t="n">
-        <v>1.46587</v>
+        <v>0.874887</v>
       </c>
       <c r="D142" t="n">
-        <v>0.310756</v>
+        <v>0.307492</v>
       </c>
       <c r="E142" t="n">
-        <v>0.844831</v>
+        <v>0.842755</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.34351</v>
+        <v>0.328865</v>
       </c>
       <c r="C143" t="n">
-        <v>1.45791</v>
+        <v>0.874756</v>
       </c>
       <c r="D143" t="n">
-        <v>0.307162</v>
+        <v>0.30386</v>
       </c>
       <c r="E143" t="n">
-        <v>0.844638</v>
+        <v>0.842948</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.15337</v>
+        <v>0.160592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.312145</v>
+        <v>0.312351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.142888</v>
+        <v>0.142626</v>
       </c>
       <c r="E2" t="n">
-        <v>0.271192</v>
+        <v>0.275498</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.155158</v>
+        <v>0.166051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.311864</v>
+        <v>0.311213</v>
       </c>
       <c r="D3" t="n">
-        <v>0.144159</v>
+        <v>0.133091</v>
       </c>
       <c r="E3" t="n">
-        <v>0.269766</v>
+        <v>0.269781</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.159661</v>
+        <v>0.158619</v>
       </c>
       <c r="C4" t="n">
-        <v>0.311341</v>
+        <v>0.309465</v>
       </c>
       <c r="D4" t="n">
-        <v>0.139729</v>
+        <v>0.132474</v>
       </c>
       <c r="E4" t="n">
-        <v>0.261942</v>
+        <v>0.271651</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.151036</v>
+        <v>0.144099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.306772</v>
+        <v>0.311647</v>
       </c>
       <c r="D5" t="n">
-        <v>0.130455</v>
+        <v>0.123446</v>
       </c>
       <c r="E5" t="n">
-        <v>0.266898</v>
+        <v>0.2596</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.145481</v>
+        <v>0.14671</v>
       </c>
       <c r="C6" t="n">
-        <v>0.308161</v>
+        <v>0.312555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.130001</v>
+        <v>0.119154</v>
       </c>
       <c r="E6" t="n">
-        <v>0.264205</v>
+        <v>0.263622</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.143135</v>
+        <v>0.14713</v>
       </c>
       <c r="C7" t="n">
-        <v>0.408994</v>
+        <v>0.402974</v>
       </c>
       <c r="D7" t="n">
-        <v>0.114646</v>
+        <v>0.118645</v>
       </c>
       <c r="E7" t="n">
-        <v>0.261823</v>
+        <v>0.260277</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.148369</v>
+        <v>0.151916</v>
       </c>
       <c r="C8" t="n">
-        <v>0.405189</v>
+        <v>0.402754</v>
       </c>
       <c r="D8" t="n">
-        <v>0.121203</v>
+        <v>0.118382</v>
       </c>
       <c r="E8" t="n">
-        <v>0.260876</v>
+        <v>0.262969</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150446</v>
+        <v>0.153423</v>
       </c>
       <c r="C9" t="n">
-        <v>0.401577</v>
+        <v>0.393103</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177485</v>
+        <v>0.187521</v>
       </c>
       <c r="E9" t="n">
-        <v>0.337755</v>
+        <v>0.324394</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.207322</v>
+        <v>0.216021</v>
       </c>
       <c r="C10" t="n">
-        <v>0.391147</v>
+        <v>0.394877</v>
       </c>
       <c r="D10" t="n">
-        <v>0.178184</v>
+        <v>0.19191</v>
       </c>
       <c r="E10" t="n">
-        <v>0.32141</v>
+        <v>0.32339</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.209592</v>
+        <v>0.207101</v>
       </c>
       <c r="C11" t="n">
-        <v>0.391102</v>
+        <v>0.392311</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167977</v>
+        <v>0.166917</v>
       </c>
       <c r="E11" t="n">
-        <v>0.306307</v>
+        <v>0.309828</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.195598</v>
+        <v>0.199941</v>
       </c>
       <c r="C12" t="n">
-        <v>0.38111</v>
+        <v>0.385437</v>
       </c>
       <c r="D12" t="n">
-        <v>0.158496</v>
+        <v>0.163419</v>
       </c>
       <c r="E12" t="n">
-        <v>0.303579</v>
+        <v>0.299711</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.190781</v>
+        <v>0.191693</v>
       </c>
       <c r="C13" t="n">
-        <v>0.379912</v>
+        <v>0.378466</v>
       </c>
       <c r="D13" t="n">
-        <v>0.152255</v>
+        <v>0.152494</v>
       </c>
       <c r="E13" t="n">
-        <v>0.295531</v>
+        <v>0.292554</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.190823</v>
+        <v>0.191731</v>
       </c>
       <c r="C14" t="n">
-        <v>0.376405</v>
+        <v>0.374053</v>
       </c>
       <c r="D14" t="n">
-        <v>0.15716</v>
+        <v>0.159117</v>
       </c>
       <c r="E14" t="n">
-        <v>0.290788</v>
+        <v>0.289186</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.175134</v>
+        <v>0.182855</v>
       </c>
       <c r="C15" t="n">
-        <v>0.370044</v>
+        <v>0.369763</v>
       </c>
       <c r="D15" t="n">
-        <v>0.142005</v>
+        <v>0.146201</v>
       </c>
       <c r="E15" t="n">
-        <v>0.286236</v>
+        <v>0.286515</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.168551</v>
+        <v>0.175022</v>
       </c>
       <c r="C16" t="n">
-        <v>0.366509</v>
+        <v>0.370073</v>
       </c>
       <c r="D16" t="n">
-        <v>0.136816</v>
+        <v>0.148104</v>
       </c>
       <c r="E16" t="n">
-        <v>0.27627</v>
+        <v>0.27954</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.159679</v>
+        <v>0.174301</v>
       </c>
       <c r="C17" t="n">
-        <v>0.362169</v>
+        <v>0.366677</v>
       </c>
       <c r="D17" t="n">
-        <v>0.139587</v>
+        <v>0.136198</v>
       </c>
       <c r="E17" t="n">
-        <v>0.269827</v>
+        <v>0.272953</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.164206</v>
+        <v>0.165929</v>
       </c>
       <c r="C18" t="n">
-        <v>0.364199</v>
+        <v>0.361445</v>
       </c>
       <c r="D18" t="n">
-        <v>0.131545</v>
+        <v>0.131453</v>
       </c>
       <c r="E18" t="n">
-        <v>0.269586</v>
+        <v>0.268956</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.167199</v>
+        <v>0.160205</v>
       </c>
       <c r="C19" t="n">
-        <v>0.36117</v>
+        <v>0.358589</v>
       </c>
       <c r="D19" t="n">
-        <v>0.129135</v>
+        <v>0.136482</v>
       </c>
       <c r="E19" t="n">
-        <v>0.261332</v>
+        <v>0.263565</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154037</v>
+        <v>0.156395</v>
       </c>
       <c r="C20" t="n">
-        <v>0.357351</v>
+        <v>0.359455</v>
       </c>
       <c r="D20" t="n">
-        <v>0.123154</v>
+        <v>0.126999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.262818</v>
+        <v>0.26228</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.157372</v>
+        <v>0.157095</v>
       </c>
       <c r="C21" t="n">
-        <v>0.478261</v>
+        <v>0.478092</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1263</v>
+        <v>0.124094</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25938</v>
+        <v>0.261532</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.151621</v>
+        <v>0.156576</v>
       </c>
       <c r="C22" t="n">
-        <v>0.464696</v>
+        <v>0.467301</v>
       </c>
       <c r="D22" t="n">
-        <v>0.129065</v>
+        <v>0.125579</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25735</v>
+        <v>0.257036</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.157259</v>
+        <v>0.157574</v>
       </c>
       <c r="C23" t="n">
-        <v>0.456439</v>
+        <v>0.457898</v>
       </c>
       <c r="D23" t="n">
-        <v>0.214336</v>
+        <v>0.222103</v>
       </c>
       <c r="E23" t="n">
-        <v>0.333717</v>
+        <v>0.334521</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238303</v>
+        <v>0.24099</v>
       </c>
       <c r="C24" t="n">
-        <v>0.448159</v>
+        <v>0.448073</v>
       </c>
       <c r="D24" t="n">
-        <v>0.21995</v>
+        <v>0.208784</v>
       </c>
       <c r="E24" t="n">
-        <v>0.338816</v>
+        <v>0.327597</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.224434</v>
+        <v>0.235363</v>
       </c>
       <c r="C25" t="n">
-        <v>0.440673</v>
+        <v>0.44126</v>
       </c>
       <c r="D25" t="n">
-        <v>0.204141</v>
+        <v>0.194829</v>
       </c>
       <c r="E25" t="n">
-        <v>0.31587</v>
+        <v>0.317334</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224004</v>
+        <v>0.213991</v>
       </c>
       <c r="C26" t="n">
-        <v>0.431649</v>
+        <v>0.432859</v>
       </c>
       <c r="D26" t="n">
-        <v>0.187606</v>
+        <v>0.199325</v>
       </c>
       <c r="E26" t="n">
-        <v>0.308427</v>
+        <v>0.310105</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.215688</v>
+        <v>0.217054</v>
       </c>
       <c r="C27" t="n">
-        <v>0.425692</v>
+        <v>0.424014</v>
       </c>
       <c r="D27" t="n">
-        <v>0.185954</v>
+        <v>0.190551</v>
       </c>
       <c r="E27" t="n">
-        <v>0.298987</v>
+        <v>0.302456</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.20293</v>
+        <v>0.209803</v>
       </c>
       <c r="C28" t="n">
-        <v>0.418998</v>
+        <v>0.419645</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178845</v>
+        <v>0.179393</v>
       </c>
       <c r="E28" t="n">
-        <v>0.294611</v>
+        <v>0.296019</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.198964</v>
+        <v>0.194703</v>
       </c>
       <c r="C29" t="n">
-        <v>0.412593</v>
+        <v>0.414036</v>
       </c>
       <c r="D29" t="n">
-        <v>0.168237</v>
+        <v>0.177741</v>
       </c>
       <c r="E29" t="n">
-        <v>0.288183</v>
+        <v>0.296668</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.187941</v>
+        <v>0.189364</v>
       </c>
       <c r="C30" t="n">
-        <v>0.408417</v>
+        <v>0.408469</v>
       </c>
       <c r="D30" t="n">
-        <v>0.165532</v>
+        <v>0.163814</v>
       </c>
       <c r="E30" t="n">
-        <v>0.281609</v>
+        <v>0.282037</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.185272</v>
+        <v>0.188504</v>
       </c>
       <c r="C31" t="n">
-        <v>0.40367</v>
+        <v>0.404911</v>
       </c>
       <c r="D31" t="n">
-        <v>0.164239</v>
+        <v>0.16211</v>
       </c>
       <c r="E31" t="n">
-        <v>0.27668</v>
+        <v>0.276876</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.178074</v>
+        <v>0.183273</v>
       </c>
       <c r="C32" t="n">
-        <v>0.399719</v>
+        <v>0.399941</v>
       </c>
       <c r="D32" t="n">
-        <v>0.154562</v>
+        <v>0.156362</v>
       </c>
       <c r="E32" t="n">
-        <v>0.272235</v>
+        <v>0.272939</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.173278</v>
+        <v>0.174809</v>
       </c>
       <c r="C33" t="n">
-        <v>0.393748</v>
+        <v>0.393926</v>
       </c>
       <c r="D33" t="n">
-        <v>0.153521</v>
+        <v>0.150427</v>
       </c>
       <c r="E33" t="n">
-        <v>0.267661</v>
+        <v>0.269429</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.170074</v>
+        <v>0.174723</v>
       </c>
       <c r="C34" t="n">
-        <v>0.390428</v>
+        <v>0.391131</v>
       </c>
       <c r="D34" t="n">
-        <v>0.14963</v>
+        <v>0.150441</v>
       </c>
       <c r="E34" t="n">
-        <v>0.264742</v>
+        <v>0.264975</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.168305</v>
+        <v>0.166118</v>
       </c>
       <c r="C35" t="n">
-        <v>0.499331</v>
+        <v>0.5006930000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.150836</v>
+        <v>0.143748</v>
       </c>
       <c r="E35" t="n">
-        <v>0.262336</v>
+        <v>0.262815</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.170652</v>
+        <v>0.165203</v>
       </c>
       <c r="C36" t="n">
-        <v>0.48684</v>
+        <v>0.489552</v>
       </c>
       <c r="D36" t="n">
-        <v>0.14771</v>
+        <v>0.145926</v>
       </c>
       <c r="E36" t="n">
-        <v>0.263208</v>
+        <v>0.264857</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167843</v>
+        <v>0.166748</v>
       </c>
       <c r="C37" t="n">
-        <v>0.478061</v>
+        <v>0.479384</v>
       </c>
       <c r="D37" t="n">
-        <v>0.230768</v>
+        <v>0.230962</v>
       </c>
       <c r="E37" t="n">
-        <v>0.347369</v>
+        <v>0.348041</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243961</v>
+        <v>0.242965</v>
       </c>
       <c r="C38" t="n">
-        <v>0.46875</v>
+        <v>0.469702</v>
       </c>
       <c r="D38" t="n">
-        <v>0.222972</v>
+        <v>0.223822</v>
       </c>
       <c r="E38" t="n">
-        <v>0.339619</v>
+        <v>0.337982</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235067</v>
+        <v>0.235321</v>
       </c>
       <c r="C39" t="n">
-        <v>0.458947</v>
+        <v>0.459251</v>
       </c>
       <c r="D39" t="n">
-        <v>0.213998</v>
+        <v>0.214648</v>
       </c>
       <c r="E39" t="n">
-        <v>0.332237</v>
+        <v>0.330252</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.22627</v>
+        <v>0.226418</v>
       </c>
       <c r="C40" t="n">
-        <v>0.450864</v>
+        <v>0.452012</v>
       </c>
       <c r="D40" t="n">
-        <v>0.205509</v>
+        <v>0.207152</v>
       </c>
       <c r="E40" t="n">
-        <v>0.323095</v>
+        <v>0.323428</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.218024</v>
+        <v>0.218027</v>
       </c>
       <c r="C41" t="n">
-        <v>0.443182</v>
+        <v>0.445311</v>
       </c>
       <c r="D41" t="n">
-        <v>0.19903</v>
+        <v>0.198501</v>
       </c>
       <c r="E41" t="n">
-        <v>0.315365</v>
+        <v>0.317259</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.210212</v>
+        <v>0.209363</v>
       </c>
       <c r="C42" t="n">
-        <v>0.437353</v>
+        <v>0.439086</v>
       </c>
       <c r="D42" t="n">
-        <v>0.191431</v>
+        <v>0.192224</v>
       </c>
       <c r="E42" t="n">
-        <v>0.308467</v>
+        <v>0.308664</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202858</v>
+        <v>0.203584</v>
       </c>
       <c r="C43" t="n">
-        <v>0.430382</v>
+        <v>0.432986</v>
       </c>
       <c r="D43" t="n">
-        <v>0.185004</v>
+        <v>0.184666</v>
       </c>
       <c r="E43" t="n">
-        <v>0.302061</v>
+        <v>0.303873</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.196171</v>
+        <v>0.19678</v>
       </c>
       <c r="C44" t="n">
-        <v>0.424477</v>
+        <v>0.425627</v>
       </c>
       <c r="D44" t="n">
-        <v>0.178242</v>
+        <v>0.177069</v>
       </c>
       <c r="E44" t="n">
-        <v>0.296349</v>
+        <v>0.296171</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190461</v>
+        <v>0.190507</v>
       </c>
       <c r="C45" t="n">
-        <v>0.419409</v>
+        <v>0.419801</v>
       </c>
       <c r="D45" t="n">
-        <v>0.171721</v>
+        <v>0.172843</v>
       </c>
       <c r="E45" t="n">
-        <v>0.290374</v>
+        <v>0.291401</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.185034</v>
+        <v>0.185127</v>
       </c>
       <c r="C46" t="n">
-        <v>0.414636</v>
+        <v>0.416092</v>
       </c>
       <c r="D46" t="n">
-        <v>0.166785</v>
+        <v>0.16771</v>
       </c>
       <c r="E46" t="n">
-        <v>0.285623</v>
+        <v>0.286225</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.180206</v>
+        <v>0.180888</v>
       </c>
       <c r="C47" t="n">
-        <v>0.40978</v>
+        <v>0.411361</v>
       </c>
       <c r="D47" t="n">
-        <v>0.163076</v>
+        <v>0.163062</v>
       </c>
       <c r="E47" t="n">
-        <v>0.281956</v>
+        <v>0.282598</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.176532</v>
+        <v>0.176875</v>
       </c>
       <c r="C48" t="n">
-        <v>0.406225</v>
+        <v>0.407792</v>
       </c>
       <c r="D48" t="n">
-        <v>0.159074</v>
+        <v>0.159448</v>
       </c>
       <c r="E48" t="n">
-        <v>0.278551</v>
+        <v>0.279326</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173492</v>
+        <v>0.174429</v>
       </c>
       <c r="C49" t="n">
-        <v>0.403185</v>
+        <v>0.403818</v>
       </c>
       <c r="D49" t="n">
-        <v>0.157048</v>
+        <v>0.158038</v>
       </c>
       <c r="E49" t="n">
-        <v>0.276744</v>
+        <v>0.277494</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171855</v>
+        <v>0.172901</v>
       </c>
       <c r="C50" t="n">
-        <v>0.506923</v>
+        <v>0.508249</v>
       </c>
       <c r="D50" t="n">
-        <v>0.155008</v>
+        <v>0.155683</v>
       </c>
       <c r="E50" t="n">
-        <v>0.275847</v>
+        <v>0.276625</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172451</v>
+        <v>0.17343</v>
       </c>
       <c r="C51" t="n">
-        <v>0.49607</v>
+        <v>0.49703</v>
       </c>
       <c r="D51" t="n">
-        <v>0.241177</v>
+        <v>0.24195</v>
       </c>
       <c r="E51" t="n">
-        <v>0.35945</v>
+        <v>0.360024</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174531</v>
+        <v>0.176228</v>
       </c>
       <c r="C52" t="n">
-        <v>0.485393</v>
+        <v>0.487682</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232474</v>
+        <v>0.232251</v>
       </c>
       <c r="E52" t="n">
-        <v>0.352226</v>
+        <v>0.351017</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241212</v>
+        <v>0.24245</v>
       </c>
       <c r="C53" t="n">
-        <v>0.47704</v>
+        <v>0.477268</v>
       </c>
       <c r="D53" t="n">
-        <v>0.222617</v>
+        <v>0.223208</v>
       </c>
       <c r="E53" t="n">
-        <v>0.342043</v>
+        <v>0.342661</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.231315</v>
+        <v>0.233842</v>
       </c>
       <c r="C54" t="n">
-        <v>0.467187</v>
+        <v>0.468612</v>
       </c>
       <c r="D54" t="n">
-        <v>0.214052</v>
+        <v>0.214571</v>
       </c>
       <c r="E54" t="n">
-        <v>0.334021</v>
+        <v>0.334683</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.222959</v>
+        <v>0.225521</v>
       </c>
       <c r="C55" t="n">
-        <v>0.459395</v>
+        <v>0.460969</v>
       </c>
       <c r="D55" t="n">
-        <v>0.206278</v>
+        <v>0.206443</v>
       </c>
       <c r="E55" t="n">
-        <v>0.329362</v>
+        <v>0.32914</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216001</v>
+        <v>0.217168</v>
       </c>
       <c r="C56" t="n">
-        <v>0.452921</v>
+        <v>0.453622</v>
       </c>
       <c r="D56" t="n">
-        <v>0.198674</v>
+        <v>0.198652</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3219</v>
+        <v>0.321799</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208546</v>
+        <v>0.20981</v>
       </c>
       <c r="C57" t="n">
-        <v>0.445497</v>
+        <v>0.447403</v>
       </c>
       <c r="D57" t="n">
-        <v>0.191601</v>
+        <v>0.192187</v>
       </c>
       <c r="E57" t="n">
-        <v>0.31556</v>
+        <v>0.31518</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.20144</v>
+        <v>0.203432</v>
       </c>
       <c r="C58" t="n">
-        <v>0.440853</v>
+        <v>0.441367</v>
       </c>
       <c r="D58" t="n">
-        <v>0.184668</v>
+        <v>0.185313</v>
       </c>
       <c r="E58" t="n">
-        <v>0.309051</v>
+        <v>0.308812</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.195596</v>
+        <v>0.196982</v>
       </c>
       <c r="C59" t="n">
-        <v>0.434352</v>
+        <v>0.435261</v>
       </c>
       <c r="D59" t="n">
-        <v>0.179357</v>
+        <v>0.17953</v>
       </c>
       <c r="E59" t="n">
-        <v>0.303773</v>
+        <v>0.303539</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.189667</v>
+        <v>0.191069</v>
       </c>
       <c r="C60" t="n">
-        <v>0.430313</v>
+        <v>0.431768</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1736</v>
+        <v>0.174423</v>
       </c>
       <c r="E60" t="n">
-        <v>0.298791</v>
+        <v>0.298299</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.184353</v>
+        <v>0.186236</v>
       </c>
       <c r="C61" t="n">
-        <v>0.426534</v>
+        <v>0.427212</v>
       </c>
       <c r="D61" t="n">
-        <v>0.168138</v>
+        <v>0.168605</v>
       </c>
       <c r="E61" t="n">
-        <v>0.29423</v>
+        <v>0.294157</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.180335</v>
+        <v>0.181933</v>
       </c>
       <c r="C62" t="n">
-        <v>0.422625</v>
+        <v>0.423826</v>
       </c>
       <c r="D62" t="n">
-        <v>0.164634</v>
+        <v>0.164916</v>
       </c>
       <c r="E62" t="n">
-        <v>0.29061</v>
+        <v>0.290783</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178093</v>
+        <v>0.178511</v>
       </c>
       <c r="C63" t="n">
-        <v>0.419713</v>
+        <v>0.420105</v>
       </c>
       <c r="D63" t="n">
-        <v>0.161852</v>
+        <v>0.162149</v>
       </c>
       <c r="E63" t="n">
-        <v>0.28855</v>
+        <v>0.28809</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176032</v>
+        <v>0.176719</v>
       </c>
       <c r="C64" t="n">
-        <v>0.544347</v>
+        <v>0.546223</v>
       </c>
       <c r="D64" t="n">
-        <v>0.159915</v>
+        <v>0.160115</v>
       </c>
       <c r="E64" t="n">
-        <v>0.286849</v>
+        <v>0.287258</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176322</v>
+        <v>0.176954</v>
       </c>
       <c r="C65" t="n">
-        <v>0.53371</v>
+        <v>0.535229</v>
       </c>
       <c r="D65" t="n">
-        <v>0.160633</v>
+        <v>0.160859</v>
       </c>
       <c r="E65" t="n">
-        <v>0.288573</v>
+        <v>0.28862</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.178398</v>
+        <v>0.179548</v>
       </c>
       <c r="C66" t="n">
-        <v>0.523499</v>
+        <v>0.524355</v>
       </c>
       <c r="D66" t="n">
-        <v>0.241778</v>
+        <v>0.243091</v>
       </c>
       <c r="E66" t="n">
-        <v>0.368444</v>
+        <v>0.368037</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.246205</v>
+        <v>0.24392</v>
       </c>
       <c r="C67" t="n">
-        <v>0.516787</v>
+        <v>0.516323</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234316</v>
+        <v>0.232114</v>
       </c>
       <c r="E67" t="n">
-        <v>0.360264</v>
+        <v>0.358498</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235745</v>
+        <v>0.23551</v>
       </c>
       <c r="C68" t="n">
-        <v>0.508951</v>
+        <v>0.508582</v>
       </c>
       <c r="D68" t="n">
-        <v>0.223856</v>
+        <v>0.224309</v>
       </c>
       <c r="E68" t="n">
-        <v>0.351966</v>
+        <v>0.35031</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.22844</v>
+        <v>0.226794</v>
       </c>
       <c r="C69" t="n">
-        <v>0.500625</v>
+        <v>0.50121</v>
       </c>
       <c r="D69" t="n">
-        <v>0.214878</v>
+        <v>0.215891</v>
       </c>
       <c r="E69" t="n">
-        <v>0.346137</v>
+        <v>0.344942</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219722</v>
+        <v>0.218992</v>
       </c>
       <c r="C70" t="n">
-        <v>0.494779</v>
+        <v>0.494669</v>
       </c>
       <c r="D70" t="n">
-        <v>0.206553</v>
+        <v>0.207215</v>
       </c>
       <c r="E70" t="n">
-        <v>0.338777</v>
+        <v>0.337905</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.211882</v>
+        <v>0.212711</v>
       </c>
       <c r="C71" t="n">
-        <v>0.489162</v>
+        <v>0.490649</v>
       </c>
       <c r="D71" t="n">
-        <v>0.200975</v>
+        <v>0.200665</v>
       </c>
       <c r="E71" t="n">
-        <v>0.33184</v>
+        <v>0.330736</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205851</v>
+        <v>0.205318</v>
       </c>
       <c r="C72" t="n">
-        <v>0.483936</v>
+        <v>0.485481</v>
       </c>
       <c r="D72" t="n">
-        <v>0.194188</v>
+        <v>0.193412</v>
       </c>
       <c r="E72" t="n">
-        <v>0.324914</v>
+        <v>0.324178</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199915</v>
+        <v>0.199528</v>
       </c>
       <c r="C73" t="n">
-        <v>0.481121</v>
+        <v>0.480463</v>
       </c>
       <c r="D73" t="n">
-        <v>0.188362</v>
+        <v>0.188067</v>
       </c>
       <c r="E73" t="n">
-        <v>0.319398</v>
+        <v>0.318739</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.19416</v>
+        <v>0.193773</v>
       </c>
       <c r="C74" t="n">
-        <v>0.496074</v>
+        <v>0.495219</v>
       </c>
       <c r="D74" t="n">
-        <v>0.182427</v>
+        <v>0.182235</v>
       </c>
       <c r="E74" t="n">
-        <v>0.313882</v>
+        <v>0.312768</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188783</v>
+        <v>0.190088</v>
       </c>
       <c r="C75" t="n">
-        <v>0.488899</v>
+        <v>0.491329</v>
       </c>
       <c r="D75" t="n">
-        <v>0.17682</v>
+        <v>0.176505</v>
       </c>
       <c r="E75" t="n">
-        <v>0.308808</v>
+        <v>0.308495</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.183925</v>
+        <v>0.184668</v>
       </c>
       <c r="C76" t="n">
-        <v>0.486092</v>
+        <v>0.486433</v>
       </c>
       <c r="D76" t="n">
-        <v>0.171969</v>
+        <v>0.171607</v>
       </c>
       <c r="E76" t="n">
-        <v>0.305441</v>
+        <v>0.304379</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182219</v>
+        <v>0.18156</v>
       </c>
       <c r="C77" t="n">
-        <v>0.483301</v>
+        <v>0.483961</v>
       </c>
       <c r="D77" t="n">
-        <v>0.167466</v>
+        <v>0.1683</v>
       </c>
       <c r="E77" t="n">
-        <v>0.301947</v>
+        <v>0.301276</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178711</v>
+        <v>0.17871</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6619080000000001</v>
+        <v>0.662936</v>
       </c>
       <c r="D78" t="n">
-        <v>0.166872</v>
+        <v>0.16673</v>
       </c>
       <c r="E78" t="n">
-        <v>0.303099</v>
+        <v>0.302309</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.17904</v>
+        <v>0.178673</v>
       </c>
       <c r="C79" t="n">
-        <v>0.651641</v>
+        <v>0.652564</v>
       </c>
       <c r="D79" t="n">
-        <v>0.166623</v>
+        <v>0.166266</v>
       </c>
       <c r="E79" t="n">
-        <v>0.303311</v>
+        <v>0.303589</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180346</v>
+        <v>0.180715</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6414840000000001</v>
+        <v>0.642945</v>
       </c>
       <c r="D80" t="n">
-        <v>0.2389</v>
+        <v>0.239892</v>
       </c>
       <c r="E80" t="n">
-        <v>0.384061</v>
+        <v>0.383463</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257797</v>
+        <v>0.257757</v>
       </c>
       <c r="C81" t="n">
-        <v>0.634898</v>
+        <v>0.635431</v>
       </c>
       <c r="D81" t="n">
-        <v>0.231233</v>
+        <v>0.231906</v>
       </c>
       <c r="E81" t="n">
-        <v>0.377682</v>
+        <v>0.378682</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.248989</v>
+        <v>0.248622</v>
       </c>
       <c r="C82" t="n">
-        <v>0.626458</v>
+        <v>0.628818</v>
       </c>
       <c r="D82" t="n">
-        <v>0.222629</v>
+        <v>0.223186</v>
       </c>
       <c r="E82" t="n">
-        <v>0.372194</v>
+        <v>0.372104</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242374</v>
+        <v>0.241348</v>
       </c>
       <c r="C83" t="n">
-        <v>0.619111</v>
+        <v>0.6222</v>
       </c>
       <c r="D83" t="n">
-        <v>0.215057</v>
+        <v>0.215214</v>
       </c>
       <c r="E83" t="n">
-        <v>0.364102</v>
+        <v>0.36564</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.233789</v>
+        <v>0.233288</v>
       </c>
       <c r="C84" t="n">
-        <v>0.618937</v>
+        <v>0.618661</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207065</v>
+        <v>0.206771</v>
       </c>
       <c r="E84" t="n">
-        <v>0.360852</v>
+        <v>0.361177</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.22662</v>
+        <v>0.226752</v>
       </c>
       <c r="C85" t="n">
-        <v>0.616578</v>
+        <v>0.617963</v>
       </c>
       <c r="D85" t="n">
-        <v>0.200438</v>
+        <v>0.201005</v>
       </c>
       <c r="E85" t="n">
-        <v>0.355225</v>
+        <v>0.355064</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219911</v>
+        <v>0.219209</v>
       </c>
       <c r="C86" t="n">
-        <v>0.616543</v>
+        <v>0.615797</v>
       </c>
       <c r="D86" t="n">
-        <v>0.193262</v>
+        <v>0.194179</v>
       </c>
       <c r="E86" t="n">
-        <v>0.34856</v>
+        <v>0.349195</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.21385</v>
+        <v>0.213276</v>
       </c>
       <c r="C87" t="n">
-        <v>0.618468</v>
+        <v>0.617609</v>
       </c>
       <c r="D87" t="n">
-        <v>0.187335</v>
+        <v>0.18837</v>
       </c>
       <c r="E87" t="n">
-        <v>0.34299</v>
+        <v>0.34385</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20712</v>
+        <v>0.206581</v>
       </c>
       <c r="C88" t="n">
-        <v>0.618605</v>
+        <v>0.618409</v>
       </c>
       <c r="D88" t="n">
-        <v>0.182132</v>
+        <v>0.181792</v>
       </c>
       <c r="E88" t="n">
-        <v>0.338553</v>
+        <v>0.339019</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2016</v>
+        <v>0.201044</v>
       </c>
       <c r="C89" t="n">
-        <v>0.631288</v>
+        <v>0.6321020000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.176589</v>
+        <v>0.176859</v>
       </c>
       <c r="E89" t="n">
-        <v>0.332812</v>
+        <v>0.333953</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196505</v>
+        <v>0.196109</v>
       </c>
       <c r="C90" t="n">
-        <v>0.634706</v>
+        <v>0.636068</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173081</v>
+        <v>0.172023</v>
       </c>
       <c r="E90" t="n">
-        <v>0.329783</v>
+        <v>0.329858</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193329</v>
+        <v>0.19215</v>
       </c>
       <c r="C91" t="n">
-        <v>0.640709</v>
+        <v>0.639858</v>
       </c>
       <c r="D91" t="n">
-        <v>0.169023</v>
+        <v>0.168963</v>
       </c>
       <c r="E91" t="n">
-        <v>0.326459</v>
+        <v>0.327247</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190124</v>
+        <v>0.189618</v>
       </c>
       <c r="C92" t="n">
-        <v>0.853437</v>
+        <v>0.8533809999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.166908</v>
+        <v>0.16664</v>
       </c>
       <c r="E92" t="n">
-        <v>0.325092</v>
+        <v>0.326419</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188597</v>
+        <v>0.188199</v>
       </c>
       <c r="C93" t="n">
-        <v>0.851041</v>
+        <v>0.848172</v>
       </c>
       <c r="D93" t="n">
-        <v>0.166814</v>
+        <v>0.166088</v>
       </c>
       <c r="E93" t="n">
-        <v>0.32522</v>
+        <v>0.326581</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189371</v>
+        <v>0.188717</v>
       </c>
       <c r="C94" t="n">
-        <v>0.846677</v>
+        <v>0.842042</v>
       </c>
       <c r="D94" t="n">
-        <v>0.252534</v>
+        <v>0.252853</v>
       </c>
       <c r="E94" t="n">
-        <v>0.452238</v>
+        <v>0.452026</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.270674</v>
+        <v>0.27068</v>
       </c>
       <c r="C95" t="n">
-        <v>0.839566</v>
+        <v>0.838171</v>
       </c>
       <c r="D95" t="n">
-        <v>0.244438</v>
+        <v>0.245062</v>
       </c>
       <c r="E95" t="n">
-        <v>0.451668</v>
+        <v>0.450725</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265072</v>
+        <v>0.264481</v>
       </c>
       <c r="C96" t="n">
-        <v>0.837027</v>
+        <v>0.834327</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236967</v>
+        <v>0.237149</v>
       </c>
       <c r="E96" t="n">
-        <v>0.447145</v>
+        <v>0.446166</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258834</v>
+        <v>0.257724</v>
       </c>
       <c r="C97" t="n">
-        <v>0.84036</v>
+        <v>0.840221</v>
       </c>
       <c r="D97" t="n">
-        <v>0.229011</v>
+        <v>0.229681</v>
       </c>
       <c r="E97" t="n">
-        <v>0.442183</v>
+        <v>0.441037</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251641</v>
+        <v>0.25135</v>
       </c>
       <c r="C98" t="n">
-        <v>0.840439</v>
+        <v>0.838228</v>
       </c>
       <c r="D98" t="n">
-        <v>0.220682</v>
+        <v>0.22215</v>
       </c>
       <c r="E98" t="n">
-        <v>0.437287</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245263</v>
+        <v>0.245116</v>
       </c>
       <c r="C99" t="n">
-        <v>0.841024</v>
+        <v>0.837426</v>
       </c>
       <c r="D99" t="n">
-        <v>0.213943</v>
+        <v>0.214257</v>
       </c>
       <c r="E99" t="n">
-        <v>0.432007</v>
+        <v>0.430468</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238488</v>
+        <v>0.238535</v>
       </c>
       <c r="C100" t="n">
-        <v>0.84118</v>
+        <v>0.840297</v>
       </c>
       <c r="D100" t="n">
-        <v>0.20784</v>
+        <v>0.20841</v>
       </c>
       <c r="E100" t="n">
-        <v>0.428233</v>
+        <v>0.426238</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233411</v>
+        <v>0.232795</v>
       </c>
       <c r="C101" t="n">
-        <v>0.845235</v>
+        <v>0.841361</v>
       </c>
       <c r="D101" t="n">
-        <v>0.20147</v>
+        <v>0.20184</v>
       </c>
       <c r="E101" t="n">
-        <v>0.423292</v>
+        <v>0.421924</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227946</v>
+        <v>0.227854</v>
       </c>
       <c r="C102" t="n">
-        <v>0.849178</v>
+        <v>0.845329</v>
       </c>
       <c r="D102" t="n">
-        <v>0.195865</v>
+        <v>0.196416</v>
       </c>
       <c r="E102" t="n">
-        <v>0.418646</v>
+        <v>0.416698</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222458</v>
+        <v>0.222353</v>
       </c>
       <c r="C103" t="n">
-        <v>0.859448</v>
+        <v>0.85528</v>
       </c>
       <c r="D103" t="n">
-        <v>0.190898</v>
+        <v>0.191035</v>
       </c>
       <c r="E103" t="n">
-        <v>0.41523</v>
+        <v>0.413951</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218327</v>
+        <v>0.21825</v>
       </c>
       <c r="C104" t="n">
-        <v>0.866117</v>
+        <v>0.86238</v>
       </c>
       <c r="D104" t="n">
-        <v>0.186294</v>
+        <v>0.186392</v>
       </c>
       <c r="E104" t="n">
-        <v>0.411758</v>
+        <v>0.410333</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214176</v>
+        <v>0.214062</v>
       </c>
       <c r="C105" t="n">
-        <v>0.873801</v>
+        <v>0.868985</v>
       </c>
       <c r="D105" t="n">
-        <v>0.182449</v>
+        <v>0.18288</v>
       </c>
       <c r="E105" t="n">
-        <v>0.409843</v>
+        <v>0.408328</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211275</v>
+        <v>0.210778</v>
       </c>
       <c r="C106" t="n">
-        <v>0.882031</v>
+        <v>0.877974</v>
       </c>
       <c r="D106" t="n">
-        <v>0.180164</v>
+        <v>0.180238</v>
       </c>
       <c r="E106" t="n">
-        <v>0.408188</v>
+        <v>0.40693</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208723</v>
+        <v>0.208638</v>
       </c>
       <c r="C107" t="n">
-        <v>1.12628</v>
+        <v>1.12221</v>
       </c>
       <c r="D107" t="n">
-        <v>0.179211</v>
+        <v>0.1794</v>
       </c>
       <c r="E107" t="n">
-        <v>0.407718</v>
+        <v>0.406427</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208655</v>
+        <v>0.208431</v>
       </c>
       <c r="C108" t="n">
-        <v>1.11366</v>
+        <v>1.11356</v>
       </c>
       <c r="D108" t="n">
-        <v>0.268571</v>
+        <v>0.269252</v>
       </c>
       <c r="E108" t="n">
-        <v>0.566439</v>
+        <v>0.561891</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210629</v>
+        <v>0.210438</v>
       </c>
       <c r="C109" t="n">
-        <v>1.10831</v>
+        <v>1.10476</v>
       </c>
       <c r="D109" t="n">
-        <v>0.263123</v>
+        <v>0.262865</v>
       </c>
       <c r="E109" t="n">
-        <v>0.564304</v>
+        <v>0.5592</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285509</v>
+        <v>0.284479</v>
       </c>
       <c r="C110" t="n">
-        <v>1.09924</v>
+        <v>1.10026</v>
       </c>
       <c r="D110" t="n">
-        <v>0.255147</v>
+        <v>0.255144</v>
       </c>
       <c r="E110" t="n">
-        <v>0.557965</v>
+        <v>0.553809</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278433</v>
+        <v>0.277811</v>
       </c>
       <c r="C111" t="n">
-        <v>1.10141</v>
+        <v>1.09644</v>
       </c>
       <c r="D111" t="n">
-        <v>0.248045</v>
+        <v>0.247856</v>
       </c>
       <c r="E111" t="n">
-        <v>0.551828</v>
+        <v>0.549258</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.271806</v>
+        <v>0.272065</v>
       </c>
       <c r="C112" t="n">
-        <v>1.09589</v>
+        <v>1.09277</v>
       </c>
       <c r="D112" t="n">
-        <v>0.24044</v>
+        <v>0.240552</v>
       </c>
       <c r="E112" t="n">
-        <v>0.544925</v>
+        <v>0.54323</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266427</v>
+        <v>0.265593</v>
       </c>
       <c r="C113" t="n">
-        <v>1.09404</v>
+        <v>1.08844</v>
       </c>
       <c r="D113" t="n">
-        <v>0.234071</v>
+        <v>0.234288</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5423289999999999</v>
+        <v>0.538818</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260565</v>
+        <v>0.260162</v>
       </c>
       <c r="C114" t="n">
-        <v>1.09267</v>
+        <v>1.0915</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227632</v>
+        <v>0.228347</v>
       </c>
       <c r="E114" t="n">
-        <v>0.536821</v>
+        <v>0.53382</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255512</v>
+        <v>0.255043</v>
       </c>
       <c r="C115" t="n">
-        <v>1.09583</v>
+        <v>1.09219</v>
       </c>
       <c r="D115" t="n">
-        <v>0.22211</v>
+        <v>0.222616</v>
       </c>
       <c r="E115" t="n">
-        <v>0.533166</v>
+        <v>0.530292</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250615</v>
+        <v>0.24997</v>
       </c>
       <c r="C116" t="n">
-        <v>1.09592</v>
+        <v>1.09278</v>
       </c>
       <c r="D116" t="n">
-        <v>0.216672</v>
+        <v>0.217182</v>
       </c>
       <c r="E116" t="n">
-        <v>0.529174</v>
+        <v>0.526354</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245594</v>
+        <v>0.245366</v>
       </c>
       <c r="C117" t="n">
-        <v>1.09785</v>
+        <v>1.09777</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211883</v>
+        <v>0.212235</v>
       </c>
       <c r="E117" t="n">
-        <v>0.526789</v>
+        <v>0.523856</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.244716</v>
+        <v>0.241078</v>
       </c>
       <c r="C118" t="n">
-        <v>1.10406</v>
+        <v>1.10181</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2085</v>
+        <v>0.208074</v>
       </c>
       <c r="E118" t="n">
-        <v>0.52432</v>
+        <v>0.520151</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237814</v>
+        <v>0.237525</v>
       </c>
       <c r="C119" t="n">
-        <v>1.1105</v>
+        <v>1.1106</v>
       </c>
       <c r="D119" t="n">
-        <v>0.204125</v>
+        <v>0.204394</v>
       </c>
       <c r="E119" t="n">
-        <v>0.523133</v>
+        <v>0.518829</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234924</v>
+        <v>0.234465</v>
       </c>
       <c r="C120" t="n">
-        <v>1.1192</v>
+        <v>1.11667</v>
       </c>
       <c r="D120" t="n">
-        <v>0.201067</v>
+        <v>0.201601</v>
       </c>
       <c r="E120" t="n">
-        <v>0.520985</v>
+        <v>0.517126</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232693</v>
+        <v>0.232019</v>
       </c>
       <c r="C121" t="n">
-        <v>1.38021</v>
+        <v>1.38208</v>
       </c>
       <c r="D121" t="n">
-        <v>0.199423</v>
+        <v>0.200371</v>
       </c>
       <c r="E121" t="n">
-        <v>0.520991</v>
+        <v>0.51772</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231404</v>
+        <v>0.231154</v>
       </c>
       <c r="C122" t="n">
-        <v>1.36711</v>
+        <v>1.36718</v>
       </c>
       <c r="D122" t="n">
-        <v>0.200191</v>
+        <v>0.200699</v>
       </c>
       <c r="E122" t="n">
-        <v>0.522709</v>
+        <v>0.51923</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232607</v>
+        <v>0.232364</v>
       </c>
       <c r="C123" t="n">
-        <v>1.35208</v>
+        <v>1.35098</v>
       </c>
       <c r="D123" t="n">
-        <v>0.285389</v>
+        <v>0.285255</v>
       </c>
       <c r="E123" t="n">
-        <v>0.694646</v>
+        <v>0.685681</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.316721</v>
+        <v>0.317517</v>
       </c>
       <c r="C124" t="n">
-        <v>1.33879</v>
+        <v>1.33786</v>
       </c>
       <c r="D124" t="n">
-        <v>0.279535</v>
+        <v>0.2794</v>
       </c>
       <c r="E124" t="n">
-        <v>0.688746</v>
+        <v>0.6813630000000001</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311521</v>
+        <v>0.311269</v>
       </c>
       <c r="C125" t="n">
-        <v>1.33025</v>
+        <v>1.32858</v>
       </c>
       <c r="D125" t="n">
-        <v>0.273237</v>
+        <v>0.273821</v>
       </c>
       <c r="E125" t="n">
-        <v>0.685202</v>
+        <v>0.676216</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.304916</v>
+        <v>0.305369</v>
       </c>
       <c r="C126" t="n">
-        <v>1.32117</v>
+        <v>1.31904</v>
       </c>
       <c r="D126" t="n">
-        <v>0.267652</v>
+        <v>0.268565</v>
       </c>
       <c r="E126" t="n">
-        <v>0.680929</v>
+        <v>0.67293</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.299863</v>
+        <v>0.299992</v>
       </c>
       <c r="C127" t="n">
-        <v>1.31379</v>
+        <v>1.31154</v>
       </c>
       <c r="D127" t="n">
-        <v>0.26304</v>
+        <v>0.263516</v>
       </c>
       <c r="E127" t="n">
-        <v>0.678063</v>
+        <v>0.669475</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.294634</v>
+        <v>0.295157</v>
       </c>
       <c r="C128" t="n">
-        <v>1.30768</v>
+        <v>1.30618</v>
       </c>
       <c r="D128" t="n">
-        <v>0.258886</v>
+        <v>0.258538</v>
       </c>
       <c r="E128" t="n">
-        <v>0.660381</v>
+        <v>0.6670199999999999</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290007</v>
+        <v>0.290106</v>
       </c>
       <c r="C129" t="n">
-        <v>1.30326</v>
+        <v>1.30429</v>
       </c>
       <c r="D129" t="n">
-        <v>0.254448</v>
+        <v>0.254487</v>
       </c>
       <c r="E129" t="n">
-        <v>0.669822</v>
+        <v>0.664342</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.285681</v>
+        <v>0.286192</v>
       </c>
       <c r="C130" t="n">
-        <v>1.30056</v>
+        <v>1.30159</v>
       </c>
       <c r="D130" t="n">
-        <v>0.250205</v>
+        <v>0.250328</v>
       </c>
       <c r="E130" t="n">
-        <v>0.66858</v>
+        <v>0.660847</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281672</v>
+        <v>0.282369</v>
       </c>
       <c r="C131" t="n">
-        <v>1.30008</v>
+        <v>1.29732</v>
       </c>
       <c r="D131" t="n">
-        <v>0.24612</v>
+        <v>0.246979</v>
       </c>
       <c r="E131" t="n">
-        <v>0.666127</v>
+        <v>0.659103</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278486</v>
+        <v>0.278788</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30108</v>
+        <v>1.30002</v>
       </c>
       <c r="D132" t="n">
-        <v>0.243283</v>
+        <v>0.243071</v>
       </c>
       <c r="E132" t="n">
-        <v>0.664091</v>
+        <v>0.658098</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275255</v>
+        <v>0.275566</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30141</v>
+        <v>1.30225</v>
       </c>
       <c r="D133" t="n">
-        <v>0.240187</v>
+        <v>0.240003</v>
       </c>
       <c r="E133" t="n">
-        <v>0.662888</v>
+        <v>0.656363</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.272149</v>
+        <v>0.272918</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30559</v>
+        <v>1.30487</v>
       </c>
       <c r="D134" t="n">
-        <v>0.238426</v>
+        <v>0.237837</v>
       </c>
       <c r="E134" t="n">
-        <v>0.662808</v>
+        <v>0.656932</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270314</v>
+        <v>0.270754</v>
       </c>
       <c r="C135" t="n">
-        <v>1.58034</v>
+        <v>1.57852</v>
       </c>
       <c r="D135" t="n">
-        <v>0.236633</v>
+        <v>0.236493</v>
       </c>
       <c r="E135" t="n">
-        <v>0.663058</v>
+        <v>0.656864</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.269997</v>
+        <v>0.269657</v>
       </c>
       <c r="C136" t="n">
-        <v>1.55781</v>
+        <v>1.55645</v>
       </c>
       <c r="D136" t="n">
-        <v>0.23708</v>
+        <v>0.236797</v>
       </c>
       <c r="E136" t="n">
-        <v>0.664988</v>
+        <v>0.6588039999999999</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.270583</v>
+        <v>0.270785</v>
       </c>
       <c r="C137" t="n">
-        <v>1.53836</v>
+        <v>1.53718</v>
       </c>
       <c r="D137" t="n">
-        <v>0.334836</v>
+        <v>0.33447</v>
       </c>
       <c r="E137" t="n">
-        <v>0.847299</v>
+        <v>0.840622</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.369063</v>
+        <v>0.361291</v>
       </c>
       <c r="C138" t="n">
-        <v>1.5207</v>
+        <v>1.51933</v>
       </c>
       <c r="D138" t="n">
-        <v>0.329067</v>
+        <v>0.329458</v>
       </c>
       <c r="E138" t="n">
-        <v>0.846291</v>
+        <v>0.84023</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.363506</v>
+        <v>0.355628</v>
       </c>
       <c r="C139" t="n">
-        <v>1.50344</v>
+        <v>1.50376</v>
       </c>
       <c r="D139" t="n">
-        <v>0.323726</v>
+        <v>0.324432</v>
       </c>
       <c r="E139" t="n">
-        <v>0.845287</v>
+        <v>0.839593</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.358269</v>
+        <v>0.350924</v>
       </c>
       <c r="C140" t="n">
-        <v>1.49007</v>
+        <v>1.49081</v>
       </c>
       <c r="D140" t="n">
-        <v>0.319833</v>
+        <v>0.319716</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8449950000000001</v>
+        <v>0.838433</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.352863</v>
+        <v>0.345791</v>
       </c>
       <c r="C141" t="n">
-        <v>1.47742</v>
+        <v>1.47783</v>
       </c>
       <c r="D141" t="n">
-        <v>0.314732</v>
+        <v>0.315081</v>
       </c>
       <c r="E141" t="n">
-        <v>0.844019</v>
+        <v>0.838641</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.34801</v>
+        <v>0.34111</v>
       </c>
       <c r="C142" t="n">
-        <v>1.46587</v>
+        <v>1.46613</v>
       </c>
       <c r="D142" t="n">
-        <v>0.310756</v>
+        <v>0.311312</v>
       </c>
       <c r="E142" t="n">
-        <v>0.844831</v>
+        <v>0.840046</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.34351</v>
+        <v>0.33646</v>
       </c>
       <c r="C143" t="n">
-        <v>1.45791</v>
+        <v>1.45855</v>
       </c>
       <c r="D143" t="n">
-        <v>0.307162</v>
+        <v>0.307224</v>
       </c>
       <c r="E143" t="n">
-        <v>0.844638</v>
+        <v>0.838865</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.160592</v>
+        <v>0.146039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.312351</v>
+        <v>0.28211</v>
       </c>
       <c r="D2" t="n">
-        <v>0.142626</v>
+        <v>0.345535</v>
       </c>
       <c r="E2" t="n">
-        <v>0.275498</v>
+        <v>0.137761</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.270475</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.166051</v>
+        <v>0.148013</v>
       </c>
       <c r="C3" t="n">
-        <v>0.311213</v>
+        <v>0.278115</v>
       </c>
       <c r="D3" t="n">
-        <v>0.133091</v>
+        <v>0.342328</v>
       </c>
       <c r="E3" t="n">
-        <v>0.269781</v>
+        <v>0.136591</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.272824</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.158619</v>
+        <v>0.138681</v>
       </c>
       <c r="C4" t="n">
-        <v>0.309465</v>
+        <v>0.271292</v>
       </c>
       <c r="D4" t="n">
-        <v>0.132474</v>
+        <v>0.339524</v>
       </c>
       <c r="E4" t="n">
-        <v>0.271651</v>
+        <v>0.130647</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.263759</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.144099</v>
+        <v>0.14359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.311647</v>
+        <v>0.274151</v>
       </c>
       <c r="D5" t="n">
-        <v>0.123446</v>
+        <v>0.338964</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2596</v>
+        <v>0.124825</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.259957</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.14671</v>
+        <v>0.135845</v>
       </c>
       <c r="C6" t="n">
-        <v>0.312555</v>
+        <v>0.266767</v>
       </c>
       <c r="D6" t="n">
-        <v>0.119154</v>
+        <v>0.337026</v>
       </c>
       <c r="E6" t="n">
-        <v>0.263622</v>
+        <v>0.121236</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.256232</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.14713</v>
+        <v>0.135477</v>
       </c>
       <c r="C7" t="n">
-        <v>0.402974</v>
+        <v>0.266578</v>
       </c>
       <c r="D7" t="n">
-        <v>0.118645</v>
+        <v>0.441059</v>
       </c>
       <c r="E7" t="n">
-        <v>0.260277</v>
+        <v>0.120823</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.258115</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.151916</v>
+        <v>0.138485</v>
       </c>
       <c r="C8" t="n">
-        <v>0.402754</v>
+        <v>0.266281</v>
       </c>
       <c r="D8" t="n">
-        <v>0.118382</v>
+        <v>0.432636</v>
       </c>
       <c r="E8" t="n">
-        <v>0.262969</v>
+        <v>0.115242</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.255855</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.153423</v>
+        <v>0.146058</v>
       </c>
       <c r="C9" t="n">
-        <v>0.393103</v>
+        <v>0.272086</v>
       </c>
       <c r="D9" t="n">
-        <v>0.187521</v>
+        <v>0.422785</v>
       </c>
       <c r="E9" t="n">
-        <v>0.324394</v>
+        <v>0.18197</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.325155</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.216021</v>
+        <v>0.200991</v>
       </c>
       <c r="C10" t="n">
-        <v>0.394877</v>
+        <v>0.331698</v>
       </c>
       <c r="D10" t="n">
-        <v>0.19191</v>
+        <v>0.425798</v>
       </c>
       <c r="E10" t="n">
-        <v>0.32339</v>
+        <v>0.191717</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.320399</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.207101</v>
+        <v>0.199168</v>
       </c>
       <c r="C11" t="n">
-        <v>0.392311</v>
+        <v>0.319212</v>
       </c>
       <c r="D11" t="n">
-        <v>0.166917</v>
+        <v>0.41258</v>
       </c>
       <c r="E11" t="n">
-        <v>0.309828</v>
+        <v>0.171582</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.30968</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.199941</v>
+        <v>0.189428</v>
       </c>
       <c r="C12" t="n">
-        <v>0.385437</v>
+        <v>0.308191</v>
       </c>
       <c r="D12" t="n">
-        <v>0.163419</v>
+        <v>0.406096</v>
       </c>
       <c r="E12" t="n">
-        <v>0.299711</v>
+        <v>0.163208</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.300998</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.191693</v>
+        <v>0.187799</v>
       </c>
       <c r="C13" t="n">
-        <v>0.378466</v>
+        <v>0.307945</v>
       </c>
       <c r="D13" t="n">
-        <v>0.152494</v>
+        <v>0.399408</v>
       </c>
       <c r="E13" t="n">
-        <v>0.292554</v>
+        <v>0.159341</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.293913</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.191731</v>
+        <v>0.184312</v>
       </c>
       <c r="C14" t="n">
-        <v>0.374053</v>
+        <v>0.295667</v>
       </c>
       <c r="D14" t="n">
-        <v>0.159117</v>
+        <v>0.393713</v>
       </c>
       <c r="E14" t="n">
-        <v>0.289186</v>
+        <v>0.15144</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.286153</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.182855</v>
+        <v>0.170536</v>
       </c>
       <c r="C15" t="n">
-        <v>0.369763</v>
+        <v>0.292683</v>
       </c>
       <c r="D15" t="n">
-        <v>0.146201</v>
+        <v>0.390631</v>
       </c>
       <c r="E15" t="n">
-        <v>0.286515</v>
+        <v>0.148414</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.281139</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.175022</v>
+        <v>0.165581</v>
       </c>
       <c r="C16" t="n">
-        <v>0.370073</v>
+        <v>0.283847</v>
       </c>
       <c r="D16" t="n">
-        <v>0.148104</v>
+        <v>0.384493</v>
       </c>
       <c r="E16" t="n">
-        <v>0.27954</v>
+        <v>0.141748</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.275524</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.174301</v>
+        <v>0.161496</v>
       </c>
       <c r="C17" t="n">
-        <v>0.366677</v>
+        <v>0.280388</v>
       </c>
       <c r="D17" t="n">
-        <v>0.136198</v>
+        <v>0.382714</v>
       </c>
       <c r="E17" t="n">
-        <v>0.272953</v>
+        <v>0.138354</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.274898</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.165929</v>
+        <v>0.158637</v>
       </c>
       <c r="C18" t="n">
-        <v>0.361445</v>
+        <v>0.277733</v>
       </c>
       <c r="D18" t="n">
-        <v>0.131453</v>
+        <v>0.376462</v>
       </c>
       <c r="E18" t="n">
-        <v>0.268956</v>
+        <v>0.135532</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2676</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.160205</v>
+        <v>0.157383</v>
       </c>
       <c r="C19" t="n">
-        <v>0.358589</v>
+        <v>0.273149</v>
       </c>
       <c r="D19" t="n">
-        <v>0.136482</v>
+        <v>0.372734</v>
       </c>
       <c r="E19" t="n">
-        <v>0.263565</v>
+        <v>0.137513</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.265662</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.156395</v>
+        <v>0.155905</v>
       </c>
       <c r="C20" t="n">
-        <v>0.359455</v>
+        <v>0.268271</v>
       </c>
       <c r="D20" t="n">
-        <v>0.126999</v>
+        <v>0.371468</v>
       </c>
       <c r="E20" t="n">
-        <v>0.26228</v>
+        <v>0.131088</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.26002</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.157095</v>
+        <v>0.152507</v>
       </c>
       <c r="C21" t="n">
-        <v>0.478092</v>
+        <v>0.265444</v>
       </c>
       <c r="D21" t="n">
-        <v>0.124094</v>
+        <v>0.471596</v>
       </c>
       <c r="E21" t="n">
-        <v>0.261532</v>
+        <v>0.129522</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.260183</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.156576</v>
+        <v>0.153328</v>
       </c>
       <c r="C22" t="n">
-        <v>0.467301</v>
+        <v>0.270153</v>
       </c>
       <c r="D22" t="n">
-        <v>0.125579</v>
+        <v>0.461926</v>
       </c>
       <c r="E22" t="n">
-        <v>0.257036</v>
+        <v>0.139204</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.262609</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.157574</v>
+        <v>0.155101</v>
       </c>
       <c r="C23" t="n">
-        <v>0.457898</v>
+        <v>0.273148</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222103</v>
+        <v>0.453195</v>
       </c>
       <c r="E23" t="n">
-        <v>0.334521</v>
+        <v>0.22233</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.330212</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.24099</v>
+        <v>0.237836</v>
       </c>
       <c r="C24" t="n">
-        <v>0.448073</v>
+        <v>0.340388</v>
       </c>
       <c r="D24" t="n">
-        <v>0.208784</v>
+        <v>0.442569</v>
       </c>
       <c r="E24" t="n">
-        <v>0.327597</v>
+        <v>0.213797</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.325548</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235363</v>
+        <v>0.232792</v>
       </c>
       <c r="C25" t="n">
-        <v>0.44126</v>
+        <v>0.331711</v>
       </c>
       <c r="D25" t="n">
-        <v>0.194829</v>
+        <v>0.439045</v>
       </c>
       <c r="E25" t="n">
-        <v>0.317334</v>
+        <v>0.207877</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.315918</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.213991</v>
+        <v>0.220818</v>
       </c>
       <c r="C26" t="n">
-        <v>0.432859</v>
+        <v>0.323314</v>
       </c>
       <c r="D26" t="n">
-        <v>0.199325</v>
+        <v>0.428046</v>
       </c>
       <c r="E26" t="n">
-        <v>0.310105</v>
+        <v>0.199287</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.310409</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.217054</v>
+        <v>0.214188</v>
       </c>
       <c r="C27" t="n">
-        <v>0.424014</v>
+        <v>0.316365</v>
       </c>
       <c r="D27" t="n">
-        <v>0.190551</v>
+        <v>0.422639</v>
       </c>
       <c r="E27" t="n">
-        <v>0.302456</v>
+        <v>0.19247</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.301635</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.209803</v>
+        <v>0.206863</v>
       </c>
       <c r="C28" t="n">
-        <v>0.419645</v>
+        <v>0.310543</v>
       </c>
       <c r="D28" t="n">
-        <v>0.179393</v>
+        <v>0.415176</v>
       </c>
       <c r="E28" t="n">
-        <v>0.296019</v>
+        <v>0.183147</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.295574</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.194703</v>
+        <v>0.198074</v>
       </c>
       <c r="C29" t="n">
-        <v>0.414036</v>
+        <v>0.301656</v>
       </c>
       <c r="D29" t="n">
-        <v>0.177741</v>
+        <v>0.409081</v>
       </c>
       <c r="E29" t="n">
-        <v>0.296668</v>
+        <v>0.175943</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.290029</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.189364</v>
+        <v>0.190476</v>
       </c>
       <c r="C30" t="n">
-        <v>0.408469</v>
+        <v>0.296089</v>
       </c>
       <c r="D30" t="n">
-        <v>0.163814</v>
+        <v>0.404025</v>
       </c>
       <c r="E30" t="n">
-        <v>0.282037</v>
+        <v>0.173927</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.282872</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.188504</v>
+        <v>0.189206</v>
       </c>
       <c r="C31" t="n">
-        <v>0.404911</v>
+        <v>0.291172</v>
       </c>
       <c r="D31" t="n">
-        <v>0.16211</v>
+        <v>0.401541</v>
       </c>
       <c r="E31" t="n">
-        <v>0.276876</v>
+        <v>0.165062</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.278507</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.183273</v>
+        <v>0.179889</v>
       </c>
       <c r="C32" t="n">
-        <v>0.399941</v>
+        <v>0.285343</v>
       </c>
       <c r="D32" t="n">
-        <v>0.156362</v>
+        <v>0.396396</v>
       </c>
       <c r="E32" t="n">
-        <v>0.272939</v>
+        <v>0.163239</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.272359</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.174809</v>
+        <v>0.176719</v>
       </c>
       <c r="C33" t="n">
-        <v>0.393926</v>
+        <v>0.283907</v>
       </c>
       <c r="D33" t="n">
-        <v>0.150427</v>
+        <v>0.392233</v>
       </c>
       <c r="E33" t="n">
-        <v>0.269429</v>
+        <v>0.159688</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.269059</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.174723</v>
+        <v>0.171518</v>
       </c>
       <c r="C34" t="n">
-        <v>0.391131</v>
+        <v>0.278823</v>
       </c>
       <c r="D34" t="n">
-        <v>0.150441</v>
+        <v>0.387418</v>
       </c>
       <c r="E34" t="n">
-        <v>0.264975</v>
+        <v>0.153782</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.266677</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.166118</v>
+        <v>0.170802</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5006930000000001</v>
+        <v>0.280175</v>
       </c>
       <c r="D35" t="n">
-        <v>0.143748</v>
+        <v>0.492552</v>
       </c>
       <c r="E35" t="n">
-        <v>0.262815</v>
+        <v>0.150904</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.264372</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.165203</v>
+        <v>0.171714</v>
       </c>
       <c r="C36" t="n">
-        <v>0.489552</v>
+        <v>0.276888</v>
       </c>
       <c r="D36" t="n">
-        <v>0.145926</v>
+        <v>0.481008</v>
       </c>
       <c r="E36" t="n">
-        <v>0.264857</v>
+        <v>0.150984</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.263709</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166748</v>
+        <v>0.170411</v>
       </c>
       <c r="C37" t="n">
-        <v>0.479384</v>
+        <v>0.279208</v>
       </c>
       <c r="D37" t="n">
-        <v>0.230962</v>
+        <v>0.472016</v>
       </c>
       <c r="E37" t="n">
-        <v>0.348041</v>
+        <v>0.230682</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.347984</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242965</v>
+        <v>0.242776</v>
       </c>
       <c r="C38" t="n">
-        <v>0.469702</v>
+        <v>0.350466</v>
       </c>
       <c r="D38" t="n">
-        <v>0.223822</v>
+        <v>0.462267</v>
       </c>
       <c r="E38" t="n">
-        <v>0.337982</v>
+        <v>0.221791</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.340065</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235321</v>
+        <v>0.234175</v>
       </c>
       <c r="C39" t="n">
-        <v>0.459251</v>
+        <v>0.343127</v>
       </c>
       <c r="D39" t="n">
-        <v>0.214648</v>
+        <v>0.453779</v>
       </c>
       <c r="E39" t="n">
-        <v>0.330252</v>
+        <v>0.212191</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.330786</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226418</v>
+        <v>0.22518</v>
       </c>
       <c r="C40" t="n">
-        <v>0.452012</v>
+        <v>0.334872</v>
       </c>
       <c r="D40" t="n">
-        <v>0.207152</v>
+        <v>0.445558</v>
       </c>
       <c r="E40" t="n">
-        <v>0.323428</v>
+        <v>0.205325</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.323484</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.218027</v>
+        <v>0.217734</v>
       </c>
       <c r="C41" t="n">
-        <v>0.445311</v>
+        <v>0.327488</v>
       </c>
       <c r="D41" t="n">
-        <v>0.198501</v>
+        <v>0.438178</v>
       </c>
       <c r="E41" t="n">
-        <v>0.317259</v>
+        <v>0.196669</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.315716</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209363</v>
+        <v>0.209982</v>
       </c>
       <c r="C42" t="n">
-        <v>0.439086</v>
+        <v>0.320628</v>
       </c>
       <c r="D42" t="n">
-        <v>0.192224</v>
+        <v>0.431525</v>
       </c>
       <c r="E42" t="n">
-        <v>0.308664</v>
+        <v>0.189453</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.309133</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.203584</v>
+        <v>0.202762</v>
       </c>
       <c r="C43" t="n">
-        <v>0.432986</v>
+        <v>0.31489</v>
       </c>
       <c r="D43" t="n">
-        <v>0.184666</v>
+        <v>0.424981</v>
       </c>
       <c r="E43" t="n">
-        <v>0.303873</v>
+        <v>0.182552</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.301912</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.19678</v>
+        <v>0.196177</v>
       </c>
       <c r="C44" t="n">
-        <v>0.425627</v>
+        <v>0.309181</v>
       </c>
       <c r="D44" t="n">
-        <v>0.177069</v>
+        <v>0.417433</v>
       </c>
       <c r="E44" t="n">
-        <v>0.296171</v>
+        <v>0.177439</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.296867</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190507</v>
+        <v>0.190435</v>
       </c>
       <c r="C45" t="n">
-        <v>0.419801</v>
+        <v>0.303399</v>
       </c>
       <c r="D45" t="n">
-        <v>0.172843</v>
+        <v>0.412907</v>
       </c>
       <c r="E45" t="n">
-        <v>0.291401</v>
+        <v>0.171551</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.291421</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.185127</v>
+        <v>0.185025</v>
       </c>
       <c r="C46" t="n">
-        <v>0.416092</v>
+        <v>0.299576</v>
       </c>
       <c r="D46" t="n">
-        <v>0.16771</v>
+        <v>0.40713</v>
       </c>
       <c r="E46" t="n">
-        <v>0.286225</v>
+        <v>0.164983</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.286315</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.180888</v>
+        <v>0.179638</v>
       </c>
       <c r="C47" t="n">
-        <v>0.411361</v>
+        <v>0.295042</v>
       </c>
       <c r="D47" t="n">
-        <v>0.163062</v>
+        <v>0.404255</v>
       </c>
       <c r="E47" t="n">
-        <v>0.282598</v>
+        <v>0.161123</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.282309</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.176875</v>
+        <v>0.176655</v>
       </c>
       <c r="C48" t="n">
-        <v>0.407792</v>
+        <v>0.293079</v>
       </c>
       <c r="D48" t="n">
-        <v>0.159448</v>
+        <v>0.399219</v>
       </c>
       <c r="E48" t="n">
-        <v>0.279326</v>
+        <v>0.157815</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.279336</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174429</v>
+        <v>0.173549</v>
       </c>
       <c r="C49" t="n">
-        <v>0.403818</v>
+        <v>0.290591</v>
       </c>
       <c r="D49" t="n">
-        <v>0.158038</v>
+        <v>0.398134</v>
       </c>
       <c r="E49" t="n">
-        <v>0.277494</v>
+        <v>0.155224</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.27722</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172901</v>
+        <v>0.171866</v>
       </c>
       <c r="C50" t="n">
-        <v>0.508249</v>
+        <v>0.290977</v>
       </c>
       <c r="D50" t="n">
-        <v>0.155683</v>
+        <v>0.5057199999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.276625</v>
+        <v>0.154986</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.277116</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17343</v>
+        <v>0.172691</v>
       </c>
       <c r="C51" t="n">
-        <v>0.49703</v>
+        <v>0.292093</v>
       </c>
       <c r="D51" t="n">
-        <v>0.24195</v>
+        <v>0.493968</v>
       </c>
       <c r="E51" t="n">
-        <v>0.360024</v>
+        <v>0.239</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.358783</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176228</v>
+        <v>0.175807</v>
       </c>
       <c r="C52" t="n">
-        <v>0.487682</v>
+        <v>0.297895</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232251</v>
+        <v>0.482606</v>
       </c>
       <c r="E52" t="n">
-        <v>0.351017</v>
+        <v>0.230927</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.350324</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24245</v>
+        <v>0.240716</v>
       </c>
       <c r="C53" t="n">
-        <v>0.477268</v>
+        <v>0.354931</v>
       </c>
       <c r="D53" t="n">
-        <v>0.223208</v>
+        <v>0.473133</v>
       </c>
       <c r="E53" t="n">
-        <v>0.342661</v>
+        <v>0.221685</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.342116</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233842</v>
+        <v>0.232852</v>
       </c>
       <c r="C54" t="n">
-        <v>0.468612</v>
+        <v>0.347367</v>
       </c>
       <c r="D54" t="n">
-        <v>0.214571</v>
+        <v>0.46451</v>
       </c>
       <c r="E54" t="n">
-        <v>0.334683</v>
+        <v>0.212571</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.334006</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.225521</v>
+        <v>0.224402</v>
       </c>
       <c r="C55" t="n">
-        <v>0.460969</v>
+        <v>0.342722</v>
       </c>
       <c r="D55" t="n">
-        <v>0.206443</v>
+        <v>0.458181</v>
       </c>
       <c r="E55" t="n">
-        <v>0.32914</v>
+        <v>0.204879</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.328195</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217168</v>
+        <v>0.217265</v>
       </c>
       <c r="C56" t="n">
-        <v>0.453622</v>
+        <v>0.334916</v>
       </c>
       <c r="D56" t="n">
-        <v>0.198652</v>
+        <v>0.449409</v>
       </c>
       <c r="E56" t="n">
-        <v>0.321799</v>
+        <v>0.196931</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.320973</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.20981</v>
+        <v>0.208892</v>
       </c>
       <c r="C57" t="n">
-        <v>0.447403</v>
+        <v>0.328959</v>
       </c>
       <c r="D57" t="n">
-        <v>0.192187</v>
+        <v>0.444813</v>
       </c>
       <c r="E57" t="n">
-        <v>0.31518</v>
+        <v>0.190889</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.314597</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.203432</v>
+        <v>0.202409</v>
       </c>
       <c r="C58" t="n">
-        <v>0.441367</v>
+        <v>0.3234</v>
       </c>
       <c r="D58" t="n">
-        <v>0.185313</v>
+        <v>0.437137</v>
       </c>
       <c r="E58" t="n">
-        <v>0.308812</v>
+        <v>0.184201</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.307473</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196982</v>
+        <v>0.195381</v>
       </c>
       <c r="C59" t="n">
-        <v>0.435261</v>
+        <v>0.317305</v>
       </c>
       <c r="D59" t="n">
-        <v>0.17953</v>
+        <v>0.433472</v>
       </c>
       <c r="E59" t="n">
-        <v>0.303539</v>
+        <v>0.177873</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.302578</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.191069</v>
+        <v>0.190447</v>
       </c>
       <c r="C60" t="n">
-        <v>0.431768</v>
+        <v>0.312179</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174423</v>
+        <v>0.427729</v>
       </c>
       <c r="E60" t="n">
-        <v>0.298299</v>
+        <v>0.172243</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.298176</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.186236</v>
+        <v>0.185342</v>
       </c>
       <c r="C61" t="n">
-        <v>0.427212</v>
+        <v>0.308366</v>
       </c>
       <c r="D61" t="n">
-        <v>0.168605</v>
+        <v>0.423128</v>
       </c>
       <c r="E61" t="n">
-        <v>0.294157</v>
+        <v>0.167354</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.292764</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181933</v>
+        <v>0.181484</v>
       </c>
       <c r="C62" t="n">
-        <v>0.423826</v>
+        <v>0.305196</v>
       </c>
       <c r="D62" t="n">
-        <v>0.164916</v>
+        <v>0.420407</v>
       </c>
       <c r="E62" t="n">
-        <v>0.290783</v>
+        <v>0.163961</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.289646</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178511</v>
+        <v>0.177209</v>
       </c>
       <c r="C63" t="n">
-        <v>0.420105</v>
+        <v>0.30302</v>
       </c>
       <c r="D63" t="n">
-        <v>0.162149</v>
+        <v>0.418269</v>
       </c>
       <c r="E63" t="n">
-        <v>0.28809</v>
+        <v>0.160669</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.287274</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176719</v>
+        <v>0.176375</v>
       </c>
       <c r="C64" t="n">
-        <v>0.546223</v>
+        <v>0.302263</v>
       </c>
       <c r="D64" t="n">
-        <v>0.160115</v>
+        <v>0.542173</v>
       </c>
       <c r="E64" t="n">
-        <v>0.287258</v>
+        <v>0.159794</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.286847</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176954</v>
+        <v>0.17631</v>
       </c>
       <c r="C65" t="n">
-        <v>0.535229</v>
+        <v>0.303818</v>
       </c>
       <c r="D65" t="n">
-        <v>0.160859</v>
+        <v>0.531938</v>
       </c>
       <c r="E65" t="n">
-        <v>0.28862</v>
+        <v>0.159922</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.288163</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179548</v>
+        <v>0.179257</v>
       </c>
       <c r="C66" t="n">
-        <v>0.524355</v>
+        <v>0.306058</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243091</v>
+        <v>0.521979</v>
       </c>
       <c r="E66" t="n">
-        <v>0.368037</v>
+        <v>0.24182</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.366526</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.24392</v>
+        <v>0.244087</v>
       </c>
       <c r="C67" t="n">
-        <v>0.516323</v>
+        <v>0.374633</v>
       </c>
       <c r="D67" t="n">
-        <v>0.232114</v>
+        <v>0.513247</v>
       </c>
       <c r="E67" t="n">
-        <v>0.358498</v>
+        <v>0.231229</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.358653</v>
       </c>
     </row>
     <row r="68">
@@ -5302,13 +5500,16 @@
         <v>0.23551</v>
       </c>
       <c r="C68" t="n">
-        <v>0.508582</v>
+        <v>0.365677</v>
       </c>
       <c r="D68" t="n">
-        <v>0.224309</v>
+        <v>0.507066</v>
       </c>
       <c r="E68" t="n">
-        <v>0.35031</v>
+        <v>0.22419</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.349644</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.226794</v>
+        <v>0.228011</v>
       </c>
       <c r="C69" t="n">
-        <v>0.50121</v>
+        <v>0.360799</v>
       </c>
       <c r="D69" t="n">
-        <v>0.215891</v>
+        <v>0.501045</v>
       </c>
       <c r="E69" t="n">
-        <v>0.344942</v>
+        <v>0.215874</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.344332</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.218992</v>
+        <v>0.219299</v>
       </c>
       <c r="C70" t="n">
-        <v>0.494669</v>
+        <v>0.353591</v>
       </c>
       <c r="D70" t="n">
-        <v>0.207215</v>
+        <v>0.491954</v>
       </c>
       <c r="E70" t="n">
-        <v>0.337905</v>
+        <v>0.206048</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.337322</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.212711</v>
+        <v>0.212195</v>
       </c>
       <c r="C71" t="n">
-        <v>0.490649</v>
+        <v>0.34577</v>
       </c>
       <c r="D71" t="n">
-        <v>0.200665</v>
+        <v>0.487567</v>
       </c>
       <c r="E71" t="n">
-        <v>0.330736</v>
+        <v>0.198942</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.329298</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205318</v>
+        <v>0.204906</v>
       </c>
       <c r="C72" t="n">
-        <v>0.485481</v>
+        <v>0.339963</v>
       </c>
       <c r="D72" t="n">
-        <v>0.193412</v>
+        <v>0.484235</v>
       </c>
       <c r="E72" t="n">
-        <v>0.324178</v>
+        <v>0.191778</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.323319</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199528</v>
+        <v>0.198988</v>
       </c>
       <c r="C73" t="n">
-        <v>0.480463</v>
+        <v>0.333846</v>
       </c>
       <c r="D73" t="n">
-        <v>0.188067</v>
+        <v>0.479325</v>
       </c>
       <c r="E73" t="n">
-        <v>0.318739</v>
+        <v>0.185223</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.317402</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193773</v>
+        <v>0.193473</v>
       </c>
       <c r="C74" t="n">
-        <v>0.495219</v>
+        <v>0.329286</v>
       </c>
       <c r="D74" t="n">
-        <v>0.182235</v>
+        <v>0.49454</v>
       </c>
       <c r="E74" t="n">
-        <v>0.312768</v>
+        <v>0.179302</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.312372</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.190088</v>
+        <v>0.188598</v>
       </c>
       <c r="C75" t="n">
-        <v>0.491329</v>
+        <v>0.325082</v>
       </c>
       <c r="D75" t="n">
-        <v>0.176505</v>
+        <v>0.492253</v>
       </c>
       <c r="E75" t="n">
-        <v>0.308495</v>
+        <v>0.174516</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.306709</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.184668</v>
+        <v>0.183295</v>
       </c>
       <c r="C76" t="n">
-        <v>0.486433</v>
+        <v>0.320758</v>
       </c>
       <c r="D76" t="n">
-        <v>0.171607</v>
+        <v>0.485952</v>
       </c>
       <c r="E76" t="n">
-        <v>0.304379</v>
+        <v>0.170705</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.302411</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.18156</v>
+        <v>0.180748</v>
       </c>
       <c r="C77" t="n">
-        <v>0.483961</v>
+        <v>0.319095</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1683</v>
+        <v>0.483849</v>
       </c>
       <c r="E77" t="n">
-        <v>0.301276</v>
+        <v>0.167401</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.301187</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.17871</v>
+        <v>0.178691</v>
       </c>
       <c r="C78" t="n">
-        <v>0.662936</v>
+        <v>0.319423</v>
       </c>
       <c r="D78" t="n">
-        <v>0.16673</v>
+        <v>0.660579</v>
       </c>
       <c r="E78" t="n">
-        <v>0.302309</v>
+        <v>0.165988</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.302301</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178673</v>
+        <v>0.178316</v>
       </c>
       <c r="C79" t="n">
-        <v>0.652564</v>
+        <v>0.319311</v>
       </c>
       <c r="D79" t="n">
-        <v>0.166266</v>
+        <v>0.651858</v>
       </c>
       <c r="E79" t="n">
-        <v>0.303589</v>
+        <v>0.165089</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.301667</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180715</v>
+        <v>0.180884</v>
       </c>
       <c r="C80" t="n">
-        <v>0.642945</v>
+        <v>0.322843</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239892</v>
+        <v>0.641418</v>
       </c>
       <c r="E80" t="n">
-        <v>0.383463</v>
+        <v>0.238743</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.38254</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257757</v>
+        <v>0.256673</v>
       </c>
       <c r="C81" t="n">
-        <v>0.635431</v>
+        <v>0.393431</v>
       </c>
       <c r="D81" t="n">
-        <v>0.231906</v>
+        <v>0.633701</v>
       </c>
       <c r="E81" t="n">
-        <v>0.378682</v>
+        <v>0.229209</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.376441</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.248622</v>
+        <v>0.248828</v>
       </c>
       <c r="C82" t="n">
-        <v>0.628818</v>
+        <v>0.389378</v>
       </c>
       <c r="D82" t="n">
-        <v>0.223186</v>
+        <v>0.628771</v>
       </c>
       <c r="E82" t="n">
-        <v>0.372104</v>
+        <v>0.221431</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.370388</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241348</v>
+        <v>0.241687</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6222</v>
+        <v>0.384671</v>
       </c>
       <c r="D83" t="n">
-        <v>0.215214</v>
+        <v>0.622203</v>
       </c>
       <c r="E83" t="n">
-        <v>0.36564</v>
+        <v>0.213546</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.363729</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.233288</v>
+        <v>0.233823</v>
       </c>
       <c r="C84" t="n">
-        <v>0.618661</v>
+        <v>0.382238</v>
       </c>
       <c r="D84" t="n">
-        <v>0.206771</v>
+        <v>0.619414</v>
       </c>
       <c r="E84" t="n">
-        <v>0.361177</v>
+        <v>0.206373</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.360141</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226752</v>
+        <v>0.226435</v>
       </c>
       <c r="C85" t="n">
-        <v>0.617963</v>
+        <v>0.3759</v>
       </c>
       <c r="D85" t="n">
-        <v>0.201005</v>
+        <v>0.619362</v>
       </c>
       <c r="E85" t="n">
-        <v>0.355064</v>
+        <v>0.199238</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.354189</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219209</v>
+        <v>0.219403</v>
       </c>
       <c r="C86" t="n">
-        <v>0.615797</v>
+        <v>0.371191</v>
       </c>
       <c r="D86" t="n">
-        <v>0.194179</v>
+        <v>0.616466</v>
       </c>
       <c r="E86" t="n">
-        <v>0.349195</v>
+        <v>0.192686</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.348061</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213276</v>
+        <v>0.212981</v>
       </c>
       <c r="C87" t="n">
-        <v>0.617609</v>
+        <v>0.36512</v>
       </c>
       <c r="D87" t="n">
-        <v>0.18837</v>
+        <v>0.617853</v>
       </c>
       <c r="E87" t="n">
-        <v>0.34385</v>
+        <v>0.185131</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.341194</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206581</v>
+        <v>0.206654</v>
       </c>
       <c r="C88" t="n">
-        <v>0.618409</v>
+        <v>0.361874</v>
       </c>
       <c r="D88" t="n">
-        <v>0.181792</v>
+        <v>0.617096</v>
       </c>
       <c r="E88" t="n">
-        <v>0.339019</v>
+        <v>0.180498</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.338365</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201044</v>
+        <v>0.201478</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6321020000000001</v>
+        <v>0.356697</v>
       </c>
       <c r="D89" t="n">
-        <v>0.176859</v>
+        <v>0.63459</v>
       </c>
       <c r="E89" t="n">
-        <v>0.333953</v>
+        <v>0.175816</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.332626</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196109</v>
+        <v>0.195737</v>
       </c>
       <c r="C90" t="n">
-        <v>0.636068</v>
+        <v>0.352438</v>
       </c>
       <c r="D90" t="n">
-        <v>0.172023</v>
+        <v>0.636581</v>
       </c>
       <c r="E90" t="n">
-        <v>0.329858</v>
+        <v>0.170999</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.329316</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19215</v>
+        <v>0.192256</v>
       </c>
       <c r="C91" t="n">
-        <v>0.639858</v>
+        <v>0.349891</v>
       </c>
       <c r="D91" t="n">
-        <v>0.168963</v>
+        <v>0.641432</v>
       </c>
       <c r="E91" t="n">
-        <v>0.327247</v>
+        <v>0.167733</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.325646</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189618</v>
+        <v>0.189382</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8533809999999999</v>
+        <v>0.35005</v>
       </c>
       <c r="D92" t="n">
-        <v>0.16664</v>
+        <v>0.856594</v>
       </c>
       <c r="E92" t="n">
-        <v>0.326419</v>
+        <v>0.164963</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.324753</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188199</v>
+        <v>0.188583</v>
       </c>
       <c r="C93" t="n">
-        <v>0.848172</v>
+        <v>0.349669</v>
       </c>
       <c r="D93" t="n">
-        <v>0.166088</v>
+        <v>0.849894</v>
       </c>
       <c r="E93" t="n">
-        <v>0.326581</v>
+        <v>0.165351</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.325698</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.188717</v>
+        <v>0.18968</v>
       </c>
       <c r="C94" t="n">
-        <v>0.842042</v>
+        <v>0.352299</v>
       </c>
       <c r="D94" t="n">
-        <v>0.252853</v>
+        <v>0.845252</v>
       </c>
       <c r="E94" t="n">
-        <v>0.452026</v>
+        <v>0.250369</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.450633</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.27068</v>
+        <v>0.271413</v>
       </c>
       <c r="C95" t="n">
-        <v>0.838171</v>
+        <v>0.466457</v>
       </c>
       <c r="D95" t="n">
-        <v>0.245062</v>
+        <v>0.841065</v>
       </c>
       <c r="E95" t="n">
-        <v>0.450725</v>
+        <v>0.242842</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.449133</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.264481</v>
+        <v>0.265435</v>
       </c>
       <c r="C96" t="n">
-        <v>0.834327</v>
+        <v>0.465911</v>
       </c>
       <c r="D96" t="n">
-        <v>0.237149</v>
+        <v>0.836136</v>
       </c>
       <c r="E96" t="n">
-        <v>0.446166</v>
+        <v>0.235119</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.444822</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257724</v>
+        <v>0.258773</v>
       </c>
       <c r="C97" t="n">
-        <v>0.840221</v>
+        <v>0.461742</v>
       </c>
       <c r="D97" t="n">
-        <v>0.229681</v>
+        <v>0.842166</v>
       </c>
       <c r="E97" t="n">
-        <v>0.441037</v>
+        <v>0.227356</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.440212</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.25135</v>
+        <v>0.252024</v>
       </c>
       <c r="C98" t="n">
-        <v>0.838228</v>
+        <v>0.458425</v>
       </c>
       <c r="D98" t="n">
-        <v>0.22215</v>
+        <v>0.844179</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4362</v>
+        <v>0.220251</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.434334</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245116</v>
+        <v>0.245278</v>
       </c>
       <c r="C99" t="n">
-        <v>0.837426</v>
+        <v>0.454048</v>
       </c>
       <c r="D99" t="n">
-        <v>0.214257</v>
+        <v>0.841984</v>
       </c>
       <c r="E99" t="n">
-        <v>0.430468</v>
+        <v>0.212871</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.429843</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238535</v>
+        <v>0.239437</v>
       </c>
       <c r="C100" t="n">
-        <v>0.840297</v>
+        <v>0.450047</v>
       </c>
       <c r="D100" t="n">
-        <v>0.20841</v>
+        <v>0.8411689999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.426238</v>
+        <v>0.206496</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.424907</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232795</v>
+        <v>0.233272</v>
       </c>
       <c r="C101" t="n">
-        <v>0.841361</v>
+        <v>0.445345</v>
       </c>
       <c r="D101" t="n">
-        <v>0.20184</v>
+        <v>0.8479989999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.421924</v>
+        <v>0.200455</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.4203</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227854</v>
+        <v>0.227822</v>
       </c>
       <c r="C102" t="n">
-        <v>0.845329</v>
+        <v>0.441259</v>
       </c>
       <c r="D102" t="n">
-        <v>0.196416</v>
+        <v>0.85105</v>
       </c>
       <c r="E102" t="n">
-        <v>0.416698</v>
+        <v>0.194783</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.415853</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222353</v>
+        <v>0.222804</v>
       </c>
       <c r="C103" t="n">
-        <v>0.85528</v>
+        <v>0.438357</v>
       </c>
       <c r="D103" t="n">
-        <v>0.191035</v>
+        <v>0.858108</v>
       </c>
       <c r="E103" t="n">
-        <v>0.413951</v>
+        <v>0.189878</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.412994</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.21825</v>
+        <v>0.218299</v>
       </c>
       <c r="C104" t="n">
-        <v>0.86238</v>
+        <v>0.435239</v>
       </c>
       <c r="D104" t="n">
-        <v>0.186392</v>
+        <v>0.865494</v>
       </c>
       <c r="E104" t="n">
-        <v>0.410333</v>
+        <v>0.184885</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.409492</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214062</v>
+        <v>0.214387</v>
       </c>
       <c r="C105" t="n">
-        <v>0.868985</v>
+        <v>0.434282</v>
       </c>
       <c r="D105" t="n">
-        <v>0.18288</v>
+        <v>0.873856</v>
       </c>
       <c r="E105" t="n">
-        <v>0.408328</v>
+        <v>0.181716</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.407402</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210778</v>
+        <v>0.211097</v>
       </c>
       <c r="C106" t="n">
-        <v>0.877974</v>
+        <v>0.433819</v>
       </c>
       <c r="D106" t="n">
-        <v>0.180238</v>
+        <v>0.882892</v>
       </c>
       <c r="E106" t="n">
-        <v>0.40693</v>
+        <v>0.179034</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.406375</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208638</v>
+        <v>0.209085</v>
       </c>
       <c r="C107" t="n">
-        <v>1.12221</v>
+        <v>0.433981</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1794</v>
+        <v>1.12623</v>
       </c>
       <c r="E107" t="n">
-        <v>0.406427</v>
+        <v>0.177966</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.406548</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208431</v>
+        <v>0.209158</v>
       </c>
       <c r="C108" t="n">
-        <v>1.11356</v>
+        <v>0.436931</v>
       </c>
       <c r="D108" t="n">
-        <v>0.269252</v>
+        <v>1.11708</v>
       </c>
       <c r="E108" t="n">
-        <v>0.561891</v>
+        <v>0.267166</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.560538</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210438</v>
+        <v>0.211426</v>
       </c>
       <c r="C109" t="n">
-        <v>1.10476</v>
+        <v>0.442964</v>
       </c>
       <c r="D109" t="n">
-        <v>0.262865</v>
+        <v>1.10725</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5592</v>
+        <v>0.261253</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.560684</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.284479</v>
+        <v>0.29328</v>
       </c>
       <c r="C110" t="n">
-        <v>1.10026</v>
+        <v>0.580354</v>
       </c>
       <c r="D110" t="n">
-        <v>0.255144</v>
+        <v>1.10358</v>
       </c>
       <c r="E110" t="n">
-        <v>0.553809</v>
+        <v>0.25341</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.553851</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277811</v>
+        <v>0.28665</v>
       </c>
       <c r="C111" t="n">
-        <v>1.09644</v>
+        <v>0.574171</v>
       </c>
       <c r="D111" t="n">
-        <v>0.247856</v>
+        <v>1.09922</v>
       </c>
       <c r="E111" t="n">
-        <v>0.549258</v>
+        <v>0.24629</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.548923</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272065</v>
+        <v>0.279989</v>
       </c>
       <c r="C112" t="n">
-        <v>1.09277</v>
+        <v>0.569311</v>
       </c>
       <c r="D112" t="n">
-        <v>0.240552</v>
+        <v>1.09309</v>
       </c>
       <c r="E112" t="n">
-        <v>0.54323</v>
+        <v>0.239018</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.543926</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.265593</v>
+        <v>0.273564</v>
       </c>
       <c r="C113" t="n">
-        <v>1.08844</v>
+        <v>0.563511</v>
       </c>
       <c r="D113" t="n">
-        <v>0.234288</v>
+        <v>1.09198</v>
       </c>
       <c r="E113" t="n">
-        <v>0.538818</v>
+        <v>0.232958</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.538116</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260162</v>
+        <v>0.26764</v>
       </c>
       <c r="C114" t="n">
-        <v>1.0915</v>
+        <v>0.558854</v>
       </c>
       <c r="D114" t="n">
-        <v>0.228347</v>
+        <v>1.09188</v>
       </c>
       <c r="E114" t="n">
-        <v>0.53382</v>
+        <v>0.226405</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.533978</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255043</v>
+        <v>0.262322</v>
       </c>
       <c r="C115" t="n">
-        <v>1.09219</v>
+        <v>0.555304</v>
       </c>
       <c r="D115" t="n">
-        <v>0.222616</v>
+        <v>1.09281</v>
       </c>
       <c r="E115" t="n">
-        <v>0.530292</v>
+        <v>0.22103</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.529934</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.24997</v>
+        <v>0.257025</v>
       </c>
       <c r="C116" t="n">
-        <v>1.09278</v>
+        <v>0.551573</v>
       </c>
       <c r="D116" t="n">
-        <v>0.217182</v>
+        <v>1.09812</v>
       </c>
       <c r="E116" t="n">
-        <v>0.526354</v>
+        <v>0.215579</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.5271940000000001</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245366</v>
+        <v>0.25203</v>
       </c>
       <c r="C117" t="n">
-        <v>1.09777</v>
+        <v>0.5418269999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.212235</v>
+        <v>1.10047</v>
       </c>
       <c r="E117" t="n">
-        <v>0.523856</v>
+        <v>0.211122</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.524362</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241078</v>
+        <v>0.247571</v>
       </c>
       <c r="C118" t="n">
-        <v>1.10181</v>
+        <v>0.546025</v>
       </c>
       <c r="D118" t="n">
-        <v>0.208074</v>
+        <v>1.10279</v>
       </c>
       <c r="E118" t="n">
-        <v>0.520151</v>
+        <v>0.206632</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.522272</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237525</v>
+        <v>0.243348</v>
       </c>
       <c r="C119" t="n">
-        <v>1.1106</v>
+        <v>0.544721</v>
       </c>
       <c r="D119" t="n">
-        <v>0.204394</v>
+        <v>1.10901</v>
       </c>
       <c r="E119" t="n">
-        <v>0.518829</v>
+        <v>0.202954</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.519097</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234465</v>
+        <v>0.239959</v>
       </c>
       <c r="C120" t="n">
-        <v>1.11667</v>
+        <v>0.544034</v>
       </c>
       <c r="D120" t="n">
-        <v>0.201601</v>
+        <v>1.11641</v>
       </c>
       <c r="E120" t="n">
-        <v>0.517126</v>
+        <v>0.200086</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.518203</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232019</v>
+        <v>0.237783</v>
       </c>
       <c r="C121" t="n">
-        <v>1.38208</v>
+        <v>0.544782</v>
       </c>
       <c r="D121" t="n">
-        <v>0.200371</v>
+        <v>1.37934</v>
       </c>
       <c r="E121" t="n">
-        <v>0.51772</v>
+        <v>0.198735</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.517801</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231154</v>
+        <v>0.236599</v>
       </c>
       <c r="C122" t="n">
-        <v>1.36718</v>
+        <v>0.547028</v>
       </c>
       <c r="D122" t="n">
-        <v>0.200699</v>
+        <v>1.36609</v>
       </c>
       <c r="E122" t="n">
-        <v>0.51923</v>
+        <v>0.199173</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.519348</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232364</v>
+        <v>0.237197</v>
       </c>
       <c r="C123" t="n">
-        <v>1.35098</v>
+        <v>0.550917</v>
       </c>
       <c r="D123" t="n">
-        <v>0.285255</v>
+        <v>1.34952</v>
       </c>
       <c r="E123" t="n">
-        <v>0.685681</v>
+        <v>0.283443</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.690275</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.317517</v>
+        <v>0.328962</v>
       </c>
       <c r="C124" t="n">
-        <v>1.33786</v>
+        <v>0.714383</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2794</v>
+        <v>1.33903</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6813630000000001</v>
+        <v>0.277303</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.685513</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311269</v>
+        <v>0.323242</v>
       </c>
       <c r="C125" t="n">
-        <v>1.32858</v>
+        <v>0.709817</v>
       </c>
       <c r="D125" t="n">
-        <v>0.273821</v>
+        <v>1.33181</v>
       </c>
       <c r="E125" t="n">
-        <v>0.676216</v>
+        <v>0.271758</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.681941</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305369</v>
+        <v>0.317089</v>
       </c>
       <c r="C126" t="n">
-        <v>1.31904</v>
+        <v>0.703954</v>
       </c>
       <c r="D126" t="n">
-        <v>0.268565</v>
+        <v>1.3199</v>
       </c>
       <c r="E126" t="n">
-        <v>0.67293</v>
+        <v>0.266349</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.677575</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.299992</v>
+        <v>0.310426</v>
       </c>
       <c r="C127" t="n">
-        <v>1.31154</v>
+        <v>0.700326</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263516</v>
+        <v>1.31294</v>
       </c>
       <c r="E127" t="n">
-        <v>0.669475</v>
+        <v>0.261528</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.67488</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295157</v>
+        <v>0.306459</v>
       </c>
       <c r="C128" t="n">
-        <v>1.30618</v>
+        <v>0.698059</v>
       </c>
       <c r="D128" t="n">
-        <v>0.258538</v>
+        <v>1.31028</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6670199999999999</v>
+        <v>0.256727</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.673596</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290106</v>
+        <v>0.301111</v>
       </c>
       <c r="C129" t="n">
-        <v>1.30429</v>
+        <v>0.6951850000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.254487</v>
+        <v>1.30308</v>
       </c>
       <c r="E129" t="n">
-        <v>0.664342</v>
+        <v>0.252371</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.668506</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286192</v>
+        <v>0.295255</v>
       </c>
       <c r="C130" t="n">
-        <v>1.30159</v>
+        <v>0.6917450000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.250328</v>
+        <v>1.30133</v>
       </c>
       <c r="E130" t="n">
-        <v>0.660847</v>
+        <v>0.248279</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.665758</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.282369</v>
+        <v>0.290688</v>
       </c>
       <c r="C131" t="n">
-        <v>1.29732</v>
+        <v>0.689099</v>
       </c>
       <c r="D131" t="n">
-        <v>0.246979</v>
+        <v>1.30114</v>
       </c>
       <c r="E131" t="n">
-        <v>0.659103</v>
+        <v>0.244665</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.663705</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278788</v>
+        <v>0.28664</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30002</v>
+        <v>0.6884</v>
       </c>
       <c r="D132" t="n">
-        <v>0.243071</v>
+        <v>1.30065</v>
       </c>
       <c r="E132" t="n">
-        <v>0.658098</v>
+        <v>0.241331</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.661956</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275566</v>
+        <v>0.282957</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30225</v>
+        <v>0.687611</v>
       </c>
       <c r="D133" t="n">
-        <v>0.240003</v>
+        <v>1.30238</v>
       </c>
       <c r="E133" t="n">
-        <v>0.656363</v>
+        <v>0.238531</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.661919</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.272918</v>
+        <v>0.280443</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30487</v>
+        <v>0.688626</v>
       </c>
       <c r="D134" t="n">
-        <v>0.237837</v>
+        <v>1.30428</v>
       </c>
       <c r="E134" t="n">
-        <v>0.656932</v>
+        <v>0.236023</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.661756</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270754</v>
+        <v>0.277925</v>
       </c>
       <c r="C135" t="n">
-        <v>1.57852</v>
+        <v>0.689466</v>
       </c>
       <c r="D135" t="n">
-        <v>0.236493</v>
+        <v>1.57893</v>
       </c>
       <c r="E135" t="n">
-        <v>0.656864</v>
+        <v>0.234907</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.662496</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.269657</v>
+        <v>0.277999</v>
       </c>
       <c r="C136" t="n">
-        <v>1.55645</v>
+        <v>0.6928609999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.236797</v>
+        <v>1.55759</v>
       </c>
       <c r="E136" t="n">
-        <v>0.6588039999999999</v>
+        <v>0.234963</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.66482</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.270785</v>
+        <v>0.278357</v>
       </c>
       <c r="C137" t="n">
-        <v>1.53718</v>
+        <v>0.696013</v>
       </c>
       <c r="D137" t="n">
-        <v>0.33447</v>
+        <v>1.53738</v>
       </c>
       <c r="E137" t="n">
-        <v>0.840622</v>
+        <v>0.33469</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.845621</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.361291</v>
+        <v>0.369562</v>
       </c>
       <c r="C138" t="n">
-        <v>1.51933</v>
+        <v>0.876258</v>
       </c>
       <c r="D138" t="n">
-        <v>0.329458</v>
+        <v>1.52081</v>
       </c>
       <c r="E138" t="n">
-        <v>0.84023</v>
+        <v>0.327289</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.845018</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.355628</v>
+        <v>0.360547</v>
       </c>
       <c r="C139" t="n">
-        <v>1.50376</v>
+        <v>0.866931</v>
       </c>
       <c r="D139" t="n">
-        <v>0.324432</v>
+        <v>1.50381</v>
       </c>
       <c r="E139" t="n">
-        <v>0.839593</v>
+        <v>0.322215</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.843253</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.350924</v>
+        <v>0.355884</v>
       </c>
       <c r="C140" t="n">
-        <v>1.49081</v>
+        <v>0.874781</v>
       </c>
       <c r="D140" t="n">
-        <v>0.319716</v>
+        <v>1.48922</v>
       </c>
       <c r="E140" t="n">
-        <v>0.838433</v>
+        <v>0.317731</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.84311</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.345791</v>
+        <v>0.352816</v>
       </c>
       <c r="C141" t="n">
-        <v>1.47783</v>
+        <v>0.874434</v>
       </c>
       <c r="D141" t="n">
-        <v>0.315081</v>
+        <v>1.47882</v>
       </c>
       <c r="E141" t="n">
-        <v>0.838641</v>
+        <v>0.313643</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.842824</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.34111</v>
+        <v>0.346455</v>
       </c>
       <c r="C142" t="n">
-        <v>1.46613</v>
+        <v>0.87453</v>
       </c>
       <c r="D142" t="n">
-        <v>0.311312</v>
+        <v>1.46512</v>
       </c>
       <c r="E142" t="n">
-        <v>0.840046</v>
+        <v>0.309114</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.843188</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.33646</v>
+        <v>0.341422</v>
       </c>
       <c r="C143" t="n">
-        <v>1.45855</v>
+        <v>0.874256</v>
       </c>
       <c r="D143" t="n">
-        <v>0.307224</v>
+        <v>1.45783</v>
       </c>
       <c r="E143" t="n">
-        <v>0.838865</v>
+        <v>0.305505</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.842601</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.15337</v>
+                  <v>0.146039</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.155158</v>
+                  <v>0.148013</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.159661</v>
+                  <v>0.138681</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.151036</v>
+                  <v>0.14359</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.145481</v>
+                  <v>0.135845</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.143135</v>
+                  <v>0.135477</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.148369</v>
+                  <v>0.138485</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.150446</v>
+                  <v>0.146058</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207322</v>
+                  <v>0.200991</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209592</v>
+                  <v>0.199168</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.195598</v>
+                  <v>0.189428</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.190781</v>
+                  <v>0.187799</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.190823</v>
+                  <v>0.184312</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.175134</v>
+                  <v>0.170536</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.168551</v>
+                  <v>0.165581</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.159679</v>
+                  <v>0.161496</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.164206</v>
+                  <v>0.158637</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.167199</v>
+                  <v>0.157383</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.154037</v>
+                  <v>0.155905</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.157372</v>
+                  <v>0.152507</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.151621</v>
+                  <v>0.153328</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.157259</v>
+                  <v>0.155101</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.238303</v>
+                  <v>0.237836</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.224434</v>
+                  <v>0.232792</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.224004</v>
+                  <v>0.220818</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.215688</v>
+                  <v>0.214188</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.20293</v>
+                  <v>0.206863</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.198964</v>
+                  <v>0.198074</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.187941</v>
+                  <v>0.190476</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.185272</v>
+                  <v>0.189206</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.178074</v>
+                  <v>0.179889</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.173278</v>
+                  <v>0.176719</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.170074</v>
+                  <v>0.171518</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.168305</v>
+                  <v>0.170802</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.170652</v>
+                  <v>0.171714</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.167843</v>
+                  <v>0.170411</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243961</v>
+                  <v>0.242776</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.235067</v>
+                  <v>0.234175</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.22627</v>
+                  <v>0.22518</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218024</v>
+                  <v>0.217734</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210212</v>
+                  <v>0.209982</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.202858</v>
+                  <v>0.202762</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196171</v>
+                  <v>0.196177</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.190461</v>
+                  <v>0.190435</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.185034</v>
+                  <v>0.185025</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.180206</v>
+                  <v>0.179638</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.176532</v>
+                  <v>0.176655</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.173492</v>
+                  <v>0.173549</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.171855</v>
+                  <v>0.171866</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.172451</v>
+                  <v>0.172691</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.174531</v>
+                  <v>0.175807</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.241212</v>
+                  <v>0.240716</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.231315</v>
+                  <v>0.232852</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.222959</v>
+                  <v>0.224402</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.216001</v>
+                  <v>0.217265</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.208546</v>
+                  <v>0.208892</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.20144</v>
+                  <v>0.202409</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.195596</v>
+                  <v>0.195381</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.189667</v>
+                  <v>0.190447</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.184353</v>
+                  <v>0.185342</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.180335</v>
+                  <v>0.181484</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178093</v>
+                  <v>0.177209</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.176032</v>
+                  <v>0.176375</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176322</v>
+                  <v>0.17631</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178398</v>
+                  <v>0.179257</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246205</v>
+                  <v>0.244087</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235745</v>
+                  <v>0.23551</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.22844</v>
+                  <v>0.228011</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.219722</v>
+                  <v>0.219299</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.211882</v>
+                  <v>0.212195</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205851</v>
+                  <v>0.204906</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.199915</v>
+                  <v>0.198988</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.19416</v>
+                  <v>0.193473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.188783</v>
+                  <v>0.188598</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183925</v>
+                  <v>0.183295</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.182219</v>
+                  <v>0.180748</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178711</v>
+                  <v>0.178691</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.17904</v>
+                  <v>0.178316</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.180346</v>
+                  <v>0.180884</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257797</v>
+                  <v>0.256673</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.248989</v>
+                  <v>0.248828</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.242374</v>
+                  <v>0.241687</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.233789</v>
+                  <v>0.233823</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.22662</v>
+                  <v>0.226435</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219911</v>
+                  <v>0.219403</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.21385</v>
+                  <v>0.212981</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.20712</v>
+                  <v>0.206654</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.2016</v>
+                  <v>0.201478</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.196505</v>
+                  <v>0.195737</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.193329</v>
+                  <v>0.192256</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.190124</v>
+                  <v>0.189382</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188597</v>
+                  <v>0.188583</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.189371</v>
+                  <v>0.18968</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.270674</v>
+                  <v>0.271413</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265072</v>
+                  <v>0.265435</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258834</v>
+                  <v>0.258773</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251641</v>
+                  <v>0.252024</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.245263</v>
+                  <v>0.245278</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238488</v>
+                  <v>0.239437</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.233411</v>
+                  <v>0.233272</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227946</v>
+                  <v>0.227822</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.222458</v>
+                  <v>0.222804</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.218327</v>
+                  <v>0.218299</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.214176</v>
+                  <v>0.214387</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.211275</v>
+                  <v>0.211097</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208723</v>
+                  <v>0.209085</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208655</v>
+                  <v>0.209158</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210629</v>
+                  <v>0.211426</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.285509</v>
+                  <v>0.29328</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.278433</v>
+                  <v>0.28665</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271806</v>
+                  <v>0.279989</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266427</v>
+                  <v>0.273564</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260565</v>
+                  <v>0.26764</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255512</v>
+                  <v>0.262322</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250615</v>
+                  <v>0.257025</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245594</v>
+                  <v>0.25203</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.244716</v>
+                  <v>0.247571</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.237814</v>
+                  <v>0.243348</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234924</v>
+                  <v>0.239959</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.232693</v>
+                  <v>0.237783</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231404</v>
+                  <v>0.236599</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232607</v>
+                  <v>0.237197</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.316721</v>
+                  <v>0.328962</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.311521</v>
+                  <v>0.323242</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.304916</v>
+                  <v>0.317089</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299863</v>
+                  <v>0.310426</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.294634</v>
+                  <v>0.306459</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.290007</v>
+                  <v>0.301111</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.285681</v>
+                  <v>0.295255</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.281672</v>
+                  <v>0.290688</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.278486</v>
+                  <v>0.28664</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.275255</v>
+                  <v>0.282957</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.272149</v>
+                  <v>0.280443</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.270314</v>
+                  <v>0.277925</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.269997</v>
+                  <v>0.277999</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.270583</v>
+                  <v>0.278357</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.369063</v>
+                  <v>0.369562</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.363506</v>
+                  <v>0.360547</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.358269</v>
+                  <v>0.355884</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.352863</v>
+                  <v>0.352816</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.34801</v>
+                  <v>0.346455</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.34351</v>
+                  <v>0.341422</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.312145</v>
+                  <v>0.28211</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.311864</v>
+                  <v>0.278115</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.311341</v>
+                  <v>0.271292</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.306772</v>
+                  <v>0.274151</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.308161</v>
+                  <v>0.266767</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.408994</v>
+                  <v>0.266578</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.405189</v>
+                  <v>0.266281</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.401577</v>
+                  <v>0.272086</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.391147</v>
+                  <v>0.331698</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.391102</v>
+                  <v>0.319212</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.38111</v>
+                  <v>0.308191</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.379912</v>
+                  <v>0.307945</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.376405</v>
+                  <v>0.295667</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.370044</v>
+                  <v>0.292683</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.366509</v>
+                  <v>0.283847</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.362169</v>
+                  <v>0.280388</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.364199</v>
+                  <v>0.277733</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.36117</v>
+                  <v>0.273149</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.357351</v>
+                  <v>0.268271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.478261</v>
+                  <v>0.265444</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.464696</v>
+                  <v>0.270153</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.456439</v>
+                  <v>0.273148</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.448159</v>
+                  <v>0.340388</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.440673</v>
+                  <v>0.331711</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.431649</v>
+                  <v>0.323314</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.425692</v>
+                  <v>0.316365</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.418998</v>
+                  <v>0.310543</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.412593</v>
+                  <v>0.301656</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.408417</v>
+                  <v>0.296089</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.40367</v>
+                  <v>0.291172</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.399719</v>
+                  <v>0.285343</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.393748</v>
+                  <v>0.283907</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.390428</v>
+                  <v>0.278823</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.499331</v>
+                  <v>0.280175</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.48684</v>
+                  <v>0.276888</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.478061</v>
+                  <v>0.279208</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.46875</v>
+                  <v>0.350466</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.458947</v>
+                  <v>0.343127</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.450864</v>
+                  <v>0.334872</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.443182</v>
+                  <v>0.327488</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.437353</v>
+                  <v>0.320628</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.430382</v>
+                  <v>0.31489</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.424477</v>
+                  <v>0.309181</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.419409</v>
+                  <v>0.303399</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.414636</v>
+                  <v>0.299576</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.40978</v>
+                  <v>0.295042</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.406225</v>
+                  <v>0.293079</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.403185</v>
+                  <v>0.290591</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.506923</v>
+                  <v>0.290977</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.49607</v>
+                  <v>0.292093</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.485393</v>
+                  <v>0.297895</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.47704</v>
+                  <v>0.354931</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.467187</v>
+                  <v>0.347367</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.459395</v>
+                  <v>0.342722</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.452921</v>
+                  <v>0.334916</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.445497</v>
+                  <v>0.328959</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.440853</v>
+                  <v>0.3234</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.434352</v>
+                  <v>0.317305</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.430313</v>
+                  <v>0.312179</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.426534</v>
+                  <v>0.308366</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.422625</v>
+                  <v>0.305196</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.419713</v>
+                  <v>0.30302</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.544347</v>
+                  <v>0.302263</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.53371</v>
+                  <v>0.303818</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.523499</v>
+                  <v>0.306058</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.516787</v>
+                  <v>0.374633</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.508951</v>
+                  <v>0.365677</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.500625</v>
+                  <v>0.360799</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.494779</v>
+                  <v>0.353591</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.489162</v>
+                  <v>0.34577</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.483936</v>
+                  <v>0.339963</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.481121</v>
+                  <v>0.333846</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.496074</v>
+                  <v>0.329286</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.488899</v>
+                  <v>0.325082</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.486092</v>
+                  <v>0.320758</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.483301</v>
+                  <v>0.319095</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.6619080000000001</v>
+                  <v>0.319423</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.651641</v>
+                  <v>0.319311</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.6414840000000001</v>
+                  <v>0.322843</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.634898</v>
+                  <v>0.393431</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.626458</v>
+                  <v>0.389378</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.619111</v>
+                  <v>0.384671</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.618937</v>
+                  <v>0.382238</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.616578</v>
+                  <v>0.3759</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.616543</v>
+                  <v>0.371191</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.618468</v>
+                  <v>0.36512</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.618605</v>
+                  <v>0.361874</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.631288</v>
+                  <v>0.356697</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.634706</v>
+                  <v>0.352438</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.640709</v>
+                  <v>0.349891</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.853437</v>
+                  <v>0.35005</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.851041</v>
+                  <v>0.349669</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.846677</v>
+                  <v>0.352299</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.839566</v>
+                  <v>0.466457</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.837027</v>
+                  <v>0.465911</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.84036</v>
+                  <v>0.461742</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.840439</v>
+                  <v>0.458425</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.841024</v>
+                  <v>0.454048</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.84118</v>
+                  <v>0.450047</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.845235</v>
+                  <v>0.445345</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.849178</v>
+                  <v>0.441259</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.859448</v>
+                  <v>0.438357</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.866117</v>
+                  <v>0.435239</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.873801</v>
+                  <v>0.434282</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.882031</v>
+                  <v>0.433819</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.12628</v>
+                  <v>0.433981</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.11366</v>
+                  <v>0.436931</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.10831</v>
+                  <v>0.442964</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.09924</v>
+                  <v>0.580354</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.10141</v>
+                  <v>0.574171</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.09589</v>
+                  <v>0.569311</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.09404</v>
+                  <v>0.563511</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.09267</v>
+                  <v>0.558854</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.09583</v>
+                  <v>0.555304</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.09592</v>
+                  <v>0.551573</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.09785</v>
+                  <v>0.5418269999999999</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.10406</v>
+                  <v>0.546025</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.1105</v>
+                  <v>0.544721</v>
                 </pt>
                 <pt idx="118">
-                  <v>1.1192</v>
+                  <v>0.544034</v>
                 </pt>
                 <pt idx="119">
-                  <v>1.38021</v>
+                  <v>0.544782</v>
                 </pt>
                 <pt idx="120">
-                  <v>1.36711</v>
+                  <v>0.547028</v>
                 </pt>
                 <pt idx="121">
-                  <v>1.35208</v>
+                  <v>0.550917</v>
                 </pt>
                 <pt idx="122">
-                  <v>1.33879</v>
+                  <v>0.714383</v>
                 </pt>
                 <pt idx="123">
-                  <v>1.33025</v>
+                  <v>0.709817</v>
                 </pt>
                 <pt idx="124">
-                  <v>1.32117</v>
+                  <v>0.703954</v>
                 </pt>
                 <pt idx="125">
-                  <v>1.31379</v>
+                  <v>0.700326</v>
                 </pt>
                 <pt idx="126">
-                  <v>1.30768</v>
+                  <v>0.698059</v>
                 </pt>
                 <pt idx="127">
-                  <v>1.30326</v>
+                  <v>0.6951850000000001</v>
                 </pt>
                 <pt idx="128">
-                  <v>1.30056</v>
+                  <v>0.6917450000000001</v>
                 </pt>
                 <pt idx="129">
-                  <v>1.30008</v>
+                  <v>0.689099</v>
                 </pt>
                 <pt idx="130">
-                  <v>1.30108</v>
+                  <v>0.6884</v>
                 </pt>
                 <pt idx="131">
-                  <v>1.30141</v>
+                  <v>0.687611</v>
                 </pt>
                 <pt idx="132">
-                  <v>1.30559</v>
+                  <v>0.688626</v>
                 </pt>
                 <pt idx="133">
-                  <v>1.58034</v>
+                  <v>0.689466</v>
                 </pt>
                 <pt idx="134">
-                  <v>1.55781</v>
+                  <v>0.6928609999999999</v>
                 </pt>
                 <pt idx="135">
-                  <v>1.53836</v>
+                  <v>0.696013</v>
                 </pt>
                 <pt idx="136">
-                  <v>1.5207</v>
+                  <v>0.876258</v>
                 </pt>
                 <pt idx="137">
-                  <v>1.50344</v>
+                  <v>0.866931</v>
                 </pt>
                 <pt idx="138">
-                  <v>1.49007</v>
+                  <v>0.874781</v>
                 </pt>
                 <pt idx="139">
-                  <v>1.47742</v>
+                  <v>0.874434</v>
                 </pt>
                 <pt idx="140">
-                  <v>1.46587</v>
+                  <v>0.87453</v>
                 </pt>
                 <pt idx="141">
-                  <v>1.45791</v>
+                  <v>0.874256</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.142888</v>
+                  <v>0.345535</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.144159</v>
+                  <v>0.342328</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.139729</v>
+                  <v>0.339524</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.130455</v>
+                  <v>0.338964</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.130001</v>
+                  <v>0.337026</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.114646</v>
+                  <v>0.441059</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.121203</v>
+                  <v>0.432636</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.177485</v>
+                  <v>0.422785</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.178184</v>
+                  <v>0.425798</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167977</v>
+                  <v>0.41258</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.158496</v>
+                  <v>0.406096</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.152255</v>
+                  <v>0.399408</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.15716</v>
+                  <v>0.393713</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.142005</v>
+                  <v>0.390631</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.136816</v>
+                  <v>0.384493</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.139587</v>
+                  <v>0.382714</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.131545</v>
+                  <v>0.376462</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.129135</v>
+                  <v>0.372734</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.123154</v>
+                  <v>0.371468</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1263</v>
+                  <v>0.471596</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.129065</v>
+                  <v>0.461926</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.214336</v>
+                  <v>0.453195</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.21995</v>
+                  <v>0.442569</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.204141</v>
+                  <v>0.439045</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.187606</v>
+                  <v>0.428046</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.185954</v>
+                  <v>0.422639</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.178845</v>
+                  <v>0.415176</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.168237</v>
+                  <v>0.409081</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.165532</v>
+                  <v>0.404025</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.164239</v>
+                  <v>0.401541</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.154562</v>
+                  <v>0.396396</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.153521</v>
+                  <v>0.392233</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.14963</v>
+                  <v>0.387418</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150836</v>
+                  <v>0.492552</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.14771</v>
+                  <v>0.481008</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230768</v>
+                  <v>0.472016</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.222972</v>
+                  <v>0.462267</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.213998</v>
+                  <v>0.453779</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.205509</v>
+                  <v>0.445558</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.19903</v>
+                  <v>0.438178</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191431</v>
+                  <v>0.431525</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.185004</v>
+                  <v>0.424981</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.178242</v>
+                  <v>0.417433</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.171721</v>
+                  <v>0.412907</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.166785</v>
+                  <v>0.40713</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.163076</v>
+                  <v>0.404255</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159074</v>
+                  <v>0.399219</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.157048</v>
+                  <v>0.398134</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.155008</v>
+                  <v>0.5057199999999999</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.241177</v>
+                  <v>0.493968</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.232474</v>
+                  <v>0.482606</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.222617</v>
+                  <v>0.473133</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.214052</v>
+                  <v>0.46451</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.206278</v>
+                  <v>0.458181</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.198674</v>
+                  <v>0.449409</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.191601</v>
+                  <v>0.444813</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.184668</v>
+                  <v>0.437137</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.179357</v>
+                  <v>0.433472</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.1736</v>
+                  <v>0.427729</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.168138</v>
+                  <v>0.423128</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.164634</v>
+                  <v>0.420407</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.161852</v>
+                  <v>0.418269</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.159915</v>
+                  <v>0.542173</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.160633</v>
+                  <v>0.531938</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.241778</v>
+                  <v>0.521979</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.234316</v>
+                  <v>0.513247</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.223856</v>
+                  <v>0.507066</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.214878</v>
+                  <v>0.501045</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.206553</v>
+                  <v>0.491954</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.200975</v>
+                  <v>0.487567</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.194188</v>
+                  <v>0.484235</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.188362</v>
+                  <v>0.479325</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.182427</v>
+                  <v>0.49454</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.17682</v>
+                  <v>0.492253</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.171969</v>
+                  <v>0.485952</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.167466</v>
+                  <v>0.483849</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.166872</v>
+                  <v>0.660579</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.166623</v>
+                  <v>0.651858</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.2389</v>
+                  <v>0.641418</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.231233</v>
+                  <v>0.633701</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.222629</v>
+                  <v>0.628771</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.215057</v>
+                  <v>0.622203</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.207065</v>
+                  <v>0.619414</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.200438</v>
+                  <v>0.619362</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.193262</v>
+                  <v>0.616466</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.187335</v>
+                  <v>0.617853</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.182132</v>
+                  <v>0.617096</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.176589</v>
+                  <v>0.63459</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.173081</v>
+                  <v>0.636581</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.169023</v>
+                  <v>0.641432</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.166908</v>
+                  <v>0.856594</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.166814</v>
+                  <v>0.849894</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.252534</v>
+                  <v>0.845252</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.244438</v>
+                  <v>0.841065</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.236967</v>
+                  <v>0.836136</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229011</v>
+                  <v>0.842166</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.220682</v>
+                  <v>0.844179</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.213943</v>
+                  <v>0.841984</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.20784</v>
+                  <v>0.8411689999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.20147</v>
+                  <v>0.8479989999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.195865</v>
+                  <v>0.85105</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.190898</v>
+                  <v>0.858108</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.186294</v>
+                  <v>0.865494</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.182449</v>
+                  <v>0.873856</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.180164</v>
+                  <v>0.882892</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.179211</v>
+                  <v>1.12623</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.268571</v>
+                  <v>1.11708</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.263123</v>
+                  <v>1.10725</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.255147</v>
+                  <v>1.10358</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.248045</v>
+                  <v>1.09922</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.24044</v>
+                  <v>1.09309</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.234071</v>
+                  <v>1.09198</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.227632</v>
+                  <v>1.09188</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22211</v>
+                  <v>1.09281</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.216672</v>
+                  <v>1.09812</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.211883</v>
+                  <v>1.10047</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.2085</v>
+                  <v>1.10279</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.204125</v>
+                  <v>1.10901</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.201067</v>
+                  <v>1.11641</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199423</v>
+                  <v>1.37934</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.200191</v>
+                  <v>1.36609</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.285389</v>
+                  <v>1.34952</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.279535</v>
+                  <v>1.33903</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.273237</v>
+                  <v>1.33181</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.267652</v>
+                  <v>1.3199</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.26304</v>
+                  <v>1.31294</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.258886</v>
+                  <v>1.31028</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.254448</v>
+                  <v>1.30308</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.250205</v>
+                  <v>1.30133</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.24612</v>
+                  <v>1.30114</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.243283</v>
+                  <v>1.30065</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.240187</v>
+                  <v>1.30238</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.238426</v>
+                  <v>1.30428</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.236633</v>
+                  <v>1.57893</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.23708</v>
+                  <v>1.55759</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.334836</v>
+                  <v>1.53738</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.329067</v>
+                  <v>1.52081</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.323726</v>
+                  <v>1.50381</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.319833</v>
+                  <v>1.48922</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.314732</v>
+                  <v>1.47882</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.310756</v>
+                  <v>1.46512</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.307162</v>
+                  <v>1.45783</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.271192</v>
+                  <v>0.137761</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.269766</v>
+                  <v>0.136591</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.261942</v>
+                  <v>0.130647</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.266898</v>
+                  <v>0.124825</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.264205</v>
+                  <v>0.121236</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.261823</v>
+                  <v>0.120823</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.260876</v>
+                  <v>0.115242</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.337755</v>
+                  <v>0.18197</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.32141</v>
+                  <v>0.191717</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.306307</v>
+                  <v>0.171582</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.303579</v>
+                  <v>0.163208</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.295531</v>
+                  <v>0.159341</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.290788</v>
+                  <v>0.15144</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.286236</v>
+                  <v>0.148414</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.27627</v>
+                  <v>0.141748</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.269827</v>
+                  <v>0.138354</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.269586</v>
+                  <v>0.135532</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.261332</v>
+                  <v>0.137513</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.262818</v>
+                  <v>0.131088</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.25938</v>
+                  <v>0.129522</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.25735</v>
+                  <v>0.139204</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.333717</v>
+                  <v>0.22233</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.338816</v>
+                  <v>0.213797</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.31587</v>
+                  <v>0.207877</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.308427</v>
+                  <v>0.199287</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.298987</v>
+                  <v>0.19247</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.294611</v>
+                  <v>0.183147</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.288183</v>
+                  <v>0.175943</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.281609</v>
+                  <v>0.173927</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.27668</v>
+                  <v>0.165062</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.272235</v>
+                  <v>0.163239</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.267661</v>
+                  <v>0.159688</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.264742</v>
+                  <v>0.153782</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.262336</v>
+                  <v>0.150904</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.263208</v>
+                  <v>0.150984</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.347369</v>
+                  <v>0.230682</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.339619</v>
+                  <v>0.221791</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.332237</v>
+                  <v>0.212191</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.323095</v>
+                  <v>0.205325</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.315365</v>
+                  <v>0.196669</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.308467</v>
+                  <v>0.189453</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.302061</v>
+                  <v>0.182552</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.296349</v>
+                  <v>0.177439</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.290374</v>
+                  <v>0.171551</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.285623</v>
+                  <v>0.164983</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.281956</v>
+                  <v>0.161123</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.278551</v>
+                  <v>0.157815</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.276744</v>
+                  <v>0.155224</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.275847</v>
+                  <v>0.154986</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.35945</v>
+                  <v>0.239</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.352226</v>
+                  <v>0.230927</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.342043</v>
+                  <v>0.221685</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.334021</v>
+                  <v>0.212571</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.329362</v>
+                  <v>0.204879</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.3219</v>
+                  <v>0.196931</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.31556</v>
+                  <v>0.190889</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.309051</v>
+                  <v>0.184201</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.303773</v>
+                  <v>0.177873</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.298791</v>
+                  <v>0.172243</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.29423</v>
+                  <v>0.167354</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.29061</v>
+                  <v>0.163961</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.28855</v>
+                  <v>0.160669</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.286849</v>
+                  <v>0.159794</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.288573</v>
+                  <v>0.159922</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.368444</v>
+                  <v>0.24182</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.360264</v>
+                  <v>0.231229</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.351966</v>
+                  <v>0.22419</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.346137</v>
+                  <v>0.215874</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.338777</v>
+                  <v>0.206048</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.33184</v>
+                  <v>0.198942</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.324914</v>
+                  <v>0.191778</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.319398</v>
+                  <v>0.185223</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.313882</v>
+                  <v>0.179302</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.308808</v>
+                  <v>0.174516</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.305441</v>
+                  <v>0.170705</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.301947</v>
+                  <v>0.167401</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.303099</v>
+                  <v>0.165988</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.303311</v>
+                  <v>0.165089</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.384061</v>
+                  <v>0.238743</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.377682</v>
+                  <v>0.229209</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.372194</v>
+                  <v>0.221431</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.364102</v>
+                  <v>0.213546</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.360852</v>
+                  <v>0.206373</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.355225</v>
+                  <v>0.199238</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.34856</v>
+                  <v>0.192686</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.34299</v>
+                  <v>0.185131</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.338553</v>
+                  <v>0.180498</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.332812</v>
+                  <v>0.175816</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.329783</v>
+                  <v>0.170999</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.326459</v>
+                  <v>0.167733</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.325092</v>
+                  <v>0.164963</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.32522</v>
+                  <v>0.165351</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.452238</v>
+                  <v>0.250369</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.451668</v>
+                  <v>0.242842</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.447145</v>
+                  <v>0.235119</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.442183</v>
+                  <v>0.227356</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.437287</v>
+                  <v>0.220251</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.432007</v>
+                  <v>0.212871</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.428233</v>
+                  <v>0.206496</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.423292</v>
+                  <v>0.200455</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.418646</v>
+                  <v>0.194783</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.41523</v>
+                  <v>0.189878</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.411758</v>
+                  <v>0.184885</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.409843</v>
+                  <v>0.181716</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.408188</v>
+                  <v>0.179034</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.407718</v>
+                  <v>0.177966</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.566439</v>
+                  <v>0.267166</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.564304</v>
+                  <v>0.261253</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.557965</v>
+                  <v>0.25341</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.551828</v>
+                  <v>0.24629</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.544925</v>
+                  <v>0.239018</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.5423289999999999</v>
+                  <v>0.232958</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.536821</v>
+                  <v>0.226405</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.533166</v>
+                  <v>0.22103</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.529174</v>
+                  <v>0.215579</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.526789</v>
+                  <v>0.211122</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.52432</v>
+                  <v>0.206632</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.523133</v>
+                  <v>0.202954</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.520985</v>
+                  <v>0.200086</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.520991</v>
+                  <v>0.198735</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.522709</v>
+                  <v>0.199173</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.694646</v>
+                  <v>0.283443</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.688746</v>
+                  <v>0.277303</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.685202</v>
+                  <v>0.271758</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.680929</v>
+                  <v>0.266349</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.678063</v>
+                  <v>0.261528</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.660381</v>
+                  <v>0.256727</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.669822</v>
+                  <v>0.252371</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.66858</v>
+                  <v>0.248279</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.666127</v>
+                  <v>0.244665</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.664091</v>
+                  <v>0.241331</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.662888</v>
+                  <v>0.238531</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.662808</v>
+                  <v>0.236023</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.663058</v>
+                  <v>0.234907</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.664988</v>
+                  <v>0.234963</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.847299</v>
+                  <v>0.33469</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.846291</v>
+                  <v>0.327289</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.845287</v>
+                  <v>0.322215</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.8449950000000001</v>
+                  <v>0.317731</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.844019</v>
+                  <v>0.313643</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.844831</v>
+                  <v>0.309114</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.844638</v>
+                  <v>0.305505</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.270475</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.272824</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.263759</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.259957</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.256232</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.258115</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.255855</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.325155</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.320399</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.30968</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.300998</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.293913</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.286153</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.281139</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.275524</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.274898</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.2676</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.265662</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.26002</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.260183</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.262609</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.330212</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.325548</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.315918</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.310409</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.301635</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.295574</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.290029</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.282872</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.278507</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.272359</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.269059</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.266677</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.264372</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.263709</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.347984</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.340065</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.330786</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.323484</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.315716</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.309133</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.301912</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.296867</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.291421</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.286315</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.282309</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.279336</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.27722</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.277116</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.358783</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.350324</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.342116</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.334006</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.328195</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.320973</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.314597</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.307473</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.302578</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.298176</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.292764</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.289646</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.287274</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.286847</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.288163</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.366526</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.358653</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.349644</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.344332</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.337322</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.329298</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.323319</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.317402</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.312372</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.306709</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.302411</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.301187</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.302301</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.301667</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.38254</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.376441</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.370388</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.363729</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.360141</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.354189</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.348061</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.341194</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.338365</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.332626</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.329316</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.325646</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.324753</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.325698</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.450633</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.449133</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.444822</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.440212</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.434334</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.429843</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.424907</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.4203</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.415853</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.412994</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.409492</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.407402</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.406375</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.406548</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.560538</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.560684</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.553851</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.548923</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.543926</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.538116</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.533978</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.529934</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.5271940000000001</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.524362</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.522272</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.519097</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.518203</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.517801</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.519348</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.690275</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.685513</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.681941</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.677575</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.67488</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.673596</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.668506</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.665758</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.663705</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.661956</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.661919</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.661756</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.662496</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.66482</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.845621</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.845018</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.843253</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.84311</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.842824</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.843188</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.842601</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.146039</v>
+        <v>0.160869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.28211</v>
+        <v>0.290802</v>
       </c>
       <c r="D2" t="n">
-        <v>0.345535</v>
+        <v>0.347537</v>
       </c>
       <c r="E2" t="n">
-        <v>0.137761</v>
+        <v>0.139976</v>
       </c>
       <c r="F2" t="n">
-        <v>0.270475</v>
+        <v>0.276912</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.148013</v>
+        <v>0.159574</v>
       </c>
       <c r="C3" t="n">
-        <v>0.278115</v>
+        <v>0.285191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.342328</v>
+        <v>0.345501</v>
       </c>
       <c r="E3" t="n">
-        <v>0.136591</v>
+        <v>0.134776</v>
       </c>
       <c r="F3" t="n">
-        <v>0.272824</v>
+        <v>0.276039</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.138681</v>
+        <v>0.148838</v>
       </c>
       <c r="C4" t="n">
-        <v>0.271292</v>
+        <v>0.276695</v>
       </c>
       <c r="D4" t="n">
-        <v>0.339524</v>
+        <v>0.341218</v>
       </c>
       <c r="E4" t="n">
-        <v>0.130647</v>
+        <v>0.12929</v>
       </c>
       <c r="F4" t="n">
-        <v>0.263759</v>
+        <v>0.27206</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.14359</v>
+        <v>0.146797</v>
       </c>
       <c r="C5" t="n">
-        <v>0.274151</v>
+        <v>0.270141</v>
       </c>
       <c r="D5" t="n">
-        <v>0.338964</v>
+        <v>0.339879</v>
       </c>
       <c r="E5" t="n">
-        <v>0.124825</v>
+        <v>0.129873</v>
       </c>
       <c r="F5" t="n">
-        <v>0.259957</v>
+        <v>0.259022</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.135845</v>
+        <v>0.149699</v>
       </c>
       <c r="C6" t="n">
-        <v>0.266767</v>
+        <v>0.270286</v>
       </c>
       <c r="D6" t="n">
-        <v>0.337026</v>
+        <v>0.336561</v>
       </c>
       <c r="E6" t="n">
-        <v>0.121236</v>
+        <v>0.124052</v>
       </c>
       <c r="F6" t="n">
-        <v>0.256232</v>
+        <v>0.265768</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.135477</v>
+        <v>0.136147</v>
       </c>
       <c r="C7" t="n">
-        <v>0.266578</v>
+        <v>0.27066</v>
       </c>
       <c r="D7" t="n">
-        <v>0.441059</v>
+        <v>0.438459</v>
       </c>
       <c r="E7" t="n">
-        <v>0.120823</v>
+        <v>0.121844</v>
       </c>
       <c r="F7" t="n">
-        <v>0.258115</v>
+        <v>0.259749</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.138485</v>
+        <v>0.150852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.266281</v>
+        <v>0.277391</v>
       </c>
       <c r="D8" t="n">
-        <v>0.432636</v>
+        <v>0.44111</v>
       </c>
       <c r="E8" t="n">
-        <v>0.115242</v>
+        <v>0.118563</v>
       </c>
       <c r="F8" t="n">
-        <v>0.255855</v>
+        <v>0.261949</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146058</v>
+        <v>0.148176</v>
       </c>
       <c r="C9" t="n">
-        <v>0.272086</v>
+        <v>0.268243</v>
       </c>
       <c r="D9" t="n">
-        <v>0.422785</v>
+        <v>0.433257</v>
       </c>
       <c r="E9" t="n">
-        <v>0.18197</v>
+        <v>0.191322</v>
       </c>
       <c r="F9" t="n">
-        <v>0.325155</v>
+        <v>0.330563</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.200991</v>
+        <v>0.211979</v>
       </c>
       <c r="C10" t="n">
-        <v>0.331698</v>
+        <v>0.334566</v>
       </c>
       <c r="D10" t="n">
-        <v>0.425798</v>
+        <v>0.423484</v>
       </c>
       <c r="E10" t="n">
-        <v>0.191717</v>
+        <v>0.184717</v>
       </c>
       <c r="F10" t="n">
-        <v>0.320399</v>
+        <v>0.3166</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.199168</v>
+        <v>0.200487</v>
       </c>
       <c r="C11" t="n">
-        <v>0.319212</v>
+        <v>0.323249</v>
       </c>
       <c r="D11" t="n">
-        <v>0.41258</v>
+        <v>0.410614</v>
       </c>
       <c r="E11" t="n">
-        <v>0.171582</v>
+        <v>0.16854</v>
       </c>
       <c r="F11" t="n">
-        <v>0.30968</v>
+        <v>0.306468</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.189428</v>
+        <v>0.199951</v>
       </c>
       <c r="C12" t="n">
-        <v>0.308191</v>
+        <v>0.310957</v>
       </c>
       <c r="D12" t="n">
-        <v>0.406096</v>
+        <v>0.406035</v>
       </c>
       <c r="E12" t="n">
-        <v>0.163208</v>
+        <v>0.171339</v>
       </c>
       <c r="F12" t="n">
-        <v>0.300998</v>
+        <v>0.304106</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.187799</v>
+        <v>0.189297</v>
       </c>
       <c r="C13" t="n">
-        <v>0.307945</v>
+        <v>0.305998</v>
       </c>
       <c r="D13" t="n">
-        <v>0.399408</v>
+        <v>0.396063</v>
       </c>
       <c r="E13" t="n">
-        <v>0.159341</v>
+        <v>0.167906</v>
       </c>
       <c r="F13" t="n">
-        <v>0.293913</v>
+        <v>0.293645</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.184312</v>
+        <v>0.184956</v>
       </c>
       <c r="C14" t="n">
-        <v>0.295667</v>
+        <v>0.298148</v>
       </c>
       <c r="D14" t="n">
-        <v>0.393713</v>
+        <v>0.392842</v>
       </c>
       <c r="E14" t="n">
-        <v>0.15144</v>
+        <v>0.159784</v>
       </c>
       <c r="F14" t="n">
-        <v>0.286153</v>
+        <v>0.287954</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.170536</v>
+        <v>0.173124</v>
       </c>
       <c r="C15" t="n">
-        <v>0.292683</v>
+        <v>0.289035</v>
       </c>
       <c r="D15" t="n">
-        <v>0.390631</v>
+        <v>0.39327</v>
       </c>
       <c r="E15" t="n">
-        <v>0.148414</v>
+        <v>0.154922</v>
       </c>
       <c r="F15" t="n">
-        <v>0.281139</v>
+        <v>0.28754</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.165581</v>
+        <v>0.171807</v>
       </c>
       <c r="C16" t="n">
-        <v>0.283847</v>
+        <v>0.284978</v>
       </c>
       <c r="D16" t="n">
-        <v>0.384493</v>
+        <v>0.384262</v>
       </c>
       <c r="E16" t="n">
-        <v>0.141748</v>
+        <v>0.145446</v>
       </c>
       <c r="F16" t="n">
-        <v>0.275524</v>
+        <v>0.282593</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.161496</v>
+        <v>0.169599</v>
       </c>
       <c r="C17" t="n">
-        <v>0.280388</v>
+        <v>0.282131</v>
       </c>
       <c r="D17" t="n">
-        <v>0.382714</v>
+        <v>0.378872</v>
       </c>
       <c r="E17" t="n">
-        <v>0.138354</v>
+        <v>0.149621</v>
       </c>
       <c r="F17" t="n">
-        <v>0.274898</v>
+        <v>0.271364</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.158637</v>
+        <v>0.157301</v>
       </c>
       <c r="C18" t="n">
-        <v>0.277733</v>
+        <v>0.271837</v>
       </c>
       <c r="D18" t="n">
-        <v>0.376462</v>
+        <v>0.379456</v>
       </c>
       <c r="E18" t="n">
-        <v>0.135532</v>
+        <v>0.148485</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2676</v>
+        <v>0.265596</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.157383</v>
+        <v>0.164063</v>
       </c>
       <c r="C19" t="n">
-        <v>0.273149</v>
+        <v>0.271994</v>
       </c>
       <c r="D19" t="n">
-        <v>0.372734</v>
+        <v>0.374536</v>
       </c>
       <c r="E19" t="n">
-        <v>0.137513</v>
+        <v>0.139191</v>
       </c>
       <c r="F19" t="n">
-        <v>0.265662</v>
+        <v>0.259571</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155905</v>
+        <v>0.159786</v>
       </c>
       <c r="C20" t="n">
-        <v>0.268271</v>
+        <v>0.265975</v>
       </c>
       <c r="D20" t="n">
-        <v>0.371468</v>
+        <v>0.368956</v>
       </c>
       <c r="E20" t="n">
-        <v>0.131088</v>
+        <v>0.133912</v>
       </c>
       <c r="F20" t="n">
-        <v>0.26002</v>
+        <v>0.26065</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.152507</v>
+        <v>0.154918</v>
       </c>
       <c r="C21" t="n">
-        <v>0.265444</v>
+        <v>0.26746</v>
       </c>
       <c r="D21" t="n">
-        <v>0.471596</v>
+        <v>0.469457</v>
       </c>
       <c r="E21" t="n">
-        <v>0.129522</v>
+        <v>0.133723</v>
       </c>
       <c r="F21" t="n">
-        <v>0.260183</v>
+        <v>0.262299</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.153328</v>
+        <v>0.154061</v>
       </c>
       <c r="C22" t="n">
-        <v>0.270153</v>
+        <v>0.271729</v>
       </c>
       <c r="D22" t="n">
-        <v>0.461926</v>
+        <v>0.460499</v>
       </c>
       <c r="E22" t="n">
-        <v>0.139204</v>
+        <v>0.137257</v>
       </c>
       <c r="F22" t="n">
-        <v>0.262609</v>
+        <v>0.254118</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.155101</v>
+        <v>0.152789</v>
       </c>
       <c r="C23" t="n">
-        <v>0.273148</v>
+        <v>0.267423</v>
       </c>
       <c r="D23" t="n">
-        <v>0.453195</v>
+        <v>0.45075</v>
       </c>
       <c r="E23" t="n">
-        <v>0.22233</v>
+        <v>0.211564</v>
       </c>
       <c r="F23" t="n">
-        <v>0.330212</v>
+        <v>0.333841</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.237836</v>
+        <v>0.240574</v>
       </c>
       <c r="C24" t="n">
-        <v>0.340388</v>
+        <v>0.336324</v>
       </c>
       <c r="D24" t="n">
-        <v>0.442569</v>
+        <v>0.444093</v>
       </c>
       <c r="E24" t="n">
-        <v>0.213797</v>
+        <v>0.205305</v>
       </c>
       <c r="F24" t="n">
-        <v>0.325548</v>
+        <v>0.327608</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.232792</v>
+        <v>0.229816</v>
       </c>
       <c r="C25" t="n">
-        <v>0.331711</v>
+        <v>0.327407</v>
       </c>
       <c r="D25" t="n">
-        <v>0.439045</v>
+        <v>0.437452</v>
       </c>
       <c r="E25" t="n">
-        <v>0.207877</v>
+        <v>0.20187</v>
       </c>
       <c r="F25" t="n">
-        <v>0.315918</v>
+        <v>0.316091</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.220818</v>
+        <v>0.218715</v>
       </c>
       <c r="C26" t="n">
-        <v>0.323314</v>
+        <v>0.319153</v>
       </c>
       <c r="D26" t="n">
-        <v>0.428046</v>
+        <v>0.431252</v>
       </c>
       <c r="E26" t="n">
-        <v>0.199287</v>
+        <v>0.200287</v>
       </c>
       <c r="F26" t="n">
-        <v>0.310409</v>
+        <v>0.309199</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.214188</v>
+        <v>0.214478</v>
       </c>
       <c r="C27" t="n">
-        <v>0.316365</v>
+        <v>0.313228</v>
       </c>
       <c r="D27" t="n">
-        <v>0.422639</v>
+        <v>0.425414</v>
       </c>
       <c r="E27" t="n">
-        <v>0.19247</v>
+        <v>0.18976</v>
       </c>
       <c r="F27" t="n">
-        <v>0.301635</v>
+        <v>0.302025</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.206863</v>
+        <v>0.207099</v>
       </c>
       <c r="C28" t="n">
-        <v>0.310543</v>
+        <v>0.308139</v>
       </c>
       <c r="D28" t="n">
-        <v>0.415176</v>
+        <v>0.417072</v>
       </c>
       <c r="E28" t="n">
-        <v>0.183147</v>
+        <v>0.184319</v>
       </c>
       <c r="F28" t="n">
-        <v>0.295574</v>
+        <v>0.295239</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.198074</v>
+        <v>0.199162</v>
       </c>
       <c r="C29" t="n">
-        <v>0.301656</v>
+        <v>0.29972</v>
       </c>
       <c r="D29" t="n">
-        <v>0.409081</v>
+        <v>0.412434</v>
       </c>
       <c r="E29" t="n">
-        <v>0.175943</v>
+        <v>0.176068</v>
       </c>
       <c r="F29" t="n">
-        <v>0.290029</v>
+        <v>0.288254</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.190476</v>
+        <v>0.191373</v>
       </c>
       <c r="C30" t="n">
-        <v>0.296089</v>
+        <v>0.294272</v>
       </c>
       <c r="D30" t="n">
-        <v>0.404025</v>
+        <v>0.407961</v>
       </c>
       <c r="E30" t="n">
-        <v>0.173927</v>
+        <v>0.175231</v>
       </c>
       <c r="F30" t="n">
-        <v>0.282872</v>
+        <v>0.28294</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.189206</v>
+        <v>0.188616</v>
       </c>
       <c r="C31" t="n">
-        <v>0.291172</v>
+        <v>0.289906</v>
       </c>
       <c r="D31" t="n">
-        <v>0.401541</v>
+        <v>0.402729</v>
       </c>
       <c r="E31" t="n">
-        <v>0.165062</v>
+        <v>0.165726</v>
       </c>
       <c r="F31" t="n">
-        <v>0.278507</v>
+        <v>0.276336</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.179889</v>
+        <v>0.181528</v>
       </c>
       <c r="C32" t="n">
-        <v>0.285343</v>
+        <v>0.285426</v>
       </c>
       <c r="D32" t="n">
-        <v>0.396396</v>
+        <v>0.397163</v>
       </c>
       <c r="E32" t="n">
-        <v>0.163239</v>
+        <v>0.158324</v>
       </c>
       <c r="F32" t="n">
-        <v>0.272359</v>
+        <v>0.272637</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.176719</v>
+        <v>0.178022</v>
       </c>
       <c r="C33" t="n">
-        <v>0.283907</v>
+        <v>0.281571</v>
       </c>
       <c r="D33" t="n">
-        <v>0.392233</v>
+        <v>0.395594</v>
       </c>
       <c r="E33" t="n">
-        <v>0.159688</v>
+        <v>0.159884</v>
       </c>
       <c r="F33" t="n">
-        <v>0.269059</v>
+        <v>0.268207</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.171518</v>
+        <v>0.171756</v>
       </c>
       <c r="C34" t="n">
-        <v>0.278823</v>
+        <v>0.278093</v>
       </c>
       <c r="D34" t="n">
-        <v>0.387418</v>
+        <v>0.389175</v>
       </c>
       <c r="E34" t="n">
-        <v>0.153782</v>
+        <v>0.151904</v>
       </c>
       <c r="F34" t="n">
-        <v>0.266677</v>
+        <v>0.264555</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.170802</v>
+        <v>0.168221</v>
       </c>
       <c r="C35" t="n">
-        <v>0.280175</v>
+        <v>0.276001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.492552</v>
+        <v>0.493772</v>
       </c>
       <c r="E35" t="n">
-        <v>0.150904</v>
+        <v>0.153381</v>
       </c>
       <c r="F35" t="n">
-        <v>0.264372</v>
+        <v>0.264498</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.171714</v>
+        <v>0.167102</v>
       </c>
       <c r="C36" t="n">
-        <v>0.276888</v>
+        <v>0.276231</v>
       </c>
       <c r="D36" t="n">
-        <v>0.481008</v>
+        <v>0.483102</v>
       </c>
       <c r="E36" t="n">
-        <v>0.150984</v>
+        <v>0.150077</v>
       </c>
       <c r="F36" t="n">
-        <v>0.263709</v>
+        <v>0.263333</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170411</v>
+        <v>0.171705</v>
       </c>
       <c r="C37" t="n">
-        <v>0.279208</v>
+        <v>0.278044</v>
       </c>
       <c r="D37" t="n">
-        <v>0.472016</v>
+        <v>0.471878</v>
       </c>
       <c r="E37" t="n">
-        <v>0.230682</v>
+        <v>0.230758</v>
       </c>
       <c r="F37" t="n">
-        <v>0.347984</v>
+        <v>0.347253</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242776</v>
+        <v>0.242624</v>
       </c>
       <c r="C38" t="n">
-        <v>0.350466</v>
+        <v>0.349487</v>
       </c>
       <c r="D38" t="n">
-        <v>0.462267</v>
+        <v>0.463101</v>
       </c>
       <c r="E38" t="n">
-        <v>0.221791</v>
+        <v>0.221903</v>
       </c>
       <c r="F38" t="n">
-        <v>0.340065</v>
+        <v>0.339571</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.234175</v>
+        <v>0.233507</v>
       </c>
       <c r="C39" t="n">
-        <v>0.343127</v>
+        <v>0.341112</v>
       </c>
       <c r="D39" t="n">
-        <v>0.453779</v>
+        <v>0.454393</v>
       </c>
       <c r="E39" t="n">
-        <v>0.212191</v>
+        <v>0.21224</v>
       </c>
       <c r="F39" t="n">
-        <v>0.330786</v>
+        <v>0.330614</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.22518</v>
+        <v>0.224754</v>
       </c>
       <c r="C40" t="n">
-        <v>0.334872</v>
+        <v>0.334931</v>
       </c>
       <c r="D40" t="n">
-        <v>0.445558</v>
+        <v>0.445757</v>
       </c>
       <c r="E40" t="n">
-        <v>0.205325</v>
+        <v>0.205018</v>
       </c>
       <c r="F40" t="n">
-        <v>0.323484</v>
+        <v>0.322948</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.217734</v>
+        <v>0.216595</v>
       </c>
       <c r="C41" t="n">
-        <v>0.327488</v>
+        <v>0.326458</v>
       </c>
       <c r="D41" t="n">
-        <v>0.438178</v>
+        <v>0.439772</v>
       </c>
       <c r="E41" t="n">
-        <v>0.196669</v>
+        <v>0.197337</v>
       </c>
       <c r="F41" t="n">
-        <v>0.315716</v>
+        <v>0.31637</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209982</v>
+        <v>0.209378</v>
       </c>
       <c r="C42" t="n">
-        <v>0.320628</v>
+        <v>0.319931</v>
       </c>
       <c r="D42" t="n">
-        <v>0.431525</v>
+        <v>0.431497</v>
       </c>
       <c r="E42" t="n">
-        <v>0.189453</v>
+        <v>0.190362</v>
       </c>
       <c r="F42" t="n">
-        <v>0.309133</v>
+        <v>0.308326</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202762</v>
+        <v>0.202317</v>
       </c>
       <c r="C43" t="n">
-        <v>0.31489</v>
+        <v>0.313702</v>
       </c>
       <c r="D43" t="n">
-        <v>0.424981</v>
+        <v>0.425021</v>
       </c>
       <c r="E43" t="n">
-        <v>0.182552</v>
+        <v>0.183542</v>
       </c>
       <c r="F43" t="n">
-        <v>0.301912</v>
+        <v>0.30256</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.196177</v>
+        <v>0.195613</v>
       </c>
       <c r="C44" t="n">
-        <v>0.309181</v>
+        <v>0.307433</v>
       </c>
       <c r="D44" t="n">
-        <v>0.417433</v>
+        <v>0.41895</v>
       </c>
       <c r="E44" t="n">
-        <v>0.177439</v>
+        <v>0.177225</v>
       </c>
       <c r="F44" t="n">
-        <v>0.296867</v>
+        <v>0.296036</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190435</v>
+        <v>0.190342</v>
       </c>
       <c r="C45" t="n">
-        <v>0.303399</v>
+        <v>0.304185</v>
       </c>
       <c r="D45" t="n">
-        <v>0.412907</v>
+        <v>0.415657</v>
       </c>
       <c r="E45" t="n">
-        <v>0.171551</v>
+        <v>0.170563</v>
       </c>
       <c r="F45" t="n">
-        <v>0.291421</v>
+        <v>0.290935</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.185025</v>
+        <v>0.183894</v>
       </c>
       <c r="C46" t="n">
-        <v>0.299576</v>
+        <v>0.298302</v>
       </c>
       <c r="D46" t="n">
-        <v>0.40713</v>
+        <v>0.411374</v>
       </c>
       <c r="E46" t="n">
-        <v>0.164983</v>
+        <v>0.165852</v>
       </c>
       <c r="F46" t="n">
-        <v>0.286315</v>
+        <v>0.285938</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.179638</v>
+        <v>0.179529</v>
       </c>
       <c r="C47" t="n">
-        <v>0.295042</v>
+        <v>0.295178</v>
       </c>
       <c r="D47" t="n">
-        <v>0.404255</v>
+        <v>0.406887</v>
       </c>
       <c r="E47" t="n">
-        <v>0.161123</v>
+        <v>0.161133</v>
       </c>
       <c r="F47" t="n">
-        <v>0.282309</v>
+        <v>0.281689</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.176655</v>
+        <v>0.175434</v>
       </c>
       <c r="C48" t="n">
-        <v>0.293079</v>
+        <v>0.292522</v>
       </c>
       <c r="D48" t="n">
-        <v>0.399219</v>
+        <v>0.402983</v>
       </c>
       <c r="E48" t="n">
-        <v>0.157815</v>
+        <v>0.158052</v>
       </c>
       <c r="F48" t="n">
-        <v>0.279336</v>
+        <v>0.279202</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173549</v>
+        <v>0.17292</v>
       </c>
       <c r="C49" t="n">
-        <v>0.290591</v>
+        <v>0.29033</v>
       </c>
       <c r="D49" t="n">
-        <v>0.398134</v>
+        <v>0.400279</v>
       </c>
       <c r="E49" t="n">
-        <v>0.155224</v>
+        <v>0.156621</v>
       </c>
       <c r="F49" t="n">
-        <v>0.27722</v>
+        <v>0.276471</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171866</v>
+        <v>0.171383</v>
       </c>
       <c r="C50" t="n">
-        <v>0.290977</v>
+        <v>0.289907</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5057199999999999</v>
+        <v>0.505548</v>
       </c>
       <c r="E50" t="n">
-        <v>0.154986</v>
+        <v>0.1539</v>
       </c>
       <c r="F50" t="n">
-        <v>0.277116</v>
+        <v>0.276329</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172691</v>
+        <v>0.171931</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292093</v>
+        <v>0.291266</v>
       </c>
       <c r="D51" t="n">
-        <v>0.493968</v>
+        <v>0.49207</v>
       </c>
       <c r="E51" t="n">
-        <v>0.239</v>
+        <v>0.238403</v>
       </c>
       <c r="F51" t="n">
-        <v>0.358783</v>
+        <v>0.359402</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175807</v>
+        <v>0.174693</v>
       </c>
       <c r="C52" t="n">
-        <v>0.297895</v>
+        <v>0.296516</v>
       </c>
       <c r="D52" t="n">
-        <v>0.482606</v>
+        <v>0.483313</v>
       </c>
       <c r="E52" t="n">
-        <v>0.230927</v>
+        <v>0.230268</v>
       </c>
       <c r="F52" t="n">
-        <v>0.350324</v>
+        <v>0.350738</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240716</v>
+        <v>0.240791</v>
       </c>
       <c r="C53" t="n">
-        <v>0.354931</v>
+        <v>0.35508</v>
       </c>
       <c r="D53" t="n">
-        <v>0.473133</v>
+        <v>0.47459</v>
       </c>
       <c r="E53" t="n">
-        <v>0.221685</v>
+        <v>0.220213</v>
       </c>
       <c r="F53" t="n">
-        <v>0.342116</v>
+        <v>0.341967</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232852</v>
+        <v>0.231963</v>
       </c>
       <c r="C54" t="n">
-        <v>0.347367</v>
+        <v>0.346836</v>
       </c>
       <c r="D54" t="n">
-        <v>0.46451</v>
+        <v>0.466444</v>
       </c>
       <c r="E54" t="n">
-        <v>0.212571</v>
+        <v>0.212101</v>
       </c>
       <c r="F54" t="n">
-        <v>0.334006</v>
+        <v>0.334305</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.224402</v>
+        <v>0.223697</v>
       </c>
       <c r="C55" t="n">
-        <v>0.342722</v>
+        <v>0.341755</v>
       </c>
       <c r="D55" t="n">
-        <v>0.458181</v>
+        <v>0.457695</v>
       </c>
       <c r="E55" t="n">
-        <v>0.204879</v>
+        <v>0.204903</v>
       </c>
       <c r="F55" t="n">
-        <v>0.328195</v>
+        <v>0.329392</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217265</v>
+        <v>0.216114</v>
       </c>
       <c r="C56" t="n">
-        <v>0.334916</v>
+        <v>0.335211</v>
       </c>
       <c r="D56" t="n">
-        <v>0.449409</v>
+        <v>0.45025</v>
       </c>
       <c r="E56" t="n">
-        <v>0.196931</v>
+        <v>0.197123</v>
       </c>
       <c r="F56" t="n">
-        <v>0.320973</v>
+        <v>0.321406</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208892</v>
+        <v>0.208118</v>
       </c>
       <c r="C57" t="n">
-        <v>0.328959</v>
+        <v>0.328269</v>
       </c>
       <c r="D57" t="n">
-        <v>0.444813</v>
+        <v>0.444946</v>
       </c>
       <c r="E57" t="n">
-        <v>0.190889</v>
+        <v>0.19002</v>
       </c>
       <c r="F57" t="n">
-        <v>0.314597</v>
+        <v>0.315342</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.202409</v>
+        <v>0.201866</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3234</v>
+        <v>0.322101</v>
       </c>
       <c r="D58" t="n">
-        <v>0.437137</v>
+        <v>0.439057</v>
       </c>
       <c r="E58" t="n">
-        <v>0.184201</v>
+        <v>0.183256</v>
       </c>
       <c r="F58" t="n">
-        <v>0.307473</v>
+        <v>0.309365</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.195381</v>
+        <v>0.19545</v>
       </c>
       <c r="C59" t="n">
-        <v>0.317305</v>
+        <v>0.31744</v>
       </c>
       <c r="D59" t="n">
-        <v>0.433472</v>
+        <v>0.433642</v>
       </c>
       <c r="E59" t="n">
-        <v>0.177873</v>
+        <v>0.17651</v>
       </c>
       <c r="F59" t="n">
-        <v>0.302578</v>
+        <v>0.303923</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.190447</v>
+        <v>0.189607</v>
       </c>
       <c r="C60" t="n">
-        <v>0.312179</v>
+        <v>0.313421</v>
       </c>
       <c r="D60" t="n">
-        <v>0.427729</v>
+        <v>0.428159</v>
       </c>
       <c r="E60" t="n">
-        <v>0.172243</v>
+        <v>0.172827</v>
       </c>
       <c r="F60" t="n">
-        <v>0.298176</v>
+        <v>0.298876</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.185342</v>
+        <v>0.184509</v>
       </c>
       <c r="C61" t="n">
-        <v>0.308366</v>
+        <v>0.30909</v>
       </c>
       <c r="D61" t="n">
-        <v>0.423128</v>
+        <v>0.423936</v>
       </c>
       <c r="E61" t="n">
-        <v>0.167354</v>
+        <v>0.167667</v>
       </c>
       <c r="F61" t="n">
-        <v>0.292764</v>
+        <v>0.294223</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181484</v>
+        <v>0.180441</v>
       </c>
       <c r="C62" t="n">
-        <v>0.305196</v>
+        <v>0.305836</v>
       </c>
       <c r="D62" t="n">
-        <v>0.420407</v>
+        <v>0.421212</v>
       </c>
       <c r="E62" t="n">
-        <v>0.163961</v>
+        <v>0.162595</v>
       </c>
       <c r="F62" t="n">
-        <v>0.289646</v>
+        <v>0.29088</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177209</v>
+        <v>0.178135</v>
       </c>
       <c r="C63" t="n">
-        <v>0.30302</v>
+        <v>0.303326</v>
       </c>
       <c r="D63" t="n">
-        <v>0.418269</v>
+        <v>0.417838</v>
       </c>
       <c r="E63" t="n">
-        <v>0.160669</v>
+        <v>0.160716</v>
       </c>
       <c r="F63" t="n">
-        <v>0.287274</v>
+        <v>0.288195</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176375</v>
+        <v>0.175741</v>
       </c>
       <c r="C64" t="n">
-        <v>0.302263</v>
+        <v>0.302225</v>
       </c>
       <c r="D64" t="n">
-        <v>0.542173</v>
+        <v>0.541886</v>
       </c>
       <c r="E64" t="n">
-        <v>0.159794</v>
+        <v>0.159223</v>
       </c>
       <c r="F64" t="n">
-        <v>0.286847</v>
+        <v>0.28745</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17631</v>
+        <v>0.176863</v>
       </c>
       <c r="C65" t="n">
-        <v>0.303818</v>
+        <v>0.303984</v>
       </c>
       <c r="D65" t="n">
-        <v>0.531938</v>
+        <v>0.529923</v>
       </c>
       <c r="E65" t="n">
-        <v>0.159922</v>
+        <v>0.160019</v>
       </c>
       <c r="F65" t="n">
-        <v>0.288163</v>
+        <v>0.288899</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179257</v>
+        <v>0.17879</v>
       </c>
       <c r="C66" t="n">
-        <v>0.306058</v>
+        <v>0.308783</v>
       </c>
       <c r="D66" t="n">
-        <v>0.521979</v>
+        <v>0.521936</v>
       </c>
       <c r="E66" t="n">
-        <v>0.24182</v>
+        <v>0.241414</v>
       </c>
       <c r="F66" t="n">
-        <v>0.366526</v>
+        <v>0.367055</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244087</v>
+        <v>0.244156</v>
       </c>
       <c r="C67" t="n">
-        <v>0.374633</v>
+        <v>0.37544</v>
       </c>
       <c r="D67" t="n">
-        <v>0.513247</v>
+        <v>0.511956</v>
       </c>
       <c r="E67" t="n">
-        <v>0.231229</v>
+        <v>0.231834</v>
       </c>
       <c r="F67" t="n">
-        <v>0.358653</v>
+        <v>0.359204</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.23551</v>
+        <v>0.236607</v>
       </c>
       <c r="C68" t="n">
-        <v>0.365677</v>
+        <v>0.367067</v>
       </c>
       <c r="D68" t="n">
-        <v>0.507066</v>
+        <v>0.503547</v>
       </c>
       <c r="E68" t="n">
-        <v>0.22419</v>
+        <v>0.22428</v>
       </c>
       <c r="F68" t="n">
-        <v>0.349644</v>
+        <v>0.349808</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.228011</v>
+        <v>0.229076</v>
       </c>
       <c r="C69" t="n">
-        <v>0.360799</v>
+        <v>0.36057</v>
       </c>
       <c r="D69" t="n">
-        <v>0.501045</v>
+        <v>0.496027</v>
       </c>
       <c r="E69" t="n">
-        <v>0.215874</v>
+        <v>0.215316</v>
       </c>
       <c r="F69" t="n">
-        <v>0.344332</v>
+        <v>0.345818</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219299</v>
+        <v>0.220235</v>
       </c>
       <c r="C70" t="n">
-        <v>0.353591</v>
+        <v>0.355606</v>
       </c>
       <c r="D70" t="n">
-        <v>0.491954</v>
+        <v>0.49</v>
       </c>
       <c r="E70" t="n">
-        <v>0.206048</v>
+        <v>0.206034</v>
       </c>
       <c r="F70" t="n">
-        <v>0.337322</v>
+        <v>0.338209</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.212195</v>
+        <v>0.213362</v>
       </c>
       <c r="C71" t="n">
-        <v>0.34577</v>
+        <v>0.347761</v>
       </c>
       <c r="D71" t="n">
-        <v>0.487567</v>
+        <v>0.486959</v>
       </c>
       <c r="E71" t="n">
-        <v>0.198942</v>
+        <v>0.198799</v>
       </c>
       <c r="F71" t="n">
-        <v>0.329298</v>
+        <v>0.33107</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.204906</v>
+        <v>0.20628</v>
       </c>
       <c r="C72" t="n">
-        <v>0.339963</v>
+        <v>0.341365</v>
       </c>
       <c r="D72" t="n">
-        <v>0.484235</v>
+        <v>0.481088</v>
       </c>
       <c r="E72" t="n">
-        <v>0.191778</v>
+        <v>0.192296</v>
       </c>
       <c r="F72" t="n">
-        <v>0.323319</v>
+        <v>0.32443</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.198988</v>
+        <v>0.199978</v>
       </c>
       <c r="C73" t="n">
-        <v>0.333846</v>
+        <v>0.335821</v>
       </c>
       <c r="D73" t="n">
-        <v>0.479325</v>
+        <v>0.478733</v>
       </c>
       <c r="E73" t="n">
-        <v>0.185223</v>
+        <v>0.186612</v>
       </c>
       <c r="F73" t="n">
-        <v>0.317402</v>
+        <v>0.318196</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193473</v>
+        <v>0.193596</v>
       </c>
       <c r="C74" t="n">
-        <v>0.329286</v>
+        <v>0.330076</v>
       </c>
       <c r="D74" t="n">
-        <v>0.49454</v>
+        <v>0.493176</v>
       </c>
       <c r="E74" t="n">
-        <v>0.179302</v>
+        <v>0.181145</v>
       </c>
       <c r="F74" t="n">
-        <v>0.312372</v>
+        <v>0.313249</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188598</v>
+        <v>0.18943</v>
       </c>
       <c r="C75" t="n">
-        <v>0.325082</v>
+        <v>0.325361</v>
       </c>
       <c r="D75" t="n">
-        <v>0.492253</v>
+        <v>0.488084</v>
       </c>
       <c r="E75" t="n">
-        <v>0.174516</v>
+        <v>0.176191</v>
       </c>
       <c r="F75" t="n">
-        <v>0.306709</v>
+        <v>0.308128</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.183295</v>
+        <v>0.185651</v>
       </c>
       <c r="C76" t="n">
-        <v>0.320758</v>
+        <v>0.322423</v>
       </c>
       <c r="D76" t="n">
-        <v>0.485952</v>
+        <v>0.48467</v>
       </c>
       <c r="E76" t="n">
-        <v>0.170705</v>
+        <v>0.171444</v>
       </c>
       <c r="F76" t="n">
-        <v>0.302411</v>
+        <v>0.305191</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180748</v>
+        <v>0.182254</v>
       </c>
       <c r="C77" t="n">
-        <v>0.319095</v>
+        <v>0.319642</v>
       </c>
       <c r="D77" t="n">
-        <v>0.483849</v>
+        <v>0.482966</v>
       </c>
       <c r="E77" t="n">
-        <v>0.167401</v>
+        <v>0.168291</v>
       </c>
       <c r="F77" t="n">
-        <v>0.301187</v>
+        <v>0.302266</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178691</v>
+        <v>0.179953</v>
       </c>
       <c r="C78" t="n">
-        <v>0.319423</v>
+        <v>0.318991</v>
       </c>
       <c r="D78" t="n">
-        <v>0.660579</v>
+        <v>0.659111</v>
       </c>
       <c r="E78" t="n">
-        <v>0.165988</v>
+        <v>0.167104</v>
       </c>
       <c r="F78" t="n">
-        <v>0.302301</v>
+        <v>0.302818</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178316</v>
+        <v>0.179339</v>
       </c>
       <c r="C79" t="n">
-        <v>0.319311</v>
+        <v>0.320828</v>
       </c>
       <c r="D79" t="n">
-        <v>0.651858</v>
+        <v>0.650245</v>
       </c>
       <c r="E79" t="n">
-        <v>0.165089</v>
+        <v>0.165835</v>
       </c>
       <c r="F79" t="n">
-        <v>0.301667</v>
+        <v>0.303917</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180884</v>
+        <v>0.180932</v>
       </c>
       <c r="C80" t="n">
-        <v>0.322843</v>
+        <v>0.323971</v>
       </c>
       <c r="D80" t="n">
-        <v>0.641418</v>
+        <v>0.640606</v>
       </c>
       <c r="E80" t="n">
-        <v>0.238743</v>
+        <v>0.23906</v>
       </c>
       <c r="F80" t="n">
-        <v>0.38254</v>
+        <v>0.384555</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.256673</v>
+        <v>0.257674</v>
       </c>
       <c r="C81" t="n">
-        <v>0.393431</v>
+        <v>0.395851</v>
       </c>
       <c r="D81" t="n">
-        <v>0.633701</v>
+        <v>0.632298</v>
       </c>
       <c r="E81" t="n">
-        <v>0.229209</v>
+        <v>0.229806</v>
       </c>
       <c r="F81" t="n">
-        <v>0.376441</v>
+        <v>0.378541</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.248828</v>
+        <v>0.249919</v>
       </c>
       <c r="C82" t="n">
-        <v>0.389378</v>
+        <v>0.390903</v>
       </c>
       <c r="D82" t="n">
-        <v>0.628771</v>
+        <v>0.625945</v>
       </c>
       <c r="E82" t="n">
-        <v>0.221431</v>
+        <v>0.222141</v>
       </c>
       <c r="F82" t="n">
-        <v>0.370388</v>
+        <v>0.371934</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241687</v>
+        <v>0.242502</v>
       </c>
       <c r="C83" t="n">
-        <v>0.384671</v>
+        <v>0.38477</v>
       </c>
       <c r="D83" t="n">
-        <v>0.622203</v>
+        <v>0.620163</v>
       </c>
       <c r="E83" t="n">
-        <v>0.213546</v>
+        <v>0.214236</v>
       </c>
       <c r="F83" t="n">
-        <v>0.363729</v>
+        <v>0.366358</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.233823</v>
+        <v>0.234847</v>
       </c>
       <c r="C84" t="n">
-        <v>0.382238</v>
+        <v>0.383075</v>
       </c>
       <c r="D84" t="n">
-        <v>0.619414</v>
+        <v>0.617762</v>
       </c>
       <c r="E84" t="n">
-        <v>0.206373</v>
+        <v>0.206945</v>
       </c>
       <c r="F84" t="n">
-        <v>0.360141</v>
+        <v>0.361138</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226435</v>
+        <v>0.227078</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3759</v>
+        <v>0.37789</v>
       </c>
       <c r="D85" t="n">
-        <v>0.619362</v>
+        <v>0.614889</v>
       </c>
       <c r="E85" t="n">
-        <v>0.199238</v>
+        <v>0.19984</v>
       </c>
       <c r="F85" t="n">
-        <v>0.354189</v>
+        <v>0.354441</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219403</v>
+        <v>0.220415</v>
       </c>
       <c r="C86" t="n">
-        <v>0.371191</v>
+        <v>0.37263</v>
       </c>
       <c r="D86" t="n">
-        <v>0.616466</v>
+        <v>0.61343</v>
       </c>
       <c r="E86" t="n">
-        <v>0.192686</v>
+        <v>0.193374</v>
       </c>
       <c r="F86" t="n">
-        <v>0.348061</v>
+        <v>0.348806</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212981</v>
+        <v>0.213772</v>
       </c>
       <c r="C87" t="n">
-        <v>0.36512</v>
+        <v>0.36688</v>
       </c>
       <c r="D87" t="n">
-        <v>0.617853</v>
+        <v>0.61383</v>
       </c>
       <c r="E87" t="n">
-        <v>0.185131</v>
+        <v>0.187007</v>
       </c>
       <c r="F87" t="n">
-        <v>0.341194</v>
+        <v>0.34272</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206654</v>
+        <v>0.20799</v>
       </c>
       <c r="C88" t="n">
-        <v>0.361874</v>
+        <v>0.362979</v>
       </c>
       <c r="D88" t="n">
-        <v>0.617096</v>
+        <v>0.615906</v>
       </c>
       <c r="E88" t="n">
-        <v>0.180498</v>
+        <v>0.181514</v>
       </c>
       <c r="F88" t="n">
-        <v>0.338365</v>
+        <v>0.338354</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201478</v>
+        <v>0.201983</v>
       </c>
       <c r="C89" t="n">
-        <v>0.356697</v>
+        <v>0.358349</v>
       </c>
       <c r="D89" t="n">
-        <v>0.63459</v>
+        <v>0.629456</v>
       </c>
       <c r="E89" t="n">
-        <v>0.175816</v>
+        <v>0.17626</v>
       </c>
       <c r="F89" t="n">
-        <v>0.332626</v>
+        <v>0.333755</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195737</v>
+        <v>0.197125</v>
       </c>
       <c r="C90" t="n">
-        <v>0.352438</v>
+        <v>0.353865</v>
       </c>
       <c r="D90" t="n">
-        <v>0.636581</v>
+        <v>0.632947</v>
       </c>
       <c r="E90" t="n">
-        <v>0.170999</v>
+        <v>0.171888</v>
       </c>
       <c r="F90" t="n">
-        <v>0.329316</v>
+        <v>0.329827</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192256</v>
+        <v>0.193023</v>
       </c>
       <c r="C91" t="n">
-        <v>0.349891</v>
+        <v>0.35038</v>
       </c>
       <c r="D91" t="n">
-        <v>0.641432</v>
+        <v>0.639286</v>
       </c>
       <c r="E91" t="n">
-        <v>0.167733</v>
+        <v>0.168363</v>
       </c>
       <c r="F91" t="n">
-        <v>0.325646</v>
+        <v>0.326316</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189382</v>
+        <v>0.190249</v>
       </c>
       <c r="C92" t="n">
-        <v>0.35005</v>
+        <v>0.350364</v>
       </c>
       <c r="D92" t="n">
-        <v>0.856594</v>
+        <v>0.849123</v>
       </c>
       <c r="E92" t="n">
-        <v>0.164963</v>
+        <v>0.166549</v>
       </c>
       <c r="F92" t="n">
-        <v>0.324753</v>
+        <v>0.325516</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188583</v>
+        <v>0.188736</v>
       </c>
       <c r="C93" t="n">
-        <v>0.349669</v>
+        <v>0.352181</v>
       </c>
       <c r="D93" t="n">
-        <v>0.849894</v>
+        <v>0.844893</v>
       </c>
       <c r="E93" t="n">
-        <v>0.165351</v>
+        <v>0.16588</v>
       </c>
       <c r="F93" t="n">
-        <v>0.325698</v>
+        <v>0.32604</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.18968</v>
+        <v>0.189943</v>
       </c>
       <c r="C94" t="n">
-        <v>0.352299</v>
+        <v>0.353196</v>
       </c>
       <c r="D94" t="n">
-        <v>0.845252</v>
+        <v>0.840924</v>
       </c>
       <c r="E94" t="n">
-        <v>0.250369</v>
+        <v>0.250706</v>
       </c>
       <c r="F94" t="n">
-        <v>0.450633</v>
+        <v>0.453035</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.271413</v>
+        <v>0.272273</v>
       </c>
       <c r="C95" t="n">
-        <v>0.466457</v>
+        <v>0.469273</v>
       </c>
       <c r="D95" t="n">
-        <v>0.841065</v>
+        <v>0.836078</v>
       </c>
       <c r="E95" t="n">
-        <v>0.242842</v>
+        <v>0.243669</v>
       </c>
       <c r="F95" t="n">
-        <v>0.449133</v>
+        <v>0.451812</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265435</v>
+        <v>0.26586</v>
       </c>
       <c r="C96" t="n">
-        <v>0.465911</v>
+        <v>0.469442</v>
       </c>
       <c r="D96" t="n">
-        <v>0.836136</v>
+        <v>0.832489</v>
       </c>
       <c r="E96" t="n">
-        <v>0.235119</v>
+        <v>0.235443</v>
       </c>
       <c r="F96" t="n">
-        <v>0.444822</v>
+        <v>0.446894</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258773</v>
+        <v>0.259432</v>
       </c>
       <c r="C97" t="n">
-        <v>0.461742</v>
+        <v>0.465798</v>
       </c>
       <c r="D97" t="n">
-        <v>0.842166</v>
+        <v>0.837816</v>
       </c>
       <c r="E97" t="n">
-        <v>0.227356</v>
+        <v>0.228185</v>
       </c>
       <c r="F97" t="n">
-        <v>0.440212</v>
+        <v>0.441679</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252024</v>
+        <v>0.252341</v>
       </c>
       <c r="C98" t="n">
-        <v>0.458425</v>
+        <v>0.461353</v>
       </c>
       <c r="D98" t="n">
-        <v>0.844179</v>
+        <v>0.836919</v>
       </c>
       <c r="E98" t="n">
-        <v>0.220251</v>
+        <v>0.220516</v>
       </c>
       <c r="F98" t="n">
-        <v>0.434334</v>
+        <v>0.437179</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245278</v>
+        <v>0.246086</v>
       </c>
       <c r="C99" t="n">
-        <v>0.454048</v>
+        <v>0.455185</v>
       </c>
       <c r="D99" t="n">
-        <v>0.841984</v>
+        <v>0.8355050000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>0.212871</v>
+        <v>0.213797</v>
       </c>
       <c r="F99" t="n">
-        <v>0.429843</v>
+        <v>0.431278</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239437</v>
+        <v>0.24015</v>
       </c>
       <c r="C100" t="n">
-        <v>0.450047</v>
+        <v>0.451269</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8411689999999999</v>
+        <v>0.837201</v>
       </c>
       <c r="E100" t="n">
-        <v>0.206496</v>
+        <v>0.206906</v>
       </c>
       <c r="F100" t="n">
-        <v>0.424907</v>
+        <v>0.427644</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233272</v>
+        <v>0.234233</v>
       </c>
       <c r="C101" t="n">
-        <v>0.445345</v>
+        <v>0.446606</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8479989999999999</v>
+        <v>0.840208</v>
       </c>
       <c r="E101" t="n">
-        <v>0.200455</v>
+        <v>0.200936</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4203</v>
+        <v>0.422234</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227822</v>
+        <v>0.228821</v>
       </c>
       <c r="C102" t="n">
-        <v>0.441259</v>
+        <v>0.442881</v>
       </c>
       <c r="D102" t="n">
-        <v>0.85105</v>
+        <v>0.844274</v>
       </c>
       <c r="E102" t="n">
-        <v>0.194783</v>
+        <v>0.195247</v>
       </c>
       <c r="F102" t="n">
-        <v>0.415853</v>
+        <v>0.417913</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222804</v>
+        <v>0.223578</v>
       </c>
       <c r="C103" t="n">
-        <v>0.438357</v>
+        <v>0.439669</v>
       </c>
       <c r="D103" t="n">
-        <v>0.858108</v>
+        <v>0.854599</v>
       </c>
       <c r="E103" t="n">
-        <v>0.189878</v>
+        <v>0.190128</v>
       </c>
       <c r="F103" t="n">
-        <v>0.412994</v>
+        <v>0.415003</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218299</v>
+        <v>0.218754</v>
       </c>
       <c r="C104" t="n">
-        <v>0.435239</v>
+        <v>0.43834</v>
       </c>
       <c r="D104" t="n">
-        <v>0.865494</v>
+        <v>0.859089</v>
       </c>
       <c r="E104" t="n">
-        <v>0.184885</v>
+        <v>0.185407</v>
       </c>
       <c r="F104" t="n">
-        <v>0.409492</v>
+        <v>0.411157</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214387</v>
+        <v>0.214533</v>
       </c>
       <c r="C105" t="n">
-        <v>0.434282</v>
+        <v>0.43588</v>
       </c>
       <c r="D105" t="n">
-        <v>0.873856</v>
+        <v>0.866752</v>
       </c>
       <c r="E105" t="n">
-        <v>0.181716</v>
+        <v>0.182082</v>
       </c>
       <c r="F105" t="n">
-        <v>0.407402</v>
+        <v>0.409646</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211097</v>
+        <v>0.211732</v>
       </c>
       <c r="C106" t="n">
-        <v>0.433819</v>
+        <v>0.435558</v>
       </c>
       <c r="D106" t="n">
-        <v>0.882892</v>
+        <v>0.874956</v>
       </c>
       <c r="E106" t="n">
-        <v>0.179034</v>
+        <v>0.178969</v>
       </c>
       <c r="F106" t="n">
-        <v>0.406375</v>
+        <v>0.407345</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209085</v>
+        <v>0.209692</v>
       </c>
       <c r="C107" t="n">
-        <v>0.433981</v>
+        <v>0.43601</v>
       </c>
       <c r="D107" t="n">
-        <v>1.12623</v>
+        <v>1.11923</v>
       </c>
       <c r="E107" t="n">
-        <v>0.177966</v>
+        <v>0.1782</v>
       </c>
       <c r="F107" t="n">
-        <v>0.406548</v>
+        <v>0.407377</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.209158</v>
+        <v>0.2094</v>
       </c>
       <c r="C108" t="n">
-        <v>0.436931</v>
+        <v>0.439104</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11708</v>
+        <v>1.10995</v>
       </c>
       <c r="E108" t="n">
-        <v>0.267166</v>
+        <v>0.267249</v>
       </c>
       <c r="F108" t="n">
-        <v>0.560538</v>
+        <v>0.563795</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211426</v>
+        <v>0.211671</v>
       </c>
       <c r="C109" t="n">
-        <v>0.442964</v>
+        <v>0.443594</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10725</v>
+        <v>1.10171</v>
       </c>
       <c r="E109" t="n">
-        <v>0.261253</v>
+        <v>0.260975</v>
       </c>
       <c r="F109" t="n">
-        <v>0.560684</v>
+        <v>0.561366</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.29328</v>
+        <v>0.285119</v>
       </c>
       <c r="C110" t="n">
-        <v>0.580354</v>
+        <v>0.581142</v>
       </c>
       <c r="D110" t="n">
-        <v>1.10358</v>
+        <v>1.09515</v>
       </c>
       <c r="E110" t="n">
-        <v>0.25341</v>
+        <v>0.253489</v>
       </c>
       <c r="F110" t="n">
-        <v>0.553851</v>
+        <v>0.556712</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.28665</v>
+        <v>0.278039</v>
       </c>
       <c r="C111" t="n">
-        <v>0.574171</v>
+        <v>0.576304</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09922</v>
+        <v>1.09366</v>
       </c>
       <c r="E111" t="n">
-        <v>0.24629</v>
+        <v>0.246155</v>
       </c>
       <c r="F111" t="n">
-        <v>0.548923</v>
+        <v>0.550457</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.279989</v>
+        <v>0.272521</v>
       </c>
       <c r="C112" t="n">
-        <v>0.569311</v>
+        <v>0.569529</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09309</v>
+        <v>1.09285</v>
       </c>
       <c r="E112" t="n">
-        <v>0.239018</v>
+        <v>0.239483</v>
       </c>
       <c r="F112" t="n">
-        <v>0.543926</v>
+        <v>0.545709</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.273564</v>
+        <v>0.266286</v>
       </c>
       <c r="C113" t="n">
-        <v>0.563511</v>
+        <v>0.565812</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09198</v>
+        <v>1.08878</v>
       </c>
       <c r="E113" t="n">
-        <v>0.232958</v>
+        <v>0.232651</v>
       </c>
       <c r="F113" t="n">
-        <v>0.538116</v>
+        <v>0.541301</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.26764</v>
+        <v>0.260934</v>
       </c>
       <c r="C114" t="n">
-        <v>0.558854</v>
+        <v>0.5608030000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09188</v>
+        <v>1.08832</v>
       </c>
       <c r="E114" t="n">
-        <v>0.226405</v>
+        <v>0.226522</v>
       </c>
       <c r="F114" t="n">
-        <v>0.533978</v>
+        <v>0.536086</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.262322</v>
+        <v>0.255668</v>
       </c>
       <c r="C115" t="n">
-        <v>0.555304</v>
+        <v>0.557746</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09281</v>
+        <v>1.09038</v>
       </c>
       <c r="E115" t="n">
-        <v>0.22103</v>
+        <v>0.220989</v>
       </c>
       <c r="F115" t="n">
-        <v>0.529934</v>
+        <v>0.531849</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.257025</v>
+        <v>0.250489</v>
       </c>
       <c r="C116" t="n">
-        <v>0.551573</v>
+        <v>0.554223</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09812</v>
+        <v>1.09123</v>
       </c>
       <c r="E116" t="n">
-        <v>0.215579</v>
+        <v>0.215326</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5271940000000001</v>
+        <v>0.518304</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.25203</v>
+        <v>0.24636</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5418269999999999</v>
+        <v>0.54158</v>
       </c>
       <c r="D117" t="n">
-        <v>1.10047</v>
+        <v>1.09772</v>
       </c>
       <c r="E117" t="n">
-        <v>0.211122</v>
+        <v>0.21091</v>
       </c>
       <c r="F117" t="n">
-        <v>0.524362</v>
+        <v>0.527405</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.247571</v>
+        <v>0.241681</v>
       </c>
       <c r="C118" t="n">
-        <v>0.546025</v>
+        <v>0.548597</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10279</v>
+        <v>1.1005</v>
       </c>
       <c r="E118" t="n">
-        <v>0.206632</v>
+        <v>0.206452</v>
       </c>
       <c r="F118" t="n">
-        <v>0.522272</v>
+        <v>0.523819</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.243348</v>
+        <v>0.238081</v>
       </c>
       <c r="C119" t="n">
-        <v>0.544721</v>
+        <v>0.558541</v>
       </c>
       <c r="D119" t="n">
-        <v>1.10901</v>
+        <v>1.10764</v>
       </c>
       <c r="E119" t="n">
-        <v>0.202954</v>
+        <v>0.202853</v>
       </c>
       <c r="F119" t="n">
-        <v>0.519097</v>
+        <v>0.521326</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.239959</v>
+        <v>0.234588</v>
       </c>
       <c r="C120" t="n">
-        <v>0.544034</v>
+        <v>0.547194</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11641</v>
+        <v>1.11481</v>
       </c>
       <c r="E120" t="n">
-        <v>0.200086</v>
+        <v>0.200171</v>
       </c>
       <c r="F120" t="n">
-        <v>0.518203</v>
+        <v>0.520861</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.237783</v>
+        <v>0.232633</v>
       </c>
       <c r="C121" t="n">
-        <v>0.544782</v>
+        <v>0.5479579999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>1.37934</v>
+        <v>1.37862</v>
       </c>
       <c r="E121" t="n">
-        <v>0.198735</v>
+        <v>0.198628</v>
       </c>
       <c r="F121" t="n">
-        <v>0.517801</v>
+        <v>0.520987</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.236599</v>
+        <v>0.231653</v>
       </c>
       <c r="C122" t="n">
-        <v>0.547028</v>
+        <v>0.5499270000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36609</v>
+        <v>1.36308</v>
       </c>
       <c r="E122" t="n">
-        <v>0.199173</v>
+        <v>0.199086</v>
       </c>
       <c r="F122" t="n">
-        <v>0.519348</v>
+        <v>0.522385</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.237197</v>
+        <v>0.232908</v>
       </c>
       <c r="C123" t="n">
-        <v>0.550917</v>
+        <v>0.554737</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34952</v>
+        <v>1.34978</v>
       </c>
       <c r="E123" t="n">
-        <v>0.283443</v>
+        <v>0.283805</v>
       </c>
       <c r="F123" t="n">
-        <v>0.690275</v>
+        <v>0.689987</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.328962</v>
+        <v>0.312984</v>
       </c>
       <c r="C124" t="n">
-        <v>0.714383</v>
+        <v>0.7162539999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33903</v>
+        <v>1.33891</v>
       </c>
       <c r="E124" t="n">
-        <v>0.277303</v>
+        <v>0.277859</v>
       </c>
       <c r="F124" t="n">
-        <v>0.685513</v>
+        <v>0.685532</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.323242</v>
+        <v>0.307251</v>
       </c>
       <c r="C125" t="n">
-        <v>0.709817</v>
+        <v>0.710665</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33181</v>
+        <v>1.32739</v>
       </c>
       <c r="E125" t="n">
-        <v>0.271758</v>
+        <v>0.272374</v>
       </c>
       <c r="F125" t="n">
-        <v>0.681941</v>
+        <v>0.680151</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.317089</v>
+        <v>0.302388</v>
       </c>
       <c r="C126" t="n">
-        <v>0.703954</v>
+        <v>0.7064049999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>1.3199</v>
+        <v>1.31802</v>
       </c>
       <c r="E126" t="n">
-        <v>0.266349</v>
+        <v>0.266917</v>
       </c>
       <c r="F126" t="n">
-        <v>0.677575</v>
+        <v>0.677449</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.310426</v>
+        <v>0.297801</v>
       </c>
       <c r="C127" t="n">
-        <v>0.700326</v>
+        <v>0.703331</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31294</v>
+        <v>1.31012</v>
       </c>
       <c r="E127" t="n">
-        <v>0.261528</v>
+        <v>0.26239</v>
       </c>
       <c r="F127" t="n">
-        <v>0.67488</v>
+        <v>0.672759</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.306459</v>
+        <v>0.293145</v>
       </c>
       <c r="C128" t="n">
-        <v>0.698059</v>
+        <v>0.698427</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31028</v>
+        <v>1.30572</v>
       </c>
       <c r="E128" t="n">
-        <v>0.256727</v>
+        <v>0.257452</v>
       </c>
       <c r="F128" t="n">
-        <v>0.673596</v>
+        <v>0.670951</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.301111</v>
+        <v>0.288753</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6951850000000001</v>
+        <v>0.696515</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30308</v>
+        <v>1.3033</v>
       </c>
       <c r="E129" t="n">
-        <v>0.252371</v>
+        <v>0.253344</v>
       </c>
       <c r="F129" t="n">
-        <v>0.668506</v>
+        <v>0.66797</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.295255</v>
+        <v>0.28487</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6917450000000001</v>
+        <v>0.69276</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30133</v>
+        <v>1.29976</v>
       </c>
       <c r="E130" t="n">
-        <v>0.248279</v>
+        <v>0.249249</v>
       </c>
       <c r="F130" t="n">
-        <v>0.665758</v>
+        <v>0.664393</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.290688</v>
+        <v>0.281633</v>
       </c>
       <c r="C131" t="n">
-        <v>0.689099</v>
+        <v>0.691319</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30114</v>
+        <v>1.29774</v>
       </c>
       <c r="E131" t="n">
-        <v>0.244665</v>
+        <v>0.245771</v>
       </c>
       <c r="F131" t="n">
-        <v>0.663705</v>
+        <v>0.663905</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.28664</v>
+        <v>0.278215</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6884</v>
+        <v>0.689784</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30065</v>
+        <v>1.30073</v>
       </c>
       <c r="E132" t="n">
-        <v>0.241331</v>
+        <v>0.242371</v>
       </c>
       <c r="F132" t="n">
-        <v>0.661956</v>
+        <v>0.6614719999999999</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.282957</v>
+        <v>0.275632</v>
       </c>
       <c r="C133" t="n">
-        <v>0.687611</v>
+        <v>0.688724</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30238</v>
+        <v>1.30159</v>
       </c>
       <c r="E133" t="n">
-        <v>0.238531</v>
+        <v>0.239522</v>
       </c>
       <c r="F133" t="n">
-        <v>0.661919</v>
+        <v>0.660347</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.280443</v>
+        <v>0.270723</v>
       </c>
       <c r="C134" t="n">
-        <v>0.688626</v>
+        <v>0.690043</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30428</v>
+        <v>1.30427</v>
       </c>
       <c r="E134" t="n">
-        <v>0.236023</v>
+        <v>0.237036</v>
       </c>
       <c r="F134" t="n">
-        <v>0.661756</v>
+        <v>0.661708</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.277925</v>
+        <v>0.269423</v>
       </c>
       <c r="C135" t="n">
-        <v>0.689466</v>
+        <v>0.691535</v>
       </c>
       <c r="D135" t="n">
-        <v>1.57893</v>
+        <v>1.57823</v>
       </c>
       <c r="E135" t="n">
-        <v>0.234907</v>
+        <v>0.235718</v>
       </c>
       <c r="F135" t="n">
-        <v>0.662496</v>
+        <v>0.660505</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.277999</v>
+        <v>0.269114</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6928609999999999</v>
+        <v>0.695148</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55759</v>
+        <v>1.55698</v>
       </c>
       <c r="E136" t="n">
-        <v>0.234963</v>
+        <v>0.235863</v>
       </c>
       <c r="F136" t="n">
-        <v>0.66482</v>
+        <v>0.66323</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.278357</v>
+        <v>0.269732</v>
       </c>
       <c r="C137" t="n">
-        <v>0.696013</v>
+        <v>0.69916</v>
       </c>
       <c r="D137" t="n">
-        <v>1.53738</v>
+        <v>1.536</v>
       </c>
       <c r="E137" t="n">
-        <v>0.33469</v>
+        <v>0.332809</v>
       </c>
       <c r="F137" t="n">
-        <v>0.845621</v>
+        <v>0.843567</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.369562</v>
+        <v>0.369074</v>
       </c>
       <c r="C138" t="n">
-        <v>0.876258</v>
+        <v>0.8790480000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>1.52081</v>
+        <v>1.51755</v>
       </c>
       <c r="E138" t="n">
-        <v>0.327289</v>
+        <v>0.327854</v>
       </c>
       <c r="F138" t="n">
-        <v>0.845018</v>
+        <v>0.843086</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.360547</v>
+        <v>0.363431</v>
       </c>
       <c r="C139" t="n">
-        <v>0.866931</v>
+        <v>0.863453</v>
       </c>
       <c r="D139" t="n">
-        <v>1.50381</v>
+        <v>1.50348</v>
       </c>
       <c r="E139" t="n">
-        <v>0.322215</v>
+        <v>0.32337</v>
       </c>
       <c r="F139" t="n">
-        <v>0.843253</v>
+        <v>0.84259</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.355884</v>
+        <v>0.357277</v>
       </c>
       <c r="C140" t="n">
-        <v>0.874781</v>
+        <v>0.876094</v>
       </c>
       <c r="D140" t="n">
-        <v>1.48922</v>
+        <v>1.49101</v>
       </c>
       <c r="E140" t="n">
-        <v>0.317731</v>
+        <v>0.318405</v>
       </c>
       <c r="F140" t="n">
-        <v>0.84311</v>
+        <v>0.841367</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.352816</v>
+        <v>0.352031</v>
       </c>
       <c r="C141" t="n">
-        <v>0.874434</v>
+        <v>0.877054</v>
       </c>
       <c r="D141" t="n">
-        <v>1.47882</v>
+        <v>1.47535</v>
       </c>
       <c r="E141" t="n">
-        <v>0.313643</v>
+        <v>0.313717</v>
       </c>
       <c r="F141" t="n">
-        <v>0.842824</v>
+        <v>0.841866</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.346455</v>
+        <v>0.346519</v>
       </c>
       <c r="C142" t="n">
-        <v>0.87453</v>
+        <v>0.877755</v>
       </c>
       <c r="D142" t="n">
-        <v>1.46512</v>
+        <v>1.46466</v>
       </c>
       <c r="E142" t="n">
-        <v>0.309114</v>
+        <v>0.309698</v>
       </c>
       <c r="F142" t="n">
-        <v>0.843188</v>
+        <v>0.840315</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.341422</v>
+        <v>0.342688</v>
       </c>
       <c r="C143" t="n">
-        <v>0.874256</v>
+        <v>0.878179</v>
       </c>
       <c r="D143" t="n">
-        <v>1.45783</v>
+        <v>1.45587</v>
       </c>
       <c r="E143" t="n">
-        <v>0.305505</v>
+        <v>0.306292</v>
       </c>
       <c r="F143" t="n">
-        <v>0.842601</v>
+        <v>0.841163</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.160869</v>
+        <v>0.155095</v>
       </c>
       <c r="C2" t="n">
-        <v>0.290802</v>
+        <v>0.285401</v>
       </c>
       <c r="D2" t="n">
-        <v>0.347537</v>
+        <v>0.346443</v>
       </c>
       <c r="E2" t="n">
-        <v>0.139976</v>
+        <v>0.148324</v>
       </c>
       <c r="F2" t="n">
-        <v>0.276912</v>
+        <v>0.280544</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.159574</v>
+        <v>0.15699</v>
       </c>
       <c r="C3" t="n">
-        <v>0.285191</v>
+        <v>0.280836</v>
       </c>
       <c r="D3" t="n">
-        <v>0.345501</v>
+        <v>0.344552</v>
       </c>
       <c r="E3" t="n">
-        <v>0.134776</v>
+        <v>0.132967</v>
       </c>
       <c r="F3" t="n">
-        <v>0.276039</v>
+        <v>0.271462</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.148838</v>
+        <v>0.147024</v>
       </c>
       <c r="C4" t="n">
-        <v>0.276695</v>
+        <v>0.27763</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341218</v>
+        <v>0.339362</v>
       </c>
       <c r="E4" t="n">
-        <v>0.12929</v>
+        <v>0.131291</v>
       </c>
       <c r="F4" t="n">
-        <v>0.27206</v>
+        <v>0.275353</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.146797</v>
+        <v>0.142492</v>
       </c>
       <c r="C5" t="n">
-        <v>0.270141</v>
+        <v>0.273801</v>
       </c>
       <c r="D5" t="n">
-        <v>0.339879</v>
+        <v>0.340688</v>
       </c>
       <c r="E5" t="n">
-        <v>0.129873</v>
+        <v>0.124653</v>
       </c>
       <c r="F5" t="n">
-        <v>0.259022</v>
+        <v>0.269911</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.149699</v>
+        <v>0.140986</v>
       </c>
       <c r="C6" t="n">
-        <v>0.270286</v>
+        <v>0.274819</v>
       </c>
       <c r="D6" t="n">
-        <v>0.336561</v>
+        <v>0.337199</v>
       </c>
       <c r="E6" t="n">
-        <v>0.124052</v>
+        <v>0.129878</v>
       </c>
       <c r="F6" t="n">
-        <v>0.265768</v>
+        <v>0.259205</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.136147</v>
+        <v>0.141794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.27066</v>
+        <v>0.271036</v>
       </c>
       <c r="D7" t="n">
-        <v>0.438459</v>
+        <v>0.448807</v>
       </c>
       <c r="E7" t="n">
-        <v>0.121844</v>
+        <v>0.118019</v>
       </c>
       <c r="F7" t="n">
-        <v>0.259749</v>
+        <v>0.254966</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.150852</v>
+        <v>0.153208</v>
       </c>
       <c r="C8" t="n">
-        <v>0.277391</v>
+        <v>0.272216</v>
       </c>
       <c r="D8" t="n">
-        <v>0.44111</v>
+        <v>0.429727</v>
       </c>
       <c r="E8" t="n">
-        <v>0.118563</v>
+        <v>0.116101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.261949</v>
+        <v>0.254284</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148176</v>
+        <v>0.1574</v>
       </c>
       <c r="C9" t="n">
-        <v>0.268243</v>
+        <v>0.27298</v>
       </c>
       <c r="D9" t="n">
-        <v>0.433257</v>
+        <v>0.421421</v>
       </c>
       <c r="E9" t="n">
-        <v>0.191322</v>
+        <v>0.186214</v>
       </c>
       <c r="F9" t="n">
-        <v>0.330563</v>
+        <v>0.330753</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.211979</v>
+        <v>0.213244</v>
       </c>
       <c r="C10" t="n">
-        <v>0.334566</v>
+        <v>0.33152</v>
       </c>
       <c r="D10" t="n">
-        <v>0.423484</v>
+        <v>0.42612</v>
       </c>
       <c r="E10" t="n">
-        <v>0.184717</v>
+        <v>0.180598</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3166</v>
+        <v>0.323418</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.200487</v>
+        <v>0.204302</v>
       </c>
       <c r="C11" t="n">
-        <v>0.323249</v>
+        <v>0.320272</v>
       </c>
       <c r="D11" t="n">
-        <v>0.410614</v>
+        <v>0.416588</v>
       </c>
       <c r="E11" t="n">
-        <v>0.16854</v>
+        <v>0.177256</v>
       </c>
       <c r="F11" t="n">
-        <v>0.306468</v>
+        <v>0.308418</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.199951</v>
+        <v>0.194697</v>
       </c>
       <c r="C12" t="n">
-        <v>0.310957</v>
+        <v>0.315086</v>
       </c>
       <c r="D12" t="n">
-        <v>0.406035</v>
+        <v>0.411192</v>
       </c>
       <c r="E12" t="n">
-        <v>0.171339</v>
+        <v>0.173247</v>
       </c>
       <c r="F12" t="n">
-        <v>0.304106</v>
+        <v>0.301452</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.189297</v>
+        <v>0.189234</v>
       </c>
       <c r="C13" t="n">
-        <v>0.305998</v>
+        <v>0.304682</v>
       </c>
       <c r="D13" t="n">
-        <v>0.396063</v>
+        <v>0.402183</v>
       </c>
       <c r="E13" t="n">
-        <v>0.167906</v>
+        <v>0.159366</v>
       </c>
       <c r="F13" t="n">
-        <v>0.293645</v>
+        <v>0.295266</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.184956</v>
+        <v>0.18953</v>
       </c>
       <c r="C14" t="n">
-        <v>0.298148</v>
+        <v>0.298138</v>
       </c>
       <c r="D14" t="n">
-        <v>0.392842</v>
+        <v>0.393931</v>
       </c>
       <c r="E14" t="n">
-        <v>0.159784</v>
+        <v>0.152469</v>
       </c>
       <c r="F14" t="n">
-        <v>0.287954</v>
+        <v>0.290622</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.173124</v>
+        <v>0.173103</v>
       </c>
       <c r="C15" t="n">
-        <v>0.289035</v>
+        <v>0.294969</v>
       </c>
       <c r="D15" t="n">
-        <v>0.39327</v>
+        <v>0.391372</v>
       </c>
       <c r="E15" t="n">
-        <v>0.154922</v>
+        <v>0.151503</v>
       </c>
       <c r="F15" t="n">
-        <v>0.28754</v>
+        <v>0.282261</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.171807</v>
+        <v>0.17369</v>
       </c>
       <c r="C16" t="n">
-        <v>0.284978</v>
+        <v>0.287192</v>
       </c>
       <c r="D16" t="n">
-        <v>0.384262</v>
+        <v>0.385449</v>
       </c>
       <c r="E16" t="n">
-        <v>0.145446</v>
+        <v>0.143799</v>
       </c>
       <c r="F16" t="n">
-        <v>0.282593</v>
+        <v>0.278889</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.169599</v>
+        <v>0.167567</v>
       </c>
       <c r="C17" t="n">
-        <v>0.282131</v>
+        <v>0.27977</v>
       </c>
       <c r="D17" t="n">
-        <v>0.378872</v>
+        <v>0.378342</v>
       </c>
       <c r="E17" t="n">
-        <v>0.149621</v>
+        <v>0.139684</v>
       </c>
       <c r="F17" t="n">
-        <v>0.271364</v>
+        <v>0.271728</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.157301</v>
+        <v>0.162184</v>
       </c>
       <c r="C18" t="n">
-        <v>0.271837</v>
+        <v>0.276951</v>
       </c>
       <c r="D18" t="n">
-        <v>0.379456</v>
+        <v>0.373683</v>
       </c>
       <c r="E18" t="n">
-        <v>0.148485</v>
+        <v>0.14355</v>
       </c>
       <c r="F18" t="n">
-        <v>0.265596</v>
+        <v>0.268412</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.164063</v>
+        <v>0.160012</v>
       </c>
       <c r="C19" t="n">
-        <v>0.271994</v>
+        <v>0.272463</v>
       </c>
       <c r="D19" t="n">
-        <v>0.374536</v>
+        <v>0.374957</v>
       </c>
       <c r="E19" t="n">
-        <v>0.139191</v>
+        <v>0.13225</v>
       </c>
       <c r="F19" t="n">
-        <v>0.259571</v>
+        <v>0.264678</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.159786</v>
+        <v>0.156067</v>
       </c>
       <c r="C20" t="n">
-        <v>0.265975</v>
+        <v>0.271588</v>
       </c>
       <c r="D20" t="n">
-        <v>0.368956</v>
+        <v>0.367114</v>
       </c>
       <c r="E20" t="n">
-        <v>0.133912</v>
+        <v>0.130181</v>
       </c>
       <c r="F20" t="n">
-        <v>0.26065</v>
+        <v>0.260703</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.154918</v>
+        <v>0.156637</v>
       </c>
       <c r="C21" t="n">
-        <v>0.26746</v>
+        <v>0.26888</v>
       </c>
       <c r="D21" t="n">
-        <v>0.469457</v>
+        <v>0.471477</v>
       </c>
       <c r="E21" t="n">
-        <v>0.133723</v>
+        <v>0.134468</v>
       </c>
       <c r="F21" t="n">
-        <v>0.262299</v>
+        <v>0.258765</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.154061</v>
+        <v>0.153196</v>
       </c>
       <c r="C22" t="n">
-        <v>0.271729</v>
+        <v>0.267761</v>
       </c>
       <c r="D22" t="n">
-        <v>0.460499</v>
+        <v>0.460661</v>
       </c>
       <c r="E22" t="n">
-        <v>0.137257</v>
+        <v>0.134625</v>
       </c>
       <c r="F22" t="n">
-        <v>0.254118</v>
+        <v>0.257631</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152789</v>
+        <v>0.156535</v>
       </c>
       <c r="C23" t="n">
-        <v>0.267423</v>
+        <v>0.272378</v>
       </c>
       <c r="D23" t="n">
-        <v>0.45075</v>
+        <v>0.454794</v>
       </c>
       <c r="E23" t="n">
-        <v>0.211564</v>
+        <v>0.220855</v>
       </c>
       <c r="F23" t="n">
-        <v>0.333841</v>
+        <v>0.332068</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240574</v>
+        <v>0.232449</v>
       </c>
       <c r="C24" t="n">
-        <v>0.336324</v>
+        <v>0.336413</v>
       </c>
       <c r="D24" t="n">
-        <v>0.444093</v>
+        <v>0.448773</v>
       </c>
       <c r="E24" t="n">
-        <v>0.205305</v>
+        <v>0.212783</v>
       </c>
       <c r="F24" t="n">
-        <v>0.327608</v>
+        <v>0.323314</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.229816</v>
+        <v>0.226719</v>
       </c>
       <c r="C25" t="n">
-        <v>0.327407</v>
+        <v>0.329294</v>
       </c>
       <c r="D25" t="n">
-        <v>0.437452</v>
+        <v>0.435211</v>
       </c>
       <c r="E25" t="n">
-        <v>0.20187</v>
+        <v>0.195848</v>
       </c>
       <c r="F25" t="n">
-        <v>0.316091</v>
+        <v>0.316432</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.218715</v>
+        <v>0.224993</v>
       </c>
       <c r="C26" t="n">
-        <v>0.319153</v>
+        <v>0.321489</v>
       </c>
       <c r="D26" t="n">
-        <v>0.431252</v>
+        <v>0.430135</v>
       </c>
       <c r="E26" t="n">
-        <v>0.200287</v>
+        <v>0.20154</v>
       </c>
       <c r="F26" t="n">
-        <v>0.309199</v>
+        <v>0.308821</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.214478</v>
+        <v>0.213414</v>
       </c>
       <c r="C27" t="n">
-        <v>0.313228</v>
+        <v>0.314598</v>
       </c>
       <c r="D27" t="n">
-        <v>0.425414</v>
+        <v>0.420687</v>
       </c>
       <c r="E27" t="n">
-        <v>0.18976</v>
+        <v>0.185909</v>
       </c>
       <c r="F27" t="n">
-        <v>0.302025</v>
+        <v>0.30049</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.207099</v>
+        <v>0.203368</v>
       </c>
       <c r="C28" t="n">
-        <v>0.308139</v>
+        <v>0.307104</v>
       </c>
       <c r="D28" t="n">
-        <v>0.417072</v>
+        <v>0.414267</v>
       </c>
       <c r="E28" t="n">
-        <v>0.184319</v>
+        <v>0.174312</v>
       </c>
       <c r="F28" t="n">
-        <v>0.295239</v>
+        <v>0.297269</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.199162</v>
+        <v>0.195557</v>
       </c>
       <c r="C29" t="n">
-        <v>0.29972</v>
+        <v>0.299963</v>
       </c>
       <c r="D29" t="n">
-        <v>0.412434</v>
+        <v>0.409744</v>
       </c>
       <c r="E29" t="n">
-        <v>0.176068</v>
+        <v>0.180078</v>
       </c>
       <c r="F29" t="n">
-        <v>0.288254</v>
+        <v>0.289666</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.191373</v>
+        <v>0.191014</v>
       </c>
       <c r="C30" t="n">
-        <v>0.294272</v>
+        <v>0.294067</v>
       </c>
       <c r="D30" t="n">
-        <v>0.407961</v>
+        <v>0.40582</v>
       </c>
       <c r="E30" t="n">
-        <v>0.175231</v>
+        <v>0.172457</v>
       </c>
       <c r="F30" t="n">
-        <v>0.28294</v>
+        <v>0.283253</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.188616</v>
+        <v>0.181132</v>
       </c>
       <c r="C31" t="n">
-        <v>0.289906</v>
+        <v>0.288757</v>
       </c>
       <c r="D31" t="n">
-        <v>0.402729</v>
+        <v>0.399379</v>
       </c>
       <c r="E31" t="n">
-        <v>0.165726</v>
+        <v>0.165795</v>
       </c>
       <c r="F31" t="n">
-        <v>0.276336</v>
+        <v>0.275972</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.181528</v>
+        <v>0.180942</v>
       </c>
       <c r="C32" t="n">
-        <v>0.285426</v>
+        <v>0.284349</v>
       </c>
       <c r="D32" t="n">
-        <v>0.397163</v>
+        <v>0.395836</v>
       </c>
       <c r="E32" t="n">
-        <v>0.158324</v>
+        <v>0.164061</v>
       </c>
       <c r="F32" t="n">
-        <v>0.272637</v>
+        <v>0.27258</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.178022</v>
+        <v>0.175537</v>
       </c>
       <c r="C33" t="n">
-        <v>0.281571</v>
+        <v>0.280935</v>
       </c>
       <c r="D33" t="n">
-        <v>0.395594</v>
+        <v>0.393081</v>
       </c>
       <c r="E33" t="n">
-        <v>0.159884</v>
+        <v>0.15179</v>
       </c>
       <c r="F33" t="n">
-        <v>0.268207</v>
+        <v>0.268531</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.171756</v>
+        <v>0.174256</v>
       </c>
       <c r="C34" t="n">
-        <v>0.278093</v>
+        <v>0.277385</v>
       </c>
       <c r="D34" t="n">
-        <v>0.389175</v>
+        <v>0.388358</v>
       </c>
       <c r="E34" t="n">
-        <v>0.151904</v>
+        <v>0.151646</v>
       </c>
       <c r="F34" t="n">
-        <v>0.264555</v>
+        <v>0.265592</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.168221</v>
+        <v>0.175233</v>
       </c>
       <c r="C35" t="n">
-        <v>0.276001</v>
+        <v>0.276916</v>
       </c>
       <c r="D35" t="n">
-        <v>0.493772</v>
+        <v>0.496508</v>
       </c>
       <c r="E35" t="n">
-        <v>0.153381</v>
+        <v>0.142062</v>
       </c>
       <c r="F35" t="n">
-        <v>0.264498</v>
+        <v>0.26296</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.167102</v>
+        <v>0.170225</v>
       </c>
       <c r="C36" t="n">
-        <v>0.276231</v>
+        <v>0.278289</v>
       </c>
       <c r="D36" t="n">
-        <v>0.483102</v>
+        <v>0.483812</v>
       </c>
       <c r="E36" t="n">
-        <v>0.150077</v>
+        <v>0.147909</v>
       </c>
       <c r="F36" t="n">
-        <v>0.263333</v>
+        <v>0.263584</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171705</v>
+        <v>0.168969</v>
       </c>
       <c r="C37" t="n">
-        <v>0.278044</v>
+        <v>0.278907</v>
       </c>
       <c r="D37" t="n">
-        <v>0.471878</v>
+        <v>0.473606</v>
       </c>
       <c r="E37" t="n">
-        <v>0.230758</v>
+        <v>0.230759</v>
       </c>
       <c r="F37" t="n">
-        <v>0.347253</v>
+        <v>0.349105</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242624</v>
+        <v>0.243194</v>
       </c>
       <c r="C38" t="n">
-        <v>0.349487</v>
+        <v>0.350075</v>
       </c>
       <c r="D38" t="n">
-        <v>0.463101</v>
+        <v>0.462643</v>
       </c>
       <c r="E38" t="n">
-        <v>0.221903</v>
+        <v>0.221852</v>
       </c>
       <c r="F38" t="n">
-        <v>0.339571</v>
+        <v>0.339903</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233507</v>
+        <v>0.234058</v>
       </c>
       <c r="C39" t="n">
-        <v>0.341112</v>
+        <v>0.340823</v>
       </c>
       <c r="D39" t="n">
-        <v>0.454393</v>
+        <v>0.45315</v>
       </c>
       <c r="E39" t="n">
-        <v>0.21224</v>
+        <v>0.211521</v>
       </c>
       <c r="F39" t="n">
-        <v>0.330614</v>
+        <v>0.330409</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.224754</v>
+        <v>0.226098</v>
       </c>
       <c r="C40" t="n">
-        <v>0.334931</v>
+        <v>0.336017</v>
       </c>
       <c r="D40" t="n">
-        <v>0.445757</v>
+        <v>0.445165</v>
       </c>
       <c r="E40" t="n">
-        <v>0.205018</v>
+        <v>0.205337</v>
       </c>
       <c r="F40" t="n">
-        <v>0.322948</v>
+        <v>0.323356</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.216595</v>
+        <v>0.218524</v>
       </c>
       <c r="C41" t="n">
-        <v>0.326458</v>
+        <v>0.326927</v>
       </c>
       <c r="D41" t="n">
-        <v>0.439772</v>
+        <v>0.438321</v>
       </c>
       <c r="E41" t="n">
-        <v>0.197337</v>
+        <v>0.196831</v>
       </c>
       <c r="F41" t="n">
-        <v>0.31637</v>
+        <v>0.315767</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209378</v>
+        <v>0.209975</v>
       </c>
       <c r="C42" t="n">
-        <v>0.319931</v>
+        <v>0.319974</v>
       </c>
       <c r="D42" t="n">
-        <v>0.431497</v>
+        <v>0.432305</v>
       </c>
       <c r="E42" t="n">
-        <v>0.190362</v>
+        <v>0.189713</v>
       </c>
       <c r="F42" t="n">
-        <v>0.308326</v>
+        <v>0.308779</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202317</v>
+        <v>0.202797</v>
       </c>
       <c r="C43" t="n">
-        <v>0.313702</v>
+        <v>0.314101</v>
       </c>
       <c r="D43" t="n">
-        <v>0.425021</v>
+        <v>0.424469</v>
       </c>
       <c r="E43" t="n">
-        <v>0.183542</v>
+        <v>0.184271</v>
       </c>
       <c r="F43" t="n">
-        <v>0.30256</v>
+        <v>0.302039</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.195613</v>
+        <v>0.195757</v>
       </c>
       <c r="C44" t="n">
-        <v>0.307433</v>
+        <v>0.307667</v>
       </c>
       <c r="D44" t="n">
-        <v>0.41895</v>
+        <v>0.420246</v>
       </c>
       <c r="E44" t="n">
-        <v>0.177225</v>
+        <v>0.177413</v>
       </c>
       <c r="F44" t="n">
-        <v>0.296036</v>
+        <v>0.29633</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190342</v>
+        <v>0.19079</v>
       </c>
       <c r="C45" t="n">
-        <v>0.304185</v>
+        <v>0.302899</v>
       </c>
       <c r="D45" t="n">
-        <v>0.415657</v>
+        <v>0.4154</v>
       </c>
       <c r="E45" t="n">
-        <v>0.170563</v>
+        <v>0.171006</v>
       </c>
       <c r="F45" t="n">
-        <v>0.290935</v>
+        <v>0.291546</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.183894</v>
+        <v>0.184726</v>
       </c>
       <c r="C46" t="n">
-        <v>0.298302</v>
+        <v>0.298822</v>
       </c>
       <c r="D46" t="n">
-        <v>0.411374</v>
+        <v>0.408608</v>
       </c>
       <c r="E46" t="n">
-        <v>0.165852</v>
+        <v>0.165724</v>
       </c>
       <c r="F46" t="n">
-        <v>0.285938</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.179529</v>
+        <v>0.183102</v>
       </c>
       <c r="C47" t="n">
-        <v>0.295178</v>
+        <v>0.296852</v>
       </c>
       <c r="D47" t="n">
-        <v>0.406887</v>
+        <v>0.408694</v>
       </c>
       <c r="E47" t="n">
-        <v>0.161133</v>
+        <v>0.163325</v>
       </c>
       <c r="F47" t="n">
-        <v>0.281689</v>
+        <v>0.28444</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175434</v>
+        <v>0.17824</v>
       </c>
       <c r="C48" t="n">
-        <v>0.292522</v>
+        <v>0.294452</v>
       </c>
       <c r="D48" t="n">
-        <v>0.402983</v>
+        <v>0.403178</v>
       </c>
       <c r="E48" t="n">
-        <v>0.158052</v>
+        <v>0.158183</v>
       </c>
       <c r="F48" t="n">
-        <v>0.279202</v>
+        <v>0.27878</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.17292</v>
+        <v>0.173864</v>
       </c>
       <c r="C49" t="n">
-        <v>0.29033</v>
+        <v>0.29023</v>
       </c>
       <c r="D49" t="n">
-        <v>0.400279</v>
+        <v>0.398965</v>
       </c>
       <c r="E49" t="n">
-        <v>0.156621</v>
+        <v>0.155501</v>
       </c>
       <c r="F49" t="n">
-        <v>0.276471</v>
+        <v>0.27736</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171383</v>
+        <v>0.173197</v>
       </c>
       <c r="C50" t="n">
-        <v>0.289907</v>
+        <v>0.289968</v>
       </c>
       <c r="D50" t="n">
-        <v>0.505548</v>
+        <v>0.504856</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1539</v>
+        <v>0.154034</v>
       </c>
       <c r="F50" t="n">
-        <v>0.276329</v>
+        <v>0.276546</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.171931</v>
+        <v>0.174076</v>
       </c>
       <c r="C51" t="n">
-        <v>0.291266</v>
+        <v>0.292693</v>
       </c>
       <c r="D51" t="n">
-        <v>0.49207</v>
+        <v>0.493566</v>
       </c>
       <c r="E51" t="n">
-        <v>0.238403</v>
+        <v>0.239345</v>
       </c>
       <c r="F51" t="n">
-        <v>0.359402</v>
+        <v>0.359198</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174693</v>
+        <v>0.176272</v>
       </c>
       <c r="C52" t="n">
-        <v>0.296516</v>
+        <v>0.29727</v>
       </c>
       <c r="D52" t="n">
-        <v>0.483313</v>
+        <v>0.483909</v>
       </c>
       <c r="E52" t="n">
-        <v>0.230268</v>
+        <v>0.230094</v>
       </c>
       <c r="F52" t="n">
-        <v>0.350738</v>
+        <v>0.349798</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240791</v>
+        <v>0.240634</v>
       </c>
       <c r="C53" t="n">
-        <v>0.35508</v>
+        <v>0.356365</v>
       </c>
       <c r="D53" t="n">
-        <v>0.47459</v>
+        <v>0.472541</v>
       </c>
       <c r="E53" t="n">
-        <v>0.220213</v>
+        <v>0.221372</v>
       </c>
       <c r="F53" t="n">
-        <v>0.341967</v>
+        <v>0.342102</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.231963</v>
+        <v>0.233251</v>
       </c>
       <c r="C54" t="n">
-        <v>0.346836</v>
+        <v>0.347639</v>
       </c>
       <c r="D54" t="n">
-        <v>0.466444</v>
+        <v>0.465164</v>
       </c>
       <c r="E54" t="n">
-        <v>0.212101</v>
+        <v>0.213948</v>
       </c>
       <c r="F54" t="n">
-        <v>0.334305</v>
+        <v>0.33394</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.223697</v>
+        <v>0.224862</v>
       </c>
       <c r="C55" t="n">
-        <v>0.341755</v>
+        <v>0.34308</v>
       </c>
       <c r="D55" t="n">
-        <v>0.457695</v>
+        <v>0.459369</v>
       </c>
       <c r="E55" t="n">
-        <v>0.204903</v>
+        <v>0.203749</v>
       </c>
       <c r="F55" t="n">
-        <v>0.329392</v>
+        <v>0.32892</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216114</v>
+        <v>0.217557</v>
       </c>
       <c r="C56" t="n">
-        <v>0.335211</v>
+        <v>0.335038</v>
       </c>
       <c r="D56" t="n">
-        <v>0.45025</v>
+        <v>0.450415</v>
       </c>
       <c r="E56" t="n">
-        <v>0.197123</v>
+        <v>0.19731</v>
       </c>
       <c r="F56" t="n">
-        <v>0.321406</v>
+        <v>0.321669</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208118</v>
+        <v>0.210002</v>
       </c>
       <c r="C57" t="n">
-        <v>0.328269</v>
+        <v>0.33034</v>
       </c>
       <c r="D57" t="n">
-        <v>0.444946</v>
+        <v>0.444402</v>
       </c>
       <c r="E57" t="n">
-        <v>0.19002</v>
+        <v>0.18942</v>
       </c>
       <c r="F57" t="n">
-        <v>0.315342</v>
+        <v>0.315066</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.201866</v>
+        <v>0.202682</v>
       </c>
       <c r="C58" t="n">
-        <v>0.322101</v>
+        <v>0.322901</v>
       </c>
       <c r="D58" t="n">
-        <v>0.439057</v>
+        <v>0.437848</v>
       </c>
       <c r="E58" t="n">
-        <v>0.183256</v>
+        <v>0.184595</v>
       </c>
       <c r="F58" t="n">
-        <v>0.309365</v>
+        <v>0.308935</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.19545</v>
+        <v>0.196319</v>
       </c>
       <c r="C59" t="n">
-        <v>0.31744</v>
+        <v>0.319054</v>
       </c>
       <c r="D59" t="n">
-        <v>0.433642</v>
+        <v>0.433899</v>
       </c>
       <c r="E59" t="n">
-        <v>0.17651</v>
+        <v>0.176924</v>
       </c>
       <c r="F59" t="n">
-        <v>0.303923</v>
+        <v>0.303596</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.189607</v>
+        <v>0.191205</v>
       </c>
       <c r="C60" t="n">
-        <v>0.313421</v>
+        <v>0.313262</v>
       </c>
       <c r="D60" t="n">
-        <v>0.428159</v>
+        <v>0.428506</v>
       </c>
       <c r="E60" t="n">
-        <v>0.172827</v>
+        <v>0.172565</v>
       </c>
       <c r="F60" t="n">
-        <v>0.298876</v>
+        <v>0.298487</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.184509</v>
+        <v>0.186379</v>
       </c>
       <c r="C61" t="n">
-        <v>0.30909</v>
+        <v>0.309498</v>
       </c>
       <c r="D61" t="n">
-        <v>0.423936</v>
+        <v>0.425335</v>
       </c>
       <c r="E61" t="n">
-        <v>0.167667</v>
+        <v>0.166726</v>
       </c>
       <c r="F61" t="n">
-        <v>0.294223</v>
+        <v>0.293691</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.180441</v>
+        <v>0.181994</v>
       </c>
       <c r="C62" t="n">
-        <v>0.305836</v>
+        <v>0.307375</v>
       </c>
       <c r="D62" t="n">
-        <v>0.421212</v>
+        <v>0.419878</v>
       </c>
       <c r="E62" t="n">
-        <v>0.162595</v>
+        <v>0.163598</v>
       </c>
       <c r="F62" t="n">
-        <v>0.29088</v>
+        <v>0.290497</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178135</v>
+        <v>0.178742</v>
       </c>
       <c r="C63" t="n">
-        <v>0.303326</v>
+        <v>0.30573</v>
       </c>
       <c r="D63" t="n">
-        <v>0.417838</v>
+        <v>0.419578</v>
       </c>
       <c r="E63" t="n">
-        <v>0.160716</v>
+        <v>0.160652</v>
       </c>
       <c r="F63" t="n">
-        <v>0.288195</v>
+        <v>0.287571</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175741</v>
+        <v>0.177125</v>
       </c>
       <c r="C64" t="n">
-        <v>0.302225</v>
+        <v>0.303924</v>
       </c>
       <c r="D64" t="n">
-        <v>0.541886</v>
+        <v>0.543439</v>
       </c>
       <c r="E64" t="n">
-        <v>0.159223</v>
+        <v>0.159143</v>
       </c>
       <c r="F64" t="n">
-        <v>0.28745</v>
+        <v>0.287198</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176863</v>
+        <v>0.178263</v>
       </c>
       <c r="C65" t="n">
-        <v>0.303984</v>
+        <v>0.303885</v>
       </c>
       <c r="D65" t="n">
-        <v>0.529923</v>
+        <v>0.5319120000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>0.160019</v>
+        <v>0.159212</v>
       </c>
       <c r="F65" t="n">
-        <v>0.288899</v>
+        <v>0.288688</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.17879</v>
+        <v>0.180341</v>
       </c>
       <c r="C66" t="n">
-        <v>0.308783</v>
+        <v>0.307868</v>
       </c>
       <c r="D66" t="n">
-        <v>0.521936</v>
+        <v>0.522289</v>
       </c>
       <c r="E66" t="n">
-        <v>0.241414</v>
+        <v>0.241405</v>
       </c>
       <c r="F66" t="n">
-        <v>0.367055</v>
+        <v>0.367079</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244156</v>
+        <v>0.245623</v>
       </c>
       <c r="C67" t="n">
-        <v>0.37544</v>
+        <v>0.37546</v>
       </c>
       <c r="D67" t="n">
-        <v>0.511956</v>
+        <v>0.513082</v>
       </c>
       <c r="E67" t="n">
-        <v>0.231834</v>
+        <v>0.232778</v>
       </c>
       <c r="F67" t="n">
-        <v>0.359204</v>
+        <v>0.35959</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236607</v>
+        <v>0.23755</v>
       </c>
       <c r="C68" t="n">
-        <v>0.367067</v>
+        <v>0.367354</v>
       </c>
       <c r="D68" t="n">
-        <v>0.503547</v>
+        <v>0.505798</v>
       </c>
       <c r="E68" t="n">
-        <v>0.22428</v>
+        <v>0.223341</v>
       </c>
       <c r="F68" t="n">
-        <v>0.349808</v>
+        <v>0.351703</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.229076</v>
+        <v>0.228941</v>
       </c>
       <c r="C69" t="n">
-        <v>0.36057</v>
+        <v>0.362092</v>
       </c>
       <c r="D69" t="n">
-        <v>0.496027</v>
+        <v>0.497941</v>
       </c>
       <c r="E69" t="n">
-        <v>0.215316</v>
+        <v>0.214842</v>
       </c>
       <c r="F69" t="n">
-        <v>0.345818</v>
+        <v>0.344698</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.220235</v>
+        <v>0.220714</v>
       </c>
       <c r="C70" t="n">
-        <v>0.355606</v>
+        <v>0.355248</v>
       </c>
       <c r="D70" t="n">
-        <v>0.49</v>
+        <v>0.493013</v>
       </c>
       <c r="E70" t="n">
-        <v>0.206034</v>
+        <v>0.207067</v>
       </c>
       <c r="F70" t="n">
-        <v>0.338209</v>
+        <v>0.337603</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213362</v>
+        <v>0.213934</v>
       </c>
       <c r="C71" t="n">
-        <v>0.347761</v>
+        <v>0.348702</v>
       </c>
       <c r="D71" t="n">
-        <v>0.486959</v>
+        <v>0.488556</v>
       </c>
       <c r="E71" t="n">
-        <v>0.198799</v>
+        <v>0.199518</v>
       </c>
       <c r="F71" t="n">
-        <v>0.33107</v>
+        <v>0.331595</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.20628</v>
+        <v>0.206796</v>
       </c>
       <c r="C72" t="n">
-        <v>0.341365</v>
+        <v>0.34289</v>
       </c>
       <c r="D72" t="n">
-        <v>0.481088</v>
+        <v>0.484032</v>
       </c>
       <c r="E72" t="n">
-        <v>0.192296</v>
+        <v>0.193183</v>
       </c>
       <c r="F72" t="n">
-        <v>0.32443</v>
+        <v>0.323823</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199978</v>
+        <v>0.200581</v>
       </c>
       <c r="C73" t="n">
-        <v>0.335821</v>
+        <v>0.334567</v>
       </c>
       <c r="D73" t="n">
-        <v>0.478733</v>
+        <v>0.478</v>
       </c>
       <c r="E73" t="n">
-        <v>0.186612</v>
+        <v>0.185825</v>
       </c>
       <c r="F73" t="n">
-        <v>0.318196</v>
+        <v>0.318746</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193596</v>
+        <v>0.194308</v>
       </c>
       <c r="C74" t="n">
-        <v>0.330076</v>
+        <v>0.330899</v>
       </c>
       <c r="D74" t="n">
-        <v>0.493176</v>
+        <v>0.494607</v>
       </c>
       <c r="E74" t="n">
-        <v>0.181145</v>
+        <v>0.180148</v>
       </c>
       <c r="F74" t="n">
-        <v>0.313249</v>
+        <v>0.312583</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18943</v>
+        <v>0.189275</v>
       </c>
       <c r="C75" t="n">
-        <v>0.325361</v>
+        <v>0.326758</v>
       </c>
       <c r="D75" t="n">
-        <v>0.488084</v>
+        <v>0.488912</v>
       </c>
       <c r="E75" t="n">
-        <v>0.176191</v>
+        <v>0.17494</v>
       </c>
       <c r="F75" t="n">
-        <v>0.308128</v>
+        <v>0.308569</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185651</v>
+        <v>0.184926</v>
       </c>
       <c r="C76" t="n">
-        <v>0.322423</v>
+        <v>0.321887</v>
       </c>
       <c r="D76" t="n">
-        <v>0.48467</v>
+        <v>0.485998</v>
       </c>
       <c r="E76" t="n">
-        <v>0.171444</v>
+        <v>0.170897</v>
       </c>
       <c r="F76" t="n">
-        <v>0.305191</v>
+        <v>0.305284</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182254</v>
+        <v>0.182166</v>
       </c>
       <c r="C77" t="n">
-        <v>0.319642</v>
+        <v>0.320315</v>
       </c>
       <c r="D77" t="n">
-        <v>0.482966</v>
+        <v>0.483329</v>
       </c>
       <c r="E77" t="n">
-        <v>0.168291</v>
+        <v>0.166856</v>
       </c>
       <c r="F77" t="n">
-        <v>0.302266</v>
+        <v>0.302413</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179953</v>
+        <v>0.180028</v>
       </c>
       <c r="C78" t="n">
-        <v>0.318991</v>
+        <v>0.32012</v>
       </c>
       <c r="D78" t="n">
-        <v>0.659111</v>
+        <v>0.662324</v>
       </c>
       <c r="E78" t="n">
-        <v>0.167104</v>
+        <v>0.165321</v>
       </c>
       <c r="F78" t="n">
-        <v>0.302818</v>
+        <v>0.303017</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179339</v>
+        <v>0.180301</v>
       </c>
       <c r="C79" t="n">
-        <v>0.320828</v>
+        <v>0.322153</v>
       </c>
       <c r="D79" t="n">
-        <v>0.650245</v>
+        <v>0.6500280000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>0.165835</v>
+        <v>0.164911</v>
       </c>
       <c r="F79" t="n">
-        <v>0.303917</v>
+        <v>0.303287</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180932</v>
+        <v>0.182458</v>
       </c>
       <c r="C80" t="n">
-        <v>0.323971</v>
+        <v>0.32432</v>
       </c>
       <c r="D80" t="n">
-        <v>0.640606</v>
+        <v>0.642648</v>
       </c>
       <c r="E80" t="n">
-        <v>0.23906</v>
+        <v>0.23809</v>
       </c>
       <c r="F80" t="n">
-        <v>0.384555</v>
+        <v>0.383778</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257674</v>
+        <v>0.260363</v>
       </c>
       <c r="C81" t="n">
-        <v>0.395851</v>
+        <v>0.395821</v>
       </c>
       <c r="D81" t="n">
-        <v>0.632298</v>
+        <v>0.6333</v>
       </c>
       <c r="E81" t="n">
-        <v>0.229806</v>
+        <v>0.23064</v>
       </c>
       <c r="F81" t="n">
-        <v>0.378541</v>
+        <v>0.378234</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249919</v>
+        <v>0.251813</v>
       </c>
       <c r="C82" t="n">
-        <v>0.390903</v>
+        <v>0.391552</v>
       </c>
       <c r="D82" t="n">
-        <v>0.625945</v>
+        <v>0.628091</v>
       </c>
       <c r="E82" t="n">
-        <v>0.222141</v>
+        <v>0.222633</v>
       </c>
       <c r="F82" t="n">
-        <v>0.371934</v>
+        <v>0.371937</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242502</v>
+        <v>0.243432</v>
       </c>
       <c r="C83" t="n">
-        <v>0.38477</v>
+        <v>0.386716</v>
       </c>
       <c r="D83" t="n">
-        <v>0.620163</v>
+        <v>0.620712</v>
       </c>
       <c r="E83" t="n">
-        <v>0.214236</v>
+        <v>0.214407</v>
       </c>
       <c r="F83" t="n">
-        <v>0.366358</v>
+        <v>0.366051</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234847</v>
+        <v>0.235635</v>
       </c>
       <c r="C84" t="n">
-        <v>0.383075</v>
+        <v>0.382553</v>
       </c>
       <c r="D84" t="n">
-        <v>0.617762</v>
+        <v>0.61685</v>
       </c>
       <c r="E84" t="n">
-        <v>0.206945</v>
+        <v>0.207178</v>
       </c>
       <c r="F84" t="n">
-        <v>0.361138</v>
+        <v>0.362081</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227078</v>
+        <v>0.228201</v>
       </c>
       <c r="C85" t="n">
-        <v>0.37789</v>
+        <v>0.377648</v>
       </c>
       <c r="D85" t="n">
-        <v>0.614889</v>
+        <v>0.616151</v>
       </c>
       <c r="E85" t="n">
-        <v>0.19984</v>
+        <v>0.199038</v>
       </c>
       <c r="F85" t="n">
-        <v>0.354441</v>
+        <v>0.355345</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220415</v>
+        <v>0.221792</v>
       </c>
       <c r="C86" t="n">
-        <v>0.37263</v>
+        <v>0.37248</v>
       </c>
       <c r="D86" t="n">
-        <v>0.61343</v>
+        <v>0.614102</v>
       </c>
       <c r="E86" t="n">
-        <v>0.193374</v>
+        <v>0.193542</v>
       </c>
       <c r="F86" t="n">
-        <v>0.348806</v>
+        <v>0.349334</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213772</v>
+        <v>0.215043</v>
       </c>
       <c r="C87" t="n">
-        <v>0.36688</v>
+        <v>0.366441</v>
       </c>
       <c r="D87" t="n">
-        <v>0.61383</v>
+        <v>0.613528</v>
       </c>
       <c r="E87" t="n">
-        <v>0.187007</v>
+        <v>0.187594</v>
       </c>
       <c r="F87" t="n">
-        <v>0.34272</v>
+        <v>0.343803</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20799</v>
+        <v>0.208269</v>
       </c>
       <c r="C88" t="n">
-        <v>0.362979</v>
+        <v>0.362981</v>
       </c>
       <c r="D88" t="n">
-        <v>0.615906</v>
+        <v>0.6135659999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.181514</v>
+        <v>0.18175</v>
       </c>
       <c r="F88" t="n">
-        <v>0.338354</v>
+        <v>0.339792</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201983</v>
+        <v>0.203164</v>
       </c>
       <c r="C89" t="n">
-        <v>0.358349</v>
+        <v>0.358387</v>
       </c>
       <c r="D89" t="n">
-        <v>0.629456</v>
+        <v>0.62829</v>
       </c>
       <c r="E89" t="n">
-        <v>0.17626</v>
+        <v>0.175857</v>
       </c>
       <c r="F89" t="n">
-        <v>0.333755</v>
+        <v>0.334768</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197125</v>
+        <v>0.198461</v>
       </c>
       <c r="C90" t="n">
-        <v>0.353865</v>
+        <v>0.354175</v>
       </c>
       <c r="D90" t="n">
-        <v>0.632947</v>
+        <v>0.6319090000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>0.171888</v>
+        <v>0.171414</v>
       </c>
       <c r="F90" t="n">
-        <v>0.329827</v>
+        <v>0.330743</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193023</v>
+        <v>0.194389</v>
       </c>
       <c r="C91" t="n">
-        <v>0.35038</v>
+        <v>0.350394</v>
       </c>
       <c r="D91" t="n">
-        <v>0.639286</v>
+        <v>0.633671</v>
       </c>
       <c r="E91" t="n">
-        <v>0.168363</v>
+        <v>0.168359</v>
       </c>
       <c r="F91" t="n">
-        <v>0.326316</v>
+        <v>0.325758</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190249</v>
+        <v>0.190835</v>
       </c>
       <c r="C92" t="n">
-        <v>0.350364</v>
+        <v>0.350585</v>
       </c>
       <c r="D92" t="n">
-        <v>0.849123</v>
+        <v>0.851027</v>
       </c>
       <c r="E92" t="n">
-        <v>0.166549</v>
+        <v>0.165829</v>
       </c>
       <c r="F92" t="n">
-        <v>0.325516</v>
+        <v>0.32614</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188736</v>
+        <v>0.189997</v>
       </c>
       <c r="C93" t="n">
-        <v>0.352181</v>
+        <v>0.350229</v>
       </c>
       <c r="D93" t="n">
-        <v>0.844893</v>
+        <v>0.8459</v>
       </c>
       <c r="E93" t="n">
-        <v>0.16588</v>
+        <v>0.16636</v>
       </c>
       <c r="F93" t="n">
-        <v>0.32604</v>
+        <v>0.326532</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189943</v>
+        <v>0.190909</v>
       </c>
       <c r="C94" t="n">
-        <v>0.353196</v>
+        <v>0.353054</v>
       </c>
       <c r="D94" t="n">
-        <v>0.840924</v>
+        <v>0.840516</v>
       </c>
       <c r="E94" t="n">
-        <v>0.250706</v>
+        <v>0.252503</v>
       </c>
       <c r="F94" t="n">
-        <v>0.453035</v>
+        <v>0.452771</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.272273</v>
+        <v>0.271472</v>
       </c>
       <c r="C95" t="n">
-        <v>0.469273</v>
+        <v>0.467745</v>
       </c>
       <c r="D95" t="n">
-        <v>0.836078</v>
+        <v>0.83549</v>
       </c>
       <c r="E95" t="n">
-        <v>0.243669</v>
+        <v>0.244516</v>
       </c>
       <c r="F95" t="n">
-        <v>0.451812</v>
+        <v>0.451039</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.26586</v>
+        <v>0.265409</v>
       </c>
       <c r="C96" t="n">
-        <v>0.469442</v>
+        <v>0.467826</v>
       </c>
       <c r="D96" t="n">
-        <v>0.832489</v>
+        <v>0.831855</v>
       </c>
       <c r="E96" t="n">
-        <v>0.235443</v>
+        <v>0.236168</v>
       </c>
       <c r="F96" t="n">
-        <v>0.446894</v>
+        <v>0.446845</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.259432</v>
+        <v>0.258067</v>
       </c>
       <c r="C97" t="n">
-        <v>0.465798</v>
+        <v>0.464694</v>
       </c>
       <c r="D97" t="n">
-        <v>0.837816</v>
+        <v>0.836458</v>
       </c>
       <c r="E97" t="n">
-        <v>0.228185</v>
+        <v>0.228539</v>
       </c>
       <c r="F97" t="n">
-        <v>0.441679</v>
+        <v>0.442428</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252341</v>
+        <v>0.251013</v>
       </c>
       <c r="C98" t="n">
-        <v>0.461353</v>
+        <v>0.460302</v>
       </c>
       <c r="D98" t="n">
-        <v>0.836919</v>
+        <v>0.838137</v>
       </c>
       <c r="E98" t="n">
-        <v>0.220516</v>
+        <v>0.220782</v>
       </c>
       <c r="F98" t="n">
-        <v>0.437179</v>
+        <v>0.436858</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246086</v>
+        <v>0.245103</v>
       </c>
       <c r="C99" t="n">
-        <v>0.455185</v>
+        <v>0.454575</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8355050000000001</v>
+        <v>0.837178</v>
       </c>
       <c r="E99" t="n">
-        <v>0.213797</v>
+        <v>0.213917</v>
       </c>
       <c r="F99" t="n">
-        <v>0.431278</v>
+        <v>0.432356</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.24015</v>
+        <v>0.239064</v>
       </c>
       <c r="C100" t="n">
-        <v>0.451269</v>
+        <v>0.45132</v>
       </c>
       <c r="D100" t="n">
-        <v>0.837201</v>
+        <v>0.837561</v>
       </c>
       <c r="E100" t="n">
-        <v>0.206906</v>
+        <v>0.207118</v>
       </c>
       <c r="F100" t="n">
-        <v>0.427644</v>
+        <v>0.428359</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.234233</v>
+        <v>0.233824</v>
       </c>
       <c r="C101" t="n">
-        <v>0.446606</v>
+        <v>0.447527</v>
       </c>
       <c r="D101" t="n">
-        <v>0.840208</v>
+        <v>0.841661</v>
       </c>
       <c r="E101" t="n">
-        <v>0.200936</v>
+        <v>0.201694</v>
       </c>
       <c r="F101" t="n">
-        <v>0.422234</v>
+        <v>0.422744</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228821</v>
+        <v>0.228058</v>
       </c>
       <c r="C102" t="n">
-        <v>0.442881</v>
+        <v>0.442373</v>
       </c>
       <c r="D102" t="n">
-        <v>0.844274</v>
+        <v>0.844123</v>
       </c>
       <c r="E102" t="n">
-        <v>0.195247</v>
+        <v>0.195473</v>
       </c>
       <c r="F102" t="n">
-        <v>0.417913</v>
+        <v>0.419263</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223578</v>
+        <v>0.222653</v>
       </c>
       <c r="C103" t="n">
-        <v>0.439669</v>
+        <v>0.439827</v>
       </c>
       <c r="D103" t="n">
-        <v>0.854599</v>
+        <v>0.854358</v>
       </c>
       <c r="E103" t="n">
-        <v>0.190128</v>
+        <v>0.19024</v>
       </c>
       <c r="F103" t="n">
-        <v>0.415003</v>
+        <v>0.41594</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218754</v>
+        <v>0.218119</v>
       </c>
       <c r="C104" t="n">
-        <v>0.43834</v>
+        <v>0.437423</v>
       </c>
       <c r="D104" t="n">
-        <v>0.859089</v>
+        <v>0.859584</v>
       </c>
       <c r="E104" t="n">
-        <v>0.185407</v>
+        <v>0.18561</v>
       </c>
       <c r="F104" t="n">
-        <v>0.411157</v>
+        <v>0.411904</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214533</v>
+        <v>0.214046</v>
       </c>
       <c r="C105" t="n">
-        <v>0.43588</v>
+        <v>0.436226</v>
       </c>
       <c r="D105" t="n">
-        <v>0.866752</v>
+        <v>0.8670099999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>0.182082</v>
+        <v>0.181744</v>
       </c>
       <c r="F105" t="n">
-        <v>0.409646</v>
+        <v>0.410983</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211732</v>
+        <v>0.210739</v>
       </c>
       <c r="C106" t="n">
-        <v>0.435558</v>
+        <v>0.43441</v>
       </c>
       <c r="D106" t="n">
-        <v>0.874956</v>
+        <v>0.877198</v>
       </c>
       <c r="E106" t="n">
-        <v>0.178969</v>
+        <v>0.179163</v>
       </c>
       <c r="F106" t="n">
-        <v>0.407345</v>
+        <v>0.409273</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209692</v>
+        <v>0.208973</v>
       </c>
       <c r="C107" t="n">
-        <v>0.43601</v>
+        <v>0.435263</v>
       </c>
       <c r="D107" t="n">
-        <v>1.11923</v>
+        <v>1.12144</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1782</v>
+        <v>0.178441</v>
       </c>
       <c r="F107" t="n">
-        <v>0.407377</v>
+        <v>0.409022</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2094</v>
+        <v>0.208558</v>
       </c>
       <c r="C108" t="n">
-        <v>0.439104</v>
+        <v>0.438072</v>
       </c>
       <c r="D108" t="n">
-        <v>1.10995</v>
+        <v>1.11263</v>
       </c>
       <c r="E108" t="n">
-        <v>0.267249</v>
+        <v>0.267656</v>
       </c>
       <c r="F108" t="n">
-        <v>0.563795</v>
+        <v>0.565109</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211671</v>
+        <v>0.21085</v>
       </c>
       <c r="C109" t="n">
-        <v>0.443594</v>
+        <v>0.443346</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10171</v>
+        <v>1.10331</v>
       </c>
       <c r="E109" t="n">
-        <v>0.260975</v>
+        <v>0.26076</v>
       </c>
       <c r="F109" t="n">
-        <v>0.561366</v>
+        <v>0.564418</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285119</v>
+        <v>0.284466</v>
       </c>
       <c r="C110" t="n">
-        <v>0.581142</v>
+        <v>0.581176</v>
       </c>
       <c r="D110" t="n">
-        <v>1.09515</v>
+        <v>1.09533</v>
       </c>
       <c r="E110" t="n">
-        <v>0.253489</v>
+        <v>0.253444</v>
       </c>
       <c r="F110" t="n">
-        <v>0.556712</v>
+        <v>0.557875</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278039</v>
+        <v>0.277498</v>
       </c>
       <c r="C111" t="n">
-        <v>0.576304</v>
+        <v>0.5756019999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09366</v>
+        <v>1.09491</v>
       </c>
       <c r="E111" t="n">
-        <v>0.246155</v>
+        <v>0.246486</v>
       </c>
       <c r="F111" t="n">
-        <v>0.550457</v>
+        <v>0.551544</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272521</v>
+        <v>0.271402</v>
       </c>
       <c r="C112" t="n">
-        <v>0.569529</v>
+        <v>0.571723</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09285</v>
+        <v>1.0906</v>
       </c>
       <c r="E112" t="n">
-        <v>0.239483</v>
+        <v>0.23926</v>
       </c>
       <c r="F112" t="n">
-        <v>0.545709</v>
+        <v>0.546986</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266286</v>
+        <v>0.265599</v>
       </c>
       <c r="C113" t="n">
-        <v>0.565812</v>
+        <v>0.565535</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08878</v>
+        <v>1.09198</v>
       </c>
       <c r="E113" t="n">
-        <v>0.232651</v>
+        <v>0.233317</v>
       </c>
       <c r="F113" t="n">
-        <v>0.541301</v>
+        <v>0.5419349999999999</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260934</v>
+        <v>0.259587</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5608030000000001</v>
+        <v>0.559481</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08832</v>
+        <v>1.0912</v>
       </c>
       <c r="E114" t="n">
-        <v>0.226522</v>
+        <v>0.226799</v>
       </c>
       <c r="F114" t="n">
-        <v>0.536086</v>
+        <v>0.536243</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255668</v>
+        <v>0.254701</v>
       </c>
       <c r="C115" t="n">
-        <v>0.557746</v>
+        <v>0.554791</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09038</v>
+        <v>1.08969</v>
       </c>
       <c r="E115" t="n">
-        <v>0.220989</v>
+        <v>0.221302</v>
       </c>
       <c r="F115" t="n">
-        <v>0.531849</v>
+        <v>0.534366</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250489</v>
+        <v>0.249441</v>
       </c>
       <c r="C116" t="n">
-        <v>0.554223</v>
+        <v>0.550939</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09123</v>
+        <v>1.09398</v>
       </c>
       <c r="E116" t="n">
-        <v>0.215326</v>
+        <v>0.215394</v>
       </c>
       <c r="F116" t="n">
-        <v>0.518304</v>
+        <v>0.5291360000000001</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.24636</v>
+        <v>0.245067</v>
       </c>
       <c r="C117" t="n">
-        <v>0.54158</v>
+        <v>0.548283</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09772</v>
+        <v>1.09865</v>
       </c>
       <c r="E117" t="n">
-        <v>0.21091</v>
+        <v>0.210777</v>
       </c>
       <c r="F117" t="n">
-        <v>0.527405</v>
+        <v>0.525231</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241681</v>
+        <v>0.241047</v>
       </c>
       <c r="C118" t="n">
-        <v>0.548597</v>
+        <v>0.546277</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1005</v>
+        <v>1.1025</v>
       </c>
       <c r="E118" t="n">
-        <v>0.206452</v>
+        <v>0.206654</v>
       </c>
       <c r="F118" t="n">
-        <v>0.523819</v>
+        <v>0.523927</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238081</v>
+        <v>0.237235</v>
       </c>
       <c r="C119" t="n">
-        <v>0.558541</v>
+        <v>0.544679</v>
       </c>
       <c r="D119" t="n">
-        <v>1.10764</v>
+        <v>1.10692</v>
       </c>
       <c r="E119" t="n">
-        <v>0.202853</v>
+        <v>0.203211</v>
       </c>
       <c r="F119" t="n">
-        <v>0.521326</v>
+        <v>0.521297</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234588</v>
+        <v>0.234043</v>
       </c>
       <c r="C120" t="n">
-        <v>0.547194</v>
+        <v>0.544687</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11481</v>
+        <v>1.11493</v>
       </c>
       <c r="E120" t="n">
-        <v>0.200171</v>
+        <v>0.200402</v>
       </c>
       <c r="F120" t="n">
-        <v>0.520861</v>
+        <v>0.519594</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232633</v>
+        <v>0.231991</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5479579999999999</v>
+        <v>0.544812</v>
       </c>
       <c r="D121" t="n">
-        <v>1.37862</v>
+        <v>1.3778</v>
       </c>
       <c r="E121" t="n">
-        <v>0.198628</v>
+        <v>0.198799</v>
       </c>
       <c r="F121" t="n">
-        <v>0.520987</v>
+        <v>0.519222</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231653</v>
+        <v>0.230916</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5499270000000001</v>
+        <v>0.545897</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36308</v>
+        <v>1.36551</v>
       </c>
       <c r="E122" t="n">
-        <v>0.199086</v>
+        <v>0.199523</v>
       </c>
       <c r="F122" t="n">
-        <v>0.522385</v>
+        <v>0.521024</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232908</v>
+        <v>0.23234</v>
       </c>
       <c r="C123" t="n">
-        <v>0.554737</v>
+        <v>0.550808</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34978</v>
+        <v>1.35045</v>
       </c>
       <c r="E123" t="n">
-        <v>0.283805</v>
+        <v>0.283505</v>
       </c>
       <c r="F123" t="n">
-        <v>0.689987</v>
+        <v>0.684752</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.312984</v>
+        <v>0.31799</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7162539999999999</v>
+        <v>0.711705</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33891</v>
+        <v>1.3404</v>
       </c>
       <c r="E124" t="n">
-        <v>0.277859</v>
+        <v>0.277507</v>
       </c>
       <c r="F124" t="n">
-        <v>0.685532</v>
+        <v>0.6838340000000001</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.307251</v>
+        <v>0.311827</v>
       </c>
       <c r="C125" t="n">
-        <v>0.710665</v>
+        <v>0.702466</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32739</v>
+        <v>1.32029</v>
       </c>
       <c r="E125" t="n">
-        <v>0.272374</v>
+        <v>0.273345</v>
       </c>
       <c r="F125" t="n">
-        <v>0.680151</v>
+        <v>0.664971</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.302388</v>
+        <v>0.305275</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7064049999999999</v>
+        <v>0.6904940000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31802</v>
+        <v>1.3125</v>
       </c>
       <c r="E126" t="n">
-        <v>0.266917</v>
+        <v>0.266479</v>
       </c>
       <c r="F126" t="n">
-        <v>0.677449</v>
+        <v>0.676234</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.297801</v>
+        <v>0.300926</v>
       </c>
       <c r="C127" t="n">
-        <v>0.703331</v>
+        <v>0.698831</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31012</v>
+        <v>1.31434</v>
       </c>
       <c r="E127" t="n">
-        <v>0.26239</v>
+        <v>0.261808</v>
       </c>
       <c r="F127" t="n">
-        <v>0.672759</v>
+        <v>0.670506</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.293145</v>
+        <v>0.295147</v>
       </c>
       <c r="C128" t="n">
-        <v>0.698427</v>
+        <v>0.696612</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30572</v>
+        <v>1.30629</v>
       </c>
       <c r="E128" t="n">
-        <v>0.257452</v>
+        <v>0.257024</v>
       </c>
       <c r="F128" t="n">
-        <v>0.670951</v>
+        <v>0.669051</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.288753</v>
+        <v>0.290794</v>
       </c>
       <c r="C129" t="n">
-        <v>0.696515</v>
+        <v>0.6926909999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3033</v>
+        <v>1.30413</v>
       </c>
       <c r="E129" t="n">
-        <v>0.253344</v>
+        <v>0.252772</v>
       </c>
       <c r="F129" t="n">
-        <v>0.66797</v>
+        <v>0.6650199999999999</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.28487</v>
+        <v>0.285334</v>
       </c>
       <c r="C130" t="n">
-        <v>0.69276</v>
+        <v>0.689092</v>
       </c>
       <c r="D130" t="n">
-        <v>1.29976</v>
+        <v>1.29993</v>
       </c>
       <c r="E130" t="n">
-        <v>0.249249</v>
+        <v>0.248378</v>
       </c>
       <c r="F130" t="n">
-        <v>0.664393</v>
+        <v>0.664628</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281633</v>
+        <v>0.281768</v>
       </c>
       <c r="C131" t="n">
-        <v>0.691319</v>
+        <v>0.688669</v>
       </c>
       <c r="D131" t="n">
-        <v>1.29774</v>
+        <v>1.29838</v>
       </c>
       <c r="E131" t="n">
-        <v>0.245771</v>
+        <v>0.244854</v>
       </c>
       <c r="F131" t="n">
-        <v>0.663905</v>
+        <v>0.660138</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278215</v>
+        <v>0.278155</v>
       </c>
       <c r="C132" t="n">
-        <v>0.689784</v>
+        <v>0.685752</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30073</v>
+        <v>1.30151</v>
       </c>
       <c r="E132" t="n">
-        <v>0.242371</v>
+        <v>0.241198</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6614719999999999</v>
+        <v>0.658211</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275632</v>
+        <v>0.275155</v>
       </c>
       <c r="C133" t="n">
-        <v>0.688724</v>
+        <v>0.685678</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30159</v>
+        <v>1.30139</v>
       </c>
       <c r="E133" t="n">
-        <v>0.239522</v>
+        <v>0.238555</v>
       </c>
       <c r="F133" t="n">
-        <v>0.660347</v>
+        <v>0.6593830000000001</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.270723</v>
+        <v>0.272832</v>
       </c>
       <c r="C134" t="n">
-        <v>0.690043</v>
+        <v>0.685574</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30427</v>
+        <v>1.30519</v>
       </c>
       <c r="E134" t="n">
-        <v>0.237036</v>
+        <v>0.236266</v>
       </c>
       <c r="F134" t="n">
-        <v>0.661708</v>
+        <v>0.657705</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.269423</v>
+        <v>0.270761</v>
       </c>
       <c r="C135" t="n">
-        <v>0.691535</v>
+        <v>0.6881</v>
       </c>
       <c r="D135" t="n">
-        <v>1.57823</v>
+        <v>1.57953</v>
       </c>
       <c r="E135" t="n">
-        <v>0.235718</v>
+        <v>0.234775</v>
       </c>
       <c r="F135" t="n">
-        <v>0.660505</v>
+        <v>0.659538</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.269114</v>
+        <v>0.269928</v>
       </c>
       <c r="C136" t="n">
-        <v>0.695148</v>
+        <v>0.690072</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55698</v>
+        <v>1.55733</v>
       </c>
       <c r="E136" t="n">
-        <v>0.235863</v>
+        <v>0.234827</v>
       </c>
       <c r="F136" t="n">
-        <v>0.66323</v>
+        <v>0.6625</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.269732</v>
+        <v>0.27108</v>
       </c>
       <c r="C137" t="n">
-        <v>0.69916</v>
+        <v>0.695124</v>
       </c>
       <c r="D137" t="n">
-        <v>1.536</v>
+        <v>1.53562</v>
       </c>
       <c r="E137" t="n">
-        <v>0.332809</v>
+        <v>0.333195</v>
       </c>
       <c r="F137" t="n">
-        <v>0.843567</v>
+        <v>0.844471</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.369074</v>
+        <v>0.361202</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8790480000000001</v>
+        <v>0.874489</v>
       </c>
       <c r="D138" t="n">
-        <v>1.51755</v>
+        <v>1.51875</v>
       </c>
       <c r="E138" t="n">
-        <v>0.327854</v>
+        <v>0.330771</v>
       </c>
       <c r="F138" t="n">
-        <v>0.843086</v>
+        <v>0.84052</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.363431</v>
+        <v>0.356663</v>
       </c>
       <c r="C139" t="n">
-        <v>0.863453</v>
+        <v>0.873634</v>
       </c>
       <c r="D139" t="n">
-        <v>1.50348</v>
+        <v>1.50337</v>
       </c>
       <c r="E139" t="n">
-        <v>0.32337</v>
+        <v>0.323249</v>
       </c>
       <c r="F139" t="n">
-        <v>0.84259</v>
+        <v>0.841903</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.357277</v>
+        <v>0.351036</v>
       </c>
       <c r="C140" t="n">
-        <v>0.876094</v>
+        <v>0.873583</v>
       </c>
       <c r="D140" t="n">
-        <v>1.49101</v>
+        <v>1.49047</v>
       </c>
       <c r="E140" t="n">
-        <v>0.318405</v>
+        <v>0.318001</v>
       </c>
       <c r="F140" t="n">
-        <v>0.841367</v>
+        <v>0.842551</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.352031</v>
+        <v>0.34609</v>
       </c>
       <c r="C141" t="n">
-        <v>0.877054</v>
+        <v>0.872959</v>
       </c>
       <c r="D141" t="n">
-        <v>1.47535</v>
+        <v>1.47694</v>
       </c>
       <c r="E141" t="n">
-        <v>0.313717</v>
+        <v>0.313793</v>
       </c>
       <c r="F141" t="n">
-        <v>0.841866</v>
+        <v>0.840533</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.346519</v>
+        <v>0.341221</v>
       </c>
       <c r="C142" t="n">
-        <v>0.877755</v>
+        <v>0.872543</v>
       </c>
       <c r="D142" t="n">
-        <v>1.46466</v>
+        <v>1.46355</v>
       </c>
       <c r="E142" t="n">
-        <v>0.309698</v>
+        <v>0.309576</v>
       </c>
       <c r="F142" t="n">
-        <v>0.840315</v>
+        <v>0.840484</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.342688</v>
+        <v>0.338379</v>
       </c>
       <c r="C143" t="n">
-        <v>0.878179</v>
+        <v>0.861972</v>
       </c>
       <c r="D143" t="n">
-        <v>1.45587</v>
+        <v>1.45407</v>
       </c>
       <c r="E143" t="n">
-        <v>0.306292</v>
+        <v>0.305729</v>
       </c>
       <c r="F143" t="n">
-        <v>0.841163</v>
+        <v>0.840342</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.155095</v>
+        <v>0.168551</v>
       </c>
       <c r="C2" t="n">
-        <v>0.285401</v>
+        <v>0.28408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.346443</v>
+        <v>0.343355</v>
       </c>
       <c r="E2" t="n">
-        <v>0.148324</v>
+        <v>0.154149</v>
       </c>
       <c r="F2" t="n">
-        <v>0.280544</v>
+        <v>0.284107</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.15699</v>
+        <v>0.150602</v>
       </c>
       <c r="C3" t="n">
-        <v>0.280836</v>
+        <v>0.274248</v>
       </c>
       <c r="D3" t="n">
-        <v>0.344552</v>
+        <v>0.340327</v>
       </c>
       <c r="E3" t="n">
-        <v>0.132967</v>
+        <v>0.141074</v>
       </c>
       <c r="F3" t="n">
-        <v>0.271462</v>
+        <v>0.275038</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.147024</v>
+        <v>0.154418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.27763</v>
+        <v>0.27455</v>
       </c>
       <c r="D4" t="n">
-        <v>0.339362</v>
+        <v>0.33961</v>
       </c>
       <c r="E4" t="n">
-        <v>0.131291</v>
+        <v>0.146483</v>
       </c>
       <c r="F4" t="n">
-        <v>0.275353</v>
+        <v>0.2768</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.142492</v>
+        <v>0.157773</v>
       </c>
       <c r="C5" t="n">
-        <v>0.273801</v>
+        <v>0.276786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.340688</v>
+        <v>0.337926</v>
       </c>
       <c r="E5" t="n">
-        <v>0.124653</v>
+        <v>0.125814</v>
       </c>
       <c r="F5" t="n">
-        <v>0.269911</v>
+        <v>0.266668</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.140986</v>
+        <v>0.142159</v>
       </c>
       <c r="C6" t="n">
-        <v>0.274819</v>
+        <v>0.265999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.337199</v>
+        <v>0.33693</v>
       </c>
       <c r="E6" t="n">
-        <v>0.129878</v>
+        <v>0.125073</v>
       </c>
       <c r="F6" t="n">
-        <v>0.259205</v>
+        <v>0.263982</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.141794</v>
+        <v>0.152685</v>
       </c>
       <c r="C7" t="n">
-        <v>0.271036</v>
+        <v>0.270994</v>
       </c>
       <c r="D7" t="n">
-        <v>0.448807</v>
+        <v>0.438288</v>
       </c>
       <c r="E7" t="n">
-        <v>0.118019</v>
+        <v>0.124774</v>
       </c>
       <c r="F7" t="n">
-        <v>0.254966</v>
+        <v>0.26124</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.153208</v>
+        <v>0.144046</v>
       </c>
       <c r="C8" t="n">
-        <v>0.272216</v>
+        <v>0.271182</v>
       </c>
       <c r="D8" t="n">
-        <v>0.429727</v>
+        <v>0.439495</v>
       </c>
       <c r="E8" t="n">
-        <v>0.116101</v>
+        <v>0.127219</v>
       </c>
       <c r="F8" t="n">
-        <v>0.254284</v>
+        <v>0.261572</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1574</v>
+        <v>0.14819</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27298</v>
+        <v>0.268525</v>
       </c>
       <c r="D9" t="n">
-        <v>0.421421</v>
+        <v>0.420146</v>
       </c>
       <c r="E9" t="n">
-        <v>0.186214</v>
+        <v>0.185151</v>
       </c>
       <c r="F9" t="n">
-        <v>0.330753</v>
+        <v>0.335651</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.213244</v>
+        <v>0.217049</v>
       </c>
       <c r="C10" t="n">
-        <v>0.33152</v>
+        <v>0.329302</v>
       </c>
       <c r="D10" t="n">
-        <v>0.42612</v>
+        <v>0.420971</v>
       </c>
       <c r="E10" t="n">
-        <v>0.180598</v>
+        <v>0.194444</v>
       </c>
       <c r="F10" t="n">
-        <v>0.323418</v>
+        <v>0.322573</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.204302</v>
+        <v>0.204146</v>
       </c>
       <c r="C11" t="n">
-        <v>0.320272</v>
+        <v>0.316837</v>
       </c>
       <c r="D11" t="n">
-        <v>0.416588</v>
+        <v>0.415773</v>
       </c>
       <c r="E11" t="n">
-        <v>0.177256</v>
+        <v>0.184457</v>
       </c>
       <c r="F11" t="n">
-        <v>0.308418</v>
+        <v>0.313554</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.194697</v>
+        <v>0.19794</v>
       </c>
       <c r="C12" t="n">
-        <v>0.315086</v>
+        <v>0.313833</v>
       </c>
       <c r="D12" t="n">
-        <v>0.411192</v>
+        <v>0.41209</v>
       </c>
       <c r="E12" t="n">
-        <v>0.173247</v>
+        <v>0.171807</v>
       </c>
       <c r="F12" t="n">
-        <v>0.301452</v>
+        <v>0.308353</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.189234</v>
+        <v>0.19766</v>
       </c>
       <c r="C13" t="n">
-        <v>0.304682</v>
+        <v>0.303353</v>
       </c>
       <c r="D13" t="n">
-        <v>0.402183</v>
+        <v>0.401906</v>
       </c>
       <c r="E13" t="n">
-        <v>0.159366</v>
+        <v>0.16407</v>
       </c>
       <c r="F13" t="n">
-        <v>0.295266</v>
+        <v>0.300998</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.18953</v>
+        <v>0.186332</v>
       </c>
       <c r="C14" t="n">
-        <v>0.298138</v>
+        <v>0.293038</v>
       </c>
       <c r="D14" t="n">
-        <v>0.393931</v>
+        <v>0.391907</v>
       </c>
       <c r="E14" t="n">
-        <v>0.152469</v>
+        <v>0.160312</v>
       </c>
       <c r="F14" t="n">
-        <v>0.290622</v>
+        <v>0.296376</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.173103</v>
+        <v>0.180448</v>
       </c>
       <c r="C15" t="n">
-        <v>0.294969</v>
+        <v>0.29439</v>
       </c>
       <c r="D15" t="n">
-        <v>0.391372</v>
+        <v>0.3939</v>
       </c>
       <c r="E15" t="n">
-        <v>0.151503</v>
+        <v>0.150575</v>
       </c>
       <c r="F15" t="n">
-        <v>0.282261</v>
+        <v>0.287719</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.17369</v>
+        <v>0.170925</v>
       </c>
       <c r="C16" t="n">
-        <v>0.287192</v>
+        <v>0.292129</v>
       </c>
       <c r="D16" t="n">
-        <v>0.385449</v>
+        <v>0.38759</v>
       </c>
       <c r="E16" t="n">
-        <v>0.143799</v>
+        <v>0.151454</v>
       </c>
       <c r="F16" t="n">
-        <v>0.278889</v>
+        <v>0.286046</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.167567</v>
+        <v>0.169467</v>
       </c>
       <c r="C17" t="n">
-        <v>0.27977</v>
+        <v>0.28333</v>
       </c>
       <c r="D17" t="n">
-        <v>0.378342</v>
+        <v>0.380633</v>
       </c>
       <c r="E17" t="n">
-        <v>0.139684</v>
+        <v>0.145946</v>
       </c>
       <c r="F17" t="n">
-        <v>0.271728</v>
+        <v>0.272164</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.162184</v>
+        <v>0.164006</v>
       </c>
       <c r="C18" t="n">
-        <v>0.276951</v>
+        <v>0.274206</v>
       </c>
       <c r="D18" t="n">
-        <v>0.373683</v>
+        <v>0.370925</v>
       </c>
       <c r="E18" t="n">
-        <v>0.14355</v>
+        <v>0.143537</v>
       </c>
       <c r="F18" t="n">
-        <v>0.268412</v>
+        <v>0.269963</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.160012</v>
+        <v>0.159817</v>
       </c>
       <c r="C19" t="n">
-        <v>0.272463</v>
+        <v>0.267571</v>
       </c>
       <c r="D19" t="n">
-        <v>0.374957</v>
+        <v>0.37223</v>
       </c>
       <c r="E19" t="n">
-        <v>0.13225</v>
+        <v>0.133905</v>
       </c>
       <c r="F19" t="n">
-        <v>0.264678</v>
+        <v>0.262834</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.156067</v>
+        <v>0.15633</v>
       </c>
       <c r="C20" t="n">
-        <v>0.271588</v>
+        <v>0.268386</v>
       </c>
       <c r="D20" t="n">
-        <v>0.367114</v>
+        <v>0.371643</v>
       </c>
       <c r="E20" t="n">
-        <v>0.130181</v>
+        <v>0.132496</v>
       </c>
       <c r="F20" t="n">
-        <v>0.260703</v>
+        <v>0.257694</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.156637</v>
+        <v>0.153335</v>
       </c>
       <c r="C21" t="n">
-        <v>0.26888</v>
+        <v>0.268956</v>
       </c>
       <c r="D21" t="n">
-        <v>0.471477</v>
+        <v>0.46969</v>
       </c>
       <c r="E21" t="n">
-        <v>0.134468</v>
+        <v>0.129992</v>
       </c>
       <c r="F21" t="n">
-        <v>0.258765</v>
+        <v>0.259493</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.153196</v>
+        <v>0.155771</v>
       </c>
       <c r="C22" t="n">
-        <v>0.267761</v>
+        <v>0.267072</v>
       </c>
       <c r="D22" t="n">
-        <v>0.460661</v>
+        <v>0.464109</v>
       </c>
       <c r="E22" t="n">
-        <v>0.134625</v>
+        <v>0.127656</v>
       </c>
       <c r="F22" t="n">
-        <v>0.257631</v>
+        <v>0.257445</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.156535</v>
+        <v>0.157088</v>
       </c>
       <c r="C23" t="n">
-        <v>0.272378</v>
+        <v>0.264966</v>
       </c>
       <c r="D23" t="n">
-        <v>0.454794</v>
+        <v>0.448186</v>
       </c>
       <c r="E23" t="n">
-        <v>0.220855</v>
+        <v>0.221504</v>
       </c>
       <c r="F23" t="n">
-        <v>0.332068</v>
+        <v>0.331903</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.232449</v>
+        <v>0.236548</v>
       </c>
       <c r="C24" t="n">
-        <v>0.336413</v>
+        <v>0.334451</v>
       </c>
       <c r="D24" t="n">
-        <v>0.448773</v>
+        <v>0.442614</v>
       </c>
       <c r="E24" t="n">
-        <v>0.212783</v>
+        <v>0.215773</v>
       </c>
       <c r="F24" t="n">
-        <v>0.323314</v>
+        <v>0.323778</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.226719</v>
+        <v>0.228083</v>
       </c>
       <c r="C25" t="n">
-        <v>0.329294</v>
+        <v>0.326172</v>
       </c>
       <c r="D25" t="n">
-        <v>0.435211</v>
+        <v>0.435787</v>
       </c>
       <c r="E25" t="n">
-        <v>0.195848</v>
+        <v>0.193208</v>
       </c>
       <c r="F25" t="n">
-        <v>0.316432</v>
+        <v>0.316229</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224993</v>
+        <v>0.226578</v>
       </c>
       <c r="C26" t="n">
-        <v>0.321489</v>
+        <v>0.320944</v>
       </c>
       <c r="D26" t="n">
-        <v>0.430135</v>
+        <v>0.430059</v>
       </c>
       <c r="E26" t="n">
-        <v>0.20154</v>
+        <v>0.193112</v>
       </c>
       <c r="F26" t="n">
-        <v>0.308821</v>
+        <v>0.309042</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.213414</v>
+        <v>0.215771</v>
       </c>
       <c r="C27" t="n">
-        <v>0.314598</v>
+        <v>0.312023</v>
       </c>
       <c r="D27" t="n">
-        <v>0.420687</v>
+        <v>0.423132</v>
       </c>
       <c r="E27" t="n">
-        <v>0.185909</v>
+        <v>0.188771</v>
       </c>
       <c r="F27" t="n">
-        <v>0.30049</v>
+        <v>0.301986</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.203368</v>
+        <v>0.205082</v>
       </c>
       <c r="C28" t="n">
-        <v>0.307104</v>
+        <v>0.305431</v>
       </c>
       <c r="D28" t="n">
-        <v>0.414267</v>
+        <v>0.418064</v>
       </c>
       <c r="E28" t="n">
-        <v>0.174312</v>
+        <v>0.183429</v>
       </c>
       <c r="F28" t="n">
-        <v>0.297269</v>
+        <v>0.296135</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.195557</v>
+        <v>0.200844</v>
       </c>
       <c r="C29" t="n">
-        <v>0.299963</v>
+        <v>0.298869</v>
       </c>
       <c r="D29" t="n">
-        <v>0.409744</v>
+        <v>0.408393</v>
       </c>
       <c r="E29" t="n">
-        <v>0.180078</v>
+        <v>0.170872</v>
       </c>
       <c r="F29" t="n">
-        <v>0.289666</v>
+        <v>0.28753</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.191014</v>
+        <v>0.193279</v>
       </c>
       <c r="C30" t="n">
-        <v>0.294067</v>
+        <v>0.295464</v>
       </c>
       <c r="D30" t="n">
-        <v>0.40582</v>
+        <v>0.40559</v>
       </c>
       <c r="E30" t="n">
-        <v>0.172457</v>
+        <v>0.164513</v>
       </c>
       <c r="F30" t="n">
-        <v>0.283253</v>
+        <v>0.281182</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.181132</v>
+        <v>0.18306</v>
       </c>
       <c r="C31" t="n">
-        <v>0.288757</v>
+        <v>0.288644</v>
       </c>
       <c r="D31" t="n">
-        <v>0.399379</v>
+        <v>0.402179</v>
       </c>
       <c r="E31" t="n">
-        <v>0.165795</v>
+        <v>0.163291</v>
       </c>
       <c r="F31" t="n">
-        <v>0.275972</v>
+        <v>0.27677</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180942</v>
+        <v>0.181605</v>
       </c>
       <c r="C32" t="n">
-        <v>0.284349</v>
+        <v>0.283069</v>
       </c>
       <c r="D32" t="n">
-        <v>0.395836</v>
+        <v>0.393711</v>
       </c>
       <c r="E32" t="n">
-        <v>0.164061</v>
+        <v>0.159054</v>
       </c>
       <c r="F32" t="n">
-        <v>0.27258</v>
+        <v>0.271187</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.175537</v>
+        <v>0.178536</v>
       </c>
       <c r="C33" t="n">
-        <v>0.280935</v>
+        <v>0.280744</v>
       </c>
       <c r="D33" t="n">
-        <v>0.393081</v>
+        <v>0.389473</v>
       </c>
       <c r="E33" t="n">
-        <v>0.15179</v>
+        <v>0.160225</v>
       </c>
       <c r="F33" t="n">
-        <v>0.268531</v>
+        <v>0.26855</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.174256</v>
+        <v>0.17478</v>
       </c>
       <c r="C34" t="n">
-        <v>0.277385</v>
+        <v>0.277831</v>
       </c>
       <c r="D34" t="n">
-        <v>0.388358</v>
+        <v>0.388864</v>
       </c>
       <c r="E34" t="n">
-        <v>0.151646</v>
+        <v>0.151387</v>
       </c>
       <c r="F34" t="n">
-        <v>0.265592</v>
+        <v>0.265874</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.175233</v>
+        <v>0.166367</v>
       </c>
       <c r="C35" t="n">
-        <v>0.276916</v>
+        <v>0.277158</v>
       </c>
       <c r="D35" t="n">
-        <v>0.496508</v>
+        <v>0.494317</v>
       </c>
       <c r="E35" t="n">
-        <v>0.142062</v>
+        <v>0.143524</v>
       </c>
       <c r="F35" t="n">
-        <v>0.26296</v>
+        <v>0.264589</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.170225</v>
+        <v>0.167984</v>
       </c>
       <c r="C36" t="n">
-        <v>0.278289</v>
+        <v>0.276419</v>
       </c>
       <c r="D36" t="n">
-        <v>0.483812</v>
+        <v>0.482932</v>
       </c>
       <c r="E36" t="n">
-        <v>0.147909</v>
+        <v>0.152727</v>
       </c>
       <c r="F36" t="n">
-        <v>0.263584</v>
+        <v>0.264082</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.168969</v>
+        <v>0.171112</v>
       </c>
       <c r="C37" t="n">
-        <v>0.278907</v>
+        <v>0.278869</v>
       </c>
       <c r="D37" t="n">
-        <v>0.473606</v>
+        <v>0.472274</v>
       </c>
       <c r="E37" t="n">
-        <v>0.230759</v>
+        <v>0.230507</v>
       </c>
       <c r="F37" t="n">
-        <v>0.349105</v>
+        <v>0.348529</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243194</v>
+        <v>0.245038</v>
       </c>
       <c r="C38" t="n">
-        <v>0.350075</v>
+        <v>0.34938</v>
       </c>
       <c r="D38" t="n">
-        <v>0.462643</v>
+        <v>0.462094</v>
       </c>
       <c r="E38" t="n">
-        <v>0.221852</v>
+        <v>0.223297</v>
       </c>
       <c r="F38" t="n">
-        <v>0.339903</v>
+        <v>0.33897</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.234058</v>
+        <v>0.234985</v>
       </c>
       <c r="C39" t="n">
-        <v>0.340823</v>
+        <v>0.341346</v>
       </c>
       <c r="D39" t="n">
-        <v>0.45315</v>
+        <v>0.453131</v>
       </c>
       <c r="E39" t="n">
-        <v>0.211521</v>
+        <v>0.212408</v>
       </c>
       <c r="F39" t="n">
-        <v>0.330409</v>
+        <v>0.33161</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226098</v>
+        <v>0.228371</v>
       </c>
       <c r="C40" t="n">
-        <v>0.336017</v>
+        <v>0.334945</v>
       </c>
       <c r="D40" t="n">
-        <v>0.445165</v>
+        <v>0.445554</v>
       </c>
       <c r="E40" t="n">
-        <v>0.205337</v>
+        <v>0.205283</v>
       </c>
       <c r="F40" t="n">
-        <v>0.323356</v>
+        <v>0.322876</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.218524</v>
+        <v>0.219574</v>
       </c>
       <c r="C41" t="n">
-        <v>0.326927</v>
+        <v>0.326143</v>
       </c>
       <c r="D41" t="n">
-        <v>0.438321</v>
+        <v>0.439957</v>
       </c>
       <c r="E41" t="n">
-        <v>0.196831</v>
+        <v>0.198448</v>
       </c>
       <c r="F41" t="n">
-        <v>0.315767</v>
+        <v>0.316049</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209975</v>
+        <v>0.212114</v>
       </c>
       <c r="C42" t="n">
-        <v>0.319974</v>
+        <v>0.321169</v>
       </c>
       <c r="D42" t="n">
-        <v>0.432305</v>
+        <v>0.433134</v>
       </c>
       <c r="E42" t="n">
-        <v>0.189713</v>
+        <v>0.191086</v>
       </c>
       <c r="F42" t="n">
-        <v>0.308779</v>
+        <v>0.309683</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202797</v>
+        <v>0.203426</v>
       </c>
       <c r="C43" t="n">
-        <v>0.314101</v>
+        <v>0.313514</v>
       </c>
       <c r="D43" t="n">
-        <v>0.424469</v>
+        <v>0.423965</v>
       </c>
       <c r="E43" t="n">
-        <v>0.184271</v>
+        <v>0.184248</v>
       </c>
       <c r="F43" t="n">
-        <v>0.302039</v>
+        <v>0.303095</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.195757</v>
+        <v>0.196983</v>
       </c>
       <c r="C44" t="n">
-        <v>0.307667</v>
+        <v>0.308214</v>
       </c>
       <c r="D44" t="n">
-        <v>0.420246</v>
+        <v>0.420534</v>
       </c>
       <c r="E44" t="n">
-        <v>0.177413</v>
+        <v>0.177124</v>
       </c>
       <c r="F44" t="n">
-        <v>0.29633</v>
+        <v>0.296897</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.19079</v>
+        <v>0.191254</v>
       </c>
       <c r="C45" t="n">
-        <v>0.302899</v>
+        <v>0.303534</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4154</v>
+        <v>0.416455</v>
       </c>
       <c r="E45" t="n">
-        <v>0.171006</v>
+        <v>0.171661</v>
       </c>
       <c r="F45" t="n">
-        <v>0.291546</v>
+        <v>0.29137</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.184726</v>
+        <v>0.185056</v>
       </c>
       <c r="C46" t="n">
-        <v>0.298822</v>
+        <v>0.299021</v>
       </c>
       <c r="D46" t="n">
-        <v>0.408608</v>
+        <v>0.412609</v>
       </c>
       <c r="E46" t="n">
-        <v>0.165724</v>
+        <v>0.166285</v>
       </c>
       <c r="F46" t="n">
-        <v>0.287</v>
+        <v>0.28624</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.183102</v>
+        <v>0.181462</v>
       </c>
       <c r="C47" t="n">
-        <v>0.296852</v>
+        <v>0.295173</v>
       </c>
       <c r="D47" t="n">
-        <v>0.408694</v>
+        <v>0.40704</v>
       </c>
       <c r="E47" t="n">
-        <v>0.163325</v>
+        <v>0.161282</v>
       </c>
       <c r="F47" t="n">
-        <v>0.28444</v>
+        <v>0.282514</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.17824</v>
+        <v>0.177807</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294452</v>
+        <v>0.290986</v>
       </c>
       <c r="D48" t="n">
-        <v>0.403178</v>
+        <v>0.401718</v>
       </c>
       <c r="E48" t="n">
-        <v>0.158183</v>
+        <v>0.160174</v>
       </c>
       <c r="F48" t="n">
-        <v>0.27878</v>
+        <v>0.280876</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173864</v>
+        <v>0.177452</v>
       </c>
       <c r="C49" t="n">
-        <v>0.29023</v>
+        <v>0.292405</v>
       </c>
       <c r="D49" t="n">
-        <v>0.398965</v>
+        <v>0.401529</v>
       </c>
       <c r="E49" t="n">
-        <v>0.155501</v>
+        <v>0.157566</v>
       </c>
       <c r="F49" t="n">
-        <v>0.27736</v>
+        <v>0.279094</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173197</v>
+        <v>0.176491</v>
       </c>
       <c r="C50" t="n">
-        <v>0.289968</v>
+        <v>0.2893</v>
       </c>
       <c r="D50" t="n">
-        <v>0.504856</v>
+        <v>0.505654</v>
       </c>
       <c r="E50" t="n">
-        <v>0.154034</v>
+        <v>0.154649</v>
       </c>
       <c r="F50" t="n">
-        <v>0.276546</v>
+        <v>0.277072</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174076</v>
+        <v>0.174825</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292693</v>
+        <v>0.29174</v>
       </c>
       <c r="D51" t="n">
-        <v>0.493566</v>
+        <v>0.49288</v>
       </c>
       <c r="E51" t="n">
-        <v>0.239345</v>
+        <v>0.239891</v>
       </c>
       <c r="F51" t="n">
-        <v>0.359198</v>
+        <v>0.358108</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176272</v>
+        <v>0.177475</v>
       </c>
       <c r="C52" t="n">
-        <v>0.29727</v>
+        <v>0.295748</v>
       </c>
       <c r="D52" t="n">
-        <v>0.483909</v>
+        <v>0.483031</v>
       </c>
       <c r="E52" t="n">
-        <v>0.230094</v>
+        <v>0.23042</v>
       </c>
       <c r="F52" t="n">
-        <v>0.349798</v>
+        <v>0.350731</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240634</v>
+        <v>0.243128</v>
       </c>
       <c r="C53" t="n">
-        <v>0.356365</v>
+        <v>0.354108</v>
       </c>
       <c r="D53" t="n">
-        <v>0.472541</v>
+        <v>0.474382</v>
       </c>
       <c r="E53" t="n">
-        <v>0.221372</v>
+        <v>0.220652</v>
       </c>
       <c r="F53" t="n">
-        <v>0.342102</v>
+        <v>0.342055</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233251</v>
+        <v>0.233287</v>
       </c>
       <c r="C54" t="n">
-        <v>0.347639</v>
+        <v>0.346735</v>
       </c>
       <c r="D54" t="n">
-        <v>0.465164</v>
+        <v>0.465352</v>
       </c>
       <c r="E54" t="n">
-        <v>0.213948</v>
+        <v>0.212998</v>
       </c>
       <c r="F54" t="n">
-        <v>0.33394</v>
+        <v>0.334032</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.224862</v>
+        <v>0.225183</v>
       </c>
       <c r="C55" t="n">
-        <v>0.34308</v>
+        <v>0.342167</v>
       </c>
       <c r="D55" t="n">
-        <v>0.459369</v>
+        <v>0.458832</v>
       </c>
       <c r="E55" t="n">
-        <v>0.203749</v>
+        <v>0.203934</v>
       </c>
       <c r="F55" t="n">
-        <v>0.32892</v>
+        <v>0.328473</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217557</v>
+        <v>0.217696</v>
       </c>
       <c r="C56" t="n">
-        <v>0.335038</v>
+        <v>0.33478</v>
       </c>
       <c r="D56" t="n">
-        <v>0.450415</v>
+        <v>0.452201</v>
       </c>
       <c r="E56" t="n">
-        <v>0.19731</v>
+        <v>0.19763</v>
       </c>
       <c r="F56" t="n">
-        <v>0.321669</v>
+        <v>0.321664</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.210002</v>
+        <v>0.209939</v>
       </c>
       <c r="C57" t="n">
-        <v>0.33034</v>
+        <v>0.328216</v>
       </c>
       <c r="D57" t="n">
-        <v>0.444402</v>
+        <v>0.444413</v>
       </c>
       <c r="E57" t="n">
-        <v>0.18942</v>
+        <v>0.190135</v>
       </c>
       <c r="F57" t="n">
-        <v>0.315066</v>
+        <v>0.314958</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.202682</v>
+        <v>0.203506</v>
       </c>
       <c r="C58" t="n">
-        <v>0.322901</v>
+        <v>0.322621</v>
       </c>
       <c r="D58" t="n">
-        <v>0.437848</v>
+        <v>0.438421</v>
       </c>
       <c r="E58" t="n">
-        <v>0.184595</v>
+        <v>0.183535</v>
       </c>
       <c r="F58" t="n">
-        <v>0.308935</v>
+        <v>0.308666</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196319</v>
+        <v>0.197302</v>
       </c>
       <c r="C59" t="n">
-        <v>0.319054</v>
+        <v>0.31703</v>
       </c>
       <c r="D59" t="n">
-        <v>0.433899</v>
+        <v>0.432875</v>
       </c>
       <c r="E59" t="n">
-        <v>0.176924</v>
+        <v>0.178061</v>
       </c>
       <c r="F59" t="n">
-        <v>0.303596</v>
+        <v>0.303546</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.191205</v>
+        <v>0.191566</v>
       </c>
       <c r="C60" t="n">
-        <v>0.313262</v>
+        <v>0.312321</v>
       </c>
       <c r="D60" t="n">
-        <v>0.428506</v>
+        <v>0.428732</v>
       </c>
       <c r="E60" t="n">
-        <v>0.172565</v>
+        <v>0.172426</v>
       </c>
       <c r="F60" t="n">
-        <v>0.298487</v>
+        <v>0.298125</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.186379</v>
+        <v>0.186214</v>
       </c>
       <c r="C61" t="n">
-        <v>0.309498</v>
+        <v>0.308148</v>
       </c>
       <c r="D61" t="n">
-        <v>0.425335</v>
+        <v>0.427897</v>
       </c>
       <c r="E61" t="n">
-        <v>0.166726</v>
+        <v>0.167443</v>
       </c>
       <c r="F61" t="n">
-        <v>0.293691</v>
+        <v>0.293299</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181994</v>
+        <v>0.182061</v>
       </c>
       <c r="C62" t="n">
-        <v>0.307375</v>
+        <v>0.305085</v>
       </c>
       <c r="D62" t="n">
-        <v>0.419878</v>
+        <v>0.422026</v>
       </c>
       <c r="E62" t="n">
-        <v>0.163598</v>
+        <v>0.163856</v>
       </c>
       <c r="F62" t="n">
-        <v>0.290497</v>
+        <v>0.290698</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178742</v>
+        <v>0.17879</v>
       </c>
       <c r="C63" t="n">
-        <v>0.30573</v>
+        <v>0.303214</v>
       </c>
       <c r="D63" t="n">
-        <v>0.419578</v>
+        <v>0.419812</v>
       </c>
       <c r="E63" t="n">
-        <v>0.160652</v>
+        <v>0.160809</v>
       </c>
       <c r="F63" t="n">
-        <v>0.287571</v>
+        <v>0.288169</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177125</v>
+        <v>0.177395</v>
       </c>
       <c r="C64" t="n">
-        <v>0.303924</v>
+        <v>0.301853</v>
       </c>
       <c r="D64" t="n">
-        <v>0.543439</v>
+        <v>0.5427959999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>0.159143</v>
+        <v>0.159131</v>
       </c>
       <c r="F64" t="n">
-        <v>0.287198</v>
+        <v>0.286785</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178263</v>
+        <v>0.178082</v>
       </c>
       <c r="C65" t="n">
-        <v>0.303885</v>
+        <v>0.301976</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5319120000000001</v>
+        <v>0.533711</v>
       </c>
       <c r="E65" t="n">
-        <v>0.159212</v>
+        <v>0.159532</v>
       </c>
       <c r="F65" t="n">
-        <v>0.288688</v>
+        <v>0.287787</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180341</v>
+        <v>0.180662</v>
       </c>
       <c r="C66" t="n">
-        <v>0.307868</v>
+        <v>0.3063</v>
       </c>
       <c r="D66" t="n">
-        <v>0.522289</v>
+        <v>0.522467</v>
       </c>
       <c r="E66" t="n">
-        <v>0.241405</v>
+        <v>0.241911</v>
       </c>
       <c r="F66" t="n">
-        <v>0.367079</v>
+        <v>0.367249</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.245623</v>
+        <v>0.244966</v>
       </c>
       <c r="C67" t="n">
-        <v>0.37546</v>
+        <v>0.372149</v>
       </c>
       <c r="D67" t="n">
-        <v>0.513082</v>
+        <v>0.514879</v>
       </c>
       <c r="E67" t="n">
-        <v>0.232778</v>
+        <v>0.233019</v>
       </c>
       <c r="F67" t="n">
-        <v>0.35959</v>
+        <v>0.359114</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.23755</v>
+        <v>0.236604</v>
       </c>
       <c r="C68" t="n">
-        <v>0.367354</v>
+        <v>0.364744</v>
       </c>
       <c r="D68" t="n">
-        <v>0.505798</v>
+        <v>0.507064</v>
       </c>
       <c r="E68" t="n">
-        <v>0.223341</v>
+        <v>0.223383</v>
       </c>
       <c r="F68" t="n">
-        <v>0.351703</v>
+        <v>0.350619</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.228941</v>
+        <v>0.228341</v>
       </c>
       <c r="C69" t="n">
-        <v>0.362092</v>
+        <v>0.360768</v>
       </c>
       <c r="D69" t="n">
-        <v>0.497941</v>
+        <v>0.501965</v>
       </c>
       <c r="E69" t="n">
-        <v>0.214842</v>
+        <v>0.215819</v>
       </c>
       <c r="F69" t="n">
-        <v>0.344698</v>
+        <v>0.344753</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.220714</v>
+        <v>0.221559</v>
       </c>
       <c r="C70" t="n">
-        <v>0.355248</v>
+        <v>0.353072</v>
       </c>
       <c r="D70" t="n">
-        <v>0.493013</v>
+        <v>0.493355</v>
       </c>
       <c r="E70" t="n">
-        <v>0.207067</v>
+        <v>0.206521</v>
       </c>
       <c r="F70" t="n">
-        <v>0.337603</v>
+        <v>0.337529</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213934</v>
+        <v>0.213999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.348702</v>
+        <v>0.345438</v>
       </c>
       <c r="D71" t="n">
-        <v>0.488556</v>
+        <v>0.488857</v>
       </c>
       <c r="E71" t="n">
-        <v>0.199518</v>
+        <v>0.200117</v>
       </c>
       <c r="F71" t="n">
-        <v>0.331595</v>
+        <v>0.330905</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.206796</v>
+        <v>0.206631</v>
       </c>
       <c r="C72" t="n">
-        <v>0.34289</v>
+        <v>0.33985</v>
       </c>
       <c r="D72" t="n">
-        <v>0.484032</v>
+        <v>0.484508</v>
       </c>
       <c r="E72" t="n">
-        <v>0.193183</v>
+        <v>0.191557</v>
       </c>
       <c r="F72" t="n">
-        <v>0.323823</v>
+        <v>0.323835</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200581</v>
+        <v>0.200945</v>
       </c>
       <c r="C73" t="n">
-        <v>0.334567</v>
+        <v>0.3353</v>
       </c>
       <c r="D73" t="n">
-        <v>0.478</v>
+        <v>0.480537</v>
       </c>
       <c r="E73" t="n">
-        <v>0.185825</v>
+        <v>0.186244</v>
       </c>
       <c r="F73" t="n">
-        <v>0.318746</v>
+        <v>0.317802</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194308</v>
+        <v>0.195074</v>
       </c>
       <c r="C74" t="n">
-        <v>0.330899</v>
+        <v>0.328086</v>
       </c>
       <c r="D74" t="n">
-        <v>0.494607</v>
+        <v>0.493333</v>
       </c>
       <c r="E74" t="n">
-        <v>0.180148</v>
+        <v>0.179912</v>
       </c>
       <c r="F74" t="n">
-        <v>0.312583</v>
+        <v>0.312204</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189275</v>
+        <v>0.189381</v>
       </c>
       <c r="C75" t="n">
-        <v>0.326758</v>
+        <v>0.32453</v>
       </c>
       <c r="D75" t="n">
-        <v>0.488912</v>
+        <v>0.488552</v>
       </c>
       <c r="E75" t="n">
-        <v>0.17494</v>
+        <v>0.174459</v>
       </c>
       <c r="F75" t="n">
-        <v>0.308569</v>
+        <v>0.307312</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.184926</v>
+        <v>0.184363</v>
       </c>
       <c r="C76" t="n">
-        <v>0.321887</v>
+        <v>0.320411</v>
       </c>
       <c r="D76" t="n">
-        <v>0.485998</v>
+        <v>0.484647</v>
       </c>
       <c r="E76" t="n">
-        <v>0.170897</v>
+        <v>0.1713</v>
       </c>
       <c r="F76" t="n">
-        <v>0.305284</v>
+        <v>0.303508</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182166</v>
+        <v>0.182097</v>
       </c>
       <c r="C77" t="n">
-        <v>0.320315</v>
+        <v>0.318356</v>
       </c>
       <c r="D77" t="n">
-        <v>0.483329</v>
+        <v>0.482163</v>
       </c>
       <c r="E77" t="n">
-        <v>0.166856</v>
+        <v>0.167362</v>
       </c>
       <c r="F77" t="n">
-        <v>0.302413</v>
+        <v>0.300818</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.180028</v>
+        <v>0.178826</v>
       </c>
       <c r="C78" t="n">
-        <v>0.32012</v>
+        <v>0.31817</v>
       </c>
       <c r="D78" t="n">
-        <v>0.662324</v>
+        <v>0.659558</v>
       </c>
       <c r="E78" t="n">
-        <v>0.165321</v>
+        <v>0.165142</v>
       </c>
       <c r="F78" t="n">
-        <v>0.303017</v>
+        <v>0.301729</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180301</v>
+        <v>0.178607</v>
       </c>
       <c r="C79" t="n">
-        <v>0.322153</v>
+        <v>0.319425</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6500280000000001</v>
+        <v>0.650674</v>
       </c>
       <c r="E79" t="n">
-        <v>0.164911</v>
+        <v>0.164415</v>
       </c>
       <c r="F79" t="n">
-        <v>0.303287</v>
+        <v>0.302688</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.182458</v>
+        <v>0.181626</v>
       </c>
       <c r="C80" t="n">
-        <v>0.32432</v>
+        <v>0.322465</v>
       </c>
       <c r="D80" t="n">
-        <v>0.642648</v>
+        <v>0.639325</v>
       </c>
       <c r="E80" t="n">
-        <v>0.23809</v>
+        <v>0.238566</v>
       </c>
       <c r="F80" t="n">
-        <v>0.383778</v>
+        <v>0.383285</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.260363</v>
+        <v>0.259268</v>
       </c>
       <c r="C81" t="n">
-        <v>0.395821</v>
+        <v>0.393419</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6333</v>
+        <v>0.632047</v>
       </c>
       <c r="E81" t="n">
-        <v>0.23064</v>
+        <v>0.22876</v>
       </c>
       <c r="F81" t="n">
-        <v>0.378234</v>
+        <v>0.376632</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251813</v>
+        <v>0.250797</v>
       </c>
       <c r="C82" t="n">
-        <v>0.391552</v>
+        <v>0.389096</v>
       </c>
       <c r="D82" t="n">
-        <v>0.628091</v>
+        <v>0.625568</v>
       </c>
       <c r="E82" t="n">
-        <v>0.222633</v>
+        <v>0.221672</v>
       </c>
       <c r="F82" t="n">
-        <v>0.371937</v>
+        <v>0.371176</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243432</v>
+        <v>0.242276</v>
       </c>
       <c r="C83" t="n">
-        <v>0.386716</v>
+        <v>0.384319</v>
       </c>
       <c r="D83" t="n">
-        <v>0.620712</v>
+        <v>0.621094</v>
       </c>
       <c r="E83" t="n">
-        <v>0.214407</v>
+        <v>0.214781</v>
       </c>
       <c r="F83" t="n">
-        <v>0.366051</v>
+        <v>0.364933</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235635</v>
+        <v>0.234157</v>
       </c>
       <c r="C84" t="n">
-        <v>0.382553</v>
+        <v>0.379132</v>
       </c>
       <c r="D84" t="n">
-        <v>0.61685</v>
+        <v>0.618715</v>
       </c>
       <c r="E84" t="n">
-        <v>0.207178</v>
+        <v>0.206467</v>
       </c>
       <c r="F84" t="n">
-        <v>0.362081</v>
+        <v>0.359696</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.228201</v>
+        <v>0.227659</v>
       </c>
       <c r="C85" t="n">
-        <v>0.377648</v>
+        <v>0.375767</v>
       </c>
       <c r="D85" t="n">
-        <v>0.616151</v>
+        <v>0.614854</v>
       </c>
       <c r="E85" t="n">
-        <v>0.199038</v>
+        <v>0.199488</v>
       </c>
       <c r="F85" t="n">
-        <v>0.355345</v>
+        <v>0.352951</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.221792</v>
+        <v>0.220355</v>
       </c>
       <c r="C86" t="n">
-        <v>0.37248</v>
+        <v>0.368929</v>
       </c>
       <c r="D86" t="n">
-        <v>0.614102</v>
+        <v>0.615141</v>
       </c>
       <c r="E86" t="n">
-        <v>0.193542</v>
+        <v>0.193244</v>
       </c>
       <c r="F86" t="n">
-        <v>0.349334</v>
+        <v>0.347748</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.215043</v>
+        <v>0.214107</v>
       </c>
       <c r="C87" t="n">
-        <v>0.366441</v>
+        <v>0.365235</v>
       </c>
       <c r="D87" t="n">
-        <v>0.613528</v>
+        <v>0.615283</v>
       </c>
       <c r="E87" t="n">
-        <v>0.187594</v>
+        <v>0.186705</v>
       </c>
       <c r="F87" t="n">
-        <v>0.343803</v>
+        <v>0.341858</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208269</v>
+        <v>0.208192</v>
       </c>
       <c r="C88" t="n">
-        <v>0.362981</v>
+        <v>0.360274</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6135659999999999</v>
+        <v>0.614229</v>
       </c>
       <c r="E88" t="n">
-        <v>0.18175</v>
+        <v>0.180665</v>
       </c>
       <c r="F88" t="n">
-        <v>0.339792</v>
+        <v>0.338031</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203164</v>
+        <v>0.202775</v>
       </c>
       <c r="C89" t="n">
-        <v>0.358387</v>
+        <v>0.356257</v>
       </c>
       <c r="D89" t="n">
-        <v>0.62829</v>
+        <v>0.629216</v>
       </c>
       <c r="E89" t="n">
-        <v>0.175857</v>
+        <v>0.175967</v>
       </c>
       <c r="F89" t="n">
-        <v>0.334768</v>
+        <v>0.332925</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.198461</v>
+        <v>0.196897</v>
       </c>
       <c r="C90" t="n">
-        <v>0.354175</v>
+        <v>0.351943</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6319090000000001</v>
+        <v>0.631932</v>
       </c>
       <c r="E90" t="n">
-        <v>0.171414</v>
+        <v>0.17144</v>
       </c>
       <c r="F90" t="n">
-        <v>0.330743</v>
+        <v>0.328844</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.194389</v>
+        <v>0.192848</v>
       </c>
       <c r="C91" t="n">
-        <v>0.350394</v>
+        <v>0.348522</v>
       </c>
       <c r="D91" t="n">
-        <v>0.633671</v>
+        <v>0.636906</v>
       </c>
       <c r="E91" t="n">
-        <v>0.168359</v>
+        <v>0.168399</v>
       </c>
       <c r="F91" t="n">
-        <v>0.325758</v>
+        <v>0.325921</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190835</v>
+        <v>0.189648</v>
       </c>
       <c r="C92" t="n">
-        <v>0.350585</v>
+        <v>0.347746</v>
       </c>
       <c r="D92" t="n">
-        <v>0.851027</v>
+        <v>0.846681</v>
       </c>
       <c r="E92" t="n">
-        <v>0.165829</v>
+        <v>0.165355</v>
       </c>
       <c r="F92" t="n">
-        <v>0.32614</v>
+        <v>0.324354</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189997</v>
+        <v>0.189447</v>
       </c>
       <c r="C93" t="n">
-        <v>0.350229</v>
+        <v>0.347936</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8459</v>
+        <v>0.835997</v>
       </c>
       <c r="E93" t="n">
-        <v>0.16636</v>
+        <v>0.166017</v>
       </c>
       <c r="F93" t="n">
-        <v>0.326532</v>
+        <v>0.326854</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190909</v>
+        <v>0.190282</v>
       </c>
       <c r="C94" t="n">
-        <v>0.353054</v>
+        <v>0.350917</v>
       </c>
       <c r="D94" t="n">
-        <v>0.840516</v>
+        <v>0.840852</v>
       </c>
       <c r="E94" t="n">
-        <v>0.252503</v>
+        <v>0.250957</v>
       </c>
       <c r="F94" t="n">
-        <v>0.452771</v>
+        <v>0.451922</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.271472</v>
+        <v>0.271061</v>
       </c>
       <c r="C95" t="n">
-        <v>0.467745</v>
+        <v>0.466493</v>
       </c>
       <c r="D95" t="n">
-        <v>0.83549</v>
+        <v>0.835892</v>
       </c>
       <c r="E95" t="n">
-        <v>0.244516</v>
+        <v>0.243668</v>
       </c>
       <c r="F95" t="n">
-        <v>0.451039</v>
+        <v>0.450164</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265409</v>
+        <v>0.264794</v>
       </c>
       <c r="C96" t="n">
-        <v>0.467826</v>
+        <v>0.466313</v>
       </c>
       <c r="D96" t="n">
-        <v>0.831855</v>
+        <v>0.8313739999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>0.236168</v>
+        <v>0.235977</v>
       </c>
       <c r="F96" t="n">
-        <v>0.446845</v>
+        <v>0.444898</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258067</v>
+        <v>0.258195</v>
       </c>
       <c r="C97" t="n">
-        <v>0.464694</v>
+        <v>0.462351</v>
       </c>
       <c r="D97" t="n">
-        <v>0.836458</v>
+        <v>0.838045</v>
       </c>
       <c r="E97" t="n">
-        <v>0.228539</v>
+        <v>0.228003</v>
       </c>
       <c r="F97" t="n">
-        <v>0.442428</v>
+        <v>0.441445</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251013</v>
+        <v>0.252004</v>
       </c>
       <c r="C98" t="n">
-        <v>0.460302</v>
+        <v>0.458338</v>
       </c>
       <c r="D98" t="n">
-        <v>0.838137</v>
+        <v>0.838039</v>
       </c>
       <c r="E98" t="n">
-        <v>0.220782</v>
+        <v>0.220299</v>
       </c>
       <c r="F98" t="n">
-        <v>0.436858</v>
+        <v>0.435629</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245103</v>
+        <v>0.245435</v>
       </c>
       <c r="C99" t="n">
-        <v>0.454575</v>
+        <v>0.45336</v>
       </c>
       <c r="D99" t="n">
-        <v>0.837178</v>
+        <v>0.83527</v>
       </c>
       <c r="E99" t="n">
-        <v>0.213917</v>
+        <v>0.213533</v>
       </c>
       <c r="F99" t="n">
-        <v>0.432356</v>
+        <v>0.430775</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239064</v>
+        <v>0.238989</v>
       </c>
       <c r="C100" t="n">
-        <v>0.45132</v>
+        <v>0.449637</v>
       </c>
       <c r="D100" t="n">
-        <v>0.837561</v>
+        <v>0.912062</v>
       </c>
       <c r="E100" t="n">
-        <v>0.207118</v>
+        <v>0.207306</v>
       </c>
       <c r="F100" t="n">
-        <v>0.428359</v>
+        <v>0.427684</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233824</v>
+        <v>0.233321</v>
       </c>
       <c r="C101" t="n">
-        <v>0.447527</v>
+        <v>0.445752</v>
       </c>
       <c r="D101" t="n">
-        <v>0.841661</v>
+        <v>0.842809</v>
       </c>
       <c r="E101" t="n">
-        <v>0.201694</v>
+        <v>0.200841</v>
       </c>
       <c r="F101" t="n">
-        <v>0.422744</v>
+        <v>0.420882</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228058</v>
+        <v>0.227861</v>
       </c>
       <c r="C102" t="n">
-        <v>0.442373</v>
+        <v>0.442019</v>
       </c>
       <c r="D102" t="n">
-        <v>0.844123</v>
+        <v>0.846077</v>
       </c>
       <c r="E102" t="n">
-        <v>0.195473</v>
+        <v>0.195141</v>
       </c>
       <c r="F102" t="n">
-        <v>0.419263</v>
+        <v>0.417903</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222653</v>
+        <v>0.223019</v>
       </c>
       <c r="C103" t="n">
-        <v>0.439827</v>
+        <v>0.438054</v>
       </c>
       <c r="D103" t="n">
-        <v>0.854358</v>
+        <v>0.855474</v>
       </c>
       <c r="E103" t="n">
-        <v>0.19024</v>
+        <v>0.190388</v>
       </c>
       <c r="F103" t="n">
-        <v>0.41594</v>
+        <v>0.41403</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218119</v>
+        <v>0.217743</v>
       </c>
       <c r="C104" t="n">
-        <v>0.437423</v>
+        <v>0.43534</v>
       </c>
       <c r="D104" t="n">
-        <v>0.859584</v>
+        <v>0.861996</v>
       </c>
       <c r="E104" t="n">
-        <v>0.18561</v>
+        <v>0.185809</v>
       </c>
       <c r="F104" t="n">
-        <v>0.411904</v>
+        <v>0.411472</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214046</v>
+        <v>0.21401</v>
       </c>
       <c r="C105" t="n">
-        <v>0.436226</v>
+        <v>0.43406</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8670099999999999</v>
+        <v>0.869368</v>
       </c>
       <c r="E105" t="n">
-        <v>0.181744</v>
+        <v>0.182238</v>
       </c>
       <c r="F105" t="n">
-        <v>0.410983</v>
+        <v>0.407867</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210739</v>
+        <v>0.210846</v>
       </c>
       <c r="C106" t="n">
-        <v>0.43441</v>
+        <v>0.432575</v>
       </c>
       <c r="D106" t="n">
-        <v>0.877198</v>
+        <v>0.878872</v>
       </c>
       <c r="E106" t="n">
-        <v>0.179163</v>
+        <v>0.179321</v>
       </c>
       <c r="F106" t="n">
-        <v>0.409273</v>
+        <v>0.406567</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208973</v>
+        <v>0.208464</v>
       </c>
       <c r="C107" t="n">
-        <v>0.435263</v>
+        <v>0.433207</v>
       </c>
       <c r="D107" t="n">
-        <v>1.12144</v>
+        <v>1.12302</v>
       </c>
       <c r="E107" t="n">
-        <v>0.178441</v>
+        <v>0.177952</v>
       </c>
       <c r="F107" t="n">
-        <v>0.409022</v>
+        <v>0.407229</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208558</v>
+        <v>0.208328</v>
       </c>
       <c r="C108" t="n">
-        <v>0.438072</v>
+        <v>0.435801</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11263</v>
+        <v>1.11494</v>
       </c>
       <c r="E108" t="n">
-        <v>0.267656</v>
+        <v>0.267691</v>
       </c>
       <c r="F108" t="n">
-        <v>0.565109</v>
+        <v>0.566935</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.21085</v>
+        <v>0.210503</v>
       </c>
       <c r="C109" t="n">
-        <v>0.443346</v>
+        <v>0.441703</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10331</v>
+        <v>1.10387</v>
       </c>
       <c r="E109" t="n">
-        <v>0.26076</v>
+        <v>0.261279</v>
       </c>
       <c r="F109" t="n">
-        <v>0.564418</v>
+        <v>0.56476</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.284466</v>
+        <v>0.285284</v>
       </c>
       <c r="C110" t="n">
-        <v>0.581176</v>
+        <v>0.580012</v>
       </c>
       <c r="D110" t="n">
-        <v>1.09533</v>
+        <v>1.10095</v>
       </c>
       <c r="E110" t="n">
-        <v>0.253444</v>
+        <v>0.254653</v>
       </c>
       <c r="F110" t="n">
-        <v>0.557875</v>
+        <v>0.557543</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277498</v>
+        <v>0.278942</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5756019999999999</v>
+        <v>0.573139</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09491</v>
+        <v>1.09806</v>
       </c>
       <c r="E111" t="n">
-        <v>0.246486</v>
+        <v>0.246576</v>
       </c>
       <c r="F111" t="n">
-        <v>0.551544</v>
+        <v>0.5519230000000001</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.271402</v>
+        <v>0.272202</v>
       </c>
       <c r="C112" t="n">
-        <v>0.571723</v>
+        <v>0.5693550000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>1.0906</v>
+        <v>1.09617</v>
       </c>
       <c r="E112" t="n">
-        <v>0.23926</v>
+        <v>0.239549</v>
       </c>
       <c r="F112" t="n">
-        <v>0.546986</v>
+        <v>0.548048</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.265599</v>
+        <v>0.266178</v>
       </c>
       <c r="C113" t="n">
-        <v>0.565535</v>
+        <v>0.564422</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09198</v>
+        <v>1.09257</v>
       </c>
       <c r="E113" t="n">
-        <v>0.233317</v>
+        <v>0.233589</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5419349999999999</v>
+        <v>0.542835</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.259587</v>
+        <v>0.260948</v>
       </c>
       <c r="C114" t="n">
-        <v>0.559481</v>
+        <v>0.559352</v>
       </c>
       <c r="D114" t="n">
-        <v>1.0912</v>
+        <v>1.09235</v>
       </c>
       <c r="E114" t="n">
-        <v>0.226799</v>
+        <v>0.226976</v>
       </c>
       <c r="F114" t="n">
-        <v>0.536243</v>
+        <v>0.538791</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.254701</v>
+        <v>0.255569</v>
       </c>
       <c r="C115" t="n">
-        <v>0.554791</v>
+        <v>0.555884</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08969</v>
+        <v>1.09406</v>
       </c>
       <c r="E115" t="n">
-        <v>0.221302</v>
+        <v>0.221113</v>
       </c>
       <c r="F115" t="n">
-        <v>0.534366</v>
+        <v>0.532397</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.249441</v>
+        <v>0.250947</v>
       </c>
       <c r="C116" t="n">
-        <v>0.550939</v>
+        <v>0.551578</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09398</v>
+        <v>1.09426</v>
       </c>
       <c r="E116" t="n">
-        <v>0.215394</v>
+        <v>0.215575</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5291360000000001</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245067</v>
+        <v>0.245964</v>
       </c>
       <c r="C117" t="n">
-        <v>0.548283</v>
+        <v>0.547961</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09865</v>
+        <v>1.09895</v>
       </c>
       <c r="E117" t="n">
-        <v>0.210777</v>
+        <v>0.211025</v>
       </c>
       <c r="F117" t="n">
-        <v>0.525231</v>
+        <v>0.525227</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241047</v>
+        <v>0.241977</v>
       </c>
       <c r="C118" t="n">
-        <v>0.546277</v>
+        <v>0.546963</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1025</v>
+        <v>1.10431</v>
       </c>
       <c r="E118" t="n">
-        <v>0.206654</v>
+        <v>0.206665</v>
       </c>
       <c r="F118" t="n">
-        <v>0.523927</v>
+        <v>0.52327</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237235</v>
+        <v>0.237965</v>
       </c>
       <c r="C119" t="n">
-        <v>0.544679</v>
+        <v>0.543913</v>
       </c>
       <c r="D119" t="n">
-        <v>1.10692</v>
+        <v>1.10933</v>
       </c>
       <c r="E119" t="n">
-        <v>0.203211</v>
+        <v>0.203053</v>
       </c>
       <c r="F119" t="n">
-        <v>0.521297</v>
+        <v>0.521501</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234043</v>
+        <v>0.234726</v>
       </c>
       <c r="C120" t="n">
-        <v>0.544687</v>
+        <v>0.544147</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11493</v>
+        <v>1.11585</v>
       </c>
       <c r="E120" t="n">
-        <v>0.200402</v>
+        <v>0.199948</v>
       </c>
       <c r="F120" t="n">
-        <v>0.519594</v>
+        <v>0.518516</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.231991</v>
+        <v>0.232516</v>
       </c>
       <c r="C121" t="n">
-        <v>0.544812</v>
+        <v>0.544439</v>
       </c>
       <c r="D121" t="n">
-        <v>1.3778</v>
+        <v>1.38399</v>
       </c>
       <c r="E121" t="n">
-        <v>0.198799</v>
+        <v>0.198712</v>
       </c>
       <c r="F121" t="n">
-        <v>0.519222</v>
+        <v>0.519037</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.230916</v>
+        <v>0.231566</v>
       </c>
       <c r="C122" t="n">
-        <v>0.545897</v>
+        <v>0.546052</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36551</v>
+        <v>1.36878</v>
       </c>
       <c r="E122" t="n">
-        <v>0.199523</v>
+        <v>0.199363</v>
       </c>
       <c r="F122" t="n">
-        <v>0.521024</v>
+        <v>0.521456</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.23234</v>
+        <v>0.232775</v>
       </c>
       <c r="C123" t="n">
-        <v>0.550808</v>
+        <v>0.550345</v>
       </c>
       <c r="D123" t="n">
-        <v>1.35045</v>
+        <v>1.35709</v>
       </c>
       <c r="E123" t="n">
-        <v>0.283505</v>
+        <v>0.284472</v>
       </c>
       <c r="F123" t="n">
-        <v>0.684752</v>
+        <v>0.68931</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.31799</v>
+        <v>0.320495</v>
       </c>
       <c r="C124" t="n">
-        <v>0.711705</v>
+        <v>0.712219</v>
       </c>
       <c r="D124" t="n">
-        <v>1.3404</v>
+        <v>1.3412</v>
       </c>
       <c r="E124" t="n">
-        <v>0.277507</v>
+        <v>0.27766</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6838340000000001</v>
+        <v>0.684353</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311827</v>
+        <v>0.314323</v>
       </c>
       <c r="C125" t="n">
-        <v>0.702466</v>
+        <v>0.7083930000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32029</v>
+        <v>1.33113</v>
       </c>
       <c r="E125" t="n">
-        <v>0.273345</v>
+        <v>0.271897</v>
       </c>
       <c r="F125" t="n">
-        <v>0.664971</v>
+        <v>0.681527</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305275</v>
+        <v>0.308277</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6904940000000001</v>
+        <v>0.695919</v>
       </c>
       <c r="D126" t="n">
-        <v>1.3125</v>
+        <v>1.31022</v>
       </c>
       <c r="E126" t="n">
-        <v>0.266479</v>
+        <v>0.26788</v>
       </c>
       <c r="F126" t="n">
-        <v>0.676234</v>
+        <v>0.670457</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.300926</v>
+        <v>0.302555</v>
       </c>
       <c r="C127" t="n">
-        <v>0.698831</v>
+        <v>0.698031</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31434</v>
+        <v>1.31419</v>
       </c>
       <c r="E127" t="n">
-        <v>0.261808</v>
+        <v>0.262137</v>
       </c>
       <c r="F127" t="n">
-        <v>0.670506</v>
+        <v>0.671783</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295147</v>
+        <v>0.29753</v>
       </c>
       <c r="C128" t="n">
-        <v>0.696612</v>
+        <v>0.694962</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30629</v>
+        <v>1.30672</v>
       </c>
       <c r="E128" t="n">
-        <v>0.257024</v>
+        <v>0.257266</v>
       </c>
       <c r="F128" t="n">
-        <v>0.669051</v>
+        <v>0.670089</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290794</v>
+        <v>0.293189</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6926909999999999</v>
+        <v>0.692097</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30413</v>
+        <v>1.30417</v>
       </c>
       <c r="E129" t="n">
-        <v>0.252772</v>
+        <v>0.25265</v>
       </c>
       <c r="F129" t="n">
-        <v>0.6650199999999999</v>
+        <v>0.666672</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.285334</v>
+        <v>0.288941</v>
       </c>
       <c r="C130" t="n">
-        <v>0.689092</v>
+        <v>0.691534</v>
       </c>
       <c r="D130" t="n">
-        <v>1.29993</v>
+        <v>1.30204</v>
       </c>
       <c r="E130" t="n">
-        <v>0.248378</v>
+        <v>0.249582</v>
       </c>
       <c r="F130" t="n">
-        <v>0.664628</v>
+        <v>0.6642439999999999</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281768</v>
+        <v>0.284055</v>
       </c>
       <c r="C131" t="n">
-        <v>0.688669</v>
+        <v>0.688117</v>
       </c>
       <c r="D131" t="n">
-        <v>1.29838</v>
+        <v>1.30288</v>
       </c>
       <c r="E131" t="n">
-        <v>0.244854</v>
+        <v>0.245679</v>
       </c>
       <c r="F131" t="n">
-        <v>0.660138</v>
+        <v>0.661039</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278155</v>
+        <v>0.280278</v>
       </c>
       <c r="C132" t="n">
-        <v>0.685752</v>
+        <v>0.686931</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30151</v>
+        <v>1.30259</v>
       </c>
       <c r="E132" t="n">
-        <v>0.241198</v>
+        <v>0.241687</v>
       </c>
       <c r="F132" t="n">
-        <v>0.658211</v>
+        <v>0.660238</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275155</v>
+        <v>0.277097</v>
       </c>
       <c r="C133" t="n">
-        <v>0.685678</v>
+        <v>0.686206</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30139</v>
+        <v>1.30404</v>
       </c>
       <c r="E133" t="n">
-        <v>0.238555</v>
+        <v>0.239168</v>
       </c>
       <c r="F133" t="n">
-        <v>0.6593830000000001</v>
+        <v>0.659583</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.272832</v>
+        <v>0.273987</v>
       </c>
       <c r="C134" t="n">
-        <v>0.685574</v>
+        <v>0.687625</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30519</v>
+        <v>1.30787</v>
       </c>
       <c r="E134" t="n">
-        <v>0.236266</v>
+        <v>0.236525</v>
       </c>
       <c r="F134" t="n">
-        <v>0.657705</v>
+        <v>0.6608810000000001</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270761</v>
+        <v>0.272674</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6881</v>
+        <v>0.6878379999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>1.57953</v>
+        <v>1.58167</v>
       </c>
       <c r="E135" t="n">
-        <v>0.234775</v>
+        <v>0.234865</v>
       </c>
       <c r="F135" t="n">
-        <v>0.659538</v>
+        <v>0.660423</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.269928</v>
+        <v>0.271913</v>
       </c>
       <c r="C136" t="n">
-        <v>0.690072</v>
+        <v>0.691395</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55733</v>
+        <v>1.55896</v>
       </c>
       <c r="E136" t="n">
-        <v>0.234827</v>
+        <v>0.235308</v>
       </c>
       <c r="F136" t="n">
-        <v>0.6625</v>
+        <v>0.662288</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.27108</v>
+        <v>0.27234</v>
       </c>
       <c r="C137" t="n">
-        <v>0.695124</v>
+        <v>0.6952</v>
       </c>
       <c r="D137" t="n">
-        <v>1.53562</v>
+        <v>1.53855</v>
       </c>
       <c r="E137" t="n">
-        <v>0.333195</v>
+        <v>0.334033</v>
       </c>
       <c r="F137" t="n">
-        <v>0.844471</v>
+        <v>0.845944</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.361202</v>
+        <v>0.366458</v>
       </c>
       <c r="C138" t="n">
-        <v>0.874489</v>
+        <v>0.876076</v>
       </c>
       <c r="D138" t="n">
-        <v>1.51875</v>
+        <v>1.52016</v>
       </c>
       <c r="E138" t="n">
-        <v>0.330771</v>
+        <v>0.328191</v>
       </c>
       <c r="F138" t="n">
-        <v>0.84052</v>
+        <v>0.844293</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.356663</v>
+        <v>0.360061</v>
       </c>
       <c r="C139" t="n">
-        <v>0.873634</v>
+        <v>0.8765579999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>1.50337</v>
+        <v>1.50596</v>
       </c>
       <c r="E139" t="n">
-        <v>0.323249</v>
+        <v>0.32134</v>
       </c>
       <c r="F139" t="n">
-        <v>0.841903</v>
+        <v>0.8418949999999999</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.351036</v>
+        <v>0.354773</v>
       </c>
       <c r="C140" t="n">
-        <v>0.873583</v>
+        <v>0.874983</v>
       </c>
       <c r="D140" t="n">
-        <v>1.49047</v>
+        <v>1.48969</v>
       </c>
       <c r="E140" t="n">
-        <v>0.318001</v>
+        <v>0.318112</v>
       </c>
       <c r="F140" t="n">
-        <v>0.842551</v>
+        <v>0.842866</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.34609</v>
+        <v>0.348758</v>
       </c>
       <c r="C141" t="n">
-        <v>0.872959</v>
+        <v>0.875136</v>
       </c>
       <c r="D141" t="n">
-        <v>1.47694</v>
+        <v>1.47621</v>
       </c>
       <c r="E141" t="n">
-        <v>0.313793</v>
+        <v>0.313447</v>
       </c>
       <c r="F141" t="n">
-        <v>0.840533</v>
+        <v>0.8435820000000001</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.341221</v>
+        <v>0.34503</v>
       </c>
       <c r="C142" t="n">
-        <v>0.872543</v>
+        <v>0.87348</v>
       </c>
       <c r="D142" t="n">
-        <v>1.46355</v>
+        <v>1.46599</v>
       </c>
       <c r="E142" t="n">
-        <v>0.309576</v>
+        <v>0.309578</v>
       </c>
       <c r="F142" t="n">
-        <v>0.840484</v>
+        <v>0.843588</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.338379</v>
+        <v>0.339769</v>
       </c>
       <c r="C143" t="n">
-        <v>0.861972</v>
+        <v>0.874931</v>
       </c>
       <c r="D143" t="n">
-        <v>1.45407</v>
+        <v>1.44527</v>
       </c>
       <c r="E143" t="n">
-        <v>0.305729</v>
+        <v>0.30611</v>
       </c>
       <c r="F143" t="n">
-        <v>0.840342</v>
+        <v>0.827759</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.160869</v>
+        <v>0.165488</v>
       </c>
       <c r="C2" t="n">
-        <v>0.290802</v>
+        <v>0.285558</v>
       </c>
       <c r="D2" t="n">
-        <v>0.347537</v>
+        <v>0.346728</v>
       </c>
       <c r="E2" t="n">
-        <v>0.139976</v>
+        <v>0.142182</v>
       </c>
       <c r="F2" t="n">
-        <v>0.276912</v>
+        <v>0.2747</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.159574</v>
+        <v>0.162179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.285191</v>
+        <v>0.278106</v>
       </c>
       <c r="D3" t="n">
-        <v>0.345501</v>
+        <v>0.342854</v>
       </c>
       <c r="E3" t="n">
-        <v>0.134776</v>
+        <v>0.1334</v>
       </c>
       <c r="F3" t="n">
-        <v>0.276039</v>
+        <v>0.26703</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.148838</v>
+        <v>0.15875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.276695</v>
+        <v>0.282495</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341218</v>
+        <v>0.339768</v>
       </c>
       <c r="E4" t="n">
-        <v>0.12929</v>
+        <v>0.132588</v>
       </c>
       <c r="F4" t="n">
-        <v>0.27206</v>
+        <v>0.272339</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.146797</v>
+        <v>0.160728</v>
       </c>
       <c r="C5" t="n">
-        <v>0.270141</v>
+        <v>0.285623</v>
       </c>
       <c r="D5" t="n">
-        <v>0.339879</v>
+        <v>0.339257</v>
       </c>
       <c r="E5" t="n">
-        <v>0.129873</v>
+        <v>0.1303</v>
       </c>
       <c r="F5" t="n">
-        <v>0.259022</v>
+        <v>0.263756</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.149699</v>
+        <v>0.157424</v>
       </c>
       <c r="C6" t="n">
-        <v>0.270286</v>
+        <v>0.277327</v>
       </c>
       <c r="D6" t="n">
-        <v>0.336561</v>
+        <v>0.337888</v>
       </c>
       <c r="E6" t="n">
-        <v>0.124052</v>
+        <v>0.122169</v>
       </c>
       <c r="F6" t="n">
-        <v>0.265768</v>
+        <v>0.272002</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.136147</v>
+        <v>0.152216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.27066</v>
+        <v>0.273322</v>
       </c>
       <c r="D7" t="n">
-        <v>0.438459</v>
+        <v>0.440466</v>
       </c>
       <c r="E7" t="n">
-        <v>0.121844</v>
+        <v>0.117435</v>
       </c>
       <c r="F7" t="n">
-        <v>0.259749</v>
+        <v>0.254253</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.150852</v>
+        <v>0.154581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.277391</v>
+        <v>0.275109</v>
       </c>
       <c r="D8" t="n">
-        <v>0.44111</v>
+        <v>0.431674</v>
       </c>
       <c r="E8" t="n">
-        <v>0.118563</v>
+        <v>0.124497</v>
       </c>
       <c r="F8" t="n">
-        <v>0.261949</v>
+        <v>0.261315</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148176</v>
+        <v>0.161488</v>
       </c>
       <c r="C9" t="n">
-        <v>0.268243</v>
+        <v>0.278335</v>
       </c>
       <c r="D9" t="n">
-        <v>0.433257</v>
+        <v>0.422194</v>
       </c>
       <c r="E9" t="n">
-        <v>0.191322</v>
+        <v>0.182037</v>
       </c>
       <c r="F9" t="n">
-        <v>0.330563</v>
+        <v>0.325621</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.211979</v>
+        <v>0.20859</v>
       </c>
       <c r="C10" t="n">
-        <v>0.334566</v>
+        <v>0.329632</v>
       </c>
       <c r="D10" t="n">
-        <v>0.423484</v>
+        <v>0.421593</v>
       </c>
       <c r="E10" t="n">
-        <v>0.184717</v>
+        <v>0.191304</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3166</v>
+        <v>0.316259</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.200487</v>
+        <v>0.196144</v>
       </c>
       <c r="C11" t="n">
-        <v>0.323249</v>
+        <v>0.323133</v>
       </c>
       <c r="D11" t="n">
-        <v>0.410614</v>
+        <v>0.415004</v>
       </c>
       <c r="E11" t="n">
-        <v>0.16854</v>
+        <v>0.168453</v>
       </c>
       <c r="F11" t="n">
-        <v>0.306468</v>
+        <v>0.31157</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.199951</v>
+        <v>0.209603</v>
       </c>
       <c r="C12" t="n">
-        <v>0.310957</v>
+        <v>0.312044</v>
       </c>
       <c r="D12" t="n">
-        <v>0.406035</v>
+        <v>0.404705</v>
       </c>
       <c r="E12" t="n">
-        <v>0.171339</v>
+        <v>0.162464</v>
       </c>
       <c r="F12" t="n">
-        <v>0.304106</v>
+        <v>0.305266</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.189297</v>
+        <v>0.195407</v>
       </c>
       <c r="C13" t="n">
-        <v>0.305998</v>
+        <v>0.312014</v>
       </c>
       <c r="D13" t="n">
-        <v>0.396063</v>
+        <v>0.397849</v>
       </c>
       <c r="E13" t="n">
-        <v>0.167906</v>
+        <v>0.161659</v>
       </c>
       <c r="F13" t="n">
-        <v>0.293645</v>
+        <v>0.294057</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.184956</v>
+        <v>0.17599</v>
       </c>
       <c r="C14" t="n">
-        <v>0.298148</v>
+        <v>0.301616</v>
       </c>
       <c r="D14" t="n">
-        <v>0.392842</v>
+        <v>0.399366</v>
       </c>
       <c r="E14" t="n">
-        <v>0.159784</v>
+        <v>0.160799</v>
       </c>
       <c r="F14" t="n">
-        <v>0.287954</v>
+        <v>0.295131</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.173124</v>
+        <v>0.17796</v>
       </c>
       <c r="C15" t="n">
-        <v>0.289035</v>
+        <v>0.292777</v>
       </c>
       <c r="D15" t="n">
-        <v>0.39327</v>
+        <v>0.389994</v>
       </c>
       <c r="E15" t="n">
-        <v>0.154922</v>
+        <v>0.155964</v>
       </c>
       <c r="F15" t="n">
-        <v>0.28754</v>
+        <v>0.283326</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.171807</v>
+        <v>0.176084</v>
       </c>
       <c r="C16" t="n">
-        <v>0.284978</v>
+        <v>0.289493</v>
       </c>
       <c r="D16" t="n">
-        <v>0.384262</v>
+        <v>0.385962</v>
       </c>
       <c r="E16" t="n">
-        <v>0.145446</v>
+        <v>0.150384</v>
       </c>
       <c r="F16" t="n">
-        <v>0.282593</v>
+        <v>0.275227</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.169599</v>
+        <v>0.161143</v>
       </c>
       <c r="C17" t="n">
-        <v>0.282131</v>
+        <v>0.282704</v>
       </c>
       <c r="D17" t="n">
-        <v>0.378872</v>
+        <v>0.382077</v>
       </c>
       <c r="E17" t="n">
-        <v>0.149621</v>
+        <v>0.137198</v>
       </c>
       <c r="F17" t="n">
-        <v>0.271364</v>
+        <v>0.273413</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.157301</v>
+        <v>0.159983</v>
       </c>
       <c r="C18" t="n">
-        <v>0.271837</v>
+        <v>0.278453</v>
       </c>
       <c r="D18" t="n">
-        <v>0.379456</v>
+        <v>0.375873</v>
       </c>
       <c r="E18" t="n">
-        <v>0.148485</v>
+        <v>0.147963</v>
       </c>
       <c r="F18" t="n">
-        <v>0.265596</v>
+        <v>0.272364</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.164063</v>
+        <v>0.163607</v>
       </c>
       <c r="C19" t="n">
-        <v>0.271994</v>
+        <v>0.275293</v>
       </c>
       <c r="D19" t="n">
-        <v>0.374536</v>
+        <v>0.371213</v>
       </c>
       <c r="E19" t="n">
-        <v>0.139191</v>
+        <v>0.138681</v>
       </c>
       <c r="F19" t="n">
-        <v>0.259571</v>
+        <v>0.265338</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.159786</v>
+        <v>0.156693</v>
       </c>
       <c r="C20" t="n">
-        <v>0.265975</v>
+        <v>0.269079</v>
       </c>
       <c r="D20" t="n">
-        <v>0.368956</v>
+        <v>0.371946</v>
       </c>
       <c r="E20" t="n">
-        <v>0.133912</v>
+        <v>0.132448</v>
       </c>
       <c r="F20" t="n">
-        <v>0.26065</v>
+        <v>0.261249</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.154918</v>
+        <v>0.151316</v>
       </c>
       <c r="C21" t="n">
-        <v>0.26746</v>
+        <v>0.269085</v>
       </c>
       <c r="D21" t="n">
-        <v>0.469457</v>
+        <v>0.47316</v>
       </c>
       <c r="E21" t="n">
-        <v>0.133723</v>
+        <v>0.130572</v>
       </c>
       <c r="F21" t="n">
-        <v>0.262299</v>
+        <v>0.258268</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.154061</v>
+        <v>0.158196</v>
       </c>
       <c r="C22" t="n">
-        <v>0.271729</v>
+        <v>0.267758</v>
       </c>
       <c r="D22" t="n">
-        <v>0.460499</v>
+        <v>0.461231</v>
       </c>
       <c r="E22" t="n">
-        <v>0.137257</v>
+        <v>0.132835</v>
       </c>
       <c r="F22" t="n">
-        <v>0.254118</v>
+        <v>0.25826</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152789</v>
+        <v>0.158694</v>
       </c>
       <c r="C23" t="n">
-        <v>0.267423</v>
+        <v>0.27109</v>
       </c>
       <c r="D23" t="n">
-        <v>0.45075</v>
+        <v>0.449304</v>
       </c>
       <c r="E23" t="n">
-        <v>0.211564</v>
+        <v>0.223855</v>
       </c>
       <c r="F23" t="n">
-        <v>0.333841</v>
+        <v>0.333064</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240574</v>
+        <v>0.243133</v>
       </c>
       <c r="C24" t="n">
-        <v>0.336324</v>
+        <v>0.338298</v>
       </c>
       <c r="D24" t="n">
-        <v>0.444093</v>
+        <v>0.442867</v>
       </c>
       <c r="E24" t="n">
-        <v>0.205305</v>
+        <v>0.207786</v>
       </c>
       <c r="F24" t="n">
-        <v>0.327608</v>
+        <v>0.326798</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.229816</v>
+        <v>0.233791</v>
       </c>
       <c r="C25" t="n">
-        <v>0.327407</v>
+        <v>0.330181</v>
       </c>
       <c r="D25" t="n">
-        <v>0.437452</v>
+        <v>0.436635</v>
       </c>
       <c r="E25" t="n">
-        <v>0.20187</v>
+        <v>0.196462</v>
       </c>
       <c r="F25" t="n">
-        <v>0.316091</v>
+        <v>0.317972</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.218715</v>
+        <v>0.226368</v>
       </c>
       <c r="C26" t="n">
-        <v>0.319153</v>
+        <v>0.320759</v>
       </c>
       <c r="D26" t="n">
-        <v>0.431252</v>
+        <v>0.429526</v>
       </c>
       <c r="E26" t="n">
-        <v>0.200287</v>
+        <v>0.19705</v>
       </c>
       <c r="F26" t="n">
-        <v>0.309199</v>
+        <v>0.310059</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.214478</v>
+        <v>0.219727</v>
       </c>
       <c r="C27" t="n">
-        <v>0.313228</v>
+        <v>0.315705</v>
       </c>
       <c r="D27" t="n">
-        <v>0.425414</v>
+        <v>0.424316</v>
       </c>
       <c r="E27" t="n">
-        <v>0.18976</v>
+        <v>0.181869</v>
       </c>
       <c r="F27" t="n">
-        <v>0.302025</v>
+        <v>0.303892</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.207099</v>
+        <v>0.210667</v>
       </c>
       <c r="C28" t="n">
-        <v>0.308139</v>
+        <v>0.309048</v>
       </c>
       <c r="D28" t="n">
-        <v>0.417072</v>
+        <v>0.41768</v>
       </c>
       <c r="E28" t="n">
-        <v>0.184319</v>
+        <v>0.181644</v>
       </c>
       <c r="F28" t="n">
-        <v>0.295239</v>
+        <v>0.296057</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.199162</v>
+        <v>0.193408</v>
       </c>
       <c r="C29" t="n">
-        <v>0.29972</v>
+        <v>0.301588</v>
       </c>
       <c r="D29" t="n">
-        <v>0.412434</v>
+        <v>0.411507</v>
       </c>
       <c r="E29" t="n">
-        <v>0.176068</v>
+        <v>0.175803</v>
       </c>
       <c r="F29" t="n">
-        <v>0.288254</v>
+        <v>0.290233</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.191373</v>
+        <v>0.195959</v>
       </c>
       <c r="C30" t="n">
-        <v>0.294272</v>
+        <v>0.297075</v>
       </c>
       <c r="D30" t="n">
-        <v>0.407961</v>
+        <v>0.404621</v>
       </c>
       <c r="E30" t="n">
-        <v>0.175231</v>
+        <v>0.168448</v>
       </c>
       <c r="F30" t="n">
-        <v>0.28294</v>
+        <v>0.282923</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.188616</v>
+        <v>0.186976</v>
       </c>
       <c r="C31" t="n">
-        <v>0.289906</v>
+        <v>0.291306</v>
       </c>
       <c r="D31" t="n">
-        <v>0.402729</v>
+        <v>0.403225</v>
       </c>
       <c r="E31" t="n">
-        <v>0.165726</v>
+        <v>0.166909</v>
       </c>
       <c r="F31" t="n">
-        <v>0.276336</v>
+        <v>0.277482</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.181528</v>
+        <v>0.182776</v>
       </c>
       <c r="C32" t="n">
-        <v>0.285426</v>
+        <v>0.286861</v>
       </c>
       <c r="D32" t="n">
-        <v>0.397163</v>
+        <v>0.397033</v>
       </c>
       <c r="E32" t="n">
-        <v>0.158324</v>
+        <v>0.161246</v>
       </c>
       <c r="F32" t="n">
-        <v>0.272637</v>
+        <v>0.272964</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.178022</v>
+        <v>0.181377</v>
       </c>
       <c r="C33" t="n">
-        <v>0.281571</v>
+        <v>0.283244</v>
       </c>
       <c r="D33" t="n">
-        <v>0.395594</v>
+        <v>0.391952</v>
       </c>
       <c r="E33" t="n">
-        <v>0.159884</v>
+        <v>0.157131</v>
       </c>
       <c r="F33" t="n">
-        <v>0.268207</v>
+        <v>0.268848</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.171756</v>
+        <v>0.17528</v>
       </c>
       <c r="C34" t="n">
-        <v>0.278093</v>
+        <v>0.279965</v>
       </c>
       <c r="D34" t="n">
-        <v>0.389175</v>
+        <v>0.388001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.151904</v>
+        <v>0.151114</v>
       </c>
       <c r="F34" t="n">
-        <v>0.264555</v>
+        <v>0.265005</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.168221</v>
+        <v>0.170146</v>
       </c>
       <c r="C35" t="n">
-        <v>0.276001</v>
+        <v>0.277891</v>
       </c>
       <c r="D35" t="n">
-        <v>0.493772</v>
+        <v>0.4952</v>
       </c>
       <c r="E35" t="n">
-        <v>0.153381</v>
+        <v>0.148537</v>
       </c>
       <c r="F35" t="n">
-        <v>0.264498</v>
+        <v>0.264171</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.167102</v>
+        <v>0.174977</v>
       </c>
       <c r="C36" t="n">
-        <v>0.276231</v>
+        <v>0.278603</v>
       </c>
       <c r="D36" t="n">
-        <v>0.483102</v>
+        <v>0.481678</v>
       </c>
       <c r="E36" t="n">
-        <v>0.150077</v>
+        <v>0.150641</v>
       </c>
       <c r="F36" t="n">
-        <v>0.263333</v>
+        <v>0.264391</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171705</v>
+        <v>0.166558</v>
       </c>
       <c r="C37" t="n">
-        <v>0.278044</v>
+        <v>0.281484</v>
       </c>
       <c r="D37" t="n">
-        <v>0.471878</v>
+        <v>0.471855</v>
       </c>
       <c r="E37" t="n">
-        <v>0.230758</v>
+        <v>0.22988</v>
       </c>
       <c r="F37" t="n">
-        <v>0.347253</v>
+        <v>0.346648</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242624</v>
+        <v>0.247269</v>
       </c>
       <c r="C38" t="n">
-        <v>0.349487</v>
+        <v>0.352837</v>
       </c>
       <c r="D38" t="n">
-        <v>0.463101</v>
+        <v>0.463606</v>
       </c>
       <c r="E38" t="n">
-        <v>0.221903</v>
+        <v>0.221642</v>
       </c>
       <c r="F38" t="n">
-        <v>0.339571</v>
+        <v>0.338558</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233507</v>
+        <v>0.237678</v>
       </c>
       <c r="C39" t="n">
-        <v>0.341112</v>
+        <v>0.345038</v>
       </c>
       <c r="D39" t="n">
-        <v>0.454393</v>
+        <v>0.453896</v>
       </c>
       <c r="E39" t="n">
-        <v>0.21224</v>
+        <v>0.21243</v>
       </c>
       <c r="F39" t="n">
-        <v>0.330614</v>
+        <v>0.33188</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.224754</v>
+        <v>0.229292</v>
       </c>
       <c r="C40" t="n">
-        <v>0.334931</v>
+        <v>0.337138</v>
       </c>
       <c r="D40" t="n">
-        <v>0.445757</v>
+        <v>0.445041</v>
       </c>
       <c r="E40" t="n">
-        <v>0.205018</v>
+        <v>0.206329</v>
       </c>
       <c r="F40" t="n">
-        <v>0.322948</v>
+        <v>0.323269</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.216595</v>
+        <v>0.220888</v>
       </c>
       <c r="C41" t="n">
-        <v>0.326458</v>
+        <v>0.328957</v>
       </c>
       <c r="D41" t="n">
-        <v>0.439772</v>
+        <v>0.439551</v>
       </c>
       <c r="E41" t="n">
-        <v>0.197337</v>
+        <v>0.198632</v>
       </c>
       <c r="F41" t="n">
-        <v>0.31637</v>
+        <v>0.316625</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209378</v>
+        <v>0.212638</v>
       </c>
       <c r="C42" t="n">
-        <v>0.319931</v>
+        <v>0.321209</v>
       </c>
       <c r="D42" t="n">
-        <v>0.431497</v>
+        <v>0.431599</v>
       </c>
       <c r="E42" t="n">
-        <v>0.190362</v>
+        <v>0.189812</v>
       </c>
       <c r="F42" t="n">
-        <v>0.308326</v>
+        <v>0.309767</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202317</v>
+        <v>0.205616</v>
       </c>
       <c r="C43" t="n">
-        <v>0.313702</v>
+        <v>0.316528</v>
       </c>
       <c r="D43" t="n">
-        <v>0.425021</v>
+        <v>0.424976</v>
       </c>
       <c r="E43" t="n">
-        <v>0.183542</v>
+        <v>0.183753</v>
       </c>
       <c r="F43" t="n">
-        <v>0.30256</v>
+        <v>0.303505</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.195613</v>
+        <v>0.199143</v>
       </c>
       <c r="C44" t="n">
-        <v>0.307433</v>
+        <v>0.309975</v>
       </c>
       <c r="D44" t="n">
-        <v>0.41895</v>
+        <v>0.418797</v>
       </c>
       <c r="E44" t="n">
-        <v>0.177225</v>
+        <v>0.179082</v>
       </c>
       <c r="F44" t="n">
-        <v>0.296036</v>
+        <v>0.296644</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190342</v>
+        <v>0.193092</v>
       </c>
       <c r="C45" t="n">
-        <v>0.304185</v>
+        <v>0.305757</v>
       </c>
       <c r="D45" t="n">
-        <v>0.415657</v>
+        <v>0.415556</v>
       </c>
       <c r="E45" t="n">
-        <v>0.170563</v>
+        <v>0.170934</v>
       </c>
       <c r="F45" t="n">
-        <v>0.290935</v>
+        <v>0.290596</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.183894</v>
+        <v>0.186018</v>
       </c>
       <c r="C46" t="n">
-        <v>0.298302</v>
+        <v>0.29954</v>
       </c>
       <c r="D46" t="n">
-        <v>0.411374</v>
+        <v>0.409348</v>
       </c>
       <c r="E46" t="n">
-        <v>0.165852</v>
+        <v>0.165182</v>
       </c>
       <c r="F46" t="n">
-        <v>0.285938</v>
+        <v>0.286595</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.179529</v>
+        <v>0.182085</v>
       </c>
       <c r="C47" t="n">
-        <v>0.295178</v>
+        <v>0.296174</v>
       </c>
       <c r="D47" t="n">
-        <v>0.406887</v>
+        <v>0.406766</v>
       </c>
       <c r="E47" t="n">
-        <v>0.161133</v>
+        <v>0.161593</v>
       </c>
       <c r="F47" t="n">
-        <v>0.281689</v>
+        <v>0.282851</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175434</v>
+        <v>0.178217</v>
       </c>
       <c r="C48" t="n">
-        <v>0.292522</v>
+        <v>0.294459</v>
       </c>
       <c r="D48" t="n">
-        <v>0.402983</v>
+        <v>0.402391</v>
       </c>
       <c r="E48" t="n">
-        <v>0.158052</v>
+        <v>0.157605</v>
       </c>
       <c r="F48" t="n">
-        <v>0.279202</v>
+        <v>0.278848</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.17292</v>
+        <v>0.176101</v>
       </c>
       <c r="C49" t="n">
-        <v>0.29033</v>
+        <v>0.291836</v>
       </c>
       <c r="D49" t="n">
-        <v>0.400279</v>
+        <v>0.401026</v>
       </c>
       <c r="E49" t="n">
-        <v>0.156621</v>
+        <v>0.156011</v>
       </c>
       <c r="F49" t="n">
-        <v>0.276471</v>
+        <v>0.278262</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171383</v>
+        <v>0.173774</v>
       </c>
       <c r="C50" t="n">
-        <v>0.289907</v>
+        <v>0.291963</v>
       </c>
       <c r="D50" t="n">
-        <v>0.505548</v>
+        <v>0.505899</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1539</v>
+        <v>0.154285</v>
       </c>
       <c r="F50" t="n">
-        <v>0.276329</v>
+        <v>0.277525</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.171931</v>
+        <v>0.174388</v>
       </c>
       <c r="C51" t="n">
-        <v>0.291266</v>
+        <v>0.292408</v>
       </c>
       <c r="D51" t="n">
-        <v>0.49207</v>
+        <v>0.494343</v>
       </c>
       <c r="E51" t="n">
-        <v>0.238403</v>
+        <v>0.240159</v>
       </c>
       <c r="F51" t="n">
-        <v>0.359402</v>
+        <v>0.359405</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174693</v>
+        <v>0.177983</v>
       </c>
       <c r="C52" t="n">
-        <v>0.296516</v>
+        <v>0.298248</v>
       </c>
       <c r="D52" t="n">
-        <v>0.483313</v>
+        <v>0.483661</v>
       </c>
       <c r="E52" t="n">
-        <v>0.230268</v>
+        <v>0.230956</v>
       </c>
       <c r="F52" t="n">
-        <v>0.350738</v>
+        <v>0.351077</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240791</v>
+        <v>0.242696</v>
       </c>
       <c r="C53" t="n">
-        <v>0.35508</v>
+        <v>0.356513</v>
       </c>
       <c r="D53" t="n">
-        <v>0.47459</v>
+        <v>0.474144</v>
       </c>
       <c r="E53" t="n">
-        <v>0.220213</v>
+        <v>0.221815</v>
       </c>
       <c r="F53" t="n">
-        <v>0.341967</v>
+        <v>0.342769</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.231963</v>
+        <v>0.234148</v>
       </c>
       <c r="C54" t="n">
-        <v>0.346836</v>
+        <v>0.348888</v>
       </c>
       <c r="D54" t="n">
-        <v>0.466444</v>
+        <v>0.466852</v>
       </c>
       <c r="E54" t="n">
-        <v>0.212101</v>
+        <v>0.213675</v>
       </c>
       <c r="F54" t="n">
-        <v>0.334305</v>
+        <v>0.334735</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.223697</v>
+        <v>0.224669</v>
       </c>
       <c r="C55" t="n">
-        <v>0.341755</v>
+        <v>0.343516</v>
       </c>
       <c r="D55" t="n">
-        <v>0.457695</v>
+        <v>0.458434</v>
       </c>
       <c r="E55" t="n">
-        <v>0.204903</v>
+        <v>0.206024</v>
       </c>
       <c r="F55" t="n">
-        <v>0.329392</v>
+        <v>0.329013</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216114</v>
+        <v>0.217291</v>
       </c>
       <c r="C56" t="n">
-        <v>0.335211</v>
+        <v>0.33583</v>
       </c>
       <c r="D56" t="n">
-        <v>0.45025</v>
+        <v>0.451238</v>
       </c>
       <c r="E56" t="n">
-        <v>0.197123</v>
+        <v>0.198351</v>
       </c>
       <c r="F56" t="n">
-        <v>0.321406</v>
+        <v>0.321989</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208118</v>
+        <v>0.210404</v>
       </c>
       <c r="C57" t="n">
-        <v>0.328269</v>
+        <v>0.32988</v>
       </c>
       <c r="D57" t="n">
-        <v>0.444946</v>
+        <v>0.44539</v>
       </c>
       <c r="E57" t="n">
-        <v>0.19002</v>
+        <v>0.191343</v>
       </c>
       <c r="F57" t="n">
-        <v>0.315342</v>
+        <v>0.315034</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.201866</v>
+        <v>0.202453</v>
       </c>
       <c r="C58" t="n">
-        <v>0.322101</v>
+        <v>0.323696</v>
       </c>
       <c r="D58" t="n">
-        <v>0.439057</v>
+        <v>0.439753</v>
       </c>
       <c r="E58" t="n">
-        <v>0.183256</v>
+        <v>0.184648</v>
       </c>
       <c r="F58" t="n">
-        <v>0.309365</v>
+        <v>0.309441</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.19545</v>
+        <v>0.196614</v>
       </c>
       <c r="C59" t="n">
-        <v>0.31744</v>
+        <v>0.318536</v>
       </c>
       <c r="D59" t="n">
-        <v>0.433642</v>
+        <v>0.434326</v>
       </c>
       <c r="E59" t="n">
-        <v>0.17651</v>
+        <v>0.17837</v>
       </c>
       <c r="F59" t="n">
-        <v>0.303923</v>
+        <v>0.303492</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.189607</v>
+        <v>0.191129</v>
       </c>
       <c r="C60" t="n">
-        <v>0.313421</v>
+        <v>0.313146</v>
       </c>
       <c r="D60" t="n">
-        <v>0.428159</v>
+        <v>0.429562</v>
       </c>
       <c r="E60" t="n">
-        <v>0.172827</v>
+        <v>0.172746</v>
       </c>
       <c r="F60" t="n">
-        <v>0.298876</v>
+        <v>0.298576</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.184509</v>
+        <v>0.185414</v>
       </c>
       <c r="C61" t="n">
-        <v>0.30909</v>
+        <v>0.309346</v>
       </c>
       <c r="D61" t="n">
-        <v>0.423936</v>
+        <v>0.424822</v>
       </c>
       <c r="E61" t="n">
-        <v>0.167667</v>
+        <v>0.168037</v>
       </c>
       <c r="F61" t="n">
-        <v>0.294223</v>
+        <v>0.294241</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.180441</v>
+        <v>0.181517</v>
       </c>
       <c r="C62" t="n">
-        <v>0.305836</v>
+        <v>0.305218</v>
       </c>
       <c r="D62" t="n">
-        <v>0.421212</v>
+        <v>0.420964</v>
       </c>
       <c r="E62" t="n">
-        <v>0.162595</v>
+        <v>0.164167</v>
       </c>
       <c r="F62" t="n">
-        <v>0.29088</v>
+        <v>0.290418</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178135</v>
+        <v>0.178585</v>
       </c>
       <c r="C63" t="n">
-        <v>0.303326</v>
+        <v>0.303575</v>
       </c>
       <c r="D63" t="n">
-        <v>0.417838</v>
+        <v>0.417834</v>
       </c>
       <c r="E63" t="n">
-        <v>0.160716</v>
+        <v>0.161268</v>
       </c>
       <c r="F63" t="n">
-        <v>0.288195</v>
+        <v>0.28828</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175741</v>
+        <v>0.176354</v>
       </c>
       <c r="C64" t="n">
-        <v>0.302225</v>
+        <v>0.302604</v>
       </c>
       <c r="D64" t="n">
-        <v>0.541886</v>
+        <v>0.544772</v>
       </c>
       <c r="E64" t="n">
-        <v>0.159223</v>
+        <v>0.159102</v>
       </c>
       <c r="F64" t="n">
-        <v>0.28745</v>
+        <v>0.287349</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176863</v>
+        <v>0.177476</v>
       </c>
       <c r="C65" t="n">
-        <v>0.303984</v>
+        <v>0.30568</v>
       </c>
       <c r="D65" t="n">
-        <v>0.529923</v>
+        <v>0.531711</v>
       </c>
       <c r="E65" t="n">
-        <v>0.160019</v>
+        <v>0.160245</v>
       </c>
       <c r="F65" t="n">
-        <v>0.288899</v>
+        <v>0.288941</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.17879</v>
+        <v>0.179937</v>
       </c>
       <c r="C66" t="n">
-        <v>0.308783</v>
+        <v>0.306998</v>
       </c>
       <c r="D66" t="n">
-        <v>0.521936</v>
+        <v>0.523525</v>
       </c>
       <c r="E66" t="n">
-        <v>0.241414</v>
+        <v>0.241648</v>
       </c>
       <c r="F66" t="n">
-        <v>0.367055</v>
+        <v>0.367986</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244156</v>
+        <v>0.245052</v>
       </c>
       <c r="C67" t="n">
-        <v>0.37544</v>
+        <v>0.375131</v>
       </c>
       <c r="D67" t="n">
-        <v>0.511956</v>
+        <v>0.5148779999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>0.231834</v>
+        <v>0.232219</v>
       </c>
       <c r="F67" t="n">
-        <v>0.359204</v>
+        <v>0.359206</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236607</v>
+        <v>0.237107</v>
       </c>
       <c r="C68" t="n">
-        <v>0.367067</v>
+        <v>0.365585</v>
       </c>
       <c r="D68" t="n">
-        <v>0.503547</v>
+        <v>0.506795</v>
       </c>
       <c r="E68" t="n">
-        <v>0.22428</v>
+        <v>0.222402</v>
       </c>
       <c r="F68" t="n">
-        <v>0.349808</v>
+        <v>0.350478</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.229076</v>
+        <v>0.227991</v>
       </c>
       <c r="C69" t="n">
-        <v>0.36057</v>
+        <v>0.361003</v>
       </c>
       <c r="D69" t="n">
-        <v>0.496027</v>
+        <v>0.500333</v>
       </c>
       <c r="E69" t="n">
-        <v>0.215316</v>
+        <v>0.215399</v>
       </c>
       <c r="F69" t="n">
-        <v>0.345818</v>
+        <v>0.346057</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.220235</v>
+        <v>0.220762</v>
       </c>
       <c r="C70" t="n">
-        <v>0.355606</v>
+        <v>0.354619</v>
       </c>
       <c r="D70" t="n">
-        <v>0.49</v>
+        <v>0.491427</v>
       </c>
       <c r="E70" t="n">
-        <v>0.206034</v>
+        <v>0.208327</v>
       </c>
       <c r="F70" t="n">
-        <v>0.338209</v>
+        <v>0.337787</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213362</v>
+        <v>0.212598</v>
       </c>
       <c r="C71" t="n">
-        <v>0.347761</v>
+        <v>0.347006</v>
       </c>
       <c r="D71" t="n">
-        <v>0.486959</v>
+        <v>0.486046</v>
       </c>
       <c r="E71" t="n">
-        <v>0.198799</v>
+        <v>0.20011</v>
       </c>
       <c r="F71" t="n">
-        <v>0.33107</v>
+        <v>0.331678</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.20628</v>
+        <v>0.205894</v>
       </c>
       <c r="C72" t="n">
-        <v>0.341365</v>
+        <v>0.34052</v>
       </c>
       <c r="D72" t="n">
-        <v>0.481088</v>
+        <v>0.483436</v>
       </c>
       <c r="E72" t="n">
-        <v>0.192296</v>
+        <v>0.19364</v>
       </c>
       <c r="F72" t="n">
-        <v>0.32443</v>
+        <v>0.324904</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199978</v>
+        <v>0.198835</v>
       </c>
       <c r="C73" t="n">
-        <v>0.335821</v>
+        <v>0.334119</v>
       </c>
       <c r="D73" t="n">
-        <v>0.478733</v>
+        <v>0.480117</v>
       </c>
       <c r="E73" t="n">
-        <v>0.186612</v>
+        <v>0.186281</v>
       </c>
       <c r="F73" t="n">
-        <v>0.318196</v>
+        <v>0.319061</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193596</v>
+        <v>0.193891</v>
       </c>
       <c r="C74" t="n">
-        <v>0.330076</v>
+        <v>0.329133</v>
       </c>
       <c r="D74" t="n">
-        <v>0.493176</v>
+        <v>0.493163</v>
       </c>
       <c r="E74" t="n">
-        <v>0.181145</v>
+        <v>0.180308</v>
       </c>
       <c r="F74" t="n">
-        <v>0.313249</v>
+        <v>0.31329</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18943</v>
+        <v>0.188307</v>
       </c>
       <c r="C75" t="n">
-        <v>0.325361</v>
+        <v>0.32502</v>
       </c>
       <c r="D75" t="n">
-        <v>0.488084</v>
+        <v>0.489913</v>
       </c>
       <c r="E75" t="n">
-        <v>0.176191</v>
+        <v>0.175082</v>
       </c>
       <c r="F75" t="n">
-        <v>0.308128</v>
+        <v>0.307943</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185651</v>
+        <v>0.184574</v>
       </c>
       <c r="C76" t="n">
-        <v>0.322423</v>
+        <v>0.321414</v>
       </c>
       <c r="D76" t="n">
-        <v>0.48467</v>
+        <v>0.484678</v>
       </c>
       <c r="E76" t="n">
-        <v>0.171444</v>
+        <v>0.170459</v>
       </c>
       <c r="F76" t="n">
-        <v>0.305191</v>
+        <v>0.304684</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182254</v>
+        <v>0.181644</v>
       </c>
       <c r="C77" t="n">
-        <v>0.319642</v>
+        <v>0.317994</v>
       </c>
       <c r="D77" t="n">
-        <v>0.482966</v>
+        <v>0.481277</v>
       </c>
       <c r="E77" t="n">
-        <v>0.168291</v>
+        <v>0.167219</v>
       </c>
       <c r="F77" t="n">
-        <v>0.302266</v>
+        <v>0.301337</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179953</v>
+        <v>0.179237</v>
       </c>
       <c r="C78" t="n">
-        <v>0.318991</v>
+        <v>0.319693</v>
       </c>
       <c r="D78" t="n">
-        <v>0.659111</v>
+        <v>0.661709</v>
       </c>
       <c r="E78" t="n">
-        <v>0.167104</v>
+        <v>0.165108</v>
       </c>
       <c r="F78" t="n">
-        <v>0.302818</v>
+        <v>0.301608</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179339</v>
+        <v>0.178452</v>
       </c>
       <c r="C79" t="n">
-        <v>0.320828</v>
+        <v>0.318459</v>
       </c>
       <c r="D79" t="n">
-        <v>0.650245</v>
+        <v>0.652004</v>
       </c>
       <c r="E79" t="n">
-        <v>0.165835</v>
+        <v>0.165128</v>
       </c>
       <c r="F79" t="n">
-        <v>0.303917</v>
+        <v>0.30269</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180932</v>
+        <v>0.180393</v>
       </c>
       <c r="C80" t="n">
-        <v>0.323971</v>
+        <v>0.323064</v>
       </c>
       <c r="D80" t="n">
-        <v>0.640606</v>
+        <v>0.6424530000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>0.23906</v>
+        <v>0.238361</v>
       </c>
       <c r="F80" t="n">
-        <v>0.384555</v>
+        <v>0.38369</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257674</v>
+        <v>0.25762</v>
       </c>
       <c r="C81" t="n">
-        <v>0.395851</v>
+        <v>0.392904</v>
       </c>
       <c r="D81" t="n">
-        <v>0.632298</v>
+        <v>0.633952</v>
       </c>
       <c r="E81" t="n">
-        <v>0.229806</v>
+        <v>0.229803</v>
       </c>
       <c r="F81" t="n">
-        <v>0.378541</v>
+        <v>0.378037</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249919</v>
+        <v>0.250339</v>
       </c>
       <c r="C82" t="n">
-        <v>0.390903</v>
+        <v>0.388666</v>
       </c>
       <c r="D82" t="n">
-        <v>0.625945</v>
+        <v>0.626717</v>
       </c>
       <c r="E82" t="n">
-        <v>0.222141</v>
+        <v>0.221572</v>
       </c>
       <c r="F82" t="n">
-        <v>0.371934</v>
+        <v>0.37184</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242502</v>
+        <v>0.241834</v>
       </c>
       <c r="C83" t="n">
-        <v>0.38477</v>
+        <v>0.384054</v>
       </c>
       <c r="D83" t="n">
-        <v>0.620163</v>
+        <v>0.623122</v>
       </c>
       <c r="E83" t="n">
-        <v>0.214236</v>
+        <v>0.213604</v>
       </c>
       <c r="F83" t="n">
-        <v>0.366358</v>
+        <v>0.36577</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234847</v>
+        <v>0.234863</v>
       </c>
       <c r="C84" t="n">
-        <v>0.383075</v>
+        <v>0.380225</v>
       </c>
       <c r="D84" t="n">
-        <v>0.617762</v>
+        <v>0.617415</v>
       </c>
       <c r="E84" t="n">
-        <v>0.206945</v>
+        <v>0.206084</v>
       </c>
       <c r="F84" t="n">
-        <v>0.361138</v>
+        <v>0.36091</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227078</v>
+        <v>0.227109</v>
       </c>
       <c r="C85" t="n">
-        <v>0.37789</v>
+        <v>0.375612</v>
       </c>
       <c r="D85" t="n">
-        <v>0.614889</v>
+        <v>0.617109</v>
       </c>
       <c r="E85" t="n">
-        <v>0.19984</v>
+        <v>0.199514</v>
       </c>
       <c r="F85" t="n">
-        <v>0.354441</v>
+        <v>0.354469</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220415</v>
+        <v>0.220273</v>
       </c>
       <c r="C86" t="n">
-        <v>0.37263</v>
+        <v>0.370212</v>
       </c>
       <c r="D86" t="n">
-        <v>0.61343</v>
+        <v>0.61471</v>
       </c>
       <c r="E86" t="n">
-        <v>0.193374</v>
+        <v>0.192868</v>
       </c>
       <c r="F86" t="n">
-        <v>0.348806</v>
+        <v>0.348302</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213772</v>
+        <v>0.213998</v>
       </c>
       <c r="C87" t="n">
-        <v>0.36688</v>
+        <v>0.364452</v>
       </c>
       <c r="D87" t="n">
-        <v>0.61383</v>
+        <v>0.614559</v>
       </c>
       <c r="E87" t="n">
-        <v>0.187007</v>
+        <v>0.186818</v>
       </c>
       <c r="F87" t="n">
-        <v>0.34272</v>
+        <v>0.342714</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20799</v>
+        <v>0.207489</v>
       </c>
       <c r="C88" t="n">
-        <v>0.362979</v>
+        <v>0.360983</v>
       </c>
       <c r="D88" t="n">
-        <v>0.615906</v>
+        <v>0.615901</v>
       </c>
       <c r="E88" t="n">
-        <v>0.181514</v>
+        <v>0.180959</v>
       </c>
       <c r="F88" t="n">
-        <v>0.338354</v>
+        <v>0.338057</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201983</v>
+        <v>0.201888</v>
       </c>
       <c r="C89" t="n">
-        <v>0.358349</v>
+        <v>0.356013</v>
       </c>
       <c r="D89" t="n">
-        <v>0.629456</v>
+        <v>0.629692</v>
       </c>
       <c r="E89" t="n">
-        <v>0.17626</v>
+        <v>0.176011</v>
       </c>
       <c r="F89" t="n">
-        <v>0.333755</v>
+        <v>0.333011</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197125</v>
+        <v>0.19716</v>
       </c>
       <c r="C90" t="n">
-        <v>0.353865</v>
+        <v>0.351415</v>
       </c>
       <c r="D90" t="n">
-        <v>0.632947</v>
+        <v>0.634728</v>
       </c>
       <c r="E90" t="n">
-        <v>0.171888</v>
+        <v>0.171779</v>
       </c>
       <c r="F90" t="n">
-        <v>0.329827</v>
+        <v>0.329593</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193023</v>
+        <v>0.193001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.35038</v>
+        <v>0.349071</v>
       </c>
       <c r="D91" t="n">
-        <v>0.639286</v>
+        <v>0.638579</v>
       </c>
       <c r="E91" t="n">
-        <v>0.168363</v>
+        <v>0.16815</v>
       </c>
       <c r="F91" t="n">
-        <v>0.326316</v>
+        <v>0.326546</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190249</v>
+        <v>0.190131</v>
       </c>
       <c r="C92" t="n">
-        <v>0.350364</v>
+        <v>0.348622</v>
       </c>
       <c r="D92" t="n">
-        <v>0.849123</v>
+        <v>0.856172</v>
       </c>
       <c r="E92" t="n">
-        <v>0.166549</v>
+        <v>0.166044</v>
       </c>
       <c r="F92" t="n">
-        <v>0.325516</v>
+        <v>0.324683</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188736</v>
+        <v>0.188664</v>
       </c>
       <c r="C93" t="n">
-        <v>0.352181</v>
+        <v>0.348467</v>
       </c>
       <c r="D93" t="n">
-        <v>0.844893</v>
+        <v>0.850796</v>
       </c>
       <c r="E93" t="n">
-        <v>0.16588</v>
+        <v>0.165015</v>
       </c>
       <c r="F93" t="n">
-        <v>0.32604</v>
+        <v>0.32575</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189943</v>
+        <v>0.190219</v>
       </c>
       <c r="C94" t="n">
-        <v>0.353196</v>
+        <v>0.350704</v>
       </c>
       <c r="D94" t="n">
-        <v>0.840924</v>
+        <v>0.843615</v>
       </c>
       <c r="E94" t="n">
-        <v>0.250706</v>
+        <v>0.251491</v>
       </c>
       <c r="F94" t="n">
-        <v>0.453035</v>
+        <v>0.451202</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.272273</v>
+        <v>0.271877</v>
       </c>
       <c r="C95" t="n">
-        <v>0.469273</v>
+        <v>0.464965</v>
       </c>
       <c r="D95" t="n">
-        <v>0.836078</v>
+        <v>0.839527</v>
       </c>
       <c r="E95" t="n">
-        <v>0.243669</v>
+        <v>0.243921</v>
       </c>
       <c r="F95" t="n">
-        <v>0.451812</v>
+        <v>0.449617</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.26586</v>
+        <v>0.265903</v>
       </c>
       <c r="C96" t="n">
-        <v>0.469442</v>
+        <v>0.465804</v>
       </c>
       <c r="D96" t="n">
-        <v>0.832489</v>
+        <v>0.836997</v>
       </c>
       <c r="E96" t="n">
-        <v>0.235443</v>
+        <v>0.235854</v>
       </c>
       <c r="F96" t="n">
-        <v>0.446894</v>
+        <v>0.444809</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.259432</v>
+        <v>0.25892</v>
       </c>
       <c r="C97" t="n">
-        <v>0.465798</v>
+        <v>0.462164</v>
       </c>
       <c r="D97" t="n">
-        <v>0.837816</v>
+        <v>0.839849</v>
       </c>
       <c r="E97" t="n">
-        <v>0.228185</v>
+        <v>0.228105</v>
       </c>
       <c r="F97" t="n">
-        <v>0.441679</v>
+        <v>0.439694</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252341</v>
+        <v>0.252403</v>
       </c>
       <c r="C98" t="n">
-        <v>0.461353</v>
+        <v>0.458636</v>
       </c>
       <c r="D98" t="n">
-        <v>0.836919</v>
+        <v>0.839769</v>
       </c>
       <c r="E98" t="n">
-        <v>0.220516</v>
+        <v>0.220384</v>
       </c>
       <c r="F98" t="n">
-        <v>0.437179</v>
+        <v>0.434765</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246086</v>
+        <v>0.245593</v>
       </c>
       <c r="C99" t="n">
-        <v>0.455185</v>
+        <v>0.451749</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8355050000000001</v>
+        <v>0.839669</v>
       </c>
       <c r="E99" t="n">
-        <v>0.213797</v>
+        <v>0.214035</v>
       </c>
       <c r="F99" t="n">
-        <v>0.431278</v>
+        <v>0.430147</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.24015</v>
+        <v>0.239935</v>
       </c>
       <c r="C100" t="n">
-        <v>0.451269</v>
+        <v>0.44814</v>
       </c>
       <c r="D100" t="n">
-        <v>0.837201</v>
+        <v>0.844423</v>
       </c>
       <c r="E100" t="n">
-        <v>0.206906</v>
+        <v>0.207087</v>
       </c>
       <c r="F100" t="n">
-        <v>0.427644</v>
+        <v>0.424683</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.234233</v>
+        <v>0.233691</v>
       </c>
       <c r="C101" t="n">
-        <v>0.446606</v>
+        <v>0.443625</v>
       </c>
       <c r="D101" t="n">
-        <v>0.840208</v>
+        <v>0.84523</v>
       </c>
       <c r="E101" t="n">
-        <v>0.200936</v>
+        <v>0.200992</v>
       </c>
       <c r="F101" t="n">
-        <v>0.422234</v>
+        <v>0.420676</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228821</v>
+        <v>0.228342</v>
       </c>
       <c r="C102" t="n">
-        <v>0.442881</v>
+        <v>0.440565</v>
       </c>
       <c r="D102" t="n">
-        <v>0.844274</v>
+        <v>0.849367</v>
       </c>
       <c r="E102" t="n">
-        <v>0.195247</v>
+        <v>0.195421</v>
       </c>
       <c r="F102" t="n">
-        <v>0.417913</v>
+        <v>0.416654</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223578</v>
+        <v>0.223169</v>
       </c>
       <c r="C103" t="n">
-        <v>0.439669</v>
+        <v>0.438046</v>
       </c>
       <c r="D103" t="n">
-        <v>0.854599</v>
+        <v>0.859015</v>
       </c>
       <c r="E103" t="n">
-        <v>0.190128</v>
+        <v>0.190552</v>
       </c>
       <c r="F103" t="n">
-        <v>0.415003</v>
+        <v>0.413689</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218754</v>
+        <v>0.218651</v>
       </c>
       <c r="C104" t="n">
-        <v>0.43834</v>
+        <v>0.434067</v>
       </c>
       <c r="D104" t="n">
-        <v>0.859089</v>
+        <v>0.86346</v>
       </c>
       <c r="E104" t="n">
-        <v>0.185407</v>
+        <v>0.186112</v>
       </c>
       <c r="F104" t="n">
-        <v>0.411157</v>
+        <v>0.410978</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214533</v>
+        <v>0.214795</v>
       </c>
       <c r="C105" t="n">
-        <v>0.43588</v>
+        <v>0.433621</v>
       </c>
       <c r="D105" t="n">
-        <v>0.866752</v>
+        <v>0.874455</v>
       </c>
       <c r="E105" t="n">
-        <v>0.182082</v>
+        <v>0.182485</v>
       </c>
       <c r="F105" t="n">
-        <v>0.409646</v>
+        <v>0.408693</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211732</v>
+        <v>0.21188</v>
       </c>
       <c r="C106" t="n">
-        <v>0.435558</v>
+        <v>0.433159</v>
       </c>
       <c r="D106" t="n">
-        <v>0.874956</v>
+        <v>0.881016</v>
       </c>
       <c r="E106" t="n">
-        <v>0.178969</v>
+        <v>0.179813</v>
       </c>
       <c r="F106" t="n">
-        <v>0.407345</v>
+        <v>0.407421</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209692</v>
+        <v>0.209791</v>
       </c>
       <c r="C107" t="n">
-        <v>0.43601</v>
+        <v>0.433813</v>
       </c>
       <c r="D107" t="n">
-        <v>1.11923</v>
+        <v>1.12615</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1782</v>
+        <v>0.178586</v>
       </c>
       <c r="F107" t="n">
-        <v>0.407377</v>
+        <v>0.407089</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2094</v>
+        <v>0.209605</v>
       </c>
       <c r="C108" t="n">
-        <v>0.439104</v>
+        <v>0.437348</v>
       </c>
       <c r="D108" t="n">
-        <v>1.10995</v>
+        <v>1.11558</v>
       </c>
       <c r="E108" t="n">
-        <v>0.267249</v>
+        <v>0.268061</v>
       </c>
       <c r="F108" t="n">
-        <v>0.563795</v>
+        <v>0.562809</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211671</v>
+        <v>0.211763</v>
       </c>
       <c r="C109" t="n">
-        <v>0.443594</v>
+        <v>0.442159</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10171</v>
+        <v>1.10592</v>
       </c>
       <c r="E109" t="n">
-        <v>0.260975</v>
+        <v>0.262226</v>
       </c>
       <c r="F109" t="n">
-        <v>0.561366</v>
+        <v>0.560851</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285119</v>
+        <v>0.285584</v>
       </c>
       <c r="C110" t="n">
-        <v>0.581142</v>
+        <v>0.579394</v>
       </c>
       <c r="D110" t="n">
-        <v>1.09515</v>
+        <v>1.10581</v>
       </c>
       <c r="E110" t="n">
-        <v>0.253489</v>
+        <v>0.254658</v>
       </c>
       <c r="F110" t="n">
-        <v>0.556712</v>
+        <v>0.5547</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278039</v>
+        <v>0.278949</v>
       </c>
       <c r="C111" t="n">
-        <v>0.576304</v>
+        <v>0.573978</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09366</v>
+        <v>1.0992</v>
       </c>
       <c r="E111" t="n">
-        <v>0.246155</v>
+        <v>0.246872</v>
       </c>
       <c r="F111" t="n">
-        <v>0.550457</v>
+        <v>0.549103</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272521</v>
+        <v>0.272369</v>
       </c>
       <c r="C112" t="n">
-        <v>0.569529</v>
+        <v>0.568941</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09285</v>
+        <v>1.09734</v>
       </c>
       <c r="E112" t="n">
-        <v>0.239483</v>
+        <v>0.240287</v>
       </c>
       <c r="F112" t="n">
-        <v>0.545709</v>
+        <v>0.544721</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266286</v>
+        <v>0.26675</v>
       </c>
       <c r="C113" t="n">
-        <v>0.565812</v>
+        <v>0.564242</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08878</v>
+        <v>1.09283</v>
       </c>
       <c r="E113" t="n">
-        <v>0.232651</v>
+        <v>0.233855</v>
       </c>
       <c r="F113" t="n">
-        <v>0.541301</v>
+        <v>0.540192</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260934</v>
+        <v>0.261201</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5608030000000001</v>
+        <v>0.559379</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08832</v>
+        <v>1.0943</v>
       </c>
       <c r="E114" t="n">
-        <v>0.226522</v>
+        <v>0.227431</v>
       </c>
       <c r="F114" t="n">
-        <v>0.536086</v>
+        <v>0.5354100000000001</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255668</v>
+        <v>0.255647</v>
       </c>
       <c r="C115" t="n">
-        <v>0.557746</v>
+        <v>0.554891</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09038</v>
+        <v>1.09239</v>
       </c>
       <c r="E115" t="n">
-        <v>0.220989</v>
+        <v>0.221653</v>
       </c>
       <c r="F115" t="n">
-        <v>0.531849</v>
+        <v>0.53104</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250489</v>
+        <v>0.250771</v>
       </c>
       <c r="C116" t="n">
-        <v>0.554223</v>
+        <v>0.551463</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09123</v>
+        <v>1.0957</v>
       </c>
       <c r="E116" t="n">
-        <v>0.215326</v>
+        <v>0.216341</v>
       </c>
       <c r="F116" t="n">
-        <v>0.518304</v>
+        <v>0.52808</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.24636</v>
+        <v>0.246061</v>
       </c>
       <c r="C117" t="n">
-        <v>0.54158</v>
+        <v>0.548795</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09772</v>
+        <v>1.09989</v>
       </c>
       <c r="E117" t="n">
-        <v>0.21091</v>
+        <v>0.211689</v>
       </c>
       <c r="F117" t="n">
-        <v>0.527405</v>
+        <v>0.524702</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241681</v>
+        <v>0.241946</v>
       </c>
       <c r="C118" t="n">
-        <v>0.548597</v>
+        <v>0.5466839999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1005</v>
+        <v>1.10665</v>
       </c>
       <c r="E118" t="n">
-        <v>0.206452</v>
+        <v>0.207557</v>
       </c>
       <c r="F118" t="n">
-        <v>0.523819</v>
+        <v>0.522793</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238081</v>
+        <v>0.238123</v>
       </c>
       <c r="C119" t="n">
-        <v>0.558541</v>
+        <v>0.544148</v>
       </c>
       <c r="D119" t="n">
-        <v>1.10764</v>
+        <v>1.11171</v>
       </c>
       <c r="E119" t="n">
-        <v>0.202853</v>
+        <v>0.203861</v>
       </c>
       <c r="F119" t="n">
-        <v>0.521326</v>
+        <v>0.52042</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234588</v>
+        <v>0.235115</v>
       </c>
       <c r="C120" t="n">
-        <v>0.547194</v>
+        <v>0.543951</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11481</v>
+        <v>1.11934</v>
       </c>
       <c r="E120" t="n">
-        <v>0.200171</v>
+        <v>0.200866</v>
       </c>
       <c r="F120" t="n">
-        <v>0.520861</v>
+        <v>0.519153</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232633</v>
+        <v>0.232751</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5479579999999999</v>
+        <v>0.545423</v>
       </c>
       <c r="D121" t="n">
-        <v>1.37862</v>
+        <v>1.38388</v>
       </c>
       <c r="E121" t="n">
-        <v>0.198628</v>
+        <v>0.19958</v>
       </c>
       <c r="F121" t="n">
-        <v>0.520987</v>
+        <v>0.518361</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231653</v>
+        <v>0.231959</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5499270000000001</v>
+        <v>0.547631</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36308</v>
+        <v>1.36546</v>
       </c>
       <c r="E122" t="n">
-        <v>0.199086</v>
+        <v>0.199896</v>
       </c>
       <c r="F122" t="n">
-        <v>0.522385</v>
+        <v>0.520915</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232908</v>
+        <v>0.23316</v>
       </c>
       <c r="C123" t="n">
-        <v>0.554737</v>
+        <v>0.55149</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34978</v>
+        <v>1.35345</v>
       </c>
       <c r="E123" t="n">
-        <v>0.283805</v>
+        <v>0.284685</v>
       </c>
       <c r="F123" t="n">
-        <v>0.689987</v>
+        <v>0.689377</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.312984</v>
+        <v>0.317625</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7162539999999999</v>
+        <v>0.713379</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33891</v>
+        <v>1.34173</v>
       </c>
       <c r="E124" t="n">
-        <v>0.277859</v>
+        <v>0.279382</v>
       </c>
       <c r="F124" t="n">
-        <v>0.685532</v>
+        <v>0.6851660000000001</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.307251</v>
+        <v>0.31152</v>
       </c>
       <c r="C125" t="n">
-        <v>0.710665</v>
+        <v>0.708635</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32739</v>
+        <v>1.33132</v>
       </c>
       <c r="E125" t="n">
-        <v>0.272374</v>
+        <v>0.273371</v>
       </c>
       <c r="F125" t="n">
-        <v>0.680151</v>
+        <v>0.68029</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.302388</v>
+        <v>0.305955</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7064049999999999</v>
+        <v>0.704261</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31802</v>
+        <v>1.32242</v>
       </c>
       <c r="E126" t="n">
-        <v>0.266917</v>
+        <v>0.268346</v>
       </c>
       <c r="F126" t="n">
-        <v>0.677449</v>
+        <v>0.675719</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.297801</v>
+        <v>0.300914</v>
       </c>
       <c r="C127" t="n">
-        <v>0.703331</v>
+        <v>0.699899</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31012</v>
+        <v>1.31358</v>
       </c>
       <c r="E127" t="n">
-        <v>0.26239</v>
+        <v>0.263259</v>
       </c>
       <c r="F127" t="n">
-        <v>0.672759</v>
+        <v>0.671887</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.293145</v>
+        <v>0.29562</v>
       </c>
       <c r="C128" t="n">
-        <v>0.698427</v>
+        <v>0.697102</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30572</v>
+        <v>1.31047</v>
       </c>
       <c r="E128" t="n">
-        <v>0.257452</v>
+        <v>0.258912</v>
       </c>
       <c r="F128" t="n">
-        <v>0.670951</v>
+        <v>0.669739</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.288753</v>
+        <v>0.290892</v>
       </c>
       <c r="C129" t="n">
-        <v>0.696515</v>
+        <v>0.694273</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3033</v>
+        <v>1.30573</v>
       </c>
       <c r="E129" t="n">
-        <v>0.253344</v>
+        <v>0.254321</v>
       </c>
       <c r="F129" t="n">
-        <v>0.66797</v>
+        <v>0.666462</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.28487</v>
+        <v>0.286524</v>
       </c>
       <c r="C130" t="n">
-        <v>0.69276</v>
+        <v>0.691262</v>
       </c>
       <c r="D130" t="n">
-        <v>1.29976</v>
+        <v>1.30338</v>
       </c>
       <c r="E130" t="n">
-        <v>0.249249</v>
+        <v>0.250638</v>
       </c>
       <c r="F130" t="n">
-        <v>0.664393</v>
+        <v>0.664264</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281633</v>
+        <v>0.282492</v>
       </c>
       <c r="C131" t="n">
-        <v>0.691319</v>
+        <v>0.688997</v>
       </c>
       <c r="D131" t="n">
-        <v>1.29774</v>
+        <v>1.30163</v>
       </c>
       <c r="E131" t="n">
-        <v>0.245771</v>
+        <v>0.246567</v>
       </c>
       <c r="F131" t="n">
-        <v>0.663905</v>
+        <v>0.662312</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278215</v>
+        <v>0.278679</v>
       </c>
       <c r="C132" t="n">
-        <v>0.689784</v>
+        <v>0.688656</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30073</v>
+        <v>1.30129</v>
       </c>
       <c r="E132" t="n">
-        <v>0.242371</v>
+        <v>0.243396</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6614719999999999</v>
+        <v>0.661015</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275632</v>
+        <v>0.275579</v>
       </c>
       <c r="C133" t="n">
-        <v>0.688724</v>
+        <v>0.6878919999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30159</v>
+        <v>1.30424</v>
       </c>
       <c r="E133" t="n">
-        <v>0.239522</v>
+        <v>0.240401</v>
       </c>
       <c r="F133" t="n">
-        <v>0.660347</v>
+        <v>0.658753</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.270723</v>
+        <v>0.273172</v>
       </c>
       <c r="C134" t="n">
-        <v>0.690043</v>
+        <v>0.689422</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30427</v>
+        <v>1.30554</v>
       </c>
       <c r="E134" t="n">
-        <v>0.237036</v>
+        <v>0.238229</v>
       </c>
       <c r="F134" t="n">
-        <v>0.661708</v>
+        <v>0.658038</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.269423</v>
+        <v>0.271281</v>
       </c>
       <c r="C135" t="n">
-        <v>0.691535</v>
+        <v>0.690144</v>
       </c>
       <c r="D135" t="n">
-        <v>1.57823</v>
+        <v>1.58176</v>
       </c>
       <c r="E135" t="n">
-        <v>0.235718</v>
+        <v>0.236803</v>
       </c>
       <c r="F135" t="n">
-        <v>0.660505</v>
+        <v>0.65934</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.269114</v>
+        <v>0.270445</v>
       </c>
       <c r="C136" t="n">
-        <v>0.695148</v>
+        <v>0.693476</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55698</v>
+        <v>1.55971</v>
       </c>
       <c r="E136" t="n">
-        <v>0.235863</v>
+        <v>0.237285</v>
       </c>
       <c r="F136" t="n">
-        <v>0.66323</v>
+        <v>0.6611939999999999</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.269732</v>
+        <v>0.270996</v>
       </c>
       <c r="C137" t="n">
-        <v>0.69916</v>
+        <v>0.699021</v>
       </c>
       <c r="D137" t="n">
-        <v>1.536</v>
+        <v>1.53959</v>
       </c>
       <c r="E137" t="n">
-        <v>0.332809</v>
+        <v>0.334424</v>
       </c>
       <c r="F137" t="n">
-        <v>0.843567</v>
+        <v>0.84275</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.369074</v>
+        <v>0.375572</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8790480000000001</v>
+        <v>0.876264</v>
       </c>
       <c r="D138" t="n">
-        <v>1.51755</v>
+        <v>1.52181</v>
       </c>
       <c r="E138" t="n">
-        <v>0.327854</v>
+        <v>0.329019</v>
       </c>
       <c r="F138" t="n">
-        <v>0.843086</v>
+        <v>0.842298</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.363431</v>
+        <v>0.369042</v>
       </c>
       <c r="C139" t="n">
-        <v>0.863453</v>
+        <v>0.875385</v>
       </c>
       <c r="D139" t="n">
-        <v>1.50348</v>
+        <v>1.50499</v>
       </c>
       <c r="E139" t="n">
-        <v>0.32337</v>
+        <v>0.324226</v>
       </c>
       <c r="F139" t="n">
-        <v>0.84259</v>
+        <v>0.840129</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.357277</v>
+        <v>0.363612</v>
       </c>
       <c r="C140" t="n">
-        <v>0.876094</v>
+        <v>0.875038</v>
       </c>
       <c r="D140" t="n">
-        <v>1.49101</v>
+        <v>1.49187</v>
       </c>
       <c r="E140" t="n">
-        <v>0.318405</v>
+        <v>0.319974</v>
       </c>
       <c r="F140" t="n">
-        <v>0.841367</v>
+        <v>0.839893</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.352031</v>
+        <v>0.358091</v>
       </c>
       <c r="C141" t="n">
-        <v>0.877054</v>
+        <v>0.874323</v>
       </c>
       <c r="D141" t="n">
-        <v>1.47535</v>
+        <v>1.47904</v>
       </c>
       <c r="E141" t="n">
-        <v>0.313717</v>
+        <v>0.315044</v>
       </c>
       <c r="F141" t="n">
-        <v>0.841866</v>
+        <v>0.839131</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.346519</v>
+        <v>0.353052</v>
       </c>
       <c r="C142" t="n">
-        <v>0.877755</v>
+        <v>0.874893</v>
       </c>
       <c r="D142" t="n">
-        <v>1.46466</v>
+        <v>1.46556</v>
       </c>
       <c r="E142" t="n">
-        <v>0.309698</v>
+        <v>0.311051</v>
       </c>
       <c r="F142" t="n">
-        <v>0.840315</v>
+        <v>0.840351</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.342688</v>
+        <v>0.347512</v>
       </c>
       <c r="C143" t="n">
-        <v>0.878179</v>
+        <v>0.875456</v>
       </c>
       <c r="D143" t="n">
-        <v>1.45587</v>
+        <v>1.45804</v>
       </c>
       <c r="E143" t="n">
-        <v>0.306292</v>
+        <v>0.307467</v>
       </c>
       <c r="F143" t="n">
-        <v>0.841163</v>
+        <v>0.840658</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.165488</v>
+        <v>0.164436</v>
       </c>
       <c r="C2" t="n">
-        <v>0.285558</v>
+        <v>0.280973</v>
       </c>
       <c r="D2" t="n">
-        <v>0.346728</v>
+        <v>0.344834</v>
       </c>
       <c r="E2" t="n">
-        <v>0.142182</v>
+        <v>0.138665</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2747</v>
+        <v>0.27146</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.162179</v>
+        <v>0.153243</v>
       </c>
       <c r="C3" t="n">
-        <v>0.278106</v>
+        <v>0.282106</v>
       </c>
       <c r="D3" t="n">
-        <v>0.342854</v>
+        <v>0.342511</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1334</v>
+        <v>0.142745</v>
       </c>
       <c r="F3" t="n">
-        <v>0.26703</v>
+        <v>0.278027</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.15875</v>
+        <v>0.151337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.282495</v>
+        <v>0.270004</v>
       </c>
       <c r="D4" t="n">
-        <v>0.339768</v>
+        <v>0.338728</v>
       </c>
       <c r="E4" t="n">
-        <v>0.132588</v>
+        <v>0.128293</v>
       </c>
       <c r="F4" t="n">
-        <v>0.272339</v>
+        <v>0.264133</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.160728</v>
+        <v>0.151072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.285623</v>
+        <v>0.271599</v>
       </c>
       <c r="D5" t="n">
-        <v>0.339257</v>
+        <v>0.337861</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1303</v>
+        <v>0.124838</v>
       </c>
       <c r="F5" t="n">
-        <v>0.263756</v>
+        <v>0.259768</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.157424</v>
+        <v>0.140237</v>
       </c>
       <c r="C6" t="n">
-        <v>0.277327</v>
+        <v>0.266057</v>
       </c>
       <c r="D6" t="n">
-        <v>0.337888</v>
+        <v>0.337454</v>
       </c>
       <c r="E6" t="n">
-        <v>0.122169</v>
+        <v>0.121476</v>
       </c>
       <c r="F6" t="n">
-        <v>0.272002</v>
+        <v>0.256492</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.152216</v>
+        <v>0.147476</v>
       </c>
       <c r="C7" t="n">
-        <v>0.273322</v>
+        <v>0.263091</v>
       </c>
       <c r="D7" t="n">
-        <v>0.440466</v>
+        <v>0.442862</v>
       </c>
       <c r="E7" t="n">
-        <v>0.117435</v>
+        <v>0.134551</v>
       </c>
       <c r="F7" t="n">
-        <v>0.254253</v>
+        <v>0.256559</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.154581</v>
+        <v>0.149538</v>
       </c>
       <c r="C8" t="n">
-        <v>0.275109</v>
+        <v>0.267377</v>
       </c>
       <c r="D8" t="n">
-        <v>0.431674</v>
+        <v>0.439788</v>
       </c>
       <c r="E8" t="n">
-        <v>0.124497</v>
+        <v>0.123851</v>
       </c>
       <c r="F8" t="n">
-        <v>0.261315</v>
+        <v>0.259697</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.161488</v>
+        <v>0.149306</v>
       </c>
       <c r="C9" t="n">
-        <v>0.278335</v>
+        <v>0.265687</v>
       </c>
       <c r="D9" t="n">
-        <v>0.422194</v>
+        <v>0.423615</v>
       </c>
       <c r="E9" t="n">
-        <v>0.182037</v>
+        <v>0.187416</v>
       </c>
       <c r="F9" t="n">
-        <v>0.325621</v>
+        <v>0.329013</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.20859</v>
+        <v>0.21396</v>
       </c>
       <c r="C10" t="n">
-        <v>0.329632</v>
+        <v>0.327675</v>
       </c>
       <c r="D10" t="n">
-        <v>0.421593</v>
+        <v>0.417075</v>
       </c>
       <c r="E10" t="n">
-        <v>0.191304</v>
+        <v>0.183689</v>
       </c>
       <c r="F10" t="n">
-        <v>0.316259</v>
+        <v>0.314933</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.196144</v>
+        <v>0.204085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.323133</v>
+        <v>0.311794</v>
       </c>
       <c r="D11" t="n">
-        <v>0.415004</v>
+        <v>0.413954</v>
       </c>
       <c r="E11" t="n">
-        <v>0.168453</v>
+        <v>0.171955</v>
       </c>
       <c r="F11" t="n">
-        <v>0.31157</v>
+        <v>0.309831</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.209603</v>
+        <v>0.195151</v>
       </c>
       <c r="C12" t="n">
-        <v>0.312044</v>
+        <v>0.310988</v>
       </c>
       <c r="D12" t="n">
-        <v>0.404705</v>
+        <v>0.406336</v>
       </c>
       <c r="E12" t="n">
-        <v>0.162464</v>
+        <v>0.176048</v>
       </c>
       <c r="F12" t="n">
-        <v>0.305266</v>
+        <v>0.303286</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.195407</v>
+        <v>0.185788</v>
       </c>
       <c r="C13" t="n">
-        <v>0.312014</v>
+        <v>0.30432</v>
       </c>
       <c r="D13" t="n">
-        <v>0.397849</v>
+        <v>0.396464</v>
       </c>
       <c r="E13" t="n">
-        <v>0.161659</v>
+        <v>0.157156</v>
       </c>
       <c r="F13" t="n">
-        <v>0.294057</v>
+        <v>0.292104</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.17599</v>
+        <v>0.180028</v>
       </c>
       <c r="C14" t="n">
-        <v>0.301616</v>
+        <v>0.294401</v>
       </c>
       <c r="D14" t="n">
-        <v>0.399366</v>
+        <v>0.393021</v>
       </c>
       <c r="E14" t="n">
-        <v>0.160799</v>
+        <v>0.154045</v>
       </c>
       <c r="F14" t="n">
-        <v>0.295131</v>
+        <v>0.289971</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.17796</v>
+        <v>0.172065</v>
       </c>
       <c r="C15" t="n">
-        <v>0.292777</v>
+        <v>0.292509</v>
       </c>
       <c r="D15" t="n">
-        <v>0.389994</v>
+        <v>0.386458</v>
       </c>
       <c r="E15" t="n">
-        <v>0.155964</v>
+        <v>0.145937</v>
       </c>
       <c r="F15" t="n">
-        <v>0.283326</v>
+        <v>0.279815</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.176084</v>
+        <v>0.161504</v>
       </c>
       <c r="C16" t="n">
-        <v>0.289493</v>
+        <v>0.284249</v>
       </c>
       <c r="D16" t="n">
-        <v>0.385962</v>
+        <v>0.382201</v>
       </c>
       <c r="E16" t="n">
-        <v>0.150384</v>
+        <v>0.143838</v>
       </c>
       <c r="F16" t="n">
-        <v>0.275227</v>
+        <v>0.27598</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.161143</v>
+        <v>0.156543</v>
       </c>
       <c r="C17" t="n">
-        <v>0.282704</v>
+        <v>0.276762</v>
       </c>
       <c r="D17" t="n">
-        <v>0.382077</v>
+        <v>0.380617</v>
       </c>
       <c r="E17" t="n">
-        <v>0.137198</v>
+        <v>0.138318</v>
       </c>
       <c r="F17" t="n">
-        <v>0.273413</v>
+        <v>0.271485</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.159983</v>
+        <v>0.1664</v>
       </c>
       <c r="C18" t="n">
-        <v>0.278453</v>
+        <v>0.276464</v>
       </c>
       <c r="D18" t="n">
-        <v>0.375873</v>
+        <v>0.37287</v>
       </c>
       <c r="E18" t="n">
-        <v>0.147963</v>
+        <v>0.140367</v>
       </c>
       <c r="F18" t="n">
-        <v>0.272364</v>
+        <v>0.269924</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.163607</v>
+        <v>0.15518</v>
       </c>
       <c r="C19" t="n">
-        <v>0.275293</v>
+        <v>0.271294</v>
       </c>
       <c r="D19" t="n">
-        <v>0.371213</v>
+        <v>0.376926</v>
       </c>
       <c r="E19" t="n">
-        <v>0.138681</v>
+        <v>0.145568</v>
       </c>
       <c r="F19" t="n">
-        <v>0.265338</v>
+        <v>0.266556</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.156693</v>
+        <v>0.156611</v>
       </c>
       <c r="C20" t="n">
-        <v>0.269079</v>
+        <v>0.265489</v>
       </c>
       <c r="D20" t="n">
-        <v>0.371946</v>
+        <v>0.367951</v>
       </c>
       <c r="E20" t="n">
-        <v>0.132448</v>
+        <v>0.137089</v>
       </c>
       <c r="F20" t="n">
-        <v>0.261249</v>
+        <v>0.260242</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.151316</v>
+        <v>0.149897</v>
       </c>
       <c r="C21" t="n">
-        <v>0.269085</v>
+        <v>0.264504</v>
       </c>
       <c r="D21" t="n">
-        <v>0.47316</v>
+        <v>0.468193</v>
       </c>
       <c r="E21" t="n">
-        <v>0.130572</v>
+        <v>0.13843</v>
       </c>
       <c r="F21" t="n">
-        <v>0.258268</v>
+        <v>0.256404</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.158196</v>
+        <v>0.147511</v>
       </c>
       <c r="C22" t="n">
-        <v>0.267758</v>
+        <v>0.268615</v>
       </c>
       <c r="D22" t="n">
-        <v>0.461231</v>
+        <v>0.466507</v>
       </c>
       <c r="E22" t="n">
-        <v>0.132835</v>
+        <v>0.136771</v>
       </c>
       <c r="F22" t="n">
-        <v>0.25826</v>
+        <v>0.25464</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.158694</v>
+        <v>0.150756</v>
       </c>
       <c r="C23" t="n">
-        <v>0.27109</v>
+        <v>0.26656</v>
       </c>
       <c r="D23" t="n">
-        <v>0.449304</v>
+        <v>0.447596</v>
       </c>
       <c r="E23" t="n">
-        <v>0.223855</v>
+        <v>0.220123</v>
       </c>
       <c r="F23" t="n">
-        <v>0.333064</v>
+        <v>0.337317</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243133</v>
+        <v>0.2358</v>
       </c>
       <c r="C24" t="n">
-        <v>0.338298</v>
+        <v>0.333998</v>
       </c>
       <c r="D24" t="n">
-        <v>0.442867</v>
+        <v>0.441891</v>
       </c>
       <c r="E24" t="n">
-        <v>0.207786</v>
+        <v>0.220317</v>
       </c>
       <c r="F24" t="n">
-        <v>0.326798</v>
+        <v>0.324912</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.233791</v>
+        <v>0.231574</v>
       </c>
       <c r="C25" t="n">
-        <v>0.330181</v>
+        <v>0.325315</v>
       </c>
       <c r="D25" t="n">
-        <v>0.436635</v>
+        <v>0.434863</v>
       </c>
       <c r="E25" t="n">
-        <v>0.196462</v>
+        <v>0.202589</v>
       </c>
       <c r="F25" t="n">
-        <v>0.317972</v>
+        <v>0.316688</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.226368</v>
+        <v>0.212713</v>
       </c>
       <c r="C26" t="n">
-        <v>0.320759</v>
+        <v>0.317063</v>
       </c>
       <c r="D26" t="n">
-        <v>0.429526</v>
+        <v>0.43024</v>
       </c>
       <c r="E26" t="n">
-        <v>0.19705</v>
+        <v>0.197793</v>
       </c>
       <c r="F26" t="n">
-        <v>0.310059</v>
+        <v>0.310637</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.219727</v>
+        <v>0.205346</v>
       </c>
       <c r="C27" t="n">
-        <v>0.315705</v>
+        <v>0.310616</v>
       </c>
       <c r="D27" t="n">
-        <v>0.424316</v>
+        <v>0.423051</v>
       </c>
       <c r="E27" t="n">
-        <v>0.181869</v>
+        <v>0.193734</v>
       </c>
       <c r="F27" t="n">
-        <v>0.303892</v>
+        <v>0.301369</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.210667</v>
+        <v>0.205291</v>
       </c>
       <c r="C28" t="n">
-        <v>0.309048</v>
+        <v>0.30656</v>
       </c>
       <c r="D28" t="n">
-        <v>0.41768</v>
+        <v>0.41705</v>
       </c>
       <c r="E28" t="n">
-        <v>0.181644</v>
+        <v>0.188166</v>
       </c>
       <c r="F28" t="n">
-        <v>0.296057</v>
+        <v>0.294721</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.193408</v>
+        <v>0.18797</v>
       </c>
       <c r="C29" t="n">
-        <v>0.301588</v>
+        <v>0.300316</v>
       </c>
       <c r="D29" t="n">
-        <v>0.411507</v>
+        <v>0.412459</v>
       </c>
       <c r="E29" t="n">
-        <v>0.175803</v>
+        <v>0.176847</v>
       </c>
       <c r="F29" t="n">
-        <v>0.290233</v>
+        <v>0.288792</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.195959</v>
+        <v>0.183094</v>
       </c>
       <c r="C30" t="n">
-        <v>0.297075</v>
+        <v>0.295038</v>
       </c>
       <c r="D30" t="n">
-        <v>0.404621</v>
+        <v>0.404678</v>
       </c>
       <c r="E30" t="n">
-        <v>0.168448</v>
+        <v>0.169853</v>
       </c>
       <c r="F30" t="n">
-        <v>0.282923</v>
+        <v>0.282717</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.186976</v>
+        <v>0.184551</v>
       </c>
       <c r="C31" t="n">
-        <v>0.291306</v>
+        <v>0.288175</v>
       </c>
       <c r="D31" t="n">
-        <v>0.403225</v>
+        <v>0.403951</v>
       </c>
       <c r="E31" t="n">
-        <v>0.166909</v>
+        <v>0.166962</v>
       </c>
       <c r="F31" t="n">
-        <v>0.277482</v>
+        <v>0.276597</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.182776</v>
+        <v>0.183895</v>
       </c>
       <c r="C32" t="n">
-        <v>0.286861</v>
+        <v>0.28467</v>
       </c>
       <c r="D32" t="n">
-        <v>0.397033</v>
+        <v>0.396373</v>
       </c>
       <c r="E32" t="n">
-        <v>0.161246</v>
+        <v>0.158292</v>
       </c>
       <c r="F32" t="n">
-        <v>0.272964</v>
+        <v>0.272498</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.181377</v>
+        <v>0.17072</v>
       </c>
       <c r="C33" t="n">
-        <v>0.283244</v>
+        <v>0.279135</v>
       </c>
       <c r="D33" t="n">
-        <v>0.391952</v>
+        <v>0.395721</v>
       </c>
       <c r="E33" t="n">
-        <v>0.157131</v>
+        <v>0.159874</v>
       </c>
       <c r="F33" t="n">
-        <v>0.268848</v>
+        <v>0.268419</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.17528</v>
+        <v>0.164135</v>
       </c>
       <c r="C34" t="n">
-        <v>0.279965</v>
+        <v>0.275697</v>
       </c>
       <c r="D34" t="n">
-        <v>0.388001</v>
+        <v>0.389129</v>
       </c>
       <c r="E34" t="n">
-        <v>0.151114</v>
+        <v>0.154868</v>
       </c>
       <c r="F34" t="n">
-        <v>0.265005</v>
+        <v>0.267583</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.170146</v>
+        <v>0.167075</v>
       </c>
       <c r="C35" t="n">
-        <v>0.277891</v>
+        <v>0.275451</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4952</v>
+        <v>0.497053</v>
       </c>
       <c r="E35" t="n">
-        <v>0.148537</v>
+        <v>0.149977</v>
       </c>
       <c r="F35" t="n">
-        <v>0.264171</v>
+        <v>0.26451</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.174977</v>
+        <v>0.168729</v>
       </c>
       <c r="C36" t="n">
-        <v>0.278603</v>
+        <v>0.274834</v>
       </c>
       <c r="D36" t="n">
-        <v>0.481678</v>
+        <v>0.483135</v>
       </c>
       <c r="E36" t="n">
-        <v>0.150641</v>
+        <v>0.150847</v>
       </c>
       <c r="F36" t="n">
-        <v>0.264391</v>
+        <v>0.26389</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166558</v>
+        <v>0.167169</v>
       </c>
       <c r="C37" t="n">
-        <v>0.281484</v>
+        <v>0.27674</v>
       </c>
       <c r="D37" t="n">
-        <v>0.471855</v>
+        <v>0.472576</v>
       </c>
       <c r="E37" t="n">
-        <v>0.22988</v>
+        <v>0.230792</v>
       </c>
       <c r="F37" t="n">
-        <v>0.346648</v>
+        <v>0.347653</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247269</v>
+        <v>0.24198</v>
       </c>
       <c r="C38" t="n">
-        <v>0.352837</v>
+        <v>0.348086</v>
       </c>
       <c r="D38" t="n">
-        <v>0.463606</v>
+        <v>0.463103</v>
       </c>
       <c r="E38" t="n">
-        <v>0.221642</v>
+        <v>0.220349</v>
       </c>
       <c r="F38" t="n">
-        <v>0.338558</v>
+        <v>0.339718</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.237678</v>
+        <v>0.232738</v>
       </c>
       <c r="C39" t="n">
-        <v>0.345038</v>
+        <v>0.342147</v>
       </c>
       <c r="D39" t="n">
-        <v>0.453896</v>
+        <v>0.453391</v>
       </c>
       <c r="E39" t="n">
-        <v>0.21243</v>
+        <v>0.212271</v>
       </c>
       <c r="F39" t="n">
-        <v>0.33188</v>
+        <v>0.331837</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.229292</v>
+        <v>0.22351</v>
       </c>
       <c r="C40" t="n">
-        <v>0.337138</v>
+        <v>0.332426</v>
       </c>
       <c r="D40" t="n">
-        <v>0.445041</v>
+        <v>0.446675</v>
       </c>
       <c r="E40" t="n">
-        <v>0.206329</v>
+        <v>0.206132</v>
       </c>
       <c r="F40" t="n">
-        <v>0.323269</v>
+        <v>0.323437</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.220888</v>
+        <v>0.216627</v>
       </c>
       <c r="C41" t="n">
-        <v>0.328957</v>
+        <v>0.32494</v>
       </c>
       <c r="D41" t="n">
-        <v>0.439551</v>
+        <v>0.438039</v>
       </c>
       <c r="E41" t="n">
-        <v>0.198632</v>
+        <v>0.197554</v>
       </c>
       <c r="F41" t="n">
-        <v>0.316625</v>
+        <v>0.315478</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.212638</v>
+        <v>0.208673</v>
       </c>
       <c r="C42" t="n">
-        <v>0.321209</v>
+        <v>0.319571</v>
       </c>
       <c r="D42" t="n">
-        <v>0.431599</v>
+        <v>0.430311</v>
       </c>
       <c r="E42" t="n">
-        <v>0.189812</v>
+        <v>0.189672</v>
       </c>
       <c r="F42" t="n">
-        <v>0.309767</v>
+        <v>0.310111</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.205616</v>
+        <v>0.20214</v>
       </c>
       <c r="C43" t="n">
-        <v>0.316528</v>
+        <v>0.312133</v>
       </c>
       <c r="D43" t="n">
-        <v>0.424976</v>
+        <v>0.426484</v>
       </c>
       <c r="E43" t="n">
-        <v>0.183753</v>
+        <v>0.18224</v>
       </c>
       <c r="F43" t="n">
-        <v>0.303505</v>
+        <v>0.302732</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.199143</v>
+        <v>0.195857</v>
       </c>
       <c r="C44" t="n">
-        <v>0.309975</v>
+        <v>0.307098</v>
       </c>
       <c r="D44" t="n">
-        <v>0.418797</v>
+        <v>0.418302</v>
       </c>
       <c r="E44" t="n">
-        <v>0.179082</v>
+        <v>0.176772</v>
       </c>
       <c r="F44" t="n">
-        <v>0.296644</v>
+        <v>0.296725</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.193092</v>
+        <v>0.188994</v>
       </c>
       <c r="C45" t="n">
-        <v>0.305757</v>
+        <v>0.301784</v>
       </c>
       <c r="D45" t="n">
-        <v>0.415556</v>
+        <v>0.415871</v>
       </c>
       <c r="E45" t="n">
-        <v>0.170934</v>
+        <v>0.170737</v>
       </c>
       <c r="F45" t="n">
-        <v>0.290596</v>
+        <v>0.290875</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.186018</v>
+        <v>0.183134</v>
       </c>
       <c r="C46" t="n">
-        <v>0.29954</v>
+        <v>0.298002</v>
       </c>
       <c r="D46" t="n">
-        <v>0.409348</v>
+        <v>0.410231</v>
       </c>
       <c r="E46" t="n">
-        <v>0.165182</v>
+        <v>0.165596</v>
       </c>
       <c r="F46" t="n">
-        <v>0.286595</v>
+        <v>0.286823</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.182085</v>
+        <v>0.178793</v>
       </c>
       <c r="C47" t="n">
-        <v>0.296174</v>
+        <v>0.29456</v>
       </c>
       <c r="D47" t="n">
-        <v>0.406766</v>
+        <v>0.406236</v>
       </c>
       <c r="E47" t="n">
-        <v>0.161593</v>
+        <v>0.162297</v>
       </c>
       <c r="F47" t="n">
-        <v>0.282851</v>
+        <v>0.283428</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.178217</v>
+        <v>0.17505</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294459</v>
+        <v>0.292434</v>
       </c>
       <c r="D48" t="n">
-        <v>0.402391</v>
+        <v>0.403403</v>
       </c>
       <c r="E48" t="n">
-        <v>0.157605</v>
+        <v>0.157323</v>
       </c>
       <c r="F48" t="n">
-        <v>0.278848</v>
+        <v>0.279859</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.176101</v>
+        <v>0.172742</v>
       </c>
       <c r="C49" t="n">
-        <v>0.291836</v>
+        <v>0.288125</v>
       </c>
       <c r="D49" t="n">
-        <v>0.401026</v>
+        <v>0.400278</v>
       </c>
       <c r="E49" t="n">
-        <v>0.156011</v>
+        <v>0.155032</v>
       </c>
       <c r="F49" t="n">
-        <v>0.278262</v>
+        <v>0.277194</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173774</v>
+        <v>0.170833</v>
       </c>
       <c r="C50" t="n">
-        <v>0.291963</v>
+        <v>0.2879</v>
       </c>
       <c r="D50" t="n">
-        <v>0.505899</v>
+        <v>0.506799</v>
       </c>
       <c r="E50" t="n">
-        <v>0.154285</v>
+        <v>0.153784</v>
       </c>
       <c r="F50" t="n">
-        <v>0.277525</v>
+        <v>0.276739</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174388</v>
+        <v>0.171669</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292408</v>
+        <v>0.291255</v>
       </c>
       <c r="D51" t="n">
-        <v>0.494343</v>
+        <v>0.494917</v>
       </c>
       <c r="E51" t="n">
-        <v>0.240159</v>
+        <v>0.238169</v>
       </c>
       <c r="F51" t="n">
-        <v>0.359405</v>
+        <v>0.359919</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177983</v>
+        <v>0.175119</v>
       </c>
       <c r="C52" t="n">
-        <v>0.298248</v>
+        <v>0.294647</v>
       </c>
       <c r="D52" t="n">
-        <v>0.483661</v>
+        <v>0.484566</v>
       </c>
       <c r="E52" t="n">
-        <v>0.230956</v>
+        <v>0.229896</v>
       </c>
       <c r="F52" t="n">
-        <v>0.351077</v>
+        <v>0.351198</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242696</v>
+        <v>0.240407</v>
       </c>
       <c r="C53" t="n">
-        <v>0.356513</v>
+        <v>0.354963</v>
       </c>
       <c r="D53" t="n">
-        <v>0.474144</v>
+        <v>0.475766</v>
       </c>
       <c r="E53" t="n">
-        <v>0.221815</v>
+        <v>0.220427</v>
       </c>
       <c r="F53" t="n">
-        <v>0.342769</v>
+        <v>0.342146</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.234148</v>
+        <v>0.231606</v>
       </c>
       <c r="C54" t="n">
-        <v>0.348888</v>
+        <v>0.345998</v>
       </c>
       <c r="D54" t="n">
-        <v>0.466852</v>
+        <v>0.46684</v>
       </c>
       <c r="E54" t="n">
-        <v>0.213675</v>
+        <v>0.21214</v>
       </c>
       <c r="F54" t="n">
-        <v>0.334735</v>
+        <v>0.334161</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.224669</v>
+        <v>0.223454</v>
       </c>
       <c r="C55" t="n">
-        <v>0.343516</v>
+        <v>0.340553</v>
       </c>
       <c r="D55" t="n">
-        <v>0.458434</v>
+        <v>0.459279</v>
       </c>
       <c r="E55" t="n">
-        <v>0.206024</v>
+        <v>0.204765</v>
       </c>
       <c r="F55" t="n">
-        <v>0.329013</v>
+        <v>0.328398</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217291</v>
+        <v>0.214853</v>
       </c>
       <c r="C56" t="n">
-        <v>0.33583</v>
+        <v>0.334355</v>
       </c>
       <c r="D56" t="n">
-        <v>0.451238</v>
+        <v>0.450166</v>
       </c>
       <c r="E56" t="n">
-        <v>0.198351</v>
+        <v>0.196228</v>
       </c>
       <c r="F56" t="n">
-        <v>0.321989</v>
+        <v>0.321825</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.210404</v>
+        <v>0.208314</v>
       </c>
       <c r="C57" t="n">
-        <v>0.32988</v>
+        <v>0.32763</v>
       </c>
       <c r="D57" t="n">
-        <v>0.44539</v>
+        <v>0.44552</v>
       </c>
       <c r="E57" t="n">
-        <v>0.191343</v>
+        <v>0.189756</v>
       </c>
       <c r="F57" t="n">
-        <v>0.315034</v>
+        <v>0.314748</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.202453</v>
+        <v>0.20143</v>
       </c>
       <c r="C58" t="n">
-        <v>0.323696</v>
+        <v>0.321706</v>
       </c>
       <c r="D58" t="n">
-        <v>0.439753</v>
+        <v>0.43808</v>
       </c>
       <c r="E58" t="n">
-        <v>0.184648</v>
+        <v>0.183914</v>
       </c>
       <c r="F58" t="n">
-        <v>0.309441</v>
+        <v>0.308547</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196614</v>
+        <v>0.195213</v>
       </c>
       <c r="C59" t="n">
-        <v>0.318536</v>
+        <v>0.316203</v>
       </c>
       <c r="D59" t="n">
-        <v>0.434326</v>
+        <v>0.434936</v>
       </c>
       <c r="E59" t="n">
-        <v>0.17837</v>
+        <v>0.177093</v>
       </c>
       <c r="F59" t="n">
-        <v>0.303492</v>
+        <v>0.30331</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.191129</v>
+        <v>0.189187</v>
       </c>
       <c r="C60" t="n">
-        <v>0.313146</v>
+        <v>0.312498</v>
       </c>
       <c r="D60" t="n">
-        <v>0.429562</v>
+        <v>0.428229</v>
       </c>
       <c r="E60" t="n">
-        <v>0.172746</v>
+        <v>0.171848</v>
       </c>
       <c r="F60" t="n">
-        <v>0.298576</v>
+        <v>0.297885</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.185414</v>
+        <v>0.185115</v>
       </c>
       <c r="C61" t="n">
-        <v>0.309346</v>
+        <v>0.307453</v>
       </c>
       <c r="D61" t="n">
-        <v>0.424822</v>
+        <v>0.425939</v>
       </c>
       <c r="E61" t="n">
-        <v>0.168037</v>
+        <v>0.166805</v>
       </c>
       <c r="F61" t="n">
-        <v>0.294241</v>
+        <v>0.293644</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181517</v>
+        <v>0.179419</v>
       </c>
       <c r="C62" t="n">
-        <v>0.305218</v>
+        <v>0.303643</v>
       </c>
       <c r="D62" t="n">
-        <v>0.420964</v>
+        <v>0.421625</v>
       </c>
       <c r="E62" t="n">
-        <v>0.164167</v>
+        <v>0.163853</v>
       </c>
       <c r="F62" t="n">
-        <v>0.290418</v>
+        <v>0.29069</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178585</v>
+        <v>0.176443</v>
       </c>
       <c r="C63" t="n">
-        <v>0.303575</v>
+        <v>0.302137</v>
       </c>
       <c r="D63" t="n">
-        <v>0.417834</v>
+        <v>0.418141</v>
       </c>
       <c r="E63" t="n">
-        <v>0.161268</v>
+        <v>0.160472</v>
       </c>
       <c r="F63" t="n">
-        <v>0.28828</v>
+        <v>0.288027</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176354</v>
+        <v>0.175225</v>
       </c>
       <c r="C64" t="n">
-        <v>0.302604</v>
+        <v>0.300923</v>
       </c>
       <c r="D64" t="n">
-        <v>0.544772</v>
+        <v>0.54411</v>
       </c>
       <c r="E64" t="n">
-        <v>0.159102</v>
+        <v>0.158768</v>
       </c>
       <c r="F64" t="n">
-        <v>0.287349</v>
+        <v>0.287013</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177476</v>
+        <v>0.175876</v>
       </c>
       <c r="C65" t="n">
-        <v>0.30568</v>
+        <v>0.301673</v>
       </c>
       <c r="D65" t="n">
-        <v>0.531711</v>
+        <v>0.530349</v>
       </c>
       <c r="E65" t="n">
-        <v>0.160245</v>
+        <v>0.15889</v>
       </c>
       <c r="F65" t="n">
-        <v>0.288941</v>
+        <v>0.287989</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179937</v>
+        <v>0.178271</v>
       </c>
       <c r="C66" t="n">
-        <v>0.306998</v>
+        <v>0.305296</v>
       </c>
       <c r="D66" t="n">
-        <v>0.523525</v>
+        <v>0.520645</v>
       </c>
       <c r="E66" t="n">
-        <v>0.241648</v>
+        <v>0.238896</v>
       </c>
       <c r="F66" t="n">
-        <v>0.367986</v>
+        <v>0.36749</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.245052</v>
+        <v>0.24397</v>
       </c>
       <c r="C67" t="n">
-        <v>0.375131</v>
+        <v>0.372602</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5148779999999999</v>
+        <v>0.512845</v>
       </c>
       <c r="E67" t="n">
-        <v>0.232219</v>
+        <v>0.227247</v>
       </c>
       <c r="F67" t="n">
-        <v>0.359206</v>
+        <v>0.358716</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237107</v>
+        <v>0.235104</v>
       </c>
       <c r="C68" t="n">
-        <v>0.365585</v>
+        <v>0.36374</v>
       </c>
       <c r="D68" t="n">
-        <v>0.506795</v>
+        <v>0.503362</v>
       </c>
       <c r="E68" t="n">
-        <v>0.222402</v>
+        <v>0.222047</v>
       </c>
       <c r="F68" t="n">
-        <v>0.350478</v>
+        <v>0.349621</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227991</v>
+        <v>0.226391</v>
       </c>
       <c r="C69" t="n">
-        <v>0.361003</v>
+        <v>0.359927</v>
       </c>
       <c r="D69" t="n">
-        <v>0.500333</v>
+        <v>0.496905</v>
       </c>
       <c r="E69" t="n">
-        <v>0.215399</v>
+        <v>0.213417</v>
       </c>
       <c r="F69" t="n">
-        <v>0.346057</v>
+        <v>0.344237</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.220762</v>
+        <v>0.218848</v>
       </c>
       <c r="C70" t="n">
-        <v>0.354619</v>
+        <v>0.352632</v>
       </c>
       <c r="D70" t="n">
-        <v>0.491427</v>
+        <v>0.491011</v>
       </c>
       <c r="E70" t="n">
-        <v>0.208327</v>
+        <v>0.205078</v>
       </c>
       <c r="F70" t="n">
-        <v>0.337787</v>
+        <v>0.33745</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.212598</v>
+        <v>0.211263</v>
       </c>
       <c r="C71" t="n">
-        <v>0.347006</v>
+        <v>0.34591</v>
       </c>
       <c r="D71" t="n">
-        <v>0.486046</v>
+        <v>0.485155</v>
       </c>
       <c r="E71" t="n">
-        <v>0.20011</v>
+        <v>0.199429</v>
       </c>
       <c r="F71" t="n">
-        <v>0.331678</v>
+        <v>0.330553</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205894</v>
+        <v>0.205598</v>
       </c>
       <c r="C72" t="n">
-        <v>0.34052</v>
+        <v>0.33978</v>
       </c>
       <c r="D72" t="n">
-        <v>0.483436</v>
+        <v>0.480933</v>
       </c>
       <c r="E72" t="n">
-        <v>0.19364</v>
+        <v>0.1898</v>
       </c>
       <c r="F72" t="n">
-        <v>0.324904</v>
+        <v>0.324414</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.198835</v>
+        <v>0.199403</v>
       </c>
       <c r="C73" t="n">
-        <v>0.334119</v>
+        <v>0.334497</v>
       </c>
       <c r="D73" t="n">
-        <v>0.480117</v>
+        <v>0.477016</v>
       </c>
       <c r="E73" t="n">
-        <v>0.186281</v>
+        <v>0.185327</v>
       </c>
       <c r="F73" t="n">
-        <v>0.319061</v>
+        <v>0.318135</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193891</v>
+        <v>0.194431</v>
       </c>
       <c r="C74" t="n">
-        <v>0.329133</v>
+        <v>0.328575</v>
       </c>
       <c r="D74" t="n">
-        <v>0.493163</v>
+        <v>0.492654</v>
       </c>
       <c r="E74" t="n">
-        <v>0.180308</v>
+        <v>0.179807</v>
       </c>
       <c r="F74" t="n">
-        <v>0.31329</v>
+        <v>0.31245</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188307</v>
+        <v>0.187882</v>
       </c>
       <c r="C75" t="n">
-        <v>0.32502</v>
+        <v>0.323933</v>
       </c>
       <c r="D75" t="n">
-        <v>0.489913</v>
+        <v>0.488015</v>
       </c>
       <c r="E75" t="n">
-        <v>0.175082</v>
+        <v>0.175884</v>
       </c>
       <c r="F75" t="n">
-        <v>0.307943</v>
+        <v>0.30816</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.184574</v>
+        <v>0.184704</v>
       </c>
       <c r="C76" t="n">
-        <v>0.321414</v>
+        <v>0.320841</v>
       </c>
       <c r="D76" t="n">
-        <v>0.484678</v>
+        <v>0.483111</v>
       </c>
       <c r="E76" t="n">
-        <v>0.170459</v>
+        <v>0.170113</v>
       </c>
       <c r="F76" t="n">
-        <v>0.304684</v>
+        <v>0.304074</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181644</v>
+        <v>0.180428</v>
       </c>
       <c r="C77" t="n">
-        <v>0.317994</v>
+        <v>0.319441</v>
       </c>
       <c r="D77" t="n">
-        <v>0.481277</v>
+        <v>0.481386</v>
       </c>
       <c r="E77" t="n">
-        <v>0.167219</v>
+        <v>0.16575</v>
       </c>
       <c r="F77" t="n">
-        <v>0.301337</v>
+        <v>0.300673</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179237</v>
+        <v>0.179796</v>
       </c>
       <c r="C78" t="n">
-        <v>0.319693</v>
+        <v>0.318863</v>
       </c>
       <c r="D78" t="n">
-        <v>0.661709</v>
+        <v>0.660083</v>
       </c>
       <c r="E78" t="n">
-        <v>0.165108</v>
+        <v>0.165477</v>
       </c>
       <c r="F78" t="n">
-        <v>0.301608</v>
+        <v>0.3019</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178452</v>
+        <v>0.179814</v>
       </c>
       <c r="C79" t="n">
-        <v>0.318459</v>
+        <v>0.318428</v>
       </c>
       <c r="D79" t="n">
-        <v>0.652004</v>
+        <v>0.650795</v>
       </c>
       <c r="E79" t="n">
-        <v>0.165128</v>
+        <v>0.165816</v>
       </c>
       <c r="F79" t="n">
-        <v>0.30269</v>
+        <v>0.302392</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180393</v>
+        <v>0.180202</v>
       </c>
       <c r="C80" t="n">
-        <v>0.323064</v>
+        <v>0.321105</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6424530000000001</v>
+        <v>0.638475</v>
       </c>
       <c r="E80" t="n">
-        <v>0.238361</v>
+        <v>0.240153</v>
       </c>
       <c r="F80" t="n">
-        <v>0.38369</v>
+        <v>0.384468</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.25762</v>
+        <v>0.258368</v>
       </c>
       <c r="C81" t="n">
-        <v>0.392904</v>
+        <v>0.393188</v>
       </c>
       <c r="D81" t="n">
-        <v>0.633952</v>
+        <v>0.631645</v>
       </c>
       <c r="E81" t="n">
-        <v>0.229803</v>
+        <v>0.231011</v>
       </c>
       <c r="F81" t="n">
-        <v>0.378037</v>
+        <v>0.378407</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.250339</v>
+        <v>0.250637</v>
       </c>
       <c r="C82" t="n">
-        <v>0.388666</v>
+        <v>0.389376</v>
       </c>
       <c r="D82" t="n">
-        <v>0.626717</v>
+        <v>0.62541</v>
       </c>
       <c r="E82" t="n">
-        <v>0.221572</v>
+        <v>0.2211</v>
       </c>
       <c r="F82" t="n">
-        <v>0.37184</v>
+        <v>0.372644</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241834</v>
+        <v>0.242272</v>
       </c>
       <c r="C83" t="n">
-        <v>0.384054</v>
+        <v>0.384833</v>
       </c>
       <c r="D83" t="n">
-        <v>0.623122</v>
+        <v>0.619604</v>
       </c>
       <c r="E83" t="n">
-        <v>0.213604</v>
+        <v>0.2138</v>
       </c>
       <c r="F83" t="n">
-        <v>0.36577</v>
+        <v>0.366611</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234863</v>
+        <v>0.235356</v>
       </c>
       <c r="C84" t="n">
-        <v>0.380225</v>
+        <v>0.381058</v>
       </c>
       <c r="D84" t="n">
-        <v>0.617415</v>
+        <v>0.617903</v>
       </c>
       <c r="E84" t="n">
-        <v>0.206084</v>
+        <v>0.207678</v>
       </c>
       <c r="F84" t="n">
-        <v>0.36091</v>
+        <v>0.361356</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227109</v>
+        <v>0.227983</v>
       </c>
       <c r="C85" t="n">
-        <v>0.375612</v>
+        <v>0.376951</v>
       </c>
       <c r="D85" t="n">
-        <v>0.617109</v>
+        <v>0.616808</v>
       </c>
       <c r="E85" t="n">
-        <v>0.199514</v>
+        <v>0.201117</v>
       </c>
       <c r="F85" t="n">
-        <v>0.354469</v>
+        <v>0.355443</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220273</v>
+        <v>0.221092</v>
       </c>
       <c r="C86" t="n">
-        <v>0.370212</v>
+        <v>0.370458</v>
       </c>
       <c r="D86" t="n">
-        <v>0.61471</v>
+        <v>0.616389</v>
       </c>
       <c r="E86" t="n">
-        <v>0.192868</v>
+        <v>0.191941</v>
       </c>
       <c r="F86" t="n">
-        <v>0.348302</v>
+        <v>0.348896</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213998</v>
+        <v>0.214109</v>
       </c>
       <c r="C87" t="n">
-        <v>0.364452</v>
+        <v>0.365836</v>
       </c>
       <c r="D87" t="n">
-        <v>0.614559</v>
+        <v>0.616682</v>
       </c>
       <c r="E87" t="n">
-        <v>0.186818</v>
+        <v>0.187839</v>
       </c>
       <c r="F87" t="n">
-        <v>0.342714</v>
+        <v>0.343267</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207489</v>
+        <v>0.207692</v>
       </c>
       <c r="C88" t="n">
-        <v>0.360983</v>
+        <v>0.362121</v>
       </c>
       <c r="D88" t="n">
-        <v>0.615901</v>
+        <v>0.615442</v>
       </c>
       <c r="E88" t="n">
-        <v>0.180959</v>
+        <v>0.179723</v>
       </c>
       <c r="F88" t="n">
-        <v>0.338057</v>
+        <v>0.339188</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201888</v>
+        <v>0.201818</v>
       </c>
       <c r="C89" t="n">
-        <v>0.356013</v>
+        <v>0.356595</v>
       </c>
       <c r="D89" t="n">
-        <v>0.629692</v>
+        <v>0.631664</v>
       </c>
       <c r="E89" t="n">
-        <v>0.176011</v>
+        <v>0.17629</v>
       </c>
       <c r="F89" t="n">
-        <v>0.333011</v>
+        <v>0.333945</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19716</v>
+        <v>0.196682</v>
       </c>
       <c r="C90" t="n">
-        <v>0.351415</v>
+        <v>0.35332</v>
       </c>
       <c r="D90" t="n">
-        <v>0.634728</v>
+        <v>0.631023</v>
       </c>
       <c r="E90" t="n">
-        <v>0.171779</v>
+        <v>0.17192</v>
       </c>
       <c r="F90" t="n">
-        <v>0.329593</v>
+        <v>0.330129</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193001</v>
+        <v>0.193048</v>
       </c>
       <c r="C91" t="n">
-        <v>0.349071</v>
+        <v>0.35034</v>
       </c>
       <c r="D91" t="n">
-        <v>0.638579</v>
+        <v>0.6385189999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>0.16815</v>
+        <v>0.168765</v>
       </c>
       <c r="F91" t="n">
-        <v>0.326546</v>
+        <v>0.327163</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190131</v>
+        <v>0.189765</v>
       </c>
       <c r="C92" t="n">
-        <v>0.348622</v>
+        <v>0.350096</v>
       </c>
       <c r="D92" t="n">
-        <v>0.856172</v>
+        <v>0.851418</v>
       </c>
       <c r="E92" t="n">
-        <v>0.166044</v>
+        <v>0.166487</v>
       </c>
       <c r="F92" t="n">
-        <v>0.324683</v>
+        <v>0.325371</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188664</v>
+        <v>0.189387</v>
       </c>
       <c r="C93" t="n">
-        <v>0.348467</v>
+        <v>0.349467</v>
       </c>
       <c r="D93" t="n">
-        <v>0.850796</v>
+        <v>0.849001</v>
       </c>
       <c r="E93" t="n">
-        <v>0.165015</v>
+        <v>0.166158</v>
       </c>
       <c r="F93" t="n">
-        <v>0.32575</v>
+        <v>0.326104</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190219</v>
+        <v>0.189616</v>
       </c>
       <c r="C94" t="n">
-        <v>0.350704</v>
+        <v>0.352235</v>
       </c>
       <c r="D94" t="n">
-        <v>0.843615</v>
+        <v>0.8432229999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>0.251491</v>
+        <v>0.251245</v>
       </c>
       <c r="F94" t="n">
-        <v>0.451202</v>
+        <v>0.450165</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.271877</v>
+        <v>0.271628</v>
       </c>
       <c r="C95" t="n">
-        <v>0.464965</v>
+        <v>0.466707</v>
       </c>
       <c r="D95" t="n">
-        <v>0.839527</v>
+        <v>0.838421</v>
       </c>
       <c r="E95" t="n">
-        <v>0.243921</v>
+        <v>0.243717</v>
       </c>
       <c r="F95" t="n">
-        <v>0.449617</v>
+        <v>0.447873</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265903</v>
+        <v>0.265291</v>
       </c>
       <c r="C96" t="n">
-        <v>0.465804</v>
+        <v>0.465324</v>
       </c>
       <c r="D96" t="n">
-        <v>0.836997</v>
+        <v>0.834336</v>
       </c>
       <c r="E96" t="n">
-        <v>0.235854</v>
+        <v>0.235693</v>
       </c>
       <c r="F96" t="n">
-        <v>0.444809</v>
+        <v>0.44411</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.25892</v>
+        <v>0.258994</v>
       </c>
       <c r="C97" t="n">
-        <v>0.462164</v>
+        <v>0.462897</v>
       </c>
       <c r="D97" t="n">
-        <v>0.839849</v>
+        <v>0.837956</v>
       </c>
       <c r="E97" t="n">
-        <v>0.228105</v>
+        <v>0.228959</v>
       </c>
       <c r="F97" t="n">
-        <v>0.439694</v>
+        <v>0.440362</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252403</v>
+        <v>0.252291</v>
       </c>
       <c r="C98" t="n">
-        <v>0.458636</v>
+        <v>0.45806</v>
       </c>
       <c r="D98" t="n">
-        <v>0.839769</v>
+        <v>0.839656</v>
       </c>
       <c r="E98" t="n">
-        <v>0.220384</v>
+        <v>0.221327</v>
       </c>
       <c r="F98" t="n">
-        <v>0.434765</v>
+        <v>0.435716</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245593</v>
+        <v>0.245382</v>
       </c>
       <c r="C99" t="n">
-        <v>0.451749</v>
+        <v>0.453267</v>
       </c>
       <c r="D99" t="n">
-        <v>0.839669</v>
+        <v>0.839634</v>
       </c>
       <c r="E99" t="n">
-        <v>0.214035</v>
+        <v>0.213582</v>
       </c>
       <c r="F99" t="n">
-        <v>0.430147</v>
+        <v>0.429258</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239935</v>
+        <v>0.239419</v>
       </c>
       <c r="C100" t="n">
-        <v>0.44814</v>
+        <v>0.448667</v>
       </c>
       <c r="D100" t="n">
-        <v>0.844423</v>
+        <v>0.84134</v>
       </c>
       <c r="E100" t="n">
-        <v>0.207087</v>
+        <v>0.207403</v>
       </c>
       <c r="F100" t="n">
-        <v>0.424683</v>
+        <v>0.426026</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233691</v>
+        <v>0.234083</v>
       </c>
       <c r="C101" t="n">
-        <v>0.443625</v>
+        <v>0.444</v>
       </c>
       <c r="D101" t="n">
-        <v>0.84523</v>
+        <v>0.844435</v>
       </c>
       <c r="E101" t="n">
-        <v>0.200992</v>
+        <v>0.200579</v>
       </c>
       <c r="F101" t="n">
-        <v>0.420676</v>
+        <v>0.421497</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228342</v>
+        <v>0.228095</v>
       </c>
       <c r="C102" t="n">
-        <v>0.440565</v>
+        <v>0.441519</v>
       </c>
       <c r="D102" t="n">
-        <v>0.849367</v>
+        <v>0.8466</v>
       </c>
       <c r="E102" t="n">
-        <v>0.195421</v>
+        <v>0.194651</v>
       </c>
       <c r="F102" t="n">
-        <v>0.416654</v>
+        <v>0.41628</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223169</v>
+        <v>0.223389</v>
       </c>
       <c r="C103" t="n">
-        <v>0.438046</v>
+        <v>0.437781</v>
       </c>
       <c r="D103" t="n">
-        <v>0.859015</v>
+        <v>0.857371</v>
       </c>
       <c r="E103" t="n">
-        <v>0.190552</v>
+        <v>0.189536</v>
       </c>
       <c r="F103" t="n">
-        <v>0.413689</v>
+        <v>0.413566</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218651</v>
+        <v>0.21853</v>
       </c>
       <c r="C104" t="n">
-        <v>0.434067</v>
+        <v>0.435014</v>
       </c>
       <c r="D104" t="n">
-        <v>0.86346</v>
+        <v>0.86004</v>
       </c>
       <c r="E104" t="n">
-        <v>0.186112</v>
+        <v>0.185786</v>
       </c>
       <c r="F104" t="n">
-        <v>0.410978</v>
+        <v>0.410518</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214795</v>
+        <v>0.214799</v>
       </c>
       <c r="C105" t="n">
-        <v>0.433621</v>
+        <v>0.43404</v>
       </c>
       <c r="D105" t="n">
-        <v>0.874455</v>
+        <v>0.872237</v>
       </c>
       <c r="E105" t="n">
-        <v>0.182485</v>
+        <v>0.181579</v>
       </c>
       <c r="F105" t="n">
-        <v>0.408693</v>
+        <v>0.408328</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.21188</v>
+        <v>0.211214</v>
       </c>
       <c r="C106" t="n">
-        <v>0.433159</v>
+        <v>0.433501</v>
       </c>
       <c r="D106" t="n">
-        <v>0.881016</v>
+        <v>0.880914</v>
       </c>
       <c r="E106" t="n">
-        <v>0.179813</v>
+        <v>0.179745</v>
       </c>
       <c r="F106" t="n">
-        <v>0.407421</v>
+        <v>0.40716</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209791</v>
+        <v>0.2093</v>
       </c>
       <c r="C107" t="n">
-        <v>0.433813</v>
+        <v>0.432906</v>
       </c>
       <c r="D107" t="n">
-        <v>1.12615</v>
+        <v>1.1227</v>
       </c>
       <c r="E107" t="n">
-        <v>0.178586</v>
+        <v>0.178528</v>
       </c>
       <c r="F107" t="n">
-        <v>0.407089</v>
+        <v>0.406502</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.209605</v>
+        <v>0.209315</v>
       </c>
       <c r="C108" t="n">
-        <v>0.437348</v>
+        <v>0.43735</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11558</v>
+        <v>1.11544</v>
       </c>
       <c r="E108" t="n">
-        <v>0.268061</v>
+        <v>0.267483</v>
       </c>
       <c r="F108" t="n">
-        <v>0.562809</v>
+        <v>0.562908</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211763</v>
+        <v>0.211582</v>
       </c>
       <c r="C109" t="n">
-        <v>0.442159</v>
+        <v>0.441875</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10592</v>
+        <v>1.10481</v>
       </c>
       <c r="E109" t="n">
-        <v>0.262226</v>
+        <v>0.261188</v>
       </c>
       <c r="F109" t="n">
-        <v>0.560851</v>
+        <v>0.5601739999999999</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285584</v>
+        <v>0.286247</v>
       </c>
       <c r="C110" t="n">
-        <v>0.579394</v>
+        <v>0.580044</v>
       </c>
       <c r="D110" t="n">
-        <v>1.10581</v>
+        <v>1.09738</v>
       </c>
       <c r="E110" t="n">
-        <v>0.254658</v>
+        <v>0.253576</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5547</v>
+        <v>0.554258</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278949</v>
+        <v>0.279182</v>
       </c>
       <c r="C111" t="n">
-        <v>0.573978</v>
+        <v>0.574362</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0992</v>
+        <v>1.09517</v>
       </c>
       <c r="E111" t="n">
-        <v>0.246872</v>
+        <v>0.246233</v>
       </c>
       <c r="F111" t="n">
-        <v>0.549103</v>
+        <v>0.548766</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272369</v>
+        <v>0.273679</v>
       </c>
       <c r="C112" t="n">
-        <v>0.568941</v>
+        <v>0.568419</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09734</v>
+        <v>1.0929</v>
       </c>
       <c r="E112" t="n">
-        <v>0.240287</v>
+        <v>0.239409</v>
       </c>
       <c r="F112" t="n">
-        <v>0.544721</v>
+        <v>0.543403</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.26675</v>
+        <v>0.267007</v>
       </c>
       <c r="C113" t="n">
-        <v>0.564242</v>
+        <v>0.563674</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09283</v>
+        <v>1.09073</v>
       </c>
       <c r="E113" t="n">
-        <v>0.233855</v>
+        <v>0.232793</v>
       </c>
       <c r="F113" t="n">
-        <v>0.540192</v>
+        <v>0.539788</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.261201</v>
+        <v>0.261249</v>
       </c>
       <c r="C114" t="n">
-        <v>0.559379</v>
+        <v>0.558386</v>
       </c>
       <c r="D114" t="n">
-        <v>1.0943</v>
+        <v>1.09227</v>
       </c>
       <c r="E114" t="n">
-        <v>0.227431</v>
+        <v>0.226982</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5354100000000001</v>
+        <v>0.5345839999999999</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255647</v>
+        <v>0.256143</v>
       </c>
       <c r="C115" t="n">
-        <v>0.554891</v>
+        <v>0.553959</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09239</v>
+        <v>1.09423</v>
       </c>
       <c r="E115" t="n">
-        <v>0.221653</v>
+        <v>0.221143</v>
       </c>
       <c r="F115" t="n">
-        <v>0.53104</v>
+        <v>0.5308079999999999</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250771</v>
+        <v>0.251129</v>
       </c>
       <c r="C116" t="n">
-        <v>0.551463</v>
+        <v>0.550507</v>
       </c>
       <c r="D116" t="n">
-        <v>1.0957</v>
+        <v>1.09117</v>
       </c>
       <c r="E116" t="n">
-        <v>0.216341</v>
+        <v>0.215748</v>
       </c>
       <c r="F116" t="n">
-        <v>0.52808</v>
+        <v>0.52754</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.246061</v>
+        <v>0.246384</v>
       </c>
       <c r="C117" t="n">
-        <v>0.548795</v>
+        <v>0.5478420000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09989</v>
+        <v>1.09894</v>
       </c>
       <c r="E117" t="n">
-        <v>0.211689</v>
+        <v>0.211023</v>
       </c>
       <c r="F117" t="n">
-        <v>0.524702</v>
+        <v>0.524227</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241946</v>
+        <v>0.242317</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5466839999999999</v>
+        <v>0.540807</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10665</v>
+        <v>1.0976</v>
       </c>
       <c r="E118" t="n">
-        <v>0.207557</v>
+        <v>0.206997</v>
       </c>
       <c r="F118" t="n">
-        <v>0.522793</v>
+        <v>0.521374</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238123</v>
+        <v>0.238236</v>
       </c>
       <c r="C119" t="n">
-        <v>0.544148</v>
+        <v>0.544252</v>
       </c>
       <c r="D119" t="n">
-        <v>1.11171</v>
+        <v>1.10754</v>
       </c>
       <c r="E119" t="n">
-        <v>0.203861</v>
+        <v>0.202618</v>
       </c>
       <c r="F119" t="n">
-        <v>0.52042</v>
+        <v>0.5190360000000001</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.235115</v>
+        <v>0.235269</v>
       </c>
       <c r="C120" t="n">
-        <v>0.543951</v>
+        <v>0.542548</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11934</v>
+        <v>1.11708</v>
       </c>
       <c r="E120" t="n">
-        <v>0.200866</v>
+        <v>0.200237</v>
       </c>
       <c r="F120" t="n">
-        <v>0.519153</v>
+        <v>0.5175</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232751</v>
+        <v>0.23304</v>
       </c>
       <c r="C121" t="n">
-        <v>0.545423</v>
+        <v>0.5435680000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>1.38388</v>
+        <v>1.37988</v>
       </c>
       <c r="E121" t="n">
-        <v>0.19958</v>
+        <v>0.198863</v>
       </c>
       <c r="F121" t="n">
-        <v>0.518361</v>
+        <v>0.518199</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231959</v>
+        <v>0.232023</v>
       </c>
       <c r="C122" t="n">
-        <v>0.547631</v>
+        <v>0.545901</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36546</v>
+        <v>1.36378</v>
       </c>
       <c r="E122" t="n">
-        <v>0.199896</v>
+        <v>0.199223</v>
       </c>
       <c r="F122" t="n">
-        <v>0.520915</v>
+        <v>0.519391</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.23316</v>
+        <v>0.233452</v>
       </c>
       <c r="C123" t="n">
-        <v>0.55149</v>
+        <v>0.54964</v>
       </c>
       <c r="D123" t="n">
-        <v>1.35345</v>
+        <v>1.35124</v>
       </c>
       <c r="E123" t="n">
-        <v>0.284685</v>
+        <v>0.283477</v>
       </c>
       <c r="F123" t="n">
-        <v>0.689377</v>
+        <v>0.68794</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.317625</v>
+        <v>0.318408</v>
       </c>
       <c r="C124" t="n">
-        <v>0.713379</v>
+        <v>0.711943</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34173</v>
+        <v>1.33739</v>
       </c>
       <c r="E124" t="n">
-        <v>0.279382</v>
+        <v>0.277863</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6851660000000001</v>
+        <v>0.682023</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.31152</v>
+        <v>0.312097</v>
       </c>
       <c r="C125" t="n">
-        <v>0.708635</v>
+        <v>0.706956</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33132</v>
+        <v>1.32752</v>
       </c>
       <c r="E125" t="n">
-        <v>0.273371</v>
+        <v>0.272155</v>
       </c>
       <c r="F125" t="n">
-        <v>0.68029</v>
+        <v>0.6789809999999999</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305955</v>
+        <v>0.306625</v>
       </c>
       <c r="C126" t="n">
-        <v>0.704261</v>
+        <v>0.703023</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32242</v>
+        <v>1.31883</v>
       </c>
       <c r="E126" t="n">
-        <v>0.268346</v>
+        <v>0.267214</v>
       </c>
       <c r="F126" t="n">
-        <v>0.675719</v>
+        <v>0.676212</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.300914</v>
+        <v>0.300866</v>
       </c>
       <c r="C127" t="n">
-        <v>0.699899</v>
+        <v>0.699194</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31358</v>
+        <v>1.31073</v>
       </c>
       <c r="E127" t="n">
-        <v>0.263259</v>
+        <v>0.262148</v>
       </c>
       <c r="F127" t="n">
-        <v>0.671887</v>
+        <v>0.672212</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.29562</v>
+        <v>0.296553</v>
       </c>
       <c r="C128" t="n">
-        <v>0.697102</v>
+        <v>0.695309</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31047</v>
+        <v>1.30681</v>
       </c>
       <c r="E128" t="n">
-        <v>0.258912</v>
+        <v>0.257335</v>
       </c>
       <c r="F128" t="n">
-        <v>0.669739</v>
+        <v>0.668389</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290892</v>
+        <v>0.291497</v>
       </c>
       <c r="C129" t="n">
-        <v>0.694273</v>
+        <v>0.692127</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30573</v>
+        <v>1.30377</v>
       </c>
       <c r="E129" t="n">
-        <v>0.254321</v>
+        <v>0.253226</v>
       </c>
       <c r="F129" t="n">
-        <v>0.666462</v>
+        <v>0.667309</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286524</v>
+        <v>0.28701</v>
       </c>
       <c r="C130" t="n">
-        <v>0.691262</v>
+        <v>0.690587</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30338</v>
+        <v>1.29955</v>
       </c>
       <c r="E130" t="n">
-        <v>0.250638</v>
+        <v>0.249192</v>
       </c>
       <c r="F130" t="n">
-        <v>0.664264</v>
+        <v>0.664153</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.282492</v>
+        <v>0.283454</v>
       </c>
       <c r="C131" t="n">
-        <v>0.688997</v>
+        <v>0.689059</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30163</v>
+        <v>1.29865</v>
       </c>
       <c r="E131" t="n">
-        <v>0.246567</v>
+        <v>0.245806</v>
       </c>
       <c r="F131" t="n">
-        <v>0.662312</v>
+        <v>0.66269</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278679</v>
+        <v>0.279082</v>
       </c>
       <c r="C132" t="n">
-        <v>0.688656</v>
+        <v>0.686744</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30129</v>
+        <v>1.30104</v>
       </c>
       <c r="E132" t="n">
-        <v>0.243396</v>
+        <v>0.242146</v>
       </c>
       <c r="F132" t="n">
-        <v>0.661015</v>
+        <v>0.661539</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275579</v>
+        <v>0.275732</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6878919999999999</v>
+        <v>0.687397</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30424</v>
+        <v>1.30122</v>
       </c>
       <c r="E133" t="n">
-        <v>0.240401</v>
+        <v>0.239354</v>
       </c>
       <c r="F133" t="n">
-        <v>0.658753</v>
+        <v>0.660753</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.273172</v>
+        <v>0.273253</v>
       </c>
       <c r="C134" t="n">
-        <v>0.689422</v>
+        <v>0.687011</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30554</v>
+        <v>1.30384</v>
       </c>
       <c r="E134" t="n">
-        <v>0.238229</v>
+        <v>0.237278</v>
       </c>
       <c r="F134" t="n">
-        <v>0.658038</v>
+        <v>0.660391</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.271281</v>
+        <v>0.271338</v>
       </c>
       <c r="C135" t="n">
-        <v>0.690144</v>
+        <v>0.6890269999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>1.58176</v>
+        <v>1.57878</v>
       </c>
       <c r="E135" t="n">
-        <v>0.236803</v>
+        <v>0.236051</v>
       </c>
       <c r="F135" t="n">
-        <v>0.65934</v>
+        <v>0.6608000000000001</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.270445</v>
+        <v>0.270828</v>
       </c>
       <c r="C136" t="n">
-        <v>0.693476</v>
+        <v>0.693255</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55971</v>
+        <v>1.55596</v>
       </c>
       <c r="E136" t="n">
-        <v>0.237285</v>
+        <v>0.235931</v>
       </c>
       <c r="F136" t="n">
-        <v>0.6611939999999999</v>
+        <v>0.663198</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.270996</v>
+        <v>0.27144</v>
       </c>
       <c r="C137" t="n">
-        <v>0.699021</v>
+        <v>0.695703</v>
       </c>
       <c r="D137" t="n">
-        <v>1.53959</v>
+        <v>1.53769</v>
       </c>
       <c r="E137" t="n">
-        <v>0.334424</v>
+        <v>0.333924</v>
       </c>
       <c r="F137" t="n">
-        <v>0.84275</v>
+        <v>0.844594</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.375572</v>
+        <v>0.362115</v>
       </c>
       <c r="C138" t="n">
-        <v>0.876264</v>
+        <v>0.8752220000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>1.52181</v>
+        <v>1.51952</v>
       </c>
       <c r="E138" t="n">
-        <v>0.329019</v>
+        <v>0.328499</v>
       </c>
       <c r="F138" t="n">
-        <v>0.842298</v>
+        <v>0.842126</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.369042</v>
+        <v>0.356384</v>
       </c>
       <c r="C139" t="n">
-        <v>0.875385</v>
+        <v>0.873945</v>
       </c>
       <c r="D139" t="n">
-        <v>1.50499</v>
+        <v>1.50172</v>
       </c>
       <c r="E139" t="n">
-        <v>0.324226</v>
+        <v>0.325223</v>
       </c>
       <c r="F139" t="n">
-        <v>0.840129</v>
+        <v>0.842255</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.363612</v>
+        <v>0.350807</v>
       </c>
       <c r="C140" t="n">
-        <v>0.875038</v>
+        <v>0.873647</v>
       </c>
       <c r="D140" t="n">
-        <v>1.49187</v>
+        <v>1.48957</v>
       </c>
       <c r="E140" t="n">
-        <v>0.319974</v>
+        <v>0.318976</v>
       </c>
       <c r="F140" t="n">
-        <v>0.839893</v>
+        <v>0.841072</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.358091</v>
+        <v>0.346295</v>
       </c>
       <c r="C141" t="n">
-        <v>0.874323</v>
+        <v>0.872567</v>
       </c>
       <c r="D141" t="n">
-        <v>1.47904</v>
+        <v>1.47519</v>
       </c>
       <c r="E141" t="n">
-        <v>0.315044</v>
+        <v>0.314716</v>
       </c>
       <c r="F141" t="n">
-        <v>0.839131</v>
+        <v>0.839427</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.353052</v>
+        <v>0.341906</v>
       </c>
       <c r="C142" t="n">
-        <v>0.874893</v>
+        <v>0.873225</v>
       </c>
       <c r="D142" t="n">
-        <v>1.46556</v>
+        <v>1.46432</v>
       </c>
       <c r="E142" t="n">
-        <v>0.311051</v>
+        <v>0.310353</v>
       </c>
       <c r="F142" t="n">
-        <v>0.840351</v>
+        <v>0.840444</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.347512</v>
+        <v>0.336967</v>
       </c>
       <c r="C143" t="n">
-        <v>0.875456</v>
+        <v>0.8740830000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>1.45804</v>
+        <v>1.45491</v>
       </c>
       <c r="E143" t="n">
-        <v>0.307467</v>
+        <v>0.306887</v>
       </c>
       <c r="F143" t="n">
-        <v>0.840658</v>
+        <v>0.841159</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.160869</v>
+        <v>0.15006</v>
       </c>
       <c r="C2" t="n">
-        <v>0.290802</v>
+        <v>0.284976</v>
       </c>
       <c r="D2" t="n">
-        <v>0.347537</v>
+        <v>0.346957</v>
       </c>
       <c r="E2" t="n">
-        <v>0.139976</v>
+        <v>0.142953</v>
       </c>
       <c r="F2" t="n">
-        <v>0.276912</v>
+        <v>0.279219</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.159574</v>
+        <v>0.14949</v>
       </c>
       <c r="C3" t="n">
-        <v>0.285191</v>
+        <v>0.284076</v>
       </c>
       <c r="D3" t="n">
-        <v>0.345501</v>
+        <v>0.344087</v>
       </c>
       <c r="E3" t="n">
-        <v>0.134776</v>
+        <v>0.140194</v>
       </c>
       <c r="F3" t="n">
-        <v>0.276039</v>
+        <v>0.274233</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.148838</v>
+        <v>0.150159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.276695</v>
+        <v>0.275391</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341218</v>
+        <v>0.343404</v>
       </c>
       <c r="E4" t="n">
-        <v>0.12929</v>
+        <v>0.14142</v>
       </c>
       <c r="F4" t="n">
-        <v>0.27206</v>
+        <v>0.26857</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.146797</v>
+        <v>0.148712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.270141</v>
+        <v>0.276609</v>
       </c>
       <c r="D5" t="n">
-        <v>0.339879</v>
+        <v>0.338056</v>
       </c>
       <c r="E5" t="n">
-        <v>0.129873</v>
+        <v>0.130532</v>
       </c>
       <c r="F5" t="n">
-        <v>0.259022</v>
+        <v>0.25849</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.149699</v>
+        <v>0.143679</v>
       </c>
       <c r="C6" t="n">
-        <v>0.270286</v>
+        <v>0.266114</v>
       </c>
       <c r="D6" t="n">
-        <v>0.336561</v>
+        <v>0.338533</v>
       </c>
       <c r="E6" t="n">
-        <v>0.124052</v>
+        <v>0.128642</v>
       </c>
       <c r="F6" t="n">
-        <v>0.265768</v>
+        <v>0.260284</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.136147</v>
+        <v>0.136348</v>
       </c>
       <c r="C7" t="n">
-        <v>0.27066</v>
+        <v>0.264156</v>
       </c>
       <c r="D7" t="n">
-        <v>0.438459</v>
+        <v>0.438584</v>
       </c>
       <c r="E7" t="n">
-        <v>0.121844</v>
+        <v>0.117987</v>
       </c>
       <c r="F7" t="n">
-        <v>0.259749</v>
+        <v>0.260927</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.150852</v>
+        <v>0.149999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.277391</v>
+        <v>0.264079</v>
       </c>
       <c r="D8" t="n">
-        <v>0.44111</v>
+        <v>0.433418</v>
       </c>
       <c r="E8" t="n">
-        <v>0.118563</v>
+        <v>0.127001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.261949</v>
+        <v>0.254546</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148176</v>
+        <v>0.149664</v>
       </c>
       <c r="C9" t="n">
-        <v>0.268243</v>
+        <v>0.268539</v>
       </c>
       <c r="D9" t="n">
-        <v>0.433257</v>
+        <v>0.422584</v>
       </c>
       <c r="E9" t="n">
-        <v>0.191322</v>
+        <v>0.199287</v>
       </c>
       <c r="F9" t="n">
-        <v>0.330563</v>
+        <v>0.320658</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.211979</v>
+        <v>0.209708</v>
       </c>
       <c r="C10" t="n">
-        <v>0.334566</v>
+        <v>0.33034</v>
       </c>
       <c r="D10" t="n">
-        <v>0.423484</v>
+        <v>0.415131</v>
       </c>
       <c r="E10" t="n">
-        <v>0.184717</v>
+        <v>0.184233</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3166</v>
+        <v>0.325645</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.200487</v>
+        <v>0.199498</v>
       </c>
       <c r="C11" t="n">
-        <v>0.323249</v>
+        <v>0.319769</v>
       </c>
       <c r="D11" t="n">
-        <v>0.410614</v>
+        <v>0.41702</v>
       </c>
       <c r="E11" t="n">
-        <v>0.16854</v>
+        <v>0.179395</v>
       </c>
       <c r="F11" t="n">
-        <v>0.306468</v>
+        <v>0.316899</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.199951</v>
+        <v>0.19268</v>
       </c>
       <c r="C12" t="n">
-        <v>0.310957</v>
+        <v>0.309782</v>
       </c>
       <c r="D12" t="n">
-        <v>0.406035</v>
+        <v>0.410856</v>
       </c>
       <c r="E12" t="n">
-        <v>0.171339</v>
+        <v>0.171114</v>
       </c>
       <c r="F12" t="n">
-        <v>0.304106</v>
+        <v>0.302289</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.189297</v>
+        <v>0.19337</v>
       </c>
       <c r="C13" t="n">
-        <v>0.305998</v>
+        <v>0.30374</v>
       </c>
       <c r="D13" t="n">
-        <v>0.396063</v>
+        <v>0.400496</v>
       </c>
       <c r="E13" t="n">
-        <v>0.167906</v>
+        <v>0.165029</v>
       </c>
       <c r="F13" t="n">
-        <v>0.293645</v>
+        <v>0.300363</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.184956</v>
+        <v>0.185452</v>
       </c>
       <c r="C14" t="n">
-        <v>0.298148</v>
+        <v>0.298732</v>
       </c>
       <c r="D14" t="n">
-        <v>0.392842</v>
+        <v>0.395905</v>
       </c>
       <c r="E14" t="n">
-        <v>0.159784</v>
+        <v>0.159197</v>
       </c>
       <c r="F14" t="n">
-        <v>0.287954</v>
+        <v>0.294772</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.173124</v>
+        <v>0.182914</v>
       </c>
       <c r="C15" t="n">
-        <v>0.289035</v>
+        <v>0.293122</v>
       </c>
       <c r="D15" t="n">
-        <v>0.39327</v>
+        <v>0.388557</v>
       </c>
       <c r="E15" t="n">
-        <v>0.154922</v>
+        <v>0.146296</v>
       </c>
       <c r="F15" t="n">
-        <v>0.28754</v>
+        <v>0.287879</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.171807</v>
+        <v>0.172992</v>
       </c>
       <c r="C16" t="n">
-        <v>0.284978</v>
+        <v>0.291</v>
       </c>
       <c r="D16" t="n">
-        <v>0.384262</v>
+        <v>0.38762</v>
       </c>
       <c r="E16" t="n">
-        <v>0.145446</v>
+        <v>0.14819</v>
       </c>
       <c r="F16" t="n">
-        <v>0.282593</v>
+        <v>0.281931</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.169599</v>
+        <v>0.165853</v>
       </c>
       <c r="C17" t="n">
-        <v>0.282131</v>
+        <v>0.28199</v>
       </c>
       <c r="D17" t="n">
-        <v>0.378872</v>
+        <v>0.379472</v>
       </c>
       <c r="E17" t="n">
-        <v>0.149621</v>
+        <v>0.147765</v>
       </c>
       <c r="F17" t="n">
-        <v>0.271364</v>
+        <v>0.271751</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.157301</v>
+        <v>0.165065</v>
       </c>
       <c r="C18" t="n">
-        <v>0.271837</v>
+        <v>0.277175</v>
       </c>
       <c r="D18" t="n">
-        <v>0.379456</v>
+        <v>0.373034</v>
       </c>
       <c r="E18" t="n">
-        <v>0.148485</v>
+        <v>0.142046</v>
       </c>
       <c r="F18" t="n">
-        <v>0.265596</v>
+        <v>0.269364</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.164063</v>
+        <v>0.159066</v>
       </c>
       <c r="C19" t="n">
-        <v>0.271994</v>
+        <v>0.273525</v>
       </c>
       <c r="D19" t="n">
-        <v>0.374536</v>
+        <v>0.372833</v>
       </c>
       <c r="E19" t="n">
-        <v>0.139191</v>
+        <v>0.135873</v>
       </c>
       <c r="F19" t="n">
-        <v>0.259571</v>
+        <v>0.264454</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.159786</v>
+        <v>0.153012</v>
       </c>
       <c r="C20" t="n">
-        <v>0.265975</v>
+        <v>0.2685</v>
       </c>
       <c r="D20" t="n">
-        <v>0.368956</v>
+        <v>0.369464</v>
       </c>
       <c r="E20" t="n">
-        <v>0.133912</v>
+        <v>0.136273</v>
       </c>
       <c r="F20" t="n">
-        <v>0.26065</v>
+        <v>0.258097</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.154918</v>
+        <v>0.152958</v>
       </c>
       <c r="C21" t="n">
-        <v>0.26746</v>
+        <v>0.268383</v>
       </c>
       <c r="D21" t="n">
-        <v>0.469457</v>
+        <v>0.474197</v>
       </c>
       <c r="E21" t="n">
-        <v>0.133723</v>
+        <v>0.137797</v>
       </c>
       <c r="F21" t="n">
-        <v>0.262299</v>
+        <v>0.256558</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.154061</v>
+        <v>0.158716</v>
       </c>
       <c r="C22" t="n">
-        <v>0.271729</v>
+        <v>0.26751</v>
       </c>
       <c r="D22" t="n">
-        <v>0.460499</v>
+        <v>0.463394</v>
       </c>
       <c r="E22" t="n">
-        <v>0.137257</v>
+        <v>0.132888</v>
       </c>
       <c r="F22" t="n">
-        <v>0.254118</v>
+        <v>0.256299</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152789</v>
+        <v>0.155222</v>
       </c>
       <c r="C23" t="n">
-        <v>0.267423</v>
+        <v>0.269183</v>
       </c>
       <c r="D23" t="n">
-        <v>0.45075</v>
+        <v>0.45022</v>
       </c>
       <c r="E23" t="n">
-        <v>0.211564</v>
+        <v>0.216663</v>
       </c>
       <c r="F23" t="n">
-        <v>0.333841</v>
+        <v>0.345317</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240574</v>
+        <v>0.243</v>
       </c>
       <c r="C24" t="n">
-        <v>0.336324</v>
+        <v>0.337735</v>
       </c>
       <c r="D24" t="n">
-        <v>0.444093</v>
+        <v>0.445747</v>
       </c>
       <c r="E24" t="n">
-        <v>0.205305</v>
+        <v>0.205828</v>
       </c>
       <c r="F24" t="n">
-        <v>0.327608</v>
+        <v>0.325681</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.229816</v>
+        <v>0.222177</v>
       </c>
       <c r="C25" t="n">
-        <v>0.327407</v>
+        <v>0.326848</v>
       </c>
       <c r="D25" t="n">
-        <v>0.437452</v>
+        <v>0.436327</v>
       </c>
       <c r="E25" t="n">
-        <v>0.20187</v>
+        <v>0.202488</v>
       </c>
       <c r="F25" t="n">
-        <v>0.316091</v>
+        <v>0.317513</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.218715</v>
+        <v>0.217847</v>
       </c>
       <c r="C26" t="n">
-        <v>0.319153</v>
+        <v>0.320832</v>
       </c>
       <c r="D26" t="n">
-        <v>0.431252</v>
+        <v>0.428404</v>
       </c>
       <c r="E26" t="n">
-        <v>0.200287</v>
+        <v>0.198584</v>
       </c>
       <c r="F26" t="n">
-        <v>0.309199</v>
+        <v>0.309869</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.214478</v>
+        <v>0.210425</v>
       </c>
       <c r="C27" t="n">
-        <v>0.313228</v>
+        <v>0.313218</v>
       </c>
       <c r="D27" t="n">
-        <v>0.425414</v>
+        <v>0.423291</v>
       </c>
       <c r="E27" t="n">
-        <v>0.18976</v>
+        <v>0.192338</v>
       </c>
       <c r="F27" t="n">
-        <v>0.302025</v>
+        <v>0.301495</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.207099</v>
+        <v>0.20597</v>
       </c>
       <c r="C28" t="n">
-        <v>0.308139</v>
+        <v>0.305172</v>
       </c>
       <c r="D28" t="n">
-        <v>0.417072</v>
+        <v>0.417201</v>
       </c>
       <c r="E28" t="n">
-        <v>0.184319</v>
+        <v>0.177949</v>
       </c>
       <c r="F28" t="n">
-        <v>0.295239</v>
+        <v>0.295632</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.199162</v>
+        <v>0.193272</v>
       </c>
       <c r="C29" t="n">
-        <v>0.29972</v>
+        <v>0.300667</v>
       </c>
       <c r="D29" t="n">
-        <v>0.412434</v>
+        <v>0.410582</v>
       </c>
       <c r="E29" t="n">
-        <v>0.176068</v>
+        <v>0.17665</v>
       </c>
       <c r="F29" t="n">
-        <v>0.288254</v>
+        <v>0.288181</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.191373</v>
+        <v>0.190787</v>
       </c>
       <c r="C30" t="n">
-        <v>0.294272</v>
+        <v>0.294022</v>
       </c>
       <c r="D30" t="n">
-        <v>0.407961</v>
+        <v>0.404035</v>
       </c>
       <c r="E30" t="n">
-        <v>0.175231</v>
+        <v>0.167744</v>
       </c>
       <c r="F30" t="n">
-        <v>0.28294</v>
+        <v>0.281874</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.188616</v>
+        <v>0.184908</v>
       </c>
       <c r="C31" t="n">
-        <v>0.289906</v>
+        <v>0.288484</v>
       </c>
       <c r="D31" t="n">
-        <v>0.402729</v>
+        <v>0.400969</v>
       </c>
       <c r="E31" t="n">
-        <v>0.165726</v>
+        <v>0.160677</v>
       </c>
       <c r="F31" t="n">
-        <v>0.276336</v>
+        <v>0.278422</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.181528</v>
+        <v>0.177219</v>
       </c>
       <c r="C32" t="n">
-        <v>0.285426</v>
+        <v>0.283421</v>
       </c>
       <c r="D32" t="n">
-        <v>0.397163</v>
+        <v>0.394371</v>
       </c>
       <c r="E32" t="n">
-        <v>0.158324</v>
+        <v>0.158452</v>
       </c>
       <c r="F32" t="n">
-        <v>0.272637</v>
+        <v>0.273628</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.178022</v>
+        <v>0.172457</v>
       </c>
       <c r="C33" t="n">
-        <v>0.281571</v>
+        <v>0.279386</v>
       </c>
       <c r="D33" t="n">
-        <v>0.395594</v>
+        <v>0.395251</v>
       </c>
       <c r="E33" t="n">
-        <v>0.159884</v>
+        <v>0.156726</v>
       </c>
       <c r="F33" t="n">
-        <v>0.268207</v>
+        <v>0.26935</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.171756</v>
+        <v>0.170132</v>
       </c>
       <c r="C34" t="n">
-        <v>0.278093</v>
+        <v>0.277803</v>
       </c>
       <c r="D34" t="n">
-        <v>0.389175</v>
+        <v>0.390319</v>
       </c>
       <c r="E34" t="n">
-        <v>0.151904</v>
+        <v>0.15447</v>
       </c>
       <c r="F34" t="n">
-        <v>0.264555</v>
+        <v>0.265213</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.168221</v>
+        <v>0.170157</v>
       </c>
       <c r="C35" t="n">
-        <v>0.276001</v>
+        <v>0.275792</v>
       </c>
       <c r="D35" t="n">
-        <v>0.493772</v>
+        <v>0.493954</v>
       </c>
       <c r="E35" t="n">
-        <v>0.153381</v>
+        <v>0.150737</v>
       </c>
       <c r="F35" t="n">
-        <v>0.264498</v>
+        <v>0.264641</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.167102</v>
+        <v>0.171166</v>
       </c>
       <c r="C36" t="n">
-        <v>0.276231</v>
+        <v>0.276268</v>
       </c>
       <c r="D36" t="n">
-        <v>0.483102</v>
+        <v>0.483502</v>
       </c>
       <c r="E36" t="n">
-        <v>0.150077</v>
+        <v>0.152172</v>
       </c>
       <c r="F36" t="n">
-        <v>0.263333</v>
+        <v>0.263745</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171705</v>
+        <v>0.168811</v>
       </c>
       <c r="C37" t="n">
-        <v>0.278044</v>
+        <v>0.278353</v>
       </c>
       <c r="D37" t="n">
-        <v>0.471878</v>
+        <v>0.471805</v>
       </c>
       <c r="E37" t="n">
-        <v>0.230758</v>
+        <v>0.230005</v>
       </c>
       <c r="F37" t="n">
-        <v>0.347253</v>
+        <v>0.347596</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242624</v>
+        <v>0.24134</v>
       </c>
       <c r="C38" t="n">
-        <v>0.349487</v>
+        <v>0.34986</v>
       </c>
       <c r="D38" t="n">
-        <v>0.463101</v>
+        <v>0.460992</v>
       </c>
       <c r="E38" t="n">
-        <v>0.221903</v>
+        <v>0.222651</v>
       </c>
       <c r="F38" t="n">
-        <v>0.339571</v>
+        <v>0.33961</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233507</v>
+        <v>0.232453</v>
       </c>
       <c r="C39" t="n">
-        <v>0.341112</v>
+        <v>0.341259</v>
       </c>
       <c r="D39" t="n">
-        <v>0.454393</v>
+        <v>0.453117</v>
       </c>
       <c r="E39" t="n">
-        <v>0.21224</v>
+        <v>0.21367</v>
       </c>
       <c r="F39" t="n">
-        <v>0.330614</v>
+        <v>0.330901</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.224754</v>
+        <v>0.22634</v>
       </c>
       <c r="C40" t="n">
-        <v>0.334931</v>
+        <v>0.333383</v>
       </c>
       <c r="D40" t="n">
-        <v>0.445757</v>
+        <v>0.444299</v>
       </c>
       <c r="E40" t="n">
-        <v>0.205018</v>
+        <v>0.20757</v>
       </c>
       <c r="F40" t="n">
-        <v>0.322948</v>
+        <v>0.323008</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.216595</v>
+        <v>0.218299</v>
       </c>
       <c r="C41" t="n">
-        <v>0.326458</v>
+        <v>0.326551</v>
       </c>
       <c r="D41" t="n">
-        <v>0.439772</v>
+        <v>0.438504</v>
       </c>
       <c r="E41" t="n">
-        <v>0.197337</v>
+        <v>0.197797</v>
       </c>
       <c r="F41" t="n">
-        <v>0.31637</v>
+        <v>0.316528</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209378</v>
+        <v>0.210296</v>
       </c>
       <c r="C42" t="n">
-        <v>0.319931</v>
+        <v>0.320999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.431497</v>
+        <v>0.4308</v>
       </c>
       <c r="E42" t="n">
-        <v>0.190362</v>
+        <v>0.192218</v>
       </c>
       <c r="F42" t="n">
-        <v>0.308326</v>
+        <v>0.309651</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202317</v>
+        <v>0.203476</v>
       </c>
       <c r="C43" t="n">
-        <v>0.313702</v>
+        <v>0.314101</v>
       </c>
       <c r="D43" t="n">
-        <v>0.425021</v>
+        <v>0.426597</v>
       </c>
       <c r="E43" t="n">
-        <v>0.183542</v>
+        <v>0.184207</v>
       </c>
       <c r="F43" t="n">
-        <v>0.30256</v>
+        <v>0.303161</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.195613</v>
+        <v>0.197347</v>
       </c>
       <c r="C44" t="n">
-        <v>0.307433</v>
+        <v>0.308255</v>
       </c>
       <c r="D44" t="n">
-        <v>0.41895</v>
+        <v>0.420542</v>
       </c>
       <c r="E44" t="n">
-        <v>0.177225</v>
+        <v>0.176428</v>
       </c>
       <c r="F44" t="n">
-        <v>0.296036</v>
+        <v>0.297092</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190342</v>
+        <v>0.190547</v>
       </c>
       <c r="C45" t="n">
-        <v>0.304185</v>
+        <v>0.303347</v>
       </c>
       <c r="D45" t="n">
-        <v>0.415657</v>
+        <v>0.413935</v>
       </c>
       <c r="E45" t="n">
-        <v>0.170563</v>
+        <v>0.172718</v>
       </c>
       <c r="F45" t="n">
-        <v>0.290935</v>
+        <v>0.292573</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.183894</v>
+        <v>0.184681</v>
       </c>
       <c r="C46" t="n">
-        <v>0.298302</v>
+        <v>0.298899</v>
       </c>
       <c r="D46" t="n">
-        <v>0.411374</v>
+        <v>0.412501</v>
       </c>
       <c r="E46" t="n">
-        <v>0.165852</v>
+        <v>0.165416</v>
       </c>
       <c r="F46" t="n">
-        <v>0.285938</v>
+        <v>0.285601</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.179529</v>
+        <v>0.180197</v>
       </c>
       <c r="C47" t="n">
-        <v>0.295178</v>
+        <v>0.295161</v>
       </c>
       <c r="D47" t="n">
-        <v>0.406887</v>
+        <v>0.406744</v>
       </c>
       <c r="E47" t="n">
-        <v>0.161133</v>
+        <v>0.161149</v>
       </c>
       <c r="F47" t="n">
-        <v>0.281689</v>
+        <v>0.282846</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175434</v>
+        <v>0.176524</v>
       </c>
       <c r="C48" t="n">
-        <v>0.292522</v>
+        <v>0.292382</v>
       </c>
       <c r="D48" t="n">
-        <v>0.402983</v>
+        <v>0.4024</v>
       </c>
       <c r="E48" t="n">
-        <v>0.158052</v>
+        <v>0.158631</v>
       </c>
       <c r="F48" t="n">
-        <v>0.279202</v>
+        <v>0.279767</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.17292</v>
+        <v>0.173305</v>
       </c>
       <c r="C49" t="n">
-        <v>0.29033</v>
+        <v>0.289506</v>
       </c>
       <c r="D49" t="n">
-        <v>0.400279</v>
+        <v>0.399784</v>
       </c>
       <c r="E49" t="n">
-        <v>0.156621</v>
+        <v>0.154912</v>
       </c>
       <c r="F49" t="n">
-        <v>0.276471</v>
+        <v>0.276823</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171383</v>
+        <v>0.172352</v>
       </c>
       <c r="C50" t="n">
-        <v>0.289907</v>
+        <v>0.289733</v>
       </c>
       <c r="D50" t="n">
-        <v>0.505548</v>
+        <v>0.506074</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1539</v>
+        <v>0.153785</v>
       </c>
       <c r="F50" t="n">
-        <v>0.276329</v>
+        <v>0.276703</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.171931</v>
+        <v>0.173006</v>
       </c>
       <c r="C51" t="n">
-        <v>0.291266</v>
+        <v>0.291315</v>
       </c>
       <c r="D51" t="n">
-        <v>0.49207</v>
+        <v>0.494552</v>
       </c>
       <c r="E51" t="n">
-        <v>0.238403</v>
+        <v>0.240722</v>
       </c>
       <c r="F51" t="n">
-        <v>0.359402</v>
+        <v>0.360255</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174693</v>
+        <v>0.175688</v>
       </c>
       <c r="C52" t="n">
-        <v>0.296516</v>
+        <v>0.295668</v>
       </c>
       <c r="D52" t="n">
-        <v>0.483313</v>
+        <v>0.482989</v>
       </c>
       <c r="E52" t="n">
-        <v>0.230268</v>
+        <v>0.230885</v>
       </c>
       <c r="F52" t="n">
-        <v>0.350738</v>
+        <v>0.351307</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240791</v>
+        <v>0.242866</v>
       </c>
       <c r="C53" t="n">
-        <v>0.35508</v>
+        <v>0.356344</v>
       </c>
       <c r="D53" t="n">
-        <v>0.47459</v>
+        <v>0.476008</v>
       </c>
       <c r="E53" t="n">
-        <v>0.220213</v>
+        <v>0.22216</v>
       </c>
       <c r="F53" t="n">
-        <v>0.341967</v>
+        <v>0.342733</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.231963</v>
+        <v>0.233918</v>
       </c>
       <c r="C54" t="n">
-        <v>0.346836</v>
+        <v>0.347313</v>
       </c>
       <c r="D54" t="n">
-        <v>0.466444</v>
+        <v>0.468463</v>
       </c>
       <c r="E54" t="n">
-        <v>0.212101</v>
+        <v>0.212211</v>
       </c>
       <c r="F54" t="n">
-        <v>0.334305</v>
+        <v>0.335104</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.223697</v>
+        <v>0.225759</v>
       </c>
       <c r="C55" t="n">
-        <v>0.341755</v>
+        <v>0.341843</v>
       </c>
       <c r="D55" t="n">
-        <v>0.457695</v>
+        <v>0.458551</v>
       </c>
       <c r="E55" t="n">
-        <v>0.204903</v>
+        <v>0.205461</v>
       </c>
       <c r="F55" t="n">
-        <v>0.329392</v>
+        <v>0.329576</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216114</v>
+        <v>0.216379</v>
       </c>
       <c r="C56" t="n">
-        <v>0.335211</v>
+        <v>0.335423</v>
       </c>
       <c r="D56" t="n">
-        <v>0.45025</v>
+        <v>0.452092</v>
       </c>
       <c r="E56" t="n">
-        <v>0.197123</v>
+        <v>0.198399</v>
       </c>
       <c r="F56" t="n">
-        <v>0.321406</v>
+        <v>0.322032</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208118</v>
+        <v>0.210333</v>
       </c>
       <c r="C57" t="n">
-        <v>0.328269</v>
+        <v>0.328364</v>
       </c>
       <c r="D57" t="n">
-        <v>0.444946</v>
+        <v>0.446092</v>
       </c>
       <c r="E57" t="n">
-        <v>0.19002</v>
+        <v>0.190686</v>
       </c>
       <c r="F57" t="n">
-        <v>0.315342</v>
+        <v>0.315411</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.201866</v>
+        <v>0.202973</v>
       </c>
       <c r="C58" t="n">
-        <v>0.322101</v>
+        <v>0.32389</v>
       </c>
       <c r="D58" t="n">
-        <v>0.439057</v>
+        <v>0.439101</v>
       </c>
       <c r="E58" t="n">
-        <v>0.183256</v>
+        <v>0.184401</v>
       </c>
       <c r="F58" t="n">
-        <v>0.309365</v>
+        <v>0.309397</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.19545</v>
+        <v>0.197079</v>
       </c>
       <c r="C59" t="n">
-        <v>0.31744</v>
+        <v>0.317727</v>
       </c>
       <c r="D59" t="n">
-        <v>0.433642</v>
+        <v>0.434417</v>
       </c>
       <c r="E59" t="n">
-        <v>0.17651</v>
+        <v>0.17815</v>
       </c>
       <c r="F59" t="n">
-        <v>0.303923</v>
+        <v>0.304373</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.189607</v>
+        <v>0.191354</v>
       </c>
       <c r="C60" t="n">
-        <v>0.313421</v>
+        <v>0.313068</v>
       </c>
       <c r="D60" t="n">
-        <v>0.428159</v>
+        <v>0.429439</v>
       </c>
       <c r="E60" t="n">
-        <v>0.172827</v>
+        <v>0.172753</v>
       </c>
       <c r="F60" t="n">
-        <v>0.298876</v>
+        <v>0.298689</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.184509</v>
+        <v>0.186187</v>
       </c>
       <c r="C61" t="n">
-        <v>0.30909</v>
+        <v>0.309261</v>
       </c>
       <c r="D61" t="n">
-        <v>0.423936</v>
+        <v>0.426707</v>
       </c>
       <c r="E61" t="n">
-        <v>0.167667</v>
+        <v>0.168277</v>
       </c>
       <c r="F61" t="n">
-        <v>0.294223</v>
+        <v>0.294758</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.180441</v>
+        <v>0.182137</v>
       </c>
       <c r="C62" t="n">
-        <v>0.305836</v>
+        <v>0.305862</v>
       </c>
       <c r="D62" t="n">
-        <v>0.421212</v>
+        <v>0.422846</v>
       </c>
       <c r="E62" t="n">
-        <v>0.162595</v>
+        <v>0.16445</v>
       </c>
       <c r="F62" t="n">
-        <v>0.29088</v>
+        <v>0.290992</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178135</v>
+        <v>0.17904</v>
       </c>
       <c r="C63" t="n">
-        <v>0.303326</v>
+        <v>0.303443</v>
       </c>
       <c r="D63" t="n">
-        <v>0.417838</v>
+        <v>0.420832</v>
       </c>
       <c r="E63" t="n">
-        <v>0.160716</v>
+        <v>0.161271</v>
       </c>
       <c r="F63" t="n">
-        <v>0.288195</v>
+        <v>0.288783</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175741</v>
+        <v>0.177232</v>
       </c>
       <c r="C64" t="n">
-        <v>0.302225</v>
+        <v>0.303096</v>
       </c>
       <c r="D64" t="n">
-        <v>0.541886</v>
+        <v>0.545184</v>
       </c>
       <c r="E64" t="n">
-        <v>0.159223</v>
+        <v>0.159995</v>
       </c>
       <c r="F64" t="n">
-        <v>0.28745</v>
+        <v>0.287357</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176863</v>
+        <v>0.177505</v>
       </c>
       <c r="C65" t="n">
-        <v>0.303984</v>
+        <v>0.304063</v>
       </c>
       <c r="D65" t="n">
-        <v>0.529923</v>
+        <v>0.535251</v>
       </c>
       <c r="E65" t="n">
-        <v>0.160019</v>
+        <v>0.159987</v>
       </c>
       <c r="F65" t="n">
-        <v>0.288899</v>
+        <v>0.288939</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.17879</v>
+        <v>0.180217</v>
       </c>
       <c r="C66" t="n">
-        <v>0.308783</v>
+        <v>0.308899</v>
       </c>
       <c r="D66" t="n">
-        <v>0.521936</v>
+        <v>0.525827</v>
       </c>
       <c r="E66" t="n">
-        <v>0.241414</v>
+        <v>0.243607</v>
       </c>
       <c r="F66" t="n">
-        <v>0.367055</v>
+        <v>0.36961</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244156</v>
+        <v>0.245684</v>
       </c>
       <c r="C67" t="n">
-        <v>0.37544</v>
+        <v>0.375674</v>
       </c>
       <c r="D67" t="n">
-        <v>0.511956</v>
+        <v>0.518249</v>
       </c>
       <c r="E67" t="n">
-        <v>0.231834</v>
+        <v>0.233483</v>
       </c>
       <c r="F67" t="n">
-        <v>0.359204</v>
+        <v>0.360404</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236607</v>
+        <v>0.236832</v>
       </c>
       <c r="C68" t="n">
-        <v>0.367067</v>
+        <v>0.368068</v>
       </c>
       <c r="D68" t="n">
-        <v>0.503547</v>
+        <v>0.50868</v>
       </c>
       <c r="E68" t="n">
-        <v>0.22428</v>
+        <v>0.225419</v>
       </c>
       <c r="F68" t="n">
-        <v>0.349808</v>
+        <v>0.351249</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.229076</v>
+        <v>0.228146</v>
       </c>
       <c r="C69" t="n">
-        <v>0.36057</v>
+        <v>0.362302</v>
       </c>
       <c r="D69" t="n">
-        <v>0.496027</v>
+        <v>0.498952</v>
       </c>
       <c r="E69" t="n">
-        <v>0.215316</v>
+        <v>0.215878</v>
       </c>
       <c r="F69" t="n">
-        <v>0.345818</v>
+        <v>0.345213</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.220235</v>
+        <v>0.21977</v>
       </c>
       <c r="C70" t="n">
-        <v>0.355606</v>
+        <v>0.353761</v>
       </c>
       <c r="D70" t="n">
-        <v>0.49</v>
+        <v>0.494563</v>
       </c>
       <c r="E70" t="n">
-        <v>0.206034</v>
+        <v>0.208099</v>
       </c>
       <c r="F70" t="n">
-        <v>0.338209</v>
+        <v>0.33917</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213362</v>
+        <v>0.212948</v>
       </c>
       <c r="C71" t="n">
-        <v>0.347761</v>
+        <v>0.347849</v>
       </c>
       <c r="D71" t="n">
-        <v>0.486959</v>
+        <v>0.489896</v>
       </c>
       <c r="E71" t="n">
-        <v>0.198799</v>
+        <v>0.200842</v>
       </c>
       <c r="F71" t="n">
-        <v>0.33107</v>
+        <v>0.33207</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.20628</v>
+        <v>0.206576</v>
       </c>
       <c r="C72" t="n">
-        <v>0.341365</v>
+        <v>0.342132</v>
       </c>
       <c r="D72" t="n">
-        <v>0.481088</v>
+        <v>0.486832</v>
       </c>
       <c r="E72" t="n">
-        <v>0.192296</v>
+        <v>0.194105</v>
       </c>
       <c r="F72" t="n">
-        <v>0.32443</v>
+        <v>0.325618</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199978</v>
+        <v>0.199798</v>
       </c>
       <c r="C73" t="n">
-        <v>0.335821</v>
+        <v>0.336124</v>
       </c>
       <c r="D73" t="n">
-        <v>0.478733</v>
+        <v>0.481937</v>
       </c>
       <c r="E73" t="n">
-        <v>0.186612</v>
+        <v>0.185534</v>
       </c>
       <c r="F73" t="n">
-        <v>0.318196</v>
+        <v>0.319405</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193596</v>
+        <v>0.194883</v>
       </c>
       <c r="C74" t="n">
-        <v>0.330076</v>
+        <v>0.331026</v>
       </c>
       <c r="D74" t="n">
-        <v>0.493176</v>
+        <v>0.495122</v>
       </c>
       <c r="E74" t="n">
-        <v>0.181145</v>
+        <v>0.180266</v>
       </c>
       <c r="F74" t="n">
-        <v>0.313249</v>
+        <v>0.31424</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18943</v>
+        <v>0.1884</v>
       </c>
       <c r="C75" t="n">
-        <v>0.325361</v>
+        <v>0.325341</v>
       </c>
       <c r="D75" t="n">
-        <v>0.488084</v>
+        <v>0.490845</v>
       </c>
       <c r="E75" t="n">
-        <v>0.176191</v>
+        <v>0.175093</v>
       </c>
       <c r="F75" t="n">
-        <v>0.308128</v>
+        <v>0.307239</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185651</v>
+        <v>0.185492</v>
       </c>
       <c r="C76" t="n">
-        <v>0.322423</v>
+        <v>0.321831</v>
       </c>
       <c r="D76" t="n">
-        <v>0.48467</v>
+        <v>0.487109</v>
       </c>
       <c r="E76" t="n">
-        <v>0.171444</v>
+        <v>0.171936</v>
       </c>
       <c r="F76" t="n">
-        <v>0.305191</v>
+        <v>0.30521</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182254</v>
+        <v>0.182625</v>
       </c>
       <c r="C77" t="n">
-        <v>0.319642</v>
+        <v>0.319903</v>
       </c>
       <c r="D77" t="n">
-        <v>0.482966</v>
+        <v>0.483976</v>
       </c>
       <c r="E77" t="n">
-        <v>0.168291</v>
+        <v>0.16847</v>
       </c>
       <c r="F77" t="n">
-        <v>0.302266</v>
+        <v>0.302557</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179953</v>
+        <v>0.180125</v>
       </c>
       <c r="C78" t="n">
-        <v>0.318991</v>
+        <v>0.321406</v>
       </c>
       <c r="D78" t="n">
-        <v>0.659111</v>
+        <v>0.664465</v>
       </c>
       <c r="E78" t="n">
-        <v>0.167104</v>
+        <v>0.165428</v>
       </c>
       <c r="F78" t="n">
-        <v>0.302818</v>
+        <v>0.303197</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179339</v>
+        <v>0.179701</v>
       </c>
       <c r="C79" t="n">
-        <v>0.320828</v>
+        <v>0.320812</v>
       </c>
       <c r="D79" t="n">
-        <v>0.650245</v>
+        <v>0.65271</v>
       </c>
       <c r="E79" t="n">
-        <v>0.165835</v>
+        <v>0.166392</v>
       </c>
       <c r="F79" t="n">
-        <v>0.303917</v>
+        <v>0.303796</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180932</v>
+        <v>0.181948</v>
       </c>
       <c r="C80" t="n">
-        <v>0.323971</v>
+        <v>0.324045</v>
       </c>
       <c r="D80" t="n">
-        <v>0.640606</v>
+        <v>0.643239</v>
       </c>
       <c r="E80" t="n">
-        <v>0.23906</v>
+        <v>0.239649</v>
       </c>
       <c r="F80" t="n">
-        <v>0.384555</v>
+        <v>0.385023</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257674</v>
+        <v>0.258483</v>
       </c>
       <c r="C81" t="n">
-        <v>0.395851</v>
+        <v>0.395824</v>
       </c>
       <c r="D81" t="n">
-        <v>0.632298</v>
+        <v>0.636816</v>
       </c>
       <c r="E81" t="n">
-        <v>0.229806</v>
+        <v>0.231334</v>
       </c>
       <c r="F81" t="n">
-        <v>0.378541</v>
+        <v>0.379251</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249919</v>
+        <v>0.251011</v>
       </c>
       <c r="C82" t="n">
-        <v>0.390903</v>
+        <v>0.391843</v>
       </c>
       <c r="D82" t="n">
-        <v>0.625945</v>
+        <v>0.627078</v>
       </c>
       <c r="E82" t="n">
-        <v>0.222141</v>
+        <v>0.222269</v>
       </c>
       <c r="F82" t="n">
-        <v>0.371934</v>
+        <v>0.373255</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242502</v>
+        <v>0.243423</v>
       </c>
       <c r="C83" t="n">
-        <v>0.38477</v>
+        <v>0.386236</v>
       </c>
       <c r="D83" t="n">
-        <v>0.620163</v>
+        <v>0.623794</v>
       </c>
       <c r="E83" t="n">
-        <v>0.214236</v>
+        <v>0.21554</v>
       </c>
       <c r="F83" t="n">
-        <v>0.366358</v>
+        <v>0.367266</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234847</v>
+        <v>0.235449</v>
       </c>
       <c r="C84" t="n">
-        <v>0.383075</v>
+        <v>0.383322</v>
       </c>
       <c r="D84" t="n">
-        <v>0.617762</v>
+        <v>0.6193959999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>0.206945</v>
+        <v>0.208212</v>
       </c>
       <c r="F84" t="n">
-        <v>0.361138</v>
+        <v>0.362443</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227078</v>
+        <v>0.228369</v>
       </c>
       <c r="C85" t="n">
-        <v>0.37789</v>
+        <v>0.377232</v>
       </c>
       <c r="D85" t="n">
-        <v>0.614889</v>
+        <v>0.618068</v>
       </c>
       <c r="E85" t="n">
-        <v>0.19984</v>
+        <v>0.201004</v>
       </c>
       <c r="F85" t="n">
-        <v>0.354441</v>
+        <v>0.356118</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220415</v>
+        <v>0.221107</v>
       </c>
       <c r="C86" t="n">
-        <v>0.37263</v>
+        <v>0.371866</v>
       </c>
       <c r="D86" t="n">
-        <v>0.61343</v>
+        <v>0.61612</v>
       </c>
       <c r="E86" t="n">
-        <v>0.193374</v>
+        <v>0.194245</v>
       </c>
       <c r="F86" t="n">
-        <v>0.348806</v>
+        <v>0.350145</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213772</v>
+        <v>0.214503</v>
       </c>
       <c r="C87" t="n">
-        <v>0.36688</v>
+        <v>0.367537</v>
       </c>
       <c r="D87" t="n">
-        <v>0.61383</v>
+        <v>0.618834</v>
       </c>
       <c r="E87" t="n">
-        <v>0.187007</v>
+        <v>0.187739</v>
       </c>
       <c r="F87" t="n">
-        <v>0.34272</v>
+        <v>0.344106</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20799</v>
+        <v>0.208605</v>
       </c>
       <c r="C88" t="n">
-        <v>0.362979</v>
+        <v>0.36282</v>
       </c>
       <c r="D88" t="n">
-        <v>0.615906</v>
+        <v>0.617636</v>
       </c>
       <c r="E88" t="n">
-        <v>0.181514</v>
+        <v>0.182299</v>
       </c>
       <c r="F88" t="n">
-        <v>0.338354</v>
+        <v>0.340088</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201983</v>
+        <v>0.202512</v>
       </c>
       <c r="C89" t="n">
-        <v>0.358349</v>
+        <v>0.35802</v>
       </c>
       <c r="D89" t="n">
-        <v>0.629456</v>
+        <v>0.63165</v>
       </c>
       <c r="E89" t="n">
-        <v>0.17626</v>
+        <v>0.17715</v>
       </c>
       <c r="F89" t="n">
-        <v>0.333755</v>
+        <v>0.335265</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197125</v>
+        <v>0.197493</v>
       </c>
       <c r="C90" t="n">
-        <v>0.353865</v>
+        <v>0.354697</v>
       </c>
       <c r="D90" t="n">
-        <v>0.632947</v>
+        <v>0.63562</v>
       </c>
       <c r="E90" t="n">
-        <v>0.171888</v>
+        <v>0.173013</v>
       </c>
       <c r="F90" t="n">
-        <v>0.329827</v>
+        <v>0.330938</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193023</v>
+        <v>0.193599</v>
       </c>
       <c r="C91" t="n">
-        <v>0.35038</v>
+        <v>0.351418</v>
       </c>
       <c r="D91" t="n">
-        <v>0.639286</v>
+        <v>0.6398779999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>0.168363</v>
+        <v>0.168982</v>
       </c>
       <c r="F91" t="n">
-        <v>0.326316</v>
+        <v>0.327344</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190249</v>
+        <v>0.190702</v>
       </c>
       <c r="C92" t="n">
-        <v>0.350364</v>
+        <v>0.350711</v>
       </c>
       <c r="D92" t="n">
-        <v>0.849123</v>
+        <v>0.853419</v>
       </c>
       <c r="E92" t="n">
-        <v>0.166549</v>
+        <v>0.167061</v>
       </c>
       <c r="F92" t="n">
-        <v>0.325516</v>
+        <v>0.326787</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188736</v>
+        <v>0.189757</v>
       </c>
       <c r="C93" t="n">
-        <v>0.352181</v>
+        <v>0.350476</v>
       </c>
       <c r="D93" t="n">
-        <v>0.844893</v>
+        <v>0.850504</v>
       </c>
       <c r="E93" t="n">
-        <v>0.16588</v>
+        <v>0.166938</v>
       </c>
       <c r="F93" t="n">
-        <v>0.32604</v>
+        <v>0.327134</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189943</v>
+        <v>0.19016</v>
       </c>
       <c r="C94" t="n">
-        <v>0.353196</v>
+        <v>0.352373</v>
       </c>
       <c r="D94" t="n">
-        <v>0.840924</v>
+        <v>0.844877</v>
       </c>
       <c r="E94" t="n">
-        <v>0.250706</v>
+        <v>0.252432</v>
       </c>
       <c r="F94" t="n">
-        <v>0.453035</v>
+        <v>0.452034</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.272273</v>
+        <v>0.271343</v>
       </c>
       <c r="C95" t="n">
-        <v>0.469273</v>
+        <v>0.467509</v>
       </c>
       <c r="D95" t="n">
-        <v>0.836078</v>
+        <v>0.840876</v>
       </c>
       <c r="E95" t="n">
-        <v>0.243669</v>
+        <v>0.244774</v>
       </c>
       <c r="F95" t="n">
-        <v>0.451812</v>
+        <v>0.450815</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.26586</v>
+        <v>0.265752</v>
       </c>
       <c r="C96" t="n">
-        <v>0.469442</v>
+        <v>0.467568</v>
       </c>
       <c r="D96" t="n">
-        <v>0.832489</v>
+        <v>0.836318</v>
       </c>
       <c r="E96" t="n">
-        <v>0.235443</v>
+        <v>0.23669</v>
       </c>
       <c r="F96" t="n">
-        <v>0.446894</v>
+        <v>0.446093</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.259432</v>
+        <v>0.258592</v>
       </c>
       <c r="C97" t="n">
-        <v>0.465798</v>
+        <v>0.463704</v>
       </c>
       <c r="D97" t="n">
-        <v>0.837816</v>
+        <v>0.841675</v>
       </c>
       <c r="E97" t="n">
-        <v>0.228185</v>
+        <v>0.229061</v>
       </c>
       <c r="F97" t="n">
-        <v>0.441679</v>
+        <v>0.441027</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252341</v>
+        <v>0.251792</v>
       </c>
       <c r="C98" t="n">
-        <v>0.461353</v>
+        <v>0.458625</v>
       </c>
       <c r="D98" t="n">
-        <v>0.836919</v>
+        <v>0.842109</v>
       </c>
       <c r="E98" t="n">
-        <v>0.220516</v>
+        <v>0.221597</v>
       </c>
       <c r="F98" t="n">
-        <v>0.437179</v>
+        <v>0.436949</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246086</v>
+        <v>0.245326</v>
       </c>
       <c r="C99" t="n">
-        <v>0.455185</v>
+        <v>0.454401</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8355050000000001</v>
+        <v>0.839094</v>
       </c>
       <c r="E99" t="n">
-        <v>0.213797</v>
+        <v>0.214482</v>
       </c>
       <c r="F99" t="n">
-        <v>0.431278</v>
+        <v>0.431042</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.24015</v>
+        <v>0.23914</v>
       </c>
       <c r="C100" t="n">
-        <v>0.451269</v>
+        <v>0.44934</v>
       </c>
       <c r="D100" t="n">
-        <v>0.837201</v>
+        <v>0.840764</v>
       </c>
       <c r="E100" t="n">
-        <v>0.206906</v>
+        <v>0.207554</v>
       </c>
       <c r="F100" t="n">
-        <v>0.427644</v>
+        <v>0.426164</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.234233</v>
+        <v>0.233698</v>
       </c>
       <c r="C101" t="n">
-        <v>0.446606</v>
+        <v>0.444653</v>
       </c>
       <c r="D101" t="n">
-        <v>0.840208</v>
+        <v>0.844529</v>
       </c>
       <c r="E101" t="n">
-        <v>0.200936</v>
+        <v>0.201614</v>
       </c>
       <c r="F101" t="n">
-        <v>0.422234</v>
+        <v>0.422001</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228821</v>
+        <v>0.228138</v>
       </c>
       <c r="C102" t="n">
-        <v>0.442881</v>
+        <v>0.441435</v>
       </c>
       <c r="D102" t="n">
-        <v>0.844274</v>
+        <v>0.847983</v>
       </c>
       <c r="E102" t="n">
-        <v>0.195247</v>
+        <v>0.195955</v>
       </c>
       <c r="F102" t="n">
-        <v>0.417913</v>
+        <v>0.417154</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223578</v>
+        <v>0.222891</v>
       </c>
       <c r="C103" t="n">
-        <v>0.439669</v>
+        <v>0.438803</v>
       </c>
       <c r="D103" t="n">
-        <v>0.854599</v>
+        <v>0.856986</v>
       </c>
       <c r="E103" t="n">
-        <v>0.190128</v>
+        <v>0.190941</v>
       </c>
       <c r="F103" t="n">
-        <v>0.415003</v>
+        <v>0.414756</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218754</v>
+        <v>0.218468</v>
       </c>
       <c r="C104" t="n">
-        <v>0.43834</v>
+        <v>0.435882</v>
       </c>
       <c r="D104" t="n">
-        <v>0.859089</v>
+        <v>0.863075</v>
       </c>
       <c r="E104" t="n">
-        <v>0.185407</v>
+        <v>0.186356</v>
       </c>
       <c r="F104" t="n">
-        <v>0.411157</v>
+        <v>0.411327</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214533</v>
+        <v>0.214542</v>
       </c>
       <c r="C105" t="n">
-        <v>0.43588</v>
+        <v>0.435312</v>
       </c>
       <c r="D105" t="n">
-        <v>0.866752</v>
+        <v>0.870671</v>
       </c>
       <c r="E105" t="n">
-        <v>0.182082</v>
+        <v>0.182613</v>
       </c>
       <c r="F105" t="n">
-        <v>0.409646</v>
+        <v>0.409604</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211732</v>
+        <v>0.211082</v>
       </c>
       <c r="C106" t="n">
-        <v>0.435558</v>
+        <v>0.434481</v>
       </c>
       <c r="D106" t="n">
-        <v>0.874956</v>
+        <v>0.880914</v>
       </c>
       <c r="E106" t="n">
-        <v>0.178969</v>
+        <v>0.180089</v>
       </c>
       <c r="F106" t="n">
-        <v>0.407345</v>
+        <v>0.408557</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209692</v>
+        <v>0.209609</v>
       </c>
       <c r="C107" t="n">
-        <v>0.43601</v>
+        <v>0.435148</v>
       </c>
       <c r="D107" t="n">
-        <v>1.11923</v>
+        <v>1.12629</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1782</v>
+        <v>0.178787</v>
       </c>
       <c r="F107" t="n">
-        <v>0.407377</v>
+        <v>0.407606</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2094</v>
+        <v>0.209235</v>
       </c>
       <c r="C108" t="n">
-        <v>0.439104</v>
+        <v>0.437177</v>
       </c>
       <c r="D108" t="n">
-        <v>1.10995</v>
+        <v>1.1161</v>
       </c>
       <c r="E108" t="n">
-        <v>0.267249</v>
+        <v>0.268046</v>
       </c>
       <c r="F108" t="n">
-        <v>0.563795</v>
+        <v>0.56319</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211671</v>
+        <v>0.211571</v>
       </c>
       <c r="C109" t="n">
-        <v>0.443594</v>
+        <v>0.442492</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10171</v>
+        <v>1.10471</v>
       </c>
       <c r="E109" t="n">
-        <v>0.260975</v>
+        <v>0.26293</v>
       </c>
       <c r="F109" t="n">
-        <v>0.561366</v>
+        <v>0.555775</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285119</v>
+        <v>0.285272</v>
       </c>
       <c r="C110" t="n">
-        <v>0.581142</v>
+        <v>0.581997</v>
       </c>
       <c r="D110" t="n">
-        <v>1.09515</v>
+        <v>1.0971</v>
       </c>
       <c r="E110" t="n">
-        <v>0.253489</v>
+        <v>0.254441</v>
       </c>
       <c r="F110" t="n">
-        <v>0.556712</v>
+        <v>0.556218</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278039</v>
+        <v>0.278732</v>
       </c>
       <c r="C111" t="n">
-        <v>0.576304</v>
+        <v>0.576292</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09366</v>
+        <v>1.09726</v>
       </c>
       <c r="E111" t="n">
-        <v>0.246155</v>
+        <v>0.247011</v>
       </c>
       <c r="F111" t="n">
-        <v>0.550457</v>
+        <v>0.549508</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272521</v>
+        <v>0.272481</v>
       </c>
       <c r="C112" t="n">
-        <v>0.569529</v>
+        <v>0.571452</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09285</v>
+        <v>1.09391</v>
       </c>
       <c r="E112" t="n">
-        <v>0.239483</v>
+        <v>0.239776</v>
       </c>
       <c r="F112" t="n">
-        <v>0.545709</v>
+        <v>0.545169</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266286</v>
+        <v>0.267799</v>
       </c>
       <c r="C113" t="n">
-        <v>0.565812</v>
+        <v>0.565333</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08878</v>
+        <v>1.09221</v>
       </c>
       <c r="E113" t="n">
-        <v>0.232651</v>
+        <v>0.233395</v>
       </c>
       <c r="F113" t="n">
-        <v>0.541301</v>
+        <v>0.540315</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260934</v>
+        <v>0.262024</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5608030000000001</v>
+        <v>0.566065</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08832</v>
+        <v>1.09173</v>
       </c>
       <c r="E114" t="n">
-        <v>0.226522</v>
+        <v>0.227096</v>
       </c>
       <c r="F114" t="n">
-        <v>0.536086</v>
+        <v>0.536422</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255668</v>
+        <v>0.255981</v>
       </c>
       <c r="C115" t="n">
-        <v>0.557746</v>
+        <v>0.556952</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09038</v>
+        <v>1.09456</v>
       </c>
       <c r="E115" t="n">
-        <v>0.220989</v>
+        <v>0.221467</v>
       </c>
       <c r="F115" t="n">
-        <v>0.531849</v>
+        <v>0.531327</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250489</v>
+        <v>0.251126</v>
       </c>
       <c r="C116" t="n">
-        <v>0.554223</v>
+        <v>0.553821</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09123</v>
+        <v>1.0944</v>
       </c>
       <c r="E116" t="n">
-        <v>0.215326</v>
+        <v>0.216221</v>
       </c>
       <c r="F116" t="n">
-        <v>0.518304</v>
+        <v>0.528963</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.24636</v>
+        <v>0.246481</v>
       </c>
       <c r="C117" t="n">
-        <v>0.54158</v>
+        <v>0.550613</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09772</v>
+        <v>1.09913</v>
       </c>
       <c r="E117" t="n">
-        <v>0.21091</v>
+        <v>0.211349</v>
       </c>
       <c r="F117" t="n">
-        <v>0.527405</v>
+        <v>0.5251670000000001</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241681</v>
+        <v>0.242203</v>
       </c>
       <c r="C118" t="n">
-        <v>0.548597</v>
+        <v>0.548106</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1005</v>
+        <v>1.10354</v>
       </c>
       <c r="E118" t="n">
-        <v>0.206452</v>
+        <v>0.207072</v>
       </c>
       <c r="F118" t="n">
-        <v>0.523819</v>
+        <v>0.522806</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238081</v>
+        <v>0.238385</v>
       </c>
       <c r="C119" t="n">
-        <v>0.558541</v>
+        <v>0.546247</v>
       </c>
       <c r="D119" t="n">
-        <v>1.10764</v>
+        <v>1.11073</v>
       </c>
       <c r="E119" t="n">
-        <v>0.202853</v>
+        <v>0.203145</v>
       </c>
       <c r="F119" t="n">
-        <v>0.521326</v>
+        <v>0.520795</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234588</v>
+        <v>0.235558</v>
       </c>
       <c r="C120" t="n">
-        <v>0.547194</v>
+        <v>0.545412</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11481</v>
+        <v>1.11705</v>
       </c>
       <c r="E120" t="n">
-        <v>0.200171</v>
+        <v>0.200636</v>
       </c>
       <c r="F120" t="n">
-        <v>0.520861</v>
+        <v>0.519134</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232633</v>
+        <v>0.233177</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5479579999999999</v>
+        <v>0.546497</v>
       </c>
       <c r="D121" t="n">
-        <v>1.37862</v>
+        <v>1.38156</v>
       </c>
       <c r="E121" t="n">
-        <v>0.198628</v>
+        <v>0.199158</v>
       </c>
       <c r="F121" t="n">
-        <v>0.520987</v>
+        <v>0.519822</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231653</v>
+        <v>0.232344</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5499270000000001</v>
+        <v>0.548369</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36308</v>
+        <v>1.36716</v>
       </c>
       <c r="E122" t="n">
-        <v>0.199086</v>
+        <v>0.199534</v>
       </c>
       <c r="F122" t="n">
-        <v>0.522385</v>
+        <v>0.521333</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232908</v>
+        <v>0.233482</v>
       </c>
       <c r="C123" t="n">
-        <v>0.554737</v>
+        <v>0.552759</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34978</v>
+        <v>1.35196</v>
       </c>
       <c r="E123" t="n">
-        <v>0.283805</v>
+        <v>0.283987</v>
       </c>
       <c r="F123" t="n">
-        <v>0.689987</v>
+        <v>0.687179</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.312984</v>
+        <v>0.317475</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7162539999999999</v>
+        <v>0.713948</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33891</v>
+        <v>1.33867</v>
       </c>
       <c r="E124" t="n">
-        <v>0.277859</v>
+        <v>0.278154</v>
       </c>
       <c r="F124" t="n">
-        <v>0.685532</v>
+        <v>0.683927</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.307251</v>
+        <v>0.311282</v>
       </c>
       <c r="C125" t="n">
-        <v>0.710665</v>
+        <v>0.710148</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32739</v>
+        <v>1.32951</v>
       </c>
       <c r="E125" t="n">
-        <v>0.272374</v>
+        <v>0.272484</v>
       </c>
       <c r="F125" t="n">
-        <v>0.680151</v>
+        <v>0.67925</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.302388</v>
+        <v>0.305955</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7064049999999999</v>
+        <v>0.705968</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31802</v>
+        <v>1.32113</v>
       </c>
       <c r="E126" t="n">
-        <v>0.266917</v>
+        <v>0.267226</v>
       </c>
       <c r="F126" t="n">
-        <v>0.677449</v>
+        <v>0.675597</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.297801</v>
+        <v>0.301014</v>
       </c>
       <c r="C127" t="n">
-        <v>0.703331</v>
+        <v>0.701075</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31012</v>
+        <v>1.31519</v>
       </c>
       <c r="E127" t="n">
-        <v>0.26239</v>
+        <v>0.262556</v>
       </c>
       <c r="F127" t="n">
-        <v>0.672759</v>
+        <v>0.672044</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.293145</v>
+        <v>0.295909</v>
       </c>
       <c r="C128" t="n">
-        <v>0.698427</v>
+        <v>0.698213</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30572</v>
+        <v>1.30919</v>
       </c>
       <c r="E128" t="n">
-        <v>0.257452</v>
+        <v>0.257867</v>
       </c>
       <c r="F128" t="n">
-        <v>0.670951</v>
+        <v>0.668677</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.288753</v>
+        <v>0.29086</v>
       </c>
       <c r="C129" t="n">
-        <v>0.696515</v>
+        <v>0.695589</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3033</v>
+        <v>1.30448</v>
       </c>
       <c r="E129" t="n">
-        <v>0.253344</v>
+        <v>0.253425</v>
       </c>
       <c r="F129" t="n">
-        <v>0.66797</v>
+        <v>0.667297</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.28487</v>
+        <v>0.285784</v>
       </c>
       <c r="C130" t="n">
-        <v>0.69276</v>
+        <v>0.692713</v>
       </c>
       <c r="D130" t="n">
-        <v>1.29976</v>
+        <v>1.30264</v>
       </c>
       <c r="E130" t="n">
-        <v>0.249249</v>
+        <v>0.249241</v>
       </c>
       <c r="F130" t="n">
-        <v>0.664393</v>
+        <v>0.664596</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281633</v>
+        <v>0.282544</v>
       </c>
       <c r="C131" t="n">
-        <v>0.691319</v>
+        <v>0.691263</v>
       </c>
       <c r="D131" t="n">
-        <v>1.29774</v>
+        <v>1.30343</v>
       </c>
       <c r="E131" t="n">
-        <v>0.245771</v>
+        <v>0.245761</v>
       </c>
       <c r="F131" t="n">
-        <v>0.663905</v>
+        <v>0.662547</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278215</v>
+        <v>0.278813</v>
       </c>
       <c r="C132" t="n">
-        <v>0.689784</v>
+        <v>0.689758</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30073</v>
+        <v>1.30377</v>
       </c>
       <c r="E132" t="n">
-        <v>0.242371</v>
+        <v>0.242231</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6614719999999999</v>
+        <v>0.661205</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275632</v>
+        <v>0.275772</v>
       </c>
       <c r="C133" t="n">
-        <v>0.688724</v>
+        <v>0.689127</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30159</v>
+        <v>1.30451</v>
       </c>
       <c r="E133" t="n">
-        <v>0.239522</v>
+        <v>0.239645</v>
       </c>
       <c r="F133" t="n">
-        <v>0.660347</v>
+        <v>0.659797</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.270723</v>
+        <v>0.272827</v>
       </c>
       <c r="C134" t="n">
-        <v>0.690043</v>
+        <v>0.688518</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30427</v>
+        <v>1.30591</v>
       </c>
       <c r="E134" t="n">
-        <v>0.237036</v>
+        <v>0.237219</v>
       </c>
       <c r="F134" t="n">
-        <v>0.661708</v>
+        <v>0.660151</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.269423</v>
+        <v>0.271132</v>
       </c>
       <c r="C135" t="n">
-        <v>0.691535</v>
+        <v>0.690838</v>
       </c>
       <c r="D135" t="n">
-        <v>1.57823</v>
+        <v>1.58296</v>
       </c>
       <c r="E135" t="n">
-        <v>0.235718</v>
+        <v>0.235938</v>
       </c>
       <c r="F135" t="n">
-        <v>0.660505</v>
+        <v>0.656609</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.269114</v>
+        <v>0.270711</v>
       </c>
       <c r="C136" t="n">
-        <v>0.695148</v>
+        <v>0.69381</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55698</v>
+        <v>1.56046</v>
       </c>
       <c r="E136" t="n">
-        <v>0.235863</v>
+        <v>0.235866</v>
       </c>
       <c r="F136" t="n">
-        <v>0.66323</v>
+        <v>0.662408</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.269732</v>
+        <v>0.271245</v>
       </c>
       <c r="C137" t="n">
-        <v>0.69916</v>
+        <v>0.697819</v>
       </c>
       <c r="D137" t="n">
-        <v>1.536</v>
+        <v>1.53973</v>
       </c>
       <c r="E137" t="n">
-        <v>0.332809</v>
+        <v>0.333859</v>
       </c>
       <c r="F137" t="n">
-        <v>0.843567</v>
+        <v>0.842465</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.369074</v>
+        <v>0.361225</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8790480000000001</v>
+        <v>0.876039</v>
       </c>
       <c r="D138" t="n">
-        <v>1.51755</v>
+        <v>1.52152</v>
       </c>
       <c r="E138" t="n">
-        <v>0.327854</v>
+        <v>0.327416</v>
       </c>
       <c r="F138" t="n">
-        <v>0.843086</v>
+        <v>0.828714</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.363431</v>
+        <v>0.357442</v>
       </c>
       <c r="C139" t="n">
-        <v>0.863453</v>
+        <v>0.869367</v>
       </c>
       <c r="D139" t="n">
-        <v>1.50348</v>
+        <v>1.49523</v>
       </c>
       <c r="E139" t="n">
-        <v>0.32337</v>
+        <v>0.320065</v>
       </c>
       <c r="F139" t="n">
-        <v>0.84259</v>
+        <v>0.831121</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.357277</v>
+        <v>0.34157</v>
       </c>
       <c r="C140" t="n">
-        <v>0.876094</v>
+        <v>0.863358</v>
       </c>
       <c r="D140" t="n">
-        <v>1.49101</v>
+        <v>1.48884</v>
       </c>
       <c r="E140" t="n">
-        <v>0.318405</v>
+        <v>0.318403</v>
       </c>
       <c r="F140" t="n">
-        <v>0.841367</v>
+        <v>0.841781</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.352031</v>
+        <v>0.345176</v>
       </c>
       <c r="C141" t="n">
-        <v>0.877054</v>
+        <v>0.874574</v>
       </c>
       <c r="D141" t="n">
-        <v>1.47535</v>
+        <v>1.47848</v>
       </c>
       <c r="E141" t="n">
-        <v>0.313717</v>
+        <v>0.31444</v>
       </c>
       <c r="F141" t="n">
-        <v>0.841866</v>
+        <v>0.841114</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.346519</v>
+        <v>0.341299</v>
       </c>
       <c r="C142" t="n">
-        <v>0.877755</v>
+        <v>0.875359</v>
       </c>
       <c r="D142" t="n">
-        <v>1.46466</v>
+        <v>1.46848</v>
       </c>
       <c r="E142" t="n">
-        <v>0.309698</v>
+        <v>0.309685</v>
       </c>
       <c r="F142" t="n">
-        <v>0.840315</v>
+        <v>0.841093</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.342688</v>
+        <v>0.336542</v>
       </c>
       <c r="C143" t="n">
-        <v>0.878179</v>
+        <v>0.8756620000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>1.45587</v>
+        <v>1.45649</v>
       </c>
       <c r="E143" t="n">
-        <v>0.306292</v>
+        <v>0.306214</v>
       </c>
       <c r="F143" t="n">
-        <v>0.841163</v>
+        <v>0.843149</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.160869</v>
+        <v>0.181572</v>
       </c>
       <c r="C2" t="n">
-        <v>0.290802</v>
+        <v>0.289154</v>
       </c>
       <c r="D2" t="n">
-        <v>0.347537</v>
+        <v>0.314214</v>
       </c>
       <c r="E2" t="n">
-        <v>0.139976</v>
+        <v>0.147287</v>
       </c>
       <c r="F2" t="n">
-        <v>0.276912</v>
+        <v>0.273244</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.159574</v>
+        <v>0.166483</v>
       </c>
       <c r="C3" t="n">
-        <v>0.285191</v>
+        <v>0.290402</v>
       </c>
       <c r="D3" t="n">
-        <v>0.345501</v>
+        <v>0.310046</v>
       </c>
       <c r="E3" t="n">
-        <v>0.134776</v>
+        <v>0.128896</v>
       </c>
       <c r="F3" t="n">
-        <v>0.276039</v>
+        <v>0.27846</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.148838</v>
+        <v>0.159019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.276695</v>
+        <v>0.285369</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341218</v>
+        <v>0.309643</v>
       </c>
       <c r="E4" t="n">
-        <v>0.12929</v>
+        <v>0.126162</v>
       </c>
       <c r="F4" t="n">
-        <v>0.27206</v>
+        <v>0.262415</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.146797</v>
+        <v>0.155489</v>
       </c>
       <c r="C5" t="n">
-        <v>0.270141</v>
+        <v>0.280676</v>
       </c>
       <c r="D5" t="n">
-        <v>0.339879</v>
+        <v>0.310626</v>
       </c>
       <c r="E5" t="n">
-        <v>0.129873</v>
+        <v>0.122184</v>
       </c>
       <c r="F5" t="n">
-        <v>0.259022</v>
+        <v>0.261621</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.149699</v>
+        <v>0.152319</v>
       </c>
       <c r="C6" t="n">
-        <v>0.270286</v>
+        <v>0.277322</v>
       </c>
       <c r="D6" t="n">
-        <v>0.336561</v>
+        <v>0.312117</v>
       </c>
       <c r="E6" t="n">
-        <v>0.124052</v>
+        <v>0.120162</v>
       </c>
       <c r="F6" t="n">
-        <v>0.265768</v>
+        <v>0.255235</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.136147</v>
+        <v>0.155176</v>
       </c>
       <c r="C7" t="n">
-        <v>0.27066</v>
+        <v>0.282412</v>
       </c>
       <c r="D7" t="n">
-        <v>0.438459</v>
+        <v>0.404865</v>
       </c>
       <c r="E7" t="n">
-        <v>0.121844</v>
+        <v>0.113783</v>
       </c>
       <c r="F7" t="n">
-        <v>0.259749</v>
+        <v>0.261127</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.150852</v>
+        <v>0.15029</v>
       </c>
       <c r="C8" t="n">
-        <v>0.277391</v>
+        <v>0.272624</v>
       </c>
       <c r="D8" t="n">
-        <v>0.44111</v>
+        <v>0.4067</v>
       </c>
       <c r="E8" t="n">
-        <v>0.118563</v>
+        <v>0.122835</v>
       </c>
       <c r="F8" t="n">
-        <v>0.261949</v>
+        <v>0.253122</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148176</v>
+        <v>0.157234</v>
       </c>
       <c r="C9" t="n">
-        <v>0.268243</v>
+        <v>0.278459</v>
       </c>
       <c r="D9" t="n">
-        <v>0.433257</v>
+        <v>0.402689</v>
       </c>
       <c r="E9" t="n">
-        <v>0.191322</v>
+        <v>0.177213</v>
       </c>
       <c r="F9" t="n">
-        <v>0.330563</v>
+        <v>0.321547</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.211979</v>
+        <v>0.221007</v>
       </c>
       <c r="C10" t="n">
-        <v>0.334566</v>
+        <v>0.341291</v>
       </c>
       <c r="D10" t="n">
-        <v>0.423484</v>
+        <v>0.40149</v>
       </c>
       <c r="E10" t="n">
-        <v>0.184717</v>
+        <v>0.175535</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3166</v>
+        <v>0.310868</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.200487</v>
+        <v>0.208028</v>
       </c>
       <c r="C11" t="n">
-        <v>0.323249</v>
+        <v>0.32471</v>
       </c>
       <c r="D11" t="n">
-        <v>0.410614</v>
+        <v>0.395061</v>
       </c>
       <c r="E11" t="n">
-        <v>0.16854</v>
+        <v>0.16678</v>
       </c>
       <c r="F11" t="n">
-        <v>0.306468</v>
+        <v>0.303231</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.199951</v>
+        <v>0.210802</v>
       </c>
       <c r="C12" t="n">
-        <v>0.310957</v>
+        <v>0.318358</v>
       </c>
       <c r="D12" t="n">
-        <v>0.406035</v>
+        <v>0.379037</v>
       </c>
       <c r="E12" t="n">
-        <v>0.171339</v>
+        <v>0.167217</v>
       </c>
       <c r="F12" t="n">
-        <v>0.304106</v>
+        <v>0.298845</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.189297</v>
+        <v>0.191241</v>
       </c>
       <c r="C13" t="n">
-        <v>0.305998</v>
+        <v>0.309465</v>
       </c>
       <c r="D13" t="n">
-        <v>0.396063</v>
+        <v>0.381673</v>
       </c>
       <c r="E13" t="n">
-        <v>0.167906</v>
+        <v>0.151814</v>
       </c>
       <c r="F13" t="n">
-        <v>0.293645</v>
+        <v>0.293212</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.184956</v>
+        <v>0.179561</v>
       </c>
       <c r="C14" t="n">
-        <v>0.298148</v>
+        <v>0.302432</v>
       </c>
       <c r="D14" t="n">
-        <v>0.392842</v>
+        <v>0.383536</v>
       </c>
       <c r="E14" t="n">
-        <v>0.159784</v>
+        <v>0.153019</v>
       </c>
       <c r="F14" t="n">
-        <v>0.287954</v>
+        <v>0.294509</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.173124</v>
+        <v>0.178653</v>
       </c>
       <c r="C15" t="n">
-        <v>0.289035</v>
+        <v>0.302094</v>
       </c>
       <c r="D15" t="n">
-        <v>0.39327</v>
+        <v>0.378582</v>
       </c>
       <c r="E15" t="n">
-        <v>0.154922</v>
+        <v>0.145846</v>
       </c>
       <c r="F15" t="n">
-        <v>0.28754</v>
+        <v>0.283033</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.171807</v>
+        <v>0.175951</v>
       </c>
       <c r="C16" t="n">
-        <v>0.284978</v>
+        <v>0.28457</v>
       </c>
       <c r="D16" t="n">
-        <v>0.384262</v>
+        <v>0.367156</v>
       </c>
       <c r="E16" t="n">
-        <v>0.145446</v>
+        <v>0.137424</v>
       </c>
       <c r="F16" t="n">
-        <v>0.282593</v>
+        <v>0.273904</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.169599</v>
+        <v>0.1657</v>
       </c>
       <c r="C17" t="n">
-        <v>0.282131</v>
+        <v>0.281828</v>
       </c>
       <c r="D17" t="n">
-        <v>0.378872</v>
+        <v>0.370463</v>
       </c>
       <c r="E17" t="n">
-        <v>0.149621</v>
+        <v>0.131852</v>
       </c>
       <c r="F17" t="n">
-        <v>0.271364</v>
+        <v>0.27708</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.157301</v>
+        <v>0.170843</v>
       </c>
       <c r="C18" t="n">
-        <v>0.271837</v>
+        <v>0.274471</v>
       </c>
       <c r="D18" t="n">
-        <v>0.379456</v>
+        <v>0.360023</v>
       </c>
       <c r="E18" t="n">
-        <v>0.148485</v>
+        <v>0.12762</v>
       </c>
       <c r="F18" t="n">
-        <v>0.265596</v>
+        <v>0.265193</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.164063</v>
+        <v>0.157239</v>
       </c>
       <c r="C19" t="n">
-        <v>0.271994</v>
+        <v>0.274733</v>
       </c>
       <c r="D19" t="n">
-        <v>0.374536</v>
+        <v>0.357327</v>
       </c>
       <c r="E19" t="n">
-        <v>0.139191</v>
+        <v>0.128287</v>
       </c>
       <c r="F19" t="n">
-        <v>0.259571</v>
+        <v>0.256302</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.159786</v>
+        <v>0.165292</v>
       </c>
       <c r="C20" t="n">
-        <v>0.265975</v>
+        <v>0.275894</v>
       </c>
       <c r="D20" t="n">
-        <v>0.368956</v>
+        <v>0.359807</v>
       </c>
       <c r="E20" t="n">
-        <v>0.133912</v>
+        <v>0.125348</v>
       </c>
       <c r="F20" t="n">
-        <v>0.26065</v>
+        <v>0.255514</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.154918</v>
+        <v>0.158744</v>
       </c>
       <c r="C21" t="n">
-        <v>0.26746</v>
+        <v>0.266274</v>
       </c>
       <c r="D21" t="n">
-        <v>0.469457</v>
+        <v>0.470169</v>
       </c>
       <c r="E21" t="n">
-        <v>0.133723</v>
+        <v>0.120761</v>
       </c>
       <c r="F21" t="n">
-        <v>0.262299</v>
+        <v>0.254776</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.154061</v>
+        <v>0.158811</v>
       </c>
       <c r="C22" t="n">
-        <v>0.271729</v>
+        <v>0.269282</v>
       </c>
       <c r="D22" t="n">
-        <v>0.460499</v>
+        <v>0.459286</v>
       </c>
       <c r="E22" t="n">
-        <v>0.137257</v>
+        <v>0.119736</v>
       </c>
       <c r="F22" t="n">
-        <v>0.254118</v>
+        <v>0.254899</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152789</v>
+        <v>0.157862</v>
       </c>
       <c r="C23" t="n">
-        <v>0.267423</v>
+        <v>0.27391</v>
       </c>
       <c r="D23" t="n">
-        <v>0.45075</v>
+        <v>0.450766</v>
       </c>
       <c r="E23" t="n">
-        <v>0.211564</v>
+        <v>0.220975</v>
       </c>
       <c r="F23" t="n">
-        <v>0.333841</v>
+        <v>0.327072</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240574</v>
+        <v>0.241294</v>
       </c>
       <c r="C24" t="n">
-        <v>0.336324</v>
+        <v>0.336911</v>
       </c>
       <c r="D24" t="n">
-        <v>0.444093</v>
+        <v>0.43909</v>
       </c>
       <c r="E24" t="n">
-        <v>0.205305</v>
+        <v>0.199326</v>
       </c>
       <c r="F24" t="n">
-        <v>0.327608</v>
+        <v>0.315066</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.229816</v>
+        <v>0.232641</v>
       </c>
       <c r="C25" t="n">
-        <v>0.327407</v>
+        <v>0.330454</v>
       </c>
       <c r="D25" t="n">
-        <v>0.437452</v>
+        <v>0.436698</v>
       </c>
       <c r="E25" t="n">
-        <v>0.20187</v>
+        <v>0.192122</v>
       </c>
       <c r="F25" t="n">
-        <v>0.316091</v>
+        <v>0.308546</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.218715</v>
+        <v>0.224366</v>
       </c>
       <c r="C26" t="n">
-        <v>0.319153</v>
+        <v>0.322298</v>
       </c>
       <c r="D26" t="n">
-        <v>0.431252</v>
+        <v>0.4261</v>
       </c>
       <c r="E26" t="n">
-        <v>0.200287</v>
+        <v>0.191691</v>
       </c>
       <c r="F26" t="n">
-        <v>0.309199</v>
+        <v>0.302557</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.214478</v>
+        <v>0.209324</v>
       </c>
       <c r="C27" t="n">
-        <v>0.313228</v>
+        <v>0.314681</v>
       </c>
       <c r="D27" t="n">
-        <v>0.425414</v>
+        <v>0.421038</v>
       </c>
       <c r="E27" t="n">
-        <v>0.18976</v>
+        <v>0.17491</v>
       </c>
       <c r="F27" t="n">
-        <v>0.302025</v>
+        <v>0.294831</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.207099</v>
+        <v>0.213209</v>
       </c>
       <c r="C28" t="n">
-        <v>0.308139</v>
+        <v>0.308933</v>
       </c>
       <c r="D28" t="n">
-        <v>0.417072</v>
+        <v>0.413056</v>
       </c>
       <c r="E28" t="n">
-        <v>0.184319</v>
+        <v>0.177388</v>
       </c>
       <c r="F28" t="n">
-        <v>0.295239</v>
+        <v>0.287994</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.199162</v>
+        <v>0.199676</v>
       </c>
       <c r="C29" t="n">
-        <v>0.29972</v>
+        <v>0.301105</v>
       </c>
       <c r="D29" t="n">
-        <v>0.412434</v>
+        <v>0.410091</v>
       </c>
       <c r="E29" t="n">
-        <v>0.176068</v>
+        <v>0.169222</v>
       </c>
       <c r="F29" t="n">
-        <v>0.288254</v>
+        <v>0.280295</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.191373</v>
+        <v>0.19967</v>
       </c>
       <c r="C30" t="n">
-        <v>0.294272</v>
+        <v>0.2962</v>
       </c>
       <c r="D30" t="n">
-        <v>0.407961</v>
+        <v>0.403685</v>
       </c>
       <c r="E30" t="n">
-        <v>0.175231</v>
+        <v>0.157366</v>
       </c>
       <c r="F30" t="n">
-        <v>0.28294</v>
+        <v>0.276288</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.188616</v>
+        <v>0.180194</v>
       </c>
       <c r="C31" t="n">
-        <v>0.289906</v>
+        <v>0.290266</v>
       </c>
       <c r="D31" t="n">
-        <v>0.402729</v>
+        <v>0.399266</v>
       </c>
       <c r="E31" t="n">
-        <v>0.165726</v>
+        <v>0.149681</v>
       </c>
       <c r="F31" t="n">
-        <v>0.276336</v>
+        <v>0.269915</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.181528</v>
+        <v>0.181657</v>
       </c>
       <c r="C32" t="n">
-        <v>0.285426</v>
+        <v>0.287155</v>
       </c>
       <c r="D32" t="n">
-        <v>0.397163</v>
+        <v>0.395619</v>
       </c>
       <c r="E32" t="n">
-        <v>0.158324</v>
+        <v>0.148026</v>
       </c>
       <c r="F32" t="n">
-        <v>0.272637</v>
+        <v>0.266539</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.178022</v>
+        <v>0.177595</v>
       </c>
       <c r="C33" t="n">
-        <v>0.281571</v>
+        <v>0.283414</v>
       </c>
       <c r="D33" t="n">
-        <v>0.395594</v>
+        <v>0.392276</v>
       </c>
       <c r="E33" t="n">
-        <v>0.159884</v>
+        <v>0.147661</v>
       </c>
       <c r="F33" t="n">
-        <v>0.268207</v>
+        <v>0.26177</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.171756</v>
+        <v>0.172739</v>
       </c>
       <c r="C34" t="n">
-        <v>0.278093</v>
+        <v>0.278629</v>
       </c>
       <c r="D34" t="n">
-        <v>0.389175</v>
+        <v>0.390317</v>
       </c>
       <c r="E34" t="n">
-        <v>0.151904</v>
+        <v>0.148192</v>
       </c>
       <c r="F34" t="n">
-        <v>0.264555</v>
+        <v>0.258975</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.168221</v>
+        <v>0.176606</v>
       </c>
       <c r="C35" t="n">
-        <v>0.276001</v>
+        <v>0.279076</v>
       </c>
       <c r="D35" t="n">
-        <v>0.493772</v>
+        <v>0.499602</v>
       </c>
       <c r="E35" t="n">
-        <v>0.153381</v>
+        <v>0.13925</v>
       </c>
       <c r="F35" t="n">
-        <v>0.264498</v>
+        <v>0.258718</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.167102</v>
+        <v>0.170679</v>
       </c>
       <c r="C36" t="n">
-        <v>0.276231</v>
+        <v>0.278724</v>
       </c>
       <c r="D36" t="n">
-        <v>0.483102</v>
+        <v>0.4889</v>
       </c>
       <c r="E36" t="n">
-        <v>0.150077</v>
+        <v>0.145224</v>
       </c>
       <c r="F36" t="n">
-        <v>0.263333</v>
+        <v>0.257361</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171705</v>
+        <v>0.172702</v>
       </c>
       <c r="C37" t="n">
-        <v>0.278044</v>
+        <v>0.280545</v>
       </c>
       <c r="D37" t="n">
-        <v>0.471878</v>
+        <v>0.477787</v>
       </c>
       <c r="E37" t="n">
-        <v>0.230758</v>
+        <v>0.225866</v>
       </c>
       <c r="F37" t="n">
-        <v>0.347253</v>
+        <v>0.336827</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242624</v>
+        <v>0.246501</v>
       </c>
       <c r="C38" t="n">
-        <v>0.349487</v>
+        <v>0.353189</v>
       </c>
       <c r="D38" t="n">
-        <v>0.463101</v>
+        <v>0.469864</v>
       </c>
       <c r="E38" t="n">
-        <v>0.221903</v>
+        <v>0.216943</v>
       </c>
       <c r="F38" t="n">
-        <v>0.339571</v>
+        <v>0.327903</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233507</v>
+        <v>0.23689</v>
       </c>
       <c r="C39" t="n">
-        <v>0.341112</v>
+        <v>0.342027</v>
       </c>
       <c r="D39" t="n">
-        <v>0.454393</v>
+        <v>0.46168</v>
       </c>
       <c r="E39" t="n">
-        <v>0.21224</v>
+        <v>0.205973</v>
       </c>
       <c r="F39" t="n">
-        <v>0.330614</v>
+        <v>0.318524</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.224754</v>
+        <v>0.227905</v>
       </c>
       <c r="C40" t="n">
-        <v>0.334931</v>
+        <v>0.335199</v>
       </c>
       <c r="D40" t="n">
-        <v>0.445757</v>
+        <v>0.451312</v>
       </c>
       <c r="E40" t="n">
-        <v>0.205018</v>
+        <v>0.199079</v>
       </c>
       <c r="F40" t="n">
-        <v>0.322948</v>
+        <v>0.310222</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.216595</v>
+        <v>0.219583</v>
       </c>
       <c r="C41" t="n">
-        <v>0.326458</v>
+        <v>0.32809</v>
       </c>
       <c r="D41" t="n">
-        <v>0.439772</v>
+        <v>0.443318</v>
       </c>
       <c r="E41" t="n">
-        <v>0.197337</v>
+        <v>0.193684</v>
       </c>
       <c r="F41" t="n">
-        <v>0.31637</v>
+        <v>0.303678</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209378</v>
+        <v>0.212073</v>
       </c>
       <c r="C42" t="n">
-        <v>0.319931</v>
+        <v>0.324304</v>
       </c>
       <c r="D42" t="n">
-        <v>0.431497</v>
+        <v>0.436551</v>
       </c>
       <c r="E42" t="n">
-        <v>0.190362</v>
+        <v>0.185202</v>
       </c>
       <c r="F42" t="n">
-        <v>0.308326</v>
+        <v>0.296953</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202317</v>
+        <v>0.204528</v>
       </c>
       <c r="C43" t="n">
-        <v>0.313702</v>
+        <v>0.316217</v>
       </c>
       <c r="D43" t="n">
-        <v>0.425021</v>
+        <v>0.430125</v>
       </c>
       <c r="E43" t="n">
-        <v>0.183542</v>
+        <v>0.180089</v>
       </c>
       <c r="F43" t="n">
-        <v>0.30256</v>
+        <v>0.291733</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.195613</v>
+        <v>0.198376</v>
       </c>
       <c r="C44" t="n">
-        <v>0.307433</v>
+        <v>0.310266</v>
       </c>
       <c r="D44" t="n">
-        <v>0.41895</v>
+        <v>0.425366</v>
       </c>
       <c r="E44" t="n">
-        <v>0.177225</v>
+        <v>0.170805</v>
       </c>
       <c r="F44" t="n">
-        <v>0.296036</v>
+        <v>0.285399</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190342</v>
+        <v>0.194766</v>
       </c>
       <c r="C45" t="n">
-        <v>0.304185</v>
+        <v>0.307173</v>
       </c>
       <c r="D45" t="n">
-        <v>0.415657</v>
+        <v>0.422609</v>
       </c>
       <c r="E45" t="n">
-        <v>0.170563</v>
+        <v>0.167916</v>
       </c>
       <c r="F45" t="n">
-        <v>0.290935</v>
+        <v>0.28196</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.183894</v>
+        <v>0.18717</v>
       </c>
       <c r="C46" t="n">
-        <v>0.298302</v>
+        <v>0.300892</v>
       </c>
       <c r="D46" t="n">
-        <v>0.411374</v>
+        <v>0.41532</v>
       </c>
       <c r="E46" t="n">
-        <v>0.165852</v>
+        <v>0.161443</v>
       </c>
       <c r="F46" t="n">
-        <v>0.285938</v>
+        <v>0.274522</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.179529</v>
+        <v>0.181597</v>
       </c>
       <c r="C47" t="n">
-        <v>0.295178</v>
+        <v>0.29628</v>
       </c>
       <c r="D47" t="n">
-        <v>0.406887</v>
+        <v>0.41011</v>
       </c>
       <c r="E47" t="n">
-        <v>0.161133</v>
+        <v>0.157811</v>
       </c>
       <c r="F47" t="n">
-        <v>0.281689</v>
+        <v>0.270647</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175434</v>
+        <v>0.178118</v>
       </c>
       <c r="C48" t="n">
-        <v>0.292522</v>
+        <v>0.293761</v>
       </c>
       <c r="D48" t="n">
-        <v>0.402983</v>
+        <v>0.407402</v>
       </c>
       <c r="E48" t="n">
-        <v>0.158052</v>
+        <v>0.153816</v>
       </c>
       <c r="F48" t="n">
-        <v>0.279202</v>
+        <v>0.266901</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.17292</v>
+        <v>0.174845</v>
       </c>
       <c r="C49" t="n">
-        <v>0.29033</v>
+        <v>0.290862</v>
       </c>
       <c r="D49" t="n">
-        <v>0.400279</v>
+        <v>0.402442</v>
       </c>
       <c r="E49" t="n">
-        <v>0.156621</v>
+        <v>0.151389</v>
       </c>
       <c r="F49" t="n">
-        <v>0.276471</v>
+        <v>0.264525</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171383</v>
+        <v>0.173539</v>
       </c>
       <c r="C50" t="n">
-        <v>0.289907</v>
+        <v>0.290694</v>
       </c>
       <c r="D50" t="n">
-        <v>0.505548</v>
+        <v>0.508351</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1539</v>
+        <v>0.149401</v>
       </c>
       <c r="F50" t="n">
-        <v>0.276329</v>
+        <v>0.264314</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.171931</v>
+        <v>0.174034</v>
       </c>
       <c r="C51" t="n">
-        <v>0.291266</v>
+        <v>0.293094</v>
       </c>
       <c r="D51" t="n">
-        <v>0.49207</v>
+        <v>0.4964</v>
       </c>
       <c r="E51" t="n">
-        <v>0.238403</v>
+        <v>0.233928</v>
       </c>
       <c r="F51" t="n">
-        <v>0.359402</v>
+        <v>0.342471</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174693</v>
+        <v>0.176359</v>
       </c>
       <c r="C52" t="n">
-        <v>0.296516</v>
+        <v>0.298098</v>
       </c>
       <c r="D52" t="n">
-        <v>0.483313</v>
+        <v>0.485464</v>
       </c>
       <c r="E52" t="n">
-        <v>0.230268</v>
+        <v>0.226482</v>
       </c>
       <c r="F52" t="n">
-        <v>0.350738</v>
+        <v>0.333885</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240791</v>
+        <v>0.242248</v>
       </c>
       <c r="C53" t="n">
-        <v>0.35508</v>
+        <v>0.356691</v>
       </c>
       <c r="D53" t="n">
-        <v>0.47459</v>
+        <v>0.476651</v>
       </c>
       <c r="E53" t="n">
-        <v>0.220213</v>
+        <v>0.217186</v>
       </c>
       <c r="F53" t="n">
-        <v>0.341967</v>
+        <v>0.325206</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.231963</v>
+        <v>0.233033</v>
       </c>
       <c r="C54" t="n">
-        <v>0.346836</v>
+        <v>0.347787</v>
       </c>
       <c r="D54" t="n">
-        <v>0.466444</v>
+        <v>0.467798</v>
       </c>
       <c r="E54" t="n">
-        <v>0.212101</v>
+        <v>0.208438</v>
       </c>
       <c r="F54" t="n">
-        <v>0.334305</v>
+        <v>0.317137</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.223697</v>
+        <v>0.225285</v>
       </c>
       <c r="C55" t="n">
-        <v>0.341755</v>
+        <v>0.342035</v>
       </c>
       <c r="D55" t="n">
-        <v>0.457695</v>
+        <v>0.459152</v>
       </c>
       <c r="E55" t="n">
-        <v>0.204903</v>
+        <v>0.200483</v>
       </c>
       <c r="F55" t="n">
-        <v>0.329392</v>
+        <v>0.310732</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216114</v>
+        <v>0.217204</v>
       </c>
       <c r="C56" t="n">
-        <v>0.335211</v>
+        <v>0.335187</v>
       </c>
       <c r="D56" t="n">
-        <v>0.45025</v>
+        <v>0.453221</v>
       </c>
       <c r="E56" t="n">
-        <v>0.197123</v>
+        <v>0.192751</v>
       </c>
       <c r="F56" t="n">
-        <v>0.321406</v>
+        <v>0.303673</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208118</v>
+        <v>0.209814</v>
       </c>
       <c r="C57" t="n">
-        <v>0.328269</v>
+        <v>0.328848</v>
       </c>
       <c r="D57" t="n">
-        <v>0.444946</v>
+        <v>0.445218</v>
       </c>
       <c r="E57" t="n">
-        <v>0.19002</v>
+        <v>0.185444</v>
       </c>
       <c r="F57" t="n">
-        <v>0.315342</v>
+        <v>0.297241</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.201866</v>
+        <v>0.202852</v>
       </c>
       <c r="C58" t="n">
-        <v>0.322101</v>
+        <v>0.322939</v>
       </c>
       <c r="D58" t="n">
-        <v>0.439057</v>
+        <v>0.439601</v>
       </c>
       <c r="E58" t="n">
-        <v>0.183256</v>
+        <v>0.179481</v>
       </c>
       <c r="F58" t="n">
-        <v>0.309365</v>
+        <v>0.291013</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.19545</v>
+        <v>0.196215</v>
       </c>
       <c r="C59" t="n">
-        <v>0.31744</v>
+        <v>0.318435</v>
       </c>
       <c r="D59" t="n">
-        <v>0.433642</v>
+        <v>0.434065</v>
       </c>
       <c r="E59" t="n">
-        <v>0.17651</v>
+        <v>0.174038</v>
       </c>
       <c r="F59" t="n">
-        <v>0.303923</v>
+        <v>0.285386</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.189607</v>
+        <v>0.190447</v>
       </c>
       <c r="C60" t="n">
-        <v>0.313421</v>
+        <v>0.313044</v>
       </c>
       <c r="D60" t="n">
-        <v>0.428159</v>
+        <v>0.430095</v>
       </c>
       <c r="E60" t="n">
-        <v>0.172827</v>
+        <v>0.168042</v>
       </c>
       <c r="F60" t="n">
-        <v>0.298876</v>
+        <v>0.280202</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.184509</v>
+        <v>0.18551</v>
       </c>
       <c r="C61" t="n">
-        <v>0.30909</v>
+        <v>0.308117</v>
       </c>
       <c r="D61" t="n">
-        <v>0.423936</v>
+        <v>0.426325</v>
       </c>
       <c r="E61" t="n">
-        <v>0.167667</v>
+        <v>0.163422</v>
       </c>
       <c r="F61" t="n">
-        <v>0.294223</v>
+        <v>0.275522</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.180441</v>
+        <v>0.181104</v>
       </c>
       <c r="C62" t="n">
-        <v>0.305836</v>
+        <v>0.306003</v>
       </c>
       <c r="D62" t="n">
-        <v>0.421212</v>
+        <v>0.422092</v>
       </c>
       <c r="E62" t="n">
-        <v>0.162595</v>
+        <v>0.158333</v>
       </c>
       <c r="F62" t="n">
-        <v>0.29088</v>
+        <v>0.271947</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178135</v>
+        <v>0.178448</v>
       </c>
       <c r="C63" t="n">
-        <v>0.303326</v>
+        <v>0.303197</v>
       </c>
       <c r="D63" t="n">
-        <v>0.417838</v>
+        <v>0.419047</v>
       </c>
       <c r="E63" t="n">
-        <v>0.160716</v>
+        <v>0.155791</v>
       </c>
       <c r="F63" t="n">
-        <v>0.288195</v>
+        <v>0.269769</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175741</v>
+        <v>0.176389</v>
       </c>
       <c r="C64" t="n">
-        <v>0.302225</v>
+        <v>0.301885</v>
       </c>
       <c r="D64" t="n">
-        <v>0.541886</v>
+        <v>0.543178</v>
       </c>
       <c r="E64" t="n">
-        <v>0.159223</v>
+        <v>0.154165</v>
       </c>
       <c r="F64" t="n">
-        <v>0.28745</v>
+        <v>0.268181</v>
       </c>
     </row>
     <row r="65">
@@ -6347,16 +6347,16 @@
         <v>0.176863</v>
       </c>
       <c r="C65" t="n">
-        <v>0.303984</v>
+        <v>0.302801</v>
       </c>
       <c r="D65" t="n">
-        <v>0.529923</v>
+        <v>0.5328889999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>0.160019</v>
+        <v>0.15473</v>
       </c>
       <c r="F65" t="n">
-        <v>0.288899</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.17879</v>
+        <v>0.179774</v>
       </c>
       <c r="C66" t="n">
-        <v>0.308783</v>
+        <v>0.306092</v>
       </c>
       <c r="D66" t="n">
-        <v>0.521936</v>
+        <v>0.52382</v>
       </c>
       <c r="E66" t="n">
-        <v>0.241414</v>
+        <v>0.234932</v>
       </c>
       <c r="F66" t="n">
-        <v>0.367055</v>
+        <v>0.344108</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244156</v>
+        <v>0.243291</v>
       </c>
       <c r="C67" t="n">
-        <v>0.37544</v>
+        <v>0.373334</v>
       </c>
       <c r="D67" t="n">
-        <v>0.511956</v>
+        <v>0.51496</v>
       </c>
       <c r="E67" t="n">
-        <v>0.231834</v>
+        <v>0.226035</v>
       </c>
       <c r="F67" t="n">
-        <v>0.359204</v>
+        <v>0.335607</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236607</v>
+        <v>0.234513</v>
       </c>
       <c r="C68" t="n">
-        <v>0.367067</v>
+        <v>0.364824</v>
       </c>
       <c r="D68" t="n">
-        <v>0.503547</v>
+        <v>0.505179</v>
       </c>
       <c r="E68" t="n">
-        <v>0.22428</v>
+        <v>0.217031</v>
       </c>
       <c r="F68" t="n">
-        <v>0.349808</v>
+        <v>0.326815</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.229076</v>
+        <v>0.226608</v>
       </c>
       <c r="C69" t="n">
-        <v>0.36057</v>
+        <v>0.360699</v>
       </c>
       <c r="D69" t="n">
-        <v>0.496027</v>
+        <v>0.499335</v>
       </c>
       <c r="E69" t="n">
-        <v>0.215316</v>
+        <v>0.209179</v>
       </c>
       <c r="F69" t="n">
-        <v>0.345818</v>
+        <v>0.322008</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.220235</v>
+        <v>0.218438</v>
       </c>
       <c r="C70" t="n">
-        <v>0.355606</v>
+        <v>0.353552</v>
       </c>
       <c r="D70" t="n">
-        <v>0.49</v>
+        <v>0.495167</v>
       </c>
       <c r="E70" t="n">
-        <v>0.206034</v>
+        <v>0.200463</v>
       </c>
       <c r="F70" t="n">
-        <v>0.338209</v>
+        <v>0.314049</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213362</v>
+        <v>0.211266</v>
       </c>
       <c r="C71" t="n">
-        <v>0.347761</v>
+        <v>0.346538</v>
       </c>
       <c r="D71" t="n">
-        <v>0.486959</v>
+        <v>0.488887</v>
       </c>
       <c r="E71" t="n">
-        <v>0.198799</v>
+        <v>0.193939</v>
       </c>
       <c r="F71" t="n">
-        <v>0.33107</v>
+        <v>0.307058</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.20628</v>
+        <v>0.204455</v>
       </c>
       <c r="C72" t="n">
-        <v>0.341365</v>
+        <v>0.340757</v>
       </c>
       <c r="D72" t="n">
-        <v>0.481088</v>
+        <v>0.48282</v>
       </c>
       <c r="E72" t="n">
-        <v>0.192296</v>
+        <v>0.18647</v>
       </c>
       <c r="F72" t="n">
-        <v>0.32443</v>
+        <v>0.300882</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199978</v>
+        <v>0.198039</v>
       </c>
       <c r="C73" t="n">
-        <v>0.335821</v>
+        <v>0.334132</v>
       </c>
       <c r="D73" t="n">
-        <v>0.478733</v>
+        <v>0.479228</v>
       </c>
       <c r="E73" t="n">
-        <v>0.186612</v>
+        <v>0.180223</v>
       </c>
       <c r="F73" t="n">
-        <v>0.318196</v>
+        <v>0.294719</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193596</v>
+        <v>0.192313</v>
       </c>
       <c r="C74" t="n">
-        <v>0.330076</v>
+        <v>0.328969</v>
       </c>
       <c r="D74" t="n">
-        <v>0.493176</v>
+        <v>0.49586</v>
       </c>
       <c r="E74" t="n">
-        <v>0.181145</v>
+        <v>0.172683</v>
       </c>
       <c r="F74" t="n">
-        <v>0.313249</v>
+        <v>0.289466</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18943</v>
+        <v>0.187017</v>
       </c>
       <c r="C75" t="n">
-        <v>0.325361</v>
+        <v>0.324632</v>
       </c>
       <c r="D75" t="n">
-        <v>0.488084</v>
+        <v>0.489923</v>
       </c>
       <c r="E75" t="n">
-        <v>0.176191</v>
+        <v>0.169475</v>
       </c>
       <c r="F75" t="n">
-        <v>0.308128</v>
+        <v>0.284459</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185651</v>
+        <v>0.183219</v>
       </c>
       <c r="C76" t="n">
-        <v>0.322423</v>
+        <v>0.320979</v>
       </c>
       <c r="D76" t="n">
-        <v>0.48467</v>
+        <v>0.48641</v>
       </c>
       <c r="E76" t="n">
-        <v>0.171444</v>
+        <v>0.164953</v>
       </c>
       <c r="F76" t="n">
-        <v>0.305191</v>
+        <v>0.280828</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182254</v>
+        <v>0.179866</v>
       </c>
       <c r="C77" t="n">
-        <v>0.319642</v>
+        <v>0.318027</v>
       </c>
       <c r="D77" t="n">
-        <v>0.482966</v>
+        <v>0.484714</v>
       </c>
       <c r="E77" t="n">
-        <v>0.168291</v>
+        <v>0.161673</v>
       </c>
       <c r="F77" t="n">
-        <v>0.302266</v>
+        <v>0.277399</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179953</v>
+        <v>0.177439</v>
       </c>
       <c r="C78" t="n">
-        <v>0.318991</v>
+        <v>0.318921</v>
       </c>
       <c r="D78" t="n">
-        <v>0.659111</v>
+        <v>0.661664</v>
       </c>
       <c r="E78" t="n">
-        <v>0.167104</v>
+        <v>0.158731</v>
       </c>
       <c r="F78" t="n">
-        <v>0.302818</v>
+        <v>0.277983</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179339</v>
+        <v>0.178005</v>
       </c>
       <c r="C79" t="n">
-        <v>0.320828</v>
+        <v>0.318888</v>
       </c>
       <c r="D79" t="n">
-        <v>0.650245</v>
+        <v>0.6505</v>
       </c>
       <c r="E79" t="n">
-        <v>0.165835</v>
+        <v>0.158949</v>
       </c>
       <c r="F79" t="n">
-        <v>0.303917</v>
+        <v>0.278632</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180932</v>
+        <v>0.180315</v>
       </c>
       <c r="C80" t="n">
-        <v>0.323971</v>
+        <v>0.321678</v>
       </c>
       <c r="D80" t="n">
-        <v>0.640606</v>
+        <v>0.641516</v>
       </c>
       <c r="E80" t="n">
-        <v>0.23906</v>
+        <v>0.231616</v>
       </c>
       <c r="F80" t="n">
-        <v>0.384555</v>
+        <v>0.354528</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257674</v>
+        <v>0.256708</v>
       </c>
       <c r="C81" t="n">
-        <v>0.395851</v>
+        <v>0.393478</v>
       </c>
       <c r="D81" t="n">
-        <v>0.632298</v>
+        <v>0.635026</v>
       </c>
       <c r="E81" t="n">
-        <v>0.229806</v>
+        <v>0.223519</v>
       </c>
       <c r="F81" t="n">
-        <v>0.378541</v>
+        <v>0.349972</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249919</v>
+        <v>0.249438</v>
       </c>
       <c r="C82" t="n">
-        <v>0.390903</v>
+        <v>0.388987</v>
       </c>
       <c r="D82" t="n">
-        <v>0.625945</v>
+        <v>0.627226</v>
       </c>
       <c r="E82" t="n">
-        <v>0.222141</v>
+        <v>0.214868</v>
       </c>
       <c r="F82" t="n">
-        <v>0.371934</v>
+        <v>0.344809</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242502</v>
+        <v>0.241109</v>
       </c>
       <c r="C83" t="n">
-        <v>0.38477</v>
+        <v>0.383337</v>
       </c>
       <c r="D83" t="n">
-        <v>0.620163</v>
+        <v>0.621236</v>
       </c>
       <c r="E83" t="n">
-        <v>0.214236</v>
+        <v>0.207756</v>
       </c>
       <c r="F83" t="n">
-        <v>0.366358</v>
+        <v>0.338874</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234847</v>
+        <v>0.233594</v>
       </c>
       <c r="C84" t="n">
-        <v>0.383075</v>
+        <v>0.380106</v>
       </c>
       <c r="D84" t="n">
-        <v>0.617762</v>
+        <v>0.618178</v>
       </c>
       <c r="E84" t="n">
-        <v>0.206945</v>
+        <v>0.199873</v>
       </c>
       <c r="F84" t="n">
-        <v>0.361138</v>
+        <v>0.334632</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227078</v>
+        <v>0.226578</v>
       </c>
       <c r="C85" t="n">
-        <v>0.37789</v>
+        <v>0.375419</v>
       </c>
       <c r="D85" t="n">
-        <v>0.614889</v>
+        <v>0.61649</v>
       </c>
       <c r="E85" t="n">
-        <v>0.19984</v>
+        <v>0.193028</v>
       </c>
       <c r="F85" t="n">
-        <v>0.354441</v>
+        <v>0.328696</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220415</v>
+        <v>0.219559</v>
       </c>
       <c r="C86" t="n">
-        <v>0.37263</v>
+        <v>0.369981</v>
       </c>
       <c r="D86" t="n">
-        <v>0.61343</v>
+        <v>0.61617</v>
       </c>
       <c r="E86" t="n">
-        <v>0.193374</v>
+        <v>0.186705</v>
       </c>
       <c r="F86" t="n">
-        <v>0.348806</v>
+        <v>0.322993</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213772</v>
+        <v>0.212895</v>
       </c>
       <c r="C87" t="n">
-        <v>0.36688</v>
+        <v>0.364771</v>
       </c>
       <c r="D87" t="n">
-        <v>0.61383</v>
+        <v>0.61572</v>
       </c>
       <c r="E87" t="n">
-        <v>0.187007</v>
+        <v>0.180711</v>
       </c>
       <c r="F87" t="n">
-        <v>0.34272</v>
+        <v>0.317776</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20799</v>
+        <v>0.207563</v>
       </c>
       <c r="C88" t="n">
-        <v>0.362979</v>
+        <v>0.364785</v>
       </c>
       <c r="D88" t="n">
-        <v>0.615906</v>
+        <v>0.617912</v>
       </c>
       <c r="E88" t="n">
-        <v>0.181514</v>
+        <v>0.175253</v>
       </c>
       <c r="F88" t="n">
-        <v>0.338354</v>
+        <v>0.313934</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201983</v>
+        <v>0.201348</v>
       </c>
       <c r="C89" t="n">
-        <v>0.358349</v>
+        <v>0.356868</v>
       </c>
       <c r="D89" t="n">
-        <v>0.629456</v>
+        <v>0.6313569999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>0.17626</v>
+        <v>0.169661</v>
       </c>
       <c r="F89" t="n">
-        <v>0.333755</v>
+        <v>0.308597</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197125</v>
+        <v>0.196993</v>
       </c>
       <c r="C90" t="n">
-        <v>0.353865</v>
+        <v>0.353715</v>
       </c>
       <c r="D90" t="n">
-        <v>0.632947</v>
+        <v>0.635667</v>
       </c>
       <c r="E90" t="n">
-        <v>0.171888</v>
+        <v>0.165849</v>
       </c>
       <c r="F90" t="n">
-        <v>0.329827</v>
+        <v>0.305214</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193023</v>
+        <v>0.192422</v>
       </c>
       <c r="C91" t="n">
-        <v>0.35038</v>
+        <v>0.349215</v>
       </c>
       <c r="D91" t="n">
-        <v>0.639286</v>
+        <v>0.640355</v>
       </c>
       <c r="E91" t="n">
-        <v>0.168363</v>
+        <v>0.162483</v>
       </c>
       <c r="F91" t="n">
-        <v>0.326316</v>
+        <v>0.302229</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190249</v>
+        <v>0.189722</v>
       </c>
       <c r="C92" t="n">
-        <v>0.350364</v>
+        <v>0.348841</v>
       </c>
       <c r="D92" t="n">
-        <v>0.849123</v>
+        <v>0.850607</v>
       </c>
       <c r="E92" t="n">
-        <v>0.166549</v>
+        <v>0.159801</v>
       </c>
       <c r="F92" t="n">
-        <v>0.325516</v>
+        <v>0.301387</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188736</v>
+        <v>0.189057</v>
       </c>
       <c r="C93" t="n">
-        <v>0.352181</v>
+        <v>0.349115</v>
       </c>
       <c r="D93" t="n">
-        <v>0.844893</v>
+        <v>0.84605</v>
       </c>
       <c r="E93" t="n">
-        <v>0.16588</v>
+        <v>0.159517</v>
       </c>
       <c r="F93" t="n">
-        <v>0.32604</v>
+        <v>0.302071</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189943</v>
+        <v>0.189342</v>
       </c>
       <c r="C94" t="n">
-        <v>0.353196</v>
+        <v>0.351529</v>
       </c>
       <c r="D94" t="n">
-        <v>0.840924</v>
+        <v>0.842758</v>
       </c>
       <c r="E94" t="n">
-        <v>0.250706</v>
+        <v>0.244349</v>
       </c>
       <c r="F94" t="n">
-        <v>0.453035</v>
+        <v>0.413089</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.272273</v>
+        <v>0.27111</v>
       </c>
       <c r="C95" t="n">
-        <v>0.469273</v>
+        <v>0.46592</v>
       </c>
       <c r="D95" t="n">
-        <v>0.836078</v>
+        <v>0.837552</v>
       </c>
       <c r="E95" t="n">
-        <v>0.243669</v>
+        <v>0.236901</v>
       </c>
       <c r="F95" t="n">
-        <v>0.451812</v>
+        <v>0.413589</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.26586</v>
+        <v>0.265201</v>
       </c>
       <c r="C96" t="n">
-        <v>0.469442</v>
+        <v>0.465664</v>
       </c>
       <c r="D96" t="n">
-        <v>0.832489</v>
+        <v>0.8335090000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>0.235443</v>
+        <v>0.228763</v>
       </c>
       <c r="F96" t="n">
-        <v>0.446894</v>
+        <v>0.410364</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.259432</v>
+        <v>0.258155</v>
       </c>
       <c r="C97" t="n">
-        <v>0.465798</v>
+        <v>0.461952</v>
       </c>
       <c r="D97" t="n">
-        <v>0.837816</v>
+        <v>0.839094</v>
       </c>
       <c r="E97" t="n">
-        <v>0.228185</v>
+        <v>0.221145</v>
       </c>
       <c r="F97" t="n">
-        <v>0.441679</v>
+        <v>0.406812</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252341</v>
+        <v>0.251303</v>
       </c>
       <c r="C98" t="n">
-        <v>0.461353</v>
+        <v>0.457523</v>
       </c>
       <c r="D98" t="n">
-        <v>0.836919</v>
+        <v>0.835877</v>
       </c>
       <c r="E98" t="n">
-        <v>0.220516</v>
+        <v>0.21359</v>
       </c>
       <c r="F98" t="n">
-        <v>0.437179</v>
+        <v>0.40345</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246086</v>
+        <v>0.244936</v>
       </c>
       <c r="C99" t="n">
-        <v>0.455185</v>
+        <v>0.452861</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8355050000000001</v>
+        <v>0.836367</v>
       </c>
       <c r="E99" t="n">
-        <v>0.213797</v>
+        <v>0.206947</v>
       </c>
       <c r="F99" t="n">
-        <v>0.431278</v>
+        <v>0.399098</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.24015</v>
+        <v>0.239008</v>
       </c>
       <c r="C100" t="n">
-        <v>0.451269</v>
+        <v>0.447917</v>
       </c>
       <c r="D100" t="n">
-        <v>0.837201</v>
+        <v>0.836506</v>
       </c>
       <c r="E100" t="n">
-        <v>0.206906</v>
+        <v>0.20011</v>
       </c>
       <c r="F100" t="n">
-        <v>0.427644</v>
+        <v>0.395273</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.234233</v>
+        <v>0.233154</v>
       </c>
       <c r="C101" t="n">
-        <v>0.446606</v>
+        <v>0.444242</v>
       </c>
       <c r="D101" t="n">
-        <v>0.840208</v>
+        <v>0.8388330000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>0.200936</v>
+        <v>0.193851</v>
       </c>
       <c r="F101" t="n">
-        <v>0.422234</v>
+        <v>0.391769</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228821</v>
+        <v>0.227576</v>
       </c>
       <c r="C102" t="n">
-        <v>0.442881</v>
+        <v>0.439946</v>
       </c>
       <c r="D102" t="n">
-        <v>0.844274</v>
+        <v>0.844868</v>
       </c>
       <c r="E102" t="n">
-        <v>0.195247</v>
+        <v>0.188145</v>
       </c>
       <c r="F102" t="n">
-        <v>0.417913</v>
+        <v>0.3878</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223578</v>
+        <v>0.222732</v>
       </c>
       <c r="C103" t="n">
-        <v>0.439669</v>
+        <v>0.437343</v>
       </c>
       <c r="D103" t="n">
-        <v>0.854599</v>
+        <v>0.854838</v>
       </c>
       <c r="E103" t="n">
-        <v>0.190128</v>
+        <v>0.183011</v>
       </c>
       <c r="F103" t="n">
-        <v>0.415003</v>
+        <v>0.385293</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218754</v>
+        <v>0.218052</v>
       </c>
       <c r="C104" t="n">
-        <v>0.43834</v>
+        <v>0.4346</v>
       </c>
       <c r="D104" t="n">
-        <v>0.859089</v>
+        <v>0.860239</v>
       </c>
       <c r="E104" t="n">
-        <v>0.185407</v>
+        <v>0.178902</v>
       </c>
       <c r="F104" t="n">
-        <v>0.411157</v>
+        <v>0.384073</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214533</v>
+        <v>0.214221</v>
       </c>
       <c r="C105" t="n">
-        <v>0.43588</v>
+        <v>0.433925</v>
       </c>
       <c r="D105" t="n">
-        <v>0.866752</v>
+        <v>0.866982</v>
       </c>
       <c r="E105" t="n">
-        <v>0.182082</v>
+        <v>0.174675</v>
       </c>
       <c r="F105" t="n">
-        <v>0.409646</v>
+        <v>0.381344</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211732</v>
+        <v>0.210947</v>
       </c>
       <c r="C106" t="n">
-        <v>0.435558</v>
+        <v>0.432988</v>
       </c>
       <c r="D106" t="n">
-        <v>0.874956</v>
+        <v>0.876665</v>
       </c>
       <c r="E106" t="n">
-        <v>0.178969</v>
+        <v>0.172088</v>
       </c>
       <c r="F106" t="n">
-        <v>0.407345</v>
+        <v>0.380388</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209692</v>
+        <v>0.208722</v>
       </c>
       <c r="C107" t="n">
-        <v>0.43601</v>
+        <v>0.432585</v>
       </c>
       <c r="D107" t="n">
-        <v>1.11923</v>
+        <v>1.12008</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1782</v>
+        <v>0.170608</v>
       </c>
       <c r="F107" t="n">
-        <v>0.407377</v>
+        <v>0.380621</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2094</v>
+        <v>0.208867</v>
       </c>
       <c r="C108" t="n">
-        <v>0.439104</v>
+        <v>0.43582</v>
       </c>
       <c r="D108" t="n">
-        <v>1.10995</v>
+        <v>1.11169</v>
       </c>
       <c r="E108" t="n">
-        <v>0.267249</v>
+        <v>0.259182</v>
       </c>
       <c r="F108" t="n">
-        <v>0.563795</v>
+        <v>0.515632</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211671</v>
+        <v>0.211166</v>
       </c>
       <c r="C109" t="n">
-        <v>0.443594</v>
+        <v>0.441141</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10171</v>
+        <v>1.10341</v>
       </c>
       <c r="E109" t="n">
-        <v>0.260975</v>
+        <v>0.252741</v>
       </c>
       <c r="F109" t="n">
-        <v>0.561366</v>
+        <v>0.514683</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285119</v>
+        <v>0.285332</v>
       </c>
       <c r="C110" t="n">
-        <v>0.581142</v>
+        <v>0.5780690000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>1.09515</v>
+        <v>1.09451</v>
       </c>
       <c r="E110" t="n">
-        <v>0.253489</v>
+        <v>0.244989</v>
       </c>
       <c r="F110" t="n">
-        <v>0.556712</v>
+        <v>0.510216</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278039</v>
+        <v>0.278636</v>
       </c>
       <c r="C111" t="n">
-        <v>0.576304</v>
+        <v>0.571986</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09366</v>
+        <v>1.09408</v>
       </c>
       <c r="E111" t="n">
-        <v>0.246155</v>
+        <v>0.237442</v>
       </c>
       <c r="F111" t="n">
-        <v>0.550457</v>
+        <v>0.507669</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272521</v>
+        <v>0.272283</v>
       </c>
       <c r="C112" t="n">
-        <v>0.569529</v>
+        <v>0.568006</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09285</v>
+        <v>1.09219</v>
       </c>
       <c r="E112" t="n">
-        <v>0.239483</v>
+        <v>0.230675</v>
       </c>
       <c r="F112" t="n">
-        <v>0.545709</v>
+        <v>0.502816</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266286</v>
+        <v>0.266122</v>
       </c>
       <c r="C113" t="n">
-        <v>0.565812</v>
+        <v>0.562257</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08878</v>
+        <v>1.0877</v>
       </c>
       <c r="E113" t="n">
-        <v>0.232651</v>
+        <v>0.224297</v>
       </c>
       <c r="F113" t="n">
-        <v>0.541301</v>
+        <v>0.499832</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260934</v>
+        <v>0.260596</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5608030000000001</v>
+        <v>0.558032</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08832</v>
+        <v>1.08892</v>
       </c>
       <c r="E114" t="n">
-        <v>0.226522</v>
+        <v>0.21781</v>
       </c>
       <c r="F114" t="n">
-        <v>0.536086</v>
+        <v>0.495511</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255668</v>
+        <v>0.255667</v>
       </c>
       <c r="C115" t="n">
-        <v>0.557746</v>
+        <v>0.553488</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09038</v>
+        <v>1.09212</v>
       </c>
       <c r="E115" t="n">
-        <v>0.220989</v>
+        <v>0.212232</v>
       </c>
       <c r="F115" t="n">
-        <v>0.531849</v>
+        <v>0.493544</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250489</v>
+        <v>0.250579</v>
       </c>
       <c r="C116" t="n">
-        <v>0.554223</v>
+        <v>0.550558</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09123</v>
+        <v>1.09173</v>
       </c>
       <c r="E116" t="n">
-        <v>0.215326</v>
+        <v>0.206786</v>
       </c>
       <c r="F116" t="n">
-        <v>0.518304</v>
+        <v>0.490797</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.24636</v>
+        <v>0.246025</v>
       </c>
       <c r="C117" t="n">
-        <v>0.54158</v>
+        <v>0.547879</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09772</v>
+        <v>1.09558</v>
       </c>
       <c r="E117" t="n">
-        <v>0.21091</v>
+        <v>0.201642</v>
       </c>
       <c r="F117" t="n">
-        <v>0.527405</v>
+        <v>0.489308</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241681</v>
+        <v>0.241721</v>
       </c>
       <c r="C118" t="n">
-        <v>0.548597</v>
+        <v>0.5453209999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1005</v>
+        <v>1.09841</v>
       </c>
       <c r="E118" t="n">
-        <v>0.206452</v>
+        <v>0.197289</v>
       </c>
       <c r="F118" t="n">
-        <v>0.523819</v>
+        <v>0.487423</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238081</v>
+        <v>0.237733</v>
       </c>
       <c r="C119" t="n">
-        <v>0.558541</v>
+        <v>0.543232</v>
       </c>
       <c r="D119" t="n">
-        <v>1.10764</v>
+        <v>1.10773</v>
       </c>
       <c r="E119" t="n">
-        <v>0.202853</v>
+        <v>0.19355</v>
       </c>
       <c r="F119" t="n">
-        <v>0.521326</v>
+        <v>0.485668</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234588</v>
+        <v>0.235096</v>
       </c>
       <c r="C120" t="n">
-        <v>0.547194</v>
+        <v>0.543228</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11481</v>
+        <v>1.11328</v>
       </c>
       <c r="E120" t="n">
-        <v>0.200171</v>
+        <v>0.190527</v>
       </c>
       <c r="F120" t="n">
-        <v>0.520861</v>
+        <v>0.485246</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232633</v>
+        <v>0.232623</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5479579999999999</v>
+        <v>0.5447959999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>1.37862</v>
+        <v>1.37852</v>
       </c>
       <c r="E121" t="n">
-        <v>0.198628</v>
+        <v>0.188896</v>
       </c>
       <c r="F121" t="n">
-        <v>0.520987</v>
+        <v>0.48565</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231653</v>
+        <v>0.231756</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5499270000000001</v>
+        <v>0.546346</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36308</v>
+        <v>1.36393</v>
       </c>
       <c r="E122" t="n">
-        <v>0.199086</v>
+        <v>0.189042</v>
       </c>
       <c r="F122" t="n">
-        <v>0.522385</v>
+        <v>0.486523</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232908</v>
+        <v>0.232834</v>
       </c>
       <c r="C123" t="n">
-        <v>0.554737</v>
+        <v>0.550612</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34978</v>
+        <v>1.34792</v>
       </c>
       <c r="E123" t="n">
-        <v>0.283805</v>
+        <v>0.27384</v>
       </c>
       <c r="F123" t="n">
-        <v>0.689987</v>
+        <v>0.624597</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.312984</v>
+        <v>0.317068</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7162539999999999</v>
+        <v>0.702662</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33891</v>
+        <v>1.32833</v>
       </c>
       <c r="E124" t="n">
-        <v>0.277859</v>
+        <v>0.267936</v>
       </c>
       <c r="F124" t="n">
-        <v>0.685532</v>
+        <v>0.631134</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.307251</v>
+        <v>0.311311</v>
       </c>
       <c r="C125" t="n">
-        <v>0.710665</v>
+        <v>0.707198</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32739</v>
+        <v>1.3276</v>
       </c>
       <c r="E125" t="n">
-        <v>0.272374</v>
+        <v>0.260321</v>
       </c>
       <c r="F125" t="n">
-        <v>0.680151</v>
+        <v>0.627413</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.302388</v>
+        <v>0.305301</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7064049999999999</v>
+        <v>0.703686</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31802</v>
+        <v>1.31768</v>
       </c>
       <c r="E126" t="n">
-        <v>0.266917</v>
+        <v>0.254671</v>
       </c>
       <c r="F126" t="n">
-        <v>0.677449</v>
+        <v>0.623592</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.297801</v>
+        <v>0.29981</v>
       </c>
       <c r="C127" t="n">
-        <v>0.703331</v>
+        <v>0.699214</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31012</v>
+        <v>1.31153</v>
       </c>
       <c r="E127" t="n">
-        <v>0.26239</v>
+        <v>0.249459</v>
       </c>
       <c r="F127" t="n">
-        <v>0.672759</v>
+        <v>0.621403</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.293145</v>
+        <v>0.294721</v>
       </c>
       <c r="C128" t="n">
-        <v>0.698427</v>
+        <v>0.696412</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30572</v>
+        <v>1.30511</v>
       </c>
       <c r="E128" t="n">
-        <v>0.257452</v>
+        <v>0.244608</v>
       </c>
       <c r="F128" t="n">
-        <v>0.670951</v>
+        <v>0.61968</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.288753</v>
+        <v>0.290263</v>
       </c>
       <c r="C129" t="n">
-        <v>0.696515</v>
+        <v>0.692864</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3033</v>
+        <v>1.30192</v>
       </c>
       <c r="E129" t="n">
-        <v>0.253344</v>
+        <v>0.239941</v>
       </c>
       <c r="F129" t="n">
-        <v>0.66797</v>
+        <v>0.6162069999999999</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.28487</v>
+        <v>0.286326</v>
       </c>
       <c r="C130" t="n">
-        <v>0.69276</v>
+        <v>0.690773</v>
       </c>
       <c r="D130" t="n">
-        <v>1.29976</v>
+        <v>1.29972</v>
       </c>
       <c r="E130" t="n">
-        <v>0.249249</v>
+        <v>0.235409</v>
       </c>
       <c r="F130" t="n">
-        <v>0.664393</v>
+        <v>0.614043</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281633</v>
+        <v>0.282259</v>
       </c>
       <c r="C131" t="n">
-        <v>0.691319</v>
+        <v>0.688156</v>
       </c>
       <c r="D131" t="n">
-        <v>1.29774</v>
+        <v>1.29826</v>
       </c>
       <c r="E131" t="n">
-        <v>0.245771</v>
+        <v>0.231712</v>
       </c>
       <c r="F131" t="n">
-        <v>0.663905</v>
+        <v>0.611638</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278215</v>
+        <v>0.278943</v>
       </c>
       <c r="C132" t="n">
-        <v>0.689784</v>
+        <v>0.687765</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30073</v>
+        <v>1.29891</v>
       </c>
       <c r="E132" t="n">
-        <v>0.242371</v>
+        <v>0.228212</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6614719999999999</v>
+        <v>0.610938</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275632</v>
+        <v>0.275767</v>
       </c>
       <c r="C133" t="n">
-        <v>0.688724</v>
+        <v>0.687721</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30159</v>
+        <v>1.30083</v>
       </c>
       <c r="E133" t="n">
-        <v>0.239522</v>
+        <v>0.224967</v>
       </c>
       <c r="F133" t="n">
-        <v>0.660347</v>
+        <v>0.610051</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.270723</v>
+        <v>0.272873</v>
       </c>
       <c r="C134" t="n">
-        <v>0.690043</v>
+        <v>0.687375</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30427</v>
+        <v>1.30562</v>
       </c>
       <c r="E134" t="n">
-        <v>0.237036</v>
+        <v>0.222553</v>
       </c>
       <c r="F134" t="n">
-        <v>0.661708</v>
+        <v>0.611259</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.269423</v>
+        <v>0.27102</v>
       </c>
       <c r="C135" t="n">
-        <v>0.691535</v>
+        <v>0.689862</v>
       </c>
       <c r="D135" t="n">
-        <v>1.57823</v>
+        <v>1.57815</v>
       </c>
       <c r="E135" t="n">
-        <v>0.235718</v>
+        <v>0.220943</v>
       </c>
       <c r="F135" t="n">
-        <v>0.660505</v>
+        <v>0.610023</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.269114</v>
+        <v>0.270199</v>
       </c>
       <c r="C136" t="n">
-        <v>0.695148</v>
+        <v>0.69247</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55698</v>
+        <v>1.55743</v>
       </c>
       <c r="E136" t="n">
-        <v>0.235863</v>
+        <v>0.220642</v>
       </c>
       <c r="F136" t="n">
-        <v>0.66323</v>
+        <v>0.610478</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.269732</v>
+        <v>0.271148</v>
       </c>
       <c r="C137" t="n">
-        <v>0.69916</v>
+        <v>0.696723</v>
       </c>
       <c r="D137" t="n">
-        <v>1.536</v>
+        <v>1.53652</v>
       </c>
       <c r="E137" t="n">
-        <v>0.332809</v>
+        <v>0.317356</v>
       </c>
       <c r="F137" t="n">
-        <v>0.843567</v>
+        <v>0.771755</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.369074</v>
+        <v>0.362265</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8790480000000001</v>
+        <v>0.87573</v>
       </c>
       <c r="D138" t="n">
-        <v>1.51755</v>
+        <v>1.51839</v>
       </c>
       <c r="E138" t="n">
-        <v>0.327854</v>
+        <v>0.311773</v>
       </c>
       <c r="F138" t="n">
-        <v>0.843086</v>
+        <v>0.766646</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.363431</v>
+        <v>0.355877</v>
       </c>
       <c r="C139" t="n">
-        <v>0.863453</v>
+        <v>0.874741</v>
       </c>
       <c r="D139" t="n">
-        <v>1.50348</v>
+        <v>1.5085</v>
       </c>
       <c r="E139" t="n">
-        <v>0.32337</v>
+        <v>0.306041</v>
       </c>
       <c r="F139" t="n">
-        <v>0.84259</v>
+        <v>0.761697</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.357277</v>
+        <v>0.35069</v>
       </c>
       <c r="C140" t="n">
-        <v>0.876094</v>
+        <v>0.875099</v>
       </c>
       <c r="D140" t="n">
-        <v>1.49101</v>
+        <v>1.48978</v>
       </c>
       <c r="E140" t="n">
-        <v>0.318405</v>
+        <v>0.300704</v>
       </c>
       <c r="F140" t="n">
-        <v>0.841367</v>
+        <v>0.757057</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.352031</v>
+        <v>0.345732</v>
       </c>
       <c r="C141" t="n">
-        <v>0.877054</v>
+        <v>0.8746</v>
       </c>
       <c r="D141" t="n">
-        <v>1.47535</v>
+        <v>1.4766</v>
       </c>
       <c r="E141" t="n">
-        <v>0.313717</v>
+        <v>0.296126</v>
       </c>
       <c r="F141" t="n">
-        <v>0.841866</v>
+        <v>0.755197</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.346519</v>
+        <v>0.341625</v>
       </c>
       <c r="C142" t="n">
-        <v>0.877755</v>
+        <v>0.874655</v>
       </c>
       <c r="D142" t="n">
-        <v>1.46466</v>
+        <v>1.46081</v>
       </c>
       <c r="E142" t="n">
-        <v>0.309698</v>
+        <v>0.29169</v>
       </c>
       <c r="F142" t="n">
-        <v>0.840315</v>
+        <v>0.749769</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.342688</v>
+        <v>0.336825</v>
       </c>
       <c r="C143" t="n">
-        <v>0.878179</v>
+        <v>0.875547</v>
       </c>
       <c r="D143" t="n">
-        <v>1.45587</v>
+        <v>1.45806</v>
       </c>
       <c r="E143" t="n">
-        <v>0.306292</v>
+        <v>0.286702</v>
       </c>
       <c r="F143" t="n">
-        <v>0.841163</v>
+        <v>0.7463109999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.181572</v>
+        <v>0.161122</v>
       </c>
       <c r="C2" t="n">
-        <v>0.289154</v>
+        <v>0.288315</v>
       </c>
       <c r="D2" t="n">
-        <v>0.314214</v>
+        <v>0.343468</v>
       </c>
       <c r="E2" t="n">
-        <v>0.147287</v>
+        <v>0.147314</v>
       </c>
       <c r="F2" t="n">
-        <v>0.273244</v>
+        <v>0.273194</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.166483</v>
+        <v>0.162475</v>
       </c>
       <c r="C3" t="n">
-        <v>0.290402</v>
+        <v>0.286711</v>
       </c>
       <c r="D3" t="n">
-        <v>0.310046</v>
+        <v>0.342342</v>
       </c>
       <c r="E3" t="n">
-        <v>0.128896</v>
+        <v>0.130877</v>
       </c>
       <c r="F3" t="n">
-        <v>0.27846</v>
+        <v>0.26284</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.159019</v>
+        <v>0.151631</v>
       </c>
       <c r="C4" t="n">
-        <v>0.285369</v>
+        <v>0.280459</v>
       </c>
       <c r="D4" t="n">
-        <v>0.309643</v>
+        <v>0.342442</v>
       </c>
       <c r="E4" t="n">
-        <v>0.126162</v>
+        <v>0.135487</v>
       </c>
       <c r="F4" t="n">
-        <v>0.262415</v>
+        <v>0.264932</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.155489</v>
+        <v>0.153896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.280676</v>
+        <v>0.279512</v>
       </c>
       <c r="D5" t="n">
-        <v>0.310626</v>
+        <v>0.335783</v>
       </c>
       <c r="E5" t="n">
-        <v>0.122184</v>
+        <v>0.130291</v>
       </c>
       <c r="F5" t="n">
-        <v>0.261621</v>
+        <v>0.265605</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.152319</v>
+        <v>0.148046</v>
       </c>
       <c r="C6" t="n">
-        <v>0.277322</v>
+        <v>0.278506</v>
       </c>
       <c r="D6" t="n">
-        <v>0.312117</v>
+        <v>0.334186</v>
       </c>
       <c r="E6" t="n">
-        <v>0.120162</v>
+        <v>0.130215</v>
       </c>
       <c r="F6" t="n">
-        <v>0.255235</v>
+        <v>0.261119</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.155176</v>
+        <v>0.149706</v>
       </c>
       <c r="C7" t="n">
-        <v>0.282412</v>
+        <v>0.272961</v>
       </c>
       <c r="D7" t="n">
-        <v>0.404865</v>
+        <v>0.429989</v>
       </c>
       <c r="E7" t="n">
-        <v>0.113783</v>
+        <v>0.127464</v>
       </c>
       <c r="F7" t="n">
-        <v>0.261127</v>
+        <v>0.262202</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.15029</v>
+        <v>0.151357</v>
       </c>
       <c r="C8" t="n">
-        <v>0.272624</v>
+        <v>0.27827</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4067</v>
+        <v>0.425889</v>
       </c>
       <c r="E8" t="n">
-        <v>0.122835</v>
+        <v>0.118745</v>
       </c>
       <c r="F8" t="n">
-        <v>0.253122</v>
+        <v>0.259658</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.157234</v>
+        <v>0.154959</v>
       </c>
       <c r="C9" t="n">
-        <v>0.278459</v>
+        <v>0.282575</v>
       </c>
       <c r="D9" t="n">
-        <v>0.402689</v>
+        <v>0.420538</v>
       </c>
       <c r="E9" t="n">
-        <v>0.177213</v>
+        <v>0.187138</v>
       </c>
       <c r="F9" t="n">
-        <v>0.321547</v>
+        <v>0.3193</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.221007</v>
+        <v>0.212352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.341291</v>
+        <v>0.333956</v>
       </c>
       <c r="D10" t="n">
-        <v>0.40149</v>
+        <v>0.422319</v>
       </c>
       <c r="E10" t="n">
-        <v>0.175535</v>
+        <v>0.17905</v>
       </c>
       <c r="F10" t="n">
-        <v>0.310868</v>
+        <v>0.308397</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.208028</v>
+        <v>0.201436</v>
       </c>
       <c r="C11" t="n">
-        <v>0.32471</v>
+        <v>0.325884</v>
       </c>
       <c r="D11" t="n">
-        <v>0.395061</v>
+        <v>0.41834</v>
       </c>
       <c r="E11" t="n">
-        <v>0.16678</v>
+        <v>0.179401</v>
       </c>
       <c r="F11" t="n">
-        <v>0.303231</v>
+        <v>0.302052</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.210802</v>
+        <v>0.197561</v>
       </c>
       <c r="C12" t="n">
-        <v>0.318358</v>
+        <v>0.321707</v>
       </c>
       <c r="D12" t="n">
-        <v>0.379037</v>
+        <v>0.403032</v>
       </c>
       <c r="E12" t="n">
-        <v>0.167217</v>
+        <v>0.170546</v>
       </c>
       <c r="F12" t="n">
-        <v>0.298845</v>
+        <v>0.294999</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.191241</v>
+        <v>0.18461</v>
       </c>
       <c r="C13" t="n">
-        <v>0.309465</v>
+        <v>0.312404</v>
       </c>
       <c r="D13" t="n">
-        <v>0.381673</v>
+        <v>0.401246</v>
       </c>
       <c r="E13" t="n">
-        <v>0.151814</v>
+        <v>0.165972</v>
       </c>
       <c r="F13" t="n">
-        <v>0.293212</v>
+        <v>0.288739</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.179561</v>
+        <v>0.185073</v>
       </c>
       <c r="C14" t="n">
-        <v>0.302432</v>
+        <v>0.306169</v>
       </c>
       <c r="D14" t="n">
-        <v>0.383536</v>
+        <v>0.397749</v>
       </c>
       <c r="E14" t="n">
-        <v>0.153019</v>
+        <v>0.156802</v>
       </c>
       <c r="F14" t="n">
-        <v>0.294509</v>
+        <v>0.285621</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.178653</v>
+        <v>0.177095</v>
       </c>
       <c r="C15" t="n">
-        <v>0.302094</v>
+        <v>0.300147</v>
       </c>
       <c r="D15" t="n">
-        <v>0.378582</v>
+        <v>0.394818</v>
       </c>
       <c r="E15" t="n">
-        <v>0.145846</v>
+        <v>0.148426</v>
       </c>
       <c r="F15" t="n">
-        <v>0.283033</v>
+        <v>0.280711</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.175951</v>
+        <v>0.171355</v>
       </c>
       <c r="C16" t="n">
-        <v>0.28457</v>
+        <v>0.298438</v>
       </c>
       <c r="D16" t="n">
-        <v>0.367156</v>
+        <v>0.387412</v>
       </c>
       <c r="E16" t="n">
-        <v>0.137424</v>
+        <v>0.143635</v>
       </c>
       <c r="F16" t="n">
-        <v>0.273904</v>
+        <v>0.268575</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1657</v>
+        <v>0.16902</v>
       </c>
       <c r="C17" t="n">
-        <v>0.281828</v>
+        <v>0.290942</v>
       </c>
       <c r="D17" t="n">
-        <v>0.370463</v>
+        <v>0.380972</v>
       </c>
       <c r="E17" t="n">
-        <v>0.131852</v>
+        <v>0.139319</v>
       </c>
       <c r="F17" t="n">
-        <v>0.27708</v>
+        <v>0.271527</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.170843</v>
+        <v>0.170357</v>
       </c>
       <c r="C18" t="n">
-        <v>0.274471</v>
+        <v>0.28727</v>
       </c>
       <c r="D18" t="n">
-        <v>0.360023</v>
+        <v>0.378764</v>
       </c>
       <c r="E18" t="n">
-        <v>0.12762</v>
+        <v>0.145985</v>
       </c>
       <c r="F18" t="n">
-        <v>0.265193</v>
+        <v>0.262359</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.157239</v>
+        <v>0.153357</v>
       </c>
       <c r="C19" t="n">
-        <v>0.274733</v>
+        <v>0.273782</v>
       </c>
       <c r="D19" t="n">
-        <v>0.357327</v>
+        <v>0.375119</v>
       </c>
       <c r="E19" t="n">
-        <v>0.128287</v>
+        <v>0.139285</v>
       </c>
       <c r="F19" t="n">
-        <v>0.256302</v>
+        <v>0.258118</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.165292</v>
+        <v>0.156809</v>
       </c>
       <c r="C20" t="n">
-        <v>0.275894</v>
+        <v>0.273209</v>
       </c>
       <c r="D20" t="n">
-        <v>0.359807</v>
+        <v>0.374995</v>
       </c>
       <c r="E20" t="n">
-        <v>0.125348</v>
+        <v>0.126429</v>
       </c>
       <c r="F20" t="n">
-        <v>0.255514</v>
+        <v>0.251177</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.158744</v>
+        <v>0.15946</v>
       </c>
       <c r="C21" t="n">
-        <v>0.266274</v>
+        <v>0.273598</v>
       </c>
       <c r="D21" t="n">
-        <v>0.470169</v>
+        <v>0.475126</v>
       </c>
       <c r="E21" t="n">
-        <v>0.120761</v>
+        <v>0.128902</v>
       </c>
       <c r="F21" t="n">
-        <v>0.254776</v>
+        <v>0.248957</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.158811</v>
+        <v>0.156397</v>
       </c>
       <c r="C22" t="n">
-        <v>0.269282</v>
+        <v>0.26965</v>
       </c>
       <c r="D22" t="n">
-        <v>0.459286</v>
+        <v>0.460925</v>
       </c>
       <c r="E22" t="n">
-        <v>0.119736</v>
+        <v>0.125034</v>
       </c>
       <c r="F22" t="n">
-        <v>0.254899</v>
+        <v>0.25125</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.157862</v>
+        <v>0.152927</v>
       </c>
       <c r="C23" t="n">
-        <v>0.27391</v>
+        <v>0.273473</v>
       </c>
       <c r="D23" t="n">
-        <v>0.450766</v>
+        <v>0.451977</v>
       </c>
       <c r="E23" t="n">
-        <v>0.220975</v>
+        <v>0.221299</v>
       </c>
       <c r="F23" t="n">
-        <v>0.327072</v>
+        <v>0.313883</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241294</v>
+        <v>0.245288</v>
       </c>
       <c r="C24" t="n">
-        <v>0.336911</v>
+        <v>0.338299</v>
       </c>
       <c r="D24" t="n">
-        <v>0.43909</v>
+        <v>0.447724</v>
       </c>
       <c r="E24" t="n">
-        <v>0.199326</v>
+        <v>0.217304</v>
       </c>
       <c r="F24" t="n">
-        <v>0.315066</v>
+        <v>0.311988</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.232641</v>
+        <v>0.234819</v>
       </c>
       <c r="C25" t="n">
-        <v>0.330454</v>
+        <v>0.330321</v>
       </c>
       <c r="D25" t="n">
-        <v>0.436698</v>
+        <v>0.440824</v>
       </c>
       <c r="E25" t="n">
-        <v>0.192122</v>
+        <v>0.195497</v>
       </c>
       <c r="F25" t="n">
-        <v>0.308546</v>
+        <v>0.303548</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224366</v>
+        <v>0.224375</v>
       </c>
       <c r="C26" t="n">
-        <v>0.322298</v>
+        <v>0.324588</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4261</v>
+        <v>0.436024</v>
       </c>
       <c r="E26" t="n">
-        <v>0.191691</v>
+        <v>0.185555</v>
       </c>
       <c r="F26" t="n">
-        <v>0.302557</v>
+        <v>0.295408</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.209324</v>
+        <v>0.21632</v>
       </c>
       <c r="C27" t="n">
-        <v>0.314681</v>
+        <v>0.3171</v>
       </c>
       <c r="D27" t="n">
-        <v>0.421038</v>
+        <v>0.426439</v>
       </c>
       <c r="E27" t="n">
-        <v>0.17491</v>
+        <v>0.180862</v>
       </c>
       <c r="F27" t="n">
-        <v>0.294831</v>
+        <v>0.290149</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.213209</v>
+        <v>0.21051</v>
       </c>
       <c r="C28" t="n">
-        <v>0.308933</v>
+        <v>0.311409</v>
       </c>
       <c r="D28" t="n">
-        <v>0.413056</v>
+        <v>0.418966</v>
       </c>
       <c r="E28" t="n">
-        <v>0.177388</v>
+        <v>0.185175</v>
       </c>
       <c r="F28" t="n">
-        <v>0.287994</v>
+        <v>0.282636</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.199676</v>
+        <v>0.200157</v>
       </c>
       <c r="C29" t="n">
-        <v>0.301105</v>
+        <v>0.303617</v>
       </c>
       <c r="D29" t="n">
-        <v>0.410091</v>
+        <v>0.414614</v>
       </c>
       <c r="E29" t="n">
-        <v>0.169222</v>
+        <v>0.169627</v>
       </c>
       <c r="F29" t="n">
-        <v>0.280295</v>
+        <v>0.278109</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.19967</v>
+        <v>0.193226</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2962</v>
+        <v>0.300593</v>
       </c>
       <c r="D30" t="n">
-        <v>0.403685</v>
+        <v>0.409425</v>
       </c>
       <c r="E30" t="n">
-        <v>0.157366</v>
+        <v>0.167257</v>
       </c>
       <c r="F30" t="n">
-        <v>0.276288</v>
+        <v>0.273775</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.180194</v>
+        <v>0.188737</v>
       </c>
       <c r="C31" t="n">
-        <v>0.290266</v>
+        <v>0.293436</v>
       </c>
       <c r="D31" t="n">
-        <v>0.399266</v>
+        <v>0.40312</v>
       </c>
       <c r="E31" t="n">
-        <v>0.149681</v>
+        <v>0.153789</v>
       </c>
       <c r="F31" t="n">
-        <v>0.269915</v>
+        <v>0.270054</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.181657</v>
+        <v>0.182272</v>
       </c>
       <c r="C32" t="n">
-        <v>0.287155</v>
+        <v>0.286115</v>
       </c>
       <c r="D32" t="n">
-        <v>0.395619</v>
+        <v>0.398133</v>
       </c>
       <c r="E32" t="n">
-        <v>0.148026</v>
+        <v>0.160818</v>
       </c>
       <c r="F32" t="n">
-        <v>0.266539</v>
+        <v>0.263294</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.177595</v>
+        <v>0.175803</v>
       </c>
       <c r="C33" t="n">
-        <v>0.283414</v>
+        <v>0.284422</v>
       </c>
       <c r="D33" t="n">
-        <v>0.392276</v>
+        <v>0.396806</v>
       </c>
       <c r="E33" t="n">
-        <v>0.147661</v>
+        <v>0.152165</v>
       </c>
       <c r="F33" t="n">
-        <v>0.26177</v>
+        <v>0.258388</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.172739</v>
+        <v>0.17454</v>
       </c>
       <c r="C34" t="n">
-        <v>0.278629</v>
+        <v>0.280926</v>
       </c>
       <c r="D34" t="n">
-        <v>0.390317</v>
+        <v>0.392844</v>
       </c>
       <c r="E34" t="n">
-        <v>0.148192</v>
+        <v>0.152561</v>
       </c>
       <c r="F34" t="n">
-        <v>0.258975</v>
+        <v>0.258625</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.176606</v>
+        <v>0.170983</v>
       </c>
       <c r="C35" t="n">
-        <v>0.279076</v>
+        <v>0.278353</v>
       </c>
       <c r="D35" t="n">
-        <v>0.499602</v>
+        <v>0.498035</v>
       </c>
       <c r="E35" t="n">
-        <v>0.13925</v>
+        <v>0.144516</v>
       </c>
       <c r="F35" t="n">
-        <v>0.258718</v>
+        <v>0.256204</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.170679</v>
+        <v>0.169785</v>
       </c>
       <c r="C36" t="n">
-        <v>0.278724</v>
+        <v>0.276634</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4889</v>
+        <v>0.487815</v>
       </c>
       <c r="E36" t="n">
-        <v>0.145224</v>
+        <v>0.147312</v>
       </c>
       <c r="F36" t="n">
-        <v>0.257361</v>
+        <v>0.254284</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172702</v>
+        <v>0.17121</v>
       </c>
       <c r="C37" t="n">
-        <v>0.280545</v>
+        <v>0.279986</v>
       </c>
       <c r="D37" t="n">
-        <v>0.477787</v>
+        <v>0.476196</v>
       </c>
       <c r="E37" t="n">
-        <v>0.225866</v>
+        <v>0.226388</v>
       </c>
       <c r="F37" t="n">
-        <v>0.336827</v>
+        <v>0.330906</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246501</v>
+        <v>0.243209</v>
       </c>
       <c r="C38" t="n">
-        <v>0.353189</v>
+        <v>0.349491</v>
       </c>
       <c r="D38" t="n">
-        <v>0.469864</v>
+        <v>0.466415</v>
       </c>
       <c r="E38" t="n">
-        <v>0.216943</v>
+        <v>0.216125</v>
       </c>
       <c r="F38" t="n">
-        <v>0.327903</v>
+        <v>0.324458</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.23689</v>
+        <v>0.23517</v>
       </c>
       <c r="C39" t="n">
-        <v>0.342027</v>
+        <v>0.341856</v>
       </c>
       <c r="D39" t="n">
-        <v>0.46168</v>
+        <v>0.457716</v>
       </c>
       <c r="E39" t="n">
-        <v>0.205973</v>
+        <v>0.208728</v>
       </c>
       <c r="F39" t="n">
-        <v>0.318524</v>
+        <v>0.315183</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.227905</v>
+        <v>0.22631</v>
       </c>
       <c r="C40" t="n">
-        <v>0.335199</v>
+        <v>0.335065</v>
       </c>
       <c r="D40" t="n">
-        <v>0.451312</v>
+        <v>0.448274</v>
       </c>
       <c r="E40" t="n">
-        <v>0.199079</v>
+        <v>0.200706</v>
       </c>
       <c r="F40" t="n">
-        <v>0.310222</v>
+        <v>0.308271</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.219583</v>
+        <v>0.217874</v>
       </c>
       <c r="C41" t="n">
-        <v>0.32809</v>
+        <v>0.327532</v>
       </c>
       <c r="D41" t="n">
-        <v>0.443318</v>
+        <v>0.441166</v>
       </c>
       <c r="E41" t="n">
-        <v>0.193684</v>
+        <v>0.192957</v>
       </c>
       <c r="F41" t="n">
-        <v>0.303678</v>
+        <v>0.300774</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.212073</v>
+        <v>0.209516</v>
       </c>
       <c r="C42" t="n">
-        <v>0.324304</v>
+        <v>0.321094</v>
       </c>
       <c r="D42" t="n">
-        <v>0.436551</v>
+        <v>0.435492</v>
       </c>
       <c r="E42" t="n">
-        <v>0.185202</v>
+        <v>0.185707</v>
       </c>
       <c r="F42" t="n">
-        <v>0.296953</v>
+        <v>0.293611</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.204528</v>
+        <v>0.203925</v>
       </c>
       <c r="C43" t="n">
-        <v>0.316217</v>
+        <v>0.31574</v>
       </c>
       <c r="D43" t="n">
-        <v>0.430125</v>
+        <v>0.429048</v>
       </c>
       <c r="E43" t="n">
-        <v>0.180089</v>
+        <v>0.181084</v>
       </c>
       <c r="F43" t="n">
-        <v>0.291733</v>
+        <v>0.286715</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.198376</v>
+        <v>0.196011</v>
       </c>
       <c r="C44" t="n">
-        <v>0.310266</v>
+        <v>0.30877</v>
       </c>
       <c r="D44" t="n">
-        <v>0.425366</v>
+        <v>0.421608</v>
       </c>
       <c r="E44" t="n">
-        <v>0.170805</v>
+        <v>0.173014</v>
       </c>
       <c r="F44" t="n">
-        <v>0.285399</v>
+        <v>0.282304</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.194766</v>
+        <v>0.189616</v>
       </c>
       <c r="C45" t="n">
-        <v>0.307173</v>
+        <v>0.303367</v>
       </c>
       <c r="D45" t="n">
-        <v>0.422609</v>
+        <v>0.417816</v>
       </c>
       <c r="E45" t="n">
-        <v>0.167916</v>
+        <v>0.167113</v>
       </c>
       <c r="F45" t="n">
-        <v>0.28196</v>
+        <v>0.276077</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.18717</v>
+        <v>0.184149</v>
       </c>
       <c r="C46" t="n">
-        <v>0.300892</v>
+        <v>0.299027</v>
       </c>
       <c r="D46" t="n">
-        <v>0.41532</v>
+        <v>0.411741</v>
       </c>
       <c r="E46" t="n">
-        <v>0.161443</v>
+        <v>0.1637</v>
       </c>
       <c r="F46" t="n">
-        <v>0.274522</v>
+        <v>0.271042</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.181597</v>
+        <v>0.178541</v>
       </c>
       <c r="C47" t="n">
-        <v>0.29628</v>
+        <v>0.295918</v>
       </c>
       <c r="D47" t="n">
-        <v>0.41011</v>
+        <v>0.408696</v>
       </c>
       <c r="E47" t="n">
-        <v>0.157811</v>
+        <v>0.158985</v>
       </c>
       <c r="F47" t="n">
-        <v>0.270647</v>
+        <v>0.267985</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.178118</v>
+        <v>0.1765</v>
       </c>
       <c r="C48" t="n">
-        <v>0.293761</v>
+        <v>0.292312</v>
       </c>
       <c r="D48" t="n">
-        <v>0.407402</v>
+        <v>0.406767</v>
       </c>
       <c r="E48" t="n">
-        <v>0.153816</v>
+        <v>0.154588</v>
       </c>
       <c r="F48" t="n">
-        <v>0.266901</v>
+        <v>0.263797</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174845</v>
+        <v>0.172659</v>
       </c>
       <c r="C49" t="n">
-        <v>0.290862</v>
+        <v>0.291769</v>
       </c>
       <c r="D49" t="n">
-        <v>0.402442</v>
+        <v>0.40101</v>
       </c>
       <c r="E49" t="n">
-        <v>0.151389</v>
+        <v>0.151428</v>
       </c>
       <c r="F49" t="n">
-        <v>0.264525</v>
+        <v>0.263004</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173539</v>
+        <v>0.172988</v>
       </c>
       <c r="C50" t="n">
-        <v>0.290694</v>
+        <v>0.291125</v>
       </c>
       <c r="D50" t="n">
-        <v>0.508351</v>
+        <v>0.5086039999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.149401</v>
+        <v>0.14973</v>
       </c>
       <c r="F50" t="n">
-        <v>0.264314</v>
+        <v>0.262692</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174034</v>
+        <v>0.173515</v>
       </c>
       <c r="C51" t="n">
-        <v>0.293094</v>
+        <v>0.292615</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4964</v>
+        <v>0.498519</v>
       </c>
       <c r="E51" t="n">
-        <v>0.233928</v>
+        <v>0.234873</v>
       </c>
       <c r="F51" t="n">
-        <v>0.342471</v>
+        <v>0.338347</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176359</v>
+        <v>0.176554</v>
       </c>
       <c r="C52" t="n">
-        <v>0.298098</v>
+        <v>0.297304</v>
       </c>
       <c r="D52" t="n">
-        <v>0.485464</v>
+        <v>0.486035</v>
       </c>
       <c r="E52" t="n">
-        <v>0.226482</v>
+        <v>0.225367</v>
       </c>
       <c r="F52" t="n">
-        <v>0.333885</v>
+        <v>0.329478</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242248</v>
+        <v>0.242144</v>
       </c>
       <c r="C53" t="n">
-        <v>0.356691</v>
+        <v>0.358522</v>
       </c>
       <c r="D53" t="n">
-        <v>0.476651</v>
+        <v>0.480517</v>
       </c>
       <c r="E53" t="n">
-        <v>0.217186</v>
+        <v>0.220727</v>
       </c>
       <c r="F53" t="n">
-        <v>0.325206</v>
+        <v>0.326111</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233033</v>
+        <v>0.234475</v>
       </c>
       <c r="C54" t="n">
-        <v>0.347787</v>
+        <v>0.347131</v>
       </c>
       <c r="D54" t="n">
-        <v>0.467798</v>
+        <v>0.468812</v>
       </c>
       <c r="E54" t="n">
-        <v>0.208438</v>
+        <v>0.208389</v>
       </c>
       <c r="F54" t="n">
-        <v>0.317137</v>
+        <v>0.313219</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.225285</v>
+        <v>0.223712</v>
       </c>
       <c r="C55" t="n">
-        <v>0.342035</v>
+        <v>0.342883</v>
       </c>
       <c r="D55" t="n">
-        <v>0.459152</v>
+        <v>0.460645</v>
       </c>
       <c r="E55" t="n">
-        <v>0.200483</v>
+        <v>0.200489</v>
       </c>
       <c r="F55" t="n">
-        <v>0.310732</v>
+        <v>0.307467</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217204</v>
+        <v>0.216199</v>
       </c>
       <c r="C56" t="n">
-        <v>0.335187</v>
+        <v>0.335388</v>
       </c>
       <c r="D56" t="n">
-        <v>0.453221</v>
+        <v>0.454288</v>
       </c>
       <c r="E56" t="n">
-        <v>0.192751</v>
+        <v>0.192851</v>
       </c>
       <c r="F56" t="n">
-        <v>0.303673</v>
+        <v>0.300497</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.209814</v>
+        <v>0.208996</v>
       </c>
       <c r="C57" t="n">
-        <v>0.328848</v>
+        <v>0.328299</v>
       </c>
       <c r="D57" t="n">
-        <v>0.445218</v>
+        <v>0.448914</v>
       </c>
       <c r="E57" t="n">
-        <v>0.185444</v>
+        <v>0.186836</v>
       </c>
       <c r="F57" t="n">
-        <v>0.297241</v>
+        <v>0.294666</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.202852</v>
+        <v>0.201811</v>
       </c>
       <c r="C58" t="n">
-        <v>0.322939</v>
+        <v>0.325386</v>
       </c>
       <c r="D58" t="n">
-        <v>0.439601</v>
+        <v>0.441699</v>
       </c>
       <c r="E58" t="n">
-        <v>0.179481</v>
+        <v>0.179696</v>
       </c>
       <c r="F58" t="n">
-        <v>0.291013</v>
+        <v>0.288082</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196215</v>
+        <v>0.196058</v>
       </c>
       <c r="C59" t="n">
-        <v>0.318435</v>
+        <v>0.317919</v>
       </c>
       <c r="D59" t="n">
-        <v>0.434065</v>
+        <v>0.436627</v>
       </c>
       <c r="E59" t="n">
-        <v>0.174038</v>
+        <v>0.174765</v>
       </c>
       <c r="F59" t="n">
-        <v>0.285386</v>
+        <v>0.283467</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.190447</v>
+        <v>0.195189</v>
       </c>
       <c r="C60" t="n">
-        <v>0.313044</v>
+        <v>0.314054</v>
       </c>
       <c r="D60" t="n">
-        <v>0.430095</v>
+        <v>0.432896</v>
       </c>
       <c r="E60" t="n">
-        <v>0.168042</v>
+        <v>0.16865</v>
       </c>
       <c r="F60" t="n">
-        <v>0.280202</v>
+        <v>0.277405</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.18551</v>
+        <v>0.185201</v>
       </c>
       <c r="C61" t="n">
-        <v>0.308117</v>
+        <v>0.309071</v>
       </c>
       <c r="D61" t="n">
-        <v>0.426325</v>
+        <v>0.427416</v>
       </c>
       <c r="E61" t="n">
-        <v>0.163422</v>
+        <v>0.163886</v>
       </c>
       <c r="F61" t="n">
-        <v>0.275522</v>
+        <v>0.273551</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181104</v>
+        <v>0.1811</v>
       </c>
       <c r="C62" t="n">
-        <v>0.306003</v>
+        <v>0.306096</v>
       </c>
       <c r="D62" t="n">
-        <v>0.422092</v>
+        <v>0.423404</v>
       </c>
       <c r="E62" t="n">
-        <v>0.158333</v>
+        <v>0.159247</v>
       </c>
       <c r="F62" t="n">
-        <v>0.271947</v>
+        <v>0.269603</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178448</v>
+        <v>0.178273</v>
       </c>
       <c r="C63" t="n">
-        <v>0.303197</v>
+        <v>0.303743</v>
       </c>
       <c r="D63" t="n">
-        <v>0.419047</v>
+        <v>0.419795</v>
       </c>
       <c r="E63" t="n">
-        <v>0.155791</v>
+        <v>0.158625</v>
       </c>
       <c r="F63" t="n">
-        <v>0.269769</v>
+        <v>0.268829</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176389</v>
+        <v>0.17868</v>
       </c>
       <c r="C64" t="n">
-        <v>0.301885</v>
+        <v>0.303679</v>
       </c>
       <c r="D64" t="n">
-        <v>0.543178</v>
+        <v>0.545447</v>
       </c>
       <c r="E64" t="n">
-        <v>0.154165</v>
+        <v>0.156171</v>
       </c>
       <c r="F64" t="n">
-        <v>0.268181</v>
+        <v>0.267778</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176863</v>
+        <v>0.17714</v>
       </c>
       <c r="C65" t="n">
-        <v>0.302801</v>
+        <v>0.303154</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5328889999999999</v>
+        <v>0.534286</v>
       </c>
       <c r="E65" t="n">
-        <v>0.15473</v>
+        <v>0.15548</v>
       </c>
       <c r="F65" t="n">
-        <v>0.27</v>
+        <v>0.267759</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179774</v>
+        <v>0.179507</v>
       </c>
       <c r="C66" t="n">
-        <v>0.306092</v>
+        <v>0.306931</v>
       </c>
       <c r="D66" t="n">
-        <v>0.52382</v>
+        <v>0.523656</v>
       </c>
       <c r="E66" t="n">
-        <v>0.234932</v>
+        <v>0.237205</v>
       </c>
       <c r="F66" t="n">
-        <v>0.344108</v>
+        <v>0.341418</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243291</v>
+        <v>0.245548</v>
       </c>
       <c r="C67" t="n">
-        <v>0.373334</v>
+        <v>0.376718</v>
       </c>
       <c r="D67" t="n">
-        <v>0.51496</v>
+        <v>0.5153799999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>0.226035</v>
+        <v>0.226008</v>
       </c>
       <c r="F67" t="n">
-        <v>0.335607</v>
+        <v>0.333362</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.234513</v>
+        <v>0.236609</v>
       </c>
       <c r="C68" t="n">
-        <v>0.364824</v>
+        <v>0.368407</v>
       </c>
       <c r="D68" t="n">
-        <v>0.505179</v>
+        <v>0.507396</v>
       </c>
       <c r="E68" t="n">
-        <v>0.217031</v>
+        <v>0.217034</v>
       </c>
       <c r="F68" t="n">
-        <v>0.326815</v>
+        <v>0.324969</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.226608</v>
+        <v>0.227645</v>
       </c>
       <c r="C69" t="n">
-        <v>0.360699</v>
+        <v>0.362669</v>
       </c>
       <c r="D69" t="n">
-        <v>0.499335</v>
+        <v>0.501687</v>
       </c>
       <c r="E69" t="n">
-        <v>0.209179</v>
+        <v>0.209437</v>
       </c>
       <c r="F69" t="n">
-        <v>0.322008</v>
+        <v>0.319633</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.218438</v>
+        <v>0.220199</v>
       </c>
       <c r="C70" t="n">
-        <v>0.353552</v>
+        <v>0.355343</v>
       </c>
       <c r="D70" t="n">
-        <v>0.495167</v>
+        <v>0.494186</v>
       </c>
       <c r="E70" t="n">
-        <v>0.200463</v>
+        <v>0.200611</v>
       </c>
       <c r="F70" t="n">
-        <v>0.314049</v>
+        <v>0.312922</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.211266</v>
+        <v>0.213437</v>
       </c>
       <c r="C71" t="n">
-        <v>0.346538</v>
+        <v>0.348482</v>
       </c>
       <c r="D71" t="n">
-        <v>0.488887</v>
+        <v>0.489162</v>
       </c>
       <c r="E71" t="n">
-        <v>0.193939</v>
+        <v>0.195139</v>
       </c>
       <c r="F71" t="n">
-        <v>0.307058</v>
+        <v>0.305673</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.204455</v>
+        <v>0.205808</v>
       </c>
       <c r="C72" t="n">
-        <v>0.340757</v>
+        <v>0.341848</v>
       </c>
       <c r="D72" t="n">
-        <v>0.48282</v>
+        <v>0.485245</v>
       </c>
       <c r="E72" t="n">
-        <v>0.18647</v>
+        <v>0.189075</v>
       </c>
       <c r="F72" t="n">
-        <v>0.300882</v>
+        <v>0.29956</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.198039</v>
+        <v>0.200056</v>
       </c>
       <c r="C73" t="n">
-        <v>0.334132</v>
+        <v>0.33616</v>
       </c>
       <c r="D73" t="n">
-        <v>0.479228</v>
+        <v>0.481279</v>
       </c>
       <c r="E73" t="n">
-        <v>0.180223</v>
+        <v>0.182756</v>
       </c>
       <c r="F73" t="n">
-        <v>0.294719</v>
+        <v>0.293608</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.192313</v>
+        <v>0.194406</v>
       </c>
       <c r="C74" t="n">
-        <v>0.328969</v>
+        <v>0.330552</v>
       </c>
       <c r="D74" t="n">
-        <v>0.49586</v>
+        <v>0.497517</v>
       </c>
       <c r="E74" t="n">
-        <v>0.172683</v>
+        <v>0.176581</v>
       </c>
       <c r="F74" t="n">
-        <v>0.289466</v>
+        <v>0.288424</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.187017</v>
+        <v>0.188094</v>
       </c>
       <c r="C75" t="n">
-        <v>0.324632</v>
+        <v>0.327032</v>
       </c>
       <c r="D75" t="n">
-        <v>0.489923</v>
+        <v>0.492161</v>
       </c>
       <c r="E75" t="n">
-        <v>0.169475</v>
+        <v>0.170814</v>
       </c>
       <c r="F75" t="n">
-        <v>0.284459</v>
+        <v>0.283364</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.183219</v>
+        <v>0.183898</v>
       </c>
       <c r="C76" t="n">
-        <v>0.320979</v>
+        <v>0.32216</v>
       </c>
       <c r="D76" t="n">
-        <v>0.48641</v>
+        <v>0.487381</v>
       </c>
       <c r="E76" t="n">
-        <v>0.164953</v>
+        <v>0.167327</v>
       </c>
       <c r="F76" t="n">
-        <v>0.280828</v>
+        <v>0.279776</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.179866</v>
+        <v>0.181887</v>
       </c>
       <c r="C77" t="n">
-        <v>0.318027</v>
+        <v>0.320404</v>
       </c>
       <c r="D77" t="n">
-        <v>0.484714</v>
+        <v>0.485462</v>
       </c>
       <c r="E77" t="n">
-        <v>0.161673</v>
+        <v>0.163312</v>
       </c>
       <c r="F77" t="n">
-        <v>0.277399</v>
+        <v>0.277224</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.177439</v>
+        <v>0.179144</v>
       </c>
       <c r="C78" t="n">
-        <v>0.318921</v>
+        <v>0.321269</v>
       </c>
       <c r="D78" t="n">
-        <v>0.661664</v>
+        <v>0.6669850000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>0.158731</v>
+        <v>0.161353</v>
       </c>
       <c r="F78" t="n">
-        <v>0.277983</v>
+        <v>0.2783</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178005</v>
+        <v>0.179512</v>
       </c>
       <c r="C79" t="n">
-        <v>0.318888</v>
+        <v>0.321947</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6505</v>
+        <v>0.653915</v>
       </c>
       <c r="E79" t="n">
-        <v>0.158949</v>
+        <v>0.160313</v>
       </c>
       <c r="F79" t="n">
-        <v>0.278632</v>
+        <v>0.278806</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180315</v>
+        <v>0.181702</v>
       </c>
       <c r="C80" t="n">
-        <v>0.321678</v>
+        <v>0.323915</v>
       </c>
       <c r="D80" t="n">
-        <v>0.641516</v>
+        <v>0.645386</v>
       </c>
       <c r="E80" t="n">
-        <v>0.231616</v>
+        <v>0.232587</v>
       </c>
       <c r="F80" t="n">
-        <v>0.354528</v>
+        <v>0.354332</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.256708</v>
+        <v>0.257126</v>
       </c>
       <c r="C81" t="n">
-        <v>0.393478</v>
+        <v>0.395664</v>
       </c>
       <c r="D81" t="n">
-        <v>0.635026</v>
+        <v>0.638292</v>
       </c>
       <c r="E81" t="n">
-        <v>0.223519</v>
+        <v>0.225347</v>
       </c>
       <c r="F81" t="n">
-        <v>0.349972</v>
+        <v>0.349904</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249438</v>
+        <v>0.249254</v>
       </c>
       <c r="C82" t="n">
-        <v>0.388987</v>
+        <v>0.390659</v>
       </c>
       <c r="D82" t="n">
-        <v>0.627226</v>
+        <v>0.6302</v>
       </c>
       <c r="E82" t="n">
-        <v>0.214868</v>
+        <v>0.215931</v>
       </c>
       <c r="F82" t="n">
-        <v>0.344809</v>
+        <v>0.34489</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241109</v>
+        <v>0.241515</v>
       </c>
       <c r="C83" t="n">
-        <v>0.383337</v>
+        <v>0.386589</v>
       </c>
       <c r="D83" t="n">
-        <v>0.621236</v>
+        <v>0.624599</v>
       </c>
       <c r="E83" t="n">
-        <v>0.207756</v>
+        <v>0.209352</v>
       </c>
       <c r="F83" t="n">
-        <v>0.338874</v>
+        <v>0.33943</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.233594</v>
+        <v>0.233835</v>
       </c>
       <c r="C84" t="n">
-        <v>0.380106</v>
+        <v>0.383872</v>
       </c>
       <c r="D84" t="n">
-        <v>0.618178</v>
+        <v>0.621106</v>
       </c>
       <c r="E84" t="n">
-        <v>0.199873</v>
+        <v>0.202034</v>
       </c>
       <c r="F84" t="n">
-        <v>0.334632</v>
+        <v>0.335522</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226578</v>
+        <v>0.226888</v>
       </c>
       <c r="C85" t="n">
-        <v>0.375419</v>
+        <v>0.377485</v>
       </c>
       <c r="D85" t="n">
-        <v>0.61649</v>
+        <v>0.618511</v>
       </c>
       <c r="E85" t="n">
-        <v>0.193028</v>
+        <v>0.194721</v>
       </c>
       <c r="F85" t="n">
-        <v>0.328696</v>
+        <v>0.330013</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219559</v>
+        <v>0.219397</v>
       </c>
       <c r="C86" t="n">
-        <v>0.369981</v>
+        <v>0.372537</v>
       </c>
       <c r="D86" t="n">
-        <v>0.61617</v>
+        <v>0.617977</v>
       </c>
       <c r="E86" t="n">
-        <v>0.186705</v>
+        <v>0.18719</v>
       </c>
       <c r="F86" t="n">
-        <v>0.322993</v>
+        <v>0.325018</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212895</v>
+        <v>0.212826</v>
       </c>
       <c r="C87" t="n">
-        <v>0.364771</v>
+        <v>0.366719</v>
       </c>
       <c r="D87" t="n">
-        <v>0.61572</v>
+        <v>0.617268</v>
       </c>
       <c r="E87" t="n">
-        <v>0.180711</v>
+        <v>0.182387</v>
       </c>
       <c r="F87" t="n">
-        <v>0.317776</v>
+        <v>0.319409</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207563</v>
+        <v>0.206987</v>
       </c>
       <c r="C88" t="n">
-        <v>0.364785</v>
+        <v>0.363349</v>
       </c>
       <c r="D88" t="n">
-        <v>0.617912</v>
+        <v>0.620459</v>
       </c>
       <c r="E88" t="n">
-        <v>0.175253</v>
+        <v>0.175515</v>
       </c>
       <c r="F88" t="n">
-        <v>0.313934</v>
+        <v>0.314809</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201348</v>
+        <v>0.20114</v>
       </c>
       <c r="C89" t="n">
-        <v>0.356868</v>
+        <v>0.358271</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6313569999999999</v>
+        <v>0.63334</v>
       </c>
       <c r="E89" t="n">
-        <v>0.169661</v>
+        <v>0.170769</v>
       </c>
       <c r="F89" t="n">
-        <v>0.308597</v>
+        <v>0.30993</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196993</v>
+        <v>0.196407</v>
       </c>
       <c r="C90" t="n">
-        <v>0.353715</v>
+        <v>0.354351</v>
       </c>
       <c r="D90" t="n">
-        <v>0.635667</v>
+        <v>0.6391289999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>0.165849</v>
+        <v>0.167449</v>
       </c>
       <c r="F90" t="n">
-        <v>0.305214</v>
+        <v>0.306197</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192422</v>
+        <v>0.192149</v>
       </c>
       <c r="C91" t="n">
-        <v>0.349215</v>
+        <v>0.352141</v>
       </c>
       <c r="D91" t="n">
-        <v>0.640355</v>
+        <v>0.641344</v>
       </c>
       <c r="E91" t="n">
-        <v>0.162483</v>
+        <v>0.162859</v>
       </c>
       <c r="F91" t="n">
-        <v>0.302229</v>
+        <v>0.30299</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189722</v>
+        <v>0.188945</v>
       </c>
       <c r="C92" t="n">
-        <v>0.348841</v>
+        <v>0.350583</v>
       </c>
       <c r="D92" t="n">
-        <v>0.850607</v>
+        <v>0.856274</v>
       </c>
       <c r="E92" t="n">
-        <v>0.159801</v>
+        <v>0.161421</v>
       </c>
       <c r="F92" t="n">
-        <v>0.301387</v>
+        <v>0.302215</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189057</v>
+        <v>0.1884</v>
       </c>
       <c r="C93" t="n">
-        <v>0.349115</v>
+        <v>0.350871</v>
       </c>
       <c r="D93" t="n">
-        <v>0.84605</v>
+        <v>0.852112</v>
       </c>
       <c r="E93" t="n">
-        <v>0.159517</v>
+        <v>0.160576</v>
       </c>
       <c r="F93" t="n">
-        <v>0.302071</v>
+        <v>0.30271</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189342</v>
+        <v>0.188971</v>
       </c>
       <c r="C94" t="n">
-        <v>0.351529</v>
+        <v>0.354339</v>
       </c>
       <c r="D94" t="n">
-        <v>0.842758</v>
+        <v>0.847893</v>
       </c>
       <c r="E94" t="n">
-        <v>0.244349</v>
+        <v>0.246303</v>
       </c>
       <c r="F94" t="n">
-        <v>0.413089</v>
+        <v>0.416653</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.27111</v>
+        <v>0.27055</v>
       </c>
       <c r="C95" t="n">
-        <v>0.46592</v>
+        <v>0.467117</v>
       </c>
       <c r="D95" t="n">
-        <v>0.837552</v>
+        <v>0.841495</v>
       </c>
       <c r="E95" t="n">
-        <v>0.236901</v>
+        <v>0.238481</v>
       </c>
       <c r="F95" t="n">
-        <v>0.413589</v>
+        <v>0.416558</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265201</v>
+        <v>0.264524</v>
       </c>
       <c r="C96" t="n">
-        <v>0.465664</v>
+        <v>0.46789</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8335090000000001</v>
+        <v>0.836273</v>
       </c>
       <c r="E96" t="n">
-        <v>0.228763</v>
+        <v>0.230956</v>
       </c>
       <c r="F96" t="n">
-        <v>0.410364</v>
+        <v>0.413388</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258155</v>
+        <v>0.257203</v>
       </c>
       <c r="C97" t="n">
-        <v>0.461952</v>
+        <v>0.463872</v>
       </c>
       <c r="D97" t="n">
-        <v>0.839094</v>
+        <v>0.8431149999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.221145</v>
+        <v>0.222701</v>
       </c>
       <c r="F97" t="n">
-        <v>0.406812</v>
+        <v>0.409898</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251303</v>
+        <v>0.250917</v>
       </c>
       <c r="C98" t="n">
-        <v>0.457523</v>
+        <v>0.459175</v>
       </c>
       <c r="D98" t="n">
-        <v>0.835877</v>
+        <v>0.844689</v>
       </c>
       <c r="E98" t="n">
-        <v>0.21359</v>
+        <v>0.215373</v>
       </c>
       <c r="F98" t="n">
-        <v>0.40345</v>
+        <v>0.405919</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244936</v>
+        <v>0.244623</v>
       </c>
       <c r="C99" t="n">
-        <v>0.452861</v>
+        <v>0.454445</v>
       </c>
       <c r="D99" t="n">
-        <v>0.836367</v>
+        <v>0.842929</v>
       </c>
       <c r="E99" t="n">
-        <v>0.206947</v>
+        <v>0.208672</v>
       </c>
       <c r="F99" t="n">
-        <v>0.399098</v>
+        <v>0.401397</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239008</v>
+        <v>0.238416</v>
       </c>
       <c r="C100" t="n">
-        <v>0.447917</v>
+        <v>0.450386</v>
       </c>
       <c r="D100" t="n">
-        <v>0.836506</v>
+        <v>0.844125</v>
       </c>
       <c r="E100" t="n">
-        <v>0.20011</v>
+        <v>0.201983</v>
       </c>
       <c r="F100" t="n">
-        <v>0.395273</v>
+        <v>0.397761</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233154</v>
+        <v>0.232268</v>
       </c>
       <c r="C101" t="n">
-        <v>0.444242</v>
+        <v>0.446067</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8388330000000001</v>
+        <v>0.846465</v>
       </c>
       <c r="E101" t="n">
-        <v>0.193851</v>
+        <v>0.195962</v>
       </c>
       <c r="F101" t="n">
-        <v>0.391769</v>
+        <v>0.393918</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227576</v>
+        <v>0.227219</v>
       </c>
       <c r="C102" t="n">
-        <v>0.439946</v>
+        <v>0.441836</v>
       </c>
       <c r="D102" t="n">
-        <v>0.844868</v>
+        <v>0.850321</v>
       </c>
       <c r="E102" t="n">
-        <v>0.188145</v>
+        <v>0.190595</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3878</v>
+        <v>0.390481</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222732</v>
+        <v>0.222159</v>
       </c>
       <c r="C103" t="n">
-        <v>0.437343</v>
+        <v>0.439346</v>
       </c>
       <c r="D103" t="n">
-        <v>0.854838</v>
+        <v>0.861313</v>
       </c>
       <c r="E103" t="n">
-        <v>0.183011</v>
+        <v>0.184986</v>
       </c>
       <c r="F103" t="n">
-        <v>0.385293</v>
+        <v>0.387842</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218052</v>
+        <v>0.217841</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4346</v>
+        <v>0.436322</v>
       </c>
       <c r="D104" t="n">
-        <v>0.860239</v>
+        <v>0.867372</v>
       </c>
       <c r="E104" t="n">
-        <v>0.178902</v>
+        <v>0.180509</v>
       </c>
       <c r="F104" t="n">
-        <v>0.384073</v>
+        <v>0.38517</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214221</v>
+        <v>0.213667</v>
       </c>
       <c r="C105" t="n">
-        <v>0.433925</v>
+        <v>0.432727</v>
       </c>
       <c r="D105" t="n">
-        <v>0.866982</v>
+        <v>0.871224</v>
       </c>
       <c r="E105" t="n">
-        <v>0.174675</v>
+        <v>0.177766</v>
       </c>
       <c r="F105" t="n">
-        <v>0.381344</v>
+        <v>0.380697</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210947</v>
+        <v>0.210232</v>
       </c>
       <c r="C106" t="n">
-        <v>0.432988</v>
+        <v>0.431466</v>
       </c>
       <c r="D106" t="n">
-        <v>0.876665</v>
+        <v>0.876594</v>
       </c>
       <c r="E106" t="n">
-        <v>0.172088</v>
+        <v>0.174344</v>
       </c>
       <c r="F106" t="n">
-        <v>0.380388</v>
+        <v>0.379441</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208722</v>
+        <v>0.208304</v>
       </c>
       <c r="C107" t="n">
-        <v>0.432585</v>
+        <v>0.431357</v>
       </c>
       <c r="D107" t="n">
-        <v>1.12008</v>
+        <v>1.12178</v>
       </c>
       <c r="E107" t="n">
-        <v>0.170608</v>
+        <v>0.172773</v>
       </c>
       <c r="F107" t="n">
-        <v>0.380621</v>
+        <v>0.37973</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208867</v>
+        <v>0.207967</v>
       </c>
       <c r="C108" t="n">
-        <v>0.43582</v>
+        <v>0.437779</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11169</v>
+        <v>1.11924</v>
       </c>
       <c r="E108" t="n">
-        <v>0.259182</v>
+        <v>0.261579</v>
       </c>
       <c r="F108" t="n">
-        <v>0.515632</v>
+        <v>0.522827</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211166</v>
+        <v>0.210116</v>
       </c>
       <c r="C109" t="n">
-        <v>0.441141</v>
+        <v>0.442831</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10341</v>
+        <v>1.11034</v>
       </c>
       <c r="E109" t="n">
-        <v>0.252741</v>
+        <v>0.25466</v>
       </c>
       <c r="F109" t="n">
-        <v>0.514683</v>
+        <v>0.522672</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285332</v>
+        <v>0.284409</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5780690000000001</v>
+        <v>0.5827369999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>1.09451</v>
+        <v>1.10241</v>
       </c>
       <c r="E110" t="n">
-        <v>0.244989</v>
+        <v>0.247085</v>
       </c>
       <c r="F110" t="n">
-        <v>0.510216</v>
+        <v>0.517561</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278636</v>
+        <v>0.277918</v>
       </c>
       <c r="C111" t="n">
-        <v>0.571986</v>
+        <v>0.577499</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09408</v>
+        <v>1.10142</v>
       </c>
       <c r="E111" t="n">
-        <v>0.237442</v>
+        <v>0.239708</v>
       </c>
       <c r="F111" t="n">
-        <v>0.507669</v>
+        <v>0.514088</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272283</v>
+        <v>0.271476</v>
       </c>
       <c r="C112" t="n">
-        <v>0.568006</v>
+        <v>0.572142</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09219</v>
+        <v>1.09679</v>
       </c>
       <c r="E112" t="n">
-        <v>0.230675</v>
+        <v>0.232888</v>
       </c>
       <c r="F112" t="n">
-        <v>0.502816</v>
+        <v>0.509991</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266122</v>
+        <v>0.265493</v>
       </c>
       <c r="C113" t="n">
-        <v>0.562257</v>
+        <v>0.566098</v>
       </c>
       <c r="D113" t="n">
-        <v>1.0877</v>
+        <v>1.09145</v>
       </c>
       <c r="E113" t="n">
-        <v>0.224297</v>
+        <v>0.226316</v>
       </c>
       <c r="F113" t="n">
-        <v>0.499832</v>
+        <v>0.506301</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260596</v>
+        <v>0.260065</v>
       </c>
       <c r="C114" t="n">
-        <v>0.558032</v>
+        <v>0.562075</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08892</v>
+        <v>1.09617</v>
       </c>
       <c r="E114" t="n">
-        <v>0.21781</v>
+        <v>0.219818</v>
       </c>
       <c r="F114" t="n">
-        <v>0.495511</v>
+        <v>0.502642</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255667</v>
+        <v>0.254676</v>
       </c>
       <c r="C115" t="n">
-        <v>0.553488</v>
+        <v>0.55806</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09212</v>
+        <v>1.09624</v>
       </c>
       <c r="E115" t="n">
-        <v>0.212232</v>
+        <v>0.214175</v>
       </c>
       <c r="F115" t="n">
-        <v>0.493544</v>
+        <v>0.500314</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250579</v>
+        <v>0.249906</v>
       </c>
       <c r="C116" t="n">
-        <v>0.550558</v>
+        <v>0.554609</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09173</v>
+        <v>1.0968</v>
       </c>
       <c r="E116" t="n">
-        <v>0.206786</v>
+        <v>0.208892</v>
       </c>
       <c r="F116" t="n">
-        <v>0.490797</v>
+        <v>0.497692</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.246025</v>
+        <v>0.245248</v>
       </c>
       <c r="C117" t="n">
-        <v>0.547879</v>
+        <v>0.55052</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09558</v>
+        <v>1.10313</v>
       </c>
       <c r="E117" t="n">
-        <v>0.201642</v>
+        <v>0.204144</v>
       </c>
       <c r="F117" t="n">
-        <v>0.489308</v>
+        <v>0.495711</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241721</v>
+        <v>0.241104</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5453209999999999</v>
+        <v>0.5485370000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>1.09841</v>
+        <v>1.10569</v>
       </c>
       <c r="E118" t="n">
-        <v>0.197289</v>
+        <v>0.199573</v>
       </c>
       <c r="F118" t="n">
-        <v>0.487423</v>
+        <v>0.493766</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237733</v>
+        <v>0.237439</v>
       </c>
       <c r="C119" t="n">
-        <v>0.543232</v>
+        <v>0.545856</v>
       </c>
       <c r="D119" t="n">
-        <v>1.10773</v>
+        <v>1.1121</v>
       </c>
       <c r="E119" t="n">
-        <v>0.19355</v>
+        <v>0.195777</v>
       </c>
       <c r="F119" t="n">
-        <v>0.485668</v>
+        <v>0.492494</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.235096</v>
+        <v>0.234481</v>
       </c>
       <c r="C120" t="n">
-        <v>0.543228</v>
+        <v>0.546185</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11328</v>
+        <v>1.12044</v>
       </c>
       <c r="E120" t="n">
-        <v>0.190527</v>
+        <v>0.19261</v>
       </c>
       <c r="F120" t="n">
-        <v>0.485246</v>
+        <v>0.491665</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232623</v>
+        <v>0.23187</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5447959999999999</v>
+        <v>0.546107</v>
       </c>
       <c r="D121" t="n">
-        <v>1.37852</v>
+        <v>1.3861</v>
       </c>
       <c r="E121" t="n">
-        <v>0.188896</v>
+        <v>0.191193</v>
       </c>
       <c r="F121" t="n">
-        <v>0.48565</v>
+        <v>0.491448</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231756</v>
+        <v>0.231103</v>
       </c>
       <c r="C122" t="n">
-        <v>0.546346</v>
+        <v>0.549671</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36393</v>
+        <v>1.37184</v>
       </c>
       <c r="E122" t="n">
-        <v>0.189042</v>
+        <v>0.19136</v>
       </c>
       <c r="F122" t="n">
-        <v>0.486523</v>
+        <v>0.492835</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232834</v>
+        <v>0.232075</v>
       </c>
       <c r="C123" t="n">
-        <v>0.550612</v>
+        <v>0.553217</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34792</v>
+        <v>1.35569</v>
       </c>
       <c r="E123" t="n">
-        <v>0.27384</v>
+        <v>0.27476</v>
       </c>
       <c r="F123" t="n">
-        <v>0.624597</v>
+        <v>0.644522</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.317068</v>
+        <v>0.316947</v>
       </c>
       <c r="C124" t="n">
-        <v>0.702662</v>
+        <v>0.714843</v>
       </c>
       <c r="D124" t="n">
-        <v>1.32833</v>
+        <v>1.3422</v>
       </c>
       <c r="E124" t="n">
-        <v>0.267936</v>
+        <v>0.26872</v>
       </c>
       <c r="F124" t="n">
-        <v>0.631134</v>
+        <v>0.639423</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311311</v>
+        <v>0.311307</v>
       </c>
       <c r="C125" t="n">
-        <v>0.707198</v>
+        <v>0.711185</v>
       </c>
       <c r="D125" t="n">
-        <v>1.3276</v>
+        <v>1.33389</v>
       </c>
       <c r="E125" t="n">
-        <v>0.260321</v>
+        <v>0.2629</v>
       </c>
       <c r="F125" t="n">
-        <v>0.627413</v>
+        <v>0.6358740000000001</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305301</v>
+        <v>0.306497</v>
       </c>
       <c r="C126" t="n">
-        <v>0.703686</v>
+        <v>0.705753</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31768</v>
+        <v>1.32432</v>
       </c>
       <c r="E126" t="n">
-        <v>0.254671</v>
+        <v>0.257317</v>
       </c>
       <c r="F126" t="n">
-        <v>0.623592</v>
+        <v>0.633123</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29981</v>
+        <v>0.299802</v>
       </c>
       <c r="C127" t="n">
-        <v>0.699214</v>
+        <v>0.7010999999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31153</v>
+        <v>1.31698</v>
       </c>
       <c r="E127" t="n">
-        <v>0.249459</v>
+        <v>0.25241</v>
       </c>
       <c r="F127" t="n">
-        <v>0.621403</v>
+        <v>0.629373</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.294721</v>
+        <v>0.29518</v>
       </c>
       <c r="C128" t="n">
-        <v>0.696412</v>
+        <v>0.699253</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30511</v>
+        <v>1.31047</v>
       </c>
       <c r="E128" t="n">
-        <v>0.244608</v>
+        <v>0.247404</v>
       </c>
       <c r="F128" t="n">
-        <v>0.61968</v>
+        <v>0.62617</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290263</v>
+        <v>0.290714</v>
       </c>
       <c r="C129" t="n">
-        <v>0.692864</v>
+        <v>0.696205</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30192</v>
+        <v>1.30655</v>
       </c>
       <c r="E129" t="n">
-        <v>0.239941</v>
+        <v>0.242703</v>
       </c>
       <c r="F129" t="n">
-        <v>0.6162069999999999</v>
+        <v>0.623653</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286326</v>
+        <v>0.285755</v>
       </c>
       <c r="C130" t="n">
-        <v>0.690773</v>
+        <v>0.693999</v>
       </c>
       <c r="D130" t="n">
-        <v>1.29972</v>
+        <v>1.30521</v>
       </c>
       <c r="E130" t="n">
-        <v>0.235409</v>
+        <v>0.23865</v>
       </c>
       <c r="F130" t="n">
-        <v>0.614043</v>
+        <v>0.621286</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.282259</v>
+        <v>0.282531</v>
       </c>
       <c r="C131" t="n">
-        <v>0.688156</v>
+        <v>0.692273</v>
       </c>
       <c r="D131" t="n">
-        <v>1.29826</v>
+        <v>1.30276</v>
       </c>
       <c r="E131" t="n">
-        <v>0.231712</v>
+        <v>0.234725</v>
       </c>
       <c r="F131" t="n">
-        <v>0.611638</v>
+        <v>0.6196469999999999</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278943</v>
+        <v>0.278197</v>
       </c>
       <c r="C132" t="n">
-        <v>0.687765</v>
+        <v>0.691756</v>
       </c>
       <c r="D132" t="n">
-        <v>1.29891</v>
+        <v>1.30387</v>
       </c>
       <c r="E132" t="n">
-        <v>0.228212</v>
+        <v>0.23117</v>
       </c>
       <c r="F132" t="n">
-        <v>0.610938</v>
+        <v>0.61778</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275767</v>
+        <v>0.275446</v>
       </c>
       <c r="C133" t="n">
-        <v>0.687721</v>
+        <v>0.690743</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30083</v>
+        <v>1.30487</v>
       </c>
       <c r="E133" t="n">
-        <v>0.224967</v>
+        <v>0.228595</v>
       </c>
       <c r="F133" t="n">
-        <v>0.610051</v>
+        <v>0.611074</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.272873</v>
+        <v>0.276552</v>
       </c>
       <c r="C134" t="n">
-        <v>0.687375</v>
+        <v>0.6840039999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30562</v>
+        <v>1.3073</v>
       </c>
       <c r="E134" t="n">
-        <v>0.222553</v>
+        <v>0.225587</v>
       </c>
       <c r="F134" t="n">
-        <v>0.611259</v>
+        <v>0.615874</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.27102</v>
+        <v>0.270859</v>
       </c>
       <c r="C135" t="n">
-        <v>0.689862</v>
+        <v>0.692137</v>
       </c>
       <c r="D135" t="n">
-        <v>1.57815</v>
+        <v>1.58382</v>
       </c>
       <c r="E135" t="n">
-        <v>0.220943</v>
+        <v>0.223951</v>
       </c>
       <c r="F135" t="n">
-        <v>0.610023</v>
+        <v>0.615111</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.270199</v>
+        <v>0.270016</v>
       </c>
       <c r="C136" t="n">
-        <v>0.69247</v>
+        <v>0.695752</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55743</v>
+        <v>1.56125</v>
       </c>
       <c r="E136" t="n">
-        <v>0.220642</v>
+        <v>0.22385</v>
       </c>
       <c r="F136" t="n">
-        <v>0.610478</v>
+        <v>0.616113</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.271148</v>
+        <v>0.270811</v>
       </c>
       <c r="C137" t="n">
-        <v>0.696723</v>
+        <v>0.699267</v>
       </c>
       <c r="D137" t="n">
-        <v>1.53652</v>
+        <v>1.54243</v>
       </c>
       <c r="E137" t="n">
-        <v>0.317356</v>
+        <v>0.31998</v>
       </c>
       <c r="F137" t="n">
-        <v>0.771755</v>
+        <v>0.778231</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.362265</v>
+        <v>0.367896</v>
       </c>
       <c r="C138" t="n">
-        <v>0.87573</v>
+        <v>0.878983</v>
       </c>
       <c r="D138" t="n">
-        <v>1.51839</v>
+        <v>1.52448</v>
       </c>
       <c r="E138" t="n">
-        <v>0.311773</v>
+        <v>0.314766</v>
       </c>
       <c r="F138" t="n">
-        <v>0.766646</v>
+        <v>0.773922</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.355877</v>
+        <v>0.362</v>
       </c>
       <c r="C139" t="n">
-        <v>0.874741</v>
+        <v>0.878305</v>
       </c>
       <c r="D139" t="n">
-        <v>1.5085</v>
+        <v>1.5077</v>
       </c>
       <c r="E139" t="n">
-        <v>0.306041</v>
+        <v>0.309025</v>
       </c>
       <c r="F139" t="n">
-        <v>0.761697</v>
+        <v>0.768207</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.35069</v>
+        <v>0.356303</v>
       </c>
       <c r="C140" t="n">
-        <v>0.875099</v>
+        <v>0.877757</v>
       </c>
       <c r="D140" t="n">
-        <v>1.48978</v>
+        <v>1.49433</v>
       </c>
       <c r="E140" t="n">
-        <v>0.300704</v>
+        <v>0.303671</v>
       </c>
       <c r="F140" t="n">
-        <v>0.757057</v>
+        <v>0.763503</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.345732</v>
+        <v>0.351172</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8746</v>
+        <v>0.878364</v>
       </c>
       <c r="D141" t="n">
-        <v>1.4766</v>
+        <v>1.48248</v>
       </c>
       <c r="E141" t="n">
-        <v>0.296126</v>
+        <v>0.299255</v>
       </c>
       <c r="F141" t="n">
-        <v>0.755197</v>
+        <v>0.760151</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.341625</v>
+        <v>0.345557</v>
       </c>
       <c r="C142" t="n">
-        <v>0.874655</v>
+        <v>0.877564</v>
       </c>
       <c r="D142" t="n">
-        <v>1.46081</v>
+        <v>1.4693</v>
       </c>
       <c r="E142" t="n">
-        <v>0.29169</v>
+        <v>0.294788</v>
       </c>
       <c r="F142" t="n">
-        <v>0.749769</v>
+        <v>0.754942</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.336825</v>
+        <v>0.342166</v>
       </c>
       <c r="C143" t="n">
-        <v>0.875547</v>
+        <v>0.87853</v>
       </c>
       <c r="D143" t="n">
-        <v>1.45806</v>
+        <v>1.45908</v>
       </c>
       <c r="E143" t="n">
-        <v>0.286702</v>
+        <v>0.290553</v>
       </c>
       <c r="F143" t="n">
-        <v>0.7463109999999999</v>
+        <v>0.751764</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.161122</v>
+        <v>0.167478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.288315</v>
+        <v>0.296519</v>
       </c>
       <c r="D2" t="n">
-        <v>0.343468</v>
+        <v>0.31369</v>
       </c>
       <c r="E2" t="n">
-        <v>0.147314</v>
+        <v>0.140883</v>
       </c>
       <c r="F2" t="n">
-        <v>0.273194</v>
+        <v>0.285515</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.162475</v>
+        <v>0.151066</v>
       </c>
       <c r="C3" t="n">
-        <v>0.286711</v>
+        <v>0.290249</v>
       </c>
       <c r="D3" t="n">
-        <v>0.342342</v>
+        <v>0.314705</v>
       </c>
       <c r="E3" t="n">
-        <v>0.130877</v>
+        <v>0.130565</v>
       </c>
       <c r="F3" t="n">
-        <v>0.26284</v>
+        <v>0.268999</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.151631</v>
+        <v>0.147054</v>
       </c>
       <c r="C4" t="n">
-        <v>0.280459</v>
+        <v>0.285004</v>
       </c>
       <c r="D4" t="n">
-        <v>0.342442</v>
+        <v>0.312827</v>
       </c>
       <c r="E4" t="n">
-        <v>0.135487</v>
+        <v>0.138756</v>
       </c>
       <c r="F4" t="n">
-        <v>0.264932</v>
+        <v>0.271346</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.153896</v>
+        <v>0.156023</v>
       </c>
       <c r="C5" t="n">
-        <v>0.279512</v>
+        <v>0.285521</v>
       </c>
       <c r="D5" t="n">
-        <v>0.335783</v>
+        <v>0.312723</v>
       </c>
       <c r="E5" t="n">
-        <v>0.130291</v>
+        <v>0.132535</v>
       </c>
       <c r="F5" t="n">
-        <v>0.265605</v>
+        <v>0.265515</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.148046</v>
+        <v>0.149485</v>
       </c>
       <c r="C6" t="n">
-        <v>0.278506</v>
+        <v>0.279523</v>
       </c>
       <c r="D6" t="n">
-        <v>0.334186</v>
+        <v>0.311366</v>
       </c>
       <c r="E6" t="n">
-        <v>0.130215</v>
+        <v>0.123599</v>
       </c>
       <c r="F6" t="n">
-        <v>0.261119</v>
+        <v>0.265543</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.149706</v>
+        <v>0.149101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.272961</v>
+        <v>0.277804</v>
       </c>
       <c r="D7" t="n">
-        <v>0.429989</v>
+        <v>0.422912</v>
       </c>
       <c r="E7" t="n">
-        <v>0.127464</v>
+        <v>0.118299</v>
       </c>
       <c r="F7" t="n">
-        <v>0.262202</v>
+        <v>0.251182</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.151357</v>
+        <v>0.151513</v>
       </c>
       <c r="C8" t="n">
-        <v>0.27827</v>
+        <v>0.275823</v>
       </c>
       <c r="D8" t="n">
-        <v>0.425889</v>
+        <v>0.40905</v>
       </c>
       <c r="E8" t="n">
-        <v>0.118745</v>
+        <v>0.11962</v>
       </c>
       <c r="F8" t="n">
-        <v>0.259658</v>
+        <v>0.260388</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.154959</v>
+        <v>0.155311</v>
       </c>
       <c r="C9" t="n">
-        <v>0.282575</v>
+        <v>0.279825</v>
       </c>
       <c r="D9" t="n">
-        <v>0.420538</v>
+        <v>0.4027</v>
       </c>
       <c r="E9" t="n">
-        <v>0.187138</v>
+        <v>0.187149</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3193</v>
+        <v>0.326104</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.212352</v>
+        <v>0.217921</v>
       </c>
       <c r="C10" t="n">
-        <v>0.333956</v>
+        <v>0.338045</v>
       </c>
       <c r="D10" t="n">
-        <v>0.422319</v>
+        <v>0.404825</v>
       </c>
       <c r="E10" t="n">
-        <v>0.17905</v>
+        <v>0.175783</v>
       </c>
       <c r="F10" t="n">
-        <v>0.308397</v>
+        <v>0.317001</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.201436</v>
+        <v>0.20889</v>
       </c>
       <c r="C11" t="n">
-        <v>0.325884</v>
+        <v>0.330184</v>
       </c>
       <c r="D11" t="n">
-        <v>0.41834</v>
+        <v>0.392445</v>
       </c>
       <c r="E11" t="n">
-        <v>0.179401</v>
+        <v>0.16892</v>
       </c>
       <c r="F11" t="n">
-        <v>0.302052</v>
+        <v>0.313683</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.197561</v>
+        <v>0.199564</v>
       </c>
       <c r="C12" t="n">
-        <v>0.321707</v>
+        <v>0.32101</v>
       </c>
       <c r="D12" t="n">
-        <v>0.403032</v>
+        <v>0.395165</v>
       </c>
       <c r="E12" t="n">
-        <v>0.170546</v>
+        <v>0.17085</v>
       </c>
       <c r="F12" t="n">
-        <v>0.294999</v>
+        <v>0.3007</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.18461</v>
+        <v>0.189971</v>
       </c>
       <c r="C13" t="n">
-        <v>0.312404</v>
+        <v>0.310563</v>
       </c>
       <c r="D13" t="n">
-        <v>0.401246</v>
+        <v>0.387986</v>
       </c>
       <c r="E13" t="n">
-        <v>0.165972</v>
+        <v>0.161701</v>
       </c>
       <c r="F13" t="n">
-        <v>0.288739</v>
+        <v>0.296364</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.185073</v>
+        <v>0.183827</v>
       </c>
       <c r="C14" t="n">
-        <v>0.306169</v>
+        <v>0.302857</v>
       </c>
       <c r="D14" t="n">
-        <v>0.397749</v>
+        <v>0.383609</v>
       </c>
       <c r="E14" t="n">
-        <v>0.156802</v>
+        <v>0.156823</v>
       </c>
       <c r="F14" t="n">
-        <v>0.285621</v>
+        <v>0.288691</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.177095</v>
+        <v>0.178812</v>
       </c>
       <c r="C15" t="n">
-        <v>0.300147</v>
+        <v>0.29777</v>
       </c>
       <c r="D15" t="n">
-        <v>0.394818</v>
+        <v>0.381011</v>
       </c>
       <c r="E15" t="n">
-        <v>0.148426</v>
+        <v>0.147453</v>
       </c>
       <c r="F15" t="n">
-        <v>0.280711</v>
+        <v>0.282377</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.171355</v>
+        <v>0.171186</v>
       </c>
       <c r="C16" t="n">
-        <v>0.298438</v>
+        <v>0.295786</v>
       </c>
       <c r="D16" t="n">
-        <v>0.387412</v>
+        <v>0.37573</v>
       </c>
       <c r="E16" t="n">
-        <v>0.143635</v>
+        <v>0.134957</v>
       </c>
       <c r="F16" t="n">
-        <v>0.268575</v>
+        <v>0.27643</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.16902</v>
+        <v>0.168822</v>
       </c>
       <c r="C17" t="n">
-        <v>0.290942</v>
+        <v>0.288503</v>
       </c>
       <c r="D17" t="n">
-        <v>0.380972</v>
+        <v>0.373453</v>
       </c>
       <c r="E17" t="n">
-        <v>0.139319</v>
+        <v>0.134354</v>
       </c>
       <c r="F17" t="n">
-        <v>0.271527</v>
+        <v>0.270758</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.170357</v>
+        <v>0.167201</v>
       </c>
       <c r="C18" t="n">
-        <v>0.28727</v>
+        <v>0.283824</v>
       </c>
       <c r="D18" t="n">
-        <v>0.378764</v>
+        <v>0.36965</v>
       </c>
       <c r="E18" t="n">
-        <v>0.145985</v>
+        <v>0.132809</v>
       </c>
       <c r="F18" t="n">
-        <v>0.262359</v>
+        <v>0.26353</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.153357</v>
+        <v>0.157624</v>
       </c>
       <c r="C19" t="n">
-        <v>0.273782</v>
+        <v>0.278187</v>
       </c>
       <c r="D19" t="n">
-        <v>0.375119</v>
+        <v>0.367773</v>
       </c>
       <c r="E19" t="n">
-        <v>0.139285</v>
+        <v>0.13053</v>
       </c>
       <c r="F19" t="n">
-        <v>0.258118</v>
+        <v>0.259011</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.156809</v>
+        <v>0.159188</v>
       </c>
       <c r="C20" t="n">
-        <v>0.273209</v>
+        <v>0.273187</v>
       </c>
       <c r="D20" t="n">
-        <v>0.374995</v>
+        <v>0.362329</v>
       </c>
       <c r="E20" t="n">
-        <v>0.126429</v>
+        <v>0.13001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.251177</v>
+        <v>0.255965</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.15946</v>
+        <v>0.155949</v>
       </c>
       <c r="C21" t="n">
-        <v>0.273598</v>
+        <v>0.27296</v>
       </c>
       <c r="D21" t="n">
-        <v>0.475126</v>
+        <v>0.478707</v>
       </c>
       <c r="E21" t="n">
-        <v>0.128902</v>
+        <v>0.12491</v>
       </c>
       <c r="F21" t="n">
-        <v>0.248957</v>
+        <v>0.254097</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.156397</v>
+        <v>0.150788</v>
       </c>
       <c r="C22" t="n">
-        <v>0.26965</v>
+        <v>0.273153</v>
       </c>
       <c r="D22" t="n">
-        <v>0.460925</v>
+        <v>0.467031</v>
       </c>
       <c r="E22" t="n">
-        <v>0.125034</v>
+        <v>0.131098</v>
       </c>
       <c r="F22" t="n">
-        <v>0.25125</v>
+        <v>0.252313</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152927</v>
+        <v>0.158009</v>
       </c>
       <c r="C23" t="n">
-        <v>0.273473</v>
+        <v>0.274667</v>
       </c>
       <c r="D23" t="n">
-        <v>0.451977</v>
+        <v>0.458555</v>
       </c>
       <c r="E23" t="n">
-        <v>0.221299</v>
+        <v>0.208565</v>
       </c>
       <c r="F23" t="n">
-        <v>0.313883</v>
+        <v>0.326193</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245288</v>
+        <v>0.239572</v>
       </c>
       <c r="C24" t="n">
-        <v>0.338299</v>
+        <v>0.339216</v>
       </c>
       <c r="D24" t="n">
-        <v>0.447724</v>
+        <v>0.450048</v>
       </c>
       <c r="E24" t="n">
-        <v>0.217304</v>
+        <v>0.20502</v>
       </c>
       <c r="F24" t="n">
-        <v>0.311988</v>
+        <v>0.319295</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234819</v>
+        <v>0.233505</v>
       </c>
       <c r="C25" t="n">
-        <v>0.330321</v>
+        <v>0.330863</v>
       </c>
       <c r="D25" t="n">
-        <v>0.440824</v>
+        <v>0.446032</v>
       </c>
       <c r="E25" t="n">
-        <v>0.195497</v>
+        <v>0.197427</v>
       </c>
       <c r="F25" t="n">
-        <v>0.303548</v>
+        <v>0.308802</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224375</v>
+        <v>0.221682</v>
       </c>
       <c r="C26" t="n">
-        <v>0.324588</v>
+        <v>0.32456</v>
       </c>
       <c r="D26" t="n">
-        <v>0.436024</v>
+        <v>0.43545</v>
       </c>
       <c r="E26" t="n">
-        <v>0.185555</v>
+        <v>0.185886</v>
       </c>
       <c r="F26" t="n">
-        <v>0.295408</v>
+        <v>0.301909</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.21632</v>
+        <v>0.216931</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3171</v>
+        <v>0.317843</v>
       </c>
       <c r="D27" t="n">
-        <v>0.426439</v>
+        <v>0.430821</v>
       </c>
       <c r="E27" t="n">
-        <v>0.180862</v>
+        <v>0.178791</v>
       </c>
       <c r="F27" t="n">
-        <v>0.290149</v>
+        <v>0.296394</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.21051</v>
+        <v>0.207295</v>
       </c>
       <c r="C28" t="n">
-        <v>0.311409</v>
+        <v>0.311545</v>
       </c>
       <c r="D28" t="n">
-        <v>0.418966</v>
+        <v>0.421371</v>
       </c>
       <c r="E28" t="n">
-        <v>0.185175</v>
+        <v>0.173661</v>
       </c>
       <c r="F28" t="n">
-        <v>0.282636</v>
+        <v>0.289407</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.200157</v>
+        <v>0.199851</v>
       </c>
       <c r="C29" t="n">
-        <v>0.303617</v>
+        <v>0.305743</v>
       </c>
       <c r="D29" t="n">
-        <v>0.414614</v>
+        <v>0.41576</v>
       </c>
       <c r="E29" t="n">
-        <v>0.169627</v>
+        <v>0.167557</v>
       </c>
       <c r="F29" t="n">
-        <v>0.278109</v>
+        <v>0.282967</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.193226</v>
+        <v>0.19342</v>
       </c>
       <c r="C30" t="n">
-        <v>0.300593</v>
+        <v>0.298958</v>
       </c>
       <c r="D30" t="n">
-        <v>0.409425</v>
+        <v>0.408076</v>
       </c>
       <c r="E30" t="n">
-        <v>0.167257</v>
+        <v>0.160329</v>
       </c>
       <c r="F30" t="n">
-        <v>0.273775</v>
+        <v>0.276751</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.188737</v>
+        <v>0.18439</v>
       </c>
       <c r="C31" t="n">
-        <v>0.293436</v>
+        <v>0.292818</v>
       </c>
       <c r="D31" t="n">
-        <v>0.40312</v>
+        <v>0.40639</v>
       </c>
       <c r="E31" t="n">
-        <v>0.153789</v>
+        <v>0.151699</v>
       </c>
       <c r="F31" t="n">
-        <v>0.270054</v>
+        <v>0.271321</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.182272</v>
+        <v>0.181317</v>
       </c>
       <c r="C32" t="n">
-        <v>0.286115</v>
+        <v>0.288421</v>
       </c>
       <c r="D32" t="n">
-        <v>0.398133</v>
+        <v>0.400871</v>
       </c>
       <c r="E32" t="n">
-        <v>0.160818</v>
+        <v>0.152961</v>
       </c>
       <c r="F32" t="n">
-        <v>0.263294</v>
+        <v>0.265522</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.175803</v>
+        <v>0.17211</v>
       </c>
       <c r="C33" t="n">
-        <v>0.284422</v>
+        <v>0.284317</v>
       </c>
       <c r="D33" t="n">
-        <v>0.396806</v>
+        <v>0.396398</v>
       </c>
       <c r="E33" t="n">
-        <v>0.152165</v>
+        <v>0.14956</v>
       </c>
       <c r="F33" t="n">
-        <v>0.258388</v>
+        <v>0.26204</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.17454</v>
+        <v>0.175422</v>
       </c>
       <c r="C34" t="n">
-        <v>0.280926</v>
+        <v>0.280633</v>
       </c>
       <c r="D34" t="n">
-        <v>0.392844</v>
+        <v>0.392853</v>
       </c>
       <c r="E34" t="n">
-        <v>0.152561</v>
+        <v>0.143716</v>
       </c>
       <c r="F34" t="n">
-        <v>0.258625</v>
+        <v>0.26105</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.170983</v>
+        <v>0.170257</v>
       </c>
       <c r="C35" t="n">
-        <v>0.278353</v>
+        <v>0.279402</v>
       </c>
       <c r="D35" t="n">
-        <v>0.498035</v>
+        <v>0.502404</v>
       </c>
       <c r="E35" t="n">
-        <v>0.144516</v>
+        <v>0.145367</v>
       </c>
       <c r="F35" t="n">
-        <v>0.256204</v>
+        <v>0.258609</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.169785</v>
+        <v>0.168721</v>
       </c>
       <c r="C36" t="n">
-        <v>0.276634</v>
+        <v>0.27859</v>
       </c>
       <c r="D36" t="n">
-        <v>0.487815</v>
+        <v>0.490017</v>
       </c>
       <c r="E36" t="n">
-        <v>0.147312</v>
+        <v>0.14388</v>
       </c>
       <c r="F36" t="n">
-        <v>0.254284</v>
+        <v>0.257557</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17121</v>
+        <v>0.170443</v>
       </c>
       <c r="C37" t="n">
-        <v>0.279986</v>
+        <v>0.2806</v>
       </c>
       <c r="D37" t="n">
-        <v>0.476196</v>
+        <v>0.48041</v>
       </c>
       <c r="E37" t="n">
-        <v>0.226388</v>
+        <v>0.229553</v>
       </c>
       <c r="F37" t="n">
-        <v>0.330906</v>
+        <v>0.338263</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243209</v>
+        <v>0.244751</v>
       </c>
       <c r="C38" t="n">
-        <v>0.349491</v>
+        <v>0.355567</v>
       </c>
       <c r="D38" t="n">
-        <v>0.466415</v>
+        <v>0.470589</v>
       </c>
       <c r="E38" t="n">
-        <v>0.216125</v>
+        <v>0.220184</v>
       </c>
       <c r="F38" t="n">
-        <v>0.324458</v>
+        <v>0.329801</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.23517</v>
+        <v>0.23458</v>
       </c>
       <c r="C39" t="n">
-        <v>0.341856</v>
+        <v>0.347905</v>
       </c>
       <c r="D39" t="n">
-        <v>0.457716</v>
+        <v>0.460712</v>
       </c>
       <c r="E39" t="n">
-        <v>0.208728</v>
+        <v>0.211264</v>
       </c>
       <c r="F39" t="n">
-        <v>0.315183</v>
+        <v>0.320294</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.22631</v>
+        <v>0.226496</v>
       </c>
       <c r="C40" t="n">
-        <v>0.335065</v>
+        <v>0.338255</v>
       </c>
       <c r="D40" t="n">
-        <v>0.448274</v>
+        <v>0.453768</v>
       </c>
       <c r="E40" t="n">
-        <v>0.200706</v>
+        <v>0.204206</v>
       </c>
       <c r="F40" t="n">
-        <v>0.308271</v>
+        <v>0.312453</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.217874</v>
+        <v>0.218644</v>
       </c>
       <c r="C41" t="n">
-        <v>0.327532</v>
+        <v>0.331257</v>
       </c>
       <c r="D41" t="n">
-        <v>0.441166</v>
+        <v>0.445741</v>
       </c>
       <c r="E41" t="n">
-        <v>0.192957</v>
+        <v>0.195933</v>
       </c>
       <c r="F41" t="n">
-        <v>0.300774</v>
+        <v>0.306578</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209516</v>
+        <v>0.210738</v>
       </c>
       <c r="C42" t="n">
-        <v>0.321094</v>
+        <v>0.3249</v>
       </c>
       <c r="D42" t="n">
-        <v>0.435492</v>
+        <v>0.437832</v>
       </c>
       <c r="E42" t="n">
-        <v>0.185707</v>
+        <v>0.188589</v>
       </c>
       <c r="F42" t="n">
-        <v>0.293611</v>
+        <v>0.299659</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.203925</v>
+        <v>0.20243</v>
       </c>
       <c r="C43" t="n">
-        <v>0.31574</v>
+        <v>0.318014</v>
       </c>
       <c r="D43" t="n">
-        <v>0.429048</v>
+        <v>0.431599</v>
       </c>
       <c r="E43" t="n">
-        <v>0.181084</v>
+        <v>0.182125</v>
       </c>
       <c r="F43" t="n">
-        <v>0.286715</v>
+        <v>0.294097</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.196011</v>
+        <v>0.199177</v>
       </c>
       <c r="C44" t="n">
-        <v>0.30877</v>
+        <v>0.313383</v>
       </c>
       <c r="D44" t="n">
-        <v>0.421608</v>
+        <v>0.427385</v>
       </c>
       <c r="E44" t="n">
-        <v>0.173014</v>
+        <v>0.176595</v>
       </c>
       <c r="F44" t="n">
-        <v>0.282304</v>
+        <v>0.286095</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.189616</v>
+        <v>0.19029</v>
       </c>
       <c r="C45" t="n">
-        <v>0.303367</v>
+        <v>0.306977</v>
       </c>
       <c r="D45" t="n">
-        <v>0.417816</v>
+        <v>0.421215</v>
       </c>
       <c r="E45" t="n">
-        <v>0.167113</v>
+        <v>0.172029</v>
       </c>
       <c r="F45" t="n">
-        <v>0.276077</v>
+        <v>0.282017</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.184149</v>
+        <v>0.184957</v>
       </c>
       <c r="C46" t="n">
-        <v>0.299027</v>
+        <v>0.303759</v>
       </c>
       <c r="D46" t="n">
-        <v>0.411741</v>
+        <v>0.415137</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1637</v>
+        <v>0.164289</v>
       </c>
       <c r="F46" t="n">
-        <v>0.271042</v>
+        <v>0.274808</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.178541</v>
+        <v>0.178881</v>
       </c>
       <c r="C47" t="n">
-        <v>0.295918</v>
+        <v>0.298569</v>
       </c>
       <c r="D47" t="n">
-        <v>0.408696</v>
+        <v>0.410316</v>
       </c>
       <c r="E47" t="n">
-        <v>0.158985</v>
+        <v>0.159928</v>
       </c>
       <c r="F47" t="n">
-        <v>0.267985</v>
+        <v>0.270098</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1765</v>
+        <v>0.176036</v>
       </c>
       <c r="C48" t="n">
-        <v>0.292312</v>
+        <v>0.294998</v>
       </c>
       <c r="D48" t="n">
-        <v>0.406767</v>
+        <v>0.407009</v>
       </c>
       <c r="E48" t="n">
-        <v>0.154588</v>
+        <v>0.155614</v>
       </c>
       <c r="F48" t="n">
-        <v>0.263797</v>
+        <v>0.267177</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172659</v>
+        <v>0.173574</v>
       </c>
       <c r="C49" t="n">
-        <v>0.291769</v>
+        <v>0.292872</v>
       </c>
       <c r="D49" t="n">
-        <v>0.40101</v>
+        <v>0.403338</v>
       </c>
       <c r="E49" t="n">
-        <v>0.151428</v>
+        <v>0.152676</v>
       </c>
       <c r="F49" t="n">
-        <v>0.263004</v>
+        <v>0.266359</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172988</v>
+        <v>0.172281</v>
       </c>
       <c r="C50" t="n">
-        <v>0.291125</v>
+        <v>0.292207</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5086039999999999</v>
+        <v>0.509697</v>
       </c>
       <c r="E50" t="n">
-        <v>0.14973</v>
+        <v>0.15212</v>
       </c>
       <c r="F50" t="n">
-        <v>0.262692</v>
+        <v>0.265673</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173515</v>
+        <v>0.17217</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292615</v>
+        <v>0.294013</v>
       </c>
       <c r="D51" t="n">
-        <v>0.498519</v>
+        <v>0.497821</v>
       </c>
       <c r="E51" t="n">
-        <v>0.234873</v>
+        <v>0.238275</v>
       </c>
       <c r="F51" t="n">
-        <v>0.338347</v>
+        <v>0.343143</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176554</v>
+        <v>0.175252</v>
       </c>
       <c r="C52" t="n">
-        <v>0.297304</v>
+        <v>0.299061</v>
       </c>
       <c r="D52" t="n">
-        <v>0.486035</v>
+        <v>0.488075</v>
       </c>
       <c r="E52" t="n">
-        <v>0.225367</v>
+        <v>0.229363</v>
       </c>
       <c r="F52" t="n">
-        <v>0.329478</v>
+        <v>0.333673</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242144</v>
+        <v>0.242359</v>
       </c>
       <c r="C53" t="n">
-        <v>0.358522</v>
+        <v>0.358201</v>
       </c>
       <c r="D53" t="n">
-        <v>0.480517</v>
+        <v>0.4786</v>
       </c>
       <c r="E53" t="n">
-        <v>0.220727</v>
+        <v>0.219725</v>
       </c>
       <c r="F53" t="n">
-        <v>0.326111</v>
+        <v>0.326763</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.234475</v>
+        <v>0.233633</v>
       </c>
       <c r="C54" t="n">
-        <v>0.347131</v>
+        <v>0.350165</v>
       </c>
       <c r="D54" t="n">
-        <v>0.468812</v>
+        <v>0.46991</v>
       </c>
       <c r="E54" t="n">
-        <v>0.208389</v>
+        <v>0.211438</v>
       </c>
       <c r="F54" t="n">
-        <v>0.313219</v>
+        <v>0.31856</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.223712</v>
+        <v>0.225287</v>
       </c>
       <c r="C55" t="n">
-        <v>0.342883</v>
+        <v>0.346405</v>
       </c>
       <c r="D55" t="n">
-        <v>0.460645</v>
+        <v>0.461763</v>
       </c>
       <c r="E55" t="n">
-        <v>0.200489</v>
+        <v>0.204148</v>
       </c>
       <c r="F55" t="n">
-        <v>0.307467</v>
+        <v>0.313363</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216199</v>
+        <v>0.217623</v>
       </c>
       <c r="C56" t="n">
-        <v>0.335388</v>
+        <v>0.339391</v>
       </c>
       <c r="D56" t="n">
-        <v>0.454288</v>
+        <v>0.453764</v>
       </c>
       <c r="E56" t="n">
-        <v>0.192851</v>
+        <v>0.195706</v>
       </c>
       <c r="F56" t="n">
-        <v>0.300497</v>
+        <v>0.305843</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208996</v>
+        <v>0.209764</v>
       </c>
       <c r="C57" t="n">
-        <v>0.328299</v>
+        <v>0.332263</v>
       </c>
       <c r="D57" t="n">
-        <v>0.448914</v>
+        <v>0.448238</v>
       </c>
       <c r="E57" t="n">
-        <v>0.186836</v>
+        <v>0.18853</v>
       </c>
       <c r="F57" t="n">
-        <v>0.294666</v>
+        <v>0.299457</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.201811</v>
+        <v>0.202807</v>
       </c>
       <c r="C58" t="n">
-        <v>0.325386</v>
+        <v>0.326606</v>
       </c>
       <c r="D58" t="n">
-        <v>0.441699</v>
+        <v>0.443467</v>
       </c>
       <c r="E58" t="n">
-        <v>0.179696</v>
+        <v>0.181719</v>
       </c>
       <c r="F58" t="n">
-        <v>0.288082</v>
+        <v>0.293011</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196058</v>
+        <v>0.196939</v>
       </c>
       <c r="C59" t="n">
-        <v>0.317919</v>
+        <v>0.321911</v>
       </c>
       <c r="D59" t="n">
-        <v>0.436627</v>
+        <v>0.437093</v>
       </c>
       <c r="E59" t="n">
-        <v>0.174765</v>
+        <v>0.176226</v>
       </c>
       <c r="F59" t="n">
-        <v>0.283467</v>
+        <v>0.28747</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.195189</v>
+        <v>0.190954</v>
       </c>
       <c r="C60" t="n">
-        <v>0.314054</v>
+        <v>0.316137</v>
       </c>
       <c r="D60" t="n">
-        <v>0.432896</v>
+        <v>0.432436</v>
       </c>
       <c r="E60" t="n">
-        <v>0.16865</v>
+        <v>0.170096</v>
       </c>
       <c r="F60" t="n">
-        <v>0.277405</v>
+        <v>0.282181</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.185201</v>
+        <v>0.185913</v>
       </c>
       <c r="C61" t="n">
-        <v>0.309071</v>
+        <v>0.311535</v>
       </c>
       <c r="D61" t="n">
-        <v>0.427416</v>
+        <v>0.427849</v>
       </c>
       <c r="E61" t="n">
-        <v>0.163886</v>
+        <v>0.165105</v>
       </c>
       <c r="F61" t="n">
-        <v>0.273551</v>
+        <v>0.277485</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1811</v>
+        <v>0.181637</v>
       </c>
       <c r="C62" t="n">
-        <v>0.306096</v>
+        <v>0.308817</v>
       </c>
       <c r="D62" t="n">
-        <v>0.423404</v>
+        <v>0.424927</v>
       </c>
       <c r="E62" t="n">
-        <v>0.159247</v>
+        <v>0.161663</v>
       </c>
       <c r="F62" t="n">
-        <v>0.269603</v>
+        <v>0.273813</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178273</v>
+        <v>0.178846</v>
       </c>
       <c r="C63" t="n">
-        <v>0.303743</v>
+        <v>0.305874</v>
       </c>
       <c r="D63" t="n">
-        <v>0.419795</v>
+        <v>0.421695</v>
       </c>
       <c r="E63" t="n">
-        <v>0.158625</v>
+        <v>0.158103</v>
       </c>
       <c r="F63" t="n">
-        <v>0.268829</v>
+        <v>0.27139</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.17868</v>
+        <v>0.177112</v>
       </c>
       <c r="C64" t="n">
-        <v>0.303679</v>
+        <v>0.306443</v>
       </c>
       <c r="D64" t="n">
-        <v>0.545447</v>
+        <v>0.545505</v>
       </c>
       <c r="E64" t="n">
-        <v>0.156171</v>
+        <v>0.155927</v>
       </c>
       <c r="F64" t="n">
-        <v>0.267778</v>
+        <v>0.269864</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17714</v>
+        <v>0.177178</v>
       </c>
       <c r="C65" t="n">
-        <v>0.303154</v>
+        <v>0.306657</v>
       </c>
       <c r="D65" t="n">
-        <v>0.534286</v>
+        <v>0.535337</v>
       </c>
       <c r="E65" t="n">
-        <v>0.15548</v>
+        <v>0.15619</v>
       </c>
       <c r="F65" t="n">
-        <v>0.267759</v>
+        <v>0.271541</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179507</v>
+        <v>0.179497</v>
       </c>
       <c r="C66" t="n">
-        <v>0.306931</v>
+        <v>0.310422</v>
       </c>
       <c r="D66" t="n">
-        <v>0.523656</v>
+        <v>0.525013</v>
       </c>
       <c r="E66" t="n">
-        <v>0.237205</v>
+        <v>0.237609</v>
       </c>
       <c r="F66" t="n">
-        <v>0.341418</v>
+        <v>0.345903</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.245548</v>
+        <v>0.244587</v>
       </c>
       <c r="C67" t="n">
-        <v>0.376718</v>
+        <v>0.379385</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5153799999999999</v>
+        <v>0.517701</v>
       </c>
       <c r="E67" t="n">
-        <v>0.226008</v>
+        <v>0.227634</v>
       </c>
       <c r="F67" t="n">
-        <v>0.333362</v>
+        <v>0.337606</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236609</v>
+        <v>0.235459</v>
       </c>
       <c r="C68" t="n">
-        <v>0.368407</v>
+        <v>0.370327</v>
       </c>
       <c r="D68" t="n">
-        <v>0.507396</v>
+        <v>0.510203</v>
       </c>
       <c r="E68" t="n">
-        <v>0.217034</v>
+        <v>0.219518</v>
       </c>
       <c r="F68" t="n">
-        <v>0.324969</v>
+        <v>0.329573</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227645</v>
+        <v>0.227528</v>
       </c>
       <c r="C69" t="n">
-        <v>0.362669</v>
+        <v>0.364693</v>
       </c>
       <c r="D69" t="n">
-        <v>0.501687</v>
+        <v>0.501582</v>
       </c>
       <c r="E69" t="n">
-        <v>0.209437</v>
+        <v>0.210105</v>
       </c>
       <c r="F69" t="n">
-        <v>0.319633</v>
+        <v>0.323584</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.220199</v>
+        <v>0.219585</v>
       </c>
       <c r="C70" t="n">
-        <v>0.355343</v>
+        <v>0.357939</v>
       </c>
       <c r="D70" t="n">
-        <v>0.494186</v>
+        <v>0.498531</v>
       </c>
       <c r="E70" t="n">
-        <v>0.200611</v>
+        <v>0.202546</v>
       </c>
       <c r="F70" t="n">
-        <v>0.312922</v>
+        <v>0.316277</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213437</v>
+        <v>0.212515</v>
       </c>
       <c r="C71" t="n">
-        <v>0.348482</v>
+        <v>0.35116</v>
       </c>
       <c r="D71" t="n">
-        <v>0.489162</v>
+        <v>0.491268</v>
       </c>
       <c r="E71" t="n">
-        <v>0.195139</v>
+        <v>0.196057</v>
       </c>
       <c r="F71" t="n">
-        <v>0.305673</v>
+        <v>0.3091</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205808</v>
+        <v>0.205311</v>
       </c>
       <c r="C72" t="n">
-        <v>0.341848</v>
+        <v>0.343924</v>
       </c>
       <c r="D72" t="n">
-        <v>0.485245</v>
+        <v>0.487988</v>
       </c>
       <c r="E72" t="n">
-        <v>0.189075</v>
+        <v>0.188339</v>
       </c>
       <c r="F72" t="n">
-        <v>0.29956</v>
+        <v>0.302228</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200056</v>
+        <v>0.198963</v>
       </c>
       <c r="C73" t="n">
-        <v>0.33616</v>
+        <v>0.338181</v>
       </c>
       <c r="D73" t="n">
-        <v>0.481279</v>
+        <v>0.483827</v>
       </c>
       <c r="E73" t="n">
-        <v>0.182756</v>
+        <v>0.182041</v>
       </c>
       <c r="F73" t="n">
-        <v>0.293608</v>
+        <v>0.296032</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194406</v>
+        <v>0.193015</v>
       </c>
       <c r="C74" t="n">
-        <v>0.330552</v>
+        <v>0.33255</v>
       </c>
       <c r="D74" t="n">
-        <v>0.497517</v>
+        <v>0.495914</v>
       </c>
       <c r="E74" t="n">
-        <v>0.176581</v>
+        <v>0.17633</v>
       </c>
       <c r="F74" t="n">
-        <v>0.288424</v>
+        <v>0.290959</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188094</v>
+        <v>0.188346</v>
       </c>
       <c r="C75" t="n">
-        <v>0.327032</v>
+        <v>0.328073</v>
       </c>
       <c r="D75" t="n">
-        <v>0.492161</v>
+        <v>0.489067</v>
       </c>
       <c r="E75" t="n">
-        <v>0.170814</v>
+        <v>0.170986</v>
       </c>
       <c r="F75" t="n">
-        <v>0.283364</v>
+        <v>0.285913</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.183898</v>
+        <v>0.183911</v>
       </c>
       <c r="C76" t="n">
-        <v>0.32216</v>
+        <v>0.324237</v>
       </c>
       <c r="D76" t="n">
-        <v>0.487381</v>
+        <v>0.48755</v>
       </c>
       <c r="E76" t="n">
-        <v>0.167327</v>
+        <v>0.167242</v>
       </c>
       <c r="F76" t="n">
-        <v>0.279776</v>
+        <v>0.282045</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181887</v>
+        <v>0.18243</v>
       </c>
       <c r="C77" t="n">
-        <v>0.320404</v>
+        <v>0.322208</v>
       </c>
       <c r="D77" t="n">
-        <v>0.485462</v>
+        <v>0.48375</v>
       </c>
       <c r="E77" t="n">
-        <v>0.163312</v>
+        <v>0.163246</v>
       </c>
       <c r="F77" t="n">
-        <v>0.277224</v>
+        <v>0.279294</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179144</v>
+        <v>0.17888</v>
       </c>
       <c r="C78" t="n">
-        <v>0.321269</v>
+        <v>0.322768</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6669850000000001</v>
+        <v>0.664129</v>
       </c>
       <c r="E78" t="n">
-        <v>0.161353</v>
+        <v>0.161467</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2783</v>
+        <v>0.279644</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179512</v>
+        <v>0.178605</v>
       </c>
       <c r="C79" t="n">
-        <v>0.321947</v>
+        <v>0.32428</v>
       </c>
       <c r="D79" t="n">
-        <v>0.653915</v>
+        <v>0.652954</v>
       </c>
       <c r="E79" t="n">
-        <v>0.160313</v>
+        <v>0.160902</v>
       </c>
       <c r="F79" t="n">
-        <v>0.278806</v>
+        <v>0.280433</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181702</v>
+        <v>0.180657</v>
       </c>
       <c r="C80" t="n">
-        <v>0.323915</v>
+        <v>0.325949</v>
       </c>
       <c r="D80" t="n">
-        <v>0.645386</v>
+        <v>0.644809</v>
       </c>
       <c r="E80" t="n">
-        <v>0.232587</v>
+        <v>0.233005</v>
       </c>
       <c r="F80" t="n">
-        <v>0.354332</v>
+        <v>0.356935</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257126</v>
+        <v>0.258189</v>
       </c>
       <c r="C81" t="n">
-        <v>0.395664</v>
+        <v>0.397799</v>
       </c>
       <c r="D81" t="n">
-        <v>0.638292</v>
+        <v>0.636401</v>
       </c>
       <c r="E81" t="n">
-        <v>0.225347</v>
+        <v>0.225457</v>
       </c>
       <c r="F81" t="n">
-        <v>0.349904</v>
+        <v>0.352087</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249254</v>
+        <v>0.25059</v>
       </c>
       <c r="C82" t="n">
-        <v>0.390659</v>
+        <v>0.393742</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6302</v>
+        <v>0.630043</v>
       </c>
       <c r="E82" t="n">
-        <v>0.215931</v>
+        <v>0.217139</v>
       </c>
       <c r="F82" t="n">
-        <v>0.34489</v>
+        <v>0.347042</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241515</v>
+        <v>0.242752</v>
       </c>
       <c r="C83" t="n">
-        <v>0.386589</v>
+        <v>0.389774</v>
       </c>
       <c r="D83" t="n">
-        <v>0.624599</v>
+        <v>0.624619</v>
       </c>
       <c r="E83" t="n">
-        <v>0.209352</v>
+        <v>0.2085</v>
       </c>
       <c r="F83" t="n">
-        <v>0.33943</v>
+        <v>0.341975</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.233835</v>
+        <v>0.235024</v>
       </c>
       <c r="C84" t="n">
-        <v>0.383872</v>
+        <v>0.385316</v>
       </c>
       <c r="D84" t="n">
-        <v>0.621106</v>
+        <v>0.620165</v>
       </c>
       <c r="E84" t="n">
-        <v>0.202034</v>
+        <v>0.201345</v>
       </c>
       <c r="F84" t="n">
-        <v>0.335522</v>
+        <v>0.337248</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226888</v>
+        <v>0.227636</v>
       </c>
       <c r="C85" t="n">
-        <v>0.377485</v>
+        <v>0.379684</v>
       </c>
       <c r="D85" t="n">
-        <v>0.618511</v>
+        <v>0.619093</v>
       </c>
       <c r="E85" t="n">
-        <v>0.194721</v>
+        <v>0.194337</v>
       </c>
       <c r="F85" t="n">
-        <v>0.330013</v>
+        <v>0.331517</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219397</v>
+        <v>0.221269</v>
       </c>
       <c r="C86" t="n">
-        <v>0.372537</v>
+        <v>0.375234</v>
       </c>
       <c r="D86" t="n">
-        <v>0.617977</v>
+        <v>0.617408</v>
       </c>
       <c r="E86" t="n">
-        <v>0.18719</v>
+        <v>0.187716</v>
       </c>
       <c r="F86" t="n">
-        <v>0.325018</v>
+        <v>0.325826</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212826</v>
+        <v>0.214269</v>
       </c>
       <c r="C87" t="n">
-        <v>0.366719</v>
+        <v>0.369542</v>
       </c>
       <c r="D87" t="n">
-        <v>0.617268</v>
+        <v>0.617998</v>
       </c>
       <c r="E87" t="n">
-        <v>0.182387</v>
+        <v>0.181892</v>
       </c>
       <c r="F87" t="n">
-        <v>0.319409</v>
+        <v>0.320431</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206987</v>
+        <v>0.20782</v>
       </c>
       <c r="C88" t="n">
-        <v>0.363349</v>
+        <v>0.365518</v>
       </c>
       <c r="D88" t="n">
-        <v>0.620459</v>
+        <v>0.621512</v>
       </c>
       <c r="E88" t="n">
-        <v>0.175515</v>
+        <v>0.176029</v>
       </c>
       <c r="F88" t="n">
-        <v>0.314809</v>
+        <v>0.315523</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.20114</v>
+        <v>0.202635</v>
       </c>
       <c r="C89" t="n">
-        <v>0.358271</v>
+        <v>0.359771</v>
       </c>
       <c r="D89" t="n">
-        <v>0.63334</v>
+        <v>0.634615</v>
       </c>
       <c r="E89" t="n">
-        <v>0.170769</v>
+        <v>0.171154</v>
       </c>
       <c r="F89" t="n">
-        <v>0.30993</v>
+        <v>0.311806</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196407</v>
+        <v>0.197353</v>
       </c>
       <c r="C90" t="n">
-        <v>0.354351</v>
+        <v>0.356145</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6391289999999999</v>
+        <v>0.63774</v>
       </c>
       <c r="E90" t="n">
-        <v>0.167449</v>
+        <v>0.166823</v>
       </c>
       <c r="F90" t="n">
-        <v>0.306197</v>
+        <v>0.30779</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192149</v>
+        <v>0.193527</v>
       </c>
       <c r="C91" t="n">
-        <v>0.352141</v>
+        <v>0.353598</v>
       </c>
       <c r="D91" t="n">
-        <v>0.641344</v>
+        <v>0.64216</v>
       </c>
       <c r="E91" t="n">
-        <v>0.162859</v>
+        <v>0.163752</v>
       </c>
       <c r="F91" t="n">
-        <v>0.30299</v>
+        <v>0.304758</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188945</v>
+        <v>0.190274</v>
       </c>
       <c r="C92" t="n">
-        <v>0.350583</v>
+        <v>0.352346</v>
       </c>
       <c r="D92" t="n">
-        <v>0.856274</v>
+        <v>0.856592</v>
       </c>
       <c r="E92" t="n">
-        <v>0.161421</v>
+        <v>0.160807</v>
       </c>
       <c r="F92" t="n">
-        <v>0.302215</v>
+        <v>0.303608</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1884</v>
+        <v>0.189038</v>
       </c>
       <c r="C93" t="n">
-        <v>0.350871</v>
+        <v>0.353931</v>
       </c>
       <c r="D93" t="n">
-        <v>0.852112</v>
+        <v>0.85151</v>
       </c>
       <c r="E93" t="n">
-        <v>0.160576</v>
+        <v>0.16036</v>
       </c>
       <c r="F93" t="n">
-        <v>0.30271</v>
+        <v>0.303422</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.188971</v>
+        <v>0.190119</v>
       </c>
       <c r="C94" t="n">
-        <v>0.354339</v>
+        <v>0.355691</v>
       </c>
       <c r="D94" t="n">
-        <v>0.847893</v>
+        <v>0.848499</v>
       </c>
       <c r="E94" t="n">
-        <v>0.246303</v>
+        <v>0.246153</v>
       </c>
       <c r="F94" t="n">
-        <v>0.416653</v>
+        <v>0.416374</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.27055</v>
+        <v>0.272517</v>
       </c>
       <c r="C95" t="n">
-        <v>0.467117</v>
+        <v>0.468695</v>
       </c>
       <c r="D95" t="n">
-        <v>0.841495</v>
+        <v>0.842584</v>
       </c>
       <c r="E95" t="n">
-        <v>0.238481</v>
+        <v>0.238437</v>
       </c>
       <c r="F95" t="n">
-        <v>0.416558</v>
+        <v>0.416019</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.264524</v>
+        <v>0.266277</v>
       </c>
       <c r="C96" t="n">
-        <v>0.46789</v>
+        <v>0.470431</v>
       </c>
       <c r="D96" t="n">
-        <v>0.836273</v>
+        <v>0.8382230000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>0.230956</v>
+        <v>0.230492</v>
       </c>
       <c r="F96" t="n">
-        <v>0.413388</v>
+        <v>0.413309</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257203</v>
+        <v>0.259677</v>
       </c>
       <c r="C97" t="n">
-        <v>0.463872</v>
+        <v>0.465909</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8431149999999999</v>
+        <v>0.842508</v>
       </c>
       <c r="E97" t="n">
-        <v>0.222701</v>
+        <v>0.222856</v>
       </c>
       <c r="F97" t="n">
-        <v>0.409898</v>
+        <v>0.409354</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.250917</v>
+        <v>0.252678</v>
       </c>
       <c r="C98" t="n">
-        <v>0.459175</v>
+        <v>0.46193</v>
       </c>
       <c r="D98" t="n">
-        <v>0.844689</v>
+        <v>0.842547</v>
       </c>
       <c r="E98" t="n">
-        <v>0.215373</v>
+        <v>0.21525</v>
       </c>
       <c r="F98" t="n">
-        <v>0.405919</v>
+        <v>0.40589</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244623</v>
+        <v>0.246376</v>
       </c>
       <c r="C99" t="n">
-        <v>0.454445</v>
+        <v>0.457549</v>
       </c>
       <c r="D99" t="n">
-        <v>0.842929</v>
+        <v>0.843464</v>
       </c>
       <c r="E99" t="n">
-        <v>0.208672</v>
+        <v>0.208214</v>
       </c>
       <c r="F99" t="n">
-        <v>0.401397</v>
+        <v>0.401913</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238416</v>
+        <v>0.240307</v>
       </c>
       <c r="C100" t="n">
-        <v>0.450386</v>
+        <v>0.4527</v>
       </c>
       <c r="D100" t="n">
-        <v>0.844125</v>
+        <v>0.84527</v>
       </c>
       <c r="E100" t="n">
-        <v>0.201983</v>
+        <v>0.201909</v>
       </c>
       <c r="F100" t="n">
-        <v>0.397761</v>
+        <v>0.397703</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232268</v>
+        <v>0.234403</v>
       </c>
       <c r="C101" t="n">
-        <v>0.446067</v>
+        <v>0.447905</v>
       </c>
       <c r="D101" t="n">
-        <v>0.846465</v>
+        <v>0.849024</v>
       </c>
       <c r="E101" t="n">
-        <v>0.195962</v>
+        <v>0.195898</v>
       </c>
       <c r="F101" t="n">
-        <v>0.393918</v>
+        <v>0.394048</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227219</v>
+        <v>0.229287</v>
       </c>
       <c r="C102" t="n">
-        <v>0.441836</v>
+        <v>0.443888</v>
       </c>
       <c r="D102" t="n">
-        <v>0.850321</v>
+        <v>0.8513269999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>0.190595</v>
+        <v>0.190461</v>
       </c>
       <c r="F102" t="n">
-        <v>0.390481</v>
+        <v>0.390679</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222159</v>
+        <v>0.223999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.439346</v>
+        <v>0.44088</v>
       </c>
       <c r="D103" t="n">
-        <v>0.861313</v>
+        <v>0.861527</v>
       </c>
       <c r="E103" t="n">
-        <v>0.184986</v>
+        <v>0.184841</v>
       </c>
       <c r="F103" t="n">
-        <v>0.387842</v>
+        <v>0.3881</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.217841</v>
+        <v>0.219459</v>
       </c>
       <c r="C104" t="n">
-        <v>0.436322</v>
+        <v>0.438388</v>
       </c>
       <c r="D104" t="n">
-        <v>0.867372</v>
+        <v>0.8685</v>
       </c>
       <c r="E104" t="n">
-        <v>0.180509</v>
+        <v>0.180654</v>
       </c>
       <c r="F104" t="n">
-        <v>0.38517</v>
+        <v>0.385654</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213667</v>
+        <v>0.21514</v>
       </c>
       <c r="C105" t="n">
-        <v>0.432727</v>
+        <v>0.437111</v>
       </c>
       <c r="D105" t="n">
-        <v>0.871224</v>
+        <v>0.875852</v>
       </c>
       <c r="E105" t="n">
-        <v>0.177766</v>
+        <v>0.176609</v>
       </c>
       <c r="F105" t="n">
-        <v>0.380697</v>
+        <v>0.384293</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210232</v>
+        <v>0.21209</v>
       </c>
       <c r="C106" t="n">
-        <v>0.431466</v>
+        <v>0.436074</v>
       </c>
       <c r="D106" t="n">
-        <v>0.876594</v>
+        <v>0.884843</v>
       </c>
       <c r="E106" t="n">
-        <v>0.174344</v>
+        <v>0.173794</v>
       </c>
       <c r="F106" t="n">
-        <v>0.379441</v>
+        <v>0.383454</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208304</v>
+        <v>0.209976</v>
       </c>
       <c r="C107" t="n">
-        <v>0.431357</v>
+        <v>0.437221</v>
       </c>
       <c r="D107" t="n">
-        <v>1.12178</v>
+        <v>1.13122</v>
       </c>
       <c r="E107" t="n">
-        <v>0.172773</v>
+        <v>0.172389</v>
       </c>
       <c r="F107" t="n">
-        <v>0.37973</v>
+        <v>0.383236</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.207967</v>
+        <v>0.209918</v>
       </c>
       <c r="C108" t="n">
-        <v>0.437779</v>
+        <v>0.439215</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11924</v>
+        <v>1.12164</v>
       </c>
       <c r="E108" t="n">
-        <v>0.261579</v>
+        <v>0.261802</v>
       </c>
       <c r="F108" t="n">
-        <v>0.522827</v>
+        <v>0.519724</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210116</v>
+        <v>0.21182</v>
       </c>
       <c r="C109" t="n">
-        <v>0.442831</v>
+        <v>0.44442</v>
       </c>
       <c r="D109" t="n">
-        <v>1.11034</v>
+        <v>1.11043</v>
       </c>
       <c r="E109" t="n">
-        <v>0.25466</v>
+        <v>0.255181</v>
       </c>
       <c r="F109" t="n">
-        <v>0.522672</v>
+        <v>0.518144</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.284409</v>
+        <v>0.286829</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5827369999999999</v>
+        <v>0.583257</v>
       </c>
       <c r="D110" t="n">
-        <v>1.10241</v>
+        <v>1.10464</v>
       </c>
       <c r="E110" t="n">
-        <v>0.247085</v>
+        <v>0.247787</v>
       </c>
       <c r="F110" t="n">
-        <v>0.517561</v>
+        <v>0.514424</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277918</v>
+        <v>0.280313</v>
       </c>
       <c r="C111" t="n">
-        <v>0.577499</v>
+        <v>0.577058</v>
       </c>
       <c r="D111" t="n">
-        <v>1.10142</v>
+        <v>1.10262</v>
       </c>
       <c r="E111" t="n">
-        <v>0.239708</v>
+        <v>0.240167</v>
       </c>
       <c r="F111" t="n">
-        <v>0.514088</v>
+        <v>0.510884</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.271476</v>
+        <v>0.273914</v>
       </c>
       <c r="C112" t="n">
-        <v>0.572142</v>
+        <v>0.572716</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09679</v>
+        <v>1.09926</v>
       </c>
       <c r="E112" t="n">
-        <v>0.232888</v>
+        <v>0.233217</v>
       </c>
       <c r="F112" t="n">
-        <v>0.509991</v>
+        <v>0.5071059999999999</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.265493</v>
+        <v>0.267953</v>
       </c>
       <c r="C113" t="n">
-        <v>0.566098</v>
+        <v>0.568041</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09145</v>
+        <v>1.09729</v>
       </c>
       <c r="E113" t="n">
-        <v>0.226316</v>
+        <v>0.226681</v>
       </c>
       <c r="F113" t="n">
-        <v>0.506301</v>
+        <v>0.504394</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260065</v>
+        <v>0.262149</v>
       </c>
       <c r="C114" t="n">
-        <v>0.562075</v>
+        <v>0.563557</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09617</v>
+        <v>1.09506</v>
       </c>
       <c r="E114" t="n">
-        <v>0.219818</v>
+        <v>0.220499</v>
       </c>
       <c r="F114" t="n">
-        <v>0.502642</v>
+        <v>0.501314</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.254676</v>
+        <v>0.257101</v>
       </c>
       <c r="C115" t="n">
-        <v>0.55806</v>
+        <v>0.558796</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09624</v>
+        <v>1.0973</v>
       </c>
       <c r="E115" t="n">
-        <v>0.214175</v>
+        <v>0.214866</v>
       </c>
       <c r="F115" t="n">
-        <v>0.500314</v>
+        <v>0.498203</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.249906</v>
+        <v>0.252033</v>
       </c>
       <c r="C116" t="n">
-        <v>0.554609</v>
+        <v>0.554824</v>
       </c>
       <c r="D116" t="n">
-        <v>1.0968</v>
+        <v>1.09996</v>
       </c>
       <c r="E116" t="n">
-        <v>0.208892</v>
+        <v>0.209465</v>
       </c>
       <c r="F116" t="n">
-        <v>0.497692</v>
+        <v>0.496002</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245248</v>
+        <v>0.247608</v>
       </c>
       <c r="C117" t="n">
-        <v>0.55052</v>
+        <v>0.552322</v>
       </c>
       <c r="D117" t="n">
-        <v>1.10313</v>
+        <v>1.10278</v>
       </c>
       <c r="E117" t="n">
-        <v>0.204144</v>
+        <v>0.204491</v>
       </c>
       <c r="F117" t="n">
-        <v>0.495711</v>
+        <v>0.493925</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241104</v>
+        <v>0.243041</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5485370000000001</v>
+        <v>0.550333</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10569</v>
+        <v>1.10726</v>
       </c>
       <c r="E118" t="n">
-        <v>0.199573</v>
+        <v>0.2</v>
       </c>
       <c r="F118" t="n">
-        <v>0.493766</v>
+        <v>0.492179</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237439</v>
+        <v>0.239485</v>
       </c>
       <c r="C119" t="n">
-        <v>0.545856</v>
+        <v>0.5485409999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>1.1121</v>
+        <v>1.11428</v>
       </c>
       <c r="E119" t="n">
-        <v>0.195777</v>
+        <v>0.196299</v>
       </c>
       <c r="F119" t="n">
-        <v>0.492494</v>
+        <v>0.491088</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234481</v>
+        <v>0.236285</v>
       </c>
       <c r="C120" t="n">
-        <v>0.546185</v>
+        <v>0.547739</v>
       </c>
       <c r="D120" t="n">
-        <v>1.12044</v>
+        <v>1.12192</v>
       </c>
       <c r="E120" t="n">
-        <v>0.19261</v>
+        <v>0.193454</v>
       </c>
       <c r="F120" t="n">
-        <v>0.491665</v>
+        <v>0.48951</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.23187</v>
+        <v>0.23401</v>
       </c>
       <c r="C121" t="n">
-        <v>0.546107</v>
+        <v>0.549327</v>
       </c>
       <c r="D121" t="n">
-        <v>1.3861</v>
+        <v>1.38605</v>
       </c>
       <c r="E121" t="n">
-        <v>0.191193</v>
+        <v>0.191524</v>
       </c>
       <c r="F121" t="n">
-        <v>0.491448</v>
+        <v>0.490497</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231103</v>
+        <v>0.233066</v>
       </c>
       <c r="C122" t="n">
-        <v>0.549671</v>
+        <v>0.551845</v>
       </c>
       <c r="D122" t="n">
-        <v>1.37184</v>
+        <v>1.371</v>
       </c>
       <c r="E122" t="n">
-        <v>0.19136</v>
+        <v>0.191873</v>
       </c>
       <c r="F122" t="n">
-        <v>0.492835</v>
+        <v>0.491596</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232075</v>
+        <v>0.233942</v>
       </c>
       <c r="C123" t="n">
-        <v>0.553217</v>
+        <v>0.5531509999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>1.35569</v>
+        <v>1.3551</v>
       </c>
       <c r="E123" t="n">
-        <v>0.27476</v>
+        <v>0.276032</v>
       </c>
       <c r="F123" t="n">
-        <v>0.644522</v>
+        <v>0.641811</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.316947</v>
+        <v>0.318897</v>
       </c>
       <c r="C124" t="n">
-        <v>0.714843</v>
+        <v>0.717626</v>
       </c>
       <c r="D124" t="n">
-        <v>1.3422</v>
+        <v>1.34518</v>
       </c>
       <c r="E124" t="n">
-        <v>0.26872</v>
+        <v>0.269677</v>
       </c>
       <c r="F124" t="n">
-        <v>0.639423</v>
+        <v>0.637752</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311307</v>
+        <v>0.313083</v>
       </c>
       <c r="C125" t="n">
-        <v>0.711185</v>
+        <v>0.7129219999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33389</v>
+        <v>1.33359</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2629</v>
+        <v>0.264031</v>
       </c>
       <c r="F125" t="n">
-        <v>0.6358740000000001</v>
+        <v>0.633813</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.306497</v>
+        <v>0.307619</v>
       </c>
       <c r="C126" t="n">
-        <v>0.705753</v>
+        <v>0.7087869999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32432</v>
+        <v>1.32496</v>
       </c>
       <c r="E126" t="n">
-        <v>0.257317</v>
+        <v>0.258375</v>
       </c>
       <c r="F126" t="n">
-        <v>0.633123</v>
+        <v>0.630495</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.299802</v>
+        <v>0.302255</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7010999999999999</v>
+        <v>0.705714</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31698</v>
+        <v>1.31656</v>
       </c>
       <c r="E127" t="n">
-        <v>0.25241</v>
+        <v>0.25314</v>
       </c>
       <c r="F127" t="n">
-        <v>0.629373</v>
+        <v>0.627039</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.29518</v>
+        <v>0.297133</v>
       </c>
       <c r="C128" t="n">
-        <v>0.699253</v>
+        <v>0.702255</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31047</v>
+        <v>1.31241</v>
       </c>
       <c r="E128" t="n">
-        <v>0.247404</v>
+        <v>0.248314</v>
       </c>
       <c r="F128" t="n">
-        <v>0.62617</v>
+        <v>0.624935</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290714</v>
+        <v>0.292072</v>
       </c>
       <c r="C129" t="n">
-        <v>0.696205</v>
+        <v>0.69792</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30655</v>
+        <v>1.30721</v>
       </c>
       <c r="E129" t="n">
-        <v>0.242703</v>
+        <v>0.243784</v>
       </c>
       <c r="F129" t="n">
-        <v>0.623653</v>
+        <v>0.622905</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.285755</v>
+        <v>0.288001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.693999</v>
+        <v>0.696556</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30521</v>
+        <v>1.30559</v>
       </c>
       <c r="E130" t="n">
-        <v>0.23865</v>
+        <v>0.239496</v>
       </c>
       <c r="F130" t="n">
-        <v>0.621286</v>
+        <v>0.620294</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.282531</v>
+        <v>0.283668</v>
       </c>
       <c r="C131" t="n">
-        <v>0.692273</v>
+        <v>0.694621</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30276</v>
+        <v>1.30422</v>
       </c>
       <c r="E131" t="n">
-        <v>0.234725</v>
+        <v>0.23567</v>
       </c>
       <c r="F131" t="n">
-        <v>0.6196469999999999</v>
+        <v>0.618093</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278197</v>
+        <v>0.279869</v>
       </c>
       <c r="C132" t="n">
-        <v>0.691756</v>
+        <v>0.693338</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30387</v>
+        <v>1.30526</v>
       </c>
       <c r="E132" t="n">
-        <v>0.23117</v>
+        <v>0.232192</v>
       </c>
       <c r="F132" t="n">
-        <v>0.61778</v>
+        <v>0.616233</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275446</v>
+        <v>0.276844</v>
       </c>
       <c r="C133" t="n">
-        <v>0.690743</v>
+        <v>0.691927</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30487</v>
+        <v>1.30628</v>
       </c>
       <c r="E133" t="n">
-        <v>0.228595</v>
+        <v>0.229071</v>
       </c>
       <c r="F133" t="n">
-        <v>0.611074</v>
+        <v>0.615496</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.276552</v>
+        <v>0.27416</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6840039999999999</v>
+        <v>0.692771</v>
       </c>
       <c r="D134" t="n">
-        <v>1.3073</v>
+        <v>1.30913</v>
       </c>
       <c r="E134" t="n">
-        <v>0.225587</v>
+        <v>0.226318</v>
       </c>
       <c r="F134" t="n">
-        <v>0.615874</v>
+        <v>0.6138400000000001</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270859</v>
+        <v>0.27227</v>
       </c>
       <c r="C135" t="n">
-        <v>0.692137</v>
+        <v>0.695514</v>
       </c>
       <c r="D135" t="n">
-        <v>1.58382</v>
+        <v>1.58517</v>
       </c>
       <c r="E135" t="n">
-        <v>0.223951</v>
+        <v>0.224884</v>
       </c>
       <c r="F135" t="n">
-        <v>0.615111</v>
+        <v>0.615363</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.270016</v>
+        <v>0.27192</v>
       </c>
       <c r="C136" t="n">
-        <v>0.695752</v>
+        <v>0.698682</v>
       </c>
       <c r="D136" t="n">
-        <v>1.56125</v>
+        <v>1.56318</v>
       </c>
       <c r="E136" t="n">
-        <v>0.22385</v>
+        <v>0.224744</v>
       </c>
       <c r="F136" t="n">
-        <v>0.616113</v>
+        <v>0.614621</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.270811</v>
+        <v>0.271904</v>
       </c>
       <c r="C137" t="n">
-        <v>0.699267</v>
+        <v>0.702726</v>
       </c>
       <c r="D137" t="n">
-        <v>1.54243</v>
+        <v>1.54255</v>
       </c>
       <c r="E137" t="n">
-        <v>0.31998</v>
+        <v>0.322061</v>
       </c>
       <c r="F137" t="n">
-        <v>0.778231</v>
+        <v>0.777659</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.367896</v>
+        <v>0.362956</v>
       </c>
       <c r="C138" t="n">
-        <v>0.878983</v>
+        <v>0.880762</v>
       </c>
       <c r="D138" t="n">
-        <v>1.52448</v>
+        <v>1.5248</v>
       </c>
       <c r="E138" t="n">
-        <v>0.314766</v>
+        <v>0.316061</v>
       </c>
       <c r="F138" t="n">
-        <v>0.773922</v>
+        <v>0.771242</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.362</v>
+        <v>0.358145</v>
       </c>
       <c r="C139" t="n">
-        <v>0.878305</v>
+        <v>0.880227</v>
       </c>
       <c r="D139" t="n">
-        <v>1.5077</v>
+        <v>1.50924</v>
       </c>
       <c r="E139" t="n">
-        <v>0.309025</v>
+        <v>0.308511</v>
       </c>
       <c r="F139" t="n">
-        <v>0.768207</v>
+        <v>0.764284</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.356303</v>
+        <v>0.344621</v>
       </c>
       <c r="C140" t="n">
-        <v>0.877757</v>
+        <v>0.876447</v>
       </c>
       <c r="D140" t="n">
-        <v>1.49433</v>
+        <v>1.49558</v>
       </c>
       <c r="E140" t="n">
-        <v>0.303671</v>
+        <v>0.302759</v>
       </c>
       <c r="F140" t="n">
-        <v>0.763503</v>
+        <v>0.7597120000000001</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.351172</v>
+        <v>0.340899</v>
       </c>
       <c r="C141" t="n">
-        <v>0.878364</v>
+        <v>0.876808</v>
       </c>
       <c r="D141" t="n">
-        <v>1.48248</v>
+        <v>1.47994</v>
       </c>
       <c r="E141" t="n">
-        <v>0.299255</v>
+        <v>0.299069</v>
       </c>
       <c r="F141" t="n">
-        <v>0.760151</v>
+        <v>0.75673</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.345557</v>
+        <v>0.339764</v>
       </c>
       <c r="C142" t="n">
-        <v>0.877564</v>
+        <v>0.875302</v>
       </c>
       <c r="D142" t="n">
-        <v>1.4693</v>
+        <v>1.46711</v>
       </c>
       <c r="E142" t="n">
-        <v>0.294788</v>
+        <v>0.29498</v>
       </c>
       <c r="F142" t="n">
-        <v>0.754942</v>
+        <v>0.752841</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.342166</v>
+        <v>0.33881</v>
       </c>
       <c r="C143" t="n">
-        <v>0.87853</v>
+        <v>0.880038</v>
       </c>
       <c r="D143" t="n">
-        <v>1.45908</v>
+        <v>1.46047</v>
       </c>
       <c r="E143" t="n">
-        <v>0.290553</v>
+        <v>0.292102</v>
       </c>
       <c r="F143" t="n">
-        <v>0.751764</v>
+        <v>0.750125</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.160869</v>
+        <v>0.148038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.290802</v>
+        <v>0.28962</v>
       </c>
       <c r="D2" t="n">
-        <v>0.347537</v>
+        <v>0.34482</v>
       </c>
       <c r="E2" t="n">
-        <v>0.139976</v>
+        <v>0.143953</v>
       </c>
       <c r="F2" t="n">
-        <v>0.276912</v>
+        <v>0.279074</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.159574</v>
+        <v>0.160923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.285191</v>
+        <v>0.283645</v>
       </c>
       <c r="D3" t="n">
-        <v>0.345501</v>
+        <v>0.3447</v>
       </c>
       <c r="E3" t="n">
-        <v>0.134776</v>
+        <v>0.13266</v>
       </c>
       <c r="F3" t="n">
-        <v>0.276039</v>
+        <v>0.274319</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.148838</v>
+        <v>0.155991</v>
       </c>
       <c r="C4" t="n">
-        <v>0.276695</v>
+        <v>0.281827</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341218</v>
+        <v>0.338778</v>
       </c>
       <c r="E4" t="n">
-        <v>0.12929</v>
+        <v>0.137144</v>
       </c>
       <c r="F4" t="n">
-        <v>0.27206</v>
+        <v>0.266465</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.146797</v>
+        <v>0.153288</v>
       </c>
       <c r="C5" t="n">
-        <v>0.270141</v>
+        <v>0.27833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.339879</v>
+        <v>0.339775</v>
       </c>
       <c r="E5" t="n">
-        <v>0.129873</v>
+        <v>0.129692</v>
       </c>
       <c r="F5" t="n">
-        <v>0.259022</v>
+        <v>0.264491</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.149699</v>
+        <v>0.152993</v>
       </c>
       <c r="C6" t="n">
-        <v>0.270286</v>
+        <v>0.273157</v>
       </c>
       <c r="D6" t="n">
-        <v>0.336561</v>
+        <v>0.336456</v>
       </c>
       <c r="E6" t="n">
-        <v>0.124052</v>
+        <v>0.1292</v>
       </c>
       <c r="F6" t="n">
-        <v>0.265768</v>
+        <v>0.263598</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.136147</v>
+        <v>0.149823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.27066</v>
+        <v>0.273133</v>
       </c>
       <c r="D7" t="n">
-        <v>0.438459</v>
+        <v>0.43758</v>
       </c>
       <c r="E7" t="n">
-        <v>0.121844</v>
+        <v>0.122695</v>
       </c>
       <c r="F7" t="n">
-        <v>0.259749</v>
+        <v>0.260529</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.150852</v>
+        <v>0.152845</v>
       </c>
       <c r="C8" t="n">
-        <v>0.277391</v>
+        <v>0.273015</v>
       </c>
       <c r="D8" t="n">
-        <v>0.44111</v>
+        <v>0.434437</v>
       </c>
       <c r="E8" t="n">
-        <v>0.118563</v>
+        <v>0.129205</v>
       </c>
       <c r="F8" t="n">
-        <v>0.261949</v>
+        <v>0.257525</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148176</v>
+        <v>0.154998</v>
       </c>
       <c r="C9" t="n">
-        <v>0.268243</v>
+        <v>0.279761</v>
       </c>
       <c r="D9" t="n">
-        <v>0.433257</v>
+        <v>0.421247</v>
       </c>
       <c r="E9" t="n">
-        <v>0.191322</v>
+        <v>0.189235</v>
       </c>
       <c r="F9" t="n">
-        <v>0.330563</v>
+        <v>0.325942</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.211979</v>
+        <v>0.205354</v>
       </c>
       <c r="C10" t="n">
-        <v>0.334566</v>
+        <v>0.336301</v>
       </c>
       <c r="D10" t="n">
-        <v>0.423484</v>
+        <v>0.425762</v>
       </c>
       <c r="E10" t="n">
-        <v>0.184717</v>
+        <v>0.179121</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3166</v>
+        <v>0.322013</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.200487</v>
+        <v>0.201385</v>
       </c>
       <c r="C11" t="n">
-        <v>0.323249</v>
+        <v>0.328321</v>
       </c>
       <c r="D11" t="n">
-        <v>0.410614</v>
+        <v>0.410568</v>
       </c>
       <c r="E11" t="n">
-        <v>0.16854</v>
+        <v>0.183188</v>
       </c>
       <c r="F11" t="n">
-        <v>0.306468</v>
+        <v>0.308223</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.199951</v>
+        <v>0.199024</v>
       </c>
       <c r="C12" t="n">
-        <v>0.310957</v>
+        <v>0.312706</v>
       </c>
       <c r="D12" t="n">
-        <v>0.406035</v>
+        <v>0.404727</v>
       </c>
       <c r="E12" t="n">
-        <v>0.171339</v>
+        <v>0.168034</v>
       </c>
       <c r="F12" t="n">
-        <v>0.304106</v>
+        <v>0.303798</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.189297</v>
+        <v>0.183659</v>
       </c>
       <c r="C13" t="n">
-        <v>0.305998</v>
+        <v>0.309293</v>
       </c>
       <c r="D13" t="n">
-        <v>0.396063</v>
+        <v>0.403785</v>
       </c>
       <c r="E13" t="n">
-        <v>0.167906</v>
+        <v>0.170511</v>
       </c>
       <c r="F13" t="n">
-        <v>0.293645</v>
+        <v>0.300232</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.184956</v>
+        <v>0.184101</v>
       </c>
       <c r="C14" t="n">
-        <v>0.298148</v>
+        <v>0.301543</v>
       </c>
       <c r="D14" t="n">
-        <v>0.392842</v>
+        <v>0.395247</v>
       </c>
       <c r="E14" t="n">
-        <v>0.159784</v>
+        <v>0.166038</v>
       </c>
       <c r="F14" t="n">
-        <v>0.287954</v>
+        <v>0.295755</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.173124</v>
+        <v>0.171691</v>
       </c>
       <c r="C15" t="n">
-        <v>0.289035</v>
+        <v>0.297862</v>
       </c>
       <c r="D15" t="n">
-        <v>0.39327</v>
+        <v>0.390619</v>
       </c>
       <c r="E15" t="n">
-        <v>0.154922</v>
+        <v>0.15712</v>
       </c>
       <c r="F15" t="n">
-        <v>0.28754</v>
+        <v>0.283694</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.171807</v>
+        <v>0.171897</v>
       </c>
       <c r="C16" t="n">
-        <v>0.284978</v>
+        <v>0.291384</v>
       </c>
       <c r="D16" t="n">
-        <v>0.384262</v>
+        <v>0.382892</v>
       </c>
       <c r="E16" t="n">
-        <v>0.145446</v>
+        <v>0.149256</v>
       </c>
       <c r="F16" t="n">
-        <v>0.282593</v>
+        <v>0.282046</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.169599</v>
+        <v>0.174353</v>
       </c>
       <c r="C17" t="n">
-        <v>0.282131</v>
+        <v>0.286588</v>
       </c>
       <c r="D17" t="n">
-        <v>0.378872</v>
+        <v>0.37994</v>
       </c>
       <c r="E17" t="n">
-        <v>0.149621</v>
+        <v>0.142847</v>
       </c>
       <c r="F17" t="n">
-        <v>0.271364</v>
+        <v>0.273702</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.157301</v>
+        <v>0.157666</v>
       </c>
       <c r="C18" t="n">
-        <v>0.271837</v>
+        <v>0.279649</v>
       </c>
       <c r="D18" t="n">
-        <v>0.379456</v>
+        <v>0.37579</v>
       </c>
       <c r="E18" t="n">
-        <v>0.148485</v>
+        <v>0.145667</v>
       </c>
       <c r="F18" t="n">
-        <v>0.265596</v>
+        <v>0.266685</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.164063</v>
+        <v>0.154411</v>
       </c>
       <c r="C19" t="n">
-        <v>0.271994</v>
+        <v>0.277957</v>
       </c>
       <c r="D19" t="n">
-        <v>0.374536</v>
+        <v>0.37366</v>
       </c>
       <c r="E19" t="n">
-        <v>0.139191</v>
+        <v>0.137256</v>
       </c>
       <c r="F19" t="n">
-        <v>0.259571</v>
+        <v>0.26253</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.159786</v>
+        <v>0.159779</v>
       </c>
       <c r="C20" t="n">
-        <v>0.265975</v>
+        <v>0.27258</v>
       </c>
       <c r="D20" t="n">
-        <v>0.368956</v>
+        <v>0.370216</v>
       </c>
       <c r="E20" t="n">
-        <v>0.133912</v>
+        <v>0.131612</v>
       </c>
       <c r="F20" t="n">
-        <v>0.26065</v>
+        <v>0.26634</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.154918</v>
+        <v>0.154228</v>
       </c>
       <c r="C21" t="n">
-        <v>0.26746</v>
+        <v>0.272963</v>
       </c>
       <c r="D21" t="n">
-        <v>0.469457</v>
+        <v>0.472128</v>
       </c>
       <c r="E21" t="n">
-        <v>0.133723</v>
+        <v>0.133067</v>
       </c>
       <c r="F21" t="n">
-        <v>0.262299</v>
+        <v>0.274082</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.154061</v>
+        <v>0.151285</v>
       </c>
       <c r="C22" t="n">
-        <v>0.271729</v>
+        <v>0.272771</v>
       </c>
       <c r="D22" t="n">
-        <v>0.460499</v>
+        <v>0.462746</v>
       </c>
       <c r="E22" t="n">
-        <v>0.137257</v>
+        <v>0.136336</v>
       </c>
       <c r="F22" t="n">
-        <v>0.254118</v>
+        <v>0.260133</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152789</v>
+        <v>0.161459</v>
       </c>
       <c r="C23" t="n">
-        <v>0.267423</v>
+        <v>0.276002</v>
       </c>
       <c r="D23" t="n">
-        <v>0.45075</v>
+        <v>0.452889</v>
       </c>
       <c r="E23" t="n">
-        <v>0.211564</v>
+        <v>0.223026</v>
       </c>
       <c r="F23" t="n">
-        <v>0.333841</v>
+        <v>0.333739</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240574</v>
+        <v>0.243006</v>
       </c>
       <c r="C24" t="n">
-        <v>0.336324</v>
+        <v>0.340025</v>
       </c>
       <c r="D24" t="n">
-        <v>0.444093</v>
+        <v>0.443925</v>
       </c>
       <c r="E24" t="n">
-        <v>0.205305</v>
+        <v>0.205725</v>
       </c>
       <c r="F24" t="n">
-        <v>0.327608</v>
+        <v>0.325082</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.229816</v>
+        <v>0.234242</v>
       </c>
       <c r="C25" t="n">
-        <v>0.327407</v>
+        <v>0.33125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.437452</v>
+        <v>0.436449</v>
       </c>
       <c r="E25" t="n">
-        <v>0.20187</v>
+        <v>0.200796</v>
       </c>
       <c r="F25" t="n">
-        <v>0.316091</v>
+        <v>0.316915</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.218715</v>
+        <v>0.225888</v>
       </c>
       <c r="C26" t="n">
-        <v>0.319153</v>
+        <v>0.322842</v>
       </c>
       <c r="D26" t="n">
-        <v>0.431252</v>
+        <v>0.428977</v>
       </c>
       <c r="E26" t="n">
-        <v>0.200287</v>
+        <v>0.190405</v>
       </c>
       <c r="F26" t="n">
-        <v>0.309199</v>
+        <v>0.309688</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.214478</v>
+        <v>0.216221</v>
       </c>
       <c r="C27" t="n">
-        <v>0.313228</v>
+        <v>0.316847</v>
       </c>
       <c r="D27" t="n">
-        <v>0.425414</v>
+        <v>0.424326</v>
       </c>
       <c r="E27" t="n">
-        <v>0.18976</v>
+        <v>0.185149</v>
       </c>
       <c r="F27" t="n">
-        <v>0.302025</v>
+        <v>0.302092</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.207099</v>
+        <v>0.208839</v>
       </c>
       <c r="C28" t="n">
-        <v>0.308139</v>
+        <v>0.310088</v>
       </c>
       <c r="D28" t="n">
-        <v>0.417072</v>
+        <v>0.415351</v>
       </c>
       <c r="E28" t="n">
-        <v>0.184319</v>
+        <v>0.175977</v>
       </c>
       <c r="F28" t="n">
-        <v>0.295239</v>
+        <v>0.296125</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.199162</v>
+        <v>0.202432</v>
       </c>
       <c r="C29" t="n">
-        <v>0.29972</v>
+        <v>0.302623</v>
       </c>
       <c r="D29" t="n">
-        <v>0.412434</v>
+        <v>0.410814</v>
       </c>
       <c r="E29" t="n">
-        <v>0.176068</v>
+        <v>0.177235</v>
       </c>
       <c r="F29" t="n">
-        <v>0.288254</v>
+        <v>0.288419</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.191373</v>
+        <v>0.195225</v>
       </c>
       <c r="C30" t="n">
-        <v>0.294272</v>
+        <v>0.296439</v>
       </c>
       <c r="D30" t="n">
-        <v>0.407961</v>
+        <v>0.403135</v>
       </c>
       <c r="E30" t="n">
-        <v>0.175231</v>
+        <v>0.162115</v>
       </c>
       <c r="F30" t="n">
-        <v>0.28294</v>
+        <v>0.281842</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.188616</v>
+        <v>0.188091</v>
       </c>
       <c r="C31" t="n">
-        <v>0.289906</v>
+        <v>0.291503</v>
       </c>
       <c r="D31" t="n">
-        <v>0.402729</v>
+        <v>0.400671</v>
       </c>
       <c r="E31" t="n">
-        <v>0.165726</v>
+        <v>0.167384</v>
       </c>
       <c r="F31" t="n">
-        <v>0.276336</v>
+        <v>0.277137</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.181528</v>
+        <v>0.181606</v>
       </c>
       <c r="C32" t="n">
-        <v>0.285426</v>
+        <v>0.287588</v>
       </c>
       <c r="D32" t="n">
-        <v>0.397163</v>
+        <v>0.395411</v>
       </c>
       <c r="E32" t="n">
-        <v>0.158324</v>
+        <v>0.160105</v>
       </c>
       <c r="F32" t="n">
-        <v>0.272637</v>
+        <v>0.272961</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.178022</v>
+        <v>0.176467</v>
       </c>
       <c r="C33" t="n">
-        <v>0.281571</v>
+        <v>0.283641</v>
       </c>
       <c r="D33" t="n">
-        <v>0.395594</v>
+        <v>0.392095</v>
       </c>
       <c r="E33" t="n">
-        <v>0.159884</v>
+        <v>0.15693</v>
       </c>
       <c r="F33" t="n">
-        <v>0.268207</v>
+        <v>0.26839</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.171756</v>
+        <v>0.17377</v>
       </c>
       <c r="C34" t="n">
-        <v>0.278093</v>
+        <v>0.281628</v>
       </c>
       <c r="D34" t="n">
-        <v>0.389175</v>
+        <v>0.387429</v>
       </c>
       <c r="E34" t="n">
-        <v>0.151904</v>
+        <v>0.151588</v>
       </c>
       <c r="F34" t="n">
-        <v>0.264555</v>
+        <v>0.265323</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.168221</v>
+        <v>0.171292</v>
       </c>
       <c r="C35" t="n">
-        <v>0.276001</v>
+        <v>0.279735</v>
       </c>
       <c r="D35" t="n">
-        <v>0.493772</v>
+        <v>0.493228</v>
       </c>
       <c r="E35" t="n">
-        <v>0.153381</v>
+        <v>0.151068</v>
       </c>
       <c r="F35" t="n">
-        <v>0.264498</v>
+        <v>0.263936</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.167102</v>
+        <v>0.170797</v>
       </c>
       <c r="C36" t="n">
-        <v>0.276231</v>
+        <v>0.280155</v>
       </c>
       <c r="D36" t="n">
-        <v>0.483102</v>
+        <v>0.484384</v>
       </c>
       <c r="E36" t="n">
-        <v>0.150077</v>
+        <v>0.149381</v>
       </c>
       <c r="F36" t="n">
-        <v>0.263333</v>
+        <v>0.263265</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171705</v>
+        <v>0.173345</v>
       </c>
       <c r="C37" t="n">
-        <v>0.278044</v>
+        <v>0.282363</v>
       </c>
       <c r="D37" t="n">
-        <v>0.471878</v>
+        <v>0.471658</v>
       </c>
       <c r="E37" t="n">
-        <v>0.230758</v>
+        <v>0.230969</v>
       </c>
       <c r="F37" t="n">
-        <v>0.347253</v>
+        <v>0.346894</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242624</v>
+        <v>0.245753</v>
       </c>
       <c r="C38" t="n">
-        <v>0.349487</v>
+        <v>0.354909</v>
       </c>
       <c r="D38" t="n">
-        <v>0.463101</v>
+        <v>0.461721</v>
       </c>
       <c r="E38" t="n">
-        <v>0.221903</v>
+        <v>0.221024</v>
       </c>
       <c r="F38" t="n">
-        <v>0.339571</v>
+        <v>0.338892</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233507</v>
+        <v>0.236952</v>
       </c>
       <c r="C39" t="n">
-        <v>0.341112</v>
+        <v>0.346879</v>
       </c>
       <c r="D39" t="n">
-        <v>0.454393</v>
+        <v>0.453947</v>
       </c>
       <c r="E39" t="n">
-        <v>0.21224</v>
+        <v>0.212593</v>
       </c>
       <c r="F39" t="n">
-        <v>0.330614</v>
+        <v>0.330858</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.224754</v>
+        <v>0.228393</v>
       </c>
       <c r="C40" t="n">
-        <v>0.334931</v>
+        <v>0.339123</v>
       </c>
       <c r="D40" t="n">
-        <v>0.445757</v>
+        <v>0.444956</v>
       </c>
       <c r="E40" t="n">
-        <v>0.205018</v>
+        <v>0.204739</v>
       </c>
       <c r="F40" t="n">
-        <v>0.322948</v>
+        <v>0.324136</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.216595</v>
+        <v>0.219804</v>
       </c>
       <c r="C41" t="n">
-        <v>0.326458</v>
+        <v>0.330733</v>
       </c>
       <c r="D41" t="n">
-        <v>0.439772</v>
+        <v>0.437438</v>
       </c>
       <c r="E41" t="n">
-        <v>0.197337</v>
+        <v>0.19873</v>
       </c>
       <c r="F41" t="n">
-        <v>0.31637</v>
+        <v>0.315919</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209378</v>
+        <v>0.211944</v>
       </c>
       <c r="C42" t="n">
-        <v>0.319931</v>
+        <v>0.324755</v>
       </c>
       <c r="D42" t="n">
-        <v>0.431497</v>
+        <v>0.431194</v>
       </c>
       <c r="E42" t="n">
-        <v>0.190362</v>
+        <v>0.189802</v>
       </c>
       <c r="F42" t="n">
-        <v>0.308326</v>
+        <v>0.30916</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202317</v>
+        <v>0.204979</v>
       </c>
       <c r="C43" t="n">
-        <v>0.313702</v>
+        <v>0.317592</v>
       </c>
       <c r="D43" t="n">
-        <v>0.425021</v>
+        <v>0.425226</v>
       </c>
       <c r="E43" t="n">
-        <v>0.183542</v>
+        <v>0.184192</v>
       </c>
       <c r="F43" t="n">
-        <v>0.30256</v>
+        <v>0.302189</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.195613</v>
+        <v>0.198484</v>
       </c>
       <c r="C44" t="n">
-        <v>0.307433</v>
+        <v>0.312347</v>
       </c>
       <c r="D44" t="n">
-        <v>0.41895</v>
+        <v>0.418647</v>
       </c>
       <c r="E44" t="n">
-        <v>0.177225</v>
+        <v>0.177229</v>
       </c>
       <c r="F44" t="n">
-        <v>0.296036</v>
+        <v>0.296411</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190342</v>
+        <v>0.192341</v>
       </c>
       <c r="C45" t="n">
-        <v>0.304185</v>
+        <v>0.306541</v>
       </c>
       <c r="D45" t="n">
-        <v>0.415657</v>
+        <v>0.413952</v>
       </c>
       <c r="E45" t="n">
-        <v>0.170563</v>
+        <v>0.17156</v>
       </c>
       <c r="F45" t="n">
-        <v>0.290935</v>
+        <v>0.290982</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.183894</v>
+        <v>0.186836</v>
       </c>
       <c r="C46" t="n">
-        <v>0.298302</v>
+        <v>0.3016</v>
       </c>
       <c r="D46" t="n">
-        <v>0.411374</v>
+        <v>0.410423</v>
       </c>
       <c r="E46" t="n">
-        <v>0.165852</v>
+        <v>0.165727</v>
       </c>
       <c r="F46" t="n">
-        <v>0.285938</v>
+        <v>0.286363</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.179529</v>
+        <v>0.181753</v>
       </c>
       <c r="C47" t="n">
-        <v>0.295178</v>
+        <v>0.297832</v>
       </c>
       <c r="D47" t="n">
-        <v>0.406887</v>
+        <v>0.407265</v>
       </c>
       <c r="E47" t="n">
-        <v>0.161133</v>
+        <v>0.161226</v>
       </c>
       <c r="F47" t="n">
-        <v>0.281689</v>
+        <v>0.281861</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175434</v>
+        <v>0.178298</v>
       </c>
       <c r="C48" t="n">
-        <v>0.292522</v>
+        <v>0.294539</v>
       </c>
       <c r="D48" t="n">
-        <v>0.402983</v>
+        <v>0.402499</v>
       </c>
       <c r="E48" t="n">
-        <v>0.158052</v>
+        <v>0.158308</v>
       </c>
       <c r="F48" t="n">
-        <v>0.279202</v>
+        <v>0.278714</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.17292</v>
+        <v>0.174917</v>
       </c>
       <c r="C49" t="n">
-        <v>0.29033</v>
+        <v>0.292903</v>
       </c>
       <c r="D49" t="n">
-        <v>0.400279</v>
+        <v>0.399861</v>
       </c>
       <c r="E49" t="n">
-        <v>0.156621</v>
+        <v>0.155318</v>
       </c>
       <c r="F49" t="n">
-        <v>0.276471</v>
+        <v>0.276954</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171383</v>
+        <v>0.173444</v>
       </c>
       <c r="C50" t="n">
-        <v>0.289907</v>
+        <v>0.292794</v>
       </c>
       <c r="D50" t="n">
-        <v>0.505548</v>
+        <v>0.5056929999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1539</v>
+        <v>0.153987</v>
       </c>
       <c r="F50" t="n">
-        <v>0.276329</v>
+        <v>0.276807</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.171931</v>
+        <v>0.174582</v>
       </c>
       <c r="C51" t="n">
-        <v>0.291266</v>
+        <v>0.294846</v>
       </c>
       <c r="D51" t="n">
-        <v>0.49207</v>
+        <v>0.493027</v>
       </c>
       <c r="E51" t="n">
-        <v>0.238403</v>
+        <v>0.23994</v>
       </c>
       <c r="F51" t="n">
-        <v>0.359402</v>
+        <v>0.359199</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174693</v>
+        <v>0.177175</v>
       </c>
       <c r="C52" t="n">
-        <v>0.296516</v>
+        <v>0.299827</v>
       </c>
       <c r="D52" t="n">
-        <v>0.483313</v>
+        <v>0.484378</v>
       </c>
       <c r="E52" t="n">
-        <v>0.230268</v>
+        <v>0.230486</v>
       </c>
       <c r="F52" t="n">
-        <v>0.350738</v>
+        <v>0.34992</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240791</v>
+        <v>0.243295</v>
       </c>
       <c r="C53" t="n">
-        <v>0.35508</v>
+        <v>0.357237</v>
       </c>
       <c r="D53" t="n">
-        <v>0.47459</v>
+        <v>0.475105</v>
       </c>
       <c r="E53" t="n">
-        <v>0.220213</v>
+        <v>0.22082</v>
       </c>
       <c r="F53" t="n">
-        <v>0.341967</v>
+        <v>0.342086</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.231963</v>
+        <v>0.234475</v>
       </c>
       <c r="C54" t="n">
-        <v>0.346836</v>
+        <v>0.349216</v>
       </c>
       <c r="D54" t="n">
-        <v>0.466444</v>
+        <v>0.466664</v>
       </c>
       <c r="E54" t="n">
-        <v>0.212101</v>
+        <v>0.21274</v>
       </c>
       <c r="F54" t="n">
-        <v>0.334305</v>
+        <v>0.334485</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.223697</v>
+        <v>0.226557</v>
       </c>
       <c r="C55" t="n">
-        <v>0.341755</v>
+        <v>0.344388</v>
       </c>
       <c r="D55" t="n">
-        <v>0.457695</v>
+        <v>0.458464</v>
       </c>
       <c r="E55" t="n">
-        <v>0.204903</v>
+        <v>0.204681</v>
       </c>
       <c r="F55" t="n">
-        <v>0.329392</v>
+        <v>0.328924</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216114</v>
+        <v>0.218019</v>
       </c>
       <c r="C56" t="n">
-        <v>0.335211</v>
+        <v>0.337309</v>
       </c>
       <c r="D56" t="n">
-        <v>0.45025</v>
+        <v>0.451602</v>
       </c>
       <c r="E56" t="n">
-        <v>0.197123</v>
+        <v>0.19795</v>
       </c>
       <c r="F56" t="n">
-        <v>0.321406</v>
+        <v>0.321828</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208118</v>
+        <v>0.210956</v>
       </c>
       <c r="C57" t="n">
-        <v>0.328269</v>
+        <v>0.330644</v>
       </c>
       <c r="D57" t="n">
-        <v>0.444946</v>
+        <v>0.4446</v>
       </c>
       <c r="E57" t="n">
-        <v>0.19002</v>
+        <v>0.190711</v>
       </c>
       <c r="F57" t="n">
-        <v>0.315342</v>
+        <v>0.314722</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.201866</v>
+        <v>0.203879</v>
       </c>
       <c r="C58" t="n">
-        <v>0.322101</v>
+        <v>0.324663</v>
       </c>
       <c r="D58" t="n">
-        <v>0.439057</v>
+        <v>0.438437</v>
       </c>
       <c r="E58" t="n">
-        <v>0.183256</v>
+        <v>0.184084</v>
       </c>
       <c r="F58" t="n">
-        <v>0.309365</v>
+        <v>0.308976</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.19545</v>
+        <v>0.197408</v>
       </c>
       <c r="C59" t="n">
-        <v>0.31744</v>
+        <v>0.319724</v>
       </c>
       <c r="D59" t="n">
-        <v>0.433642</v>
+        <v>0.433949</v>
       </c>
       <c r="E59" t="n">
-        <v>0.17651</v>
+        <v>0.178331</v>
       </c>
       <c r="F59" t="n">
-        <v>0.303923</v>
+        <v>0.303164</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.189607</v>
+        <v>0.191457</v>
       </c>
       <c r="C60" t="n">
-        <v>0.313421</v>
+        <v>0.313863</v>
       </c>
       <c r="D60" t="n">
-        <v>0.428159</v>
+        <v>0.428631</v>
       </c>
       <c r="E60" t="n">
-        <v>0.172827</v>
+        <v>0.172715</v>
       </c>
       <c r="F60" t="n">
-        <v>0.298876</v>
+        <v>0.298892</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.184509</v>
+        <v>0.186758</v>
       </c>
       <c r="C61" t="n">
-        <v>0.30909</v>
+        <v>0.309982</v>
       </c>
       <c r="D61" t="n">
-        <v>0.423936</v>
+        <v>0.425132</v>
       </c>
       <c r="E61" t="n">
-        <v>0.167667</v>
+        <v>0.168085</v>
       </c>
       <c r="F61" t="n">
-        <v>0.294223</v>
+        <v>0.293666</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.180441</v>
+        <v>0.182294</v>
       </c>
       <c r="C62" t="n">
-        <v>0.305836</v>
+        <v>0.306698</v>
       </c>
       <c r="D62" t="n">
-        <v>0.421212</v>
+        <v>0.421124</v>
       </c>
       <c r="E62" t="n">
-        <v>0.162595</v>
+        <v>0.164047</v>
       </c>
       <c r="F62" t="n">
-        <v>0.29088</v>
+        <v>0.289978</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178135</v>
+        <v>0.178798</v>
       </c>
       <c r="C63" t="n">
-        <v>0.303326</v>
+        <v>0.304779</v>
       </c>
       <c r="D63" t="n">
-        <v>0.417838</v>
+        <v>0.418729</v>
       </c>
       <c r="E63" t="n">
-        <v>0.160716</v>
+        <v>0.161058</v>
       </c>
       <c r="F63" t="n">
-        <v>0.288195</v>
+        <v>0.287636</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175741</v>
+        <v>0.176967</v>
       </c>
       <c r="C64" t="n">
-        <v>0.302225</v>
+        <v>0.30364</v>
       </c>
       <c r="D64" t="n">
-        <v>0.541886</v>
+        <v>0.543642</v>
       </c>
       <c r="E64" t="n">
-        <v>0.159223</v>
+        <v>0.159503</v>
       </c>
       <c r="F64" t="n">
-        <v>0.28745</v>
+        <v>0.287235</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176863</v>
+        <v>0.176521</v>
       </c>
       <c r="C65" t="n">
-        <v>0.303984</v>
+        <v>0.306126</v>
       </c>
       <c r="D65" t="n">
-        <v>0.529923</v>
+        <v>0.532844</v>
       </c>
       <c r="E65" t="n">
-        <v>0.160019</v>
+        <v>0.161638</v>
       </c>
       <c r="F65" t="n">
-        <v>0.288899</v>
+        <v>0.289268</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.17879</v>
+        <v>0.181244</v>
       </c>
       <c r="C66" t="n">
-        <v>0.308783</v>
+        <v>0.309824</v>
       </c>
       <c r="D66" t="n">
-        <v>0.521936</v>
+        <v>0.523593</v>
       </c>
       <c r="E66" t="n">
-        <v>0.241414</v>
+        <v>0.240442</v>
       </c>
       <c r="F66" t="n">
-        <v>0.367055</v>
+        <v>0.36783</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244156</v>
+        <v>0.246332</v>
       </c>
       <c r="C67" t="n">
-        <v>0.37544</v>
+        <v>0.377767</v>
       </c>
       <c r="D67" t="n">
-        <v>0.511956</v>
+        <v>0.513866</v>
       </c>
       <c r="E67" t="n">
-        <v>0.231834</v>
+        <v>0.232023</v>
       </c>
       <c r="F67" t="n">
-        <v>0.359204</v>
+        <v>0.359115</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236607</v>
+        <v>0.237476</v>
       </c>
       <c r="C68" t="n">
-        <v>0.367067</v>
+        <v>0.369482</v>
       </c>
       <c r="D68" t="n">
-        <v>0.503547</v>
+        <v>0.507023</v>
       </c>
       <c r="E68" t="n">
-        <v>0.22428</v>
+        <v>0.223196</v>
       </c>
       <c r="F68" t="n">
-        <v>0.349808</v>
+        <v>0.3513</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.229076</v>
+        <v>0.229199</v>
       </c>
       <c r="C69" t="n">
-        <v>0.36057</v>
+        <v>0.363092</v>
       </c>
       <c r="D69" t="n">
-        <v>0.496027</v>
+        <v>0.499851</v>
       </c>
       <c r="E69" t="n">
-        <v>0.215316</v>
+        <v>0.216413</v>
       </c>
       <c r="F69" t="n">
-        <v>0.345818</v>
+        <v>0.344529</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.220235</v>
+        <v>0.221083</v>
       </c>
       <c r="C70" t="n">
-        <v>0.355606</v>
+        <v>0.356092</v>
       </c>
       <c r="D70" t="n">
-        <v>0.49</v>
+        <v>0.494004</v>
       </c>
       <c r="E70" t="n">
-        <v>0.206034</v>
+        <v>0.208396</v>
       </c>
       <c r="F70" t="n">
-        <v>0.338209</v>
+        <v>0.337511</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213362</v>
+        <v>0.213424</v>
       </c>
       <c r="C71" t="n">
-        <v>0.347761</v>
+        <v>0.349738</v>
       </c>
       <c r="D71" t="n">
-        <v>0.486959</v>
+        <v>0.489308</v>
       </c>
       <c r="E71" t="n">
-        <v>0.198799</v>
+        <v>0.200545</v>
       </c>
       <c r="F71" t="n">
-        <v>0.33107</v>
+        <v>0.331023</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.20628</v>
+        <v>0.206205</v>
       </c>
       <c r="C72" t="n">
-        <v>0.341365</v>
+        <v>0.342447</v>
       </c>
       <c r="D72" t="n">
-        <v>0.481088</v>
+        <v>0.484408</v>
       </c>
       <c r="E72" t="n">
-        <v>0.192296</v>
+        <v>0.193858</v>
       </c>
       <c r="F72" t="n">
-        <v>0.32443</v>
+        <v>0.324881</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199978</v>
+        <v>0.200588</v>
       </c>
       <c r="C73" t="n">
-        <v>0.335821</v>
+        <v>0.337748</v>
       </c>
       <c r="D73" t="n">
-        <v>0.478733</v>
+        <v>0.480349</v>
       </c>
       <c r="E73" t="n">
-        <v>0.186612</v>
+        <v>0.187263</v>
       </c>
       <c r="F73" t="n">
-        <v>0.318196</v>
+        <v>0.31864</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193596</v>
+        <v>0.19574</v>
       </c>
       <c r="C74" t="n">
-        <v>0.330076</v>
+        <v>0.331644</v>
       </c>
       <c r="D74" t="n">
-        <v>0.493176</v>
+        <v>0.494958</v>
       </c>
       <c r="E74" t="n">
-        <v>0.181145</v>
+        <v>0.181317</v>
       </c>
       <c r="F74" t="n">
-        <v>0.313249</v>
+        <v>0.31367</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18943</v>
+        <v>0.189755</v>
       </c>
       <c r="C75" t="n">
-        <v>0.325361</v>
+        <v>0.328319</v>
       </c>
       <c r="D75" t="n">
-        <v>0.488084</v>
+        <v>0.489534</v>
       </c>
       <c r="E75" t="n">
-        <v>0.176191</v>
+        <v>0.176207</v>
       </c>
       <c r="F75" t="n">
-        <v>0.308128</v>
+        <v>0.308676</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185651</v>
+        <v>0.185769</v>
       </c>
       <c r="C76" t="n">
-        <v>0.322423</v>
+        <v>0.324047</v>
       </c>
       <c r="D76" t="n">
-        <v>0.48467</v>
+        <v>0.484954</v>
       </c>
       <c r="E76" t="n">
-        <v>0.171444</v>
+        <v>0.171477</v>
       </c>
       <c r="F76" t="n">
-        <v>0.305191</v>
+        <v>0.304614</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182254</v>
+        <v>0.182578</v>
       </c>
       <c r="C77" t="n">
-        <v>0.319642</v>
+        <v>0.322237</v>
       </c>
       <c r="D77" t="n">
-        <v>0.482966</v>
+        <v>0.483368</v>
       </c>
       <c r="E77" t="n">
-        <v>0.168291</v>
+        <v>0.167909</v>
       </c>
       <c r="F77" t="n">
-        <v>0.302266</v>
+        <v>0.301755</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179953</v>
+        <v>0.179671</v>
       </c>
       <c r="C78" t="n">
-        <v>0.318991</v>
+        <v>0.323185</v>
       </c>
       <c r="D78" t="n">
-        <v>0.659111</v>
+        <v>0.661301</v>
       </c>
       <c r="E78" t="n">
-        <v>0.167104</v>
+        <v>0.165685</v>
       </c>
       <c r="F78" t="n">
-        <v>0.302818</v>
+        <v>0.302462</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179339</v>
+        <v>0.180135</v>
       </c>
       <c r="C79" t="n">
-        <v>0.320828</v>
+        <v>0.323085</v>
       </c>
       <c r="D79" t="n">
-        <v>0.650245</v>
+        <v>0.650971</v>
       </c>
       <c r="E79" t="n">
-        <v>0.165835</v>
+        <v>0.165878</v>
       </c>
       <c r="F79" t="n">
-        <v>0.303917</v>
+        <v>0.303198</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180932</v>
+        <v>0.182165</v>
       </c>
       <c r="C80" t="n">
-        <v>0.323971</v>
+        <v>0.326504</v>
       </c>
       <c r="D80" t="n">
-        <v>0.640606</v>
+        <v>0.639614</v>
       </c>
       <c r="E80" t="n">
-        <v>0.23906</v>
+        <v>0.239427</v>
       </c>
       <c r="F80" t="n">
-        <v>0.384555</v>
+        <v>0.384123</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257674</v>
+        <v>0.258555</v>
       </c>
       <c r="C81" t="n">
-        <v>0.395851</v>
+        <v>0.396274</v>
       </c>
       <c r="D81" t="n">
-        <v>0.632298</v>
+        <v>0.6335150000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>0.229806</v>
+        <v>0.230985</v>
       </c>
       <c r="F81" t="n">
-        <v>0.378541</v>
+        <v>0.378266</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249919</v>
+        <v>0.251443</v>
       </c>
       <c r="C82" t="n">
-        <v>0.390903</v>
+        <v>0.392758</v>
       </c>
       <c r="D82" t="n">
-        <v>0.625945</v>
+        <v>0.627363</v>
       </c>
       <c r="E82" t="n">
-        <v>0.222141</v>
+        <v>0.22291</v>
       </c>
       <c r="F82" t="n">
-        <v>0.371934</v>
+        <v>0.371988</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242502</v>
+        <v>0.242885</v>
       </c>
       <c r="C83" t="n">
-        <v>0.38477</v>
+        <v>0.386589</v>
       </c>
       <c r="D83" t="n">
-        <v>0.620163</v>
+        <v>0.6206700000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>0.214236</v>
+        <v>0.214789</v>
       </c>
       <c r="F83" t="n">
-        <v>0.366358</v>
+        <v>0.366174</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234847</v>
+        <v>0.235337</v>
       </c>
       <c r="C84" t="n">
-        <v>0.383075</v>
+        <v>0.384256</v>
       </c>
       <c r="D84" t="n">
-        <v>0.617762</v>
+        <v>0.616623</v>
       </c>
       <c r="E84" t="n">
-        <v>0.206945</v>
+        <v>0.207505</v>
       </c>
       <c r="F84" t="n">
-        <v>0.361138</v>
+        <v>0.360623</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227078</v>
+        <v>0.22807</v>
       </c>
       <c r="C85" t="n">
-        <v>0.37789</v>
+        <v>0.378936</v>
       </c>
       <c r="D85" t="n">
-        <v>0.614889</v>
+        <v>0.615769</v>
       </c>
       <c r="E85" t="n">
-        <v>0.19984</v>
+        <v>0.200387</v>
       </c>
       <c r="F85" t="n">
-        <v>0.354441</v>
+        <v>0.354166</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220415</v>
+        <v>0.221383</v>
       </c>
       <c r="C86" t="n">
-        <v>0.37263</v>
+        <v>0.372666</v>
       </c>
       <c r="D86" t="n">
-        <v>0.61343</v>
+        <v>0.6136779999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>0.193374</v>
+        <v>0.194224</v>
       </c>
       <c r="F86" t="n">
-        <v>0.348806</v>
+        <v>0.348792</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213772</v>
+        <v>0.214595</v>
       </c>
       <c r="C87" t="n">
-        <v>0.36688</v>
+        <v>0.367471</v>
       </c>
       <c r="D87" t="n">
-        <v>0.61383</v>
+        <v>0.61297</v>
       </c>
       <c r="E87" t="n">
-        <v>0.187007</v>
+        <v>0.187854</v>
       </c>
       <c r="F87" t="n">
-        <v>0.34272</v>
+        <v>0.342642</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20799</v>
+        <v>0.208016</v>
       </c>
       <c r="C88" t="n">
-        <v>0.362979</v>
+        <v>0.36407</v>
       </c>
       <c r="D88" t="n">
-        <v>0.615906</v>
+        <v>0.615876</v>
       </c>
       <c r="E88" t="n">
-        <v>0.181514</v>
+        <v>0.181877</v>
       </c>
       <c r="F88" t="n">
-        <v>0.338354</v>
+        <v>0.338375</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201983</v>
+        <v>0.202589</v>
       </c>
       <c r="C89" t="n">
-        <v>0.358349</v>
+        <v>0.358627</v>
       </c>
       <c r="D89" t="n">
-        <v>0.629456</v>
+        <v>0.6299169999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>0.17626</v>
+        <v>0.176505</v>
       </c>
       <c r="F89" t="n">
-        <v>0.333755</v>
+        <v>0.333778</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197125</v>
+        <v>0.197791</v>
       </c>
       <c r="C90" t="n">
-        <v>0.353865</v>
+        <v>0.355375</v>
       </c>
       <c r="D90" t="n">
-        <v>0.632947</v>
+        <v>0.632574</v>
       </c>
       <c r="E90" t="n">
-        <v>0.171888</v>
+        <v>0.172368</v>
       </c>
       <c r="F90" t="n">
-        <v>0.329827</v>
+        <v>0.329317</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193023</v>
+        <v>0.193535</v>
       </c>
       <c r="C91" t="n">
-        <v>0.35038</v>
+        <v>0.351771</v>
       </c>
       <c r="D91" t="n">
-        <v>0.639286</v>
+        <v>0.63905</v>
       </c>
       <c r="E91" t="n">
-        <v>0.168363</v>
+        <v>0.168993</v>
       </c>
       <c r="F91" t="n">
-        <v>0.326316</v>
+        <v>0.326053</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190249</v>
+        <v>0.190645</v>
       </c>
       <c r="C92" t="n">
-        <v>0.350364</v>
+        <v>0.351208</v>
       </c>
       <c r="D92" t="n">
-        <v>0.849123</v>
+        <v>0.8484390000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>0.166549</v>
+        <v>0.167159</v>
       </c>
       <c r="F92" t="n">
-        <v>0.325516</v>
+        <v>0.325439</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188736</v>
+        <v>0.189681</v>
       </c>
       <c r="C93" t="n">
-        <v>0.352181</v>
+        <v>0.351832</v>
       </c>
       <c r="D93" t="n">
-        <v>0.844893</v>
+        <v>0.844711</v>
       </c>
       <c r="E93" t="n">
-        <v>0.16588</v>
+        <v>0.166159</v>
       </c>
       <c r="F93" t="n">
-        <v>0.32604</v>
+        <v>0.325828</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189943</v>
+        <v>0.190808</v>
       </c>
       <c r="C94" t="n">
-        <v>0.353196</v>
+        <v>0.354183</v>
       </c>
       <c r="D94" t="n">
-        <v>0.840924</v>
+        <v>0.841777</v>
       </c>
       <c r="E94" t="n">
-        <v>0.250706</v>
+        <v>0.252332</v>
       </c>
       <c r="F94" t="n">
-        <v>0.453035</v>
+        <v>0.450343</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.272273</v>
+        <v>0.27182</v>
       </c>
       <c r="C95" t="n">
-        <v>0.469273</v>
+        <v>0.468213</v>
       </c>
       <c r="D95" t="n">
-        <v>0.836078</v>
+        <v>0.835663</v>
       </c>
       <c r="E95" t="n">
-        <v>0.243669</v>
+        <v>0.244296</v>
       </c>
       <c r="F95" t="n">
-        <v>0.451812</v>
+        <v>0.449279</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.26586</v>
+        <v>0.26559</v>
       </c>
       <c r="C96" t="n">
-        <v>0.469442</v>
+        <v>0.468114</v>
       </c>
       <c r="D96" t="n">
-        <v>0.832489</v>
+        <v>0.833492</v>
       </c>
       <c r="E96" t="n">
-        <v>0.235443</v>
+        <v>0.236768</v>
       </c>
       <c r="F96" t="n">
-        <v>0.446894</v>
+        <v>0.445353</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.259432</v>
+        <v>0.258833</v>
       </c>
       <c r="C97" t="n">
-        <v>0.465798</v>
+        <v>0.464812</v>
       </c>
       <c r="D97" t="n">
-        <v>0.837816</v>
+        <v>0.83775</v>
       </c>
       <c r="E97" t="n">
-        <v>0.228185</v>
+        <v>0.229483</v>
       </c>
       <c r="F97" t="n">
-        <v>0.441679</v>
+        <v>0.44036</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252341</v>
+        <v>0.251895</v>
       </c>
       <c r="C98" t="n">
-        <v>0.461353</v>
+        <v>0.460324</v>
       </c>
       <c r="D98" t="n">
-        <v>0.836919</v>
+        <v>0.836533</v>
       </c>
       <c r="E98" t="n">
-        <v>0.220516</v>
+        <v>0.221288</v>
       </c>
       <c r="F98" t="n">
-        <v>0.437179</v>
+        <v>0.435659</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246086</v>
+        <v>0.245762</v>
       </c>
       <c r="C99" t="n">
-        <v>0.455185</v>
+        <v>0.454693</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8355050000000001</v>
+        <v>0.83558</v>
       </c>
       <c r="E99" t="n">
-        <v>0.213797</v>
+        <v>0.214217</v>
       </c>
       <c r="F99" t="n">
-        <v>0.431278</v>
+        <v>0.429811</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.24015</v>
+        <v>0.23948</v>
       </c>
       <c r="C100" t="n">
-        <v>0.451269</v>
+        <v>0.450361</v>
       </c>
       <c r="D100" t="n">
-        <v>0.837201</v>
+        <v>0.837385</v>
       </c>
       <c r="E100" t="n">
-        <v>0.206906</v>
+        <v>0.207563</v>
       </c>
       <c r="F100" t="n">
-        <v>0.427644</v>
+        <v>0.425708</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.234233</v>
+        <v>0.233812</v>
       </c>
       <c r="C101" t="n">
-        <v>0.446606</v>
+        <v>0.446346</v>
       </c>
       <c r="D101" t="n">
-        <v>0.840208</v>
+        <v>0.839244</v>
       </c>
       <c r="E101" t="n">
-        <v>0.200936</v>
+        <v>0.201566</v>
       </c>
       <c r="F101" t="n">
-        <v>0.422234</v>
+        <v>0.420932</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228821</v>
+        <v>0.228312</v>
       </c>
       <c r="C102" t="n">
-        <v>0.442881</v>
+        <v>0.44362</v>
       </c>
       <c r="D102" t="n">
-        <v>0.844274</v>
+        <v>0.84446</v>
       </c>
       <c r="E102" t="n">
-        <v>0.195247</v>
+        <v>0.1956</v>
       </c>
       <c r="F102" t="n">
-        <v>0.417913</v>
+        <v>0.416826</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223578</v>
+        <v>0.223378</v>
       </c>
       <c r="C103" t="n">
-        <v>0.439669</v>
+        <v>0.439155</v>
       </c>
       <c r="D103" t="n">
-        <v>0.854599</v>
+        <v>0.853974</v>
       </c>
       <c r="E103" t="n">
-        <v>0.190128</v>
+        <v>0.190837</v>
       </c>
       <c r="F103" t="n">
-        <v>0.415003</v>
+        <v>0.413181</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218754</v>
+        <v>0.218961</v>
       </c>
       <c r="C104" t="n">
-        <v>0.43834</v>
+        <v>0.437612</v>
       </c>
       <c r="D104" t="n">
-        <v>0.859089</v>
+        <v>0.861121</v>
       </c>
       <c r="E104" t="n">
-        <v>0.185407</v>
+        <v>0.186693</v>
       </c>
       <c r="F104" t="n">
-        <v>0.411157</v>
+        <v>0.410337</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214533</v>
+        <v>0.214714</v>
       </c>
       <c r="C105" t="n">
-        <v>0.43588</v>
+        <v>0.43579</v>
       </c>
       <c r="D105" t="n">
-        <v>0.866752</v>
+        <v>0.867117</v>
       </c>
       <c r="E105" t="n">
-        <v>0.182082</v>
+        <v>0.182511</v>
       </c>
       <c r="F105" t="n">
-        <v>0.409646</v>
+        <v>0.408375</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211732</v>
+        <v>0.211557</v>
       </c>
       <c r="C106" t="n">
         <v>0.435558</v>
       </c>
       <c r="D106" t="n">
-        <v>0.874956</v>
+        <v>0.877623</v>
       </c>
       <c r="E106" t="n">
-        <v>0.178969</v>
+        <v>0.180122</v>
       </c>
       <c r="F106" t="n">
-        <v>0.407345</v>
+        <v>0.403544</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209692</v>
+        <v>0.209132</v>
       </c>
       <c r="C107" t="n">
-        <v>0.43601</v>
+        <v>0.432457</v>
       </c>
       <c r="D107" t="n">
-        <v>1.11923</v>
+        <v>1.1208</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1782</v>
+        <v>0.178732</v>
       </c>
       <c r="F107" t="n">
-        <v>0.407377</v>
+        <v>0.406315</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2094</v>
+        <v>0.209406</v>
       </c>
       <c r="C108" t="n">
-        <v>0.439104</v>
+        <v>0.439558</v>
       </c>
       <c r="D108" t="n">
-        <v>1.10995</v>
+        <v>1.11308</v>
       </c>
       <c r="E108" t="n">
-        <v>0.267249</v>
+        <v>0.268383</v>
       </c>
       <c r="F108" t="n">
-        <v>0.563795</v>
+        <v>0.565879</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211671</v>
+        <v>0.211415</v>
       </c>
       <c r="C109" t="n">
-        <v>0.443594</v>
+        <v>0.443664</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10171</v>
+        <v>1.10517</v>
       </c>
       <c r="E109" t="n">
-        <v>0.260975</v>
+        <v>0.261942</v>
       </c>
       <c r="F109" t="n">
-        <v>0.561366</v>
+        <v>0.564096</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285119</v>
+        <v>0.284925</v>
       </c>
       <c r="C110" t="n">
-        <v>0.581142</v>
+        <v>0.583099</v>
       </c>
       <c r="D110" t="n">
-        <v>1.09515</v>
+        <v>1.09632</v>
       </c>
       <c r="E110" t="n">
-        <v>0.253489</v>
+        <v>0.254394</v>
       </c>
       <c r="F110" t="n">
-        <v>0.556712</v>
+        <v>0.557288</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278039</v>
+        <v>0.278532</v>
       </c>
       <c r="C111" t="n">
-        <v>0.576304</v>
+        <v>0.576824</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09366</v>
+        <v>1.09328</v>
       </c>
       <c r="E111" t="n">
-        <v>0.246155</v>
+        <v>0.247309</v>
       </c>
       <c r="F111" t="n">
-        <v>0.550457</v>
+        <v>0.552156</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272521</v>
+        <v>0.272165</v>
       </c>
       <c r="C112" t="n">
-        <v>0.569529</v>
+        <v>0.571178</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09285</v>
+        <v>1.08858</v>
       </c>
       <c r="E112" t="n">
-        <v>0.239483</v>
+        <v>0.240029</v>
       </c>
       <c r="F112" t="n">
-        <v>0.545709</v>
+        <v>0.546395</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266286</v>
+        <v>0.266187</v>
       </c>
       <c r="C113" t="n">
-        <v>0.565812</v>
+        <v>0.566211</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08878</v>
+        <v>1.08616</v>
       </c>
       <c r="E113" t="n">
-        <v>0.232651</v>
+        <v>0.233484</v>
       </c>
       <c r="F113" t="n">
-        <v>0.541301</v>
+        <v>0.541984</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260934</v>
+        <v>0.260801</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5608030000000001</v>
+        <v>0.561659</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08832</v>
+        <v>1.08992</v>
       </c>
       <c r="E114" t="n">
-        <v>0.226522</v>
+        <v>0.227499</v>
       </c>
       <c r="F114" t="n">
-        <v>0.536086</v>
+        <v>0.537555</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255668</v>
+        <v>0.255293</v>
       </c>
       <c r="C115" t="n">
-        <v>0.557746</v>
+        <v>0.557921</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09038</v>
+        <v>1.09117</v>
       </c>
       <c r="E115" t="n">
-        <v>0.220989</v>
+        <v>0.222118</v>
       </c>
       <c r="F115" t="n">
-        <v>0.531849</v>
+        <v>0.533376</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250489</v>
+        <v>0.250695</v>
       </c>
       <c r="C116" t="n">
-        <v>0.554223</v>
+        <v>0.554315</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09123</v>
+        <v>1.09161</v>
       </c>
       <c r="E116" t="n">
-        <v>0.215326</v>
+        <v>0.216572</v>
       </c>
       <c r="F116" t="n">
-        <v>0.518304</v>
+        <v>0.529771</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.24636</v>
+        <v>0.246093</v>
       </c>
       <c r="C117" t="n">
-        <v>0.54158</v>
+        <v>0.550903</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09772</v>
+        <v>1.09507</v>
       </c>
       <c r="E117" t="n">
-        <v>0.21091</v>
+        <v>0.211684</v>
       </c>
       <c r="F117" t="n">
-        <v>0.527405</v>
+        <v>0.526264</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241681</v>
+        <v>0.24212</v>
       </c>
       <c r="C118" t="n">
-        <v>0.548597</v>
+        <v>0.548679</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1005</v>
+        <v>1.10293</v>
       </c>
       <c r="E118" t="n">
-        <v>0.206452</v>
+        <v>0.20701</v>
       </c>
       <c r="F118" t="n">
-        <v>0.523819</v>
+        <v>0.523747</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238081</v>
+        <v>0.237956</v>
       </c>
       <c r="C119" t="n">
-        <v>0.558541</v>
+        <v>0.546922</v>
       </c>
       <c r="D119" t="n">
-        <v>1.10764</v>
+        <v>1.10807</v>
       </c>
       <c r="E119" t="n">
-        <v>0.202853</v>
+        <v>0.203355</v>
       </c>
       <c r="F119" t="n">
-        <v>0.521326</v>
+        <v>0.522118</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234588</v>
+        <v>0.234794</v>
       </c>
       <c r="C120" t="n">
-        <v>0.547194</v>
+        <v>0.546414</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11481</v>
+        <v>1.11272</v>
       </c>
       <c r="E120" t="n">
-        <v>0.200171</v>
+        <v>0.200631</v>
       </c>
       <c r="F120" t="n">
-        <v>0.520861</v>
+        <v>0.519896</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232633</v>
+        <v>0.232853</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5479579999999999</v>
+        <v>0.547014</v>
       </c>
       <c r="D121" t="n">
-        <v>1.37862</v>
+        <v>1.37941</v>
       </c>
       <c r="E121" t="n">
-        <v>0.198628</v>
+        <v>0.199259</v>
       </c>
       <c r="F121" t="n">
-        <v>0.520987</v>
+        <v>0.5207619999999999</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231653</v>
+        <v>0.232172</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5499270000000001</v>
+        <v>0.549113</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36308</v>
+        <v>1.36354</v>
       </c>
       <c r="E122" t="n">
-        <v>0.199086</v>
+        <v>0.199529</v>
       </c>
       <c r="F122" t="n">
-        <v>0.522385</v>
+        <v>0.521954</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232908</v>
+        <v>0.232957</v>
       </c>
       <c r="C123" t="n">
-        <v>0.554737</v>
+        <v>0.55313</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34978</v>
+        <v>1.34888</v>
       </c>
       <c r="E123" t="n">
-        <v>0.283805</v>
+        <v>0.284419</v>
       </c>
       <c r="F123" t="n">
-        <v>0.689987</v>
+        <v>0.689673</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.312984</v>
+        <v>0.31723</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7162539999999999</v>
+        <v>0.713662</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33891</v>
+        <v>1.33868</v>
       </c>
       <c r="E124" t="n">
-        <v>0.277859</v>
+        <v>0.278311</v>
       </c>
       <c r="F124" t="n">
-        <v>0.685532</v>
+        <v>0.686754</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.307251</v>
+        <v>0.310932</v>
       </c>
       <c r="C125" t="n">
-        <v>0.710665</v>
+        <v>0.7095050000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32739</v>
+        <v>1.32807</v>
       </c>
       <c r="E125" t="n">
-        <v>0.272374</v>
+        <v>0.272605</v>
       </c>
       <c r="F125" t="n">
-        <v>0.680151</v>
+        <v>0.680181</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.302388</v>
+        <v>0.305457</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7064049999999999</v>
+        <v>0.705253</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31802</v>
+        <v>1.31762</v>
       </c>
       <c r="E126" t="n">
-        <v>0.266917</v>
+        <v>0.267367</v>
       </c>
       <c r="F126" t="n">
-        <v>0.677449</v>
+        <v>0.677284</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.297801</v>
+        <v>0.29987</v>
       </c>
       <c r="C127" t="n">
-        <v>0.703331</v>
+        <v>0.701563</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31012</v>
+        <v>1.31195</v>
       </c>
       <c r="E127" t="n">
-        <v>0.26239</v>
+        <v>0.262557</v>
       </c>
       <c r="F127" t="n">
-        <v>0.672759</v>
+        <v>0.673791</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.293145</v>
+        <v>0.295226</v>
       </c>
       <c r="C128" t="n">
-        <v>0.698427</v>
+        <v>0.699458</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30572</v>
+        <v>1.30702</v>
       </c>
       <c r="E128" t="n">
-        <v>0.257452</v>
+        <v>0.25768</v>
       </c>
       <c r="F128" t="n">
-        <v>0.670951</v>
+        <v>0.671632</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.288753</v>
+        <v>0.290702</v>
       </c>
       <c r="C129" t="n">
-        <v>0.696515</v>
+        <v>0.69524</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3033</v>
+        <v>1.30287</v>
       </c>
       <c r="E129" t="n">
-        <v>0.253344</v>
+        <v>0.253763</v>
       </c>
       <c r="F129" t="n">
-        <v>0.66797</v>
+        <v>0.669486</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.28487</v>
+        <v>0.286519</v>
       </c>
       <c r="C130" t="n">
-        <v>0.69276</v>
+        <v>0.692641</v>
       </c>
       <c r="D130" t="n">
-        <v>1.29976</v>
+        <v>1.30005</v>
       </c>
       <c r="E130" t="n">
-        <v>0.249249</v>
+        <v>0.249382</v>
       </c>
       <c r="F130" t="n">
-        <v>0.664393</v>
+        <v>0.66659</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281633</v>
+        <v>0.281793</v>
       </c>
       <c r="C131" t="n">
-        <v>0.691319</v>
+        <v>0.690786</v>
       </c>
       <c r="D131" t="n">
-        <v>1.29774</v>
+        <v>1.2971</v>
       </c>
       <c r="E131" t="n">
-        <v>0.245771</v>
+        <v>0.245604</v>
       </c>
       <c r="F131" t="n">
-        <v>0.663905</v>
+        <v>0.665013</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278215</v>
+        <v>0.278631</v>
       </c>
       <c r="C132" t="n">
-        <v>0.689784</v>
+        <v>0.689163</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30073</v>
+        <v>1.29852</v>
       </c>
       <c r="E132" t="n">
-        <v>0.242371</v>
+        <v>0.242051</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6614719999999999</v>
+        <v>0.662264</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275632</v>
+        <v>0.275545</v>
       </c>
       <c r="C133" t="n">
-        <v>0.688724</v>
+        <v>0.688298</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30159</v>
+        <v>1.30133</v>
       </c>
       <c r="E133" t="n">
-        <v>0.239522</v>
+        <v>0.239127</v>
       </c>
       <c r="F133" t="n">
-        <v>0.660347</v>
+        <v>0.661564</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.270723</v>
+        <v>0.272596</v>
       </c>
       <c r="C134" t="n">
-        <v>0.690043</v>
+        <v>0.688808</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30427</v>
+        <v>1.29826</v>
       </c>
       <c r="E134" t="n">
-        <v>0.237036</v>
+        <v>0.237541</v>
       </c>
       <c r="F134" t="n">
-        <v>0.661708</v>
+        <v>0.660743</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.269423</v>
+        <v>0.270448</v>
       </c>
       <c r="C135" t="n">
-        <v>0.691535</v>
+        <v>0.690259</v>
       </c>
       <c r="D135" t="n">
-        <v>1.57823</v>
+        <v>1.57658</v>
       </c>
       <c r="E135" t="n">
-        <v>0.235718</v>
+        <v>0.235648</v>
       </c>
       <c r="F135" t="n">
-        <v>0.660505</v>
+        <v>0.662131</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.269114</v>
+        <v>0.269837</v>
       </c>
       <c r="C136" t="n">
-        <v>0.695148</v>
+        <v>0.694539</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55698</v>
+        <v>1.55603</v>
       </c>
       <c r="E136" t="n">
-        <v>0.235863</v>
+        <v>0.235651</v>
       </c>
       <c r="F136" t="n">
-        <v>0.66323</v>
+        <v>0.664837</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.269732</v>
+        <v>0.271325</v>
       </c>
       <c r="C137" t="n">
-        <v>0.69916</v>
+        <v>0.699403</v>
       </c>
       <c r="D137" t="n">
-        <v>1.536</v>
+        <v>1.53623</v>
       </c>
       <c r="E137" t="n">
-        <v>0.332809</v>
+        <v>0.333393</v>
       </c>
       <c r="F137" t="n">
-        <v>0.843567</v>
+        <v>0.845411</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.369074</v>
+        <v>0.361008</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8790480000000001</v>
+        <v>0.877339</v>
       </c>
       <c r="D138" t="n">
-        <v>1.51755</v>
+        <v>1.51855</v>
       </c>
       <c r="E138" t="n">
-        <v>0.327854</v>
+        <v>0.327835</v>
       </c>
       <c r="F138" t="n">
-        <v>0.843086</v>
+        <v>0.843519</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.363431</v>
+        <v>0.355572</v>
       </c>
       <c r="C139" t="n">
-        <v>0.863453</v>
+        <v>0.877394</v>
       </c>
       <c r="D139" t="n">
-        <v>1.50348</v>
+        <v>1.50141</v>
       </c>
       <c r="E139" t="n">
-        <v>0.32337</v>
+        <v>0.32327</v>
       </c>
       <c r="F139" t="n">
-        <v>0.84259</v>
+        <v>0.842873</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.357277</v>
+        <v>0.350889</v>
       </c>
       <c r="C140" t="n">
-        <v>0.876094</v>
+        <v>0.877534</v>
       </c>
       <c r="D140" t="n">
-        <v>1.49101</v>
+        <v>1.48693</v>
       </c>
       <c r="E140" t="n">
-        <v>0.318405</v>
+        <v>0.318795</v>
       </c>
       <c r="F140" t="n">
-        <v>0.841367</v>
+        <v>0.842413</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.352031</v>
+        <v>0.346343</v>
       </c>
       <c r="C141" t="n">
-        <v>0.877054</v>
+        <v>0.876726</v>
       </c>
       <c r="D141" t="n">
-        <v>1.47535</v>
+        <v>1.47602</v>
       </c>
       <c r="E141" t="n">
-        <v>0.313717</v>
+        <v>0.314148</v>
       </c>
       <c r="F141" t="n">
-        <v>0.841866</v>
+        <v>0.841231</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.346519</v>
+        <v>0.341079</v>
       </c>
       <c r="C142" t="n">
-        <v>0.877755</v>
+        <v>0.876935</v>
       </c>
       <c r="D142" t="n">
-        <v>1.46466</v>
+        <v>1.46178</v>
       </c>
       <c r="E142" t="n">
-        <v>0.309698</v>
+        <v>0.310084</v>
       </c>
       <c r="F142" t="n">
-        <v>0.840315</v>
+        <v>0.840746</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.342688</v>
+        <v>0.337161</v>
       </c>
       <c r="C143" t="n">
-        <v>0.878179</v>
+        <v>0.877512</v>
       </c>
       <c r="D143" t="n">
-        <v>1.45587</v>
+        <v>1.45626</v>
       </c>
       <c r="E143" t="n">
-        <v>0.306292</v>
+        <v>0.306044</v>
       </c>
       <c r="F143" t="n">
-        <v>0.841163</v>
+        <v>0.839499</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.148038</v>
+        <v>0.166748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.28962</v>
+        <v>0.288856</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34482</v>
+        <v>0.343351</v>
       </c>
       <c r="E2" t="n">
-        <v>0.143953</v>
+        <v>0.139058</v>
       </c>
       <c r="F2" t="n">
-        <v>0.279074</v>
+        <v>0.271547</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.160923</v>
+        <v>0.165152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.283645</v>
+        <v>0.286652</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3447</v>
+        <v>0.341661</v>
       </c>
       <c r="E3" t="n">
-        <v>0.13266</v>
+        <v>0.13841</v>
       </c>
       <c r="F3" t="n">
-        <v>0.274319</v>
+        <v>0.276985</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.155991</v>
+        <v>0.156652</v>
       </c>
       <c r="C4" t="n">
-        <v>0.281827</v>
+        <v>0.281935</v>
       </c>
       <c r="D4" t="n">
-        <v>0.338778</v>
+        <v>0.338437</v>
       </c>
       <c r="E4" t="n">
-        <v>0.137144</v>
+        <v>0.128361</v>
       </c>
       <c r="F4" t="n">
-        <v>0.266465</v>
+        <v>0.266297</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.153288</v>
+        <v>0.156183</v>
       </c>
       <c r="C5" t="n">
-        <v>0.27833</v>
+        <v>0.268189</v>
       </c>
       <c r="D5" t="n">
-        <v>0.339775</v>
+        <v>0.337543</v>
       </c>
       <c r="E5" t="n">
-        <v>0.129692</v>
+        <v>0.135446</v>
       </c>
       <c r="F5" t="n">
-        <v>0.264491</v>
+        <v>0.268201</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.152993</v>
+        <v>0.15205</v>
       </c>
       <c r="C6" t="n">
-        <v>0.273157</v>
+        <v>0.266803</v>
       </c>
       <c r="D6" t="n">
-        <v>0.336456</v>
+        <v>0.335278</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1292</v>
+        <v>0.135592</v>
       </c>
       <c r="F6" t="n">
-        <v>0.263598</v>
+        <v>0.265678</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.149823</v>
+        <v>0.154163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.273133</v>
+        <v>0.272936</v>
       </c>
       <c r="D7" t="n">
-        <v>0.43758</v>
+        <v>0.442867</v>
       </c>
       <c r="E7" t="n">
-        <v>0.122695</v>
+        <v>0.130531</v>
       </c>
       <c r="F7" t="n">
-        <v>0.260529</v>
+        <v>0.259247</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.152845</v>
+        <v>0.153786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.273015</v>
+        <v>0.275074</v>
       </c>
       <c r="D8" t="n">
-        <v>0.434437</v>
+        <v>0.439627</v>
       </c>
       <c r="E8" t="n">
-        <v>0.129205</v>
+        <v>0.125407</v>
       </c>
       <c r="F8" t="n">
-        <v>0.257525</v>
+        <v>0.264286</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.154998</v>
+        <v>0.154856</v>
       </c>
       <c r="C9" t="n">
-        <v>0.279761</v>
+        <v>0.275565</v>
       </c>
       <c r="D9" t="n">
-        <v>0.421247</v>
+        <v>0.429547</v>
       </c>
       <c r="E9" t="n">
-        <v>0.189235</v>
+        <v>0.192473</v>
       </c>
       <c r="F9" t="n">
-        <v>0.325942</v>
+        <v>0.33093</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.205354</v>
+        <v>0.210039</v>
       </c>
       <c r="C10" t="n">
-        <v>0.336301</v>
+        <v>0.328477</v>
       </c>
       <c r="D10" t="n">
-        <v>0.425762</v>
+        <v>0.425352</v>
       </c>
       <c r="E10" t="n">
-        <v>0.179121</v>
+        <v>0.188665</v>
       </c>
       <c r="F10" t="n">
-        <v>0.322013</v>
+        <v>0.321924</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.201385</v>
+        <v>0.200995</v>
       </c>
       <c r="C11" t="n">
-        <v>0.328321</v>
+        <v>0.322162</v>
       </c>
       <c r="D11" t="n">
-        <v>0.410568</v>
+        <v>0.418309</v>
       </c>
       <c r="E11" t="n">
-        <v>0.183188</v>
+        <v>0.180671</v>
       </c>
       <c r="F11" t="n">
-        <v>0.308223</v>
+        <v>0.314322</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.199024</v>
+        <v>0.185823</v>
       </c>
       <c r="C12" t="n">
-        <v>0.312706</v>
+        <v>0.312243</v>
       </c>
       <c r="D12" t="n">
-        <v>0.404727</v>
+        <v>0.405124</v>
       </c>
       <c r="E12" t="n">
-        <v>0.168034</v>
+        <v>0.176656</v>
       </c>
       <c r="F12" t="n">
-        <v>0.303798</v>
+        <v>0.305166</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.183659</v>
+        <v>0.192993</v>
       </c>
       <c r="C13" t="n">
-        <v>0.309293</v>
+        <v>0.312293</v>
       </c>
       <c r="D13" t="n">
-        <v>0.403785</v>
+        <v>0.406026</v>
       </c>
       <c r="E13" t="n">
-        <v>0.170511</v>
+        <v>0.165357</v>
       </c>
       <c r="F13" t="n">
-        <v>0.300232</v>
+        <v>0.293357</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.184101</v>
+        <v>0.191122</v>
       </c>
       <c r="C14" t="n">
-        <v>0.301543</v>
+        <v>0.296635</v>
       </c>
       <c r="D14" t="n">
-        <v>0.395247</v>
+        <v>0.395154</v>
       </c>
       <c r="E14" t="n">
-        <v>0.166038</v>
+        <v>0.154153</v>
       </c>
       <c r="F14" t="n">
-        <v>0.295755</v>
+        <v>0.289943</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.171691</v>
+        <v>0.165917</v>
       </c>
       <c r="C15" t="n">
-        <v>0.297862</v>
+        <v>0.29505</v>
       </c>
       <c r="D15" t="n">
-        <v>0.390619</v>
+        <v>0.395881</v>
       </c>
       <c r="E15" t="n">
-        <v>0.15712</v>
+        <v>0.159589</v>
       </c>
       <c r="F15" t="n">
-        <v>0.283694</v>
+        <v>0.292575</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.171897</v>
+        <v>0.17286</v>
       </c>
       <c r="C16" t="n">
-        <v>0.291384</v>
+        <v>0.292634</v>
       </c>
       <c r="D16" t="n">
-        <v>0.382892</v>
+        <v>0.392056</v>
       </c>
       <c r="E16" t="n">
-        <v>0.149256</v>
+        <v>0.151243</v>
       </c>
       <c r="F16" t="n">
-        <v>0.282046</v>
+        <v>0.284679</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.174353</v>
+        <v>0.163825</v>
       </c>
       <c r="C17" t="n">
-        <v>0.286588</v>
+        <v>0.284512</v>
       </c>
       <c r="D17" t="n">
-        <v>0.37994</v>
+        <v>0.380857</v>
       </c>
       <c r="E17" t="n">
-        <v>0.142847</v>
+        <v>0.139165</v>
       </c>
       <c r="F17" t="n">
-        <v>0.273702</v>
+        <v>0.273426</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.157666</v>
+        <v>0.163226</v>
       </c>
       <c r="C18" t="n">
-        <v>0.279649</v>
+        <v>0.274693</v>
       </c>
       <c r="D18" t="n">
-        <v>0.37579</v>
+        <v>0.377749</v>
       </c>
       <c r="E18" t="n">
-        <v>0.145667</v>
+        <v>0.140111</v>
       </c>
       <c r="F18" t="n">
-        <v>0.266685</v>
+        <v>0.267691</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.154411</v>
+        <v>0.1522</v>
       </c>
       <c r="C19" t="n">
-        <v>0.277957</v>
+        <v>0.272648</v>
       </c>
       <c r="D19" t="n">
-        <v>0.37366</v>
+        <v>0.372831</v>
       </c>
       <c r="E19" t="n">
-        <v>0.137256</v>
+        <v>0.132639</v>
       </c>
       <c r="F19" t="n">
-        <v>0.26253</v>
+        <v>0.264127</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.159779</v>
+        <v>0.158821</v>
       </c>
       <c r="C20" t="n">
-        <v>0.27258</v>
+        <v>0.271203</v>
       </c>
       <c r="D20" t="n">
-        <v>0.370216</v>
+        <v>0.370655</v>
       </c>
       <c r="E20" t="n">
-        <v>0.131612</v>
+        <v>0.135875</v>
       </c>
       <c r="F20" t="n">
-        <v>0.26634</v>
+        <v>0.259845</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.154228</v>
+        <v>0.148111</v>
       </c>
       <c r="C21" t="n">
-        <v>0.272963</v>
+        <v>0.270616</v>
       </c>
       <c r="D21" t="n">
-        <v>0.472128</v>
+        <v>0.473486</v>
       </c>
       <c r="E21" t="n">
-        <v>0.133067</v>
+        <v>0.134218</v>
       </c>
       <c r="F21" t="n">
-        <v>0.274082</v>
+        <v>0.260231</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.151285</v>
+        <v>0.155625</v>
       </c>
       <c r="C22" t="n">
-        <v>0.272771</v>
+        <v>0.271145</v>
       </c>
       <c r="D22" t="n">
-        <v>0.462746</v>
+        <v>0.456515</v>
       </c>
       <c r="E22" t="n">
-        <v>0.136336</v>
+        <v>0.135234</v>
       </c>
       <c r="F22" t="n">
-        <v>0.260133</v>
+        <v>0.258298</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161459</v>
+        <v>0.156983</v>
       </c>
       <c r="C23" t="n">
-        <v>0.276002</v>
+        <v>0.272317</v>
       </c>
       <c r="D23" t="n">
-        <v>0.452889</v>
+        <v>0.455499</v>
       </c>
       <c r="E23" t="n">
-        <v>0.223026</v>
+        <v>0.215335</v>
       </c>
       <c r="F23" t="n">
-        <v>0.333739</v>
+        <v>0.335167</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243006</v>
+        <v>0.233886</v>
       </c>
       <c r="C24" t="n">
-        <v>0.340025</v>
+        <v>0.34098</v>
       </c>
       <c r="D24" t="n">
-        <v>0.443925</v>
+        <v>0.445473</v>
       </c>
       <c r="E24" t="n">
-        <v>0.205725</v>
+        <v>0.207795</v>
       </c>
       <c r="F24" t="n">
-        <v>0.325082</v>
+        <v>0.324805</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234242</v>
+        <v>0.230075</v>
       </c>
       <c r="C25" t="n">
-        <v>0.33125</v>
+        <v>0.332366</v>
       </c>
       <c r="D25" t="n">
-        <v>0.436449</v>
+        <v>0.437435</v>
       </c>
       <c r="E25" t="n">
-        <v>0.200796</v>
+        <v>0.204819</v>
       </c>
       <c r="F25" t="n">
-        <v>0.316915</v>
+        <v>0.31813</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.225888</v>
+        <v>0.221176</v>
       </c>
       <c r="C26" t="n">
-        <v>0.322842</v>
+        <v>0.324827</v>
       </c>
       <c r="D26" t="n">
-        <v>0.428977</v>
+        <v>0.429335</v>
       </c>
       <c r="E26" t="n">
-        <v>0.190405</v>
+        <v>0.192826</v>
       </c>
       <c r="F26" t="n">
-        <v>0.309688</v>
+        <v>0.310898</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.216221</v>
+        <v>0.216978</v>
       </c>
       <c r="C27" t="n">
-        <v>0.316847</v>
+        <v>0.313954</v>
       </c>
       <c r="D27" t="n">
-        <v>0.424326</v>
+        <v>0.424367</v>
       </c>
       <c r="E27" t="n">
-        <v>0.185149</v>
+        <v>0.194771</v>
       </c>
       <c r="F27" t="n">
-        <v>0.302092</v>
+        <v>0.313696</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.208839</v>
+        <v>0.207517</v>
       </c>
       <c r="C28" t="n">
-        <v>0.310088</v>
+        <v>0.310484</v>
       </c>
       <c r="D28" t="n">
-        <v>0.415351</v>
+        <v>0.418262</v>
       </c>
       <c r="E28" t="n">
-        <v>0.175977</v>
+        <v>0.19117</v>
       </c>
       <c r="F28" t="n">
-        <v>0.296125</v>
+        <v>0.300931</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.202432</v>
+        <v>0.200625</v>
       </c>
       <c r="C29" t="n">
-        <v>0.302623</v>
+        <v>0.300804</v>
       </c>
       <c r="D29" t="n">
-        <v>0.410814</v>
+        <v>0.409941</v>
       </c>
       <c r="E29" t="n">
-        <v>0.177235</v>
+        <v>0.170989</v>
       </c>
       <c r="F29" t="n">
-        <v>0.288419</v>
+        <v>0.287442</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.195225</v>
+        <v>0.194385</v>
       </c>
       <c r="C30" t="n">
-        <v>0.296439</v>
+        <v>0.296364</v>
       </c>
       <c r="D30" t="n">
-        <v>0.403135</v>
+        <v>0.404587</v>
       </c>
       <c r="E30" t="n">
-        <v>0.162115</v>
+        <v>0.171745</v>
       </c>
       <c r="F30" t="n">
-        <v>0.281842</v>
+        <v>0.283005</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.188091</v>
+        <v>0.183972</v>
       </c>
       <c r="C31" t="n">
-        <v>0.291503</v>
+        <v>0.289321</v>
       </c>
       <c r="D31" t="n">
-        <v>0.400671</v>
+        <v>0.401208</v>
       </c>
       <c r="E31" t="n">
-        <v>0.167384</v>
+        <v>0.166574</v>
       </c>
       <c r="F31" t="n">
-        <v>0.277137</v>
+        <v>0.276164</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.181606</v>
+        <v>0.179569</v>
       </c>
       <c r="C32" t="n">
-        <v>0.287588</v>
+        <v>0.28591</v>
       </c>
       <c r="D32" t="n">
-        <v>0.395411</v>
+        <v>0.397023</v>
       </c>
       <c r="E32" t="n">
-        <v>0.160105</v>
+        <v>0.162297</v>
       </c>
       <c r="F32" t="n">
-        <v>0.272961</v>
+        <v>0.271858</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.176467</v>
+        <v>0.178801</v>
       </c>
       <c r="C33" t="n">
-        <v>0.283641</v>
+        <v>0.281853</v>
       </c>
       <c r="D33" t="n">
-        <v>0.392095</v>
+        <v>0.391779</v>
       </c>
       <c r="E33" t="n">
-        <v>0.15693</v>
+        <v>0.157143</v>
       </c>
       <c r="F33" t="n">
-        <v>0.26839</v>
+        <v>0.268833</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.17377</v>
+        <v>0.170192</v>
       </c>
       <c r="C34" t="n">
-        <v>0.281628</v>
+        <v>0.281521</v>
       </c>
       <c r="D34" t="n">
-        <v>0.387429</v>
+        <v>0.387923</v>
       </c>
       <c r="E34" t="n">
-        <v>0.151588</v>
+        <v>0.152291</v>
       </c>
       <c r="F34" t="n">
-        <v>0.265323</v>
+        <v>0.264718</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.171292</v>
+        <v>0.16372</v>
       </c>
       <c r="C35" t="n">
-        <v>0.279735</v>
+        <v>0.277478</v>
       </c>
       <c r="D35" t="n">
-        <v>0.493228</v>
+        <v>0.493479</v>
       </c>
       <c r="E35" t="n">
-        <v>0.151068</v>
+        <v>0.148401</v>
       </c>
       <c r="F35" t="n">
-        <v>0.263936</v>
+        <v>0.262628</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.170797</v>
+        <v>0.163499</v>
       </c>
       <c r="C36" t="n">
-        <v>0.280155</v>
+        <v>0.27774</v>
       </c>
       <c r="D36" t="n">
-        <v>0.484384</v>
+        <v>0.481537</v>
       </c>
       <c r="E36" t="n">
-        <v>0.149381</v>
+        <v>0.141308</v>
       </c>
       <c r="F36" t="n">
-        <v>0.263265</v>
+        <v>0.265127</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173345</v>
+        <v>0.165707</v>
       </c>
       <c r="C37" t="n">
-        <v>0.282363</v>
+        <v>0.277889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.471658</v>
+        <v>0.469447</v>
       </c>
       <c r="E37" t="n">
-        <v>0.230969</v>
+        <v>0.230764</v>
       </c>
       <c r="F37" t="n">
-        <v>0.346894</v>
+        <v>0.347037</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245753</v>
+        <v>0.242897</v>
       </c>
       <c r="C38" t="n">
-        <v>0.354909</v>
+        <v>0.349885</v>
       </c>
       <c r="D38" t="n">
-        <v>0.461721</v>
+        <v>0.462948</v>
       </c>
       <c r="E38" t="n">
-        <v>0.221024</v>
+        <v>0.222463</v>
       </c>
       <c r="F38" t="n">
-        <v>0.338892</v>
+        <v>0.339416</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236952</v>
+        <v>0.234329</v>
       </c>
       <c r="C39" t="n">
-        <v>0.346879</v>
+        <v>0.341971</v>
       </c>
       <c r="D39" t="n">
-        <v>0.453947</v>
+        <v>0.45342</v>
       </c>
       <c r="E39" t="n">
-        <v>0.212593</v>
+        <v>0.213881</v>
       </c>
       <c r="F39" t="n">
-        <v>0.330858</v>
+        <v>0.332281</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.228393</v>
+        <v>0.225263</v>
       </c>
       <c r="C40" t="n">
-        <v>0.339123</v>
+        <v>0.336386</v>
       </c>
       <c r="D40" t="n">
-        <v>0.444956</v>
+        <v>0.445179</v>
       </c>
       <c r="E40" t="n">
-        <v>0.204739</v>
+        <v>0.205072</v>
       </c>
       <c r="F40" t="n">
-        <v>0.324136</v>
+        <v>0.322848</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.219804</v>
+        <v>0.217097</v>
       </c>
       <c r="C41" t="n">
-        <v>0.330733</v>
+        <v>0.327088</v>
       </c>
       <c r="D41" t="n">
-        <v>0.437438</v>
+        <v>0.438338</v>
       </c>
       <c r="E41" t="n">
-        <v>0.19873</v>
+        <v>0.198053</v>
       </c>
       <c r="F41" t="n">
-        <v>0.315919</v>
+        <v>0.315157</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.211944</v>
+        <v>0.20918</v>
       </c>
       <c r="C42" t="n">
-        <v>0.324755</v>
+        <v>0.321243</v>
       </c>
       <c r="D42" t="n">
-        <v>0.431194</v>
+        <v>0.431788</v>
       </c>
       <c r="E42" t="n">
-        <v>0.189802</v>
+        <v>0.191134</v>
       </c>
       <c r="F42" t="n">
-        <v>0.30916</v>
+        <v>0.308528</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.204979</v>
+        <v>0.201908</v>
       </c>
       <c r="C43" t="n">
-        <v>0.317592</v>
+        <v>0.314957</v>
       </c>
       <c r="D43" t="n">
-        <v>0.425226</v>
+        <v>0.423944</v>
       </c>
       <c r="E43" t="n">
-        <v>0.184192</v>
+        <v>0.182438</v>
       </c>
       <c r="F43" t="n">
-        <v>0.302189</v>
+        <v>0.303025</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.198484</v>
+        <v>0.195907</v>
       </c>
       <c r="C44" t="n">
-        <v>0.312347</v>
+        <v>0.309371</v>
       </c>
       <c r="D44" t="n">
-        <v>0.418647</v>
+        <v>0.418145</v>
       </c>
       <c r="E44" t="n">
-        <v>0.177229</v>
+        <v>0.176251</v>
       </c>
       <c r="F44" t="n">
-        <v>0.296411</v>
+        <v>0.296427</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.192341</v>
+        <v>0.18988</v>
       </c>
       <c r="C45" t="n">
-        <v>0.306541</v>
+        <v>0.303507</v>
       </c>
       <c r="D45" t="n">
-        <v>0.413952</v>
+        <v>0.414042</v>
       </c>
       <c r="E45" t="n">
-        <v>0.17156</v>
+        <v>0.171428</v>
       </c>
       <c r="F45" t="n">
-        <v>0.290982</v>
+        <v>0.291137</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.186836</v>
+        <v>0.183793</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3016</v>
+        <v>0.300269</v>
       </c>
       <c r="D46" t="n">
-        <v>0.410423</v>
+        <v>0.40833</v>
       </c>
       <c r="E46" t="n">
-        <v>0.165727</v>
+        <v>0.167496</v>
       </c>
       <c r="F46" t="n">
-        <v>0.286363</v>
+        <v>0.285735</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.181753</v>
+        <v>0.179796</v>
       </c>
       <c r="C47" t="n">
-        <v>0.297832</v>
+        <v>0.295806</v>
       </c>
       <c r="D47" t="n">
-        <v>0.407265</v>
+        <v>0.407378</v>
       </c>
       <c r="E47" t="n">
-        <v>0.161226</v>
+        <v>0.161488</v>
       </c>
       <c r="F47" t="n">
-        <v>0.281861</v>
+        <v>0.281824</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.178298</v>
+        <v>0.175784</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294539</v>
+        <v>0.291947</v>
       </c>
       <c r="D48" t="n">
-        <v>0.402499</v>
+        <v>0.400065</v>
       </c>
       <c r="E48" t="n">
-        <v>0.158308</v>
+        <v>0.157719</v>
       </c>
       <c r="F48" t="n">
-        <v>0.278714</v>
+        <v>0.278534</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174917</v>
+        <v>0.17294</v>
       </c>
       <c r="C49" t="n">
-        <v>0.292903</v>
+        <v>0.291323</v>
       </c>
       <c r="D49" t="n">
-        <v>0.399861</v>
+        <v>0.398668</v>
       </c>
       <c r="E49" t="n">
-        <v>0.155318</v>
+        <v>0.155276</v>
       </c>
       <c r="F49" t="n">
-        <v>0.276954</v>
+        <v>0.277083</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173444</v>
+        <v>0.17134</v>
       </c>
       <c r="C50" t="n">
-        <v>0.292794</v>
+        <v>0.291574</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5056929999999999</v>
+        <v>0.505224</v>
       </c>
       <c r="E50" t="n">
-        <v>0.153987</v>
+        <v>0.154081</v>
       </c>
       <c r="F50" t="n">
-        <v>0.276807</v>
+        <v>0.276868</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174582</v>
+        <v>0.171445</v>
       </c>
       <c r="C51" t="n">
-        <v>0.294846</v>
+        <v>0.292643</v>
       </c>
       <c r="D51" t="n">
-        <v>0.493027</v>
+        <v>0.491715</v>
       </c>
       <c r="E51" t="n">
-        <v>0.23994</v>
+        <v>0.239512</v>
       </c>
       <c r="F51" t="n">
-        <v>0.359199</v>
+        <v>0.35922</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177175</v>
+        <v>0.175131</v>
       </c>
       <c r="C52" t="n">
-        <v>0.299827</v>
+        <v>0.296725</v>
       </c>
       <c r="D52" t="n">
-        <v>0.484378</v>
+        <v>0.481988</v>
       </c>
       <c r="E52" t="n">
-        <v>0.230486</v>
+        <v>0.231097</v>
       </c>
       <c r="F52" t="n">
-        <v>0.34992</v>
+        <v>0.350835</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243295</v>
+        <v>0.240497</v>
       </c>
       <c r="C53" t="n">
-        <v>0.357237</v>
+        <v>0.355267</v>
       </c>
       <c r="D53" t="n">
-        <v>0.475105</v>
+        <v>0.473015</v>
       </c>
       <c r="E53" t="n">
-        <v>0.22082</v>
+        <v>0.222181</v>
       </c>
       <c r="F53" t="n">
-        <v>0.342086</v>
+        <v>0.342244</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.234475</v>
+        <v>0.231404</v>
       </c>
       <c r="C54" t="n">
-        <v>0.349216</v>
+        <v>0.346659</v>
       </c>
       <c r="D54" t="n">
-        <v>0.466664</v>
+        <v>0.466057</v>
       </c>
       <c r="E54" t="n">
-        <v>0.21274</v>
+        <v>0.212822</v>
       </c>
       <c r="F54" t="n">
-        <v>0.334485</v>
+        <v>0.33432</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.226557</v>
+        <v>0.223494</v>
       </c>
       <c r="C55" t="n">
-        <v>0.344388</v>
+        <v>0.342355</v>
       </c>
       <c r="D55" t="n">
-        <v>0.458464</v>
+        <v>0.457731</v>
       </c>
       <c r="E55" t="n">
-        <v>0.204681</v>
+        <v>0.205076</v>
       </c>
       <c r="F55" t="n">
-        <v>0.328924</v>
+        <v>0.329456</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.218019</v>
+        <v>0.215782</v>
       </c>
       <c r="C56" t="n">
-        <v>0.337309</v>
+        <v>0.334582</v>
       </c>
       <c r="D56" t="n">
-        <v>0.451602</v>
+        <v>0.449932</v>
       </c>
       <c r="E56" t="n">
-        <v>0.19795</v>
+        <v>0.19762</v>
       </c>
       <c r="F56" t="n">
-        <v>0.321828</v>
+        <v>0.321779</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.210956</v>
+        <v>0.207791</v>
       </c>
       <c r="C57" t="n">
-        <v>0.330644</v>
+        <v>0.328751</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4446</v>
+        <v>0.445623</v>
       </c>
       <c r="E57" t="n">
-        <v>0.190711</v>
+        <v>0.190858</v>
       </c>
       <c r="F57" t="n">
-        <v>0.314722</v>
+        <v>0.315126</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.203879</v>
+        <v>0.20118</v>
       </c>
       <c r="C58" t="n">
-        <v>0.324663</v>
+        <v>0.322061</v>
       </c>
       <c r="D58" t="n">
-        <v>0.438437</v>
+        <v>0.436957</v>
       </c>
       <c r="E58" t="n">
-        <v>0.184084</v>
+        <v>0.18397</v>
       </c>
       <c r="F58" t="n">
-        <v>0.308976</v>
+        <v>0.309019</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.197408</v>
+        <v>0.195342</v>
       </c>
       <c r="C59" t="n">
-        <v>0.319724</v>
+        <v>0.317347</v>
       </c>
       <c r="D59" t="n">
-        <v>0.433949</v>
+        <v>0.433894</v>
       </c>
       <c r="E59" t="n">
-        <v>0.178331</v>
+        <v>0.17853</v>
       </c>
       <c r="F59" t="n">
-        <v>0.303164</v>
+        <v>0.303375</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.191457</v>
+        <v>0.189542</v>
       </c>
       <c r="C60" t="n">
-        <v>0.313863</v>
+        <v>0.311914</v>
       </c>
       <c r="D60" t="n">
-        <v>0.428631</v>
+        <v>0.429503</v>
       </c>
       <c r="E60" t="n">
-        <v>0.172715</v>
+        <v>0.172925</v>
       </c>
       <c r="F60" t="n">
-        <v>0.298892</v>
+        <v>0.298515</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.186758</v>
+        <v>0.184552</v>
       </c>
       <c r="C61" t="n">
-        <v>0.309982</v>
+        <v>0.308611</v>
       </c>
       <c r="D61" t="n">
-        <v>0.425132</v>
+        <v>0.427117</v>
       </c>
       <c r="E61" t="n">
-        <v>0.168085</v>
+        <v>0.167565</v>
       </c>
       <c r="F61" t="n">
-        <v>0.293666</v>
+        <v>0.294692</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.182294</v>
+        <v>0.180513</v>
       </c>
       <c r="C62" t="n">
-        <v>0.306698</v>
+        <v>0.305977</v>
       </c>
       <c r="D62" t="n">
-        <v>0.421124</v>
+        <v>0.422504</v>
       </c>
       <c r="E62" t="n">
-        <v>0.164047</v>
+        <v>0.163746</v>
       </c>
       <c r="F62" t="n">
-        <v>0.289978</v>
+        <v>0.290166</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178798</v>
+        <v>0.177816</v>
       </c>
       <c r="C63" t="n">
-        <v>0.304779</v>
+        <v>0.30315</v>
       </c>
       <c r="D63" t="n">
-        <v>0.418729</v>
+        <v>0.420058</v>
       </c>
       <c r="E63" t="n">
-        <v>0.161058</v>
+        <v>0.161008</v>
       </c>
       <c r="F63" t="n">
-        <v>0.287636</v>
+        <v>0.287831</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176967</v>
+        <v>0.17586</v>
       </c>
       <c r="C64" t="n">
-        <v>0.30364</v>
+        <v>0.302222</v>
       </c>
       <c r="D64" t="n">
-        <v>0.543642</v>
+        <v>0.542843</v>
       </c>
       <c r="E64" t="n">
-        <v>0.159503</v>
+        <v>0.159446</v>
       </c>
       <c r="F64" t="n">
-        <v>0.287235</v>
+        <v>0.287575</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176521</v>
+        <v>0.176457</v>
       </c>
       <c r="C65" t="n">
-        <v>0.306126</v>
+        <v>0.302298</v>
       </c>
       <c r="D65" t="n">
-        <v>0.532844</v>
+        <v>0.531602</v>
       </c>
       <c r="E65" t="n">
-        <v>0.161638</v>
+        <v>0.15985</v>
       </c>
       <c r="F65" t="n">
-        <v>0.289268</v>
+        <v>0.28846</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.181244</v>
+        <v>0.178677</v>
       </c>
       <c r="C66" t="n">
-        <v>0.309824</v>
+        <v>0.305941</v>
       </c>
       <c r="D66" t="n">
-        <v>0.523593</v>
+        <v>0.523684</v>
       </c>
       <c r="E66" t="n">
-        <v>0.240442</v>
+        <v>0.241842</v>
       </c>
       <c r="F66" t="n">
-        <v>0.36783</v>
+        <v>0.366841</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.246332</v>
+        <v>0.243485</v>
       </c>
       <c r="C67" t="n">
-        <v>0.377767</v>
+        <v>0.373281</v>
       </c>
       <c r="D67" t="n">
-        <v>0.513866</v>
+        <v>0.514011</v>
       </c>
       <c r="E67" t="n">
-        <v>0.232023</v>
+        <v>0.231172</v>
       </c>
       <c r="F67" t="n">
-        <v>0.359115</v>
+        <v>0.358759</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237476</v>
+        <v>0.236583</v>
       </c>
       <c r="C68" t="n">
-        <v>0.369482</v>
+        <v>0.365748</v>
       </c>
       <c r="D68" t="n">
-        <v>0.507023</v>
+        <v>0.5058</v>
       </c>
       <c r="E68" t="n">
-        <v>0.223196</v>
+        <v>0.223517</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3513</v>
+        <v>0.350814</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.229199</v>
+        <v>0.227552</v>
       </c>
       <c r="C69" t="n">
-        <v>0.363092</v>
+        <v>0.360924</v>
       </c>
       <c r="D69" t="n">
-        <v>0.499851</v>
+        <v>0.498594</v>
       </c>
       <c r="E69" t="n">
-        <v>0.216413</v>
+        <v>0.216068</v>
       </c>
       <c r="F69" t="n">
-        <v>0.344529</v>
+        <v>0.345029</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.221083</v>
+        <v>0.219519</v>
       </c>
       <c r="C70" t="n">
-        <v>0.356092</v>
+        <v>0.353066</v>
       </c>
       <c r="D70" t="n">
-        <v>0.494004</v>
+        <v>0.492479</v>
       </c>
       <c r="E70" t="n">
-        <v>0.208396</v>
+        <v>0.207818</v>
       </c>
       <c r="F70" t="n">
-        <v>0.337511</v>
+        <v>0.33669</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213424</v>
+        <v>0.213156</v>
       </c>
       <c r="C71" t="n">
-        <v>0.349738</v>
+        <v>0.346033</v>
       </c>
       <c r="D71" t="n">
-        <v>0.489308</v>
+        <v>0.486542</v>
       </c>
       <c r="E71" t="n">
-        <v>0.200545</v>
+        <v>0.200454</v>
       </c>
       <c r="F71" t="n">
-        <v>0.331023</v>
+        <v>0.331664</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.206205</v>
+        <v>0.206222</v>
       </c>
       <c r="C72" t="n">
-        <v>0.342447</v>
+        <v>0.340806</v>
       </c>
       <c r="D72" t="n">
-        <v>0.484408</v>
+        <v>0.484327</v>
       </c>
       <c r="E72" t="n">
-        <v>0.193858</v>
+        <v>0.193556</v>
       </c>
       <c r="F72" t="n">
-        <v>0.324881</v>
+        <v>0.325553</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200588</v>
+        <v>0.199143</v>
       </c>
       <c r="C73" t="n">
-        <v>0.337748</v>
+        <v>0.334063</v>
       </c>
       <c r="D73" t="n">
-        <v>0.480349</v>
+        <v>0.47984</v>
       </c>
       <c r="E73" t="n">
-        <v>0.187263</v>
+        <v>0.188178</v>
       </c>
       <c r="F73" t="n">
-        <v>0.31864</v>
+        <v>0.319375</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.19574</v>
+        <v>0.193748</v>
       </c>
       <c r="C74" t="n">
-        <v>0.331644</v>
+        <v>0.329122</v>
       </c>
       <c r="D74" t="n">
-        <v>0.494958</v>
+        <v>0.494864</v>
       </c>
       <c r="E74" t="n">
-        <v>0.181317</v>
+        <v>0.18084</v>
       </c>
       <c r="F74" t="n">
-        <v>0.31367</v>
+        <v>0.312453</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189755</v>
+        <v>0.189228</v>
       </c>
       <c r="C75" t="n">
-        <v>0.328319</v>
+        <v>0.326368</v>
       </c>
       <c r="D75" t="n">
-        <v>0.489534</v>
+        <v>0.491517</v>
       </c>
       <c r="E75" t="n">
-        <v>0.176207</v>
+        <v>0.175981</v>
       </c>
       <c r="F75" t="n">
-        <v>0.308676</v>
+        <v>0.308228</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185769</v>
+        <v>0.184877</v>
       </c>
       <c r="C76" t="n">
-        <v>0.324047</v>
+        <v>0.320923</v>
       </c>
       <c r="D76" t="n">
-        <v>0.484954</v>
+        <v>0.488572</v>
       </c>
       <c r="E76" t="n">
-        <v>0.171477</v>
+        <v>0.171472</v>
       </c>
       <c r="F76" t="n">
-        <v>0.304614</v>
+        <v>0.30512</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182578</v>
+        <v>0.181558</v>
       </c>
       <c r="C77" t="n">
-        <v>0.322237</v>
+        <v>0.319205</v>
       </c>
       <c r="D77" t="n">
-        <v>0.483368</v>
+        <v>0.483289</v>
       </c>
       <c r="E77" t="n">
-        <v>0.167909</v>
+        <v>0.16807</v>
       </c>
       <c r="F77" t="n">
-        <v>0.301755</v>
+        <v>0.301828</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179671</v>
+        <v>0.179536</v>
       </c>
       <c r="C78" t="n">
-        <v>0.323185</v>
+        <v>0.321384</v>
       </c>
       <c r="D78" t="n">
-        <v>0.661301</v>
+        <v>0.661429</v>
       </c>
       <c r="E78" t="n">
-        <v>0.165685</v>
+        <v>0.165756</v>
       </c>
       <c r="F78" t="n">
-        <v>0.302462</v>
+        <v>0.301892</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180135</v>
+        <v>0.179421</v>
       </c>
       <c r="C79" t="n">
-        <v>0.323085</v>
+        <v>0.320113</v>
       </c>
       <c r="D79" t="n">
-        <v>0.650971</v>
+        <v>0.650406</v>
       </c>
       <c r="E79" t="n">
-        <v>0.165878</v>
+        <v>0.165897</v>
       </c>
       <c r="F79" t="n">
-        <v>0.303198</v>
+        <v>0.304339</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.182165</v>
+        <v>0.181273</v>
       </c>
       <c r="C80" t="n">
-        <v>0.326504</v>
+        <v>0.323094</v>
       </c>
       <c r="D80" t="n">
-        <v>0.639614</v>
+        <v>0.640895</v>
       </c>
       <c r="E80" t="n">
-        <v>0.239427</v>
+        <v>0.239188</v>
       </c>
       <c r="F80" t="n">
-        <v>0.384123</v>
+        <v>0.384563</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258555</v>
+        <v>0.258554</v>
       </c>
       <c r="C81" t="n">
-        <v>0.396274</v>
+        <v>0.394</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6335150000000001</v>
+        <v>0.633001</v>
       </c>
       <c r="E81" t="n">
-        <v>0.230985</v>
+        <v>0.23043</v>
       </c>
       <c r="F81" t="n">
-        <v>0.378266</v>
+        <v>0.377723</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251443</v>
+        <v>0.250413</v>
       </c>
       <c r="C82" t="n">
-        <v>0.392758</v>
+        <v>0.389959</v>
       </c>
       <c r="D82" t="n">
-        <v>0.627363</v>
+        <v>0.626517</v>
       </c>
       <c r="E82" t="n">
-        <v>0.22291</v>
+        <v>0.222466</v>
       </c>
       <c r="F82" t="n">
-        <v>0.371988</v>
+        <v>0.371777</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242885</v>
+        <v>0.242907</v>
       </c>
       <c r="C83" t="n">
-        <v>0.386589</v>
+        <v>0.385566</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6206700000000001</v>
+        <v>0.622062</v>
       </c>
       <c r="E83" t="n">
-        <v>0.214789</v>
+        <v>0.214668</v>
       </c>
       <c r="F83" t="n">
-        <v>0.366174</v>
+        <v>0.366303</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235337</v>
+        <v>0.234982</v>
       </c>
       <c r="C84" t="n">
-        <v>0.384256</v>
+        <v>0.382404</v>
       </c>
       <c r="D84" t="n">
-        <v>0.616623</v>
+        <v>0.617293</v>
       </c>
       <c r="E84" t="n">
-        <v>0.207505</v>
+        <v>0.206931</v>
       </c>
       <c r="F84" t="n">
-        <v>0.360623</v>
+        <v>0.360688</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.22807</v>
+        <v>0.227957</v>
       </c>
       <c r="C85" t="n">
-        <v>0.378936</v>
+        <v>0.376514</v>
       </c>
       <c r="D85" t="n">
-        <v>0.615769</v>
+        <v>0.614887</v>
       </c>
       <c r="E85" t="n">
-        <v>0.200387</v>
+        <v>0.201087</v>
       </c>
       <c r="F85" t="n">
-        <v>0.354166</v>
+        <v>0.355926</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.221383</v>
+        <v>0.22229</v>
       </c>
       <c r="C86" t="n">
-        <v>0.372666</v>
+        <v>0.372299</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6136779999999999</v>
+        <v>0.616009</v>
       </c>
       <c r="E86" t="n">
-        <v>0.194224</v>
+        <v>0.194557</v>
       </c>
       <c r="F86" t="n">
-        <v>0.348792</v>
+        <v>0.34898</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214595</v>
+        <v>0.214849</v>
       </c>
       <c r="C87" t="n">
-        <v>0.367471</v>
+        <v>0.367296</v>
       </c>
       <c r="D87" t="n">
-        <v>0.61297</v>
+        <v>0.614969</v>
       </c>
       <c r="E87" t="n">
-        <v>0.187854</v>
+        <v>0.187762</v>
       </c>
       <c r="F87" t="n">
-        <v>0.342642</v>
+        <v>0.344103</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208016</v>
+        <v>0.208655</v>
       </c>
       <c r="C88" t="n">
-        <v>0.36407</v>
+        <v>0.363369</v>
       </c>
       <c r="D88" t="n">
-        <v>0.615876</v>
+        <v>0.616966</v>
       </c>
       <c r="E88" t="n">
-        <v>0.181877</v>
+        <v>0.18201</v>
       </c>
       <c r="F88" t="n">
-        <v>0.338375</v>
+        <v>0.339219</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.202589</v>
+        <v>0.202955</v>
       </c>
       <c r="C89" t="n">
-        <v>0.358627</v>
+        <v>0.358149</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6299169999999999</v>
+        <v>0.6302179999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>0.176505</v>
+        <v>0.177504</v>
       </c>
       <c r="F89" t="n">
-        <v>0.333778</v>
+        <v>0.334715</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197791</v>
+        <v>0.198023</v>
       </c>
       <c r="C90" t="n">
-        <v>0.355375</v>
+        <v>0.354006</v>
       </c>
       <c r="D90" t="n">
-        <v>0.632574</v>
+        <v>0.635428</v>
       </c>
       <c r="E90" t="n">
-        <v>0.172368</v>
+        <v>0.172267</v>
       </c>
       <c r="F90" t="n">
-        <v>0.329317</v>
+        <v>0.33052</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193535</v>
+        <v>0.193185</v>
       </c>
       <c r="C91" t="n">
-        <v>0.351771</v>
+        <v>0.350716</v>
       </c>
       <c r="D91" t="n">
-        <v>0.63905</v>
+        <v>0.640945</v>
       </c>
       <c r="E91" t="n">
-        <v>0.168993</v>
+        <v>0.168636</v>
       </c>
       <c r="F91" t="n">
-        <v>0.326053</v>
+        <v>0.326376</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190645</v>
+        <v>0.190507</v>
       </c>
       <c r="C92" t="n">
-        <v>0.351208</v>
+        <v>0.351099</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8484390000000001</v>
+        <v>0.854159</v>
       </c>
       <c r="E92" t="n">
-        <v>0.167159</v>
+        <v>0.167283</v>
       </c>
       <c r="F92" t="n">
-        <v>0.325439</v>
+        <v>0.327165</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189681</v>
+        <v>0.190138</v>
       </c>
       <c r="C93" t="n">
-        <v>0.351832</v>
+        <v>0.350335</v>
       </c>
       <c r="D93" t="n">
-        <v>0.844711</v>
+        <v>0.846836</v>
       </c>
       <c r="E93" t="n">
-        <v>0.166159</v>
+        <v>0.166448</v>
       </c>
       <c r="F93" t="n">
-        <v>0.325828</v>
+        <v>0.326686</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190808</v>
+        <v>0.190773</v>
       </c>
       <c r="C94" t="n">
-        <v>0.354183</v>
+        <v>0.353529</v>
       </c>
       <c r="D94" t="n">
-        <v>0.841777</v>
+        <v>0.842647</v>
       </c>
       <c r="E94" t="n">
-        <v>0.252332</v>
+        <v>0.252215</v>
       </c>
       <c r="F94" t="n">
-        <v>0.450343</v>
+        <v>0.452597</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.27182</v>
+        <v>0.273568</v>
       </c>
       <c r="C95" t="n">
-        <v>0.468213</v>
+        <v>0.469232</v>
       </c>
       <c r="D95" t="n">
-        <v>0.835663</v>
+        <v>0.837342</v>
       </c>
       <c r="E95" t="n">
-        <v>0.244296</v>
+        <v>0.244889</v>
       </c>
       <c r="F95" t="n">
-        <v>0.449279</v>
+        <v>0.451754</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.26559</v>
+        <v>0.267417</v>
       </c>
       <c r="C96" t="n">
-        <v>0.468114</v>
+        <v>0.469396</v>
       </c>
       <c r="D96" t="n">
-        <v>0.833492</v>
+        <v>0.834764</v>
       </c>
       <c r="E96" t="n">
-        <v>0.236768</v>
+        <v>0.236903</v>
       </c>
       <c r="F96" t="n">
-        <v>0.445353</v>
+        <v>0.446129</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258833</v>
+        <v>0.260201</v>
       </c>
       <c r="C97" t="n">
-        <v>0.464812</v>
+        <v>0.464378</v>
       </c>
       <c r="D97" t="n">
-        <v>0.83775</v>
+        <v>0.840708</v>
       </c>
       <c r="E97" t="n">
-        <v>0.229483</v>
+        <v>0.22891</v>
       </c>
       <c r="F97" t="n">
-        <v>0.44036</v>
+        <v>0.442143</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251895</v>
+        <v>0.253548</v>
       </c>
       <c r="C98" t="n">
-        <v>0.460324</v>
+        <v>0.460841</v>
       </c>
       <c r="D98" t="n">
-        <v>0.836533</v>
+        <v>0.838804</v>
       </c>
       <c r="E98" t="n">
-        <v>0.221288</v>
+        <v>0.221237</v>
       </c>
       <c r="F98" t="n">
-        <v>0.435659</v>
+        <v>0.436229</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245762</v>
+        <v>0.246693</v>
       </c>
       <c r="C99" t="n">
-        <v>0.454693</v>
+        <v>0.455891</v>
       </c>
       <c r="D99" t="n">
-        <v>0.83558</v>
+        <v>0.837911</v>
       </c>
       <c r="E99" t="n">
-        <v>0.214217</v>
+        <v>0.21449</v>
       </c>
       <c r="F99" t="n">
-        <v>0.429811</v>
+        <v>0.431931</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.23948</v>
+        <v>0.240403</v>
       </c>
       <c r="C100" t="n">
-        <v>0.450361</v>
+        <v>0.451176</v>
       </c>
       <c r="D100" t="n">
-        <v>0.837385</v>
+        <v>0.8415</v>
       </c>
       <c r="E100" t="n">
-        <v>0.207563</v>
+        <v>0.207742</v>
       </c>
       <c r="F100" t="n">
-        <v>0.425708</v>
+        <v>0.426555</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233812</v>
+        <v>0.234777</v>
       </c>
       <c r="C101" t="n">
-        <v>0.446346</v>
+        <v>0.447142</v>
       </c>
       <c r="D101" t="n">
-        <v>0.839244</v>
+        <v>0.844278</v>
       </c>
       <c r="E101" t="n">
-        <v>0.201566</v>
+        <v>0.201572</v>
       </c>
       <c r="F101" t="n">
-        <v>0.420932</v>
+        <v>0.422907</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228312</v>
+        <v>0.229175</v>
       </c>
       <c r="C102" t="n">
-        <v>0.44362</v>
+        <v>0.442406</v>
       </c>
       <c r="D102" t="n">
-        <v>0.84446</v>
+        <v>0.8482730000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1956</v>
+        <v>0.195879</v>
       </c>
       <c r="F102" t="n">
-        <v>0.416826</v>
+        <v>0.418175</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223378</v>
+        <v>0.223661</v>
       </c>
       <c r="C103" t="n">
-        <v>0.439155</v>
+        <v>0.440286</v>
       </c>
       <c r="D103" t="n">
-        <v>0.853974</v>
+        <v>0.856568</v>
       </c>
       <c r="E103" t="n">
-        <v>0.190837</v>
+        <v>0.191269</v>
       </c>
       <c r="F103" t="n">
-        <v>0.413181</v>
+        <v>0.414636</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218961</v>
+        <v>0.219915</v>
       </c>
       <c r="C104" t="n">
-        <v>0.437612</v>
+        <v>0.437276</v>
       </c>
       <c r="D104" t="n">
-        <v>0.861121</v>
+        <v>0.864236</v>
       </c>
       <c r="E104" t="n">
-        <v>0.186693</v>
+        <v>0.18628</v>
       </c>
       <c r="F104" t="n">
-        <v>0.410337</v>
+        <v>0.411471</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214714</v>
+        <v>0.215471</v>
       </c>
       <c r="C105" t="n">
-        <v>0.43579</v>
+        <v>0.436467</v>
       </c>
       <c r="D105" t="n">
-        <v>0.867117</v>
+        <v>0.872416</v>
       </c>
       <c r="E105" t="n">
-        <v>0.182511</v>
+        <v>0.182913</v>
       </c>
       <c r="F105" t="n">
-        <v>0.408375</v>
+        <v>0.409536</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211557</v>
+        <v>0.212348</v>
       </c>
       <c r="C106" t="n">
-        <v>0.435558</v>
+        <v>0.435326</v>
       </c>
       <c r="D106" t="n">
-        <v>0.877623</v>
+        <v>0.8809399999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.180122</v>
+        <v>0.180084</v>
       </c>
       <c r="F106" t="n">
-        <v>0.403544</v>
+        <v>0.4084</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209132</v>
+        <v>0.210537</v>
       </c>
       <c r="C107" t="n">
-        <v>0.432457</v>
+        <v>0.436451</v>
       </c>
       <c r="D107" t="n">
-        <v>1.1208</v>
+        <v>1.12593</v>
       </c>
       <c r="E107" t="n">
-        <v>0.178732</v>
+        <v>0.178744</v>
       </c>
       <c r="F107" t="n">
-        <v>0.406315</v>
+        <v>0.40871</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.209406</v>
+        <v>0.210198</v>
       </c>
       <c r="C108" t="n">
-        <v>0.439558</v>
+        <v>0.43952</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11308</v>
+        <v>1.11524</v>
       </c>
       <c r="E108" t="n">
-        <v>0.268383</v>
+        <v>0.26837</v>
       </c>
       <c r="F108" t="n">
-        <v>0.565879</v>
+        <v>0.566737</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211415</v>
+        <v>0.212094</v>
       </c>
       <c r="C109" t="n">
-        <v>0.443664</v>
+        <v>0.444904</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10517</v>
+        <v>1.10845</v>
       </c>
       <c r="E109" t="n">
-        <v>0.261942</v>
+        <v>0.262562</v>
       </c>
       <c r="F109" t="n">
-        <v>0.564096</v>
+        <v>0.564783</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.284925</v>
+        <v>0.28742</v>
       </c>
       <c r="C110" t="n">
-        <v>0.583099</v>
+        <v>0.5832850000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>1.09632</v>
+        <v>1.10115</v>
       </c>
       <c r="E110" t="n">
-        <v>0.254394</v>
+        <v>0.254506</v>
       </c>
       <c r="F110" t="n">
-        <v>0.557288</v>
+        <v>0.557985</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278532</v>
+        <v>0.280935</v>
       </c>
       <c r="C111" t="n">
-        <v>0.576824</v>
+        <v>0.577703</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09328</v>
+        <v>1.09798</v>
       </c>
       <c r="E111" t="n">
-        <v>0.247309</v>
+        <v>0.24725</v>
       </c>
       <c r="F111" t="n">
-        <v>0.552156</v>
+        <v>0.552643</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272165</v>
+        <v>0.27405</v>
       </c>
       <c r="C112" t="n">
-        <v>0.571178</v>
+        <v>0.572615</v>
       </c>
       <c r="D112" t="n">
-        <v>1.08858</v>
+        <v>1.09307</v>
       </c>
       <c r="E112" t="n">
-        <v>0.240029</v>
+        <v>0.240427</v>
       </c>
       <c r="F112" t="n">
-        <v>0.546395</v>
+        <v>0.535855</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266187</v>
+        <v>0.267703</v>
       </c>
       <c r="C113" t="n">
-        <v>0.566211</v>
+        <v>0.558186</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08616</v>
+        <v>1.08335</v>
       </c>
       <c r="E113" t="n">
-        <v>0.233484</v>
+        <v>0.235075</v>
       </c>
       <c r="F113" t="n">
-        <v>0.541984</v>
+        <v>0.542077</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260801</v>
+        <v>0.262066</v>
       </c>
       <c r="C114" t="n">
-        <v>0.561659</v>
+        <v>0.56192</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08992</v>
+        <v>1.09183</v>
       </c>
       <c r="E114" t="n">
-        <v>0.227499</v>
+        <v>0.227606</v>
       </c>
       <c r="F114" t="n">
-        <v>0.537555</v>
+        <v>0.538273</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255293</v>
+        <v>0.256761</v>
       </c>
       <c r="C115" t="n">
-        <v>0.557921</v>
+        <v>0.558553</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09117</v>
+        <v>1.0932</v>
       </c>
       <c r="E115" t="n">
-        <v>0.222118</v>
+        <v>0.222063</v>
       </c>
       <c r="F115" t="n">
-        <v>0.533376</v>
+        <v>0.533406</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250695</v>
+        <v>0.252059</v>
       </c>
       <c r="C116" t="n">
-        <v>0.554315</v>
+        <v>0.554491</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09161</v>
+        <v>1.09417</v>
       </c>
       <c r="E116" t="n">
-        <v>0.216572</v>
+        <v>0.216969</v>
       </c>
       <c r="F116" t="n">
-        <v>0.529771</v>
+        <v>0.530154</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.246093</v>
+        <v>0.247223</v>
       </c>
       <c r="C117" t="n">
-        <v>0.550903</v>
+        <v>0.551689</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09507</v>
+        <v>1.10246</v>
       </c>
       <c r="E117" t="n">
-        <v>0.211684</v>
+        <v>0.211796</v>
       </c>
       <c r="F117" t="n">
-        <v>0.526264</v>
+        <v>0.5268</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.24212</v>
+        <v>0.24246</v>
       </c>
       <c r="C118" t="n">
-        <v>0.548679</v>
+        <v>0.548983</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10293</v>
+        <v>1.10311</v>
       </c>
       <c r="E118" t="n">
-        <v>0.20701</v>
+        <v>0.207421</v>
       </c>
       <c r="F118" t="n">
-        <v>0.523747</v>
+        <v>0.523873</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237956</v>
+        <v>0.238839</v>
       </c>
       <c r="C119" t="n">
-        <v>0.546922</v>
+        <v>0.547455</v>
       </c>
       <c r="D119" t="n">
-        <v>1.10807</v>
+        <v>1.11311</v>
       </c>
       <c r="E119" t="n">
-        <v>0.203355</v>
+        <v>0.203565</v>
       </c>
       <c r="F119" t="n">
-        <v>0.522118</v>
+        <v>0.521304</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234794</v>
+        <v>0.235952</v>
       </c>
       <c r="C120" t="n">
-        <v>0.546414</v>
+        <v>0.546841</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11272</v>
+        <v>1.11833</v>
       </c>
       <c r="E120" t="n">
-        <v>0.200631</v>
+        <v>0.200636</v>
       </c>
       <c r="F120" t="n">
-        <v>0.519896</v>
+        <v>0.52038</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232853</v>
+        <v>0.234043</v>
       </c>
       <c r="C121" t="n">
-        <v>0.547014</v>
+        <v>0.548134</v>
       </c>
       <c r="D121" t="n">
-        <v>1.37941</v>
+        <v>1.38205</v>
       </c>
       <c r="E121" t="n">
-        <v>0.199259</v>
+        <v>0.19983</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5207619999999999</v>
+        <v>0.5197850000000001</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.232172</v>
+        <v>0.23287</v>
       </c>
       <c r="C122" t="n">
-        <v>0.549113</v>
+        <v>0.549901</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36354</v>
+        <v>1.36544</v>
       </c>
       <c r="E122" t="n">
-        <v>0.199529</v>
+        <v>0.199702</v>
       </c>
       <c r="F122" t="n">
-        <v>0.521954</v>
+        <v>0.521963</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232957</v>
+        <v>0.234217</v>
       </c>
       <c r="C123" t="n">
-        <v>0.55313</v>
+        <v>0.5550310000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34888</v>
+        <v>1.35392</v>
       </c>
       <c r="E123" t="n">
-        <v>0.284419</v>
+        <v>0.284281</v>
       </c>
       <c r="F123" t="n">
-        <v>0.689673</v>
+        <v>0.6928029999999999</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.31723</v>
+        <v>0.318092</v>
       </c>
       <c r="C124" t="n">
-        <v>0.713662</v>
+        <v>0.717342</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33868</v>
+        <v>1.34117</v>
       </c>
       <c r="E124" t="n">
-        <v>0.278311</v>
+        <v>0.279106</v>
       </c>
       <c r="F124" t="n">
-        <v>0.686754</v>
+        <v>0.686474</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.310932</v>
+        <v>0.312369</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7095050000000001</v>
+        <v>0.713566</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32807</v>
+        <v>1.33066</v>
       </c>
       <c r="E125" t="n">
-        <v>0.272605</v>
+        <v>0.27223</v>
       </c>
       <c r="F125" t="n">
-        <v>0.680181</v>
+        <v>0.6830619999999999</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305457</v>
+        <v>0.306254</v>
       </c>
       <c r="C126" t="n">
-        <v>0.705253</v>
+        <v>0.708618</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31762</v>
+        <v>1.32304</v>
       </c>
       <c r="E126" t="n">
-        <v>0.267367</v>
+        <v>0.267892</v>
       </c>
       <c r="F126" t="n">
-        <v>0.677284</v>
+        <v>0.678002</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29987</v>
+        <v>0.300982</v>
       </c>
       <c r="C127" t="n">
-        <v>0.701563</v>
+        <v>0.702358</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31195</v>
+        <v>1.31251</v>
       </c>
       <c r="E127" t="n">
-        <v>0.262557</v>
+        <v>0.261694</v>
       </c>
       <c r="F127" t="n">
-        <v>0.673791</v>
+        <v>0.673956</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295226</v>
+        <v>0.296046</v>
       </c>
       <c r="C128" t="n">
-        <v>0.699458</v>
+        <v>0.699238</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30702</v>
+        <v>1.30938</v>
       </c>
       <c r="E128" t="n">
-        <v>0.25768</v>
+        <v>0.257571</v>
       </c>
       <c r="F128" t="n">
-        <v>0.671632</v>
+        <v>0.6706839999999999</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290702</v>
+        <v>0.291032</v>
       </c>
       <c r="C129" t="n">
-        <v>0.69524</v>
+        <v>0.6970229999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30287</v>
+        <v>1.30273</v>
       </c>
       <c r="E129" t="n">
-        <v>0.253763</v>
+        <v>0.253258</v>
       </c>
       <c r="F129" t="n">
-        <v>0.669486</v>
+        <v>0.66869</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286519</v>
+        <v>0.28647</v>
       </c>
       <c r="C130" t="n">
-        <v>0.692641</v>
+        <v>0.695215</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30005</v>
+        <v>1.30259</v>
       </c>
       <c r="E130" t="n">
-        <v>0.249382</v>
+        <v>0.249354</v>
       </c>
       <c r="F130" t="n">
-        <v>0.66659</v>
+        <v>0.665786</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281793</v>
+        <v>0.282176</v>
       </c>
       <c r="C131" t="n">
-        <v>0.690786</v>
+        <v>0.692962</v>
       </c>
       <c r="D131" t="n">
-        <v>1.2971</v>
+        <v>1.30168</v>
       </c>
       <c r="E131" t="n">
-        <v>0.245604</v>
+        <v>0.24554</v>
       </c>
       <c r="F131" t="n">
-        <v>0.665013</v>
+        <v>0.664756</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278631</v>
+        <v>0.278838</v>
       </c>
       <c r="C132" t="n">
-        <v>0.689163</v>
+        <v>0.6912469999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>1.29852</v>
+        <v>1.29927</v>
       </c>
       <c r="E132" t="n">
-        <v>0.242051</v>
+        <v>0.242385</v>
       </c>
       <c r="F132" t="n">
-        <v>0.662264</v>
+        <v>0.661614</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275545</v>
+        <v>0.275824</v>
       </c>
       <c r="C133" t="n">
-        <v>0.688298</v>
+        <v>0.69019</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30133</v>
+        <v>1.30156</v>
       </c>
       <c r="E133" t="n">
-        <v>0.239127</v>
+        <v>0.239237</v>
       </c>
       <c r="F133" t="n">
-        <v>0.661564</v>
+        <v>0.661938</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.272596</v>
+        <v>0.2729</v>
       </c>
       <c r="C134" t="n">
-        <v>0.688808</v>
+        <v>0.6932469999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>1.29826</v>
+        <v>1.30633</v>
       </c>
       <c r="E134" t="n">
-        <v>0.237541</v>
+        <v>0.236811</v>
       </c>
       <c r="F134" t="n">
-        <v>0.660743</v>
+        <v>0.6626300000000001</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270448</v>
+        <v>0.271033</v>
       </c>
       <c r="C135" t="n">
-        <v>0.690259</v>
+        <v>0.6935789999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>1.57658</v>
+        <v>1.58121</v>
       </c>
       <c r="E135" t="n">
-        <v>0.235648</v>
+        <v>0.235746</v>
       </c>
       <c r="F135" t="n">
-        <v>0.662131</v>
+        <v>0.662146</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.269837</v>
+        <v>0.270309</v>
       </c>
       <c r="C136" t="n">
-        <v>0.694539</v>
+        <v>0.696342</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55603</v>
+        <v>1.55878</v>
       </c>
       <c r="E136" t="n">
-        <v>0.235651</v>
+        <v>0.235597</v>
       </c>
       <c r="F136" t="n">
-        <v>0.664837</v>
+        <v>0.664447</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.271325</v>
+        <v>0.271133</v>
       </c>
       <c r="C137" t="n">
-        <v>0.699403</v>
+        <v>0.700899</v>
       </c>
       <c r="D137" t="n">
-        <v>1.53623</v>
+        <v>1.52637</v>
       </c>
       <c r="E137" t="n">
-        <v>0.333393</v>
+        <v>0.333213</v>
       </c>
       <c r="F137" t="n">
-        <v>0.845411</v>
+        <v>0.845077</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.361008</v>
+        <v>0.364775</v>
       </c>
       <c r="C138" t="n">
-        <v>0.877339</v>
+        <v>0.879515</v>
       </c>
       <c r="D138" t="n">
-        <v>1.51855</v>
+        <v>1.51978</v>
       </c>
       <c r="E138" t="n">
-        <v>0.327835</v>
+        <v>0.328311</v>
       </c>
       <c r="F138" t="n">
-        <v>0.843519</v>
+        <v>0.844269</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.355572</v>
+        <v>0.359093</v>
       </c>
       <c r="C139" t="n">
-        <v>0.877394</v>
+        <v>0.878182</v>
       </c>
       <c r="D139" t="n">
-        <v>1.50141</v>
+        <v>1.50474</v>
       </c>
       <c r="E139" t="n">
-        <v>0.32327</v>
+        <v>0.322884</v>
       </c>
       <c r="F139" t="n">
-        <v>0.842873</v>
+        <v>0.843368</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.350889</v>
+        <v>0.353762</v>
       </c>
       <c r="C140" t="n">
-        <v>0.877534</v>
+        <v>0.875997</v>
       </c>
       <c r="D140" t="n">
-        <v>1.48693</v>
+        <v>1.489</v>
       </c>
       <c r="E140" t="n">
-        <v>0.318795</v>
+        <v>0.318699</v>
       </c>
       <c r="F140" t="n">
-        <v>0.842413</v>
+        <v>0.842405</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.346343</v>
+        <v>0.348879</v>
       </c>
       <c r="C141" t="n">
-        <v>0.876726</v>
+        <v>0.876723</v>
       </c>
       <c r="D141" t="n">
-        <v>1.47602</v>
+        <v>1.47592</v>
       </c>
       <c r="E141" t="n">
-        <v>0.314148</v>
+        <v>0.314248</v>
       </c>
       <c r="F141" t="n">
-        <v>0.841231</v>
+        <v>0.843687</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.341079</v>
+        <v>0.344064</v>
       </c>
       <c r="C142" t="n">
-        <v>0.876935</v>
+        <v>0.876927</v>
       </c>
       <c r="D142" t="n">
-        <v>1.46178</v>
+        <v>1.46289</v>
       </c>
       <c r="E142" t="n">
-        <v>0.310084</v>
+        <v>0.309958</v>
       </c>
       <c r="F142" t="n">
-        <v>0.840746</v>
+        <v>0.841917</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.337161</v>
+        <v>0.33912</v>
       </c>
       <c r="C143" t="n">
-        <v>0.877512</v>
+        <v>0.8771409999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>1.45626</v>
+        <v>1.45681</v>
       </c>
       <c r="E143" t="n">
-        <v>0.306044</v>
+        <v>0.306226</v>
       </c>
       <c r="F143" t="n">
-        <v>0.839499</v>
+        <v>0.8427559999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.167478</v>
+        <v>0.144953</v>
       </c>
       <c r="C2" t="n">
-        <v>0.296519</v>
+        <v>0.287924</v>
       </c>
       <c r="D2" t="n">
-        <v>0.31369</v>
+        <v>0.31388</v>
       </c>
       <c r="E2" t="n">
-        <v>0.140883</v>
+        <v>0.135197</v>
       </c>
       <c r="F2" t="n">
-        <v>0.285515</v>
+        <v>0.268262</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.151066</v>
+        <v>0.152051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.290249</v>
+        <v>0.283966</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314705</v>
+        <v>0.313754</v>
       </c>
       <c r="E3" t="n">
-        <v>0.130565</v>
+        <v>0.140553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.268999</v>
+        <v>0.271191</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.147054</v>
+        <v>0.142838</v>
       </c>
       <c r="C4" t="n">
-        <v>0.285004</v>
+        <v>0.276549</v>
       </c>
       <c r="D4" t="n">
-        <v>0.312827</v>
+        <v>0.312955</v>
       </c>
       <c r="E4" t="n">
-        <v>0.138756</v>
+        <v>0.126417</v>
       </c>
       <c r="F4" t="n">
-        <v>0.271346</v>
+        <v>0.260509</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.156023</v>
+        <v>0.153759</v>
       </c>
       <c r="C5" t="n">
-        <v>0.285521</v>
+        <v>0.282823</v>
       </c>
       <c r="D5" t="n">
-        <v>0.312723</v>
+        <v>0.311031</v>
       </c>
       <c r="E5" t="n">
-        <v>0.132535</v>
+        <v>0.121438</v>
       </c>
       <c r="F5" t="n">
-        <v>0.265515</v>
+        <v>0.265215</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.149485</v>
+        <v>0.144726</v>
       </c>
       <c r="C6" t="n">
-        <v>0.279523</v>
+        <v>0.267601</v>
       </c>
       <c r="D6" t="n">
-        <v>0.311366</v>
+        <v>0.310383</v>
       </c>
       <c r="E6" t="n">
-        <v>0.123599</v>
+        <v>0.11633</v>
       </c>
       <c r="F6" t="n">
-        <v>0.265543</v>
+        <v>0.25779</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.149101</v>
+        <v>0.144531</v>
       </c>
       <c r="C7" t="n">
-        <v>0.277804</v>
+        <v>0.269743</v>
       </c>
       <c r="D7" t="n">
-        <v>0.422912</v>
+        <v>0.417549</v>
       </c>
       <c r="E7" t="n">
-        <v>0.118299</v>
+        <v>0.120072</v>
       </c>
       <c r="F7" t="n">
-        <v>0.251182</v>
+        <v>0.260132</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.151513</v>
+        <v>0.135214</v>
       </c>
       <c r="C8" t="n">
-        <v>0.275823</v>
+        <v>0.274184</v>
       </c>
       <c r="D8" t="n">
-        <v>0.40905</v>
+        <v>0.414716</v>
       </c>
       <c r="E8" t="n">
-        <v>0.11962</v>
+        <v>0.114997</v>
       </c>
       <c r="F8" t="n">
-        <v>0.260388</v>
+        <v>0.255938</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.155311</v>
+        <v>0.150233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.279825</v>
+        <v>0.274022</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4027</v>
+        <v>0.405281</v>
       </c>
       <c r="E9" t="n">
-        <v>0.187149</v>
+        <v>0.177058</v>
       </c>
       <c r="F9" t="n">
-        <v>0.326104</v>
+        <v>0.322994</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.217921</v>
+        <v>0.21265</v>
       </c>
       <c r="C10" t="n">
-        <v>0.338045</v>
+        <v>0.331258</v>
       </c>
       <c r="D10" t="n">
-        <v>0.404825</v>
+        <v>0.403274</v>
       </c>
       <c r="E10" t="n">
-        <v>0.175783</v>
+        <v>0.18196</v>
       </c>
       <c r="F10" t="n">
-        <v>0.317001</v>
+        <v>0.309882</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.20889</v>
+        <v>0.208175</v>
       </c>
       <c r="C11" t="n">
-        <v>0.330184</v>
+        <v>0.32872</v>
       </c>
       <c r="D11" t="n">
-        <v>0.392445</v>
+        <v>0.404871</v>
       </c>
       <c r="E11" t="n">
-        <v>0.16892</v>
+        <v>0.167767</v>
       </c>
       <c r="F11" t="n">
-        <v>0.313683</v>
+        <v>0.299873</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.199564</v>
+        <v>0.193885</v>
       </c>
       <c r="C12" t="n">
-        <v>0.32101</v>
+        <v>0.317069</v>
       </c>
       <c r="D12" t="n">
-        <v>0.395165</v>
+        <v>0.392881</v>
       </c>
       <c r="E12" t="n">
-        <v>0.17085</v>
+        <v>0.167196</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3007</v>
+        <v>0.301358</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.189971</v>
+        <v>0.197168</v>
       </c>
       <c r="C13" t="n">
-        <v>0.310563</v>
+        <v>0.3007</v>
       </c>
       <c r="D13" t="n">
-        <v>0.387986</v>
+        <v>0.383168</v>
       </c>
       <c r="E13" t="n">
-        <v>0.161701</v>
+        <v>0.155095</v>
       </c>
       <c r="F13" t="n">
-        <v>0.296364</v>
+        <v>0.290894</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.183827</v>
+        <v>0.180537</v>
       </c>
       <c r="C14" t="n">
-        <v>0.302857</v>
+        <v>0.299722</v>
       </c>
       <c r="D14" t="n">
-        <v>0.383609</v>
+        <v>0.3862</v>
       </c>
       <c r="E14" t="n">
-        <v>0.156823</v>
+        <v>0.148059</v>
       </c>
       <c r="F14" t="n">
-        <v>0.288691</v>
+        <v>0.288722</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.178812</v>
+        <v>0.173451</v>
       </c>
       <c r="C15" t="n">
-        <v>0.29777</v>
+        <v>0.298622</v>
       </c>
       <c r="D15" t="n">
-        <v>0.381011</v>
+        <v>0.377007</v>
       </c>
       <c r="E15" t="n">
-        <v>0.147453</v>
+        <v>0.15136</v>
       </c>
       <c r="F15" t="n">
-        <v>0.282377</v>
+        <v>0.282625</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.171186</v>
+        <v>0.170049</v>
       </c>
       <c r="C16" t="n">
-        <v>0.295786</v>
+        <v>0.289072</v>
       </c>
       <c r="D16" t="n">
-        <v>0.37573</v>
+        <v>0.369716</v>
       </c>
       <c r="E16" t="n">
-        <v>0.134957</v>
+        <v>0.135874</v>
       </c>
       <c r="F16" t="n">
-        <v>0.27643</v>
+        <v>0.27475</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.168822</v>
+        <v>0.165909</v>
       </c>
       <c r="C17" t="n">
-        <v>0.288503</v>
+        <v>0.285574</v>
       </c>
       <c r="D17" t="n">
-        <v>0.373453</v>
+        <v>0.370931</v>
       </c>
       <c r="E17" t="n">
-        <v>0.134354</v>
+        <v>0.136296</v>
       </c>
       <c r="F17" t="n">
-        <v>0.270758</v>
+        <v>0.265049</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.167201</v>
+        <v>0.161417</v>
       </c>
       <c r="C18" t="n">
-        <v>0.283824</v>
+        <v>0.273144</v>
       </c>
       <c r="D18" t="n">
-        <v>0.36965</v>
+        <v>0.36376</v>
       </c>
       <c r="E18" t="n">
-        <v>0.132809</v>
+        <v>0.138978</v>
       </c>
       <c r="F18" t="n">
-        <v>0.26353</v>
+        <v>0.260547</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.157624</v>
+        <v>0.156933</v>
       </c>
       <c r="C19" t="n">
-        <v>0.278187</v>
+        <v>0.270595</v>
       </c>
       <c r="D19" t="n">
-        <v>0.367773</v>
+        <v>0.362207</v>
       </c>
       <c r="E19" t="n">
-        <v>0.13053</v>
+        <v>0.133911</v>
       </c>
       <c r="F19" t="n">
-        <v>0.259011</v>
+        <v>0.262202</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.159188</v>
+        <v>0.153507</v>
       </c>
       <c r="C20" t="n">
-        <v>0.273187</v>
+        <v>0.27857</v>
       </c>
       <c r="D20" t="n">
-        <v>0.362329</v>
+        <v>0.357796</v>
       </c>
       <c r="E20" t="n">
-        <v>0.13001</v>
+        <v>0.136037</v>
       </c>
       <c r="F20" t="n">
-        <v>0.255965</v>
+        <v>0.255457</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.155949</v>
+        <v>0.153767</v>
       </c>
       <c r="C21" t="n">
-        <v>0.27296</v>
+        <v>0.268436</v>
       </c>
       <c r="D21" t="n">
-        <v>0.478707</v>
+        <v>0.470404</v>
       </c>
       <c r="E21" t="n">
-        <v>0.12491</v>
+        <v>0.128296</v>
       </c>
       <c r="F21" t="n">
-        <v>0.254097</v>
+        <v>0.255624</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.150788</v>
+        <v>0.15221</v>
       </c>
       <c r="C22" t="n">
-        <v>0.273153</v>
+        <v>0.268042</v>
       </c>
       <c r="D22" t="n">
-        <v>0.467031</v>
+        <v>0.459575</v>
       </c>
       <c r="E22" t="n">
-        <v>0.131098</v>
+        <v>0.120687</v>
       </c>
       <c r="F22" t="n">
-        <v>0.252313</v>
+        <v>0.250843</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.158009</v>
+        <v>0.153632</v>
       </c>
       <c r="C23" t="n">
-        <v>0.274667</v>
+        <v>0.269358</v>
       </c>
       <c r="D23" t="n">
-        <v>0.458555</v>
+        <v>0.45412</v>
       </c>
       <c r="E23" t="n">
-        <v>0.208565</v>
+        <v>0.211345</v>
       </c>
       <c r="F23" t="n">
-        <v>0.326193</v>
+        <v>0.324693</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239572</v>
+        <v>0.237534</v>
       </c>
       <c r="C24" t="n">
-        <v>0.339216</v>
+        <v>0.338551</v>
       </c>
       <c r="D24" t="n">
-        <v>0.450048</v>
+        <v>0.447071</v>
       </c>
       <c r="E24" t="n">
-        <v>0.20502</v>
+        <v>0.202023</v>
       </c>
       <c r="F24" t="n">
-        <v>0.319295</v>
+        <v>0.318057</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.233505</v>
+        <v>0.233156</v>
       </c>
       <c r="C25" t="n">
-        <v>0.330863</v>
+        <v>0.331363</v>
       </c>
       <c r="D25" t="n">
-        <v>0.446032</v>
+        <v>0.44026</v>
       </c>
       <c r="E25" t="n">
-        <v>0.197427</v>
+        <v>0.193492</v>
       </c>
       <c r="F25" t="n">
-        <v>0.308802</v>
+        <v>0.308109</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.221682</v>
+        <v>0.215842</v>
       </c>
       <c r="C26" t="n">
-        <v>0.32456</v>
+        <v>0.322269</v>
       </c>
       <c r="D26" t="n">
-        <v>0.43545</v>
+        <v>0.432675</v>
       </c>
       <c r="E26" t="n">
-        <v>0.185886</v>
+        <v>0.189338</v>
       </c>
       <c r="F26" t="n">
-        <v>0.301909</v>
+        <v>0.300883</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.216931</v>
+        <v>0.20694</v>
       </c>
       <c r="C27" t="n">
-        <v>0.317843</v>
+        <v>0.314751</v>
       </c>
       <c r="D27" t="n">
-        <v>0.430821</v>
+        <v>0.427102</v>
       </c>
       <c r="E27" t="n">
-        <v>0.178791</v>
+        <v>0.182338</v>
       </c>
       <c r="F27" t="n">
-        <v>0.296394</v>
+        <v>0.292723</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.207295</v>
+        <v>0.20536</v>
       </c>
       <c r="C28" t="n">
-        <v>0.311545</v>
+        <v>0.310427</v>
       </c>
       <c r="D28" t="n">
-        <v>0.421371</v>
+        <v>0.420979</v>
       </c>
       <c r="E28" t="n">
-        <v>0.173661</v>
+        <v>0.171083</v>
       </c>
       <c r="F28" t="n">
-        <v>0.289407</v>
+        <v>0.287892</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.199851</v>
+        <v>0.196428</v>
       </c>
       <c r="C29" t="n">
-        <v>0.305743</v>
+        <v>0.300995</v>
       </c>
       <c r="D29" t="n">
-        <v>0.41576</v>
+        <v>0.414054</v>
       </c>
       <c r="E29" t="n">
-        <v>0.167557</v>
+        <v>0.17075</v>
       </c>
       <c r="F29" t="n">
-        <v>0.282967</v>
+        <v>0.280773</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.19342</v>
+        <v>0.191098</v>
       </c>
       <c r="C30" t="n">
-        <v>0.298958</v>
+        <v>0.297725</v>
       </c>
       <c r="D30" t="n">
-        <v>0.408076</v>
+        <v>0.407414</v>
       </c>
       <c r="E30" t="n">
-        <v>0.160329</v>
+        <v>0.168479</v>
       </c>
       <c r="F30" t="n">
-        <v>0.276751</v>
+        <v>0.27467</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.18439</v>
+        <v>0.18735</v>
       </c>
       <c r="C31" t="n">
-        <v>0.292818</v>
+        <v>0.291179</v>
       </c>
       <c r="D31" t="n">
-        <v>0.40639</v>
+        <v>0.402744</v>
       </c>
       <c r="E31" t="n">
-        <v>0.151699</v>
+        <v>0.15556</v>
       </c>
       <c r="F31" t="n">
-        <v>0.271321</v>
+        <v>0.269551</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.181317</v>
+        <v>0.183802</v>
       </c>
       <c r="C32" t="n">
-        <v>0.288421</v>
+        <v>0.286752</v>
       </c>
       <c r="D32" t="n">
-        <v>0.400871</v>
+        <v>0.397629</v>
       </c>
       <c r="E32" t="n">
-        <v>0.152961</v>
+        <v>0.152139</v>
       </c>
       <c r="F32" t="n">
-        <v>0.265522</v>
+        <v>0.266766</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.17211</v>
+        <v>0.178098</v>
       </c>
       <c r="C33" t="n">
-        <v>0.284317</v>
+        <v>0.282689</v>
       </c>
       <c r="D33" t="n">
-        <v>0.396398</v>
+        <v>0.393235</v>
       </c>
       <c r="E33" t="n">
-        <v>0.14956</v>
+        <v>0.14885</v>
       </c>
       <c r="F33" t="n">
-        <v>0.26204</v>
+        <v>0.260561</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.175422</v>
+        <v>0.17446</v>
       </c>
       <c r="C34" t="n">
-        <v>0.280633</v>
+        <v>0.280264</v>
       </c>
       <c r="D34" t="n">
-        <v>0.392853</v>
+        <v>0.390772</v>
       </c>
       <c r="E34" t="n">
-        <v>0.143716</v>
+        <v>0.149529</v>
       </c>
       <c r="F34" t="n">
-        <v>0.26105</v>
+        <v>0.259653</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.170257</v>
+        <v>0.165342</v>
       </c>
       <c r="C35" t="n">
-        <v>0.279402</v>
+        <v>0.277244</v>
       </c>
       <c r="D35" t="n">
-        <v>0.502404</v>
+        <v>0.499069</v>
       </c>
       <c r="E35" t="n">
-        <v>0.145367</v>
+        <v>0.147298</v>
       </c>
       <c r="F35" t="n">
-        <v>0.258609</v>
+        <v>0.256876</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.168721</v>
+        <v>0.172879</v>
       </c>
       <c r="C36" t="n">
-        <v>0.27859</v>
+        <v>0.276268</v>
       </c>
       <c r="D36" t="n">
-        <v>0.490017</v>
+        <v>0.489603</v>
       </c>
       <c r="E36" t="n">
-        <v>0.14388</v>
+        <v>0.140199</v>
       </c>
       <c r="F36" t="n">
-        <v>0.257557</v>
+        <v>0.256077</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170443</v>
+        <v>0.170899</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2806</v>
+        <v>0.279106</v>
       </c>
       <c r="D37" t="n">
-        <v>0.48041</v>
+        <v>0.478338</v>
       </c>
       <c r="E37" t="n">
-        <v>0.229553</v>
+        <v>0.226688</v>
       </c>
       <c r="F37" t="n">
-        <v>0.338263</v>
+        <v>0.333956</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244751</v>
+        <v>0.243519</v>
       </c>
       <c r="C38" t="n">
-        <v>0.355567</v>
+        <v>0.350887</v>
       </c>
       <c r="D38" t="n">
-        <v>0.470589</v>
+        <v>0.468408</v>
       </c>
       <c r="E38" t="n">
-        <v>0.220184</v>
+        <v>0.218977</v>
       </c>
       <c r="F38" t="n">
-        <v>0.329801</v>
+        <v>0.328656</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.23458</v>
+        <v>0.235739</v>
       </c>
       <c r="C39" t="n">
-        <v>0.347905</v>
+        <v>0.342138</v>
       </c>
       <c r="D39" t="n">
-        <v>0.460712</v>
+        <v>0.458836</v>
       </c>
       <c r="E39" t="n">
-        <v>0.211264</v>
+        <v>0.20866</v>
       </c>
       <c r="F39" t="n">
-        <v>0.320294</v>
+        <v>0.319711</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226496</v>
+        <v>0.226184</v>
       </c>
       <c r="C40" t="n">
-        <v>0.338255</v>
+        <v>0.335723</v>
       </c>
       <c r="D40" t="n">
-        <v>0.453768</v>
+        <v>0.450989</v>
       </c>
       <c r="E40" t="n">
-        <v>0.204206</v>
+        <v>0.201762</v>
       </c>
       <c r="F40" t="n">
-        <v>0.312453</v>
+        <v>0.311217</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.218644</v>
+        <v>0.217612</v>
       </c>
       <c r="C41" t="n">
-        <v>0.331257</v>
+        <v>0.329732</v>
       </c>
       <c r="D41" t="n">
-        <v>0.445741</v>
+        <v>0.443126</v>
       </c>
       <c r="E41" t="n">
-        <v>0.195933</v>
+        <v>0.192478</v>
       </c>
       <c r="F41" t="n">
-        <v>0.306578</v>
+        <v>0.303428</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.210738</v>
+        <v>0.210224</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3249</v>
+        <v>0.321421</v>
       </c>
       <c r="D42" t="n">
-        <v>0.437832</v>
+        <v>0.435785</v>
       </c>
       <c r="E42" t="n">
-        <v>0.188589</v>
+        <v>0.186988</v>
       </c>
       <c r="F42" t="n">
-        <v>0.299659</v>
+        <v>0.297093</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.20243</v>
+        <v>0.203146</v>
       </c>
       <c r="C43" t="n">
-        <v>0.318014</v>
+        <v>0.314768</v>
       </c>
       <c r="D43" t="n">
-        <v>0.431599</v>
+        <v>0.429409</v>
       </c>
       <c r="E43" t="n">
-        <v>0.182125</v>
+        <v>0.178024</v>
       </c>
       <c r="F43" t="n">
-        <v>0.294097</v>
+        <v>0.290932</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.199177</v>
+        <v>0.196315</v>
       </c>
       <c r="C44" t="n">
-        <v>0.313383</v>
+        <v>0.311083</v>
       </c>
       <c r="D44" t="n">
-        <v>0.427385</v>
+        <v>0.423314</v>
       </c>
       <c r="E44" t="n">
-        <v>0.176595</v>
+        <v>0.174088</v>
       </c>
       <c r="F44" t="n">
-        <v>0.286095</v>
+        <v>0.285098</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.19029</v>
+        <v>0.190153</v>
       </c>
       <c r="C45" t="n">
-        <v>0.306977</v>
+        <v>0.304929</v>
       </c>
       <c r="D45" t="n">
-        <v>0.421215</v>
+        <v>0.418247</v>
       </c>
       <c r="E45" t="n">
-        <v>0.172029</v>
+        <v>0.168591</v>
       </c>
       <c r="F45" t="n">
-        <v>0.282017</v>
+        <v>0.27903</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.184957</v>
+        <v>0.184657</v>
       </c>
       <c r="C46" t="n">
-        <v>0.303759</v>
+        <v>0.300394</v>
       </c>
       <c r="D46" t="n">
-        <v>0.415137</v>
+        <v>0.413567</v>
       </c>
       <c r="E46" t="n">
-        <v>0.164289</v>
+        <v>0.162603</v>
       </c>
       <c r="F46" t="n">
-        <v>0.274808</v>
+        <v>0.274035</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.178881</v>
+        <v>0.1803</v>
       </c>
       <c r="C47" t="n">
-        <v>0.298569</v>
+        <v>0.296889</v>
       </c>
       <c r="D47" t="n">
-        <v>0.410316</v>
+        <v>0.409168</v>
       </c>
       <c r="E47" t="n">
-        <v>0.159928</v>
+        <v>0.158196</v>
       </c>
       <c r="F47" t="n">
-        <v>0.270098</v>
+        <v>0.269945</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.176036</v>
+        <v>0.176252</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294998</v>
+        <v>0.292428</v>
       </c>
       <c r="D48" t="n">
-        <v>0.407009</v>
+        <v>0.405413</v>
       </c>
       <c r="E48" t="n">
-        <v>0.155614</v>
+        <v>0.153845</v>
       </c>
       <c r="F48" t="n">
-        <v>0.267177</v>
+        <v>0.267138</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173574</v>
+        <v>0.173622</v>
       </c>
       <c r="C49" t="n">
-        <v>0.292872</v>
+        <v>0.292375</v>
       </c>
       <c r="D49" t="n">
-        <v>0.403338</v>
+        <v>0.401197</v>
       </c>
       <c r="E49" t="n">
-        <v>0.152676</v>
+        <v>0.151233</v>
       </c>
       <c r="F49" t="n">
-        <v>0.266359</v>
+        <v>0.264496</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172281</v>
+        <v>0.172527</v>
       </c>
       <c r="C50" t="n">
-        <v>0.292207</v>
+        <v>0.289321</v>
       </c>
       <c r="D50" t="n">
-        <v>0.509697</v>
+        <v>0.5071909999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.15212</v>
+        <v>0.149689</v>
       </c>
       <c r="F50" t="n">
-        <v>0.265673</v>
+        <v>0.264286</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17217</v>
+        <v>0.173091</v>
       </c>
       <c r="C51" t="n">
-        <v>0.294013</v>
+        <v>0.291968</v>
       </c>
       <c r="D51" t="n">
-        <v>0.497821</v>
+        <v>0.496206</v>
       </c>
       <c r="E51" t="n">
-        <v>0.238275</v>
+        <v>0.234569</v>
       </c>
       <c r="F51" t="n">
-        <v>0.343143</v>
+        <v>0.341632</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175252</v>
+        <v>0.175876</v>
       </c>
       <c r="C52" t="n">
-        <v>0.299061</v>
+        <v>0.296772</v>
       </c>
       <c r="D52" t="n">
-        <v>0.488075</v>
+        <v>0.484829</v>
       </c>
       <c r="E52" t="n">
-        <v>0.229363</v>
+        <v>0.225995</v>
       </c>
       <c r="F52" t="n">
-        <v>0.333673</v>
+        <v>0.332615</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242359</v>
+        <v>0.241404</v>
       </c>
       <c r="C53" t="n">
-        <v>0.358201</v>
+        <v>0.354967</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4786</v>
+        <v>0.476424</v>
       </c>
       <c r="E53" t="n">
-        <v>0.219725</v>
+        <v>0.216823</v>
       </c>
       <c r="F53" t="n">
-        <v>0.326763</v>
+        <v>0.324173</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233633</v>
+        <v>0.232164</v>
       </c>
       <c r="C54" t="n">
-        <v>0.350165</v>
+        <v>0.348688</v>
       </c>
       <c r="D54" t="n">
-        <v>0.46991</v>
+        <v>0.466232</v>
       </c>
       <c r="E54" t="n">
-        <v>0.211438</v>
+        <v>0.208913</v>
       </c>
       <c r="F54" t="n">
-        <v>0.31856</v>
+        <v>0.316835</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.225287</v>
+        <v>0.224417</v>
       </c>
       <c r="C55" t="n">
-        <v>0.346405</v>
+        <v>0.342371</v>
       </c>
       <c r="D55" t="n">
-        <v>0.461763</v>
+        <v>0.459518</v>
       </c>
       <c r="E55" t="n">
-        <v>0.204148</v>
+        <v>0.201012</v>
       </c>
       <c r="F55" t="n">
-        <v>0.313363</v>
+        <v>0.310545</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217623</v>
+        <v>0.216077</v>
       </c>
       <c r="C56" t="n">
-        <v>0.339391</v>
+        <v>0.336227</v>
       </c>
       <c r="D56" t="n">
-        <v>0.453764</v>
+        <v>0.452223</v>
       </c>
       <c r="E56" t="n">
-        <v>0.195706</v>
+        <v>0.193604</v>
       </c>
       <c r="F56" t="n">
-        <v>0.305843</v>
+        <v>0.303251</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.209764</v>
+        <v>0.209118</v>
       </c>
       <c r="C57" t="n">
-        <v>0.332263</v>
+        <v>0.329381</v>
       </c>
       <c r="D57" t="n">
-        <v>0.448238</v>
+        <v>0.445324</v>
       </c>
       <c r="E57" t="n">
-        <v>0.18853</v>
+        <v>0.186778</v>
       </c>
       <c r="F57" t="n">
-        <v>0.299457</v>
+        <v>0.297345</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.202807</v>
+        <v>0.20153</v>
       </c>
       <c r="C58" t="n">
-        <v>0.326606</v>
+        <v>0.323007</v>
       </c>
       <c r="D58" t="n">
-        <v>0.443467</v>
+        <v>0.440939</v>
       </c>
       <c r="E58" t="n">
-        <v>0.181719</v>
+        <v>0.179527</v>
       </c>
       <c r="F58" t="n">
-        <v>0.293011</v>
+        <v>0.290367</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196939</v>
+        <v>0.195574</v>
       </c>
       <c r="C59" t="n">
-        <v>0.321911</v>
+        <v>0.318334</v>
       </c>
       <c r="D59" t="n">
-        <v>0.437093</v>
+        <v>0.435049</v>
       </c>
       <c r="E59" t="n">
-        <v>0.176226</v>
+        <v>0.173977</v>
       </c>
       <c r="F59" t="n">
-        <v>0.28747</v>
+        <v>0.284893</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.190954</v>
+        <v>0.189657</v>
       </c>
       <c r="C60" t="n">
-        <v>0.316137</v>
+        <v>0.313348</v>
       </c>
       <c r="D60" t="n">
-        <v>0.432436</v>
+        <v>0.429688</v>
       </c>
       <c r="E60" t="n">
-        <v>0.170096</v>
+        <v>0.168431</v>
       </c>
       <c r="F60" t="n">
-        <v>0.282181</v>
+        <v>0.279712</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.185913</v>
+        <v>0.185268</v>
       </c>
       <c r="C61" t="n">
-        <v>0.311535</v>
+        <v>0.309477</v>
       </c>
       <c r="D61" t="n">
-        <v>0.427849</v>
+        <v>0.424935</v>
       </c>
       <c r="E61" t="n">
-        <v>0.165105</v>
+        <v>0.163767</v>
       </c>
       <c r="F61" t="n">
-        <v>0.277485</v>
+        <v>0.275228</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181637</v>
+        <v>0.181352</v>
       </c>
       <c r="C62" t="n">
-        <v>0.308817</v>
+        <v>0.305473</v>
       </c>
       <c r="D62" t="n">
-        <v>0.424927</v>
+        <v>0.421929</v>
       </c>
       <c r="E62" t="n">
-        <v>0.161663</v>
+        <v>0.159716</v>
       </c>
       <c r="F62" t="n">
-        <v>0.273813</v>
+        <v>0.271631</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178846</v>
+        <v>0.178106</v>
       </c>
       <c r="C63" t="n">
-        <v>0.305874</v>
+        <v>0.303746</v>
       </c>
       <c r="D63" t="n">
-        <v>0.421695</v>
+        <v>0.41879</v>
       </c>
       <c r="E63" t="n">
-        <v>0.158103</v>
+        <v>0.157204</v>
       </c>
       <c r="F63" t="n">
-        <v>0.27139</v>
+        <v>0.269536</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177112</v>
+        <v>0.176686</v>
       </c>
       <c r="C64" t="n">
-        <v>0.306443</v>
+        <v>0.301989</v>
       </c>
       <c r="D64" t="n">
-        <v>0.545505</v>
+        <v>0.54383</v>
       </c>
       <c r="E64" t="n">
-        <v>0.155927</v>
+        <v>0.154665</v>
       </c>
       <c r="F64" t="n">
-        <v>0.269864</v>
+        <v>0.268068</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177178</v>
+        <v>0.178277</v>
       </c>
       <c r="C65" t="n">
-        <v>0.306657</v>
+        <v>0.305289</v>
       </c>
       <c r="D65" t="n">
-        <v>0.535337</v>
+        <v>0.535174</v>
       </c>
       <c r="E65" t="n">
-        <v>0.15619</v>
+        <v>0.157272</v>
       </c>
       <c r="F65" t="n">
-        <v>0.271541</v>
+        <v>0.270546</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179497</v>
+        <v>0.181625</v>
       </c>
       <c r="C66" t="n">
-        <v>0.310422</v>
+        <v>0.308474</v>
       </c>
       <c r="D66" t="n">
-        <v>0.525013</v>
+        <v>0.5253</v>
       </c>
       <c r="E66" t="n">
-        <v>0.237609</v>
+        <v>0.236854</v>
       </c>
       <c r="F66" t="n">
-        <v>0.345903</v>
+        <v>0.343347</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244587</v>
+        <v>0.243782</v>
       </c>
       <c r="C67" t="n">
-        <v>0.379385</v>
+        <v>0.37419</v>
       </c>
       <c r="D67" t="n">
-        <v>0.517701</v>
+        <v>0.5137080000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>0.227634</v>
+        <v>0.22655</v>
       </c>
       <c r="F67" t="n">
-        <v>0.337606</v>
+        <v>0.334933</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235459</v>
+        <v>0.235098</v>
       </c>
       <c r="C68" t="n">
-        <v>0.370327</v>
+        <v>0.366452</v>
       </c>
       <c r="D68" t="n">
-        <v>0.510203</v>
+        <v>0.504121</v>
       </c>
       <c r="E68" t="n">
-        <v>0.219518</v>
+        <v>0.217398</v>
       </c>
       <c r="F68" t="n">
-        <v>0.329573</v>
+        <v>0.326197</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227528</v>
+        <v>0.2271</v>
       